--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.019845</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0198904</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0199411</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0199892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201312</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0202981</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0205168</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0208663</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194247</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0196249</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0198597</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019879</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0201309</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201944</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204396</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204292</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206016</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0208694</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0208716</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.021266</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0221654</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0254766</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.0204662</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0205747</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0208946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211401</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213119</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0214143</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0217806</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0218731</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0220813</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.022994</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0248609</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0303561</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0334795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0213853</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0215081</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0216916</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0218279</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0223725</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.0226982</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0230858</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0235639</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0246222</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0261523</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.028148</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0310283</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0349552</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0411047</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0235334</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0233996</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0240147</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0237518</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0243179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0246823</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.0250545</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0256238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0266776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0281548</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0303362</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0330569</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0370665</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0420454</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0292569</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0293821</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.0294515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0297582</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0298101</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0302477</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0307674</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0314948</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0322669</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0336498</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.0353674</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0379218</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0413547</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.045947</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0557759</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0559223</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0561782</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0562248</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0564335</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0568433</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0571164</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0573685</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0579423</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0585424</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.0597217</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0613516</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.0637716</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.0674956</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.0857108</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085729</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.08582099999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.085891</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.08591310000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.0952533</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0900392</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.0865544</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.08702120000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08758929999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0884514</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.08982080000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0916886</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0949089</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.09997010000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107963</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.108243</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.108225</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10822</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.108618</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108608</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.109047</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109454</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110007</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.110855</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.112081</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.113914</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.116949</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.121459</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.134045</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141735</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.14386</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141993</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.141564</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.141767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.142252</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.142466</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.143005</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.143627</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.144639</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.146121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.148787</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.153145</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.160222</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.15805</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.158093</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158066</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158317</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158434</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0207816</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0208667</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0208241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.0207476</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.020652</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.0209277</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0208354</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.021057</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0207722</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0211993</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.021061</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0212452</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0215641</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0219941</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0221573</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.022048</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.022091</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0224619</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0229443</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0236086</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0218909</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0220636</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0222406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0225907</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.022887</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0230842</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0234928</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.0237357</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0239547</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.0241213</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.0246092</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.0256069</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.0258742</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0314078</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0231422</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0232697</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0236008</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0239637</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0241731</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.024655</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.0250199</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0254471</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.0257887</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.026411</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.0273266</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.0288305</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.0310001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0354398</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0403807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0246173</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0249205</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0252809</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.0256266</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.0260148</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.0264257</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.0269137</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.0274746</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.0282353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.0295079</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.0309257</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.0332921</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0365299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0415142</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0269617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0268134</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.0271091</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.028098</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.028241</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0283238</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.0289933</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.0297943</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.0305728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.0318959</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.0330477</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.0355949</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.0380312</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0422199</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0358291</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0366934</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0371542</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0385504</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0397275</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.0406958</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.0420235</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.043628</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.0448497</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.0467952</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.0485398</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.050625</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.0531723</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.0575467</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0690796</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0695586</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.07006270000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.0706492</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.0712165</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.0719084</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.0726926</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.073481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.0744592</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.0757119</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.0771091</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.0789149</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.08129740000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.085034</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.0910459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.08287219999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.08375249999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.0846664</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.0856579</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.08681120000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.08786919999999999</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.0892593</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.0907998</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.0923614</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.0942355</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.096293</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.0990901</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.102927</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.108871</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.0958808</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.09704169999999999</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.0989488</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.100162</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.101129</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.102743</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.10443</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.106431</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.108216</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.110255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.112815</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.11575</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.119701</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.126693</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.109886</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.111216</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.112687</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.114154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.115713</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0197621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0199124</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.0199636</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0200411</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0201853</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0205493</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0212255</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0196114</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0196542</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0197311</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0200198</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0202983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0206514</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0208261</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0213814</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.021683</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0218647</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0217385</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0221793</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0234999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.025596</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0208572</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0211474</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0213952</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0216285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0219129</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0221909</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0226314</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.02287</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0232938</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.0236459</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0243776</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0256094</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0280099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0318825</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0222322</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0224761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0226406</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0229219</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0232372</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0235604</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0239217</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0243675</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0249258</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0256372</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0267547</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0285161</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0309254</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.03463</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0230982</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0233375</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.023593</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0238201</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0241227</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.024922</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0253022</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0259853</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0267356</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.0278598</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0296228</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0320613</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0356651</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0410615</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0247871</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0249031</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0256338</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0258881</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0259173</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0262823</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0271444</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0274852</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0283927</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0298077</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0311471</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0336077</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0368424</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0414916</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0365337</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.037033</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0385276</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0385709</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0392564</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.0399463</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.040702</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.041626</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0423938</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0433475</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0447666</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0465736</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0493242</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.0542457</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.07123119999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.071656</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.0721349</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.07265770000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0729856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0736991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0742898</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.07498199999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.07573630000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.0766086</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.077876</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.07924580000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.08156239999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0852509</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.08773590000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0884414</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0892877</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0899992</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.0907741</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.0918117</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.092913</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.09400500000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.100748</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.09656720000000001</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.0981248</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.100153</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.10274</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.106587</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.112472</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.106248</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.107515</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.108771</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.110258</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.111363</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.112139</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.113529</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.114912</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.116482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.120533</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.123365</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.127277</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.133589</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.119571</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.123522</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.120321</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.121365</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.122535</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.123827</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.125232</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.019845</v>
+        <v>0.0197711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0207816</v>
+        <v>0.020715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0197621</v>
+        <v>0.020537</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0198904</v>
+        <v>0.0197667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0208667</v>
+        <v>0.020826</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0199124</v>
+        <v>0.0204943</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0199411</v>
+        <v>0.0197739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0208241</v>
+        <v>0.0208136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0199636</v>
+        <v>0.0206768</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0199892</v>
+        <v>0.0198361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0207476</v>
+        <v>0.0209391</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0200411</v>
+        <v>0.0208755</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0201312</v>
+        <v>0.0199141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.020652</v>
+        <v>0.0212079</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0201853</v>
+        <v>0.021363</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0202981</v>
+        <v>0.0200779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0209277</v>
+        <v>0.0215137</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0205493</v>
+        <v>0.0217653</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0205168</v>
+        <v>0.0201852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0208354</v>
+        <v>0.0221878</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0212255</v>
+        <v>0.0224284</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0208663</v>
+        <v>0.0203019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.021057</v>
+        <v>0.0203534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0196114</v>
+        <v>0.0203544</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194247</v>
+        <v>0.0193882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0207722</v>
+        <v>0.0207187</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0196542</v>
+        <v>0.0206856</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196249</v>
+        <v>0.0196749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0211993</v>
+        <v>0.0208979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197311</v>
+        <v>0.0204952</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198597</v>
+        <v>0.0198108</v>
       </c>
       <c r="C12" t="n">
-        <v>0.021061</v>
+        <v>0.0211804</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0200198</v>
+        <v>0.0208169</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019879</v>
+        <v>0.0199649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0212452</v>
+        <v>0.0215076</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0202983</v>
+        <v>0.0211732</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0201309</v>
+        <v>0.0199978</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0215641</v>
+        <v>0.0218453</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0206514</v>
+        <v>0.0210964</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201944</v>
+        <v>0.0203454</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219941</v>
+        <v>0.0220053</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0208261</v>
+        <v>0.0217412</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0204396</v>
+        <v>0.0202828</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0221573</v>
+        <v>0.0222403</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0213814</v>
+        <v>0.021647</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204292</v>
+        <v>0.0204158</v>
       </c>
       <c r="C17" t="n">
-        <v>0.022048</v>
+        <v>0.0225571</v>
       </c>
       <c r="D17" t="n">
-        <v>0.021683</v>
+        <v>0.0218875</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0206016</v>
+        <v>0.0204693</v>
       </c>
       <c r="C18" t="n">
-        <v>0.022091</v>
+        <v>0.0227402</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0218647</v>
+        <v>0.0224416</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0208694</v>
+        <v>0.0208071</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0223514</v>
+        <v>0.0229233</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0217385</v>
+        <v>0.0230503</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0208716</v>
+        <v>0.0207501</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0224619</v>
+        <v>0.0232985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0221793</v>
+        <v>0.0234093</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.021266</v>
+        <v>0.0211626</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0226031</v>
+        <v>0.0243983</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0234999</v>
+        <v>0.0248123</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0221654</v>
+        <v>0.0214776</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0229443</v>
+        <v>0.0271339</v>
       </c>
       <c r="D22" t="n">
-        <v>0.025596</v>
+        <v>0.0275047</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0254766</v>
+        <v>0.0231091</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0236086</v>
+        <v>0.0215944</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0208572</v>
+        <v>0.0214452</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204662</v>
+        <v>0.0207336</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218909</v>
+        <v>0.0218314</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0211474</v>
+        <v>0.021524</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205747</v>
+        <v>0.0207176</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220636</v>
+        <v>0.0221065</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0213952</v>
+        <v>0.0219151</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207285</v>
+        <v>0.0208489</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222406</v>
+        <v>0.0223019</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0216285</v>
+        <v>0.0221326</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208946</v>
+        <v>0.0210309</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0225907</v>
+        <v>0.0227103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0219129</v>
+        <v>0.0223764</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0211401</v>
+        <v>0.02115</v>
       </c>
       <c r="C28" t="n">
-        <v>0.022887</v>
+        <v>0.0229929</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0221909</v>
+        <v>0.0227524</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213119</v>
+        <v>0.0214084</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0230842</v>
+        <v>0.0233404</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0226314</v>
+        <v>0.0231218</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214143</v>
+        <v>0.0214516</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0234928</v>
+        <v>0.0236681</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02287</v>
+        <v>0.0234361</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0217806</v>
+        <v>0.0217427</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0237357</v>
+        <v>0.0240337</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0232938</v>
+        <v>0.0238447</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0218731</v>
+        <v>0.0218176</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0239547</v>
+        <v>0.0244898</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0236459</v>
+        <v>0.0243289</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0220813</v>
+        <v>0.0221152</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0241213</v>
+        <v>0.0254166</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0243776</v>
+        <v>0.0254605</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.022994</v>
+        <v>0.0229137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0246092</v>
+        <v>0.0272756</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0256094</v>
+        <v>0.0265929</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0248609</v>
+        <v>0.02552</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0256069</v>
+        <v>0.029056</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0280099</v>
+        <v>0.0298589</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0303561</v>
+        <v>0.0269029</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0258742</v>
+        <v>0.0337134</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0318825</v>
+        <v>0.034015</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0334795</v>
+        <v>0.0309284</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0314078</v>
+        <v>0.0227531</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0222322</v>
+        <v>0.0227569</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0213853</v>
+        <v>0.0216594</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0231422</v>
+        <v>0.0230222</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0224761</v>
+        <v>0.0230434</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215081</v>
+        <v>0.0217907</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232697</v>
+        <v>0.0233018</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0226406</v>
+        <v>0.0232723</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0216916</v>
+        <v>0.0219488</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0236008</v>
+        <v>0.0235125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0229219</v>
+        <v>0.0236482</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218279</v>
+        <v>0.0220611</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239637</v>
+        <v>0.0238275</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0232372</v>
+        <v>0.0238272</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219942</v>
+        <v>0.022135</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0241731</v>
+        <v>0.0241936</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0235604</v>
+        <v>0.0241683</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223725</v>
+        <v>0.0225145</v>
       </c>
       <c r="C43" t="n">
-        <v>0.024655</v>
+        <v>0.0245315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0239217</v>
+        <v>0.0245379</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226982</v>
+        <v>0.0226597</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0250199</v>
+        <v>0.0250615</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0243675</v>
+        <v>0.0250235</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230858</v>
+        <v>0.0230529</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0254471</v>
+        <v>0.0255698</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0249258</v>
+        <v>0.0255786</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235639</v>
+        <v>0.0233959</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0257887</v>
+        <v>0.0263428</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0256372</v>
+        <v>0.0264304</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0246222</v>
+        <v>0.0240768</v>
       </c>
       <c r="C47" t="n">
-        <v>0.026411</v>
+        <v>0.0273554</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0267547</v>
+        <v>0.0278039</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0261523</v>
+        <v>0.025179</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0273266</v>
+        <v>0.0299213</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0285161</v>
+        <v>0.0294389</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.028148</v>
+        <v>0.0271378</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0288305</v>
+        <v>0.0318791</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0309254</v>
+        <v>0.0321202</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0310283</v>
+        <v>0.0294922</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0310001</v>
+        <v>0.0360285</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03463</v>
+        <v>0.0366513</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0349552</v>
+        <v>0.034441</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0354398</v>
+        <v>0.0233928</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0230982</v>
+        <v>0.0235101</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0411047</v>
+        <v>0.0389116</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0403807</v>
+        <v>0.0236159</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0233375</v>
+        <v>0.0237332</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0235334</v>
+        <v>0.0235128</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0246173</v>
+        <v>0.023868</v>
       </c>
       <c r="D53" t="n">
-        <v>0.023593</v>
+        <v>0.0239365</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233996</v>
+        <v>0.0233061</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0249205</v>
+        <v>0.0241365</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0238201</v>
+        <v>0.0242084</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0240147</v>
+        <v>0.0234749</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0252809</v>
+        <v>0.0244937</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0241227</v>
+        <v>0.0245326</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237518</v>
+        <v>0.023719</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256266</v>
+        <v>0.0248464</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0244723</v>
+        <v>0.0249243</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0243179</v>
+        <v>0.0239849</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0260148</v>
+        <v>0.0252408</v>
       </c>
       <c r="D57" t="n">
-        <v>0.024922</v>
+        <v>0.0254711</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0246823</v>
+        <v>0.0244933</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0264257</v>
+        <v>0.025797</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0253022</v>
+        <v>0.0259723</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0250545</v>
+        <v>0.0249166</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0269137</v>
+        <v>0.0264834</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0259853</v>
+        <v>0.0266373</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0256238</v>
+        <v>0.0255278</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0274746</v>
+        <v>0.027424</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0267356</v>
+        <v>0.0275428</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0266776</v>
+        <v>0.0263434</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0282353</v>
+        <v>0.0286806</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0278598</v>
+        <v>0.0288387</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0281548</v>
+        <v>0.0277728</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0295079</v>
+        <v>0.030413</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0296228</v>
+        <v>0.0304666</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0303362</v>
+        <v>0.0294806</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0309257</v>
+        <v>0.0332496</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0320613</v>
+        <v>0.0330271</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0330569</v>
+        <v>0.032111</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0332921</v>
+        <v>0.0370474</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0356651</v>
+        <v>0.0370539</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0370665</v>
+        <v>0.0356706</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0365299</v>
+        <v>0.042708</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0410615</v>
+        <v>0.0429774</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0420454</v>
+        <v>0.0410208</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0415142</v>
+        <v>0.0254779</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0247871</v>
+        <v>0.0254836</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0292569</v>
+        <v>0.0279881</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0269617</v>
+        <v>0.0257716</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0249031</v>
+        <v>0.0257603</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0293821</v>
+        <v>0.0281656</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0268134</v>
+        <v>0.0260374</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0256338</v>
+        <v>0.0261479</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0294515</v>
+        <v>0.0282629</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0271091</v>
+        <v>0.0263384</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0258881</v>
+        <v>0.0263946</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0297582</v>
+        <v>0.0282667</v>
       </c>
       <c r="C70" t="n">
-        <v>0.028098</v>
+        <v>0.0267699</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0259173</v>
+        <v>0.026509</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0298101</v>
+        <v>0.0286004</v>
       </c>
       <c r="C71" t="n">
-        <v>0.028241</v>
+        <v>0.0269906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0262823</v>
+        <v>0.0266561</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302477</v>
+        <v>0.0289128</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0283238</v>
+        <v>0.0276878</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0271444</v>
+        <v>0.0274429</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0307674</v>
+        <v>0.0291843</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0289933</v>
+        <v>0.0284178</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0274852</v>
+        <v>0.028505</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0314948</v>
+        <v>0.0298613</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0297943</v>
+        <v>0.0292629</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0283927</v>
+        <v>0.0295169</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0322669</v>
+        <v>0.0309231</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0305728</v>
+        <v>0.0310268</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0298077</v>
+        <v>0.0303023</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0336498</v>
+        <v>0.0320019</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0318959</v>
+        <v>0.0323228</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0311471</v>
+        <v>0.0321172</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0353674</v>
+        <v>0.033727</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0330477</v>
+        <v>0.034689</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0336077</v>
+        <v>0.0348674</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0379218</v>
+        <v>0.0363283</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0355949</v>
+        <v>0.0381815</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0368424</v>
+        <v>0.0384104</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0413547</v>
+        <v>0.040095</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0380312</v>
+        <v>0.0434496</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0414916</v>
+        <v>0.0438553</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.045947</v>
+        <v>0.0446519</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0422199</v>
+        <v>0.0373098</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0365337</v>
+        <v>0.0376681</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0557759</v>
+        <v>0.0569763</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0358291</v>
+        <v>0.0379859</v>
       </c>
       <c r="D81" t="n">
-        <v>0.037033</v>
+        <v>0.038134</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0559223</v>
+        <v>0.055052</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0366934</v>
+        <v>0.0387565</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0385276</v>
+        <v>0.0392366</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0561782</v>
+        <v>0.0554779</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0371542</v>
+        <v>0.0395397</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0385709</v>
+        <v>0.0399097</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0562248</v>
+        <v>0.0554361</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0385504</v>
+        <v>0.0402215</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0392564</v>
+        <v>0.0402467</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0564335</v>
+        <v>0.0582494</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0397275</v>
+        <v>0.0417848</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0399463</v>
+        <v>0.0414456</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0568433</v>
+        <v>0.0559726</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0406958</v>
+        <v>0.0417123</v>
       </c>
       <c r="D86" t="n">
-        <v>0.040702</v>
+        <v>0.0424104</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0571164</v>
+        <v>0.0561983</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0420235</v>
+        <v>0.042535</v>
       </c>
       <c r="D87" t="n">
-        <v>0.041626</v>
+        <v>0.0425968</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0573685</v>
+        <v>0.0567111</v>
       </c>
       <c r="C88" t="n">
-        <v>0.043628</v>
+        <v>0.0434258</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0423938</v>
+        <v>0.0439238</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0579423</v>
+        <v>0.0571787</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0448497</v>
+        <v>0.0444242</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0433475</v>
+        <v>0.0447885</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0585424</v>
+        <v>0.0579226</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0467952</v>
+        <v>0.0457592</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0447666</v>
+        <v>0.0461334</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0597217</v>
+        <v>0.0591188</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0485398</v>
+        <v>0.0476152</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0465736</v>
+        <v>0.0479865</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0613516</v>
+        <v>0.0606361</v>
       </c>
       <c r="C92" t="n">
-        <v>0.050625</v>
+        <v>0.0505611</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0493242</v>
+        <v>0.0507386</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0637716</v>
+        <v>0.0632761</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0531723</v>
+        <v>0.0550139</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0542457</v>
+        <v>0.0553407</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0674956</v>
+        <v>0.0672416</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0575467</v>
+        <v>0.071655</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07123119999999999</v>
+        <v>0.0716123</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0857108</v>
+        <v>0.08585429999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0690796</v>
+        <v>0.0721136</v>
       </c>
       <c r="D95" t="n">
-        <v>0.071656</v>
+        <v>0.0719974</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.085729</v>
+        <v>0.08579009999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0695586</v>
+        <v>0.0726376</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0721349</v>
+        <v>0.0726487</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08582099999999999</v>
+        <v>0.0857913</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07006270000000001</v>
+        <v>0.07314370000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07265770000000001</v>
+        <v>0.0729004</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.085891</v>
+        <v>0.0859182</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0706492</v>
+        <v>0.0736817</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0729856</v>
+        <v>0.07329280000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08591310000000001</v>
+        <v>0.0860151</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0712165</v>
+        <v>0.0744016</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0736991</v>
+        <v>0.0740649</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0952533</v>
+        <v>0.08616559999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0719084</v>
+        <v>0.0750765</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0742898</v>
+        <v>0.0746671</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0900392</v>
+        <v>0.0863754</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0726926</v>
+        <v>0.0758953</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07498199999999999</v>
+        <v>0.07531649999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0865544</v>
+        <v>0.0864983</v>
       </c>
       <c r="C102" t="n">
-        <v>0.073481</v>
+        <v>0.0790047</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07573630000000001</v>
+        <v>0.0764064</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08702120000000001</v>
+        <v>0.0870713</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0744592</v>
+        <v>0.07904129999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0766086</v>
+        <v>0.07743940000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08758929999999999</v>
+        <v>0.09295349999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0757119</v>
+        <v>0.079031</v>
       </c>
       <c r="D104" t="n">
-        <v>0.077876</v>
+        <v>0.0784019</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0884514</v>
+        <v>0.0886043</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0771091</v>
+        <v>0.08051709999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.07924580000000001</v>
+        <v>0.08050880000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08982080000000001</v>
+        <v>0.0898033</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0789149</v>
+        <v>0.0830646</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08156239999999999</v>
+        <v>0.0823675</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0916886</v>
+        <v>0.0919973</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08129740000000001</v>
+        <v>0.0869221</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0852509</v>
+        <v>0.08622730000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0949089</v>
+        <v>0.09500069999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.085034</v>
+        <v>0.0898596</v>
       </c>
       <c r="D108" t="n">
-        <v>0.08773590000000001</v>
+        <v>0.0898695</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09997010000000001</v>
+        <v>0.1001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0910459</v>
+        <v>0.09064609999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0884414</v>
+        <v>0.0912507</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107963</v>
+        <v>0.110075</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08287219999999999</v>
+        <v>0.0913096</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0892877</v>
+        <v>0.09138930000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.108243</v>
+        <v>0.110215</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08375249999999999</v>
+        <v>0.09219479999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0899992</v>
+        <v>0.0920797</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.108225</v>
+        <v>0.110125</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0846664</v>
+        <v>0.0930301</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0907741</v>
+        <v>0.0930791</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10822</v>
+        <v>0.110395</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0856579</v>
+        <v>0.0940034</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0918117</v>
+        <v>0.0940515</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108618</v>
+        <v>0.110749</v>
       </c>
       <c r="C114" t="n">
-        <v>0.08681120000000001</v>
+        <v>0.0950877</v>
       </c>
       <c r="D114" t="n">
-        <v>0.092913</v>
+        <v>0.0954057</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108608</v>
+        <v>0.111007</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08786919999999999</v>
+        <v>0.0962186</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09400500000000001</v>
+        <v>0.0962514</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109047</v>
+        <v>0.111201</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0892593</v>
+        <v>0.0974864</v>
       </c>
       <c r="D116" t="n">
-        <v>0.100748</v>
+        <v>0.09758509999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109454</v>
+        <v>0.111847</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0907998</v>
+        <v>0.09964439999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09656720000000001</v>
+        <v>0.0989444</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.110007</v>
+        <v>0.112548</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0923614</v>
+        <v>0.100749</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0981248</v>
+        <v>0.100923</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.110855</v>
+        <v>0.113296</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0942355</v>
+        <v>0.102578</v>
       </c>
       <c r="D119" t="n">
-        <v>0.100153</v>
+        <v>0.102749</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.112081</v>
+        <v>0.114563</v>
       </c>
       <c r="C120" t="n">
-        <v>0.096293</v>
+        <v>0.105385</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10274</v>
+        <v>0.105466</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113914</v>
+        <v>0.11637</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0990901</v>
+        <v>0.10938</v>
       </c>
       <c r="D121" t="n">
-        <v>0.106587</v>
+        <v>0.109351</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116949</v>
+        <v>0.119564</v>
       </c>
       <c r="C122" t="n">
-        <v>0.102927</v>
+        <v>0.115705</v>
       </c>
       <c r="D122" t="n">
-        <v>0.112472</v>
+        <v>0.115511</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.121459</v>
+        <v>0.12428</v>
       </c>
       <c r="C123" t="n">
-        <v>0.108871</v>
+        <v>0.106822</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106248</v>
+        <v>0.106745</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134045</v>
+        <v>0.141211</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0958808</v>
+        <v>0.107921</v>
       </c>
       <c r="D124" t="n">
-        <v>0.107515</v>
+        <v>0.107615</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141735</v>
+        <v>0.140923</v>
       </c>
       <c r="C125" t="n">
-        <v>0.09704169999999999</v>
+        <v>0.108982</v>
       </c>
       <c r="D125" t="n">
-        <v>0.108771</v>
+        <v>0.108561</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.14386</v>
+        <v>0.140803</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0989488</v>
+        <v>0.110157</v>
       </c>
       <c r="D126" t="n">
-        <v>0.110258</v>
+        <v>0.109784</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141993</v>
+        <v>0.140802</v>
       </c>
       <c r="C127" t="n">
-        <v>0.100162</v>
+        <v>0.111418</v>
       </c>
       <c r="D127" t="n">
-        <v>0.111363</v>
+        <v>0.111347</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141564</v>
+        <v>0.14098</v>
       </c>
       <c r="C128" t="n">
-        <v>0.101129</v>
+        <v>0.112811</v>
       </c>
       <c r="D128" t="n">
-        <v>0.112139</v>
+        <v>0.112263</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141767</v>
+        <v>0.141033</v>
       </c>
       <c r="C129" t="n">
-        <v>0.102743</v>
+        <v>0.114119</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113529</v>
+        <v>0.113758</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142252</v>
+        <v>0.141122</v>
       </c>
       <c r="C130" t="n">
-        <v>0.10443</v>
+        <v>0.115797</v>
       </c>
       <c r="D130" t="n">
-        <v>0.114912</v>
+        <v>0.115294</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142466</v>
+        <v>0.141625</v>
       </c>
       <c r="C131" t="n">
-        <v>0.106431</v>
+        <v>0.117226</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116482</v>
+        <v>0.116704</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.143005</v>
+        <v>0.142269</v>
       </c>
       <c r="C132" t="n">
-        <v>0.108216</v>
+        <v>0.119221</v>
       </c>
       <c r="D132" t="n">
-        <v>0.118414</v>
+        <v>0.1187</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143627</v>
+        <v>0.142868</v>
       </c>
       <c r="C133" t="n">
-        <v>0.110255</v>
+        <v>0.121393</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120533</v>
+        <v>0.120877</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144639</v>
+        <v>0.143699</v>
       </c>
       <c r="C134" t="n">
-        <v>0.112815</v>
+        <v>0.124367</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123365</v>
+        <v>0.124173</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.146121</v>
+        <v>0.145486</v>
       </c>
       <c r="C135" t="n">
-        <v>0.11575</v>
+        <v>0.147486</v>
       </c>
       <c r="D135" t="n">
-        <v>0.127277</v>
+        <v>0.128392</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148787</v>
+        <v>0.148138</v>
       </c>
       <c r="C136" t="n">
-        <v>0.119701</v>
+        <v>0.135066</v>
       </c>
       <c r="D136" t="n">
-        <v>0.133589</v>
+        <v>0.134843</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.153145</v>
+        <v>0.15152</v>
       </c>
       <c r="C137" t="n">
-        <v>0.126693</v>
+        <v>0.118327</v>
       </c>
       <c r="D137" t="n">
-        <v>0.119571</v>
+        <v>0.119744</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.160222</v>
+        <v>0.157748</v>
       </c>
       <c r="C138" t="n">
-        <v>0.108481</v>
+        <v>0.119565</v>
       </c>
       <c r="D138" t="n">
-        <v>0.123522</v>
+        <v>0.120689</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15805</v>
+        <v>0.157891</v>
       </c>
       <c r="C139" t="n">
-        <v>0.109886</v>
+        <v>0.120818</v>
       </c>
       <c r="D139" t="n">
-        <v>0.120321</v>
+        <v>0.121707</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158093</v>
+        <v>0.158527</v>
       </c>
       <c r="C140" t="n">
-        <v>0.111216</v>
+        <v>0.121739</v>
       </c>
       <c r="D140" t="n">
-        <v>0.121365</v>
+        <v>0.122713</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158066</v>
+        <v>0.15808</v>
       </c>
       <c r="C141" t="n">
-        <v>0.112687</v>
+        <v>0.122867</v>
       </c>
       <c r="D141" t="n">
-        <v>0.122535</v>
+        <v>0.123911</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158317</v>
+        <v>0.15933</v>
       </c>
       <c r="C142" t="n">
-        <v>0.114154</v>
+        <v>0.124145</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123827</v>
+        <v>0.125119</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158434</v>
+        <v>0.158385</v>
       </c>
       <c r="C143" t="n">
-        <v>0.115713</v>
+        <v>0.12572</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125232</v>
+        <v>0.126477</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0197711</v>
+        <v>0.0200607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.020715</v>
+        <v>0.0206339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.020537</v>
+        <v>0.0207285</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197667</v>
+        <v>0.0199059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.020826</v>
+        <v>0.0207223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0204943</v>
+        <v>0.0208753</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197739</v>
+        <v>0.0199983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0208136</v>
+        <v>0.0206219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0206768</v>
+        <v>0.021024</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0198361</v>
+        <v>0.0200188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209391</v>
+        <v>0.0205864</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0208755</v>
+        <v>0.0211031</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0199141</v>
+        <v>0.0201379</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0212079</v>
+        <v>0.020946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.021363</v>
+        <v>0.0213758</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200779</v>
+        <v>0.0199178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0215137</v>
+        <v>0.0210866</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217653</v>
+        <v>0.0213615</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201852</v>
+        <v>0.0202043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0221878</v>
+        <v>0.0216037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0224284</v>
+        <v>0.0218217</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203019</v>
+        <v>0.0209547</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203534</v>
+        <v>0.0203038</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0203544</v>
+        <v>0.0204282</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193882</v>
+        <v>0.0193576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0207187</v>
+        <v>0.0205495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0206856</v>
+        <v>0.0206972</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196749</v>
+        <v>0.0195813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0208979</v>
+        <v>0.0209824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0204952</v>
+        <v>0.0208207</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198108</v>
+        <v>0.0196846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211804</v>
+        <v>0.0209913</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0208169</v>
+        <v>0.0208478</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199649</v>
+        <v>0.019762</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0215076</v>
+        <v>0.0214509</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0211732</v>
+        <v>0.0210242</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199978</v>
+        <v>0.0199409</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0218453</v>
+        <v>0.0216818</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0210964</v>
+        <v>0.0212514</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0203454</v>
+        <v>0.0202564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220053</v>
+        <v>0.0219352</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0217412</v>
+        <v>0.0215115</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0202828</v>
+        <v>0.0202747</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222403</v>
+        <v>0.0220808</v>
       </c>
       <c r="D16" t="n">
-        <v>0.021647</v>
+        <v>0.0217725</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204158</v>
+        <v>0.0202775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0225571</v>
+        <v>0.0222809</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0218875</v>
+        <v>0.0220646</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204693</v>
+        <v>0.0205651</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0227402</v>
+        <v>0.022362</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0224416</v>
+        <v>0.0223237</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0208071</v>
+        <v>0.0207905</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0229233</v>
+        <v>0.0226249</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0230503</v>
+        <v>0.0229103</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0207501</v>
+        <v>0.0208196</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0232985</v>
+        <v>0.0226535</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0234093</v>
+        <v>0.0229177</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0211626</v>
+        <v>0.0212728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0243983</v>
+        <v>0.023104</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0248123</v>
+        <v>0.0237952</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0214776</v>
+        <v>0.0220796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0271339</v>
+        <v>0.0244872</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0275047</v>
+        <v>0.0250804</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0231091</v>
+        <v>0.0249106</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0215944</v>
+        <v>0.0215199</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0214452</v>
+        <v>0.0214743</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0207336</v>
+        <v>0.0205206</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218314</v>
+        <v>0.0217952</v>
       </c>
       <c r="D24" t="n">
-        <v>0.021524</v>
+        <v>0.0215536</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0207176</v>
+        <v>0.020654</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0221065</v>
+        <v>0.022039</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0219151</v>
+        <v>0.0219202</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208489</v>
+        <v>0.0207066</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223019</v>
+        <v>0.0222894</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0221326</v>
+        <v>0.0221323</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0210309</v>
+        <v>0.0209953</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0227103</v>
+        <v>0.0229455</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0223764</v>
+        <v>0.0224057</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02115</v>
+        <v>0.0210133</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229929</v>
+        <v>0.0229687</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0227524</v>
+        <v>0.0227203</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0214084</v>
+        <v>0.0212356</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233404</v>
+        <v>0.0233081</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0231218</v>
+        <v>0.0231635</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214516</v>
+        <v>0.0215356</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0236681</v>
+        <v>0.0235312</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0234361</v>
+        <v>0.0234713</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0217427</v>
+        <v>0.0217627</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0240337</v>
+        <v>0.0238251</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0238447</v>
+        <v>0.0238182</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0218176</v>
+        <v>0.0219905</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244898</v>
+        <v>0.0240532</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0243289</v>
+        <v>0.0242946</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221152</v>
+        <v>0.022255</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0254166</v>
+        <v>0.0244598</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0254605</v>
+        <v>0.024904</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0229137</v>
+        <v>0.023331</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0272756</v>
+        <v>0.0252851</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0265929</v>
+        <v>0.0255618</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02552</v>
+        <v>0.024299</v>
       </c>
       <c r="C35" t="n">
-        <v>0.029056</v>
+        <v>0.0264359</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0298589</v>
+        <v>0.0269688</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0269029</v>
+        <v>0.0268439</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0337134</v>
+        <v>0.0299055</v>
       </c>
       <c r="D36" t="n">
-        <v>0.034015</v>
+        <v>0.0295591</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0309284</v>
+        <v>0.0317233</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0227531</v>
+        <v>0.0230293</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0227569</v>
+        <v>0.0233106</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216594</v>
+        <v>0.0217892</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0230222</v>
+        <v>0.0233128</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0230434</v>
+        <v>0.0233215</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0217907</v>
+        <v>0.0221921</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0233018</v>
+        <v>0.0237354</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0232723</v>
+        <v>0.0237496</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219488</v>
+        <v>0.0223745</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235125</v>
+        <v>0.0238742</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0236482</v>
+        <v>0.0239197</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220611</v>
+        <v>0.0224544</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238275</v>
+        <v>0.0241009</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0238272</v>
+        <v>0.0240399</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.022135</v>
+        <v>0.0223863</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0241936</v>
+        <v>0.0245299</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0241683</v>
+        <v>0.0246514</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0225145</v>
+        <v>0.0228512</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0245315</v>
+        <v>0.0248631</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0245379</v>
+        <v>0.0248925</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226597</v>
+        <v>0.0227945</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0250615</v>
+        <v>0.0250892</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0250235</v>
+        <v>0.0251964</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230529</v>
+        <v>0.0232772</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0255698</v>
+        <v>0.0255499</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0255786</v>
+        <v>0.0258052</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233959</v>
+        <v>0.0233974</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0263428</v>
+        <v>0.0258551</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0264304</v>
+        <v>0.0262645</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0240768</v>
+        <v>0.0249914</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0273554</v>
+        <v>0.0265842</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0278039</v>
+        <v>0.0271711</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025179</v>
+        <v>0.0255606</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0299213</v>
+        <v>0.0284814</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0294389</v>
+        <v>0.0286186</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0271378</v>
+        <v>0.0280809</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0318791</v>
+        <v>0.0304542</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0321202</v>
+        <v>0.0307846</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0294922</v>
+        <v>0.0310176</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0360285</v>
+        <v>0.0342182</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0366513</v>
+        <v>0.0346517</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.034441</v>
+        <v>0.0343983</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0233928</v>
+        <v>0.0233097</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0235101</v>
+        <v>0.0235164</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0389116</v>
+        <v>0.0395309</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0236159</v>
+        <v>0.0235232</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0237332</v>
+        <v>0.0237162</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0235128</v>
+        <v>0.0231365</v>
       </c>
       <c r="C53" t="n">
-        <v>0.023868</v>
+        <v>0.0238254</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0239365</v>
+        <v>0.0239313</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233061</v>
+        <v>0.0231902</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0241365</v>
+        <v>0.0240394</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0242084</v>
+        <v>0.024135</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234749</v>
+        <v>0.0233621</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0244937</v>
+        <v>0.0243322</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0245326</v>
+        <v>0.0244867</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.023719</v>
+        <v>0.0235833</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0248464</v>
+        <v>0.0247334</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0249243</v>
+        <v>0.0248451</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239849</v>
+        <v>0.0238793</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0252408</v>
+        <v>0.0251103</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0254711</v>
+        <v>0.0252464</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244933</v>
+        <v>0.0242343</v>
       </c>
       <c r="C58" t="n">
-        <v>0.025797</v>
+        <v>0.0256201</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0259723</v>
+        <v>0.0257715</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0249166</v>
+        <v>0.0246968</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0264834</v>
+        <v>0.026153</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0266373</v>
+        <v>0.026398</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255278</v>
+        <v>0.0253242</v>
       </c>
       <c r="C60" t="n">
-        <v>0.027424</v>
+        <v>0.0268829</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0275428</v>
+        <v>0.0271803</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0263434</v>
+        <v>0.0262961</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0286806</v>
+        <v>0.0280531</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0288387</v>
+        <v>0.0282489</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0277728</v>
+        <v>0.0284861</v>
       </c>
       <c r="C62" t="n">
-        <v>0.030413</v>
+        <v>0.0297243</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0304666</v>
+        <v>0.0297501</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0294806</v>
+        <v>0.0299507</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0332496</v>
+        <v>0.0330566</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0330271</v>
+        <v>0.0321192</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.032111</v>
+        <v>0.032586</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0370474</v>
+        <v>0.03588</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0370539</v>
+        <v>0.0359441</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0356706</v>
+        <v>0.0363567</v>
       </c>
       <c r="C65" t="n">
-        <v>0.042708</v>
+        <v>0.0420882</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0429774</v>
+        <v>0.0419073</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410208</v>
+        <v>0.0417018</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0254779</v>
+        <v>0.0253388</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0254836</v>
+        <v>0.0251531</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0279881</v>
+        <v>0.0290542</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0257716</v>
+        <v>0.0258456</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0257603</v>
+        <v>0.0256247</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0281656</v>
+        <v>0.0290141</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0260374</v>
+        <v>0.0258521</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0261479</v>
+        <v>0.0259019</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0282629</v>
+        <v>0.029043</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0263384</v>
+        <v>0.0262643</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0263946</v>
+        <v>0.026348</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0282667</v>
+        <v>0.0293436</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0267699</v>
+        <v>0.0266305</v>
       </c>
       <c r="D70" t="n">
-        <v>0.026509</v>
+        <v>0.026671</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0286004</v>
+        <v>0.0296132</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0269906</v>
+        <v>0.0268654</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0266561</v>
+        <v>0.0274149</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0289128</v>
+        <v>0.0300141</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0276878</v>
+        <v>0.0275216</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0274429</v>
+        <v>0.0279158</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0291843</v>
+        <v>0.0305132</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0284178</v>
+        <v>0.0281217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.028505</v>
+        <v>0.0283326</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0298613</v>
+        <v>0.0310529</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0292629</v>
+        <v>0.0289518</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0295169</v>
+        <v>0.0291067</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0309231</v>
+        <v>0.0319809</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0310268</v>
+        <v>0.0301466</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0303023</v>
+        <v>0.0301767</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0320019</v>
+        <v>0.0331739</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0323228</v>
+        <v>0.0318514</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0321172</v>
+        <v>0.0318607</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.033727</v>
+        <v>0.0349596</v>
       </c>
       <c r="C77" t="n">
-        <v>0.034689</v>
+        <v>0.034222</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0348674</v>
+        <v>0.034277</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0363283</v>
+        <v>0.0375348</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0381815</v>
+        <v>0.0376171</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0384104</v>
+        <v>0.037819</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040095</v>
+        <v>0.0408746</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0434496</v>
+        <v>0.04279</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0438553</v>
+        <v>0.0436189</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0446519</v>
+        <v>0.0458985</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0373098</v>
+        <v>0.0360338</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0376681</v>
+        <v>0.0361543</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0569763</v>
+        <v>0.0579229</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0379859</v>
+        <v>0.0367318</v>
       </c>
       <c r="D81" t="n">
-        <v>0.038134</v>
+        <v>0.036976</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.055052</v>
+        <v>0.054817</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0387565</v>
+        <v>0.0374923</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0392366</v>
+        <v>0.0377014</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0554779</v>
+        <v>0.0549933</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0395397</v>
+        <v>0.0383518</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0399097</v>
+        <v>0.0384019</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0554361</v>
+        <v>0.05508</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0402215</v>
+        <v>0.0390361</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0402467</v>
+        <v>0.0392551</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0582494</v>
+        <v>0.0552874</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0417848</v>
+        <v>0.0399035</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0414456</v>
+        <v>0.0398937</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0559726</v>
+        <v>0.0555647</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0417123</v>
+        <v>0.0407001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0424104</v>
+        <v>0.0409943</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0561983</v>
+        <v>0.0556599</v>
       </c>
       <c r="C87" t="n">
-        <v>0.042535</v>
+        <v>0.0415447</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0425968</v>
+        <v>0.0417776</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0567111</v>
+        <v>0.0560981</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0434258</v>
+        <v>0.0424378</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0439238</v>
+        <v>0.0426181</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0571787</v>
+        <v>0.0579662</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0444242</v>
+        <v>0.0435685</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0447885</v>
+        <v>0.043724</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0579226</v>
+        <v>0.057263</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0457592</v>
+        <v>0.044889</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0461334</v>
+        <v>0.0449618</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0591188</v>
+        <v>0.0585552</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0476152</v>
+        <v>0.0468107</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0479865</v>
+        <v>0.0470921</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0606361</v>
+        <v>0.0599441</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0505611</v>
+        <v>0.0496633</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0507386</v>
+        <v>0.0499523</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0632761</v>
+        <v>0.0625396</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0550139</v>
+        <v>0.0540627</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0553407</v>
+        <v>0.0555622</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0672416</v>
+        <v>0.0664942</v>
       </c>
       <c r="C94" t="n">
-        <v>0.071655</v>
+        <v>0.0714795</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0716123</v>
+        <v>0.07141980000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08585429999999999</v>
+        <v>0.0862382</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0721136</v>
+        <v>0.07184889999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0719974</v>
+        <v>0.0742303</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08579009999999999</v>
+        <v>0.0862512</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0726376</v>
+        <v>0.0723173</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0726487</v>
+        <v>0.07244829999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0857913</v>
+        <v>0.0863042</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07314370000000001</v>
+        <v>0.07279720000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0729004</v>
+        <v>0.07299020000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859182</v>
+        <v>0.08648019999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0736817</v>
+        <v>0.0732815</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07329280000000001</v>
+        <v>0.0735292</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860151</v>
+        <v>0.0865691</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0744016</v>
+        <v>0.073951</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0740649</v>
+        <v>0.07391689999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08616559999999999</v>
+        <v>0.08816789999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0750765</v>
+        <v>0.07450279999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0746671</v>
+        <v>0.0745022</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0863754</v>
+        <v>0.0876908</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0758953</v>
+        <v>0.0752504</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07531649999999999</v>
+        <v>0.0752664</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0864983</v>
+        <v>0.0870581</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0790047</v>
+        <v>0.0761525</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0764064</v>
+        <v>0.0761883</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870713</v>
+        <v>0.0875958</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07904129999999999</v>
+        <v>0.0772424</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07743940000000001</v>
+        <v>0.077127</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.09295349999999999</v>
+        <v>0.088182</v>
       </c>
       <c r="C104" t="n">
-        <v>0.079031</v>
+        <v>0.0784422</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0784019</v>
+        <v>0.0783271</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0886043</v>
+        <v>0.08891689999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08051709999999999</v>
+        <v>0.0801799</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08050880000000001</v>
+        <v>0.0799216</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0898033</v>
+        <v>0.0901893</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0830646</v>
+        <v>0.082693</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0823675</v>
+        <v>0.0823892</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0919973</v>
+        <v>0.0922637</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0869221</v>
+        <v>0.0866709</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08622730000000001</v>
+        <v>0.0861503</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09500069999999999</v>
+        <v>0.095411</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0898596</v>
+        <v>0.0896719</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0898695</v>
+        <v>0.0900591</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1001</v>
+        <v>0.10052</v>
       </c>
       <c r="C109" t="n">
-        <v>0.09064609999999999</v>
+        <v>0.0904993</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0912507</v>
+        <v>0.0939754</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.110075</v>
+        <v>0.107038</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0913096</v>
+        <v>0.09124309999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.09138930000000001</v>
+        <v>0.0917142</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.110215</v>
+        <v>0.107992</v>
       </c>
       <c r="C111" t="n">
-        <v>0.09219479999999999</v>
+        <v>0.0927901</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0920797</v>
+        <v>0.092484</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.110125</v>
+        <v>0.107245</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0930301</v>
+        <v>0.0929584</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0930791</v>
+        <v>0.0931833</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.110395</v>
+        <v>0.107233</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0940034</v>
+        <v>0.0939989</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0940515</v>
+        <v>0.0940269</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.110749</v>
+        <v>0.107355</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0950877</v>
+        <v>0.0950392</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0954057</v>
+        <v>0.095267</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111007</v>
+        <v>0.107583</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0962186</v>
+        <v>0.0961544</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0962514</v>
+        <v>0.0963393</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111201</v>
+        <v>0.107966</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0974864</v>
+        <v>0.0974038</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09758509999999999</v>
+        <v>0.09732150000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.111847</v>
+        <v>0.108242</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09964439999999999</v>
+        <v>0.09892629999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0989444</v>
+        <v>0.0988078</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.112548</v>
+        <v>0.108836</v>
       </c>
       <c r="C118" t="n">
-        <v>0.100749</v>
+        <v>0.100497</v>
       </c>
       <c r="D118" t="n">
-        <v>0.100923</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.113296</v>
+        <v>0.109483</v>
       </c>
       <c r="C119" t="n">
-        <v>0.102578</v>
+        <v>0.102479</v>
       </c>
       <c r="D119" t="n">
-        <v>0.102749</v>
+        <v>0.10237</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.114563</v>
+        <v>0.110789</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105385</v>
+        <v>0.105349</v>
       </c>
       <c r="D120" t="n">
-        <v>0.105466</v>
+        <v>0.105312</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.11637</v>
+        <v>0.112494</v>
       </c>
       <c r="C121" t="n">
-        <v>0.10938</v>
+        <v>0.109271</v>
       </c>
       <c r="D121" t="n">
-        <v>0.109351</v>
+        <v>0.108978</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.119564</v>
+        <v>0.115699</v>
       </c>
       <c r="C122" t="n">
-        <v>0.115705</v>
+        <v>0.11552</v>
       </c>
       <c r="D122" t="n">
-        <v>0.115511</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12428</v>
+        <v>0.120333</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106822</v>
+        <v>0.107608</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106745</v>
+        <v>0.107549</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141211</v>
+        <v>0.13747</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107921</v>
+        <v>0.108686</v>
       </c>
       <c r="D124" t="n">
-        <v>0.107615</v>
+        <v>0.10855</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140923</v>
+        <v>0.137733</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108982</v>
+        <v>0.110231</v>
       </c>
       <c r="D125" t="n">
-        <v>0.108561</v>
+        <v>0.109957</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.140803</v>
+        <v>0.137661</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110157</v>
+        <v>0.111343</v>
       </c>
       <c r="D126" t="n">
-        <v>0.109784</v>
+        <v>0.112909</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.140802</v>
+        <v>0.138227</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111418</v>
+        <v>0.112916</v>
       </c>
       <c r="D127" t="n">
-        <v>0.111347</v>
+        <v>0.113412</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14098</v>
+        <v>0.138836</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112811</v>
+        <v>0.114269</v>
       </c>
       <c r="D128" t="n">
-        <v>0.112263</v>
+        <v>0.114902</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141033</v>
+        <v>0.141285</v>
       </c>
       <c r="C129" t="n">
-        <v>0.114119</v>
+        <v>0.126643</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113758</v>
+        <v>0.1271</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141122</v>
+        <v>0.157998</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115797</v>
+        <v>0.134119</v>
       </c>
       <c r="D130" t="n">
-        <v>0.115294</v>
+        <v>0.135582</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.141625</v>
+        <v>0.159935</v>
       </c>
       <c r="C131" t="n">
-        <v>0.117226</v>
+        <v>0.139398</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116704</v>
+        <v>0.141198</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142269</v>
+        <v>0.17036</v>
       </c>
       <c r="C132" t="n">
-        <v>0.119221</v>
+        <v>0.141086</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1187</v>
+        <v>0.134235</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142868</v>
+        <v>0.165886</v>
       </c>
       <c r="C133" t="n">
-        <v>0.121393</v>
+        <v>0.143358</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120877</v>
+        <v>0.138636</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.143699</v>
+        <v>0.172256</v>
       </c>
       <c r="C134" t="n">
-        <v>0.124367</v>
+        <v>0.144785</v>
       </c>
       <c r="D134" t="n">
-        <v>0.124173</v>
+        <v>0.141203</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.145486</v>
+        <v>0.167033</v>
       </c>
       <c r="C135" t="n">
-        <v>0.147486</v>
+        <v>0.146847</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128392</v>
+        <v>0.15246</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148138</v>
+        <v>0.174992</v>
       </c>
       <c r="C136" t="n">
-        <v>0.135066</v>
+        <v>0.163543</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134843</v>
+        <v>0.173701</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.15152</v>
+        <v>0.196017</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118327</v>
+        <v>0.154806</v>
       </c>
       <c r="D137" t="n">
-        <v>0.119744</v>
+        <v>0.159417</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157748</v>
+        <v>0.211161</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119565</v>
+        <v>0.163541</v>
       </c>
       <c r="D138" t="n">
-        <v>0.120689</v>
+        <v>0.159742</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157891</v>
+        <v>0.210873</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120818</v>
+        <v>0.159925</v>
       </c>
       <c r="D139" t="n">
-        <v>0.121707</v>
+        <v>0.124291</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158527</v>
+        <v>0.158231</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121739</v>
+        <v>0.122562</v>
       </c>
       <c r="D140" t="n">
-        <v>0.122713</v>
+        <v>0.121444</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.15808</v>
+        <v>0.157864</v>
       </c>
       <c r="C141" t="n">
-        <v>0.122867</v>
+        <v>0.123775</v>
       </c>
       <c r="D141" t="n">
-        <v>0.123911</v>
+        <v>0.122736</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15933</v>
+        <v>0.158099</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124145</v>
+        <v>0.124934</v>
       </c>
       <c r="D142" t="n">
-        <v>0.125119</v>
+        <v>0.123964</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158385</v>
+        <v>0.158192</v>
       </c>
       <c r="C143" t="n">
-        <v>0.12572</v>
+        <v>0.126159</v>
       </c>
       <c r="D143" t="n">
-        <v>0.126477</v>
+        <v>0.125317</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0200607</v>
+        <v>0.0198177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206339</v>
+        <v>0.020661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0207285</v>
+        <v>0.0207388</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0199059</v>
+        <v>0.0197689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0207223</v>
+        <v>0.0207905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0208753</v>
+        <v>0.0210733</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0199983</v>
+        <v>0.0201546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0206219</v>
+        <v>0.0208032</v>
       </c>
       <c r="D4" t="n">
-        <v>0.021024</v>
+        <v>0.0212082</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0200188</v>
+        <v>0.0199259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0205864</v>
+        <v>0.0209174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0211031</v>
+        <v>0.021426</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0201379</v>
+        <v>0.020146</v>
       </c>
       <c r="C6" t="n">
-        <v>0.020946</v>
+        <v>0.0210442</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0213758</v>
+        <v>0.0223425</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0199178</v>
+        <v>0.0203092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0210866</v>
+        <v>0.0210508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0213615</v>
+        <v>0.0217597</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0202043</v>
+        <v>0.0205189</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0216037</v>
+        <v>0.0220989</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0218217</v>
+        <v>0.0220329</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0209547</v>
+        <v>0.0208522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203038</v>
+        <v>0.0205991</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0204282</v>
+        <v>0.020299</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193576</v>
+        <v>0.0196324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0205495</v>
+        <v>0.0206224</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0206972</v>
+        <v>0.0205275</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195813</v>
+        <v>0.0197613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0209824</v>
+        <v>0.020929</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0208207</v>
+        <v>0.0209201</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196846</v>
+        <v>0.0198472</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0209913</v>
+        <v>0.0212365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0208478</v>
+        <v>0.0207703</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019762</v>
+        <v>0.0200045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214509</v>
+        <v>0.0219412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0210242</v>
+        <v>0.0214182</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199409</v>
+        <v>0.020139</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216818</v>
+        <v>0.0216947</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0212514</v>
+        <v>0.0211185</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0202564</v>
+        <v>0.0200294</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219352</v>
+        <v>0.0219619</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0215115</v>
+        <v>0.0215551</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0202747</v>
+        <v>0.020157</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0220808</v>
+        <v>0.0220253</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0217725</v>
+        <v>0.0218192</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202775</v>
+        <v>0.0202728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0222809</v>
+        <v>0.0223985</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0220646</v>
+        <v>0.0220397</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0205651</v>
+        <v>0.0204119</v>
       </c>
       <c r="C18" t="n">
-        <v>0.022362</v>
+        <v>0.02234</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0223237</v>
+        <v>0.0222319</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0207905</v>
+        <v>0.0204814</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0226249</v>
+        <v>0.0224992</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0229103</v>
+        <v>0.0229377</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0208196</v>
+        <v>0.020689</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0226535</v>
+        <v>0.0226357</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0229177</v>
+        <v>0.0232736</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0212728</v>
+        <v>0.0209465</v>
       </c>
       <c r="C21" t="n">
-        <v>0.023104</v>
+        <v>0.0232853</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0237952</v>
+        <v>0.0237999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0220796</v>
+        <v>0.0220356</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0244872</v>
+        <v>0.0247751</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0250804</v>
+        <v>0.025082</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0249106</v>
+        <v>0.0242645</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0215199</v>
+        <v>0.0216065</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0214743</v>
+        <v>0.0214453</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0205206</v>
+        <v>0.0203843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0217952</v>
+        <v>0.0218606</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0215536</v>
+        <v>0.0216952</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.020654</v>
+        <v>0.0204882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.022039</v>
+        <v>0.0220389</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0219202</v>
+        <v>0.021844</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207066</v>
+        <v>0.0205537</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222894</v>
+        <v>0.0222652</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0221323</v>
+        <v>0.0220541</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209953</v>
+        <v>0.0207529</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0229455</v>
+        <v>0.0226466</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0224057</v>
+        <v>0.0223523</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210133</v>
+        <v>0.0209222</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229687</v>
+        <v>0.0228677</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0227203</v>
+        <v>0.0228555</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212356</v>
+        <v>0.0211526</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233081</v>
+        <v>0.0232788</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0231635</v>
+        <v>0.0231167</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0215356</v>
+        <v>0.0213478</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235312</v>
+        <v>0.0235169</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0234713</v>
+        <v>0.0234776</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0217627</v>
+        <v>0.0215417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0238251</v>
+        <v>0.0238147</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0238182</v>
+        <v>0.023894</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219905</v>
+        <v>0.0217772</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0240532</v>
+        <v>0.0241082</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0242946</v>
+        <v>0.0243771</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.022255</v>
+        <v>0.0221622</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0244598</v>
+        <v>0.0244715</v>
       </c>
       <c r="D33" t="n">
-        <v>0.024904</v>
+        <v>0.0247512</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.023331</v>
+        <v>0.0226263</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0252851</v>
+        <v>0.0249128</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0255618</v>
+        <v>0.0254798</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.024299</v>
+        <v>0.0247787</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0264359</v>
+        <v>0.02718</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0269688</v>
+        <v>0.0271804</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0268439</v>
+        <v>0.0274783</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0299055</v>
+        <v>0.0307807</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0295591</v>
+        <v>0.0302838</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0317233</v>
+        <v>0.0320969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0230293</v>
+        <v>0.0227497</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0233106</v>
+        <v>0.0228163</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0217892</v>
+        <v>0.0215519</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0233128</v>
+        <v>0.0229759</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0233215</v>
+        <v>0.023021</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0221921</v>
+        <v>0.0216599</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0237354</v>
+        <v>0.0232153</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0237496</v>
+        <v>0.0232803</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0223745</v>
+        <v>0.0218617</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0238742</v>
+        <v>0.023483</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0239197</v>
+        <v>0.0235685</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0224544</v>
+        <v>0.0220038</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241009</v>
+        <v>0.0237561</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0240399</v>
+        <v>0.0239051</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223863</v>
+        <v>0.0222657</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0245299</v>
+        <v>0.0240791</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0246514</v>
+        <v>0.0242339</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0228512</v>
+        <v>0.0226411</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0248631</v>
+        <v>0.0244141</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0248925</v>
+        <v>0.0246189</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227945</v>
+        <v>0.0227245</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0250892</v>
+        <v>0.0248339</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0251964</v>
+        <v>0.0250357</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0232772</v>
+        <v>0.0231466</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0255499</v>
+        <v>0.0252866</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0258052</v>
+        <v>0.025576</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233974</v>
+        <v>0.0236619</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0258551</v>
+        <v>0.0257984</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0262645</v>
+        <v>0.0262739</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0249914</v>
+        <v>0.0245544</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0265842</v>
+        <v>0.026701</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0271711</v>
+        <v>0.0272897</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0255606</v>
+        <v>0.0261262</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0284814</v>
+        <v>0.02808</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0286186</v>
+        <v>0.0285281</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0280809</v>
+        <v>0.0279347</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0304542</v>
+        <v>0.0304211</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0307846</v>
+        <v>0.0307327</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0310176</v>
+        <v>0.0307145</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0342182</v>
+        <v>0.0344691</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0346517</v>
+        <v>0.0344534</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0343983</v>
+        <v>0.0347339</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0233097</v>
+        <v>0.0233486</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0235164</v>
+        <v>0.0235499</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0395309</v>
+        <v>0.0403458</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0235232</v>
+        <v>0.0235662</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0237162</v>
+        <v>0.0237339</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231365</v>
+        <v>0.0231961</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238254</v>
+        <v>0.0238268</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0239313</v>
+        <v>0.0240101</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0231902</v>
+        <v>0.0233515</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0240394</v>
+        <v>0.0240484</v>
       </c>
       <c r="D54" t="n">
-        <v>0.024135</v>
+        <v>0.0242233</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0233621</v>
+        <v>0.023385</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0243322</v>
+        <v>0.0243396</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0244867</v>
+        <v>0.0245843</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235833</v>
+        <v>0.0237076</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0247334</v>
+        <v>0.0248073</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0248451</v>
+        <v>0.0248598</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0238793</v>
+        <v>0.0240554</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0251103</v>
+        <v>0.0251669</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0252464</v>
+        <v>0.0252983</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0242343</v>
+        <v>0.0243828</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0256201</v>
+        <v>0.0255647</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0257715</v>
+        <v>0.0258203</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0246968</v>
+        <v>0.024872</v>
       </c>
       <c r="C59" t="n">
-        <v>0.026153</v>
+        <v>0.0262007</v>
       </c>
       <c r="D59" t="n">
-        <v>0.026398</v>
+        <v>0.0264538</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253242</v>
+        <v>0.0256331</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0268829</v>
+        <v>0.0269344</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0271803</v>
+        <v>0.0271785</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262961</v>
+        <v>0.026321</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0280531</v>
+        <v>0.0281145</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0282489</v>
+        <v>0.0282965</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0284861</v>
+        <v>0.0275389</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0297243</v>
+        <v>0.0297454</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0297501</v>
+        <v>0.0298253</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0299507</v>
+        <v>0.0298442</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0330566</v>
+        <v>0.0322753</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0321192</v>
+        <v>0.0321724</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.032586</v>
+        <v>0.0324077</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03588</v>
+        <v>0.0359607</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0359441</v>
+        <v>0.0358812</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0363567</v>
+        <v>0.0362464</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0420882</v>
+        <v>0.0421103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0419073</v>
+        <v>0.0419948</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0417018</v>
+        <v>0.041283</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0253388</v>
+        <v>0.0253787</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0251531</v>
+        <v>0.0252308</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0290542</v>
+        <v>0.0268473</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0258456</v>
+        <v>0.0258956</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0256247</v>
+        <v>0.0255577</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0290141</v>
+        <v>0.0270171</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0258521</v>
+        <v>0.0265203</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0259019</v>
+        <v>0.0257516</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.029043</v>
+        <v>0.0272493</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262643</v>
+        <v>0.0260571</v>
       </c>
       <c r="D69" t="n">
-        <v>0.026348</v>
+        <v>0.0267838</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0293436</v>
+        <v>0.0275263</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0266305</v>
+        <v>0.0267849</v>
       </c>
       <c r="D70" t="n">
-        <v>0.026671</v>
+        <v>0.0266757</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0296132</v>
+        <v>0.0277912</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268654</v>
+        <v>0.0275525</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0274149</v>
+        <v>0.0276414</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0300141</v>
+        <v>0.0282986</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0275216</v>
+        <v>0.0280105</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0279158</v>
+        <v>0.0281639</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0305132</v>
+        <v>0.0288928</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0281217</v>
+        <v>0.0285984</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0283326</v>
+        <v>0.0282289</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0310529</v>
+        <v>0.0295233</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0289518</v>
+        <v>0.0291904</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0291067</v>
+        <v>0.0290751</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0319809</v>
+        <v>0.0305117</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0301466</v>
+        <v>0.0300198</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0301767</v>
+        <v>0.0302683</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0331739</v>
+        <v>0.0318881</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0318514</v>
+        <v>0.0318431</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0318607</v>
+        <v>0.0320007</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0349596</v>
+        <v>0.0339179</v>
       </c>
       <c r="C77" t="n">
-        <v>0.034222</v>
+        <v>0.034135</v>
       </c>
       <c r="D77" t="n">
-        <v>0.034277</v>
+        <v>0.0342565</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0375348</v>
+        <v>0.0363522</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0376171</v>
+        <v>0.0376424</v>
       </c>
       <c r="D78" t="n">
-        <v>0.037819</v>
+        <v>0.0378473</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0408746</v>
+        <v>0.0395567</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04279</v>
+        <v>0.0431508</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0436189</v>
+        <v>0.0433825</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0458985</v>
+        <v>0.0441356</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0360338</v>
+        <v>0.0355875</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0361543</v>
+        <v>0.0362665</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0579229</v>
+        <v>0.0605016</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0367318</v>
+        <v>0.0362836</v>
       </c>
       <c r="D81" t="n">
-        <v>0.036976</v>
+        <v>0.0370379</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.054817</v>
+        <v>0.0604602</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0374923</v>
+        <v>0.0369944</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0377014</v>
+        <v>0.0375017</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0549933</v>
+        <v>0.060851</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0383518</v>
+        <v>0.0377974</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0384019</v>
+        <v>0.0384445</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05508</v>
+        <v>0.060862</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0390361</v>
+        <v>0.0384962</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0392551</v>
+        <v>0.0408703</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0552874</v>
+        <v>0.0623215</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0399035</v>
+        <v>0.0394103</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0398937</v>
+        <v>0.0402173</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0555647</v>
+        <v>0.0614748</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0407001</v>
+        <v>0.0403675</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0409943</v>
+        <v>0.0407943</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0556599</v>
+        <v>0.0618701</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0415447</v>
+        <v>0.0412621</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0417776</v>
+        <v>0.0420557</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0560981</v>
+        <v>0.0644286</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0424378</v>
+        <v>0.0425876</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0426181</v>
+        <v>0.0430509</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0579662</v>
+        <v>0.0633286</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0435685</v>
+        <v>0.0436972</v>
       </c>
       <c r="D89" t="n">
-        <v>0.043724</v>
+        <v>0.0438438</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.057263</v>
+        <v>0.0585598</v>
       </c>
       <c r="C90" t="n">
-        <v>0.044889</v>
+        <v>0.045209</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0449618</v>
+        <v>0.0490805</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0585552</v>
+        <v>0.07071959999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0468107</v>
+        <v>0.0556203</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0470921</v>
+        <v>0.0579686</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0599441</v>
+        <v>0.07463060000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0496633</v>
+        <v>0.0631057</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0499523</v>
+        <v>0.0649585</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0625396</v>
+        <v>0.0834681</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0540627</v>
+        <v>0.0704922</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0555622</v>
+        <v>0.0700597</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0664942</v>
+        <v>0.0900661</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0714795</v>
+        <v>0.08840199999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07141980000000001</v>
+        <v>0.0860583</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0862382</v>
+        <v>0.107185</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07184889999999999</v>
+        <v>0.08736099999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0742303</v>
+        <v>0.08778030000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0862512</v>
+        <v>0.104648</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0723173</v>
+        <v>0.0923699</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07244829999999999</v>
+        <v>0.0922289</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0863042</v>
+        <v>0.107865</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07279720000000001</v>
+        <v>0.0939214</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07299020000000001</v>
+        <v>0.0945183</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08648019999999999</v>
+        <v>0.103344</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0732815</v>
+        <v>0.0906317</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0735292</v>
+        <v>0.0912978</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0865691</v>
+        <v>0.105376</v>
       </c>
       <c r="C99" t="n">
-        <v>0.073951</v>
+        <v>0.092589</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07391689999999999</v>
+        <v>0.092528</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08816789999999999</v>
+        <v>0.107978</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07450279999999999</v>
+        <v>0.09468890000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0745022</v>
+        <v>0.09217590000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0876908</v>
+        <v>0.109299</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0752504</v>
+        <v>0.0940183</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0752664</v>
+        <v>0.0930834</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0870581</v>
+        <v>0.10703</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0761525</v>
+        <v>0.0920477</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0761883</v>
+        <v>0.09632259999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0875958</v>
+        <v>0.111173</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0772424</v>
+        <v>0.09690459999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.077127</v>
+        <v>0.09492920000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.088182</v>
+        <v>0.106537</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0784422</v>
+        <v>0.0976706</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0783271</v>
+        <v>0.0966264</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08891689999999999</v>
+        <v>0.114812</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0801799</v>
+        <v>0.0988728</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0799216</v>
+        <v>0.100148</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0901893</v>
+        <v>0.110592</v>
       </c>
       <c r="C106" t="n">
-        <v>0.082693</v>
+        <v>0.103381</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0823892</v>
+        <v>0.0999781</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0922637</v>
+        <v>0.117016</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0866709</v>
+        <v>0.105226</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0861503</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.095411</v>
+        <v>0.121363</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0896719</v>
+        <v>0.108453</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0900591</v>
+        <v>0.112472</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.10052</v>
+        <v>0.126748</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0904993</v>
+        <v>0.112852</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0939754</v>
+        <v>0.108009</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107038</v>
+        <v>0.131222</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09124309999999999</v>
+        <v>0.111047</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0917142</v>
+        <v>0.109694</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107992</v>
+        <v>0.135784</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0927901</v>
+        <v>0.110136</v>
       </c>
       <c r="D111" t="n">
-        <v>0.092484</v>
+        <v>0.108457</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107245</v>
+        <v>0.128975</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0929584</v>
+        <v>0.109398</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0931833</v>
+        <v>0.107743</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107233</v>
+        <v>0.131271</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0939989</v>
+        <v>0.113216</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0940269</v>
+        <v>0.11259</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107355</v>
+        <v>0.131142</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0950392</v>
+        <v>0.110793</v>
       </c>
       <c r="D114" t="n">
-        <v>0.095267</v>
+        <v>0.110528</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107583</v>
+        <v>0.131568</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0961544</v>
+        <v>0.117165</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0963393</v>
+        <v>0.118255</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107966</v>
+        <v>0.133528</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0974038</v>
+        <v>0.121121</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09732150000000001</v>
+        <v>0.120814</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108242</v>
+        <v>0.133825</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09892629999999999</v>
+        <v>0.121585</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0988078</v>
+        <v>0.127636</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.108836</v>
+        <v>0.159138</v>
       </c>
       <c r="C118" t="n">
-        <v>0.100497</v>
+        <v>0.141223</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1006</v>
+        <v>0.143486</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109483</v>
+        <v>0.163902</v>
       </c>
       <c r="C119" t="n">
-        <v>0.102479</v>
+        <v>0.148729</v>
       </c>
       <c r="D119" t="n">
-        <v>0.10237</v>
+        <v>0.147266</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.110789</v>
+        <v>0.167117</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105349</v>
+        <v>0.152483</v>
       </c>
       <c r="D120" t="n">
-        <v>0.105312</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112494</v>
+        <v>0.166903</v>
       </c>
       <c r="C121" t="n">
-        <v>0.109271</v>
+        <v>0.156293</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108978</v>
+        <v>0.158756</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115699</v>
+        <v>0.150072</v>
       </c>
       <c r="C122" t="n">
-        <v>0.11552</v>
+        <v>0.114511</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1152</v>
+        <v>0.115842</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120333</v>
+        <v>0.12092</v>
       </c>
       <c r="C123" t="n">
-        <v>0.107608</v>
+        <v>0.106779</v>
       </c>
       <c r="D123" t="n">
-        <v>0.107549</v>
+        <v>0.106449</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.13747</v>
+        <v>0.14408</v>
       </c>
       <c r="C124" t="n">
-        <v>0.108686</v>
+        <v>0.107893</v>
       </c>
       <c r="D124" t="n">
-        <v>0.10855</v>
+        <v>0.107712</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.137733</v>
+        <v>0.141803</v>
       </c>
       <c r="C125" t="n">
-        <v>0.110231</v>
+        <v>0.108874</v>
       </c>
       <c r="D125" t="n">
-        <v>0.109957</v>
+        <v>0.108741</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.137661</v>
+        <v>0.141085</v>
       </c>
       <c r="C126" t="n">
-        <v>0.111343</v>
+        <v>0.110014</v>
       </c>
       <c r="D126" t="n">
-        <v>0.112909</v>
+        <v>0.109856</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.138227</v>
+        <v>0.141541</v>
       </c>
       <c r="C127" t="n">
-        <v>0.112916</v>
+        <v>0.118913</v>
       </c>
       <c r="D127" t="n">
-        <v>0.113412</v>
+        <v>0.110982</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.138836</v>
+        <v>0.141404</v>
       </c>
       <c r="C128" t="n">
-        <v>0.114269</v>
+        <v>0.11238</v>
       </c>
       <c r="D128" t="n">
-        <v>0.114902</v>
+        <v>0.11241</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141285</v>
+        <v>0.141578</v>
       </c>
       <c r="C129" t="n">
-        <v>0.126643</v>
+        <v>0.113812</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1271</v>
+        <v>0.113731</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.157998</v>
+        <v>0.141907</v>
       </c>
       <c r="C130" t="n">
-        <v>0.134119</v>
+        <v>0.115116</v>
       </c>
       <c r="D130" t="n">
-        <v>0.135582</v>
+        <v>0.115695</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.159935</v>
+        <v>0.142326</v>
       </c>
       <c r="C131" t="n">
-        <v>0.139398</v>
+        <v>0.116996</v>
       </c>
       <c r="D131" t="n">
-        <v>0.141198</v>
+        <v>0.116776</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.17036</v>
+        <v>0.142945</v>
       </c>
       <c r="C132" t="n">
-        <v>0.141086</v>
+        <v>0.118682</v>
       </c>
       <c r="D132" t="n">
-        <v>0.134235</v>
+        <v>0.118653</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.165886</v>
+        <v>0.142913</v>
       </c>
       <c r="C133" t="n">
-        <v>0.143358</v>
+        <v>0.120922</v>
       </c>
       <c r="D133" t="n">
-        <v>0.138636</v>
+        <v>0.120946</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.172256</v>
+        <v>0.143914</v>
       </c>
       <c r="C134" t="n">
-        <v>0.144785</v>
+        <v>0.123791</v>
       </c>
       <c r="D134" t="n">
-        <v>0.141203</v>
+        <v>0.123947</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.167033</v>
+        <v>0.145453</v>
       </c>
       <c r="C135" t="n">
-        <v>0.146847</v>
+        <v>0.128014</v>
       </c>
       <c r="D135" t="n">
-        <v>0.15246</v>
+        <v>0.128034</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.174992</v>
+        <v>0.148281</v>
       </c>
       <c r="C136" t="n">
-        <v>0.163543</v>
+        <v>0.134519</v>
       </c>
       <c r="D136" t="n">
-        <v>0.173701</v>
+        <v>0.134515</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.196017</v>
+        <v>0.152198</v>
       </c>
       <c r="C137" t="n">
-        <v>0.154806</v>
+        <v>0.118648</v>
       </c>
       <c r="D137" t="n">
-        <v>0.159417</v>
+        <v>0.118348</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.211161</v>
+        <v>0.15806</v>
       </c>
       <c r="C138" t="n">
-        <v>0.163541</v>
+        <v>0.119868</v>
       </c>
       <c r="D138" t="n">
-        <v>0.159742</v>
+        <v>0.119341</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.210873</v>
+        <v>0.158051</v>
       </c>
       <c r="C139" t="n">
-        <v>0.159925</v>
+        <v>0.120861</v>
       </c>
       <c r="D139" t="n">
-        <v>0.124291</v>
+        <v>0.120469</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158231</v>
+        <v>0.15806</v>
       </c>
       <c r="C140" t="n">
-        <v>0.122562</v>
+        <v>0.122184</v>
       </c>
       <c r="D140" t="n">
-        <v>0.121444</v>
+        <v>0.121523</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.157864</v>
+        <v>0.158228</v>
       </c>
       <c r="C141" t="n">
-        <v>0.123775</v>
+        <v>0.123532</v>
       </c>
       <c r="D141" t="n">
-        <v>0.122736</v>
+        <v>0.122738</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158099</v>
+        <v>0.158378</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124934</v>
+        <v>0.124922</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123964</v>
+        <v>0.123955</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158192</v>
+        <v>0.158453</v>
       </c>
       <c r="C143" t="n">
-        <v>0.126159</v>
+        <v>0.145213</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125317</v>
+        <v>0.125296</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0198177</v>
+        <v>0.0196861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.020661</v>
+        <v>0.021348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0207388</v>
+        <v>0.0336857</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197689</v>
+        <v>0.0197442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0207905</v>
+        <v>0.0214877</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0210733</v>
+        <v>0.0394849</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0201546</v>
+        <v>0.0197441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0208032</v>
+        <v>0.0216247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0212082</v>
+        <v>0.0423094</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0199259</v>
+        <v>0.0197505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209174</v>
+        <v>0.0218795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.021426</v>
+        <v>0.0461472</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.020146</v>
+        <v>0.0199072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210442</v>
+        <v>0.0221566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0223425</v>
+        <v>0.0507523</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0203092</v>
+        <v>0.020167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0210508</v>
+        <v>0.0227802</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217597</v>
+        <v>0.030305</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0205189</v>
+        <v>0.0201829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0220989</v>
+        <v>0.0236896</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0220329</v>
+        <v>0.0319421</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0208522</v>
+        <v>0.0205995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0205991</v>
+        <v>0.0202692</v>
       </c>
       <c r="D9" t="n">
-        <v>0.020299</v>
+        <v>0.0344693</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0196324</v>
+        <v>0.0193044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0206224</v>
+        <v>0.0207092</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0205275</v>
+        <v>0.0368055</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0197613</v>
+        <v>0.0194655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.020929</v>
+        <v>0.0210303</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0209201</v>
+        <v>0.0393418</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198472</v>
+        <v>0.0196123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212365</v>
+        <v>0.0213025</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0207703</v>
+        <v>0.0427875</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0200045</v>
+        <v>0.0198252</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0219412</v>
+        <v>0.0213527</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0214182</v>
+        <v>0.0475742</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.020139</v>
+        <v>0.0198606</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216947</v>
+        <v>0.0218472</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0211185</v>
+        <v>0.0488059</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200294</v>
+        <v>0.0200329</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219619</v>
+        <v>0.0222591</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0215551</v>
+        <v>0.0525665</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.020157</v>
+        <v>0.0200361</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0220253</v>
+        <v>0.0226628</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0218192</v>
+        <v>0.0568101</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202728</v>
+        <v>0.020201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0223985</v>
+        <v>0.022977</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0220397</v>
+        <v>0.0604767</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204119</v>
+        <v>0.0201688</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02234</v>
+        <v>0.0233228</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0222319</v>
+        <v>0.0639252</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204814</v>
+        <v>0.0204639</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0224992</v>
+        <v>0.0238671</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0229377</v>
+        <v>0.0675722</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020689</v>
+        <v>0.020687</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0226357</v>
+        <v>0.0246036</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0232736</v>
+        <v>0.0692373</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0209465</v>
+        <v>0.0209861</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0232853</v>
+        <v>0.0252305</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0237999</v>
+        <v>0.0444481</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0220356</v>
+        <v>0.0214982</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0247751</v>
+        <v>0.0277472</v>
       </c>
       <c r="D22" t="n">
-        <v>0.025082</v>
+        <v>0.0475408</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0242645</v>
+        <v>0.0232463</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0216065</v>
+        <v>0.0217618</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0214453</v>
+        <v>0.0489493</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0203843</v>
+        <v>0.0203659</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218606</v>
+        <v>0.0219587</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0216952</v>
+        <v>0.0508013</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204882</v>
+        <v>0.0204979</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220389</v>
+        <v>0.0222026</v>
       </c>
       <c r="D25" t="n">
-        <v>0.021844</v>
+        <v>0.0535126</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0205537</v>
+        <v>0.0206548</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222652</v>
+        <v>0.0224898</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0220541</v>
+        <v>0.0556632</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207529</v>
+        <v>0.0208464</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226466</v>
+        <v>0.0228074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0223523</v>
+        <v>0.0589148</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209222</v>
+        <v>0.0210504</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0228677</v>
+        <v>0.0232103</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0228555</v>
+        <v>0.0614351</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211526</v>
+        <v>0.0212226</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0232788</v>
+        <v>0.0236661</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0231167</v>
+        <v>0.06435200000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213478</v>
+        <v>0.0216188</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235169</v>
+        <v>0.0240376</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0234776</v>
+        <v>0.0664998</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215417</v>
+        <v>0.0218555</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0238147</v>
+        <v>0.0245248</v>
       </c>
       <c r="D31" t="n">
-        <v>0.023894</v>
+        <v>0.07017470000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0217772</v>
+        <v>0.0220454</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0241082</v>
+        <v>0.0252023</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0243771</v>
+        <v>0.0725022</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221622</v>
+        <v>0.0221091</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0244715</v>
+        <v>0.0257564</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0247512</v>
+        <v>0.0762954</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0226263</v>
+        <v>0.0229123</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0249128</v>
+        <v>0.0270565</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0254798</v>
+        <v>0.0772482</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0247787</v>
+        <v>0.023554</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02718</v>
+        <v>0.0287934</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0271804</v>
+        <v>0.0518274</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0274783</v>
+        <v>0.025525</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0307807</v>
+        <v>0.0324096</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0302838</v>
+        <v>0.0539981</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0320969</v>
+        <v>0.0295991</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0227497</v>
+        <v>0.0236684</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0228163</v>
+        <v>0.0569381</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215519</v>
+        <v>0.0226652</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0229759</v>
+        <v>0.0241302</v>
       </c>
       <c r="D38" t="n">
-        <v>0.023021</v>
+        <v>0.0590617</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216599</v>
+        <v>0.0226726</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232153</v>
+        <v>0.0244332</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0232803</v>
+        <v>0.0616864</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218617</v>
+        <v>0.0230688</v>
       </c>
       <c r="C40" t="n">
-        <v>0.023483</v>
+        <v>0.0245736</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0235685</v>
+        <v>0.0607154</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220038</v>
+        <v>0.0220955</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0237561</v>
+        <v>0.0239295</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0239051</v>
+        <v>0.06472219999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222657</v>
+        <v>0.0221313</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0240791</v>
+        <v>0.0243207</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0242339</v>
+        <v>0.0669053</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0226411</v>
+        <v>0.0224242</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0244141</v>
+        <v>0.0252591</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0246189</v>
+        <v>0.06983350000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227245</v>
+        <v>0.0226252</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0248339</v>
+        <v>0.0256591</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0250357</v>
+        <v>0.0728838</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0231466</v>
+        <v>0.0229498</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0252866</v>
+        <v>0.0259074</v>
       </c>
       <c r="D45" t="n">
-        <v>0.025576</v>
+        <v>0.0752324</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0236619</v>
+        <v>0.0233683</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0257984</v>
+        <v>0.0266036</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0262739</v>
+        <v>0.07806680000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0245544</v>
+        <v>0.024254</v>
       </c>
       <c r="C47" t="n">
-        <v>0.026701</v>
+        <v>0.027689</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0272897</v>
+        <v>0.0802983</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0261262</v>
+        <v>0.0251133</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02808</v>
+        <v>0.0291986</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0285281</v>
+        <v>0.0828279</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0279347</v>
+        <v>0.0266522</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0304211</v>
+        <v>0.0317988</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0307327</v>
+        <v>0.0846045</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0307145</v>
+        <v>0.029904</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0344691</v>
+        <v>0.0360721</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0344534</v>
+        <v>0.0575865</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0347339</v>
+        <v>0.0329878</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0233486</v>
+        <v>0.023394</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0235499</v>
+        <v>0.0593047</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0403458</v>
+        <v>0.0389153</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0235662</v>
+        <v>0.0236044</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0237339</v>
+        <v>0.0611502</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231961</v>
+        <v>0.0231873</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238268</v>
+        <v>0.023867</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0240101</v>
+        <v>0.0636737</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233515</v>
+        <v>0.0233782</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0240484</v>
+        <v>0.0241515</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0242233</v>
+        <v>0.0657292</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.023385</v>
+        <v>0.0234553</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0243396</v>
+        <v>0.0244875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0245843</v>
+        <v>0.06833930000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237076</v>
+        <v>0.0236761</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0248073</v>
+        <v>0.0249477</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0248598</v>
+        <v>0.0707661</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240554</v>
+        <v>0.0239042</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0251669</v>
+        <v>0.0253774</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0252983</v>
+        <v>0.073903</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0243828</v>
+        <v>0.0242977</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0255647</v>
+        <v>0.0259302</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0258203</v>
+        <v>0.0761425</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024872</v>
+        <v>0.0246093</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0262007</v>
+        <v>0.0265094</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0264538</v>
+        <v>0.078791</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0256331</v>
+        <v>0.0252684</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0269344</v>
+        <v>0.0274929</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0271785</v>
+        <v>0.08170040000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.026321</v>
+        <v>0.0261573</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0281145</v>
+        <v>0.0286629</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0282965</v>
+        <v>0.0839515</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275389</v>
+        <v>0.027529</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0297454</v>
+        <v>0.0303873</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0298253</v>
+        <v>0.0861381</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0298442</v>
+        <v>0.0293145</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0322753</v>
+        <v>0.0330881</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0321724</v>
+        <v>0.088853</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0324077</v>
+        <v>0.0323043</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0359607</v>
+        <v>0.0367975</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0358812</v>
+        <v>0.0638098</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0362464</v>
+        <v>0.0357062</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0421103</v>
+        <v>0.0428056</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0419948</v>
+        <v>0.06650739999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.041283</v>
+        <v>0.0407992</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0253787</v>
+        <v>0.0248565</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0252308</v>
+        <v>0.0691383</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0268473</v>
+        <v>0.0291067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0258956</v>
+        <v>0.0254945</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0255577</v>
+        <v>0.0715653</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0270171</v>
+        <v>0.0292957</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0265203</v>
+        <v>0.025829</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0257516</v>
+        <v>0.0745817</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0272493</v>
+        <v>0.0294658</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0260571</v>
+        <v>0.0266013</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0267838</v>
+        <v>0.07851610000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0275263</v>
+        <v>0.0296458</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0267849</v>
+        <v>0.0265404</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0266757</v>
+        <v>0.0814839</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0277912</v>
+        <v>0.0298446</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0275525</v>
+        <v>0.0270211</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0276414</v>
+        <v>0.0860113</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0282986</v>
+        <v>0.0303077</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0280105</v>
+        <v>0.027483</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0281639</v>
+        <v>0.09014419999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0288928</v>
+        <v>0.0305738</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0285984</v>
+        <v>0.0281629</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0282289</v>
+        <v>0.0948281</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0295233</v>
+        <v>0.0311089</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0291904</v>
+        <v>0.0291473</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0290751</v>
+        <v>0.0981105</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0305117</v>
+        <v>0.031958</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0300198</v>
+        <v>0.0302343</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0302683</v>
+        <v>0.101526</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0318881</v>
+        <v>0.0331584</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0318431</v>
+        <v>0.0321709</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0320007</v>
+        <v>0.107487</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0339179</v>
+        <v>0.0348142</v>
       </c>
       <c r="C77" t="n">
-        <v>0.034135</v>
+        <v>0.0346453</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0342565</v>
+        <v>0.112807</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0363522</v>
+        <v>0.0371248</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0376424</v>
+        <v>0.038211</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0378473</v>
+        <v>0.0965601</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0395567</v>
+        <v>0.0406293</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0431508</v>
+        <v>0.0437751</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0433825</v>
+        <v>0.101097</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0441356</v>
+        <v>0.0455093</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0355875</v>
+        <v>0.0369618</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0362665</v>
+        <v>0.106082</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0605016</v>
+        <v>0.054876</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0362836</v>
+        <v>0.0377666</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0370379</v>
+        <v>0.110975</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0604602</v>
+        <v>0.0551749</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0369944</v>
+        <v>0.0385693</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0375017</v>
+        <v>0.114995</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.060851</v>
+        <v>0.0552561</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0377974</v>
+        <v>0.0393414</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0384445</v>
+        <v>0.120023</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.060862</v>
+        <v>0.0555251</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0384962</v>
+        <v>0.0400166</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0408703</v>
+        <v>0.125893</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0623215</v>
+        <v>0.0557353</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0394103</v>
+        <v>0.0406419</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0402173</v>
+        <v>0.130762</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0614748</v>
+        <v>0.0559444</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0403675</v>
+        <v>0.0415556</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0407943</v>
+        <v>0.136855</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618701</v>
+        <v>0.056275</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0412621</v>
+        <v>0.0424017</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0420557</v>
+        <v>0.142491</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0644286</v>
+        <v>0.0565668</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0425876</v>
+        <v>0.0449697</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0430509</v>
+        <v>0.148735</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0633286</v>
+        <v>0.0570285</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0436972</v>
+        <v>0.0442997</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0438438</v>
+        <v>0.154806</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0585598</v>
+        <v>0.0577995</v>
       </c>
       <c r="C90" t="n">
-        <v>0.045209</v>
+        <v>0.0456659</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0490805</v>
+        <v>0.160276</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.07071959999999999</v>
+        <v>0.0587407</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0556203</v>
+        <v>0.047738</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0579686</v>
+        <v>0.165942</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.07463060000000001</v>
+        <v>0.0605897</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0631057</v>
+        <v>0.0505484</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0649585</v>
+        <v>0.145194</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0834681</v>
+        <v>0.0631306</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0704922</v>
+        <v>0.0549595</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0700597</v>
+        <v>0.148853</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0900661</v>
+        <v>0.06695570000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.08840199999999999</v>
+        <v>0.0715803</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0860583</v>
+        <v>0.152457</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107185</v>
+        <v>0.09221509999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.08736099999999999</v>
+        <v>0.0719887</v>
       </c>
       <c r="D95" t="n">
-        <v>0.08778030000000001</v>
+        <v>0.156847</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.104648</v>
+        <v>0.0858753</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0923699</v>
+        <v>0.0723747</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0922289</v>
+        <v>0.16093</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.107865</v>
+        <v>0.08594309999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0939214</v>
+        <v>0.0728399</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0945183</v>
+        <v>0.165502</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.103344</v>
+        <v>0.0860457</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0906317</v>
+        <v>0.07350520000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0912978</v>
+        <v>0.171025</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.105376</v>
+        <v>0.0861672</v>
       </c>
       <c r="C99" t="n">
-        <v>0.092589</v>
+        <v>0.0740489</v>
       </c>
       <c r="D99" t="n">
-        <v>0.092528</v>
+        <v>0.176145</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.107978</v>
+        <v>0.0863088</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09468890000000001</v>
+        <v>0.0746351</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09217590000000001</v>
+        <v>0.181854</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.109299</v>
+        <v>0.0865691</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0940183</v>
+        <v>0.0754398</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0930834</v>
+        <v>0.187152</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.10703</v>
+        <v>0.0868321</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0920477</v>
+        <v>0.07621650000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.09632259999999999</v>
+        <v>0.192849</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.111173</v>
+        <v>0.08713460000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09690459999999999</v>
+        <v>0.0796057</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09492920000000001</v>
+        <v>0.199082</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.106537</v>
+        <v>0.08769159999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0976706</v>
+        <v>0.07860830000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0966264</v>
+        <v>0.205029</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114812</v>
+        <v>0.0958198</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0988728</v>
+        <v>0.0804361</v>
       </c>
       <c r="D105" t="n">
-        <v>0.100148</v>
+        <v>0.211115</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110592</v>
+        <v>0.0898485</v>
       </c>
       <c r="C106" t="n">
-        <v>0.103381</v>
+        <v>0.0829439</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0999781</v>
+        <v>0.217795</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.117016</v>
+        <v>0.095514</v>
       </c>
       <c r="C107" t="n">
-        <v>0.105226</v>
+        <v>0.08686770000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1085</v>
+        <v>0.181761</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.121363</v>
+        <v>0.09515</v>
       </c>
       <c r="C108" t="n">
-        <v>0.108453</v>
+        <v>0.0889514</v>
       </c>
       <c r="D108" t="n">
-        <v>0.112472</v>
+        <v>0.184875</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.126748</v>
+        <v>0.100163</v>
       </c>
       <c r="C109" t="n">
-        <v>0.112852</v>
+        <v>0.089729</v>
       </c>
       <c r="D109" t="n">
-        <v>0.108009</v>
+        <v>0.18853</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.131222</v>
+        <v>0.1074</v>
       </c>
       <c r="C110" t="n">
-        <v>0.111047</v>
+        <v>0.0904097</v>
       </c>
       <c r="D110" t="n">
-        <v>0.109694</v>
+        <v>0.193379</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.135784</v>
+        <v>0.10739</v>
       </c>
       <c r="C111" t="n">
-        <v>0.110136</v>
+        <v>0.0913191</v>
       </c>
       <c r="D111" t="n">
-        <v>0.108457</v>
+        <v>0.196792</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.128975</v>
+        <v>0.107504</v>
       </c>
       <c r="C112" t="n">
-        <v>0.109398</v>
+        <v>0.0921503</v>
       </c>
       <c r="D112" t="n">
-        <v>0.107743</v>
+        <v>0.201399</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.131271</v>
+        <v>0.107377</v>
       </c>
       <c r="C113" t="n">
-        <v>0.113216</v>
+        <v>0.0931935</v>
       </c>
       <c r="D113" t="n">
-        <v>0.11259</v>
+        <v>0.206374</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.131142</v>
+        <v>0.114714</v>
       </c>
       <c r="C114" t="n">
-        <v>0.110793</v>
+        <v>0.09714059999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.110528</v>
+        <v>0.211734</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.131568</v>
+        <v>0.108009</v>
       </c>
       <c r="C115" t="n">
-        <v>0.117165</v>
+        <v>0.09524050000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.118255</v>
+        <v>0.218001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133528</v>
+        <v>0.108717</v>
       </c>
       <c r="C116" t="n">
-        <v>0.121121</v>
+        <v>0.096618</v>
       </c>
       <c r="D116" t="n">
-        <v>0.120814</v>
+        <v>0.223144</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.133825</v>
+        <v>0.109426</v>
       </c>
       <c r="C117" t="n">
-        <v>0.121585</v>
+        <v>0.0979674</v>
       </c>
       <c r="D117" t="n">
-        <v>0.127636</v>
+        <v>0.229767</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.159138</v>
+        <v>0.110397</v>
       </c>
       <c r="C118" t="n">
-        <v>0.141223</v>
+        <v>0.0996447</v>
       </c>
       <c r="D118" t="n">
-        <v>0.143486</v>
+        <v>0.235872</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.163902</v>
+        <v>0.111361</v>
       </c>
       <c r="C119" t="n">
-        <v>0.148729</v>
+        <v>0.101745</v>
       </c>
       <c r="D119" t="n">
-        <v>0.147266</v>
+        <v>0.240776</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.167117</v>
+        <v>0.112842</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152483</v>
+        <v>0.104375</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1516</v>
+        <v>0.247637</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.166903</v>
+        <v>0.114762</v>
       </c>
       <c r="C121" t="n">
-        <v>0.156293</v>
+        <v>0.108312</v>
       </c>
       <c r="D121" t="n">
-        <v>0.158756</v>
+        <v>0.198997</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.150072</v>
+        <v>0.117867</v>
       </c>
       <c r="C122" t="n">
-        <v>0.114511</v>
+        <v>0.114594</v>
       </c>
       <c r="D122" t="n">
-        <v>0.115842</v>
+        <v>0.202385</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12092</v>
+        <v>0.124715</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106779</v>
+        <v>0.106984</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106449</v>
+        <v>0.205971</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.14408</v>
+        <v>0.139793</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107893</v>
+        <v>0.119349</v>
       </c>
       <c r="D124" t="n">
-        <v>0.107712</v>
+        <v>0.209681</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141803</v>
+        <v>0.140249</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108874</v>
+        <v>0.109142</v>
       </c>
       <c r="D125" t="n">
-        <v>0.108741</v>
+        <v>0.213857</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.141085</v>
+        <v>0.139831</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110014</v>
+        <v>0.110214</v>
       </c>
       <c r="D126" t="n">
-        <v>0.109856</v>
+        <v>0.218441</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141541</v>
+        <v>0.139692</v>
       </c>
       <c r="C127" t="n">
-        <v>0.118913</v>
+        <v>0.111475</v>
       </c>
       <c r="D127" t="n">
-        <v>0.110982</v>
+        <v>0.223282</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141404</v>
+        <v>0.139658</v>
       </c>
       <c r="C128" t="n">
-        <v>0.11238</v>
+        <v>0.112737</v>
       </c>
       <c r="D128" t="n">
-        <v>0.11241</v>
+        <v>0.228864</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141578</v>
+        <v>0.139443</v>
       </c>
       <c r="C129" t="n">
-        <v>0.113812</v>
+        <v>0.11413</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113731</v>
+        <v>0.234598</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141907</v>
+        <v>0.139582</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115116</v>
+        <v>0.115719</v>
       </c>
       <c r="D130" t="n">
-        <v>0.115695</v>
+        <v>0.240649</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142326</v>
+        <v>0.139867</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116996</v>
+        <v>0.117336</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116776</v>
+        <v>0.251617</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142945</v>
+        <v>0.14053</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118682</v>
+        <v>0.119263</v>
       </c>
       <c r="D132" t="n">
-        <v>0.118653</v>
+        <v>0.252683</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142913</v>
+        <v>0.141002</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120922</v>
+        <v>0.121651</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120946</v>
+        <v>0.258786</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.143914</v>
+        <v>0.142003</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123791</v>
+        <v>0.124577</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123947</v>
+        <v>0.264415</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.145453</v>
+        <v>0.143615</v>
       </c>
       <c r="C135" t="n">
-        <v>0.128014</v>
+        <v>0.128814</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128034</v>
+        <v>0.20958</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148281</v>
+        <v>0.145983</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134519</v>
+        <v>0.13534</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134515</v>
+        <v>0.21278</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.152198</v>
+        <v>0.150084</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118648</v>
+        <v>0.118414</v>
       </c>
       <c r="D137" t="n">
-        <v>0.118348</v>
+        <v>0.216352</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.15806</v>
+        <v>0.158033</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119868</v>
+        <v>0.119444</v>
       </c>
       <c r="D138" t="n">
-        <v>0.119341</v>
+        <v>0.219749</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158051</v>
+        <v>0.157812</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120861</v>
+        <v>0.120531</v>
       </c>
       <c r="D139" t="n">
-        <v>0.120469</v>
+        <v>0.224359</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15806</v>
+        <v>0.157958</v>
       </c>
       <c r="C140" t="n">
-        <v>0.122184</v>
+        <v>0.121662</v>
       </c>
       <c r="D140" t="n">
-        <v>0.121523</v>
+        <v>0.228913</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158228</v>
+        <v>0.158179</v>
       </c>
       <c r="C141" t="n">
-        <v>0.123532</v>
+        <v>0.122894</v>
       </c>
       <c r="D141" t="n">
-        <v>0.122738</v>
+        <v>0.236829</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158378</v>
+        <v>0.158157</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124922</v>
+        <v>0.12405</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123955</v>
+        <v>0.239299</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158453</v>
+        <v>0.158476</v>
       </c>
       <c r="C143" t="n">
-        <v>0.145213</v>
+        <v>0.125504</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125296</v>
+        <v>0.2453</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.019845</v>
+                  <v>0.0196861</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198904</v>
+                  <v>0.0197442</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199411</v>
+                  <v>0.0197441</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199892</v>
+                  <v>0.0197505</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201312</v>
+                  <v>0.0199072</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0202981</v>
+                  <v>0.020167</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0205168</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0208663</v>
+                  <v>0.0205995</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194247</v>
+                  <v>0.0193044</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196249</v>
+                  <v>0.0194655</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198597</v>
+                  <v>0.0196123</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019879</v>
+                  <v>0.0198252</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0201309</v>
+                  <v>0.0198606</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201944</v>
+                  <v>0.0200329</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0204396</v>
+                  <v>0.0200361</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0204292</v>
+                  <v>0.020201</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0206016</v>
+                  <v>0.0201688</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0208694</v>
+                  <v>0.0204639</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208716</v>
+                  <v>0.020687</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.021266</v>
+                  <v>0.0209861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0221654</v>
+                  <v>0.0214982</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0254766</v>
+                  <v>0.0232463</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0204662</v>
+                  <v>0.0203659</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0205747</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207285</v>
+                  <v>0.0206548</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208946</v>
+                  <v>0.0208464</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0211401</v>
+                  <v>0.0210504</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0213119</v>
+                  <v>0.0212226</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214143</v>
+                  <v>0.0216188</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0217806</v>
+                  <v>0.0218555</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218731</v>
+                  <v>0.0220454</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0220813</v>
+                  <v>0.0221091</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.022994</v>
+                  <v>0.0229123</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248609</v>
+                  <v>0.023554</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0303561</v>
+                  <v>0.025525</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0334795</v>
+                  <v>0.0295991</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0213853</v>
+                  <v>0.0226652</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0215081</v>
+                  <v>0.0226726</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0216916</v>
+                  <v>0.0230688</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0218279</v>
+                  <v>0.0220955</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0219942</v>
+                  <v>0.0221313</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0223725</v>
+                  <v>0.0224242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226982</v>
+                  <v>0.0226252</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230858</v>
+                  <v>0.0229498</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235639</v>
+                  <v>0.0233683</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0246222</v>
+                  <v>0.024254</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0261523</v>
+                  <v>0.0251133</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.028148</v>
+                  <v>0.0266522</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310283</v>
+                  <v>0.029904</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0349552</v>
+                  <v>0.0329878</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0411047</v>
+                  <v>0.0389153</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0235334</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233996</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240147</v>
+                  <v>0.0234553</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237518</v>
+                  <v>0.0236761</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0243179</v>
+                  <v>0.0239042</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0246823</v>
+                  <v>0.0242977</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0250545</v>
+                  <v>0.0246093</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256238</v>
+                  <v>0.0252684</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0266776</v>
+                  <v>0.0261573</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0281548</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0303362</v>
+                  <v>0.0293145</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0330569</v>
+                  <v>0.0323043</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0370665</v>
+                  <v>0.0357062</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420454</v>
+                  <v>0.0407992</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292569</v>
+                  <v>0.0291067</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293821</v>
+                  <v>0.0292957</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294515</v>
+                  <v>0.0294658</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297582</v>
+                  <v>0.0296458</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298101</v>
+                  <v>0.0298446</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302477</v>
+                  <v>0.0303077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0307674</v>
+                  <v>0.0305738</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0314948</v>
+                  <v>0.0311089</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0322669</v>
+                  <v>0.031958</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0336498</v>
+                  <v>0.0331584</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353674</v>
+                  <v>0.0348142</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0379218</v>
+                  <v>0.0371248</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0413547</v>
+                  <v>0.0406293</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.045947</v>
+                  <v>0.0455093</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0557759</v>
+                  <v>0.054876</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0559223</v>
+                  <v>0.0551749</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0561782</v>
+                  <v>0.0552561</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0562248</v>
+                  <v>0.0555251</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0564335</v>
+                  <v>0.0557353</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0568433</v>
+                  <v>0.0559444</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0571164</v>
+                  <v>0.056275</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0573685</v>
+                  <v>0.0565668</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0579423</v>
+                  <v>0.0570285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0585424</v>
+                  <v>0.0577995</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0597217</v>
+                  <v>0.0587407</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0613516</v>
+                  <v>0.0605897</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0637716</v>
+                  <v>0.0631306</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0674956</v>
+                  <v>0.06695570000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0857108</v>
+                  <v>0.09221509999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.085729</v>
+                  <v>0.0858753</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08582099999999999</v>
+                  <v>0.08594309999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.085891</v>
+                  <v>0.0860457</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08591310000000001</v>
+                  <v>0.0861672</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0952533</v>
+                  <v>0.0863088</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0900392</v>
+                  <v>0.0865691</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0865544</v>
+                  <v>0.0868321</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08702120000000001</v>
+                  <v>0.08713460000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08758929999999999</v>
+                  <v>0.08769159999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0884514</v>
+                  <v>0.0958198</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08982080000000001</v>
+                  <v>0.0898485</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0916886</v>
+                  <v>0.095514</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949089</v>
+                  <v>0.09515</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.09997010000000001</v>
+                  <v>0.100163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.107963</v>
+                  <v>0.1074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108243</v>
+                  <v>0.10739</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.108225</v>
+                  <v>0.107504</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.10822</v>
+                  <v>0.107377</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.108618</v>
+                  <v>0.114714</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108608</v>
+                  <v>0.108009</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109047</v>
+                  <v>0.108717</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109454</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110007</v>
+                  <v>0.110397</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110855</v>
+                  <v>0.111361</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112081</v>
+                  <v>0.112842</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.113914</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.116949</v>
+                  <v>0.117867</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.121459</v>
+                  <v>0.124715</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.134045</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.141735</v>
+                  <v>0.140249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.14386</v>
+                  <v>0.139831</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.141993</v>
+                  <v>0.139692</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.141564</v>
+                  <v>0.139658</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.141767</v>
+                  <v>0.139443</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142252</v>
+                  <v>0.139582</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142466</v>
+                  <v>0.139867</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.143005</v>
+                  <v>0.14053</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.143627</v>
+                  <v>0.141002</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144639</v>
+                  <v>0.142003</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.146121</v>
+                  <v>0.143615</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.148787</v>
+                  <v>0.145983</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.153145</v>
+                  <v>0.150084</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.160222</v>
+                  <v>0.158033</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15805</v>
+                  <v>0.157812</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.158093</v>
+                  <v>0.157958</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158066</v>
+                  <v>0.158179</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158317</v>
+                  <v>0.158157</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158434</v>
+                  <v>0.158476</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0207816</v>
+                  <v>0.021348</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0208667</v>
+                  <v>0.0214877</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208241</v>
+                  <v>0.0216247</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207476</v>
+                  <v>0.0218795</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.020652</v>
+                  <v>0.0221566</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0209277</v>
+                  <v>0.0227802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0208354</v>
+                  <v>0.0236896</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021057</v>
+                  <v>0.0202692</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207722</v>
+                  <v>0.0207092</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211993</v>
+                  <v>0.0210303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.021061</v>
+                  <v>0.0213025</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0212452</v>
+                  <v>0.0213527</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0215641</v>
+                  <v>0.0218472</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0219941</v>
+                  <v>0.0222591</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0221573</v>
+                  <v>0.0226628</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022048</v>
+                  <v>0.022977</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.022091</v>
+                  <v>0.0233228</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223514</v>
+                  <v>0.0238671</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224619</v>
+                  <v>0.0246036</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0226031</v>
+                  <v>0.0252305</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229443</v>
+                  <v>0.0277472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0236086</v>
+                  <v>0.0217618</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218909</v>
+                  <v>0.0219587</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0220636</v>
+                  <v>0.0222026</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222406</v>
+                  <v>0.0224898</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225907</v>
+                  <v>0.0228074</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.022887</v>
+                  <v>0.0232103</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0230842</v>
+                  <v>0.0236661</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234928</v>
+                  <v>0.0240376</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0237357</v>
+                  <v>0.0245248</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0239547</v>
+                  <v>0.0252023</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0241213</v>
+                  <v>0.0257564</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0246092</v>
+                  <v>0.0270565</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0256069</v>
+                  <v>0.0287934</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0258742</v>
+                  <v>0.0324096</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0314078</v>
+                  <v>0.0236684</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231422</v>
+                  <v>0.0241302</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0232697</v>
+                  <v>0.0244332</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0236008</v>
+                  <v>0.0245736</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239637</v>
+                  <v>0.0239295</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0241731</v>
+                  <v>0.0243207</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.024655</v>
+                  <v>0.0252591</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0250199</v>
+                  <v>0.0256591</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0254471</v>
+                  <v>0.0259074</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0257887</v>
+                  <v>0.0266036</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.026411</v>
+                  <v>0.027689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273266</v>
+                  <v>0.0291986</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288305</v>
+                  <v>0.0317988</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310001</v>
+                  <v>0.0360721</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0354398</v>
+                  <v>0.023394</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0403807</v>
+                  <v>0.0236044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246173</v>
+                  <v>0.023867</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0249205</v>
+                  <v>0.0241515</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0252809</v>
+                  <v>0.0244875</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0256266</v>
+                  <v>0.0249477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0260148</v>
+                  <v>0.0253774</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0264257</v>
+                  <v>0.0259302</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0269137</v>
+                  <v>0.0265094</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274746</v>
+                  <v>0.0274929</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0282353</v>
+                  <v>0.0286629</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0295079</v>
+                  <v>0.0303873</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0309257</v>
+                  <v>0.0330881</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0332921</v>
+                  <v>0.0367975</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0365299</v>
+                  <v>0.0428056</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0415142</v>
+                  <v>0.0248565</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0269617</v>
+                  <v>0.0254945</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0268134</v>
+                  <v>0.025829</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0271091</v>
+                  <v>0.0266013</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.028098</v>
+                  <v>0.0265404</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.028241</v>
+                  <v>0.0270211</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0283238</v>
+                  <v>0.027483</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0289933</v>
+                  <v>0.0281629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0297943</v>
+                  <v>0.0291473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0305728</v>
+                  <v>0.0302343</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0318959</v>
+                  <v>0.0321709</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0330477</v>
+                  <v>0.0346453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0355949</v>
+                  <v>0.038211</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0380312</v>
+                  <v>0.0437751</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0422199</v>
+                  <v>0.0369618</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0358291</v>
+                  <v>0.0377666</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0366934</v>
+                  <v>0.0385693</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0371542</v>
+                  <v>0.0393414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0385504</v>
+                  <v>0.0400166</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0397275</v>
+                  <v>0.0406419</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0406958</v>
+                  <v>0.0415556</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0420235</v>
+                  <v>0.0424017</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.043628</v>
+                  <v>0.0449697</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0448497</v>
+                  <v>0.0442997</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0467952</v>
+                  <v>0.0456659</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0485398</v>
+                  <v>0.047738</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.050625</v>
+                  <v>0.0505484</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0531723</v>
+                  <v>0.0549595</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0575467</v>
+                  <v>0.0715803</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0690796</v>
+                  <v>0.0719887</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0695586</v>
+                  <v>0.0723747</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07006270000000001</v>
+                  <v>0.0728399</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0706492</v>
+                  <v>0.07350520000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0712165</v>
+                  <v>0.0740489</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0719084</v>
+                  <v>0.0746351</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0726926</v>
+                  <v>0.0754398</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.073481</v>
+                  <v>0.07621650000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0744592</v>
+                  <v>0.0796057</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0757119</v>
+                  <v>0.07860830000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0771091</v>
+                  <v>0.0804361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0789149</v>
+                  <v>0.0829439</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08129740000000001</v>
+                  <v>0.08686770000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.085034</v>
+                  <v>0.0889514</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0910459</v>
+                  <v>0.089729</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.08287219999999999</v>
+                  <v>0.0904097</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.08375249999999999</v>
+                  <v>0.0913191</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0846664</v>
+                  <v>0.0921503</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0856579</v>
+                  <v>0.0931935</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.08681120000000001</v>
+                  <v>0.09714059999999999</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.08786919999999999</v>
+                  <v>0.09524050000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0892593</v>
+                  <v>0.096618</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0907998</v>
+                  <v>0.0979674</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0923614</v>
+                  <v>0.0996447</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0942355</v>
+                  <v>0.101745</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.096293</v>
+                  <v>0.104375</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0990901</v>
+                  <v>0.108312</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102927</v>
+                  <v>0.114594</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.108871</v>
+                  <v>0.106984</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0958808</v>
+                  <v>0.119349</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.09704169999999999</v>
+                  <v>0.109142</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0989488</v>
+                  <v>0.110214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.100162</v>
+                  <v>0.111475</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.101129</v>
+                  <v>0.112737</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.102743</v>
+                  <v>0.11413</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.10443</v>
+                  <v>0.115719</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.106431</v>
+                  <v>0.117336</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.108216</v>
+                  <v>0.119263</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.110255</v>
+                  <v>0.121651</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.112815</v>
+                  <v>0.124577</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.11575</v>
+                  <v>0.128814</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.119701</v>
+                  <v>0.13534</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.126693</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.108481</v>
+                  <v>0.119444</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.109886</v>
+                  <v>0.120531</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.111216</v>
+                  <v>0.121662</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.112687</v>
+                  <v>0.122894</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.114154</v>
+                  <v>0.12405</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.115713</v>
+                  <v>0.125504</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0197621</v>
+                  <v>0.0336857</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0199124</v>
+                  <v>0.0394849</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199636</v>
+                  <v>0.0423094</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0200411</v>
+                  <v>0.0461472</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201853</v>
+                  <v>0.0507523</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0205493</v>
+                  <v>0.030305</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212255</v>
+                  <v>0.0319421</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0196114</v>
+                  <v>0.0344693</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196542</v>
+                  <v>0.0368055</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197311</v>
+                  <v>0.0393418</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200198</v>
+                  <v>0.0427875</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202983</v>
+                  <v>0.0475742</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206514</v>
+                  <v>0.0488059</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208261</v>
+                  <v>0.0525665</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0213814</v>
+                  <v>0.0568101</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.021683</v>
+                  <v>0.0604767</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0218647</v>
+                  <v>0.0639252</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0217385</v>
+                  <v>0.0675722</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0221793</v>
+                  <v>0.0692373</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234999</v>
+                  <v>0.0444481</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.025596</v>
+                  <v>0.0475408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0208572</v>
+                  <v>0.0489493</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0211474</v>
+                  <v>0.0508013</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0213952</v>
+                  <v>0.0535126</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0216285</v>
+                  <v>0.0556632</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0219129</v>
+                  <v>0.0589148</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221909</v>
+                  <v>0.0614351</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226314</v>
+                  <v>0.06435200000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.02287</v>
+                  <v>0.0664998</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0232938</v>
+                  <v>0.07017470000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236459</v>
+                  <v>0.0725022</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243776</v>
+                  <v>0.0762954</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0256094</v>
+                  <v>0.0772482</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0280099</v>
+                  <v>0.0518274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0318825</v>
+                  <v>0.0539981</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0222322</v>
+                  <v>0.0569381</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224761</v>
+                  <v>0.0590617</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226406</v>
+                  <v>0.0616864</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229219</v>
+                  <v>0.0607154</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0232372</v>
+                  <v>0.06472219999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235604</v>
+                  <v>0.0669053</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239217</v>
+                  <v>0.06983350000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0243675</v>
+                  <v>0.0728838</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0249258</v>
+                  <v>0.0752324</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0256372</v>
+                  <v>0.07806680000000001</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0267547</v>
+                  <v>0.0802983</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0285161</v>
+                  <v>0.0828279</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0309254</v>
+                  <v>0.0846045</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.03463</v>
+                  <v>0.0575865</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0230982</v>
+                  <v>0.0593047</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0233375</v>
+                  <v>0.0611502</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023593</v>
+                  <v>0.0636737</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0238201</v>
+                  <v>0.0657292</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0241227</v>
+                  <v>0.06833930000000001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244723</v>
+                  <v>0.0707661</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.024922</v>
+                  <v>0.073903</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0253022</v>
+                  <v>0.0761425</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0259853</v>
+                  <v>0.078791</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0267356</v>
+                  <v>0.08170040000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0278598</v>
+                  <v>0.0839515</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0296228</v>
+                  <v>0.0861381</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0320613</v>
+                  <v>0.088853</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0356651</v>
+                  <v>0.0638098</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0410615</v>
+                  <v>0.06650739999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0247871</v>
+                  <v>0.0691383</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0249031</v>
+                  <v>0.0715653</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0256338</v>
+                  <v>0.0745817</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0258881</v>
+                  <v>0.07851610000000001</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0259173</v>
+                  <v>0.0814839</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0262823</v>
+                  <v>0.0860113</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0271444</v>
+                  <v>0.09014419999999999</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0274852</v>
+                  <v>0.0948281</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283927</v>
+                  <v>0.0981105</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0298077</v>
+                  <v>0.101526</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0311471</v>
+                  <v>0.107487</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0336077</v>
+                  <v>0.112807</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0368424</v>
+                  <v>0.0965601</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0414916</v>
+                  <v>0.101097</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0365337</v>
+                  <v>0.106082</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.037033</v>
+                  <v>0.110975</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385276</v>
+                  <v>0.114995</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0385709</v>
+                  <v>0.120023</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0392564</v>
+                  <v>0.125893</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0399463</v>
+                  <v>0.130762</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.040702</v>
+                  <v>0.136855</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.041626</v>
+                  <v>0.142491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0423938</v>
+                  <v>0.148735</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0433475</v>
+                  <v>0.154806</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0447666</v>
+                  <v>0.160276</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0465736</v>
+                  <v>0.165942</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0493242</v>
+                  <v>0.145194</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0542457</v>
+                  <v>0.148853</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.07123119999999999</v>
+                  <v>0.152457</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.071656</v>
+                  <v>0.156847</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721349</v>
+                  <v>0.16093</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07265770000000001</v>
+                  <v>0.165502</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0729856</v>
+                  <v>0.171025</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0736991</v>
+                  <v>0.176145</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0742898</v>
+                  <v>0.181854</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07498199999999999</v>
+                  <v>0.187152</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07573630000000001</v>
+                  <v>0.192849</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0766086</v>
+                  <v>0.199082</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.077876</v>
+                  <v>0.205029</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.07924580000000001</v>
+                  <v>0.211115</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08156239999999999</v>
+                  <v>0.217795</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0852509</v>
+                  <v>0.181761</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08773590000000001</v>
+                  <v>0.184875</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0884414</v>
+                  <v>0.18853</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0892877</v>
+                  <v>0.193379</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0899992</v>
+                  <v>0.196792</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0907741</v>
+                  <v>0.201399</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0918117</v>
+                  <v>0.206374</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.092913</v>
+                  <v>0.211734</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09400500000000001</v>
+                  <v>0.218001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.100748</v>
+                  <v>0.223144</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.09656720000000001</v>
+                  <v>0.229767</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0981248</v>
+                  <v>0.235872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.100153</v>
+                  <v>0.240776</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.10274</v>
+                  <v>0.247637</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106587</v>
+                  <v>0.198997</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.112472</v>
+                  <v>0.202385</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106248</v>
+                  <v>0.205971</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.107515</v>
+                  <v>0.209681</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108771</v>
+                  <v>0.213857</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110258</v>
+                  <v>0.218441</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111363</v>
+                  <v>0.223282</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112139</v>
+                  <v>0.228864</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.113529</v>
+                  <v>0.234598</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.114912</v>
+                  <v>0.240649</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.116482</v>
+                  <v>0.251617</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.118414</v>
+                  <v>0.252683</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.120533</v>
+                  <v>0.258786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.123365</v>
+                  <v>0.264415</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.127277</v>
+                  <v>0.20958</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.133589</v>
+                  <v>0.21278</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.119571</v>
+                  <v>0.216352</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.123522</v>
+                  <v>0.219749</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120321</v>
+                  <v>0.224359</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121365</v>
+                  <v>0.228913</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122535</v>
+                  <v>0.236829</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123827</v>
+                  <v>0.239299</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125232</v>
+                  <v>0.2453</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0198177</v>
+        <v>0.0195748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.020661</v>
+        <v>0.0208285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0207388</v>
+        <v>0.020853</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197689</v>
+        <v>0.0196765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0207905</v>
+        <v>0.0209671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0210733</v>
+        <v>0.0211311</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0201546</v>
+        <v>0.0196781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0208032</v>
+        <v>0.0209273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0212082</v>
+        <v>0.0213082</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0199259</v>
+        <v>0.0196137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209174</v>
+        <v>0.0210326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.021426</v>
+        <v>0.0214833</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.020146</v>
+        <v>0.0196976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210442</v>
+        <v>0.0210831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0223425</v>
+        <v>0.0215508</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0203092</v>
+        <v>0.0197607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0210508</v>
+        <v>0.0213477</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0217597</v>
+        <v>0.0220492</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0205189</v>
+        <v>0.0200873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0220989</v>
+        <v>0.021822</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0220329</v>
+        <v>0.0224915</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0208522</v>
+        <v>0.0204046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0205991</v>
+        <v>0.0203719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.020299</v>
+        <v>0.0204603</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0196324</v>
+        <v>0.0196183</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0206224</v>
+        <v>0.0205912</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0205275</v>
+        <v>0.0206031</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0197613</v>
+        <v>0.0195055</v>
       </c>
       <c r="C11" t="n">
-        <v>0.020929</v>
+        <v>0.0210022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0209201</v>
+        <v>0.0208412</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198472</v>
+        <v>0.0197719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212365</v>
+        <v>0.0211426</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0207703</v>
+        <v>0.0212172</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0200045</v>
+        <v>0.019885</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0219412</v>
+        <v>0.0213904</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0214182</v>
+        <v>0.0214901</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.020139</v>
+        <v>0.0199594</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216947</v>
+        <v>0.0217742</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0211185</v>
+        <v>0.0217682</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200294</v>
+        <v>0.0200268</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219619</v>
+        <v>0.0220721</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0215551</v>
+        <v>0.0221577</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.020157</v>
+        <v>0.0203161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0220253</v>
+        <v>0.0223729</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0218192</v>
+        <v>0.0223897</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202728</v>
+        <v>0.020296</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0223985</v>
+        <v>0.0224513</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0220397</v>
+        <v>0.0227309</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204119</v>
+        <v>0.0204783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02234</v>
+        <v>0.0226878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0222319</v>
+        <v>0.022949</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204814</v>
+        <v>0.0206366</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0224992</v>
+        <v>0.0228223</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0229377</v>
+        <v>0.0234128</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020689</v>
+        <v>0.0206573</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0226357</v>
+        <v>0.0230015</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0232736</v>
+        <v>0.0238664</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0209465</v>
+        <v>0.0210598</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0232853</v>
+        <v>0.0234658</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0237999</v>
+        <v>0.0243405</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0220356</v>
+        <v>0.0214477</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0247751</v>
+        <v>0.0249062</v>
       </c>
       <c r="D22" t="n">
-        <v>0.025082</v>
+        <v>0.0258052</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0242645</v>
+        <v>0.0229672</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0216065</v>
+        <v>0.0216886</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0214453</v>
+        <v>0.0217013</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0203843</v>
+        <v>0.0204696</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218606</v>
+        <v>0.0219233</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0216952</v>
+        <v>0.0219961</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204882</v>
+        <v>0.0206696</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220389</v>
+        <v>0.0220714</v>
       </c>
       <c r="D25" t="n">
-        <v>0.021844</v>
+        <v>0.0221386</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0205537</v>
+        <v>0.0207346</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222652</v>
+        <v>0.0223249</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0220541</v>
+        <v>0.0225063</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207529</v>
+        <v>0.0209869</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226466</v>
+        <v>0.02261</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0223523</v>
+        <v>0.0227397</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209222</v>
+        <v>0.0210792</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0228677</v>
+        <v>0.0230075</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0228555</v>
+        <v>0.0231636</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211526</v>
+        <v>0.0212498</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0232788</v>
+        <v>0.0233801</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0231167</v>
+        <v>0.0234888</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213478</v>
+        <v>0.0214831</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235169</v>
+        <v>0.0237566</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0234776</v>
+        <v>0.0239746</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215417</v>
+        <v>0.021578</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0238147</v>
+        <v>0.0240164</v>
       </c>
       <c r="D31" t="n">
-        <v>0.023894</v>
+        <v>0.0241873</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0217772</v>
+        <v>0.0217371</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0241082</v>
+        <v>0.0244285</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0243771</v>
+        <v>0.0247657</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221622</v>
+        <v>0.0220642</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0244715</v>
+        <v>0.0247713</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0247512</v>
+        <v>0.0251927</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0226263</v>
+        <v>0.0223275</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0249128</v>
+        <v>0.0253037</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0254798</v>
+        <v>0.026067</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0247787</v>
+        <v>0.023521</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02718</v>
+        <v>0.0265669</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0271804</v>
+        <v>0.0272564</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0274783</v>
+        <v>0.025168</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0307807</v>
+        <v>0.029355</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0302838</v>
+        <v>0.0316715</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0320969</v>
+        <v>0.0311467</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0227497</v>
+        <v>0.0228794</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0228163</v>
+        <v>0.0228612</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215519</v>
+        <v>0.021425</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0229759</v>
+        <v>0.023018</v>
       </c>
       <c r="D38" t="n">
-        <v>0.023021</v>
+        <v>0.0232215</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216599</v>
+        <v>0.021606</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232153</v>
+        <v>0.0232909</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0232803</v>
+        <v>0.0234423</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218617</v>
+        <v>0.0218082</v>
       </c>
       <c r="C40" t="n">
-        <v>0.023483</v>
+        <v>0.0235203</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0235685</v>
+        <v>0.0236215</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220038</v>
+        <v>0.0218555</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0237561</v>
+        <v>0.0238027</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0239051</v>
+        <v>0.0240254</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222657</v>
+        <v>0.0221697</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0240791</v>
+        <v>0.0243053</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0242339</v>
+        <v>0.0244141</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0226411</v>
+        <v>0.0222349</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0244141</v>
+        <v>0.0246898</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0246189</v>
+        <v>0.0247457</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227245</v>
+        <v>0.0226743</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0248339</v>
+        <v>0.0251669</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0250357</v>
+        <v>0.0251551</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0231466</v>
+        <v>0.0231125</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0252866</v>
+        <v>0.0256151</v>
       </c>
       <c r="D45" t="n">
-        <v>0.025576</v>
+        <v>0.0257013</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0236619</v>
+        <v>0.0234681</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0257984</v>
+        <v>0.0262097</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0262739</v>
+        <v>0.0263299</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0245544</v>
+        <v>0.02399</v>
       </c>
       <c r="C47" t="n">
-        <v>0.026701</v>
+        <v>0.0268299</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0272897</v>
+        <v>0.027296</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0261262</v>
+        <v>0.0256931</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02808</v>
+        <v>0.0284662</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0285281</v>
+        <v>0.0285315</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0279347</v>
+        <v>0.0270193</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0304211</v>
+        <v>0.0306064</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0307327</v>
+        <v>0.0307346</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0307145</v>
+        <v>0.0300277</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0344691</v>
+        <v>0.0346566</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0344534</v>
+        <v>0.0344131</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0347339</v>
+        <v>0.0349128</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0233486</v>
+        <v>0.0233723</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0235499</v>
+        <v>0.023441</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0403458</v>
+        <v>0.0392807</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0235662</v>
+        <v>0.0235428</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0237339</v>
+        <v>0.0236114</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231961</v>
+        <v>0.0229472</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238268</v>
+        <v>0.0238246</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0240101</v>
+        <v>0.0238548</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233515</v>
+        <v>0.0231029</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0240484</v>
+        <v>0.024109</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0242233</v>
+        <v>0.0241587</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.023385</v>
+        <v>0.0234606</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0243396</v>
+        <v>0.0243981</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0245843</v>
+        <v>0.0244403</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237076</v>
+        <v>0.023565</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0248073</v>
+        <v>0.0247875</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0248598</v>
+        <v>0.0248668</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240554</v>
+        <v>0.0237738</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0251669</v>
+        <v>0.0251802</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0252983</v>
+        <v>0.0253008</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0243828</v>
+        <v>0.0242515</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0255647</v>
+        <v>0.0256458</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0258203</v>
+        <v>0.0257897</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024872</v>
+        <v>0.0246717</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0262007</v>
+        <v>0.0263388</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0264538</v>
+        <v>0.0264589</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0256331</v>
+        <v>0.0251167</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0269344</v>
+        <v>0.0269898</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0271785</v>
+        <v>0.0272186</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.026321</v>
+        <v>0.0260668</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0281145</v>
+        <v>0.0280953</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0282965</v>
+        <v>0.028309</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275389</v>
+        <v>0.0274843</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0297454</v>
+        <v>0.0296796</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0298253</v>
+        <v>0.0297789</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0298442</v>
+        <v>0.0292067</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0322753</v>
+        <v>0.0323757</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0321724</v>
+        <v>0.0323389</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0324077</v>
+        <v>0.0316785</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0359607</v>
+        <v>0.0358935</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0358812</v>
+        <v>0.0359853</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0362464</v>
+        <v>0.0357137</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0421103</v>
+        <v>0.0420565</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0419948</v>
+        <v>0.0418518</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.041283</v>
+        <v>0.0409061</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0253787</v>
+        <v>0.0255605</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0252308</v>
+        <v>0.025641</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0268473</v>
+        <v>0.028185</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0258956</v>
+        <v>0.0264075</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0255577</v>
+        <v>0.026191</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0270171</v>
+        <v>0.0281689</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0265203</v>
+        <v>0.0261336</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0257516</v>
+        <v>0.0259149</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0272493</v>
+        <v>0.0283583</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0260571</v>
+        <v>0.026696</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0267838</v>
+        <v>0.0273219</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0275263</v>
+        <v>0.0285755</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0267849</v>
+        <v>0.0270642</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0266757</v>
+        <v>0.0277127</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0277912</v>
+        <v>0.028948</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0275525</v>
+        <v>0.0274773</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0276414</v>
+        <v>0.0280956</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0282986</v>
+        <v>0.0293501</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0280105</v>
+        <v>0.0277707</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0281639</v>
+        <v>0.0276149</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0288928</v>
+        <v>0.029839</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0285984</v>
+        <v>0.0283547</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0282289</v>
+        <v>0.0290316</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0295233</v>
+        <v>0.030252</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0291904</v>
+        <v>0.0291106</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0290751</v>
+        <v>0.0298578</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0305117</v>
+        <v>0.0311496</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0300198</v>
+        <v>0.0302445</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0302683</v>
+        <v>0.0305759</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0318881</v>
+        <v>0.0322026</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0318431</v>
+        <v>0.0320615</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0320007</v>
+        <v>0.0326203</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0339179</v>
+        <v>0.0338221</v>
       </c>
       <c r="C77" t="n">
-        <v>0.034135</v>
+        <v>0.034418</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0342565</v>
+        <v>0.0342513</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0363522</v>
+        <v>0.0363502</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0376424</v>
+        <v>0.0381523</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0378473</v>
+        <v>0.0380519</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0395567</v>
+        <v>0.0399339</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0431508</v>
+        <v>0.043031</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0433825</v>
+        <v>0.0428557</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0441356</v>
+        <v>0.0444919</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0355875</v>
+        <v>0.0361542</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0362665</v>
+        <v>0.0362101</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0605016</v>
+        <v>0.0550538</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0362836</v>
+        <v>0.0373326</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0370379</v>
+        <v>0.0370508</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0604602</v>
+        <v>0.0551781</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0369944</v>
+        <v>0.0375473</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0375017</v>
+        <v>0.0378037</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.060851</v>
+        <v>0.055787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0377974</v>
+        <v>0.0385491</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0384445</v>
+        <v>0.0381794</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.060862</v>
+        <v>0.0558218</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0384962</v>
+        <v>0.0392871</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0408703</v>
+        <v>0.0396443</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0623215</v>
+        <v>0.0580603</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0394103</v>
+        <v>0.040386</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0402173</v>
+        <v>0.0403713</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0614748</v>
+        <v>0.0568931</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0403675</v>
+        <v>0.0422951</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0407943</v>
+        <v>0.0420007</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618701</v>
+        <v>0.0572408</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0412621</v>
+        <v>0.0433022</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0420557</v>
+        <v>0.0429351</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0644286</v>
+        <v>0.06748129999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0425876</v>
+        <v>0.0522719</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0430509</v>
+        <v>0.0524624</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0633286</v>
+        <v>0.0676137</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0436972</v>
+        <v>0.0573009</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0438438</v>
+        <v>0.0619802</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0585598</v>
+        <v>0.0791872</v>
       </c>
       <c r="C90" t="n">
-        <v>0.045209</v>
+        <v>0.06274390000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0490805</v>
+        <v>0.0621391</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.07071959999999999</v>
+        <v>0.0849847</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0556203</v>
+        <v>0.0666096</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0579686</v>
+        <v>0.0617968</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.07463060000000001</v>
+        <v>0.07533860000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0631057</v>
+        <v>0.07328809999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0649585</v>
+        <v>0.08415930000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0834681</v>
+        <v>0.10551</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0704922</v>
+        <v>0.0912501</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0700597</v>
+        <v>0.0899298</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0900661</v>
+        <v>0.106435</v>
       </c>
       <c r="C94" t="n">
-        <v>0.08840199999999999</v>
+        <v>0.0994973</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0860583</v>
+        <v>0.106276</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107185</v>
+        <v>0.1139</v>
       </c>
       <c r="C95" t="n">
-        <v>0.08736099999999999</v>
+        <v>0.0747077</v>
       </c>
       <c r="D95" t="n">
-        <v>0.08778030000000001</v>
+        <v>0.0720867</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.104648</v>
+        <v>0.0855518</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0923699</v>
+        <v>0.0727448</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0922289</v>
+        <v>0.07239230000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.107865</v>
+        <v>0.0858006</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0939214</v>
+        <v>0.0728181</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0945183</v>
+        <v>0.0728549</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.103344</v>
+        <v>0.08568190000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0906317</v>
+        <v>0.07334</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0912978</v>
+        <v>0.0734417</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.105376</v>
+        <v>0.08582190000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.092589</v>
+        <v>0.07404669999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.092528</v>
+        <v>0.0740151</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.107978</v>
+        <v>0.0857748</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09468890000000001</v>
+        <v>0.0745952</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09217590000000001</v>
+        <v>0.07475080000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.109299</v>
+        <v>0.0861011</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0940183</v>
+        <v>0.0752829</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0930834</v>
+        <v>0.07530820000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.10703</v>
+        <v>0.0864605</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0920477</v>
+        <v>0.07614079999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.09632259999999999</v>
+        <v>0.076304</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.111173</v>
+        <v>0.0867286</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09690459999999999</v>
+        <v>0.0772168</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09492920000000001</v>
+        <v>0.07711990000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.106537</v>
+        <v>0.0873362</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0976706</v>
+        <v>0.0785612</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0966264</v>
+        <v>0.0785448</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114812</v>
+        <v>0.08826779999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0988728</v>
+        <v>0.08031290000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.100148</v>
+        <v>0.0799388</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110592</v>
+        <v>0.0894921</v>
       </c>
       <c r="C106" t="n">
-        <v>0.103381</v>
+        <v>0.08281910000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0999781</v>
+        <v>0.08221589999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.117016</v>
+        <v>0.0918774</v>
       </c>
       <c r="C107" t="n">
-        <v>0.105226</v>
+        <v>0.0867766</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1085</v>
+        <v>0.0860062</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.121363</v>
+        <v>0.0947392</v>
       </c>
       <c r="C108" t="n">
-        <v>0.108453</v>
+        <v>0.089626</v>
       </c>
       <c r="D108" t="n">
-        <v>0.112472</v>
+        <v>0.0892467</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.126748</v>
+        <v>0.0997503</v>
       </c>
       <c r="C109" t="n">
-        <v>0.112852</v>
+        <v>0.09031939999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.108009</v>
+        <v>0.089779</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.131222</v>
+        <v>0.114716</v>
       </c>
       <c r="C110" t="n">
-        <v>0.111047</v>
+        <v>0.0995443</v>
       </c>
       <c r="D110" t="n">
-        <v>0.109694</v>
+        <v>0.09039369999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.135784</v>
+        <v>0.114527</v>
       </c>
       <c r="C111" t="n">
-        <v>0.110136</v>
+        <v>0.0920145</v>
       </c>
       <c r="D111" t="n">
-        <v>0.108457</v>
+        <v>0.09142989999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.128975</v>
+        <v>0.11471</v>
       </c>
       <c r="C112" t="n">
-        <v>0.109398</v>
+        <v>0.0929157</v>
       </c>
       <c r="D112" t="n">
-        <v>0.107743</v>
+        <v>0.0922135</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.131271</v>
+        <v>0.114658</v>
       </c>
       <c r="C113" t="n">
-        <v>0.113216</v>
+        <v>0.0939</v>
       </c>
       <c r="D113" t="n">
-        <v>0.11259</v>
+        <v>0.0931454</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.131142</v>
+        <v>0.114906</v>
       </c>
       <c r="C114" t="n">
-        <v>0.110793</v>
+        <v>0.09481680000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.110528</v>
+        <v>0.0941192</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.131568</v>
+        <v>0.114924</v>
       </c>
       <c r="C115" t="n">
-        <v>0.117165</v>
+        <v>0.09606190000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.118255</v>
+        <v>0.0951497</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133528</v>
+        <v>0.115237</v>
       </c>
       <c r="C116" t="n">
-        <v>0.121121</v>
+        <v>0.09731679999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.120814</v>
+        <v>0.0960039</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.133825</v>
+        <v>0.11556</v>
       </c>
       <c r="C117" t="n">
-        <v>0.121585</v>
+        <v>0.0987749</v>
       </c>
       <c r="D117" t="n">
-        <v>0.127636</v>
+        <v>0.09780220000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.159138</v>
+        <v>0.116112</v>
       </c>
       <c r="C118" t="n">
-        <v>0.141223</v>
+        <v>0.100355</v>
       </c>
       <c r="D118" t="n">
-        <v>0.143486</v>
+        <v>0.099185</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.163902</v>
+        <v>0.116778</v>
       </c>
       <c r="C119" t="n">
-        <v>0.148729</v>
+        <v>0.102481</v>
       </c>
       <c r="D119" t="n">
-        <v>0.147266</v>
+        <v>0.100942</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.167117</v>
+        <v>0.117788</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152483</v>
+        <v>0.105155</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1516</v>
+        <v>0.103741</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.166903</v>
+        <v>0.119501</v>
       </c>
       <c r="C121" t="n">
-        <v>0.156293</v>
+        <v>0.109138</v>
       </c>
       <c r="D121" t="n">
-        <v>0.158756</v>
+        <v>0.10759</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.150072</v>
+        <v>0.124421</v>
       </c>
       <c r="C122" t="n">
-        <v>0.114511</v>
+        <v>0.115494</v>
       </c>
       <c r="D122" t="n">
-        <v>0.115842</v>
+        <v>0.113922</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12092</v>
+        <v>0.141064</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106779</v>
+        <v>0.10662</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106449</v>
+        <v>0.106431</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.14408</v>
+        <v>0.141118</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107893</v>
+        <v>0.107639</v>
       </c>
       <c r="D124" t="n">
-        <v>0.107712</v>
+        <v>0.107635</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141803</v>
+        <v>0.141348</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108874</v>
+        <v>0.108613</v>
       </c>
       <c r="D125" t="n">
-        <v>0.108741</v>
+        <v>0.108344</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.141085</v>
+        <v>0.14107</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110014</v>
+        <v>0.115431</v>
       </c>
       <c r="D126" t="n">
-        <v>0.109856</v>
+        <v>0.109833</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141541</v>
+        <v>0.141302</v>
       </c>
       <c r="C127" t="n">
-        <v>0.118913</v>
+        <v>0.111015</v>
       </c>
       <c r="D127" t="n">
-        <v>0.110982</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141404</v>
+        <v>0.141496</v>
       </c>
       <c r="C128" t="n">
-        <v>0.11238</v>
+        <v>0.112209</v>
       </c>
       <c r="D128" t="n">
-        <v>0.11241</v>
+        <v>0.111858</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141578</v>
+        <v>0.141984</v>
       </c>
       <c r="C129" t="n">
-        <v>0.113812</v>
+        <v>0.113553</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113731</v>
+        <v>0.113091</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141907</v>
+        <v>0.142111</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115116</v>
+        <v>0.115005</v>
       </c>
       <c r="D130" t="n">
-        <v>0.115695</v>
+        <v>0.114594</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142326</v>
+        <v>0.142272</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116996</v>
+        <v>0.116719</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116776</v>
+        <v>0.116201</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142945</v>
+        <v>0.142546</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118682</v>
+        <v>0.118545</v>
       </c>
       <c r="D132" t="n">
-        <v>0.118653</v>
+        <v>0.11808</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142913</v>
+        <v>0.143543</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120922</v>
+        <v>0.120821</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120946</v>
+        <v>0.120881</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.143914</v>
+        <v>0.144308</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123791</v>
+        <v>0.123796</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123947</v>
+        <v>0.123566</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.145453</v>
+        <v>0.145964</v>
       </c>
       <c r="C135" t="n">
-        <v>0.128014</v>
+        <v>0.128079</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128034</v>
+        <v>0.128147</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148281</v>
+        <v>0.148241</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134519</v>
+        <v>0.134419</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134515</v>
+        <v>0.134412</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.152198</v>
+        <v>0.153549</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118648</v>
+        <v>0.118346</v>
       </c>
       <c r="D137" t="n">
-        <v>0.118348</v>
+        <v>0.119613</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.15806</v>
+        <v>0.157802</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119868</v>
+        <v>0.121819</v>
       </c>
       <c r="D138" t="n">
-        <v>0.119341</v>
+        <v>0.120544</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158051</v>
+        <v>0.157955</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120861</v>
+        <v>0.12053</v>
       </c>
       <c r="D139" t="n">
-        <v>0.120469</v>
+        <v>0.121518</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15806</v>
+        <v>0.157993</v>
       </c>
       <c r="C140" t="n">
-        <v>0.122184</v>
+        <v>0.121588</v>
       </c>
       <c r="D140" t="n">
-        <v>0.121523</v>
+        <v>0.122704</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158228</v>
+        <v>0.157867</v>
       </c>
       <c r="C141" t="n">
-        <v>0.123532</v>
+        <v>0.122823</v>
       </c>
       <c r="D141" t="n">
-        <v>0.122738</v>
+        <v>0.12386</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158378</v>
+        <v>0.158215</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124922</v>
+        <v>0.124028</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123955</v>
+        <v>0.124967</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158453</v>
+        <v>0.158427</v>
       </c>
       <c r="C143" t="n">
-        <v>0.145213</v>
+        <v>0.125502</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125296</v>
+        <v>0.126342</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195748</v>
+        <v>0.0201241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0208285</v>
+        <v>0.0206827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.020853</v>
+        <v>0.0205725</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196765</v>
+        <v>0.0202156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209671</v>
+        <v>0.0206867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0211311</v>
+        <v>0.0206119</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196781</v>
+        <v>0.0202065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0209273</v>
+        <v>0.0207384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0213082</v>
+        <v>0.0206311</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196137</v>
+        <v>0.0202385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0210326</v>
+        <v>0.0208349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0214833</v>
+        <v>0.0207684</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196976</v>
+        <v>0.0203387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210831</v>
+        <v>0.0208359</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0215508</v>
+        <v>0.0209544</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0197607</v>
+        <v>0.0206152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0213477</v>
+        <v>0.0213423</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0220492</v>
+        <v>0.0214262</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200873</v>
+        <v>0.0207175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.021822</v>
+        <v>0.0223073</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0224915</v>
+        <v>0.0223457</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0204046</v>
+        <v>0.0213412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203719</v>
+        <v>0.0203016</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0204603</v>
+        <v>0.0202751</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0196183</v>
+        <v>0.0197334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0205912</v>
+        <v>0.020581</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0206031</v>
+        <v>0.0205662</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195055</v>
+        <v>0.0196374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0210022</v>
+        <v>0.0207733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0208412</v>
+        <v>0.0209537</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197719</v>
+        <v>0.0201466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211426</v>
+        <v>0.0212822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0212172</v>
+        <v>0.0211323</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019885</v>
+        <v>0.0201033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0213904</v>
+        <v>0.0214606</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0214901</v>
+        <v>0.0214074</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199594</v>
+        <v>0.0201934</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0217742</v>
+        <v>0.021787</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0217682</v>
+        <v>0.02172</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200268</v>
+        <v>0.0207835</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220721</v>
+        <v>0.0219811</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0221577</v>
+        <v>0.0219584</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0203161</v>
+        <v>0.0208092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0223729</v>
+        <v>0.0223362</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0223897</v>
+        <v>0.0220539</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.020296</v>
+        <v>0.0210834</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0224513</v>
+        <v>0.0225047</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0227309</v>
+        <v>0.0224837</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204783</v>
+        <v>0.0211497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0226878</v>
+        <v>0.0225362</v>
       </c>
       <c r="D18" t="n">
-        <v>0.022949</v>
+        <v>0.0225766</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0206366</v>
+        <v>0.0213255</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0228223</v>
+        <v>0.0229875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0234128</v>
+        <v>0.0228903</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0206573</v>
+        <v>0.0216359</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0230015</v>
+        <v>0.0235261</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0238664</v>
+        <v>0.023304</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0210598</v>
+        <v>0.0219231</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0234658</v>
+        <v>0.0242524</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0243405</v>
+        <v>0.0242651</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0214477</v>
+        <v>0.0224747</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0249062</v>
+        <v>0.0268937</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0258052</v>
+        <v>0.0269254</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0229672</v>
+        <v>0.0246285</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0216886</v>
+        <v>0.0216316</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0217013</v>
+        <v>0.0216852</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204696</v>
+        <v>0.0207346</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219233</v>
+        <v>0.0219171</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0219961</v>
+        <v>0.0219129</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0206696</v>
+        <v>0.0205516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220714</v>
+        <v>0.0220208</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0221386</v>
+        <v>0.0221326</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207346</v>
+        <v>0.0209703</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223249</v>
+        <v>0.0223396</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0225063</v>
+        <v>0.0223533</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209869</v>
+        <v>0.0208632</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02261</v>
+        <v>0.0226604</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0227397</v>
+        <v>0.0226973</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210792</v>
+        <v>0.0214333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230075</v>
+        <v>0.0229604</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0231636</v>
+        <v>0.0230129</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212498</v>
+        <v>0.0215621</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233801</v>
+        <v>0.0232627</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0234888</v>
+        <v>0.0233972</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214831</v>
+        <v>0.0218925</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0237566</v>
+        <v>0.0236259</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0239746</v>
+        <v>0.023753</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.021578</v>
+        <v>0.021889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0240164</v>
+        <v>0.0239711</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0241873</v>
+        <v>0.0240655</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0217371</v>
+        <v>0.0221979</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244285</v>
+        <v>0.0244661</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0247657</v>
+        <v>0.0244919</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0220642</v>
+        <v>0.0228878</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0247713</v>
+        <v>0.0251317</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0251927</v>
+        <v>0.025049</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0223275</v>
+        <v>0.0230823</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0253037</v>
+        <v>0.0262579</v>
       </c>
       <c r="D34" t="n">
-        <v>0.026067</v>
+        <v>0.026193</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.023521</v>
+        <v>0.0238115</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0265669</v>
+        <v>0.0280138</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0272564</v>
+        <v>0.0294938</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.025168</v>
+        <v>0.0265896</v>
       </c>
       <c r="C36" t="n">
-        <v>0.029355</v>
+        <v>0.0350121</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0316715</v>
+        <v>0.0338244</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0311467</v>
+        <v>0.0313393</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0228794</v>
+        <v>0.0227341</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0228612</v>
+        <v>0.0229554</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.021425</v>
+        <v>0.0214466</v>
       </c>
       <c r="C38" t="n">
-        <v>0.023018</v>
+        <v>0.0230157</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0232215</v>
+        <v>0.0231172</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.021606</v>
+        <v>0.0218392</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232909</v>
+        <v>0.0232164</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0234423</v>
+        <v>0.0233549</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218082</v>
+        <v>0.0219351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235203</v>
+        <v>0.0235296</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0236215</v>
+        <v>0.0235929</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218555</v>
+        <v>0.0219893</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238027</v>
+        <v>0.0237943</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0240254</v>
+        <v>0.0238472</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221697</v>
+        <v>0.022319</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243053</v>
+        <v>0.0241654</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0244141</v>
+        <v>0.0241713</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0222349</v>
+        <v>0.0225054</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0246898</v>
+        <v>0.0245388</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0247457</v>
+        <v>0.0250369</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226743</v>
+        <v>0.022858</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0251669</v>
+        <v>0.0250121</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0251551</v>
+        <v>0.025102</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0231125</v>
+        <v>0.0234226</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0256151</v>
+        <v>0.0255456</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0257013</v>
+        <v>0.025543</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0234681</v>
+        <v>0.0236725</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0262097</v>
+        <v>0.0261157</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0263299</v>
+        <v>0.0262528</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02399</v>
+        <v>0.0247049</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0268299</v>
+        <v>0.0277829</v>
       </c>
       <c r="D47" t="n">
-        <v>0.027296</v>
+        <v>0.027337</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0256931</v>
+        <v>0.0258674</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0284662</v>
+        <v>0.0298308</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0285315</v>
+        <v>0.0290696</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270193</v>
+        <v>0.0275916</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0306064</v>
+        <v>0.0318206</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0307346</v>
+        <v>0.032314</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0300277</v>
+        <v>0.0297219</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0346566</v>
+        <v>0.036294</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0344131</v>
+        <v>0.0357231</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0349128</v>
+        <v>0.0331444</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0233723</v>
+        <v>0.023337</v>
       </c>
       <c r="D51" t="n">
-        <v>0.023441</v>
+        <v>0.023385</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0392807</v>
+        <v>0.0387648</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0235428</v>
+        <v>0.0235507</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0236114</v>
+        <v>0.0236834</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229472</v>
+        <v>0.0231261</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238246</v>
+        <v>0.0238404</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0238548</v>
+        <v>0.0239075</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0231029</v>
+        <v>0.0232421</v>
       </c>
       <c r="C54" t="n">
-        <v>0.024109</v>
+        <v>0.0240982</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0241587</v>
+        <v>0.0241733</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234606</v>
+        <v>0.0237494</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0243981</v>
+        <v>0.024402</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0244403</v>
+        <v>0.0245039</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.023565</v>
+        <v>0.023819</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0247875</v>
+        <v>0.0248252</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0248668</v>
+        <v>0.0249111</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0237738</v>
+        <v>0.0240969</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0251802</v>
+        <v>0.0252232</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0253008</v>
+        <v>0.0252115</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0242515</v>
+        <v>0.0244441</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0256458</v>
+        <v>0.0258102</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0257897</v>
+        <v>0.0257187</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0246717</v>
+        <v>0.0249914</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0263388</v>
+        <v>0.0264578</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0264589</v>
+        <v>0.0264147</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0251167</v>
+        <v>0.0255156</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0269898</v>
+        <v>0.0273092</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0272186</v>
+        <v>0.0273908</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0260668</v>
+        <v>0.0261352</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0280953</v>
+        <v>0.0285509</v>
       </c>
       <c r="D61" t="n">
-        <v>0.028309</v>
+        <v>0.0286438</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274843</v>
+        <v>0.0275805</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0296796</v>
+        <v>0.0303642</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0297789</v>
+        <v>0.0304164</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0292067</v>
+        <v>0.0293669</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0323757</v>
+        <v>0.0330045</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0323389</v>
+        <v>0.0330731</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0316785</v>
+        <v>0.032017</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0358935</v>
+        <v>0.036749</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0359853</v>
+        <v>0.0367555</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0357137</v>
+        <v>0.0353873</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0420565</v>
+        <v>0.0425142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0418518</v>
+        <v>0.0425784</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0409061</v>
+        <v>0.0407784</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0255605</v>
+        <v>0.0255449</v>
       </c>
       <c r="D66" t="n">
-        <v>0.025641</v>
+        <v>0.0252872</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.028185</v>
+        <v>0.027836</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0264075</v>
+        <v>0.0259202</v>
       </c>
       <c r="D67" t="n">
-        <v>0.026191</v>
+        <v>0.0262811</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0281689</v>
+        <v>0.0278917</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0261336</v>
+        <v>0.0258874</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0259149</v>
+        <v>0.0260508</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0283583</v>
+        <v>0.0280627</v>
       </c>
       <c r="C69" t="n">
-        <v>0.026696</v>
+        <v>0.0262053</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0273219</v>
+        <v>0.0266114</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0285755</v>
+        <v>0.0283265</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0270642</v>
+        <v>0.0266156</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0277127</v>
+        <v>0.0267586</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.028948</v>
+        <v>0.0287148</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0274773</v>
+        <v>0.027505</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0280956</v>
+        <v>0.0272275</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0293501</v>
+        <v>0.0292924</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0277707</v>
+        <v>0.0276224</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0276149</v>
+        <v>0.0282309</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.029839</v>
+        <v>0.0295944</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0283547</v>
+        <v>0.0285708</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0290316</v>
+        <v>0.0286462</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.030252</v>
+        <v>0.0299984</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0291106</v>
+        <v>0.0291617</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0298578</v>
+        <v>0.0295816</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0311496</v>
+        <v>0.0309044</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0302445</v>
+        <v>0.0316071</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0305759</v>
+        <v>0.0337749</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0322026</v>
+        <v>0.0378827</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0320615</v>
+        <v>0.0340651</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0326203</v>
+        <v>0.0344645</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0338221</v>
+        <v>0.0424269</v>
       </c>
       <c r="C77" t="n">
-        <v>0.034418</v>
+        <v>0.0375224</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0342513</v>
+        <v>0.036814</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0363502</v>
+        <v>0.0432091</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0381523</v>
+        <v>0.0412754</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0380519</v>
+        <v>0.0403081</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0399339</v>
+        <v>0.0491845</v>
       </c>
       <c r="C79" t="n">
-        <v>0.043031</v>
+        <v>0.0482639</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0428557</v>
+        <v>0.0468451</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0444919</v>
+        <v>0.0528173</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0361542</v>
+        <v>0.0500253</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0362101</v>
+        <v>0.050807</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0550538</v>
+        <v>0.07778839999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0373326</v>
+        <v>0.0607593</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0370508</v>
+        <v>0.06445679999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0551781</v>
+        <v>0.0876933</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0375473</v>
+        <v>0.0560928</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0378037</v>
+        <v>0.0585641</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.055787</v>
+        <v>0.09116680000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0385491</v>
+        <v>0.0764592</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0381794</v>
+        <v>0.0739948</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0558218</v>
+        <v>0.09744070000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0392871</v>
+        <v>0.0759283</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0396443</v>
+        <v>0.0759831</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0580603</v>
+        <v>0.0998507</v>
       </c>
       <c r="C85" t="n">
-        <v>0.040386</v>
+        <v>0.0739411</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0403713</v>
+        <v>0.0478886</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0568931</v>
+        <v>0.0596521</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0422951</v>
+        <v>0.0414341</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0420007</v>
+        <v>0.0415672</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0572408</v>
+        <v>0.0575242</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0433022</v>
+        <v>0.0422772</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0429351</v>
+        <v>0.0424773</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06748129999999999</v>
+        <v>0.0577344</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0522719</v>
+        <v>0.0432433</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0524624</v>
+        <v>0.0429805</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0676137</v>
+        <v>0.0583801</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0573009</v>
+        <v>0.0442863</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0619802</v>
+        <v>0.0447785</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0791872</v>
+        <v>0.0589735</v>
       </c>
       <c r="C90" t="n">
-        <v>0.06274390000000001</v>
+        <v>0.0458349</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0621391</v>
+        <v>0.0457868</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0849847</v>
+        <v>0.0601604</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0666096</v>
+        <v>0.0476606</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0617968</v>
+        <v>0.0476059</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.07533860000000001</v>
+        <v>0.0617109</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07328809999999999</v>
+        <v>0.0505959</v>
       </c>
       <c r="D92" t="n">
-        <v>0.08415930000000001</v>
+        <v>0.0504662</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10551</v>
+        <v>0.0643378</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0912501</v>
+        <v>0.0549226</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0899298</v>
+        <v>0.0547619</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.106435</v>
+        <v>0.068011</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0994973</v>
+        <v>0.07222439999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.106276</v>
+        <v>0.07166500000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1139</v>
+        <v>0.0856768</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0747077</v>
+        <v>0.0720798</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0720867</v>
+        <v>0.07228859999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0855518</v>
+        <v>0.0858544</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0727448</v>
+        <v>0.07242460000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07239230000000001</v>
+        <v>0.0725393</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0858006</v>
+        <v>0.0857932</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0728181</v>
+        <v>0.0728563</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0728549</v>
+        <v>0.07310029999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08568190000000001</v>
+        <v>0.0859309</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07334</v>
+        <v>0.0734083</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0734417</v>
+        <v>0.0736106</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08582190000000001</v>
+        <v>0.08597</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07404669999999999</v>
+        <v>0.0741015</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0740151</v>
+        <v>0.0750637</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0857748</v>
+        <v>0.08627170000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0745952</v>
+        <v>0.0758229</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07475080000000001</v>
+        <v>0.0748185</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0861011</v>
+        <v>0.0871381</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0752829</v>
+        <v>0.07555630000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07530820000000001</v>
+        <v>0.0754315</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0864605</v>
+        <v>0.08653959999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07614079999999999</v>
+        <v>0.0761233</v>
       </c>
       <c r="D102" t="n">
-        <v>0.076304</v>
+        <v>0.076295</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0867286</v>
+        <v>0.0869019</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0772168</v>
+        <v>0.077319</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07711990000000001</v>
+        <v>0.0772462</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0873362</v>
+        <v>0.08757620000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0785612</v>
+        <v>0.078559</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0785448</v>
+        <v>0.0784557</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08826779999999999</v>
+        <v>0.08840099999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08031290000000001</v>
+        <v>0.08030370000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0799388</v>
+        <v>0.0800603</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0894921</v>
+        <v>0.08967410000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08281910000000001</v>
+        <v>0.082846</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08221589999999999</v>
+        <v>0.0825751</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0918774</v>
+        <v>0.09167359999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0867766</v>
+        <v>0.08674900000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0860062</v>
+        <v>0.0864592</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0947392</v>
+        <v>0.0949812</v>
       </c>
       <c r="C108" t="n">
-        <v>0.089626</v>
+        <v>0.0898607</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0892467</v>
+        <v>0.0892075</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0997503</v>
+        <v>0.0997459</v>
       </c>
       <c r="C109" t="n">
-        <v>0.09031939999999999</v>
+        <v>0.0905504</v>
       </c>
       <c r="D109" t="n">
-        <v>0.089779</v>
+        <v>0.0905384</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114716</v>
+        <v>0.109645</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0995443</v>
+        <v>0.0913971</v>
       </c>
       <c r="D110" t="n">
-        <v>0.09039369999999999</v>
+        <v>0.0914708</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.114527</v>
+        <v>0.110248</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0920145</v>
+        <v>0.0922423</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09142989999999999</v>
+        <v>0.0913258</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.11471</v>
+        <v>0.11027</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0929157</v>
+        <v>0.093168</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0922135</v>
+        <v>0.09309539999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.114658</v>
+        <v>0.110587</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0939</v>
+        <v>0.0953415</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0931454</v>
+        <v>0.0940189</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.114906</v>
+        <v>0.110942</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09481680000000001</v>
+        <v>0.09520099999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0941192</v>
+        <v>0.0950974</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.114924</v>
+        <v>0.111187</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09606190000000001</v>
+        <v>0.0964382</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0951497</v>
+        <v>0.0952736</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.115237</v>
+        <v>0.111787</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09731679999999999</v>
+        <v>0.0976708</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0960039</v>
+        <v>0.09824239999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.11556</v>
+        <v>0.112231</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0987749</v>
+        <v>0.0990248</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09780220000000001</v>
+        <v>0.09781090000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.116112</v>
+        <v>0.113181</v>
       </c>
       <c r="C118" t="n">
-        <v>0.100355</v>
+        <v>0.100722</v>
       </c>
       <c r="D118" t="n">
-        <v>0.099185</v>
+        <v>0.0995254</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116778</v>
+        <v>0.114137</v>
       </c>
       <c r="C119" t="n">
-        <v>0.102481</v>
+        <v>0.10272</v>
       </c>
       <c r="D119" t="n">
-        <v>0.100942</v>
+        <v>0.101389</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.117788</v>
+        <v>0.115953</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105155</v>
+        <v>0.105469</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103741</v>
+        <v>0.104037</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.119501</v>
+        <v>0.117405</v>
       </c>
       <c r="C121" t="n">
-        <v>0.109138</v>
+        <v>0.109306</v>
       </c>
       <c r="D121" t="n">
-        <v>0.10759</v>
+        <v>0.109381</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.124421</v>
+        <v>0.120308</v>
       </c>
       <c r="C122" t="n">
-        <v>0.115494</v>
+        <v>0.115716</v>
       </c>
       <c r="D122" t="n">
-        <v>0.113922</v>
+        <v>0.11381</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.141064</v>
+        <v>0.124857</v>
       </c>
       <c r="C123" t="n">
-        <v>0.10662</v>
+        <v>0.106785</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106431</v>
+        <v>0.106619</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141118</v>
+        <v>0.14044</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107639</v>
+        <v>0.107592</v>
       </c>
       <c r="D124" t="n">
-        <v>0.107635</v>
+        <v>0.107311</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141348</v>
+        <v>0.140508</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108613</v>
+        <v>0.108891</v>
       </c>
       <c r="D125" t="n">
-        <v>0.108344</v>
+        <v>0.108825</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.14107</v>
+        <v>0.140669</v>
       </c>
       <c r="C126" t="n">
-        <v>0.115431</v>
+        <v>0.109763</v>
       </c>
       <c r="D126" t="n">
-        <v>0.109833</v>
+        <v>0.109608</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141302</v>
+        <v>0.140587</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111015</v>
+        <v>0.110927</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1109</v>
+        <v>0.110654</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141496</v>
+        <v>0.140745</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112209</v>
+        <v>0.112315</v>
       </c>
       <c r="D128" t="n">
-        <v>0.111858</v>
+        <v>0.112282</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141984</v>
+        <v>0.140971</v>
       </c>
       <c r="C129" t="n">
-        <v>0.113553</v>
+        <v>0.113475</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113091</v>
+        <v>0.113412</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142111</v>
+        <v>0.141348</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115005</v>
+        <v>0.115079</v>
       </c>
       <c r="D130" t="n">
-        <v>0.114594</v>
+        <v>0.114764</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142272</v>
+        <v>0.141888</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116719</v>
+        <v>0.116643</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116201</v>
+        <v>0.116342</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142546</v>
+        <v>0.142362</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118545</v>
+        <v>0.118407</v>
       </c>
       <c r="D132" t="n">
-        <v>0.11808</v>
+        <v>0.118638</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143543</v>
+        <v>0.158885</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120821</v>
+        <v>0.120927</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120881</v>
+        <v>0.120987</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144308</v>
+        <v>0.144146</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123796</v>
+        <v>0.123707</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123566</v>
+        <v>0.123866</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.145964</v>
+        <v>0.146181</v>
       </c>
       <c r="C135" t="n">
-        <v>0.128079</v>
+        <v>0.127862</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128147</v>
+        <v>0.127935</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148241</v>
+        <v>0.148122</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134419</v>
+        <v>0.134594</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134412</v>
+        <v>0.134278</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.153549</v>
+        <v>0.153591</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118346</v>
+        <v>0.118458</v>
       </c>
       <c r="D137" t="n">
-        <v>0.119613</v>
+        <v>0.11853</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157802</v>
+        <v>0.158048</v>
       </c>
       <c r="C138" t="n">
-        <v>0.121819</v>
+        <v>0.119466</v>
       </c>
       <c r="D138" t="n">
-        <v>0.120544</v>
+        <v>0.119494</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157955</v>
+        <v>0.158077</v>
       </c>
       <c r="C139" t="n">
-        <v>0.12053</v>
+        <v>0.120673</v>
       </c>
       <c r="D139" t="n">
-        <v>0.121518</v>
+        <v>0.120652</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157993</v>
+        <v>0.15836</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121588</v>
+        <v>0.121656</v>
       </c>
       <c r="D140" t="n">
-        <v>0.122704</v>
+        <v>0.121625</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.157867</v>
+        <v>0.158065</v>
       </c>
       <c r="C141" t="n">
-        <v>0.122823</v>
+        <v>0.123054</v>
       </c>
       <c r="D141" t="n">
-        <v>0.12386</v>
+        <v>0.12294</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158215</v>
+        <v>0.158428</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124028</v>
+        <v>0.124141</v>
       </c>
       <c r="D142" t="n">
-        <v>0.124967</v>
+        <v>0.127248</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158427</v>
+        <v>0.158429</v>
       </c>
       <c r="C143" t="n">
-        <v>0.125502</v>
+        <v>0.125558</v>
       </c>
       <c r="D143" t="n">
-        <v>0.126342</v>
+        <v>0.125542</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0201241</v>
+        <v>0.0194848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206827</v>
+        <v>0.020762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0205725</v>
+        <v>0.0206975</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0202156</v>
+        <v>0.0194459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0206867</v>
+        <v>0.0207379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0206119</v>
+        <v>0.0206275</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0202065</v>
+        <v>0.019608</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0207384</v>
+        <v>0.020824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0206311</v>
+        <v>0.0207313</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0202385</v>
+        <v>0.019788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0208349</v>
+        <v>0.0208639</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0207684</v>
+        <v>0.0208162</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0203387</v>
+        <v>0.019609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0208359</v>
+        <v>0.0210473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0209544</v>
+        <v>0.0209609</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0206152</v>
+        <v>0.0199058</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0213423</v>
+        <v>0.0216532</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0214262</v>
+        <v>0.0214919</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0207175</v>
+        <v>0.0199602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0223073</v>
+        <v>0.0223499</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0223457</v>
+        <v>0.0221454</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0213412</v>
+        <v>0.0200036</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203016</v>
+        <v>0.0202735</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0202751</v>
+        <v>0.020573</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0197334</v>
+        <v>0.0193742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.020581</v>
+        <v>0.0205947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0205662</v>
+        <v>0.0205695</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196374</v>
+        <v>0.0195824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0207733</v>
+        <v>0.0210092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0209537</v>
+        <v>0.0210889</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0201466</v>
+        <v>0.0195946</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212822</v>
+        <v>0.0210781</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0211323</v>
+        <v>0.0212901</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0201033</v>
+        <v>0.019597</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0214606</v>
+        <v>0.0213602</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0214074</v>
+        <v>0.0216124</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0201934</v>
+        <v>0.0199202</v>
       </c>
       <c r="C14" t="n">
-        <v>0.021787</v>
+        <v>0.0218633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02172</v>
+        <v>0.021918</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0207835</v>
+        <v>0.019873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219811</v>
+        <v>0.0218762</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0219584</v>
+        <v>0.0221271</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0208092</v>
+        <v>0.0201165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0223362</v>
+        <v>0.0222972</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0220539</v>
+        <v>0.0221754</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0210834</v>
+        <v>0.0200753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0225047</v>
+        <v>0.022581</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0224837</v>
+        <v>0.0223802</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0211497</v>
+        <v>0.0201463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0225362</v>
+        <v>0.0227552</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0225766</v>
+        <v>0.022628</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0213255</v>
+        <v>0.0203579</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0229875</v>
+        <v>0.0230562</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0228903</v>
+        <v>0.0229469</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0216359</v>
+        <v>0.0202519</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0235261</v>
+        <v>0.0234829</v>
       </c>
       <c r="D20" t="n">
-        <v>0.023304</v>
+        <v>0.0234216</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0219231</v>
+        <v>0.0206682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0242524</v>
+        <v>0.0245759</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0242651</v>
+        <v>0.0245178</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0224747</v>
+        <v>0.0208863</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0268937</v>
+        <v>0.0274064</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0269254</v>
+        <v>0.0272814</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0246285</v>
+        <v>0.0229616</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0216316</v>
+        <v>0.02167</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0216852</v>
+        <v>0.0216555</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0207346</v>
+        <v>0.0202704</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219171</v>
+        <v>0.0218858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0219129</v>
+        <v>0.0218246</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205516</v>
+        <v>0.0204385</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220208</v>
+        <v>0.0221563</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0221326</v>
+        <v>0.0221927</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0209703</v>
+        <v>0.0205826</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223396</v>
+        <v>0.0223963</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0223533</v>
+        <v>0.0223915</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208632</v>
+        <v>0.0209445</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226604</v>
+        <v>0.022611</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0226973</v>
+        <v>0.0227254</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0214333</v>
+        <v>0.0208427</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229604</v>
+        <v>0.0231222</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0230129</v>
+        <v>0.0229754</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0215621</v>
+        <v>0.0210464</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0232627</v>
+        <v>0.0233625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0233972</v>
+        <v>0.0232969</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0218925</v>
+        <v>0.0211366</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0236259</v>
+        <v>0.0236499</v>
       </c>
       <c r="D30" t="n">
-        <v>0.023753</v>
+        <v>0.0238259</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.021889</v>
+        <v>0.0213787</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239711</v>
+        <v>0.024133</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0240655</v>
+        <v>0.024208</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0221979</v>
+        <v>0.0215011</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244661</v>
+        <v>0.0245185</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0244919</v>
+        <v>0.0246739</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0228878</v>
+        <v>0.0217522</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0251317</v>
+        <v>0.0251547</v>
       </c>
       <c r="D33" t="n">
-        <v>0.025049</v>
+        <v>0.0253296</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0230823</v>
+        <v>0.0221736</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0262579</v>
+        <v>0.0262537</v>
       </c>
       <c r="D34" t="n">
-        <v>0.026193</v>
+        <v>0.026334</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0238115</v>
+        <v>0.0239148</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0280138</v>
+        <v>0.0303918</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0294938</v>
+        <v>0.0290493</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0265896</v>
+        <v>0.0279762</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0350121</v>
+        <v>0.0336283</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0338244</v>
+        <v>0.0337276</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0313393</v>
+        <v>0.0305304</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0227341</v>
+        <v>0.0228437</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0229554</v>
+        <v>0.0228704</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214466</v>
+        <v>0.0215402</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0230157</v>
+        <v>0.0230191</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0231172</v>
+        <v>0.0231465</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0218392</v>
+        <v>0.0216091</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232164</v>
+        <v>0.0232428</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0233549</v>
+        <v>0.0233433</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219351</v>
+        <v>0.021802</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235296</v>
+        <v>0.0234853</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0235929</v>
+        <v>0.0235479</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219893</v>
+        <v>0.0218775</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0237943</v>
+        <v>0.0238244</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0238472</v>
+        <v>0.0239213</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.022319</v>
+        <v>0.0220397</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0241654</v>
+        <v>0.0241948</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0241713</v>
+        <v>0.0241935</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0225054</v>
+        <v>0.0222388</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0245388</v>
+        <v>0.0245893</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0250369</v>
+        <v>0.0245835</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.022858</v>
+        <v>0.0226327</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0250121</v>
+        <v>0.0250658</v>
       </c>
       <c r="D44" t="n">
-        <v>0.025102</v>
+        <v>0.0250416</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0234226</v>
+        <v>0.0228946</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0255456</v>
+        <v>0.0256288</v>
       </c>
       <c r="D45" t="n">
-        <v>0.025543</v>
+        <v>0.0255863</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0236725</v>
+        <v>0.0231758</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0261157</v>
+        <v>0.0263512</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0262528</v>
+        <v>0.0263789</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0247049</v>
+        <v>0.023784</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0277829</v>
+        <v>0.0275005</v>
       </c>
       <c r="D47" t="n">
-        <v>0.027337</v>
+        <v>0.0273683</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0258674</v>
+        <v>0.0252428</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0298308</v>
+        <v>0.0290828</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0290696</v>
+        <v>0.0291678</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0275916</v>
+        <v>0.0272805</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0318206</v>
+        <v>0.0318899</v>
       </c>
       <c r="D49" t="n">
-        <v>0.032314</v>
+        <v>0.0319742</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0297219</v>
+        <v>0.0305014</v>
       </c>
       <c r="C50" t="n">
-        <v>0.036294</v>
+        <v>0.0359961</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0357231</v>
+        <v>0.0362906</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0331444</v>
+        <v>0.0343534</v>
       </c>
       <c r="C51" t="n">
-        <v>0.023337</v>
+        <v>0.0236473</v>
       </c>
       <c r="D51" t="n">
-        <v>0.023385</v>
+        <v>0.0233617</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0387648</v>
+        <v>0.0396379</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0235507</v>
+        <v>0.0237102</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0236834</v>
+        <v>0.0236117</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231261</v>
+        <v>0.0233693</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238404</v>
+        <v>0.0238902</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0239075</v>
+        <v>0.0238804</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232421</v>
+        <v>0.0235049</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0240982</v>
+        <v>0.0241328</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0241733</v>
+        <v>0.0241826</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0237494</v>
+        <v>0.0235335</v>
       </c>
       <c r="C55" t="n">
-        <v>0.024402</v>
+        <v>0.024417</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0245039</v>
+        <v>0.024396</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.023819</v>
+        <v>0.0238765</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0248252</v>
+        <v>0.0247796</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0249111</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240969</v>
+        <v>0.0239411</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0252232</v>
+        <v>0.0252575</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0252115</v>
+        <v>0.0252865</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244441</v>
+        <v>0.0242715</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0258102</v>
+        <v>0.026033</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0257187</v>
+        <v>0.0257734</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0249914</v>
+        <v>0.0246511</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0264578</v>
+        <v>0.0264664</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0264147</v>
+        <v>0.02653</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0255156</v>
+        <v>0.0254203</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0273092</v>
+        <v>0.0275059</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0273908</v>
+        <v>0.0274221</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0261352</v>
+        <v>0.0262179</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0285509</v>
+        <v>0.0288917</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0286438</v>
+        <v>0.0286811</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275805</v>
+        <v>0.0274599</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0303642</v>
+        <v>0.0307125</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0304164</v>
+        <v>0.030525</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293669</v>
+        <v>0.0296996</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0330045</v>
+        <v>0.0334851</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0330731</v>
+        <v>0.0332328</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.032017</v>
+        <v>0.0323947</v>
       </c>
       <c r="C64" t="n">
-        <v>0.036749</v>
+        <v>0.0370774</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0367555</v>
+        <v>0.0370322</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0353873</v>
+        <v>0.0357341</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0425142</v>
+        <v>0.0427907</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0425784</v>
+        <v>0.0428358</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0407784</v>
+        <v>0.0413673</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0255449</v>
+        <v>0.0256132</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0252872</v>
+        <v>0.0254672</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.027836</v>
+        <v>0.0284971</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0259202</v>
+        <v>0.0258044</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0262811</v>
+        <v>0.0254379</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0278917</v>
+        <v>0.0287012</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0258874</v>
+        <v>0.0262052</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0260508</v>
+        <v>0.026203</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0280627</v>
+        <v>0.0289836</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262053</v>
+        <v>0.0265405</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0266114</v>
+        <v>0.026572</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0283265</v>
+        <v>0.0290497</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0266156</v>
+        <v>0.026939</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0267586</v>
+        <v>0.0273585</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0287148</v>
+        <v>0.0294782</v>
       </c>
       <c r="C71" t="n">
-        <v>0.027505</v>
+        <v>0.0274336</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0272275</v>
+        <v>0.0272911</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0292924</v>
+        <v>0.029726</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0276224</v>
+        <v>0.0274009</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0282309</v>
+        <v>0.0278526</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0295944</v>
+        <v>0.0300539</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0285708</v>
+        <v>0.0286269</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0286462</v>
+        <v>0.0285102</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0299984</v>
+        <v>0.0305241</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0291617</v>
+        <v>0.029257</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0295816</v>
+        <v>0.029865</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0309044</v>
+        <v>0.0314266</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0316071</v>
+        <v>0.0307422</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0337749</v>
+        <v>0.0307468</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0378827</v>
+        <v>0.0326726</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0340651</v>
+        <v>0.0323727</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0344645</v>
+        <v>0.03221</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0424269</v>
+        <v>0.0345286</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0375224</v>
+        <v>0.0349047</v>
       </c>
       <c r="D77" t="n">
-        <v>0.036814</v>
+        <v>0.0351903</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0432091</v>
+        <v>0.036743</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0412754</v>
+        <v>0.0384366</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0403081</v>
+        <v>0.0383902</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0491845</v>
+        <v>0.0403021</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0482639</v>
+        <v>0.0435707</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0468451</v>
+        <v>0.0435134</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0528173</v>
+        <v>0.0450677</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0500253</v>
+        <v>0.0362376</v>
       </c>
       <c r="D80" t="n">
-        <v>0.050807</v>
+        <v>0.0366679</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07778839999999999</v>
+        <v>0.0555766</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0607593</v>
+        <v>0.0369393</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06445679999999999</v>
+        <v>0.0368943</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0876933</v>
+        <v>0.0556888</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0560928</v>
+        <v>0.0375511</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0585641</v>
+        <v>0.0378811</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.09116680000000001</v>
+        <v>0.0560011</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0764592</v>
+        <v>0.038393</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0739948</v>
+        <v>0.0382998</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.09744070000000001</v>
+        <v>0.056209</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0759283</v>
+        <v>0.0396019</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0759831</v>
+        <v>0.0400258</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0998507</v>
+        <v>0.0565123</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0739411</v>
+        <v>0.0399144</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0478886</v>
+        <v>0.0397609</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0596521</v>
+        <v>0.0567243</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0414341</v>
+        <v>0.040816</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0415672</v>
+        <v>0.0409646</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0575242</v>
+        <v>0.0568048</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0422772</v>
+        <v>0.0415594</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0424773</v>
+        <v>0.0416139</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0577344</v>
+        <v>0.057259</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0432433</v>
+        <v>0.0425778</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0429805</v>
+        <v>0.0424048</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0583801</v>
+        <v>0.0578565</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0442863</v>
+        <v>0.0435984</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0447785</v>
+        <v>0.043425</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0589735</v>
+        <v>0.0584371</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0458349</v>
+        <v>0.0451627</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0457868</v>
+        <v>0.0451746</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0601604</v>
+        <v>0.0595042</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0476606</v>
+        <v>0.04701</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0476059</v>
+        <v>0.0471741</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0617109</v>
+        <v>0.0612984</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0505959</v>
+        <v>0.0499562</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0504662</v>
+        <v>0.0498409</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0643378</v>
+        <v>0.0638387</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0549226</v>
+        <v>0.054338</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0547619</v>
+        <v>0.0539846</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.068011</v>
+        <v>0.0677128</v>
       </c>
       <c r="C94" t="n">
-        <v>0.07222439999999999</v>
+        <v>0.0715296</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07166500000000001</v>
+        <v>0.0716382</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0856768</v>
+        <v>0.0856324</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0720798</v>
+        <v>0.0719495</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07228859999999999</v>
+        <v>0.072021</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0858544</v>
+        <v>0.0858377</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07242460000000001</v>
+        <v>0.0724645</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0725393</v>
+        <v>0.0726419</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0857932</v>
+        <v>0.08575770000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0728563</v>
+        <v>0.0728736</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07310029999999999</v>
+        <v>0.0730948</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859309</v>
+        <v>0.0859246</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0734083</v>
+        <v>0.0734744</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0736106</v>
+        <v>0.07355399999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08597</v>
+        <v>0.0860938</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0741015</v>
+        <v>0.074036</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0750637</v>
+        <v>0.07417319999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08627170000000001</v>
+        <v>0.08615299999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0758229</v>
+        <v>0.07466159999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0748185</v>
+        <v>0.0747428</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0871381</v>
+        <v>0.0864279</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07555630000000001</v>
+        <v>0.07542550000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0754315</v>
+        <v>0.07545739999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08653959999999999</v>
+        <v>0.0865475</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0761233</v>
+        <v>0.07623290000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.076295</v>
+        <v>0.0763286</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0869019</v>
+        <v>0.086983</v>
       </c>
       <c r="C103" t="n">
-        <v>0.077319</v>
+        <v>0.0773244</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0772462</v>
+        <v>0.0772288</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08757620000000001</v>
+        <v>0.0874217</v>
       </c>
       <c r="C104" t="n">
-        <v>0.078559</v>
+        <v>0.078537</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0784557</v>
+        <v>0.0784561</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08840099999999999</v>
+        <v>0.0883864</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08030370000000001</v>
+        <v>0.08032690000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0800603</v>
+        <v>0.0799753</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08967410000000001</v>
+        <v>0.0896961</v>
       </c>
       <c r="C106" t="n">
-        <v>0.082846</v>
+        <v>0.0829003</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0825751</v>
+        <v>0.08266660000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09167359999999999</v>
+        <v>0.0918089</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08674900000000001</v>
+        <v>0.086772</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0864592</v>
+        <v>0.0862728</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0949812</v>
+        <v>0.094904</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0898607</v>
+        <v>0.0889192</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0892075</v>
+        <v>0.0888661</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0997459</v>
+        <v>0.09997490000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0905504</v>
+        <v>0.0896699</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0905384</v>
+        <v>0.0897367</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.109645</v>
+        <v>0.106959</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0913971</v>
+        <v>0.0904273</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0914708</v>
+        <v>0.09035169999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.110248</v>
+        <v>0.107194</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0922423</v>
+        <v>0.0912946</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0913258</v>
+        <v>0.09147230000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.11027</v>
+        <v>0.107187</v>
       </c>
       <c r="C112" t="n">
-        <v>0.093168</v>
+        <v>0.0938403</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09309539999999999</v>
+        <v>0.092293</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.110587</v>
+        <v>0.107332</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0953415</v>
+        <v>0.0930882</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0940189</v>
+        <v>0.093186</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.110942</v>
+        <v>0.107517</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09520099999999999</v>
+        <v>0.094219</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0950974</v>
+        <v>0.0942168</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111187</v>
+        <v>0.107869</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0964382</v>
+        <v>0.0953411</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0952736</v>
+        <v>0.0953919</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111787</v>
+        <v>0.108379</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0976708</v>
+        <v>0.096565</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09824239999999999</v>
+        <v>0.09645579999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.112231</v>
+        <v>0.109346</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0990248</v>
+        <v>0.0979893</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09781090000000001</v>
+        <v>0.09791859999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.113181</v>
+        <v>0.110069</v>
       </c>
       <c r="C118" t="n">
-        <v>0.100722</v>
+        <v>0.0997073</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0995254</v>
+        <v>0.0995529</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.114137</v>
+        <v>0.111119</v>
       </c>
       <c r="C119" t="n">
-        <v>0.10272</v>
+        <v>0.101624</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101389</v>
+        <v>0.101438</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.115953</v>
+        <v>0.112657</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105469</v>
+        <v>0.104356</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104037</v>
+        <v>0.103965</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.117405</v>
+        <v>0.114562</v>
       </c>
       <c r="C121" t="n">
-        <v>0.109306</v>
+        <v>0.10843</v>
       </c>
       <c r="D121" t="n">
-        <v>0.109381</v>
+        <v>0.107935</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.120308</v>
+        <v>0.117707</v>
       </c>
       <c r="C122" t="n">
-        <v>0.115716</v>
+        <v>0.114537</v>
       </c>
       <c r="D122" t="n">
-        <v>0.11381</v>
+        <v>0.113928</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.124857</v>
+        <v>0.122429</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106785</v>
+        <v>0.107063</v>
       </c>
       <c r="D123" t="n">
-        <v>0.106619</v>
+        <v>0.10703</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.14044</v>
+        <v>0.139658</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107592</v>
+        <v>0.108223</v>
       </c>
       <c r="D124" t="n">
-        <v>0.107311</v>
+        <v>0.107958</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140508</v>
+        <v>0.13966</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108891</v>
+        <v>0.109207</v>
       </c>
       <c r="D125" t="n">
-        <v>0.108825</v>
+        <v>0.109367</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.140669</v>
+        <v>0.139752</v>
       </c>
       <c r="C126" t="n">
-        <v>0.109763</v>
+        <v>0.110449</v>
       </c>
       <c r="D126" t="n">
-        <v>0.109608</v>
+        <v>0.11042</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.140587</v>
+        <v>0.139739</v>
       </c>
       <c r="C127" t="n">
-        <v>0.110927</v>
+        <v>0.111538</v>
       </c>
       <c r="D127" t="n">
-        <v>0.110654</v>
+        <v>0.111679</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.140745</v>
+        <v>0.13956</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112315</v>
+        <v>0.112926</v>
       </c>
       <c r="D128" t="n">
-        <v>0.112282</v>
+        <v>0.112901</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.140971</v>
+        <v>0.139673</v>
       </c>
       <c r="C129" t="n">
-        <v>0.113475</v>
+        <v>0.114222</v>
       </c>
       <c r="D129" t="n">
-        <v>0.113412</v>
+        <v>0.114334</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141348</v>
+        <v>0.139937</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115079</v>
+        <v>0.115784</v>
       </c>
       <c r="D130" t="n">
-        <v>0.114764</v>
+        <v>0.115972</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.141888</v>
+        <v>0.140242</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116643</v>
+        <v>0.117348</v>
       </c>
       <c r="D131" t="n">
-        <v>0.116342</v>
+        <v>0.117458</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142362</v>
+        <v>0.140526</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118407</v>
+        <v>0.119426</v>
       </c>
       <c r="D132" t="n">
-        <v>0.118638</v>
+        <v>0.119418</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.158885</v>
+        <v>0.141465</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120927</v>
+        <v>0.121621</v>
       </c>
       <c r="D133" t="n">
-        <v>0.120987</v>
+        <v>0.121712</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144146</v>
+        <v>0.142395</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123707</v>
+        <v>0.124601</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123866</v>
+        <v>0.124715</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.146181</v>
+        <v>0.143603</v>
       </c>
       <c r="C135" t="n">
-        <v>0.127862</v>
+        <v>0.128929</v>
       </c>
       <c r="D135" t="n">
-        <v>0.127935</v>
+        <v>0.12884</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.148122</v>
+        <v>0.14601</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134594</v>
+        <v>0.135453</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134278</v>
+        <v>0.135239</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.153591</v>
+        <v>0.150051</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118458</v>
+        <v>0.118406</v>
       </c>
       <c r="D137" t="n">
-        <v>0.11853</v>
+        <v>0.119752</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158048</v>
+        <v>0.158036</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119466</v>
+        <v>0.119507</v>
       </c>
       <c r="D138" t="n">
-        <v>0.119494</v>
+        <v>0.12084</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158077</v>
+        <v>0.157766</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120673</v>
+        <v>0.122845</v>
       </c>
       <c r="D139" t="n">
-        <v>0.120652</v>
+        <v>0.121767</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15836</v>
+        <v>0.157896</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121656</v>
+        <v>0.121685</v>
       </c>
       <c r="D140" t="n">
-        <v>0.121625</v>
+        <v>0.122886</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158065</v>
+        <v>0.158062</v>
       </c>
       <c r="C141" t="n">
-        <v>0.123054</v>
+        <v>0.12272</v>
       </c>
       <c r="D141" t="n">
-        <v>0.12294</v>
+        <v>0.123988</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158428</v>
+        <v>0.159028</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124141</v>
+        <v>0.124032</v>
       </c>
       <c r="D142" t="n">
-        <v>0.127248</v>
+        <v>0.125258</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158429</v>
+        <v>0.158468</v>
       </c>
       <c r="C143" t="n">
-        <v>0.125558</v>
+        <v>0.125399</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125542</v>
+        <v>0.126422</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0196861</v>
+        <v>0.0199369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.021348</v>
+        <v>0.0206625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0336857</v>
+        <v>0.0358844</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197442</v>
+        <v>0.0201602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0214877</v>
+        <v>0.020742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0394849</v>
+        <v>0.0382976</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0197441</v>
+        <v>0.020132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0216247</v>
+        <v>0.0206972</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0423094</v>
+        <v>0.0443271</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0197505</v>
+        <v>0.0203284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0218795</v>
+        <v>0.0209579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0461472</v>
+        <v>0.0476673</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0199072</v>
+        <v>0.0203238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0221566</v>
+        <v>0.0210794</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0507523</v>
+        <v>0.0518912</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.020167</v>
+        <v>0.0205082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0227802</v>
+        <v>0.0213018</v>
       </c>
       <c r="D7" t="n">
-        <v>0.030305</v>
+        <v>0.0344786</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201829</v>
+        <v>0.020821</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0236896</v>
+        <v>0.0226684</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0319421</v>
+        <v>0.034986</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0205995</v>
+        <v>0.0213062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0202692</v>
+        <v>0.0203572</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0344693</v>
+        <v>0.0365687</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193044</v>
+        <v>0.0193014</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0207092</v>
+        <v>0.0206122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0368055</v>
+        <v>0.0379233</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0194655</v>
+        <v>0.0194977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0210303</v>
+        <v>0.0208535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0393418</v>
+        <v>0.0401529</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196123</v>
+        <v>0.0197253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0213025</v>
+        <v>0.0211576</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0427875</v>
+        <v>0.0429108</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198252</v>
+        <v>0.0199681</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0213527</v>
+        <v>0.0215709</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0475742</v>
+        <v>0.0458506</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198606</v>
+        <v>0.0199696</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0218472</v>
+        <v>0.0217914</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0488059</v>
+        <v>0.0490944</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200329</v>
+        <v>0.0201455</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0222591</v>
+        <v>0.0220367</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0525665</v>
+        <v>0.0534722</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200361</v>
+        <v>0.0202537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0226628</v>
+        <v>0.0222519</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0568101</v>
+        <v>0.0579143</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.020201</v>
+        <v>0.0204452</v>
       </c>
       <c r="C17" t="n">
-        <v>0.022977</v>
+        <v>0.0224284</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0604767</v>
+        <v>0.0610247</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0201688</v>
+        <v>0.0207821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0233228</v>
+        <v>0.0226718</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0639252</v>
+        <v>0.064055</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204639</v>
+        <v>0.0210004</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0238671</v>
+        <v>0.0227787</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0675722</v>
+        <v>0.0666137</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020687</v>
+        <v>0.0213787</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0246036</v>
+        <v>0.0232431</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0692373</v>
+        <v>0.0700987</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0209861</v>
+        <v>0.0217347</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0252305</v>
+        <v>0.0243218</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0444481</v>
+        <v>0.0450924</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0214982</v>
+        <v>0.0221994</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0277472</v>
+        <v>0.0270001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0475408</v>
+        <v>0.0471716</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0232463</v>
+        <v>0.0242847</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0217618</v>
+        <v>0.0216186</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0489493</v>
+        <v>0.0485535</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0203659</v>
+        <v>0.020393</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219587</v>
+        <v>0.0219333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0508013</v>
+        <v>0.0513693</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204979</v>
+        <v>0.0204794</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0222026</v>
+        <v>0.0220536</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0535126</v>
+        <v>0.0539623</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206548</v>
+        <v>0.0206538</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224898</v>
+        <v>0.0224041</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0556632</v>
+        <v>0.0561186</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208464</v>
+        <v>0.0208499</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0228074</v>
+        <v>0.0226537</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0589148</v>
+        <v>0.0594077</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210504</v>
+        <v>0.0210473</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0232103</v>
+        <v>0.0230708</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0614351</v>
+        <v>0.0611461</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212226</v>
+        <v>0.0211742</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0236661</v>
+        <v>0.0233585</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06435200000000001</v>
+        <v>0.0642982</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0216188</v>
+        <v>0.0214947</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0240376</v>
+        <v>0.0238104</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0664998</v>
+        <v>0.06753869999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0218555</v>
+        <v>0.021708</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0245248</v>
+        <v>0.0239999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07017470000000001</v>
+        <v>0.0706232</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0220454</v>
+        <v>0.0219787</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0252023</v>
+        <v>0.0244895</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0725022</v>
+        <v>0.0730924</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221091</v>
+        <v>0.0223284</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0257564</v>
+        <v>0.0251763</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0762954</v>
+        <v>0.0766474</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0229123</v>
+        <v>0.0231178</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0270565</v>
+        <v>0.0261384</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0772482</v>
+        <v>0.07752820000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.023554</v>
+        <v>0.0238298</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0287934</v>
+        <v>0.0280669</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0518274</v>
+        <v>0.0509063</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.025525</v>
+        <v>0.0271694</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0324096</v>
+        <v>0.0347484</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0539981</v>
+        <v>0.0536219</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0295991</v>
+        <v>0.0315077</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0236684</v>
+        <v>0.0227738</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0569381</v>
+        <v>0.0550493</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0226652</v>
+        <v>0.0214401</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0241302</v>
+        <v>0.023027</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0590617</v>
+        <v>0.0576365</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0226726</v>
+        <v>0.0215239</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0244332</v>
+        <v>0.0232491</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0616864</v>
+        <v>0.0599069</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0230688</v>
+        <v>0.0217138</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0245736</v>
+        <v>0.0235223</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0607154</v>
+        <v>0.0621873</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220955</v>
+        <v>0.0219671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239295</v>
+        <v>0.0238394</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06472219999999999</v>
+        <v>0.0647114</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221313</v>
+        <v>0.0221673</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0243207</v>
+        <v>0.0242121</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0669053</v>
+        <v>0.0670618</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224242</v>
+        <v>0.0224116</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0252591</v>
+        <v>0.0245538</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06983350000000001</v>
+        <v>0.06922879999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226252</v>
+        <v>0.0226694</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0256591</v>
+        <v>0.0249832</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0728838</v>
+        <v>0.07300379999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0229498</v>
+        <v>0.0231774</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0259074</v>
+        <v>0.025538</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0752324</v>
+        <v>0.074848</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233683</v>
+        <v>0.0236015</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0266036</v>
+        <v>0.0263194</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07806680000000001</v>
+        <v>0.0779444</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.024254</v>
+        <v>0.0244964</v>
       </c>
       <c r="C47" t="n">
-        <v>0.027689</v>
+        <v>0.0278946</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0802983</v>
+        <v>0.07994130000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0251133</v>
+        <v>0.025389</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0291986</v>
+        <v>0.0293874</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0828279</v>
+        <v>0.08258939999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0266522</v>
+        <v>0.0270895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0317988</v>
+        <v>0.0316004</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0846045</v>
+        <v>0.0841438</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.029904</v>
+        <v>0.0297377</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0360721</v>
+        <v>0.0359924</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0575865</v>
+        <v>0.0574969</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0329878</v>
+        <v>0.0347595</v>
       </c>
       <c r="C51" t="n">
-        <v>0.023394</v>
+        <v>0.0234083</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0593047</v>
+        <v>0.0591885</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0389153</v>
+        <v>0.0392143</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0236044</v>
+        <v>0.0235666</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0611502</v>
+        <v>0.0613125</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231873</v>
+        <v>0.0231698</v>
       </c>
       <c r="C53" t="n">
-        <v>0.023867</v>
+        <v>0.0238625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0636737</v>
+        <v>0.0634436</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233782</v>
+        <v>0.0233534</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0241515</v>
+        <v>0.0241085</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0657292</v>
+        <v>0.0655601</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234553</v>
+        <v>0.0236466</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0244875</v>
+        <v>0.0243978</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06833930000000001</v>
+        <v>0.0679744</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236761</v>
+        <v>0.0237965</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0249477</v>
+        <v>0.0248271</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0707661</v>
+        <v>0.0703657</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239042</v>
+        <v>0.0239294</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0253774</v>
+        <v>0.0252874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.073903</v>
+        <v>0.07335800000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0242977</v>
+        <v>0.024569</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0259302</v>
+        <v>0.0257679</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0761425</v>
+        <v>0.0763086</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0246093</v>
+        <v>0.0249277</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0265094</v>
+        <v>0.0264413</v>
       </c>
       <c r="D59" t="n">
-        <v>0.078791</v>
+        <v>0.07886079999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252684</v>
+        <v>0.0254614</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0274929</v>
+        <v>0.027314</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08170040000000001</v>
+        <v>0.0808999</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0261573</v>
+        <v>0.0262578</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0286629</v>
+        <v>0.0285469</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0839515</v>
+        <v>0.0837866</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.027529</v>
+        <v>0.0276376</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0303873</v>
+        <v>0.0303462</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0861381</v>
+        <v>0.086271</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293145</v>
+        <v>0.0293617</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0330881</v>
+        <v>0.032979</v>
       </c>
       <c r="D63" t="n">
-        <v>0.088853</v>
+        <v>0.089008</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0323043</v>
+        <v>0.031871</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0367975</v>
+        <v>0.0368013</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0638098</v>
+        <v>0.0639339</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0357062</v>
+        <v>0.0353895</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0428056</v>
+        <v>0.0425205</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06650739999999999</v>
+        <v>0.0675277</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0407992</v>
+        <v>0.0406645</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0248565</v>
+        <v>0.0256201</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0691383</v>
+        <v>0.0701908</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0291067</v>
+        <v>0.0297888</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0254945</v>
+        <v>0.0257862</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0715653</v>
+        <v>0.07319199999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0292957</v>
+        <v>0.0298286</v>
       </c>
       <c r="C68" t="n">
-        <v>0.025829</v>
+        <v>0.0261842</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0745817</v>
+        <v>0.0754259</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0294658</v>
+        <v>0.030082</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0266013</v>
+        <v>0.0266625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07851610000000001</v>
+        <v>0.0783889</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0296458</v>
+        <v>0.0302354</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0265404</v>
+        <v>0.0267799</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0814839</v>
+        <v>0.0819246</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0298446</v>
+        <v>0.0305286</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0270211</v>
+        <v>0.0272593</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0860113</v>
+        <v>0.08615</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303077</v>
+        <v>0.0305862</v>
       </c>
       <c r="C72" t="n">
-        <v>0.027483</v>
+        <v>0.027864</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09014419999999999</v>
+        <v>0.09059300000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0305738</v>
+        <v>0.0310832</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0281629</v>
+        <v>0.0285026</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0948281</v>
+        <v>0.0943459</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0311089</v>
+        <v>0.0315641</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0291473</v>
+        <v>0.0294093</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0981105</v>
+        <v>0.09863570000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.031958</v>
+        <v>0.0323026</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0302343</v>
+        <v>0.0307013</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101526</v>
+        <v>0.103014</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0331584</v>
+        <v>0.0335117</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0321709</v>
+        <v>0.0324114</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107487</v>
+        <v>0.107003</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0348142</v>
+        <v>0.0349818</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0346453</v>
+        <v>0.034741</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112807</v>
+        <v>0.111857</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0371248</v>
+        <v>0.0374137</v>
       </c>
       <c r="C78" t="n">
-        <v>0.038211</v>
+        <v>0.0383128</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0965601</v>
+        <v>0.0971277</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0406293</v>
+        <v>0.040943</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0437751</v>
+        <v>0.0433546</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101097</v>
+        <v>0.101825</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0455093</v>
+        <v>0.0458667</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0369618</v>
+        <v>0.0359968</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106082</v>
+        <v>0.106255</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.054876</v>
+        <v>0.0560963</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0377666</v>
+        <v>0.0367396</v>
       </c>
       <c r="D81" t="n">
-        <v>0.110975</v>
+        <v>0.11064</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0551749</v>
+        <v>0.0560659</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0385693</v>
+        <v>0.0373278</v>
       </c>
       <c r="D82" t="n">
-        <v>0.114995</v>
+        <v>0.115552</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0552561</v>
+        <v>0.056312</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0393414</v>
+        <v>0.0382687</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120023</v>
+        <v>0.120745</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0555251</v>
+        <v>0.0566211</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0400166</v>
+        <v>0.0388883</v>
       </c>
       <c r="D84" t="n">
-        <v>0.125893</v>
+        <v>0.125652</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557353</v>
+        <v>0.0567098</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0406419</v>
+        <v>0.0397729</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130762</v>
+        <v>0.131478</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0559444</v>
+        <v>0.05692</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0415556</v>
+        <v>0.0406764</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136855</v>
+        <v>0.136768</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.056275</v>
+        <v>0.0573433</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0424017</v>
+        <v>0.0413865</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142491</v>
+        <v>0.142811</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0565668</v>
+        <v>0.0574451</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0449697</v>
+        <v>0.0423516</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148735</v>
+        <v>0.148299</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0570285</v>
+        <v>0.058176</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0442997</v>
+        <v>0.0434405</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154806</v>
+        <v>0.154674</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0577995</v>
+        <v>0.0587022</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0456659</v>
+        <v>0.0449522</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160276</v>
+        <v>0.160425</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0587407</v>
+        <v>0.0597549</v>
       </c>
       <c r="C91" t="n">
-        <v>0.047738</v>
+        <v>0.0468908</v>
       </c>
       <c r="D91" t="n">
-        <v>0.165942</v>
+        <v>0.166173</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0605897</v>
+        <v>0.061391</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0505484</v>
+        <v>0.0497614</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145194</v>
+        <v>0.145105</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0631306</v>
+        <v>0.063864</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0549595</v>
+        <v>0.0541404</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148853</v>
+        <v>0.148815</v>
       </c>
     </row>
     <row r="94">
@@ -4534,10 +4534,10 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06695570000000001</v>
+        <v>0.0675786</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0715803</v>
+        <v>0.0715904</v>
       </c>
       <c r="D94" t="n">
         <v>0.152457</v>
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.09221509999999999</v>
+        <v>0.085816</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0719887</v>
+        <v>0.0720716</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156847</v>
+        <v>0.156411</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0858753</v>
+        <v>0.0857607</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0723747</v>
+        <v>0.07251290000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.16093</v>
+        <v>0.160804</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08594309999999999</v>
+        <v>0.0858447</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0728399</v>
+        <v>0.0730203</v>
       </c>
       <c r="D97" t="n">
-        <v>0.165502</v>
+        <v>0.165434</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0860457</v>
+        <v>0.08588229999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07350520000000001</v>
+        <v>0.0736277</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171025</v>
+        <v>0.171239</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0861672</v>
+        <v>0.0860567</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0740489</v>
+        <v>0.07421609999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.176145</v>
+        <v>0.175975</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0863088</v>
+        <v>0.08606999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0746351</v>
+        <v>0.07485360000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.181854</v>
+        <v>0.181173</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0865691</v>
+        <v>0.086396</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0754398</v>
+        <v>0.0756068</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187152</v>
+        <v>0.186091</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0868321</v>
+        <v>0.0865629</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07621650000000001</v>
+        <v>0.07649499999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192849</v>
+        <v>0.192871</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08713460000000001</v>
+        <v>0.0870233</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0796057</v>
+        <v>0.0774946</v>
       </c>
       <c r="D103" t="n">
-        <v>0.199082</v>
+        <v>0.198176</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08769159999999999</v>
+        <v>0.08751829999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07860830000000001</v>
+        <v>0.0787542</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205029</v>
+        <v>0.203975</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0958198</v>
+        <v>0.0884221</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0804361</v>
+        <v>0.0805956</v>
       </c>
       <c r="D105" t="n">
-        <v>0.211115</v>
+        <v>0.210644</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0898485</v>
+        <v>0.0897188</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0829439</v>
+        <v>0.08310090000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217795</v>
+        <v>0.216037</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.095514</v>
+        <v>0.0945759</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08686770000000001</v>
+        <v>0.08725430000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181761</v>
+        <v>0.181647</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09515</v>
+        <v>0.09498760000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0889514</v>
+        <v>0.0891937</v>
       </c>
       <c r="D108" t="n">
-        <v>0.184875</v>
+        <v>0.184874</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100163</v>
+        <v>0.09985330000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.089729</v>
+        <v>0.0898331</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18853</v>
+        <v>0.188351</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1074</v>
+        <v>0.10714</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0904097</v>
+        <v>0.09067070000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.193379</v>
+        <v>0.192309</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.10739</v>
+        <v>0.107065</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0913191</v>
+        <v>0.091461</v>
       </c>
       <c r="D111" t="n">
-        <v>0.196792</v>
+        <v>0.196818</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107504</v>
+        <v>0.107067</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0921503</v>
+        <v>0.0924634</v>
       </c>
       <c r="D112" t="n">
-        <v>0.201399</v>
+        <v>0.201172</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107377</v>
+        <v>0.107263</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0931935</v>
+        <v>0.0934343</v>
       </c>
       <c r="D113" t="n">
-        <v>0.206374</v>
+        <v>0.206271</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.114714</v>
+        <v>0.107379</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09714059999999999</v>
+        <v>0.0944041</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211734</v>
+        <v>0.211515</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108009</v>
+        <v>0.111007</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09524050000000001</v>
+        <v>0.09562229999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.218001</v>
+        <v>0.217332</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108717</v>
+        <v>0.108518</v>
       </c>
       <c r="C116" t="n">
-        <v>0.096618</v>
+        <v>0.0969671</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223144</v>
+        <v>0.223244</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109426</v>
+        <v>0.109727</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0979674</v>
+        <v>0.0982759</v>
       </c>
       <c r="D117" t="n">
-        <v>0.229767</v>
+        <v>0.228807</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.110397</v>
+        <v>0.109935</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0996447</v>
+        <v>0.101706</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235872</v>
+        <v>0.235245</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111361</v>
+        <v>0.111041</v>
       </c>
       <c r="C119" t="n">
-        <v>0.101745</v>
+        <v>0.101936</v>
       </c>
       <c r="D119" t="n">
-        <v>0.240776</v>
+        <v>0.241254</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.112842</v>
+        <v>0.112502</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104375</v>
+        <v>0.104644</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247637</v>
+        <v>0.247728</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114762</v>
+        <v>0.114572</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108312</v>
+        <v>0.108664</v>
       </c>
       <c r="D121" t="n">
-        <v>0.198997</v>
+        <v>0.2005</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.117867</v>
+        <v>0.122731</v>
       </c>
       <c r="C122" t="n">
-        <v>0.114594</v>
+        <v>0.114806</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202385</v>
+        <v>0.20231</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.124715</v>
+        <v>0.12281</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106984</v>
+        <v>0.106968</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205971</v>
+        <v>0.205725</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.139793</v>
+        <v>0.136743</v>
       </c>
       <c r="C124" t="n">
-        <v>0.119349</v>
+        <v>0.107983</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209681</v>
+        <v>0.209838</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140249</v>
+        <v>0.151321</v>
       </c>
       <c r="C125" t="n">
-        <v>0.109142</v>
+        <v>0.109006</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213857</v>
+        <v>0.213608</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.139831</v>
+        <v>0.136871</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110214</v>
+        <v>0.112238</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218441</v>
+        <v>0.21823</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.139692</v>
+        <v>0.137222</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111475</v>
+        <v>0.111209</v>
       </c>
       <c r="D127" t="n">
-        <v>0.223282</v>
+        <v>0.223052</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.139658</v>
+        <v>0.137122</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112737</v>
+        <v>0.112487</v>
       </c>
       <c r="D128" t="n">
-        <v>0.228864</v>
+        <v>0.228364</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.139443</v>
+        <v>0.150905</v>
       </c>
       <c r="C129" t="n">
-        <v>0.11413</v>
+        <v>0.113756</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234598</v>
+        <v>0.234364</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139582</v>
+        <v>0.137757</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115719</v>
+        <v>0.115152</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240649</v>
+        <v>0.245732</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.139867</v>
+        <v>0.1384</v>
       </c>
       <c r="C131" t="n">
-        <v>0.117336</v>
+        <v>0.116754</v>
       </c>
       <c r="D131" t="n">
-        <v>0.251617</v>
+        <v>0.246253</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.14053</v>
+        <v>0.139108</v>
       </c>
       <c r="C132" t="n">
-        <v>0.119263</v>
+        <v>0.118463</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252683</v>
+        <v>0.251968</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141002</v>
+        <v>0.139787</v>
       </c>
       <c r="C133" t="n">
-        <v>0.121651</v>
+        <v>0.12079</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258786</v>
+        <v>0.258176</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.142003</v>
+        <v>0.140774</v>
       </c>
       <c r="C134" t="n">
-        <v>0.124577</v>
+        <v>0.123777</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264415</v>
+        <v>0.264234</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.143615</v>
+        <v>0.142586</v>
       </c>
       <c r="C135" t="n">
-        <v>0.128814</v>
+        <v>0.127995</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20958</v>
+        <v>0.207364</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.145983</v>
+        <v>0.145125</v>
       </c>
       <c r="C136" t="n">
-        <v>0.13534</v>
+        <v>0.134382</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21278</v>
+        <v>0.210108</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.150084</v>
+        <v>0.149183</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118414</v>
+        <v>0.118359</v>
       </c>
       <c r="D137" t="n">
-        <v>0.216352</v>
+        <v>0.213574</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158033</v>
+        <v>0.157792</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119444</v>
+        <v>0.119458</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219749</v>
+        <v>0.217922</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157812</v>
+        <v>0.157754</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120531</v>
+        <v>0.120486</v>
       </c>
       <c r="D139" t="n">
-        <v>0.224359</v>
+        <v>0.222228</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157958</v>
+        <v>0.157986</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121662</v>
+        <v>0.121805</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228913</v>
+        <v>0.22713</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158179</v>
+        <v>0.158198</v>
       </c>
       <c r="C141" t="n">
-        <v>0.122894</v>
+        <v>0.122795</v>
       </c>
       <c r="D141" t="n">
-        <v>0.236829</v>
+        <v>0.232281</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158157</v>
+        <v>0.158052</v>
       </c>
       <c r="C142" t="n">
-        <v>0.12405</v>
+        <v>0.124232</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239299</v>
+        <v>0.237758</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158476</v>
+        <v>0.15838</v>
       </c>
       <c r="C143" t="n">
-        <v>0.125504</v>
+        <v>0.125411</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2453</v>
+        <v>0.243146</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0199369</v>
+        <v>0.0195983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206625</v>
+        <v>0.0215199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0358844</v>
+        <v>0.0335133</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0201602</v>
+        <v>0.0196104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.020742</v>
+        <v>0.0215623</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0382976</v>
+        <v>0.0371825</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.020132</v>
+        <v>0.0196966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0206972</v>
+        <v>0.0214619</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0443271</v>
+        <v>0.0428566</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0203284</v>
+        <v>0.0199418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209579</v>
+        <v>0.0215455</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0476673</v>
+        <v>0.0462449</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0203238</v>
+        <v>0.0197761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210794</v>
+        <v>0.0216253</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0518912</v>
+        <v>0.0527064</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0205082</v>
+        <v>0.0198455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0213018</v>
+        <v>0.0217732</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0344786</v>
+        <v>0.0304673</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020821</v>
+        <v>0.0199697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0226684</v>
+        <v>0.0221403</v>
       </c>
       <c r="D8" t="n">
-        <v>0.034986</v>
+        <v>0.0329105</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0213062</v>
+        <v>0.0203354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203572</v>
+        <v>0.0210156</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0365687</v>
+        <v>0.0348616</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193014</v>
+        <v>0.0196233</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0206122</v>
+        <v>0.0211906</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0379233</v>
+        <v>0.0372116</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0194977</v>
+        <v>0.0194715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0208535</v>
+        <v>0.0215661</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0401529</v>
+        <v>0.0395782</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197253</v>
+        <v>0.0196173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211576</v>
+        <v>0.0217368</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0429108</v>
+        <v>0.0437865</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199681</v>
+        <v>0.0197566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0215709</v>
+        <v>0.021794</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0458506</v>
+        <v>0.0456788</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199696</v>
+        <v>0.0200107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0217914</v>
+        <v>0.0220603</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0490944</v>
+        <v>0.0491536</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201455</v>
+        <v>0.0201812</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220367</v>
+        <v>0.0222905</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0534722</v>
+        <v>0.0539454</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0202537</v>
+        <v>0.0202456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222519</v>
+        <v>0.0223928</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0579143</v>
+        <v>0.0569238</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204452</v>
+        <v>0.0204129</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0224284</v>
+        <v>0.0227911</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0610247</v>
+        <v>0.0602551</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0207821</v>
+        <v>0.0208155</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0226718</v>
+        <v>0.0227351</v>
       </c>
       <c r="D18" t="n">
-        <v>0.064055</v>
+        <v>0.0639016</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0210004</v>
+        <v>0.0209031</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0227787</v>
+        <v>0.0230081</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0666137</v>
+        <v>0.0671911</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0213787</v>
+        <v>0.0209639</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0232431</v>
+        <v>0.0230983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0700987</v>
+        <v>0.0705274</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0217347</v>
+        <v>0.0210608</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0243218</v>
+        <v>0.0235861</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0450924</v>
+        <v>0.0445261</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0221994</v>
+        <v>0.021645</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0270001</v>
+        <v>0.0252081</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0471716</v>
+        <v>0.0466408</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0242847</v>
+        <v>0.023237</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0216186</v>
+        <v>0.0223602</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0485535</v>
+        <v>0.0501696</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.020393</v>
+        <v>0.0204176</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219333</v>
+        <v>0.0225131</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0513693</v>
+        <v>0.0522993</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204794</v>
+        <v>0.0206085</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220536</v>
+        <v>0.0226967</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0539623</v>
+        <v>0.0539962</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206538</v>
+        <v>0.0206715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224041</v>
+        <v>0.0229499</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0561186</v>
+        <v>0.0564739</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208499</v>
+        <v>0.0208976</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226537</v>
+        <v>0.0232555</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0594077</v>
+        <v>0.0593411</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210473</v>
+        <v>0.0211739</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230708</v>
+        <v>0.023456</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0611461</v>
+        <v>0.0623692</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211742</v>
+        <v>0.0212708</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233585</v>
+        <v>0.0237405</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0642982</v>
+        <v>0.06482690000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214947</v>
+        <v>0.0214934</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0238104</v>
+        <v>0.0240094</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06753869999999999</v>
+        <v>0.0678088</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.021708</v>
+        <v>0.021772</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239999</v>
+        <v>0.0244356</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0706232</v>
+        <v>0.07037210000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219787</v>
+        <v>0.021975</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244895</v>
+        <v>0.0246929</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0730924</v>
+        <v>0.0732279</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0223284</v>
+        <v>0.0221896</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0251763</v>
+        <v>0.0249437</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0766474</v>
+        <v>0.0761009</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0231178</v>
+        <v>0.022499</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0261384</v>
+        <v>0.0256094</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07752820000000001</v>
+        <v>0.0773158</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0238298</v>
+        <v>0.0233651</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0280669</v>
+        <v>0.0269747</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0509063</v>
+        <v>0.0509475</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0271694</v>
+        <v>0.0250247</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0347484</v>
+        <v>0.0307314</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0536219</v>
+        <v>0.0527925</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0315077</v>
+        <v>0.0289464</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0227738</v>
+        <v>0.0232688</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0550493</v>
+        <v>0.0543723</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214401</v>
+        <v>0.0215956</v>
       </c>
       <c r="C38" t="n">
-        <v>0.023027</v>
+        <v>0.0233883</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0576365</v>
+        <v>0.0568052</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215239</v>
+        <v>0.0218149</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232491</v>
+        <v>0.0235761</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0599069</v>
+        <v>0.0585878</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217138</v>
+        <v>0.0219072</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235223</v>
+        <v>0.0238792</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0621873</v>
+        <v>0.0614654</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219671</v>
+        <v>0.0220008</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238394</v>
+        <v>0.0241931</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0647114</v>
+        <v>0.0650765</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221673</v>
+        <v>0.0222054</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0242121</v>
+        <v>0.0245258</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0670618</v>
+        <v>0.06712460000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224116</v>
+        <v>0.0223776</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0245538</v>
+        <v>0.0248255</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06922879999999999</v>
+        <v>0.07063899999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226694</v>
+        <v>0.0227944</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0249832</v>
+        <v>0.0253133</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07300379999999999</v>
+        <v>0.07222389999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0231774</v>
+        <v>0.0232339</v>
       </c>
       <c r="C45" t="n">
-        <v>0.025538</v>
+        <v>0.0259797</v>
       </c>
       <c r="D45" t="n">
-        <v>0.074848</v>
+        <v>0.07495250000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0236015</v>
+        <v>0.0235925</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0263194</v>
+        <v>0.0262297</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0779444</v>
+        <v>0.0779333</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0244964</v>
+        <v>0.024506</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0278946</v>
+        <v>0.0270554</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07994130000000001</v>
+        <v>0.0797374</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025389</v>
+        <v>0.0252539</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0293874</v>
+        <v>0.0283919</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08258939999999999</v>
+        <v>0.0821804</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270895</v>
+        <v>0.0267405</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0316004</v>
+        <v>0.0306633</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0841438</v>
+        <v>0.08451889999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0297377</v>
+        <v>0.030066</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0359924</v>
+        <v>0.0355383</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0574969</v>
+        <v>0.0573467</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0347595</v>
+        <v>0.0328416</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0234083</v>
+        <v>0.0239341</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0591885</v>
+        <v>0.0591349</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0392143</v>
+        <v>0.0386853</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0235666</v>
+        <v>0.0241638</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613125</v>
+        <v>0.0612769</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231698</v>
+        <v>0.0232665</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238625</v>
+        <v>0.0244229</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0634436</v>
+        <v>0.0635928</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233534</v>
+        <v>0.0231714</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0241085</v>
+        <v>0.0247075</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0655601</v>
+        <v>0.0655353</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0236466</v>
+        <v>0.0237103</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0243978</v>
+        <v>0.0250135</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0679744</v>
+        <v>0.0678131</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237965</v>
+        <v>0.0237537</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0248271</v>
+        <v>0.0253161</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0703657</v>
+        <v>0.0702257</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239294</v>
+        <v>0.0241025</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0252874</v>
+        <v>0.0256712</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07335800000000001</v>
+        <v>0.07307909999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024569</v>
+        <v>0.0244158</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0257679</v>
+        <v>0.0261755</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0763086</v>
+        <v>0.0754768</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0249277</v>
+        <v>0.0246975</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0264413</v>
+        <v>0.0267801</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07886079999999999</v>
+        <v>0.07787620000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0254614</v>
+        <v>0.0253003</v>
       </c>
       <c r="C60" t="n">
-        <v>0.027314</v>
+        <v>0.0276675</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0808999</v>
+        <v>0.0807692</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262578</v>
+        <v>0.026053</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0285469</v>
+        <v>0.0288194</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837866</v>
+        <v>0.08290169999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0276376</v>
+        <v>0.0275338</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0303462</v>
+        <v>0.0303875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086271</v>
+        <v>0.0852041</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293617</v>
+        <v>0.0292541</v>
       </c>
       <c r="C63" t="n">
-        <v>0.032979</v>
+        <v>0.0327864</v>
       </c>
       <c r="D63" t="n">
-        <v>0.089008</v>
+        <v>0.0872845</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.031871</v>
+        <v>0.0316428</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0368013</v>
+        <v>0.0365622</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0639339</v>
+        <v>0.0627721</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0353895</v>
+        <v>0.035517</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0425205</v>
+        <v>0.042635</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0675277</v>
+        <v>0.06613719999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0406645</v>
+        <v>0.0407264</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0256201</v>
+        <v>0.0258002</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0701908</v>
+        <v>0.0683352</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0297888</v>
+        <v>0.028711</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0257862</v>
+        <v>0.0258735</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07319199999999999</v>
+        <v>0.0717634</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0298286</v>
+        <v>0.0287472</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0261842</v>
+        <v>0.0262001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0754259</v>
+        <v>0.0750103</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.030082</v>
+        <v>0.0289419</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0266625</v>
+        <v>0.027355</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0783889</v>
+        <v>0.07805189999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0302354</v>
+        <v>0.0290683</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0267799</v>
+        <v>0.0269115</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0819246</v>
+        <v>0.0815805</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0305286</v>
+        <v>0.0293166</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0272593</v>
+        <v>0.0279221</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08615</v>
+        <v>0.08517479999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0305862</v>
+        <v>0.0295468</v>
       </c>
       <c r="C72" t="n">
-        <v>0.027864</v>
+        <v>0.0278753</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09059300000000001</v>
+        <v>0.0892911</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0310832</v>
+        <v>0.030007</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0285026</v>
+        <v>0.029393</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0943459</v>
+        <v>0.0935546</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0315641</v>
+        <v>0.0305239</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0294093</v>
+        <v>0.0294084</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09863570000000001</v>
+        <v>0.098048</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0323026</v>
+        <v>0.0312796</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0307013</v>
+        <v>0.0311134</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103014</v>
+        <v>0.10289</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0335117</v>
+        <v>0.0326413</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0324114</v>
+        <v>0.0325852</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107003</v>
+        <v>0.107328</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0349818</v>
+        <v>0.034243</v>
       </c>
       <c r="C77" t="n">
-        <v>0.034741</v>
+        <v>0.0349791</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111857</v>
+        <v>0.111175</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0374137</v>
+        <v>0.0366337</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0383128</v>
+        <v>0.0384848</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0971277</v>
+        <v>0.09710530000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040943</v>
+        <v>0.0403233</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0433546</v>
+        <v>0.0436245</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101825</v>
+        <v>0.100821</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0458667</v>
+        <v>0.0452515</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0359968</v>
+        <v>0.0374113</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106255</v>
+        <v>0.105677</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0560963</v>
+        <v>0.0549782</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0367396</v>
+        <v>0.0380317</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11064</v>
+        <v>0.110202</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0560659</v>
+        <v>0.055012</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0373278</v>
+        <v>0.0387858</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115552</v>
+        <v>0.116738</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.056312</v>
+        <v>0.0552769</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0382687</v>
+        <v>0.0395963</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120745</v>
+        <v>0.119973</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0566211</v>
+        <v>0.0556331</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0388883</v>
+        <v>0.0401572</v>
       </c>
       <c r="D84" t="n">
-        <v>0.125652</v>
+        <v>0.125452</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0567098</v>
+        <v>0.0557595</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0397729</v>
+        <v>0.0410391</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131478</v>
+        <v>0.131051</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05692</v>
+        <v>0.0560264</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0406764</v>
+        <v>0.0419216</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136768</v>
+        <v>0.136368</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0573433</v>
+        <v>0.0562297</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0413865</v>
+        <v>0.0428368</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142811</v>
+        <v>0.142219</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0574451</v>
+        <v>0.0566959</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0423516</v>
+        <v>0.0437205</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148299</v>
+        <v>0.148275</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.058176</v>
+        <v>0.0571231</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0434405</v>
+        <v>0.0446937</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154674</v>
+        <v>0.153913</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0587022</v>
+        <v>0.0579091</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0449522</v>
+        <v>0.0462125</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160425</v>
+        <v>0.160023</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0597549</v>
+        <v>0.0588196</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0468908</v>
+        <v>0.0480842</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166173</v>
+        <v>0.165843</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.061391</v>
+        <v>0.0605477</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0497614</v>
+        <v>0.0509462</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145105</v>
+        <v>0.14487</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.063864</v>
+        <v>0.0631361</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0541404</v>
+        <v>0.0553965</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148815</v>
+        <v>0.148387</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0675786</v>
+        <v>0.0668936</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0715904</v>
+        <v>0.07432519999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152457</v>
+        <v>0.152206</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.085816</v>
+        <v>0.0856904</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0720716</v>
+        <v>0.0747864</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156411</v>
+        <v>0.156161</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0857607</v>
+        <v>0.08562019999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07251290000000001</v>
+        <v>0.0751366</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160804</v>
+        <v>0.160307</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0858447</v>
+        <v>0.08572100000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0730203</v>
+        <v>0.0755678</v>
       </c>
       <c r="D97" t="n">
-        <v>0.165434</v>
+        <v>0.165215</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08588229999999999</v>
+        <v>0.08576839999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0736277</v>
+        <v>0.0761656</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171239</v>
+        <v>0.169941</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860567</v>
+        <v>0.0858756</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07421609999999999</v>
+        <v>0.07670589999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175975</v>
+        <v>0.175806</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08606999999999999</v>
+        <v>0.08607769999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07485360000000001</v>
+        <v>0.0773596</v>
       </c>
       <c r="D100" t="n">
-        <v>0.181173</v>
+        <v>0.18129</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.086396</v>
+        <v>0.08621040000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0756068</v>
+        <v>0.0781476</v>
       </c>
       <c r="D101" t="n">
-        <v>0.186091</v>
+        <v>0.186766</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0865629</v>
+        <v>0.0865287</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07649499999999999</v>
+        <v>0.0789406</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192871</v>
+        <v>0.192112</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870233</v>
+        <v>0.0869822</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0774946</v>
+        <v>0.079954</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198176</v>
+        <v>0.198472</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08751829999999999</v>
+        <v>0.0874697</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0787542</v>
+        <v>0.0814232</v>
       </c>
       <c r="D104" t="n">
-        <v>0.203975</v>
+        <v>0.204108</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0884221</v>
+        <v>0.0882042</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0805956</v>
+        <v>0.0831523</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210644</v>
+        <v>0.210263</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897188</v>
+        <v>0.08947529999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08310090000000001</v>
+        <v>0.08565109999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.216037</v>
+        <v>0.216501</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0945759</v>
+        <v>0.09155720000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08725430000000001</v>
+        <v>0.089711</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181647</v>
+        <v>0.182082</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09498760000000001</v>
+        <v>0.106084</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0891937</v>
+        <v>0.0901081</v>
       </c>
       <c r="D108" t="n">
-        <v>0.184874</v>
+        <v>0.185213</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09985330000000001</v>
+        <v>0.0996705</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0898331</v>
+        <v>0.09069579999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188351</v>
+        <v>0.188097</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.10714</v>
+        <v>0.106861</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09067070000000001</v>
+        <v>0.09141879999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192309</v>
+        <v>0.19292</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107065</v>
+        <v>0.106799</v>
       </c>
       <c r="C111" t="n">
-        <v>0.091461</v>
+        <v>0.0921689</v>
       </c>
       <c r="D111" t="n">
-        <v>0.196818</v>
+        <v>0.197274</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107067</v>
+        <v>0.10713</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0924634</v>
+        <v>0.0931052</v>
       </c>
       <c r="D112" t="n">
-        <v>0.201172</v>
+        <v>0.2026</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107263</v>
+        <v>0.107008</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0934343</v>
+        <v>0.0940327</v>
       </c>
       <c r="D113" t="n">
-        <v>0.206271</v>
+        <v>0.207378</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107379</v>
+        <v>0.107071</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0944041</v>
+        <v>0.09502090000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211515</v>
+        <v>0.212812</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111007</v>
+        <v>0.10729</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09562229999999999</v>
+        <v>0.0961342</v>
       </c>
       <c r="D115" t="n">
-        <v>0.217332</v>
+        <v>0.217708</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108518</v>
+        <v>0.10777</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0969671</v>
+        <v>0.0974347</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223244</v>
+        <v>0.223733</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109727</v>
+        <v>0.108022</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0982759</v>
+        <v>0.0988306</v>
       </c>
       <c r="D117" t="n">
-        <v>0.228807</v>
+        <v>0.230702</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109935</v>
+        <v>0.108527</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101706</v>
+        <v>0.100496</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235245</v>
+        <v>0.235433</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111041</v>
+        <v>0.109395</v>
       </c>
       <c r="C119" t="n">
-        <v>0.101936</v>
+        <v>0.102511</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241254</v>
+        <v>0.241528</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.112502</v>
+        <v>0.110315</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104644</v>
+        <v>0.105336</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247728</v>
+        <v>0.247334</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114572</v>
+        <v>0.112367</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108664</v>
+        <v>0.109317</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2005</v>
+        <v>0.199209</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.122731</v>
+        <v>0.115297</v>
       </c>
       <c r="C122" t="n">
-        <v>0.114806</v>
+        <v>0.115551</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20231</v>
+        <v>0.202038</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12281</v>
+        <v>0.120111</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106968</v>
+        <v>0.108292</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205725</v>
+        <v>0.205252</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.136743</v>
+        <v>0.138078</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107983</v>
+        <v>0.109267</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209838</v>
+        <v>0.209066</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.151321</v>
+        <v>0.138223</v>
       </c>
       <c r="C125" t="n">
-        <v>0.109006</v>
+        <v>0.110285</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213608</v>
+        <v>0.213369</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.136871</v>
+        <v>0.138651</v>
       </c>
       <c r="C126" t="n">
-        <v>0.112238</v>
+        <v>0.111394</v>
       </c>
       <c r="D126" t="n">
-        <v>0.21823</v>
+        <v>0.218063</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.137222</v>
+        <v>0.138922</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111209</v>
+        <v>0.112636</v>
       </c>
       <c r="D127" t="n">
-        <v>0.223052</v>
+        <v>0.223093</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.137122</v>
+        <v>0.139216</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112487</v>
+        <v>0.113737</v>
       </c>
       <c r="D128" t="n">
-        <v>0.228364</v>
+        <v>0.228425</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.150905</v>
+        <v>0.139463</v>
       </c>
       <c r="C129" t="n">
-        <v>0.113756</v>
+        <v>0.117564</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234364</v>
+        <v>0.234126</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.137757</v>
+        <v>0.1393</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115152</v>
+        <v>0.116553</v>
       </c>
       <c r="D130" t="n">
-        <v>0.245732</v>
+        <v>0.250934</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1384</v>
+        <v>0.139976</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116754</v>
+        <v>0.118176</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246253</v>
+        <v>0.24571</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.139108</v>
+        <v>0.140667</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118463</v>
+        <v>0.120109</v>
       </c>
       <c r="D132" t="n">
-        <v>0.251968</v>
+        <v>0.252124</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.139787</v>
+        <v>0.141509</v>
       </c>
       <c r="C133" t="n">
-        <v>0.12079</v>
+        <v>0.122601</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258176</v>
+        <v>0.257977</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.140774</v>
+        <v>0.142579</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123777</v>
+        <v>0.125297</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264234</v>
+        <v>0.26386</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.142586</v>
+        <v>0.144231</v>
       </c>
       <c r="C135" t="n">
-        <v>0.127995</v>
+        <v>0.129611</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207364</v>
+        <v>0.207507</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.145125</v>
+        <v>0.146965</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134382</v>
+        <v>0.136129</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210108</v>
+        <v>0.210641</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.149183</v>
+        <v>0.151359</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118359</v>
+        <v>0.12131</v>
       </c>
       <c r="D137" t="n">
-        <v>0.213574</v>
+        <v>0.214267</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157792</v>
+        <v>0.15798</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119458</v>
+        <v>0.122324</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217922</v>
+        <v>0.21806</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157754</v>
+        <v>0.158924</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120486</v>
+        <v>0.123275</v>
       </c>
       <c r="D139" t="n">
-        <v>0.222228</v>
+        <v>0.222434</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157986</v>
+        <v>0.157908</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121805</v>
+        <v>0.124661</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22713</v>
+        <v>0.227126</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158198</v>
+        <v>0.158271</v>
       </c>
       <c r="C141" t="n">
-        <v>0.122795</v>
+        <v>0.125571</v>
       </c>
       <c r="D141" t="n">
-        <v>0.232281</v>
+        <v>0.23215</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158052</v>
+        <v>0.158279</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124232</v>
+        <v>0.126728</v>
       </c>
       <c r="D142" t="n">
-        <v>0.237758</v>
+        <v>0.237747</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.15838</v>
+        <v>0.158294</v>
       </c>
       <c r="C143" t="n">
-        <v>0.125411</v>
+        <v>0.128049</v>
       </c>
       <c r="D143" t="n">
-        <v>0.243146</v>
+        <v>0.243866</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0199369</v>
+        <v>0.019552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206625</v>
+        <v>0.020673</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0358844</v>
+        <v>0.034919</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0201602</v>
+        <v>0.0196123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.020742</v>
+        <v>0.0207579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0382976</v>
+        <v>0.0401365</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.020132</v>
+        <v>0.0197859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0206972</v>
+        <v>0.0207753</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0443271</v>
+        <v>0.0438005</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0203284</v>
+        <v>0.0198978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209579</v>
+        <v>0.0208939</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0476673</v>
+        <v>0.0475692</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0203238</v>
+        <v>0.0199775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210794</v>
+        <v>0.0210833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0518912</v>
+        <v>0.0556155</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0205082</v>
+        <v>0.0203098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0213018</v>
+        <v>0.0216671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0344786</v>
+        <v>0.0345493</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020821</v>
+        <v>0.0203481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0226684</v>
+        <v>0.0224139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.034986</v>
+        <v>0.0349569</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0213062</v>
+        <v>0.0208978</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203572</v>
+        <v>0.0203596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0365687</v>
+        <v>0.0366256</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193014</v>
+        <v>0.0192018</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0206122</v>
+        <v>0.0206591</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0379233</v>
+        <v>0.0381933</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0194977</v>
+        <v>0.0192164</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0208535</v>
+        <v>0.0209363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0401529</v>
+        <v>0.0402435</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197253</v>
+        <v>0.0194358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211576</v>
+        <v>0.021277</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0429108</v>
+        <v>0.0426675</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199681</v>
+        <v>0.0196099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0215709</v>
+        <v>0.0214978</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0458506</v>
+        <v>0.0469319</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199696</v>
+        <v>0.0199028</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0217914</v>
+        <v>0.0216657</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0490944</v>
+        <v>0.0496193</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201455</v>
+        <v>0.020045</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220367</v>
+        <v>0.0219596</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0534722</v>
+        <v>0.0545491</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0202537</v>
+        <v>0.0202432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222519</v>
+        <v>0.022228</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0579143</v>
+        <v>0.0568876</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204452</v>
+        <v>0.0204107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0224284</v>
+        <v>0.0223666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0610247</v>
+        <v>0.0608548</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0207821</v>
+        <v>0.0208392</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0226718</v>
+        <v>0.0227476</v>
       </c>
       <c r="D18" t="n">
-        <v>0.064055</v>
+        <v>0.0628682</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0210004</v>
+        <v>0.0208968</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0227787</v>
+        <v>0.0228584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0666137</v>
+        <v>0.06713909999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0213787</v>
+        <v>0.0210795</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0232431</v>
+        <v>0.0232401</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0700987</v>
+        <v>0.069477</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0217347</v>
+        <v>0.0212417</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0243218</v>
+        <v>0.0245335</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0450924</v>
+        <v>0.044836</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0221994</v>
+        <v>0.0217971</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0270001</v>
+        <v>0.0269004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0471716</v>
+        <v>0.0469315</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0242847</v>
+        <v>0.0239149</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0216186</v>
+        <v>0.0216233</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0485535</v>
+        <v>0.0485452</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.020393</v>
+        <v>0.0203713</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219333</v>
+        <v>0.021919</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0513693</v>
+        <v>0.0507976</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204794</v>
+        <v>0.0203887</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220536</v>
+        <v>0.0220339</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0539623</v>
+        <v>0.0535874</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206538</v>
+        <v>0.0208033</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224041</v>
+        <v>0.0223646</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0561186</v>
+        <v>0.0555772</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208499</v>
+        <v>0.0207881</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226537</v>
+        <v>0.0228273</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0594077</v>
+        <v>0.0580949</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210473</v>
+        <v>0.0209857</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230708</v>
+        <v>0.0229028</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0611461</v>
+        <v>0.0624505</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211742</v>
+        <v>0.0213732</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233585</v>
+        <v>0.023306</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0642982</v>
+        <v>0.0638396</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214947</v>
+        <v>0.021536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0238104</v>
+        <v>0.0237442</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06753869999999999</v>
+        <v>0.06653290000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.021708</v>
+        <v>0.0217473</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239999</v>
+        <v>0.0240394</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0706232</v>
+        <v>0.0699535</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219787</v>
+        <v>0.0220002</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244895</v>
+        <v>0.0244733</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0730924</v>
+        <v>0.07262879999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0223284</v>
+        <v>0.0223934</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0251763</v>
+        <v>0.025079</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0766474</v>
+        <v>0.0755509</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0231178</v>
+        <v>0.0228726</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0261384</v>
+        <v>0.0262912</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07752820000000001</v>
+        <v>0.0775774</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0238298</v>
+        <v>0.0237502</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0280669</v>
+        <v>0.0280487</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0509063</v>
+        <v>0.0509742</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0271694</v>
+        <v>0.0258088</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0347484</v>
+        <v>0.0334384</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0536219</v>
+        <v>0.0534275</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0315077</v>
+        <v>0.0314095</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0227738</v>
+        <v>0.0227459</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0550493</v>
+        <v>0.0557372</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214401</v>
+        <v>0.0215119</v>
       </c>
       <c r="C38" t="n">
-        <v>0.023027</v>
+        <v>0.0230211</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0576365</v>
+        <v>0.0573602</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215239</v>
+        <v>0.0217043</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232491</v>
+        <v>0.0235613</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0599069</v>
+        <v>0.0594426</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217138</v>
+        <v>0.0218338</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235223</v>
+        <v>0.0235011</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0621873</v>
+        <v>0.0616621</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219671</v>
+        <v>0.0220313</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238394</v>
+        <v>0.0238561</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0647114</v>
+        <v>0.0640791</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221673</v>
+        <v>0.0222186</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0242121</v>
+        <v>0.02416</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0670618</v>
+        <v>0.0664497</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224116</v>
+        <v>0.0225307</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0245538</v>
+        <v>0.0245099</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06922879999999999</v>
+        <v>0.06927410000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226694</v>
+        <v>0.0228911</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0249832</v>
+        <v>0.0249698</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07300379999999999</v>
+        <v>0.0719504</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0231774</v>
+        <v>0.0232493</v>
       </c>
       <c r="C45" t="n">
-        <v>0.025538</v>
+        <v>0.0256163</v>
       </c>
       <c r="D45" t="n">
-        <v>0.074848</v>
+        <v>0.07465810000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0236015</v>
+        <v>0.0237467</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0263194</v>
+        <v>0.0263038</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0779444</v>
+        <v>0.0776777</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0244964</v>
+        <v>0.02461</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0278946</v>
+        <v>0.0273209</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07994130000000001</v>
+        <v>0.07935689999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025389</v>
+        <v>0.0253512</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0293874</v>
+        <v>0.0289659</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08258939999999999</v>
+        <v>0.0818813</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270895</v>
+        <v>0.0270919</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0316004</v>
+        <v>0.0317819</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0841438</v>
+        <v>0.0837909</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0297377</v>
+        <v>0.0296499</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0359924</v>
+        <v>0.035761</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0574969</v>
+        <v>0.0570908</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0347595</v>
+        <v>0.0342645</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0234083</v>
+        <v>0.0233461</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0591885</v>
+        <v>0.0589857</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0392143</v>
+        <v>0.0394795</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0235666</v>
+        <v>0.023656</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613125</v>
+        <v>0.0611351</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231698</v>
+        <v>0.0230962</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238625</v>
+        <v>0.0238461</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0634436</v>
+        <v>0.06316960000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233534</v>
+        <v>0.0231996</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0241085</v>
+        <v>0.0241021</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0655601</v>
+        <v>0.06580900000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0236466</v>
+        <v>0.0234195</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0243978</v>
+        <v>0.0244281</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0679744</v>
+        <v>0.0684134</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237965</v>
+        <v>0.0236862</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0248271</v>
+        <v>0.0248333</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0703657</v>
+        <v>0.0705935</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239294</v>
+        <v>0.023997</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0252874</v>
+        <v>0.02526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07335800000000001</v>
+        <v>0.0731977</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024569</v>
+        <v>0.0243753</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0257679</v>
+        <v>0.0257497</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0763086</v>
+        <v>0.075862</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0249277</v>
+        <v>0.0248054</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0264413</v>
+        <v>0.0264148</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07886079999999999</v>
+        <v>0.0790574</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0254614</v>
+        <v>0.0254091</v>
       </c>
       <c r="C60" t="n">
-        <v>0.027314</v>
+        <v>0.0274105</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0808999</v>
+        <v>0.08069270000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262578</v>
+        <v>0.0261196</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0285469</v>
+        <v>0.028502</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837866</v>
+        <v>0.08404490000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0276376</v>
+        <v>0.0275003</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0303462</v>
+        <v>0.03038</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086271</v>
+        <v>0.0860399</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293617</v>
+        <v>0.0292352</v>
       </c>
       <c r="C63" t="n">
-        <v>0.032979</v>
+        <v>0.0330534</v>
       </c>
       <c r="D63" t="n">
-        <v>0.089008</v>
+        <v>0.0876393</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.031871</v>
+        <v>0.0319081</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0368013</v>
+        <v>0.0367612</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0639339</v>
+        <v>0.0645366</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0353895</v>
+        <v>0.0359942</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0425205</v>
+        <v>0.0426588</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0675277</v>
+        <v>0.0655987</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0406645</v>
+        <v>0.0414218</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0256201</v>
+        <v>0.0254046</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0701908</v>
+        <v>0.0679418</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0297888</v>
+        <v>0.02814</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0257862</v>
+        <v>0.0255512</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07319199999999999</v>
+        <v>0.0712193</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0298286</v>
+        <v>0.028196</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0261842</v>
+        <v>0.0263544</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0754259</v>
+        <v>0.0740408</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.030082</v>
+        <v>0.028448</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0266625</v>
+        <v>0.0261517</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0783889</v>
+        <v>0.07758279999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0302354</v>
+        <v>0.0287781</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0267799</v>
+        <v>0.0265588</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0819246</v>
+        <v>0.0816452</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0305286</v>
+        <v>0.0289137</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0272593</v>
+        <v>0.0273249</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08615</v>
+        <v>0.0865819</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0305862</v>
+        <v>0.0292109</v>
       </c>
       <c r="C72" t="n">
-        <v>0.027864</v>
+        <v>0.0278361</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09059300000000001</v>
+        <v>0.0910716</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0310832</v>
+        <v>0.0302074</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0285026</v>
+        <v>0.0284012</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0943459</v>
+        <v>0.0956704</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0315641</v>
+        <v>0.0336976</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0294093</v>
+        <v>0.0304183</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09863570000000001</v>
+        <v>0.103063</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0323026</v>
+        <v>0.0326429</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0307013</v>
+        <v>0.0312903</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103014</v>
+        <v>0.106956</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0335117</v>
+        <v>0.0336174</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0324114</v>
+        <v>0.0330604</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107003</v>
+        <v>0.115862</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0349818</v>
+        <v>0.0358381</v>
       </c>
       <c r="C77" t="n">
-        <v>0.034741</v>
+        <v>0.0358533</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111857</v>
+        <v>0.119277</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0374137</v>
+        <v>0.0374851</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0383128</v>
+        <v>0.0385796</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0971277</v>
+        <v>0.104054</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040943</v>
+        <v>0.0412261</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0433546</v>
+        <v>0.0433863</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101825</v>
+        <v>0.109508</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0458667</v>
+        <v>0.0461083</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0359968</v>
+        <v>0.0414397</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106255</v>
+        <v>0.114403</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0560963</v>
+        <v>0.06393119999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0367396</v>
+        <v>0.0425125</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11064</v>
+        <v>0.119193</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0560659</v>
+        <v>0.06322079999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0373278</v>
+        <v>0.0428675</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115552</v>
+        <v>0.123263</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.056312</v>
+        <v>0.06383759999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0382687</v>
+        <v>0.0441154</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120745</v>
+        <v>0.128958</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0566211</v>
+        <v>0.0640005</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0388883</v>
+        <v>0.0450271</v>
       </c>
       <c r="D84" t="n">
-        <v>0.125652</v>
+        <v>0.135564</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0567098</v>
+        <v>0.0644224</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0397729</v>
+        <v>0.0455191</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131478</v>
+        <v>0.139064</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05692</v>
+        <v>0.06431779999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0406764</v>
+        <v>0.046375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136768</v>
+        <v>0.145575</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0573433</v>
+        <v>0.06471880000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0413865</v>
+        <v>0.0472799</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142811</v>
+        <v>0.152233</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0574451</v>
+        <v>0.06513969999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0423516</v>
+        <v>0.0486139</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148299</v>
+        <v>0.158966</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.058176</v>
+        <v>0.0660915</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0434405</v>
+        <v>0.0487306</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154674</v>
+        <v>0.163067</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0587022</v>
+        <v>0.0657339</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0449522</v>
+        <v>0.0501503</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160425</v>
+        <v>0.169392</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0597549</v>
+        <v>0.06756959999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0468908</v>
+        <v>0.052272</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166173</v>
+        <v>0.177049</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.061391</v>
+        <v>0.0690553</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0497614</v>
+        <v>0.0551435</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145105</v>
+        <v>0.157291</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.063864</v>
+        <v>0.0723085</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0541404</v>
+        <v>0.061388</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148815</v>
+        <v>0.16743</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0675786</v>
+        <v>0.0897902</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0715904</v>
+        <v>0.09319230000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152457</v>
+        <v>0.189438</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.085816</v>
+        <v>0.110963</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0720716</v>
+        <v>0.101415</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156411</v>
+        <v>0.21026</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0857607</v>
+        <v>0.12667</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07251290000000001</v>
+        <v>0.107321</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160804</v>
+        <v>0.221154</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0858447</v>
+        <v>0.126921</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0730203</v>
+        <v>0.109032</v>
       </c>
       <c r="D97" t="n">
-        <v>0.165434</v>
+        <v>0.229901</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08588229999999999</v>
+        <v>0.132473</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0736277</v>
+        <v>0.114862</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171239</v>
+        <v>0.238426</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860567</v>
+        <v>0.131895</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07421609999999999</v>
+        <v>0.0979438</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175975</v>
+        <v>0.189969</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08606999999999999</v>
+        <v>0.0886398</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07485360000000001</v>
+        <v>0.0792664</v>
       </c>
       <c r="D100" t="n">
-        <v>0.181173</v>
+        <v>0.182084</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.086396</v>
+        <v>0.0900364</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0756068</v>
+        <v>0.0779681</v>
       </c>
       <c r="D101" t="n">
-        <v>0.186091</v>
+        <v>0.187209</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0865629</v>
+        <v>0.0866122</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07649499999999999</v>
+        <v>0.07890949999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192871</v>
+        <v>0.193004</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870233</v>
+        <v>0.0869793</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0774946</v>
+        <v>0.079788</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198176</v>
+        <v>0.1992</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08751829999999999</v>
+        <v>0.0880614</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0787542</v>
+        <v>0.0891697</v>
       </c>
       <c r="D104" t="n">
-        <v>0.203975</v>
+        <v>0.208113</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0884221</v>
+        <v>0.09009060000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0805956</v>
+        <v>0.0827615</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210644</v>
+        <v>0.210759</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897188</v>
+        <v>0.0914191</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08310090000000001</v>
+        <v>0.0851958</v>
       </c>
       <c r="D106" t="n">
-        <v>0.216037</v>
+        <v>0.218043</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0945759</v>
+        <v>0.0918221</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08725430000000001</v>
+        <v>0.0888857</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181647</v>
+        <v>0.183076</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09498760000000001</v>
+        <v>0.0951061</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0891937</v>
+        <v>0.0886029</v>
       </c>
       <c r="D108" t="n">
-        <v>0.184874</v>
+        <v>0.186658</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09985330000000001</v>
+        <v>0.100056</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0898331</v>
+        <v>0.0892863</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188351</v>
+        <v>0.190123</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.10714</v>
+        <v>0.107949</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09067070000000001</v>
+        <v>0.0901493</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192309</v>
+        <v>0.194421</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107065</v>
+        <v>0.107948</v>
       </c>
       <c r="C111" t="n">
-        <v>0.091461</v>
+        <v>0.0911328</v>
       </c>
       <c r="D111" t="n">
-        <v>0.196818</v>
+        <v>0.198588</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107067</v>
+        <v>0.108094</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0924634</v>
+        <v>0.09203409999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.201172</v>
+        <v>0.203377</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107263</v>
+        <v>0.108152</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0934343</v>
+        <v>0.09304709999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.206271</v>
+        <v>0.208125</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107379</v>
+        <v>0.108296</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0944041</v>
+        <v>0.0941473</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211515</v>
+        <v>0.213528</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111007</v>
+        <v>0.108377</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09562229999999999</v>
+        <v>0.095321</v>
       </c>
       <c r="D115" t="n">
-        <v>0.217332</v>
+        <v>0.219267</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108518</v>
+        <v>0.109186</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0969671</v>
+        <v>0.09668839999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223244</v>
+        <v>0.224658</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109727</v>
+        <v>0.10904</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0982759</v>
+        <v>0.0981105</v>
       </c>
       <c r="D117" t="n">
-        <v>0.228807</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109935</v>
+        <v>0.109617</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101706</v>
+        <v>0.0999453</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235245</v>
+        <v>0.236546</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111041</v>
+        <v>0.110246</v>
       </c>
       <c r="C119" t="n">
-        <v>0.101936</v>
+        <v>0.101969</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241254</v>
+        <v>0.24237</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.112502</v>
+        <v>0.113122</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104644</v>
+        <v>0.104783</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247728</v>
+        <v>0.248358</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114572</v>
+        <v>0.113356</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108664</v>
+        <v>0.109039</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2005</v>
+        <v>0.199567</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.122731</v>
+        <v>0.116379</v>
       </c>
       <c r="C122" t="n">
-        <v>0.114806</v>
+        <v>0.115178</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20231</v>
+        <v>0.20226</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12281</v>
+        <v>0.121134</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106968</v>
+        <v>0.107607</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205725</v>
+        <v>0.213819</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.136743</v>
+        <v>0.140544</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107983</v>
+        <v>0.108568</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209838</v>
+        <v>0.209867</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.151321</v>
+        <v>0.140656</v>
       </c>
       <c r="C125" t="n">
-        <v>0.109006</v>
+        <v>0.109694</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213608</v>
+        <v>0.213898</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.136871</v>
+        <v>0.140517</v>
       </c>
       <c r="C126" t="n">
-        <v>0.112238</v>
+        <v>0.110803</v>
       </c>
       <c r="D126" t="n">
-        <v>0.21823</v>
+        <v>0.218531</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.137222</v>
+        <v>0.140465</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111209</v>
+        <v>0.112016</v>
       </c>
       <c r="D127" t="n">
-        <v>0.223052</v>
+        <v>0.223396</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.137122</v>
+        <v>0.140576</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112487</v>
+        <v>0.113385</v>
       </c>
       <c r="D128" t="n">
-        <v>0.228364</v>
+        <v>0.228736</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.150905</v>
+        <v>0.144241</v>
       </c>
       <c r="C129" t="n">
-        <v>0.113756</v>
+        <v>0.114717</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234364</v>
+        <v>0.234688</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.137757</v>
+        <v>0.140142</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115152</v>
+        <v>0.116151</v>
       </c>
       <c r="D130" t="n">
-        <v>0.245732</v>
+        <v>0.24039</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1384</v>
+        <v>0.140713</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116754</v>
+        <v>0.117845</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246253</v>
+        <v>0.246209</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.139108</v>
+        <v>0.140911</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118463</v>
+        <v>0.119702</v>
       </c>
       <c r="D132" t="n">
-        <v>0.251968</v>
+        <v>0.252143</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.139787</v>
+        <v>0.141774</v>
       </c>
       <c r="C133" t="n">
-        <v>0.12079</v>
+        <v>0.12196</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258176</v>
+        <v>0.257879</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.140774</v>
+        <v>0.143208</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123777</v>
+        <v>0.124796</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264234</v>
+        <v>0.264441</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.142586</v>
+        <v>0.145879</v>
       </c>
       <c r="C135" t="n">
-        <v>0.127995</v>
+        <v>0.129045</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207364</v>
+        <v>0.209136</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.145125</v>
+        <v>0.146646</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134382</v>
+        <v>0.135418</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210108</v>
+        <v>0.212267</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.149183</v>
+        <v>0.15034</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118359</v>
+        <v>0.118644</v>
       </c>
       <c r="D137" t="n">
-        <v>0.213574</v>
+        <v>0.21582</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157792</v>
+        <v>0.158504</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119458</v>
+        <v>0.119625</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217922</v>
+        <v>0.219435</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157754</v>
+        <v>0.158161</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120486</v>
+        <v>0.120585</v>
       </c>
       <c r="D139" t="n">
-        <v>0.222228</v>
+        <v>0.223612</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157986</v>
+        <v>0.158057</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121805</v>
+        <v>0.121907</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22713</v>
+        <v>0.228559</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158198</v>
+        <v>0.158452</v>
       </c>
       <c r="C141" t="n">
-        <v>0.122795</v>
+        <v>0.122849</v>
       </c>
       <c r="D141" t="n">
-        <v>0.232281</v>
+        <v>0.233648</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158052</v>
+        <v>0.15819</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124232</v>
+        <v>0.124213</v>
       </c>
       <c r="D142" t="n">
-        <v>0.237758</v>
+        <v>0.23868</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.15838</v>
+        <v>0.158404</v>
       </c>
       <c r="C143" t="n">
-        <v>0.125411</v>
+        <v>0.125535</v>
       </c>
       <c r="D143" t="n">
-        <v>0.243146</v>
+        <v>0.244666</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0199369</v>
+        <v>0.0199296</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206625</v>
+        <v>0.0196483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0358844</v>
+        <v>0.0341098</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0201602</v>
+        <v>0.0198748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.020742</v>
+        <v>0.0196769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0382976</v>
+        <v>0.0377947</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.020132</v>
+        <v>0.0199506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0206972</v>
+        <v>0.019812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0443271</v>
+        <v>0.0428963</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0203284</v>
+        <v>0.0199453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209579</v>
+        <v>0.019814</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0476673</v>
+        <v>0.0470278</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0203238</v>
+        <v>0.0200119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0210794</v>
+        <v>0.0200507</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0518912</v>
+        <v>0.0497272</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0205082</v>
+        <v>0.0200976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0213018</v>
+        <v>0.0203124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0344786</v>
+        <v>0.0309651</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020821</v>
+        <v>0.0201768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0226684</v>
+        <v>0.0211507</v>
       </c>
       <c r="D8" t="n">
-        <v>0.034986</v>
+        <v>0.0326703</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0213062</v>
+        <v>0.0206596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203572</v>
+        <v>0.0197459</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0365687</v>
+        <v>0.0351277</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193014</v>
+        <v>0.0196102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0206122</v>
+        <v>0.0198417</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0379233</v>
+        <v>0.0361681</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0194977</v>
+        <v>0.0198686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0208535</v>
+        <v>0.0198321</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0401529</v>
+        <v>0.0393565</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197253</v>
+        <v>0.0198662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211576</v>
+        <v>0.0201712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0429108</v>
+        <v>0.0432331</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199681</v>
+        <v>0.0200407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0215709</v>
+        <v>0.0204291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0458506</v>
+        <v>0.0470135</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199696</v>
+        <v>0.0201558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0217914</v>
+        <v>0.0206157</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0490944</v>
+        <v>0.0486116</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201455</v>
+        <v>0.0204471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0220367</v>
+        <v>0.0205282</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0534722</v>
+        <v>0.0528513</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0202537</v>
+        <v>0.0205712</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0222519</v>
+        <v>0.0210536</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0579143</v>
+        <v>0.0562769</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204452</v>
+        <v>0.0208005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0224284</v>
+        <v>0.0212193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0610247</v>
+        <v>0.0590713</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0207821</v>
+        <v>0.0207419</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0226718</v>
+        <v>0.0214593</v>
       </c>
       <c r="D18" t="n">
-        <v>0.064055</v>
+        <v>0.06379990000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0210004</v>
+        <v>0.0208025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0227787</v>
+        <v>0.0215951</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0666137</v>
+        <v>0.06719260000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0213787</v>
+        <v>0.0209643</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0232431</v>
+        <v>0.0220084</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0700987</v>
+        <v>0.0700737</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0217347</v>
+        <v>0.0213374</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0243218</v>
+        <v>0.0232606</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0450924</v>
+        <v>0.0449006</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0221994</v>
+        <v>0.0217807</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0270001</v>
+        <v>0.0257201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0471716</v>
+        <v>0.0463236</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0242847</v>
+        <v>0.0231096</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0216186</v>
+        <v>0.0209758</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0485535</v>
+        <v>0.0493582</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.020393</v>
+        <v>0.0209336</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0219333</v>
+        <v>0.0211714</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0513693</v>
+        <v>0.0506568</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204794</v>
+        <v>0.0209486</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220536</v>
+        <v>0.0213672</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0539623</v>
+        <v>0.0531339</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206538</v>
+        <v>0.0211166</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0224041</v>
+        <v>0.0215634</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0561186</v>
+        <v>0.0557274</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208499</v>
+        <v>0.0213098</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0226537</v>
+        <v>0.0218567</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0594077</v>
+        <v>0.0587378</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210473</v>
+        <v>0.0214129</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230708</v>
+        <v>0.0220791</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0611461</v>
+        <v>0.0614669</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211742</v>
+        <v>0.0215758</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0233585</v>
+        <v>0.0224562</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0642982</v>
+        <v>0.0639251</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214947</v>
+        <v>0.021814</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0238104</v>
+        <v>0.0227251</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06753869999999999</v>
+        <v>0.06635050000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.021708</v>
+        <v>0.0219991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0239999</v>
+        <v>0.0231222</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0706232</v>
+        <v>0.0694343</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219787</v>
+        <v>0.0224504</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0244895</v>
+        <v>0.0234062</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0730924</v>
+        <v>0.0733282</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0223284</v>
+        <v>0.022442</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0251763</v>
+        <v>0.0239279</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0766474</v>
+        <v>0.0752868</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0231178</v>
+        <v>0.0227626</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0261384</v>
+        <v>0.0248696</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07752820000000001</v>
+        <v>0.0770458</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0238298</v>
+        <v>0.0234007</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0280669</v>
+        <v>0.0268515</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0509063</v>
+        <v>0.0507089</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0271694</v>
+        <v>0.0252797</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0347484</v>
+        <v>0.0305952</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0536219</v>
+        <v>0.0525974</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0315077</v>
+        <v>0.0298586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0227738</v>
+        <v>0.0220937</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0550493</v>
+        <v>0.055653</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214401</v>
+        <v>0.0217135</v>
       </c>
       <c r="C38" t="n">
-        <v>0.023027</v>
+        <v>0.0222854</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0576365</v>
+        <v>0.0578123</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215239</v>
+        <v>0.0218331</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0232491</v>
+        <v>0.0225612</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0599069</v>
+        <v>0.0597165</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217138</v>
+        <v>0.021928</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235223</v>
+        <v>0.0228408</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0621873</v>
+        <v>0.061971</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219671</v>
+        <v>0.0221494</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238394</v>
+        <v>0.0230891</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0647114</v>
+        <v>0.06420869999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221673</v>
+        <v>0.0223453</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0242121</v>
+        <v>0.0234445</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0670618</v>
+        <v>0.0668991</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224116</v>
+        <v>0.0226741</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0245538</v>
+        <v>0.0238374</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06922879999999999</v>
+        <v>0.06955840000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226694</v>
+        <v>0.0230271</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0249832</v>
+        <v>0.0242561</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07300379999999999</v>
+        <v>0.07214760000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0231774</v>
+        <v>0.0232912</v>
       </c>
       <c r="C45" t="n">
-        <v>0.025538</v>
+        <v>0.0252697</v>
       </c>
       <c r="D45" t="n">
-        <v>0.074848</v>
+        <v>0.0745253</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0236015</v>
+        <v>0.0235015</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0263194</v>
+        <v>0.0260137</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0779444</v>
+        <v>0.0772162</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0244964</v>
+        <v>0.0242509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0278946</v>
+        <v>0.0265821</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07994130000000001</v>
+        <v>0.07980180000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025389</v>
+        <v>0.025432</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0293874</v>
+        <v>0.0283822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08258939999999999</v>
+        <v>0.0819727</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270895</v>
+        <v>0.0274002</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0316004</v>
+        <v>0.0310953</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0841438</v>
+        <v>0.08412119999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0297377</v>
+        <v>0.0299417</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0359924</v>
+        <v>0.0348258</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0574969</v>
+        <v>0.0568933</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0347595</v>
+        <v>0.0340124</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0234083</v>
+        <v>0.0229563</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0591885</v>
+        <v>0.0591791</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0392143</v>
+        <v>0.0405745</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0235666</v>
+        <v>0.0231949</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613125</v>
+        <v>0.0611924</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231698</v>
+        <v>0.0238005</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238625</v>
+        <v>0.0234016</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0634436</v>
+        <v>0.06391769999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233534</v>
+        <v>0.023337</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0241085</v>
+        <v>0.0236918</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0655601</v>
+        <v>0.06542679999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0236466</v>
+        <v>0.0234791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0243978</v>
+        <v>0.0239969</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0679744</v>
+        <v>0.06800290000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237965</v>
+        <v>0.0237478</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0248271</v>
+        <v>0.0243761</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0703657</v>
+        <v>0.07082339999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239294</v>
+        <v>0.0240676</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0252874</v>
+        <v>0.0247726</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07335800000000001</v>
+        <v>0.0735247</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024569</v>
+        <v>0.0244052</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0257679</v>
+        <v>0.0253214</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0763086</v>
+        <v>0.0755004</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0249277</v>
+        <v>0.024835</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0264413</v>
+        <v>0.0259468</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07886079999999999</v>
+        <v>0.0783553</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0254614</v>
+        <v>0.025514</v>
       </c>
       <c r="C60" t="n">
-        <v>0.027314</v>
+        <v>0.0268455</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0808999</v>
+        <v>0.0810071</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262578</v>
+        <v>0.02628</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0285469</v>
+        <v>0.0280499</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837866</v>
+        <v>0.0840892</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0276376</v>
+        <v>0.0275532</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0303462</v>
+        <v>0.0297711</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086271</v>
+        <v>0.08629009999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293617</v>
+        <v>0.0292551</v>
       </c>
       <c r="C63" t="n">
-        <v>0.032979</v>
+        <v>0.0322516</v>
       </c>
       <c r="D63" t="n">
-        <v>0.089008</v>
+        <v>0.08879769999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.031871</v>
+        <v>0.0319199</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0368013</v>
+        <v>0.035863</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0639339</v>
+        <v>0.0633301</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0353895</v>
+        <v>0.0357577</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0425205</v>
+        <v>0.0413649</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0675277</v>
+        <v>0.0669746</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0406645</v>
+        <v>0.0407558</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0256201</v>
+        <v>0.0244197</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0701908</v>
+        <v>0.06877460000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0297888</v>
+        <v>0.0293121</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0257862</v>
+        <v>0.0255905</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07319199999999999</v>
+        <v>0.07288790000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0298286</v>
+        <v>0.029551</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0261842</v>
+        <v>0.0258204</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0754259</v>
+        <v>0.07514460000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.030082</v>
+        <v>0.0297061</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0266625</v>
+        <v>0.0261712</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0783889</v>
+        <v>0.0784324</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0302354</v>
+        <v>0.0299752</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0267799</v>
+        <v>0.0262803</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0819246</v>
+        <v>0.08183890000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0305286</v>
+        <v>0.0301421</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0272593</v>
+        <v>0.026677</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08615</v>
+        <v>0.0850006</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0305862</v>
+        <v>0.0304228</v>
       </c>
       <c r="C72" t="n">
-        <v>0.027864</v>
+        <v>0.0275025</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09059300000000001</v>
+        <v>0.0893731</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0310832</v>
+        <v>0.0308117</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0285026</v>
+        <v>0.0281384</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0943459</v>
+        <v>0.0938958</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0315641</v>
+        <v>0.0313757</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0294093</v>
+        <v>0.029013</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09863570000000001</v>
+        <v>0.09993390000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0323026</v>
+        <v>0.0321088</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0307013</v>
+        <v>0.0299317</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103014</v>
+        <v>0.103701</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0335117</v>
+        <v>0.0331345</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0324114</v>
+        <v>0.0312074</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107003</v>
+        <v>0.107952</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0349818</v>
+        <v>0.0348632</v>
       </c>
       <c r="C77" t="n">
-        <v>0.034741</v>
+        <v>0.0337602</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111857</v>
+        <v>0.111954</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0374137</v>
+        <v>0.0372748</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0383128</v>
+        <v>0.0369385</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0971277</v>
+        <v>0.0979385</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040943</v>
+        <v>0.0407343</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0433546</v>
+        <v>0.0416933</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101825</v>
+        <v>0.10273</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0458667</v>
+        <v>0.0457631</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0359968</v>
+        <v>0.0362092</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106255</v>
+        <v>0.106663</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0560963</v>
+        <v>0.0553664</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0367396</v>
+        <v>0.0368703</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11064</v>
+        <v>0.111571</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0560659</v>
+        <v>0.0556936</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0373278</v>
+        <v>0.0377776</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115552</v>
+        <v>0.116653</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.056312</v>
+        <v>0.0564155</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0382687</v>
+        <v>0.0387444</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120745</v>
+        <v>0.121865</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0566211</v>
+        <v>0.0562057</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0388883</v>
+        <v>0.0391866</v>
       </c>
       <c r="D84" t="n">
-        <v>0.125652</v>
+        <v>0.126289</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0567098</v>
+        <v>0.0563746</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0397729</v>
+        <v>0.0400587</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131478</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05692</v>
+        <v>0.0562604</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0406764</v>
+        <v>0.0413728</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136768</v>
+        <v>0.139559</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0573433</v>
+        <v>0.0566164</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0413865</v>
+        <v>0.0417733</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142811</v>
+        <v>0.143454</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0574451</v>
+        <v>0.0568514</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0423516</v>
+        <v>0.0425975</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148299</v>
+        <v>0.148359</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.058176</v>
+        <v>0.0575247</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0434405</v>
+        <v>0.0436647</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154674</v>
+        <v>0.154234</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0587022</v>
+        <v>0.0582312</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0449522</v>
+        <v>0.0450311</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160425</v>
+        <v>0.159836</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0597549</v>
+        <v>0.05918</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0468908</v>
+        <v>0.0467387</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166173</v>
+        <v>0.165469</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.061391</v>
+        <v>0.0607319</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0497614</v>
+        <v>0.0495036</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145105</v>
+        <v>0.145943</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.063864</v>
+        <v>0.0635857</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0541404</v>
+        <v>0.0537269</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148815</v>
+        <v>0.149322</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0675786</v>
+        <v>0.06744940000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0715904</v>
+        <v>0.0713428</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152457</v>
+        <v>0.15338</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.085816</v>
+        <v>0.0862501</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0720716</v>
+        <v>0.0718439</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156411</v>
+        <v>0.157477</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0857607</v>
+        <v>0.0864877</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07251290000000001</v>
+        <v>0.0722848</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160804</v>
+        <v>0.161668</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0858447</v>
+        <v>0.0864355</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0730203</v>
+        <v>0.0727274</v>
       </c>
       <c r="D97" t="n">
-        <v>0.165434</v>
+        <v>0.166486</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08588229999999999</v>
+        <v>0.08639090000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0736277</v>
+        <v>0.0733785</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171239</v>
+        <v>0.171328</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860567</v>
+        <v>0.0864378</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07421609999999999</v>
+        <v>0.073853</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175975</v>
+        <v>0.175904</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08606999999999999</v>
+        <v>0.08662060000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07485360000000001</v>
+        <v>0.0745149</v>
       </c>
       <c r="D100" t="n">
-        <v>0.181173</v>
+        <v>0.181501</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.086396</v>
+        <v>0.0868609</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0756068</v>
+        <v>0.0752833</v>
       </c>
       <c r="D101" t="n">
-        <v>0.186091</v>
+        <v>0.187236</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0865629</v>
+        <v>0.086969</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07649499999999999</v>
+        <v>0.07602349999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192871</v>
+        <v>0.193022</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870233</v>
+        <v>0.08745410000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0774946</v>
+        <v>0.0769696</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198176</v>
+        <v>0.198357</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08751829999999999</v>
+        <v>0.0880237</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0787542</v>
+        <v>0.07830719999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.203975</v>
+        <v>0.204387</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0884221</v>
+        <v>0.0889547</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0805956</v>
+        <v>0.0801206</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210644</v>
+        <v>0.210124</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897188</v>
+        <v>0.0902627</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08310090000000001</v>
+        <v>0.08235530000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.216037</v>
+        <v>0.216487</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0945759</v>
+        <v>0.0922781</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08725430000000001</v>
+        <v>0.0860529</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181647</v>
+        <v>0.181391</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09498760000000001</v>
+        <v>0.09534719999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0891937</v>
+        <v>0.0888809</v>
       </c>
       <c r="D108" t="n">
-        <v>0.184874</v>
+        <v>0.185118</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09985330000000001</v>
+        <v>0.100443</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0898331</v>
+        <v>0.0898196</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188351</v>
+        <v>0.188654</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.10714</v>
+        <v>0.112426</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09067070000000001</v>
+        <v>0.0902574</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192309</v>
+        <v>0.192482</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107065</v>
+        <v>0.112487</v>
       </c>
       <c r="C111" t="n">
-        <v>0.091461</v>
+        <v>0.0910538</v>
       </c>
       <c r="D111" t="n">
-        <v>0.196818</v>
+        <v>0.196796</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107067</v>
+        <v>0.112546</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0924634</v>
+        <v>0.09204710000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.201172</v>
+        <v>0.201517</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107263</v>
+        <v>0.112583</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0934343</v>
+        <v>0.0929036</v>
       </c>
       <c r="D113" t="n">
-        <v>0.206271</v>
+        <v>0.206506</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107379</v>
+        <v>0.11265</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0944041</v>
+        <v>0.0940508</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211515</v>
+        <v>0.215054</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111007</v>
+        <v>0.113129</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09562229999999999</v>
+        <v>0.0951028</v>
       </c>
       <c r="D115" t="n">
-        <v>0.217332</v>
+        <v>0.217675</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108518</v>
+        <v>0.113344</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0969671</v>
+        <v>0.09628689999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223244</v>
+        <v>0.222927</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109727</v>
+        <v>0.113759</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0982759</v>
+        <v>0.0977399</v>
       </c>
       <c r="D117" t="n">
-        <v>0.228807</v>
+        <v>0.229756</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109935</v>
+        <v>0.114335</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101706</v>
+        <v>0.09932680000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235245</v>
+        <v>0.23549</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111041</v>
+        <v>0.115153</v>
       </c>
       <c r="C119" t="n">
-        <v>0.101936</v>
+        <v>0.101275</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241254</v>
+        <v>0.241452</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.112502</v>
+        <v>0.116221</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104644</v>
+        <v>0.103838</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247728</v>
+        <v>0.247896</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114572</v>
+        <v>0.118042</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108664</v>
+        <v>0.10757</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2005</v>
+        <v>0.199668</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.122731</v>
+        <v>0.120929</v>
       </c>
       <c r="C122" t="n">
-        <v>0.114806</v>
+        <v>0.113582</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20231</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12281</v>
+        <v>0.125783</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106968</v>
+        <v>0.106595</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205725</v>
+        <v>0.20564</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.136743</v>
+        <v>0.141582</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107983</v>
+        <v>0.107579</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209838</v>
+        <v>0.209632</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.151321</v>
+        <v>0.141534</v>
       </c>
       <c r="C125" t="n">
-        <v>0.109006</v>
+        <v>0.10863</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213608</v>
+        <v>0.213848</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.136871</v>
+        <v>0.1416</v>
       </c>
       <c r="C126" t="n">
-        <v>0.112238</v>
+        <v>0.110915</v>
       </c>
       <c r="D126" t="n">
-        <v>0.21823</v>
+        <v>0.218831</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.137222</v>
+        <v>0.14186</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111209</v>
+        <v>0.110761</v>
       </c>
       <c r="D127" t="n">
-        <v>0.223052</v>
+        <v>0.223745</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.137122</v>
+        <v>0.141851</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112487</v>
+        <v>0.112112</v>
       </c>
       <c r="D128" t="n">
-        <v>0.228364</v>
+        <v>0.229054</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.150905</v>
+        <v>0.141768</v>
       </c>
       <c r="C129" t="n">
-        <v>0.113756</v>
+        <v>0.113396</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234364</v>
+        <v>0.234902</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.137757</v>
+        <v>0.142149</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115152</v>
+        <v>0.114809</v>
       </c>
       <c r="D130" t="n">
-        <v>0.245732</v>
+        <v>0.24068</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1384</v>
+        <v>0.142317</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116754</v>
+        <v>0.116388</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246253</v>
+        <v>0.246486</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.139108</v>
+        <v>0.143179</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118463</v>
+        <v>0.118261</v>
       </c>
       <c r="D132" t="n">
-        <v>0.251968</v>
+        <v>0.252433</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.139787</v>
+        <v>0.143721</v>
       </c>
       <c r="C133" t="n">
-        <v>0.12079</v>
+        <v>0.120486</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258176</v>
+        <v>0.258649</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.140774</v>
+        <v>0.144722</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123777</v>
+        <v>0.123317</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264234</v>
+        <v>0.264515</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.142586</v>
+        <v>0.149414</v>
       </c>
       <c r="C135" t="n">
-        <v>0.127995</v>
+        <v>0.127327</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207364</v>
+        <v>0.209061</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.145125</v>
+        <v>0.14902</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134382</v>
+        <v>0.133622</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210108</v>
+        <v>0.212164</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.149183</v>
+        <v>0.152853</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118359</v>
+        <v>0.118382</v>
       </c>
       <c r="D137" t="n">
-        <v>0.213574</v>
+        <v>0.215527</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157792</v>
+        <v>0.158008</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119458</v>
+        <v>0.119612</v>
       </c>
       <c r="D138" t="n">
-        <v>0.217922</v>
+        <v>0.219379</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157754</v>
+        <v>0.158109</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120486</v>
+        <v>0.120538</v>
       </c>
       <c r="D139" t="n">
-        <v>0.222228</v>
+        <v>0.223704</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157986</v>
+        <v>0.158215</v>
       </c>
       <c r="C140" t="n">
-        <v>0.121805</v>
+        <v>0.122186</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22713</v>
+        <v>0.228857</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158198</v>
+        <v>0.158245</v>
       </c>
       <c r="C141" t="n">
-        <v>0.122795</v>
+        <v>0.122746</v>
       </c>
       <c r="D141" t="n">
-        <v>0.232281</v>
+        <v>0.233583</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158052</v>
+        <v>0.158391</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124232</v>
+        <v>0.124149</v>
       </c>
       <c r="D142" t="n">
-        <v>0.237758</v>
+        <v>0.239018</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.15838</v>
+        <v>0.15857</v>
       </c>
       <c r="C143" t="n">
-        <v>0.125411</v>
+        <v>0.125408</v>
       </c>
       <c r="D143" t="n">
-        <v>0.243146</v>
+        <v>0.245087</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0199296</v>
+        <v>0.0195923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0196483</v>
+        <v>0.0197411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0341098</v>
+        <v>0.0330869</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0198748</v>
+        <v>0.0197374</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0196769</v>
+        <v>0.0198647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0377947</v>
+        <v>0.0389111</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0199506</v>
+        <v>0.019882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.019812</v>
+        <v>0.0199131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0428963</v>
+        <v>0.0419897</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0199453</v>
+        <v>0.0197887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.019814</v>
+        <v>0.0198665</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0470278</v>
+        <v>0.0469854</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0200119</v>
+        <v>0.0198021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0200507</v>
+        <v>0.0200185</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0497272</v>
+        <v>0.0504614</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200976</v>
+        <v>0.0200598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0203124</v>
+        <v>0.0203301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0309651</v>
+        <v>0.0306282</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0201768</v>
+        <v>0.0200828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0211507</v>
+        <v>0.020912</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0326703</v>
+        <v>0.0330497</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0206596</v>
+        <v>0.0204368</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0197459</v>
+        <v>0.0196564</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0351277</v>
+        <v>0.0344383</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0196102</v>
+        <v>0.0195671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0198417</v>
+        <v>0.0196592</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0361681</v>
+        <v>0.0365856</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0198686</v>
+        <v>0.0197649</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0198321</v>
+        <v>0.0199241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0393565</v>
+        <v>0.0398045</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0198662</v>
+        <v>0.0199945</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0201712</v>
+        <v>0.0198891</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0432331</v>
+        <v>0.0419228</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0200407</v>
+        <v>0.0200847</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0204291</v>
+        <v>0.0201437</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0470135</v>
+        <v>0.0454348</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0201558</v>
+        <v>0.0202546</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0206157</v>
+        <v>0.020463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0486116</v>
+        <v>0.0491704</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0204471</v>
+        <v>0.020233</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0205282</v>
+        <v>0.0207746</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0528513</v>
+        <v>0.0536379</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0205712</v>
+        <v>0.0206501</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0210536</v>
+        <v>0.0209078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0562769</v>
+        <v>0.0557595</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0208005</v>
+        <v>0.0206874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0212193</v>
+        <v>0.0210391</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0590713</v>
+        <v>0.0597038</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0207419</v>
+        <v>0.0208221</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0214593</v>
+        <v>0.021528</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06379990000000001</v>
+        <v>0.0623698</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0208025</v>
+        <v>0.0207943</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0215951</v>
+        <v>0.0216956</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06719260000000001</v>
+        <v>0.0662295</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0209643</v>
+        <v>0.0210633</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0220084</v>
+        <v>0.0218416</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0700737</v>
+        <v>0.06906320000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0213374</v>
+        <v>0.0211865</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0232606</v>
+        <v>0.0227528</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0449006</v>
+        <v>0.0444294</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0217807</v>
+        <v>0.0219742</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0257201</v>
+        <v>0.0251553</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0463236</v>
+        <v>0.0464611</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0231096</v>
+        <v>0.0237377</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0209758</v>
+        <v>0.0210201</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0493582</v>
+        <v>0.0496094</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0209336</v>
+        <v>0.0204726</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0211714</v>
+        <v>0.0212358</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0506568</v>
+        <v>0.0508495</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0209486</v>
+        <v>0.0206441</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0213672</v>
+        <v>0.0213371</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0531339</v>
+        <v>0.052946</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0211166</v>
+        <v>0.0208147</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0215634</v>
+        <v>0.0215496</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0557274</v>
+        <v>0.0552121</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0213098</v>
+        <v>0.0209335</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0218567</v>
+        <v>0.0217853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0587378</v>
+        <v>0.0600707</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0214129</v>
+        <v>0.021215</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0220791</v>
+        <v>0.0221978</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0614669</v>
+        <v>0.0619266</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0215758</v>
+        <v>0.0213306</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0224562</v>
+        <v>0.0225252</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0639251</v>
+        <v>0.0636594</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.021814</v>
+        <v>0.0216446</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0227251</v>
+        <v>0.0227744</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06635050000000001</v>
+        <v>0.0667151</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0219991</v>
+        <v>0.0216766</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0231222</v>
+        <v>0.0232103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0694343</v>
+        <v>0.0696653</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0224504</v>
+        <v>0.0220351</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0234062</v>
+        <v>0.0235254</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0733282</v>
+        <v>0.0722773</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.022442</v>
+        <v>0.0222566</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0239279</v>
+        <v>0.0239651</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0752868</v>
+        <v>0.07485749999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0227626</v>
+        <v>0.0225657</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0248696</v>
+        <v>0.0247855</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0770458</v>
+        <v>0.0767843</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0234007</v>
+        <v>0.023005</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0268515</v>
+        <v>0.0266018</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0507089</v>
+        <v>0.0507884</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0252797</v>
+        <v>0.0248372</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0305952</v>
+        <v>0.0301596</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0525974</v>
+        <v>0.0528344</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0298586</v>
+        <v>0.0281524</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0220937</v>
+        <v>0.0222319</v>
       </c>
       <c r="D37" t="n">
-        <v>0.055653</v>
+        <v>0.0548904</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0217135</v>
+        <v>0.0214606</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0222854</v>
+        <v>0.0223924</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0578123</v>
+        <v>0.0575849</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0218331</v>
+        <v>0.0216823</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0225612</v>
+        <v>0.0225898</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0597165</v>
+        <v>0.059377</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.021928</v>
+        <v>0.0217923</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0228408</v>
+        <v>0.0229043</v>
       </c>
       <c r="D40" t="n">
-        <v>0.061971</v>
+        <v>0.06255819999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0221494</v>
+        <v>0.0220447</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0230891</v>
+        <v>0.0235013</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06420869999999999</v>
+        <v>0.0643669</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223453</v>
+        <v>0.0222137</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0234445</v>
+        <v>0.0234816</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0668991</v>
+        <v>0.0669478</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0226741</v>
+        <v>0.0223995</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0238374</v>
+        <v>0.0238295</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06955840000000001</v>
+        <v>0.0692936</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0230271</v>
+        <v>0.0226983</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0242561</v>
+        <v>0.0241547</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07214760000000001</v>
+        <v>0.072688</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0232912</v>
+        <v>0.0231301</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0252697</v>
+        <v>0.0246313</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0745253</v>
+        <v>0.07480680000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235015</v>
+        <v>0.0235322</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0260137</v>
+        <v>0.0257472</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0772162</v>
+        <v>0.0774189</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0242509</v>
+        <v>0.0240614</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0265821</v>
+        <v>0.026366</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07980180000000001</v>
+        <v>0.0797451</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025432</v>
+        <v>0.0254844</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0283822</v>
+        <v>0.027867</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0819727</v>
+        <v>0.0816192</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0274002</v>
+        <v>0.0272446</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0310953</v>
+        <v>0.0303489</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08412119999999999</v>
+        <v>0.083412</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0299417</v>
+        <v>0.0301478</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0348258</v>
+        <v>0.0341398</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0568933</v>
+        <v>0.0573319</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0340124</v>
+        <v>0.0337905</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0229563</v>
+        <v>0.0230168</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0591791</v>
+        <v>0.0591852</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0405745</v>
+        <v>0.0396648</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0231949</v>
+        <v>0.02324</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0611924</v>
+        <v>0.0616547</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0238005</v>
+        <v>0.0230428</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0234016</v>
+        <v>0.0234814</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06391769999999999</v>
+        <v>0.06340170000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.023337</v>
+        <v>0.0233289</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0236918</v>
+        <v>0.0237362</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06542679999999999</v>
+        <v>0.06569</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234791</v>
+        <v>0.0238965</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0239969</v>
+        <v>0.024078</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06800290000000001</v>
+        <v>0.06807000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237478</v>
+        <v>0.0237521</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0243761</v>
+        <v>0.0243873</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07082339999999999</v>
+        <v>0.0703313</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240676</v>
+        <v>0.0239813</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0247726</v>
+        <v>0.0248237</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0735247</v>
+        <v>0.0733198</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244052</v>
+        <v>0.0244664</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0253214</v>
+        <v>0.0253032</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0755004</v>
+        <v>0.0756086</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024835</v>
+        <v>0.0248174</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0259468</v>
+        <v>0.0259948</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0783553</v>
+        <v>0.0787525</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.025514</v>
+        <v>0.0253978</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0268455</v>
+        <v>0.0267322</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0810071</v>
+        <v>0.081305</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02628</v>
+        <v>0.026273</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0280499</v>
+        <v>0.0280161</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0840892</v>
+        <v>0.0844453</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275532</v>
+        <v>0.0274388</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0297711</v>
+        <v>0.0297024</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08629009999999999</v>
+        <v>0.0867279</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0292551</v>
+        <v>0.0296325</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0322516</v>
+        <v>0.0321021</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08879769999999999</v>
+        <v>0.0891636</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0319199</v>
+        <v>0.031974</v>
       </c>
       <c r="C64" t="n">
-        <v>0.035863</v>
+        <v>0.0354167</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0633301</v>
+        <v>0.0636477</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0357577</v>
+        <v>0.0354716</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0413649</v>
+        <v>0.0408346</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0669746</v>
+        <v>0.0668641</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0407558</v>
+        <v>0.0411489</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0244197</v>
+        <v>0.0255047</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06877460000000001</v>
+        <v>0.06930219999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0293121</v>
+        <v>0.0278125</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0255905</v>
+        <v>0.0252726</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07288790000000001</v>
+        <v>0.0725539</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.029551</v>
+        <v>0.0282624</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0258204</v>
+        <v>0.0260938</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07514460000000001</v>
+        <v>0.07418420000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0297061</v>
+        <v>0.0284919</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0261712</v>
+        <v>0.0262339</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0784324</v>
+        <v>0.0787645</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0299752</v>
+        <v>0.028648</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0262803</v>
+        <v>0.0260703</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08183890000000001</v>
+        <v>0.08275780000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0301421</v>
+        <v>0.0288525</v>
       </c>
       <c r="C71" t="n">
-        <v>0.026677</v>
+        <v>0.0271224</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0850006</v>
+        <v>0.0852005</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304228</v>
+        <v>0.0291964</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0275025</v>
+        <v>0.0271349</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0893731</v>
+        <v>0.0898109</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0308117</v>
+        <v>0.0296022</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0281384</v>
+        <v>0.0277935</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0938958</v>
+        <v>0.0938426</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0313757</v>
+        <v>0.0302147</v>
       </c>
       <c r="C74" t="n">
-        <v>0.029013</v>
+        <v>0.0285483</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09993390000000001</v>
+        <v>0.0980458</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0321088</v>
+        <v>0.0311367</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0299317</v>
+        <v>0.0301001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103701</v>
+        <v>0.101778</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0331345</v>
+        <v>0.0321188</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0312074</v>
+        <v>0.0313065</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107952</v>
+        <v>0.10777</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0348632</v>
+        <v>0.0339765</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0337602</v>
+        <v>0.0339135</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111954</v>
+        <v>0.112548</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0372748</v>
+        <v>0.036611</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0369385</v>
+        <v>0.0364397</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0979385</v>
+        <v>0.09704110000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0407343</v>
+        <v>0.0401065</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0416933</v>
+        <v>0.0416676</v>
       </c>
       <c r="D79" t="n">
-        <v>0.10273</v>
+        <v>0.101298</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0457631</v>
+        <v>0.0449478</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0362092</v>
+        <v>0.035894</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106663</v>
+        <v>0.106009</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0553664</v>
+        <v>0.0562173</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0368703</v>
+        <v>0.0365886</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111571</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0556936</v>
+        <v>0.0565808</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0377776</v>
+        <v>0.0374296</v>
       </c>
       <c r="D82" t="n">
-        <v>0.116653</v>
+        <v>0.115685</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0564155</v>
+        <v>0.057186</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0387444</v>
+        <v>0.0381384</v>
       </c>
       <c r="D83" t="n">
-        <v>0.121865</v>
+        <v>0.121524</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0562057</v>
+        <v>0.057433</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0391866</v>
+        <v>0.0388328</v>
       </c>
       <c r="D84" t="n">
-        <v>0.126289</v>
+        <v>0.12546</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0563746</v>
+        <v>0.0578586</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0400587</v>
+        <v>0.040167</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1326</v>
+        <v>0.13081</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0562604</v>
+        <v>0.0581789</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0413728</v>
+        <v>0.0401671</v>
       </c>
       <c r="D86" t="n">
-        <v>0.139559</v>
+        <v>0.136659</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0566164</v>
+        <v>0.0577363</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0417733</v>
+        <v>0.0411053</v>
       </c>
       <c r="D87" t="n">
-        <v>0.143454</v>
+        <v>0.142594</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0568514</v>
+        <v>0.0580175</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0425975</v>
+        <v>0.041799</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148359</v>
+        <v>0.149056</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0575247</v>
+        <v>0.0581797</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0436647</v>
+        <v>0.0428982</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154234</v>
+        <v>0.154856</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0582312</v>
+        <v>0.0590287</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0450311</v>
+        <v>0.0441869</v>
       </c>
       <c r="D90" t="n">
-        <v>0.159836</v>
+        <v>0.160118</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05918</v>
+        <v>0.0602602</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0467387</v>
+        <v>0.0460337</v>
       </c>
       <c r="D91" t="n">
-        <v>0.165469</v>
+        <v>0.166316</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0607319</v>
+        <v>0.061861</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0495036</v>
+        <v>0.0486935</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145943</v>
+        <v>0.145064</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0635857</v>
+        <v>0.06452819999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0537269</v>
+        <v>0.0528225</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149322</v>
+        <v>0.148558</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06744940000000001</v>
+        <v>0.0681925</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0713428</v>
+        <v>0.07141939999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.15338</v>
+        <v>0.152497</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0862501</v>
+        <v>0.0859852</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0718439</v>
+        <v>0.0717691</v>
       </c>
       <c r="D95" t="n">
-        <v>0.157477</v>
+        <v>0.156545</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0864877</v>
+        <v>0.0859536</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0722848</v>
+        <v>0.0723176</v>
       </c>
       <c r="D96" t="n">
-        <v>0.161668</v>
+        <v>0.161049</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0864355</v>
+        <v>0.0861</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0727274</v>
+        <v>0.0727936</v>
       </c>
       <c r="D97" t="n">
-        <v>0.166486</v>
+        <v>0.165513</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08639090000000001</v>
+        <v>0.0860992</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0733785</v>
+        <v>0.0733132</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171328</v>
+        <v>0.170544</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0864378</v>
+        <v>0.0862328</v>
       </c>
       <c r="C99" t="n">
-        <v>0.073853</v>
+        <v>0.0738998</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175904</v>
+        <v>0.175694</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08662060000000001</v>
+        <v>0.0868496</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0745149</v>
+        <v>0.0747338</v>
       </c>
       <c r="D100" t="n">
-        <v>0.181501</v>
+        <v>0.181263</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0868609</v>
+        <v>0.0865441</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0752833</v>
+        <v>0.075459</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187236</v>
+        <v>0.186445</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.086969</v>
+        <v>0.0868492</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07602349999999999</v>
+        <v>0.07622080000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.193022</v>
+        <v>0.192137</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08745410000000001</v>
+        <v>0.0873488</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0769696</v>
+        <v>0.07730579999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198357</v>
+        <v>0.198191</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0880237</v>
+        <v>0.08785270000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07830719999999999</v>
+        <v>0.0785556</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204387</v>
+        <v>0.204079</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0889547</v>
+        <v>0.0887569</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0801206</v>
+        <v>0.0801712</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210124</v>
+        <v>0.210015</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0902627</v>
+        <v>0.0900605</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08235530000000001</v>
+        <v>0.082415</v>
       </c>
       <c r="D106" t="n">
-        <v>0.216487</v>
+        <v>0.217122</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0922781</v>
+        <v>0.0921107</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0860529</v>
+        <v>0.0859008</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181391</v>
+        <v>0.182876</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09534719999999999</v>
+        <v>0.095455</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0888809</v>
+        <v>0.0888656</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185118</v>
+        <v>0.186108</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100443</v>
+        <v>0.100402</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0898196</v>
+        <v>0.089703</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188654</v>
+        <v>0.189657</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.112426</v>
+        <v>0.107215</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0902574</v>
+        <v>0.090409</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192482</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.112487</v>
+        <v>0.107504</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0910538</v>
+        <v>0.0914465</v>
       </c>
       <c r="D111" t="n">
-        <v>0.196796</v>
+        <v>0.197936</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.112546</v>
+        <v>0.107477</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09204710000000001</v>
+        <v>0.09231010000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.201517</v>
+        <v>0.202756</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.112583</v>
+        <v>0.107449</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0929036</v>
+        <v>0.0931984</v>
       </c>
       <c r="D113" t="n">
-        <v>0.206506</v>
+        <v>0.207648</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.11265</v>
+        <v>0.107656</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0940508</v>
+        <v>0.0943585</v>
       </c>
       <c r="D114" t="n">
-        <v>0.215054</v>
+        <v>0.212982</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.113129</v>
+        <v>0.107738</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0951028</v>
+        <v>0.0955361</v>
       </c>
       <c r="D115" t="n">
-        <v>0.217675</v>
+        <v>0.21874</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.113344</v>
+        <v>0.108045</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09628689999999999</v>
+        <v>0.0967438</v>
       </c>
       <c r="D116" t="n">
-        <v>0.222927</v>
+        <v>0.224454</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113759</v>
+        <v>0.108604</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0977399</v>
+        <v>0.0987114</v>
       </c>
       <c r="D117" t="n">
-        <v>0.229756</v>
+        <v>0.230466</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.114335</v>
+        <v>0.109057</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09932680000000001</v>
+        <v>0.099893</v>
       </c>
       <c r="D118" t="n">
-        <v>0.23549</v>
+        <v>0.236711</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115153</v>
+        <v>0.109796</v>
       </c>
       <c r="C119" t="n">
-        <v>0.101275</v>
+        <v>0.102049</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241452</v>
+        <v>0.242582</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.116221</v>
+        <v>0.111117</v>
       </c>
       <c r="C120" t="n">
-        <v>0.103838</v>
+        <v>0.104641</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247896</v>
+        <v>0.248418</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.118042</v>
+        <v>0.11288</v>
       </c>
       <c r="C121" t="n">
-        <v>0.10757</v>
+        <v>0.108605</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199668</v>
+        <v>0.200206</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.120929</v>
+        <v>0.115788</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113582</v>
+        <v>0.114784</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2024</v>
+        <v>0.203145</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.125783</v>
+        <v>0.120423</v>
       </c>
       <c r="C123" t="n">
-        <v>0.106595</v>
+        <v>0.107277</v>
       </c>
       <c r="D123" t="n">
-        <v>0.20564</v>
+        <v>0.206685</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141582</v>
+        <v>0.135696</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107579</v>
+        <v>0.1086</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209632</v>
+        <v>0.210915</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141534</v>
+        <v>0.135905</v>
       </c>
       <c r="C125" t="n">
-        <v>0.10863</v>
+        <v>0.109535</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213848</v>
+        <v>0.214641</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1416</v>
+        <v>0.136001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110915</v>
+        <v>0.110671</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218831</v>
+        <v>0.219435</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.14186</v>
+        <v>0.135938</v>
       </c>
       <c r="C127" t="n">
-        <v>0.110761</v>
+        <v>0.114399</v>
       </c>
       <c r="D127" t="n">
-        <v>0.223745</v>
+        <v>0.223912</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.141851</v>
+        <v>0.136214</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112112</v>
+        <v>0.113155</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229054</v>
+        <v>0.231298</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141768</v>
+        <v>0.136789</v>
       </c>
       <c r="C129" t="n">
-        <v>0.113396</v>
+        <v>0.114392</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234902</v>
+        <v>0.235985</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142149</v>
+        <v>0.137031</v>
       </c>
       <c r="C130" t="n">
-        <v>0.114809</v>
+        <v>0.115769</v>
       </c>
       <c r="D130" t="n">
-        <v>0.24068</v>
+        <v>0.241973</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142317</v>
+        <v>0.137446</v>
       </c>
       <c r="C131" t="n">
-        <v>0.116388</v>
+        <v>0.11723</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246486</v>
+        <v>0.247743</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.143179</v>
+        <v>0.138339</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118261</v>
+        <v>0.118961</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252433</v>
+        <v>0.253201</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143721</v>
+        <v>0.139115</v>
       </c>
       <c r="C133" t="n">
-        <v>0.120486</v>
+        <v>0.121255</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258649</v>
+        <v>0.259549</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144722</v>
+        <v>0.140171</v>
       </c>
       <c r="C134" t="n">
-        <v>0.123317</v>
+        <v>0.124023</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264515</v>
+        <v>0.265369</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.149414</v>
+        <v>0.141526</v>
       </c>
       <c r="C135" t="n">
-        <v>0.127327</v>
+        <v>0.128155</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209061</v>
+        <v>0.208493</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.14902</v>
+        <v>0.144521</v>
       </c>
       <c r="C136" t="n">
-        <v>0.133622</v>
+        <v>0.134329</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212164</v>
+        <v>0.211439</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.152853</v>
+        <v>0.148407</v>
       </c>
       <c r="C137" t="n">
-        <v>0.118382</v>
+        <v>0.119293</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215527</v>
+        <v>0.214794</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158008</v>
+        <v>0.15843</v>
       </c>
       <c r="C138" t="n">
-        <v>0.119612</v>
+        <v>0.120443</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219379</v>
+        <v>0.218932</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158109</v>
+        <v>0.158246</v>
       </c>
       <c r="C139" t="n">
-        <v>0.120538</v>
+        <v>0.126617</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223704</v>
+        <v>0.223399</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158215</v>
+        <v>0.158283</v>
       </c>
       <c r="C140" t="n">
-        <v>0.122186</v>
+        <v>0.122455</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228857</v>
+        <v>0.227911</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158245</v>
+        <v>0.158341</v>
       </c>
       <c r="C141" t="n">
-        <v>0.122746</v>
+        <v>0.123717</v>
       </c>
       <c r="D141" t="n">
-        <v>0.233583</v>
+        <v>0.233086</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158391</v>
+        <v>0.158436</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124149</v>
+        <v>0.124739</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239018</v>
+        <v>0.238833</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.15857</v>
+        <v>0.158595</v>
       </c>
       <c r="C143" t="n">
-        <v>0.125408</v>
+        <v>0.126148</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245087</v>
+        <v>0.244469</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0195923</v>
+        <v>0.0194751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0197411</v>
+        <v>0.0365145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0330869</v>
+        <v>0.0196261</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0206785</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197374</v>
+        <v>0.0195629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0198647</v>
+        <v>0.0396988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0389111</v>
+        <v>0.0197912</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0207813</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.019882</v>
+        <v>0.019489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0199131</v>
+        <v>0.0447642</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0419897</v>
+        <v>0.0198901</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0208833</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0197887</v>
+        <v>0.0195779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0198665</v>
+        <v>0.0498033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0469854</v>
+        <v>0.0199582</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0207783</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0198021</v>
+        <v>0.0196134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0200185</v>
+        <v>0.0537687</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0504614</v>
+        <v>0.0201314</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0207749</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0200598</v>
+        <v>0.0197913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0203301</v>
+        <v>0.0315887</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0306282</v>
+        <v>0.0201829</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.020897</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200828</v>
+        <v>0.0199155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.020912</v>
+        <v>0.0336489</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0330497</v>
+        <v>0.0207955</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0212215</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0204368</v>
+        <v>0.0201101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0196564</v>
+        <v>0.0356574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0344383</v>
+        <v>0.0194471</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0216661</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195671</v>
+        <v>0.0196084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0196592</v>
+        <v>0.0376125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0365856</v>
+        <v>0.0195449</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0216931</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0197649</v>
+        <v>0.0195614</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0199241</v>
+        <v>0.0405804</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0398045</v>
+        <v>0.019867</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0219577</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0199945</v>
+        <v>0.0196347</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0198891</v>
+        <v>0.0447308</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0419228</v>
+        <v>0.0201596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0219969</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0200847</v>
+        <v>0.0198925</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0201437</v>
+        <v>0.047286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0454348</v>
+        <v>0.0201363</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0221826</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0202546</v>
+        <v>0.0200039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.020463</v>
+        <v>0.0503759</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0491704</v>
+        <v>0.0205715</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0225411</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.020233</v>
+        <v>0.0201837</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0207746</v>
+        <v>0.0539423</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0536379</v>
+        <v>0.021072</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0228079</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0206501</v>
+        <v>0.0200675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0209078</v>
+        <v>0.0578276</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0557595</v>
+        <v>0.0210413</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0227173</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0206874</v>
+        <v>0.0201647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0210391</v>
+        <v>0.0614582</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0597038</v>
+        <v>0.0212453</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0227772</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0208221</v>
+        <v>0.0202739</v>
       </c>
       <c r="C18" t="n">
-        <v>0.021528</v>
+        <v>0.0653006</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0623698</v>
+        <v>0.0213354</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0230473</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0207943</v>
+        <v>0.0202086</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0216956</v>
+        <v>0.0680994</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0662295</v>
+        <v>0.0214148</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0229634</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0210633</v>
+        <v>0.0205069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0218416</v>
+        <v>0.0704849</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06906320000000001</v>
+        <v>0.0218501</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0230157</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0211865</v>
+        <v>0.0207083</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0227528</v>
+        <v>0.0446121</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0444294</v>
+        <v>0.0224228</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0234205</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0219742</v>
+        <v>0.0211543</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0251553</v>
+        <v>0.047444</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0464611</v>
+        <v>0.0237556</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0244919</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0237377</v>
+        <v>0.0230484</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0210201</v>
+        <v>0.0493842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0496094</v>
+        <v>0.0210571</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.023336</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204726</v>
+        <v>0.0206813</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0212358</v>
+        <v>0.0514984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0508495</v>
+        <v>0.0212586</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0235586</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0206441</v>
+        <v>0.0207405</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0213371</v>
+        <v>0.0543429</v>
       </c>
       <c r="D25" t="n">
-        <v>0.052946</v>
+        <v>0.0214644</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0238225</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0208147</v>
+        <v>0.0207665</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0215496</v>
+        <v>0.0563413</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0552121</v>
+        <v>0.0215637</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0237382</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209335</v>
+        <v>0.0209769</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0217853</v>
+        <v>0.0616033</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0600707</v>
+        <v>0.021764</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0238801</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.021215</v>
+        <v>0.021056</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0221978</v>
+        <v>0.0643247</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0619266</v>
+        <v>0.0221105</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0241333</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213306</v>
+        <v>0.0212252</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0225252</v>
+        <v>0.0662176</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0636594</v>
+        <v>0.022421</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0244564</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0216446</v>
+        <v>0.0213505</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0227744</v>
+        <v>0.0698588</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0667151</v>
+        <v>0.0226251</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0245499</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0216766</v>
+        <v>0.0215039</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0232103</v>
+        <v>0.07215820000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0696653</v>
+        <v>0.0229748</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0247842</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0220351</v>
+        <v>0.0217981</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0235254</v>
+        <v>0.0748846</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0722773</v>
+        <v>0.02343</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0251216</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0222566</v>
+        <v>0.0221214</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0239651</v>
+        <v>0.0769565</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07485749999999999</v>
+        <v>0.0239333</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0254613</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0225657</v>
+        <v>0.023275</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0247855</v>
+        <v>0.0791249</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0767843</v>
+        <v>0.0247176</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0260233</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.023005</v>
+        <v>0.0250124</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0266018</v>
+        <v>0.0519505</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0507884</v>
+        <v>0.0263657</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0270699</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0248372</v>
+        <v>0.0266118</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0301596</v>
+        <v>0.0537373</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0528344</v>
+        <v>0.0292434</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0306774</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0281524</v>
+        <v>0.0311996</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0222319</v>
+        <v>0.0560572</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0548904</v>
+        <v>0.0221968</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0245451</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214606</v>
+        <v>0.0216211</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0223924</v>
+        <v>0.0580173</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0575849</v>
+        <v>0.0224122</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0247372</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216823</v>
+        <v>0.0218931</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0225898</v>
+        <v>0.0596857</v>
       </c>
       <c r="D39" t="n">
-        <v>0.059377</v>
+        <v>0.0226233</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.024937</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217923</v>
+        <v>0.0219329</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0229043</v>
+        <v>0.0624772</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06255819999999999</v>
+        <v>0.0229104</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0252111</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220447</v>
+        <v>0.0221215</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0235013</v>
+        <v>0.06461600000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0643669</v>
+        <v>0.0231873</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0253094</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222137</v>
+        <v>0.0222904</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0234816</v>
+        <v>0.0672449</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0669478</v>
+        <v>0.0235225</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0255793</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223995</v>
+        <v>0.0224773</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0238295</v>
+        <v>0.06969930000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0692936</v>
+        <v>0.0245394</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0257865</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226983</v>
+        <v>0.0228221</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0241547</v>
+        <v>0.07249079999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.072688</v>
+        <v>0.0242028</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0260194</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0231301</v>
+        <v>0.0230365</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0246313</v>
+        <v>0.07484499999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07480680000000001</v>
+        <v>0.0246188</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.026382</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235322</v>
+        <v>0.0235124</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0257472</v>
+        <v>0.0778189</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0774189</v>
+        <v>0.0255792</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0268562</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0240614</v>
+        <v>0.02408</v>
       </c>
       <c r="C47" t="n">
-        <v>0.026366</v>
+        <v>0.0800609</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0797451</v>
+        <v>0.0258658</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0274538</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0254844</v>
+        <v>0.025044</v>
       </c>
       <c r="C48" t="n">
-        <v>0.027867</v>
+        <v>0.0823764</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0816192</v>
+        <v>0.0269256</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0286629</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0272446</v>
+        <v>0.0279553</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0303489</v>
+        <v>0.0844506</v>
       </c>
       <c r="D49" t="n">
-        <v>0.083412</v>
+        <v>0.029475</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.030666</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0301478</v>
+        <v>0.0304389</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0341398</v>
+        <v>0.0578649</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0573319</v>
+        <v>0.0328029</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0341753</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0337905</v>
+        <v>0.0353825</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0230168</v>
+        <v>0.0591875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0591852</v>
+        <v>0.0229759</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0248564</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0396648</v>
+        <v>0.0392081</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02324</v>
+        <v>0.0615245</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0616547</v>
+        <v>0.0231768</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0250656</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0230428</v>
+        <v>0.0230524</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0234814</v>
+        <v>0.0639034</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06340170000000001</v>
+        <v>0.0234395</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0253725</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233289</v>
+        <v>0.0234244</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0237362</v>
+        <v>0.0656783</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06569</v>
+        <v>0.023729</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0256172</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0238965</v>
+        <v>0.0234108</v>
       </c>
       <c r="C55" t="n">
-        <v>0.024078</v>
+        <v>0.0679548</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06807000000000001</v>
+        <v>0.0240074</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.025785</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237521</v>
+        <v>0.0239286</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0243873</v>
+        <v>0.0705563</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0703313</v>
+        <v>0.024327</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0260479</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239813</v>
+        <v>0.0240818</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0248237</v>
+        <v>0.0733139</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0733198</v>
+        <v>0.0247229</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0265271</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244664</v>
+        <v>0.024439</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0253032</v>
+        <v>0.0760695</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0756086</v>
+        <v>0.025276</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0269807</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248174</v>
+        <v>0.0247787</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0259948</v>
+        <v>0.07903490000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0787525</v>
+        <v>0.0257848</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0273609</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253978</v>
+        <v>0.0252449</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0267322</v>
+        <v>0.080972</v>
       </c>
       <c r="D60" t="n">
-        <v>0.081305</v>
+        <v>0.0264266</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0280786</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.026273</v>
+        <v>0.0265282</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0280161</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0844453</v>
+        <v>0.0273739</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0290054</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274388</v>
+        <v>0.0274839</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0297024</v>
+        <v>0.08583780000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0867279</v>
+        <v>0.0289127</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0305336</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0296325</v>
+        <v>0.0294202</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0321021</v>
+        <v>0.08868760000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0891636</v>
+        <v>0.0313813</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0329544</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.031974</v>
+        <v>0.032256</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0354167</v>
+        <v>0.0634653</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0636477</v>
+        <v>0.0347866</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0362898</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0354716</v>
+        <v>0.035998</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0408346</v>
+        <v>0.0660341</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0668641</v>
+        <v>0.0405541</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0419218</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0411489</v>
+        <v>0.0410284</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0255047</v>
+        <v>0.068684</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06930219999999999</v>
+        <v>0.0251501</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.026637</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0278125</v>
+        <v>0.0292854</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0252726</v>
+        <v>0.0716908</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0725539</v>
+        <v>0.0254762</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0267861</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0282624</v>
+        <v>0.0293731</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0260938</v>
+        <v>0.0754389</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07418420000000001</v>
+        <v>0.0257275</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0277745</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0284919</v>
+        <v>0.0295223</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262339</v>
+        <v>0.0780781</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0787645</v>
+        <v>0.0260131</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0273026</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.028648</v>
+        <v>0.0297504</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0260703</v>
+        <v>0.08159859999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08275780000000001</v>
+        <v>0.0263866</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0277491</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0288525</v>
+        <v>0.0300985</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0271224</v>
+        <v>0.0866746</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0852005</v>
+        <v>0.0261122</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0281135</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0291964</v>
+        <v>0.0302054</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0271349</v>
+        <v>0.0889358</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0898109</v>
+        <v>0.0272077</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0285725</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0296022</v>
+        <v>0.030751</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0277935</v>
+        <v>0.0945853</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0938426</v>
+        <v>0.0281149</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0291539</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0302147</v>
+        <v>0.0311922</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0285483</v>
+        <v>0.0982999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0980458</v>
+        <v>0.0283556</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0301281</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0311367</v>
+        <v>0.0320559</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0301001</v>
+        <v>0.102978</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101778</v>
+        <v>0.0292696</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0315789</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0321188</v>
+        <v>0.0331467</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0313065</v>
+        <v>0.106901</v>
       </c>
       <c r="D76" t="n">
-        <v>0.10777</v>
+        <v>0.0306653</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.032797</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0339765</v>
+        <v>0.0348991</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0339135</v>
+        <v>0.112317</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112548</v>
+        <v>0.0333493</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0350439</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.036611</v>
+        <v>0.0373412</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0364397</v>
+        <v>0.09733840000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09704110000000001</v>
+        <v>0.0363328</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0383708</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0401065</v>
+        <v>0.0409062</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0416676</v>
+        <v>0.101335</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101298</v>
+        <v>0.0412171</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0434181</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0449478</v>
+        <v>0.0457293</v>
       </c>
       <c r="C80" t="n">
-        <v>0.035894</v>
+        <v>0.105975</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106009</v>
+        <v>0.0356659</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0335094</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0562173</v>
+        <v>0.0555257</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0365886</v>
+        <v>0.110132</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1102</v>
+        <v>0.0363526</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.033843</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0565808</v>
+        <v>0.0577904</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0374296</v>
+        <v>0.115172</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115685</v>
+        <v>0.0371667</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0344867</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.057186</v>
+        <v>0.055792</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0381384</v>
+        <v>0.121209</v>
       </c>
       <c r="D83" t="n">
-        <v>0.121524</v>
+        <v>0.0379171</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0348016</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.057433</v>
+        <v>0.0560207</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0388328</v>
+        <v>0.126205</v>
       </c>
       <c r="D84" t="n">
-        <v>0.12546</v>
+        <v>0.0386585</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0352056</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0578586</v>
+        <v>0.0561087</v>
       </c>
       <c r="C85" t="n">
-        <v>0.040167</v>
+        <v>0.131141</v>
       </c>
       <c r="D85" t="n">
-        <v>0.13081</v>
+        <v>0.0393656</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0360305</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0581789</v>
+        <v>0.0563414</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0401671</v>
+        <v>0.137704</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136659</v>
+        <v>0.0400877</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0367309</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0577363</v>
+        <v>0.056655</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0411053</v>
+        <v>0.143051</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142594</v>
+        <v>0.0412195</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0372919</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0580175</v>
+        <v>0.0571958</v>
       </c>
       <c r="C88" t="n">
-        <v>0.041799</v>
+        <v>0.149748</v>
       </c>
       <c r="D88" t="n">
-        <v>0.149056</v>
+        <v>0.0419461</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0386863</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0581797</v>
+        <v>0.057884</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0428982</v>
+        <v>0.154568</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154856</v>
+        <v>0.0430021</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0396944</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0590287</v>
+        <v>0.0582425</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0441869</v>
+        <v>0.16029</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160118</v>
+        <v>0.0442752</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0417616</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0602602</v>
+        <v>0.0592452</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0460337</v>
+        <v>0.166513</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166316</v>
+        <v>0.046052</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0440648</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.061861</v>
+        <v>0.0608211</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0486935</v>
+        <v>0.145912</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145064</v>
+        <v>0.0487434</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0474931</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06452819999999999</v>
+        <v>0.0633513</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0528225</v>
+        <v>0.149301</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148558</v>
+        <v>0.0533016</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.052939</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0681925</v>
+        <v>0.06725390000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.07141939999999999</v>
+        <v>0.152309</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152497</v>
+        <v>0.0713101</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.06786490000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0859852</v>
+        <v>0.0858208</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0717691</v>
+        <v>0.157221</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156545</v>
+        <v>0.07162789999999999</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.068254</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0859536</v>
+        <v>0.08577170000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0723176</v>
+        <v>0.160664</v>
       </c>
       <c r="D96" t="n">
-        <v>0.161049</v>
+        <v>0.0721873</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.06875249999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0861</v>
+        <v>0.08594590000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0727936</v>
+        <v>0.166029</v>
       </c>
       <c r="D97" t="n">
-        <v>0.165513</v>
+        <v>0.0726131</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0691842</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0860992</v>
+        <v>0.08606900000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0733132</v>
+        <v>0.170781</v>
       </c>
       <c r="D98" t="n">
-        <v>0.170544</v>
+        <v>0.0731451</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.06990540000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0862328</v>
+        <v>0.08616749999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0738998</v>
+        <v>0.175608</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175694</v>
+        <v>0.073726</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.07045410000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0868496</v>
+        <v>0.08662789999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0747338</v>
+        <v>0.181033</v>
       </c>
       <c r="D100" t="n">
-        <v>0.181263</v>
+        <v>0.0743772</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0711215</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0865441</v>
+        <v>0.0864133</v>
       </c>
       <c r="C101" t="n">
-        <v>0.075459</v>
+        <v>0.186455</v>
       </c>
       <c r="D101" t="n">
-        <v>0.186445</v>
+        <v>0.0751235</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0718926</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0868492</v>
+        <v>0.088181</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07622080000000001</v>
+        <v>0.192398</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192137</v>
+        <v>0.0758935</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0728032</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0873488</v>
+        <v>0.0871123</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07730579999999999</v>
+        <v>0.199037</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198191</v>
+        <v>0.07695730000000001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.07412000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08785270000000001</v>
+        <v>0.0876926</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0785556</v>
+        <v>0.203931</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204079</v>
+        <v>0.07818170000000001</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.07561420000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0887569</v>
+        <v>0.0885166</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0801712</v>
+        <v>0.210695</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210015</v>
+        <v>0.0798373</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0777135</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0900605</v>
+        <v>0.0897474</v>
       </c>
       <c r="C106" t="n">
-        <v>0.082415</v>
+        <v>0.216678</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217122</v>
+        <v>0.08226</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.08079749999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0921107</v>
+        <v>0.09172080000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0859008</v>
+        <v>0.181859</v>
       </c>
       <c r="D107" t="n">
-        <v>0.182876</v>
+        <v>0.0859181</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0859578</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.095455</v>
+        <v>0.0949308</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0888656</v>
+        <v>0.199868</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186108</v>
+        <v>0.08945119999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0926965</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100402</v>
+        <v>0.0997827</v>
       </c>
       <c r="C109" t="n">
-        <v>0.089703</v>
+        <v>0.193515</v>
       </c>
       <c r="D109" t="n">
-        <v>0.189657</v>
+        <v>0.0901479</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0931657</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107215</v>
+        <v>0.109009</v>
       </c>
       <c r="C110" t="n">
-        <v>0.090409</v>
+        <v>0.192797</v>
       </c>
       <c r="D110" t="n">
-        <v>0.194</v>
+        <v>0.0909215</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.09363</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107504</v>
+        <v>0.108902</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0914465</v>
+        <v>0.196994</v>
       </c>
       <c r="D111" t="n">
-        <v>0.197936</v>
+        <v>0.0917118</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0942807</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107477</v>
+        <v>0.109017</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09231010000000001</v>
+        <v>0.201949</v>
       </c>
       <c r="D112" t="n">
-        <v>0.202756</v>
+        <v>0.09258719999999999</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0949342</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107449</v>
+        <v>0.109219</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0931984</v>
+        <v>0.206787</v>
       </c>
       <c r="D113" t="n">
-        <v>0.207648</v>
+        <v>0.09357890000000001</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0956124</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107656</v>
+        <v>0.109295</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0943585</v>
+        <v>0.212581</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212982</v>
+        <v>0.09464</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.09643110000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107738</v>
+        <v>0.109582</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0955361</v>
+        <v>0.217678</v>
       </c>
       <c r="D115" t="n">
-        <v>0.21874</v>
+        <v>0.0957011</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0974578</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108045</v>
+        <v>0.109729</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0967438</v>
+        <v>0.223918</v>
       </c>
       <c r="D116" t="n">
-        <v>0.224454</v>
+        <v>0.0970447</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.09865409999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108604</v>
+        <v>0.110229</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0987114</v>
+        <v>0.229518</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230466</v>
+        <v>0.0984414</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.099985</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109057</v>
+        <v>0.110875</v>
       </c>
       <c r="C118" t="n">
-        <v>0.099893</v>
+        <v>0.23542</v>
       </c>
       <c r="D118" t="n">
-        <v>0.236711</v>
+        <v>0.101572</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.101915</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109796</v>
+        <v>0.111655</v>
       </c>
       <c r="C119" t="n">
-        <v>0.102049</v>
+        <v>0.241207</v>
       </c>
       <c r="D119" t="n">
-        <v>0.242582</v>
+        <v>0.102157</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.10417</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111117</v>
+        <v>0.112821</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104641</v>
+        <v>0.247384</v>
       </c>
       <c r="D120" t="n">
-        <v>0.248418</v>
+        <v>0.104633</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.107355</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.11288</v>
+        <v>0.114619</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108605</v>
+        <v>0.199268</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200206</v>
+        <v>0.108505</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.111855</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115788</v>
+        <v>0.117464</v>
       </c>
       <c r="C122" t="n">
-        <v>0.114784</v>
+        <v>0.202036</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203145</v>
+        <v>0.114455</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.119295</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120423</v>
+        <v>0.122013</v>
       </c>
       <c r="C123" t="n">
-        <v>0.107277</v>
+        <v>0.205435</v>
       </c>
       <c r="D123" t="n">
-        <v>0.206685</v>
+        <v>0.107135</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.111174</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.135696</v>
+        <v>0.139209</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1086</v>
+        <v>0.209778</v>
       </c>
       <c r="D124" t="n">
-        <v>0.210915</v>
+        <v>0.10814</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.113436</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135905</v>
+        <v>0.139131</v>
       </c>
       <c r="C125" t="n">
-        <v>0.109535</v>
+        <v>0.213788</v>
       </c>
       <c r="D125" t="n">
-        <v>0.214641</v>
+        <v>0.109179</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.112627</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.136001</v>
+        <v>0.139496</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110671</v>
+        <v>0.218497</v>
       </c>
       <c r="D126" t="n">
-        <v>0.219435</v>
+        <v>0.110339</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.113487</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.135938</v>
+        <v>0.139621</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114399</v>
+        <v>0.22327</v>
       </c>
       <c r="D127" t="n">
-        <v>0.223912</v>
+        <v>0.111555</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.114491</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.136214</v>
+        <v>0.13995</v>
       </c>
       <c r="C128" t="n">
-        <v>0.113155</v>
+        <v>0.228488</v>
       </c>
       <c r="D128" t="n">
-        <v>0.231298</v>
+        <v>0.117399</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.116157</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136789</v>
+        <v>0.14025</v>
       </c>
       <c r="C129" t="n">
-        <v>0.114392</v>
+        <v>0.234375</v>
       </c>
       <c r="D129" t="n">
-        <v>0.235985</v>
+        <v>0.11438</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.116856</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.137031</v>
+        <v>0.140479</v>
       </c>
       <c r="C130" t="n">
-        <v>0.115769</v>
+        <v>0.240447</v>
       </c>
       <c r="D130" t="n">
-        <v>0.241973</v>
+        <v>0.115714</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.118562</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.137446</v>
+        <v>0.142087</v>
       </c>
       <c r="C131" t="n">
-        <v>0.11723</v>
+        <v>0.24599</v>
       </c>
       <c r="D131" t="n">
-        <v>0.247743</v>
+        <v>0.117191</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.120523</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.138339</v>
+        <v>0.141701</v>
       </c>
       <c r="C132" t="n">
-        <v>0.118961</v>
+        <v>0.251978</v>
       </c>
       <c r="D132" t="n">
-        <v>0.253201</v>
+        <v>0.11914</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.121962</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.139115</v>
+        <v>0.142135</v>
       </c>
       <c r="C133" t="n">
-        <v>0.121255</v>
+        <v>0.257944</v>
       </c>
       <c r="D133" t="n">
-        <v>0.259549</v>
+        <v>0.121337</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.124397</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.140171</v>
+        <v>0.143369</v>
       </c>
       <c r="C134" t="n">
-        <v>0.124023</v>
+        <v>0.268641</v>
       </c>
       <c r="D134" t="n">
-        <v>0.265369</v>
+        <v>0.127893</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.127842</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.141526</v>
+        <v>0.14492</v>
       </c>
       <c r="C135" t="n">
-        <v>0.128155</v>
+        <v>0.209616</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208493</v>
+        <v>0.128374</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.14034</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.144521</v>
+        <v>0.147621</v>
       </c>
       <c r="C136" t="n">
-        <v>0.134329</v>
+        <v>0.212749</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211439</v>
+        <v>0.134621</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.13989</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.148407</v>
+        <v>0.151632</v>
       </c>
       <c r="C137" t="n">
-        <v>0.119293</v>
+        <v>0.216194</v>
       </c>
       <c r="D137" t="n">
-        <v>0.214794</v>
+        <v>0.118436</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.123322</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.15843</v>
+        <v>0.157728</v>
       </c>
       <c r="C138" t="n">
-        <v>0.120443</v>
+        <v>0.220147</v>
       </c>
       <c r="D138" t="n">
-        <v>0.218932</v>
+        <v>0.119542</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.124097</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158246</v>
+        <v>0.157774</v>
       </c>
       <c r="C139" t="n">
-        <v>0.126617</v>
+        <v>0.224171</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223399</v>
+        <v>0.120555</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.124887</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158283</v>
+        <v>0.157822</v>
       </c>
       <c r="C140" t="n">
-        <v>0.122455</v>
+        <v>0.229194</v>
       </c>
       <c r="D140" t="n">
-        <v>0.227911</v>
+        <v>0.124935</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.126237</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158341</v>
+        <v>0.158086</v>
       </c>
       <c r="C141" t="n">
-        <v>0.123717</v>
+        <v>0.234298</v>
       </c>
       <c r="D141" t="n">
-        <v>0.233086</v>
+        <v>0.12278</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.12706</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158436</v>
+        <v>0.158035</v>
       </c>
       <c r="C142" t="n">
-        <v>0.124739</v>
+        <v>0.239466</v>
       </c>
       <c r="D142" t="n">
-        <v>0.238833</v>
+        <v>0.123993</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.127951</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158595</v>
+        <v>0.178791</v>
       </c>
       <c r="C143" t="n">
-        <v>0.126148</v>
+        <v>0.245367</v>
       </c>
       <c r="D143" t="n">
-        <v>0.244469</v>
+        <v>0.125349</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.129431</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196861</v>
+                  <v>0.0194751</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197442</v>
+                  <v>0.0195629</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0197441</v>
+                  <v>0.019489</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0197505</v>
+                  <v>0.0195779</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0199072</v>
+                  <v>0.0196134</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020167</v>
+                  <v>0.0197913</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0201829</v>
+                  <v>0.0199155</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0205995</v>
+                  <v>0.0201101</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193044</v>
+                  <v>0.0196084</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0194655</v>
+                  <v>0.0195614</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196123</v>
+                  <v>0.0196347</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198252</v>
+                  <v>0.0198925</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198606</v>
+                  <v>0.0200039</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0200329</v>
+                  <v>0.0201837</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200361</v>
+                  <v>0.0200675</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.020201</v>
+                  <v>0.0201647</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0201688</v>
+                  <v>0.0202739</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0204639</v>
+                  <v>0.0202086</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.020687</v>
+                  <v>0.0205069</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0209861</v>
+                  <v>0.0207083</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0214982</v>
+                  <v>0.0211543</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0232463</v>
+                  <v>0.0230484</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203659</v>
+                  <v>0.0206813</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204979</v>
+                  <v>0.0207405</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206548</v>
+                  <v>0.0207665</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208464</v>
+                  <v>0.0209769</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210504</v>
+                  <v>0.021056</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212226</v>
+                  <v>0.0212252</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216188</v>
+                  <v>0.0213505</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0218555</v>
+                  <v>0.0215039</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0220454</v>
+                  <v>0.0217981</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221091</v>
+                  <v>0.0221214</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0229123</v>
+                  <v>0.023275</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.023554</v>
+                  <v>0.0250124</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.025525</v>
+                  <v>0.0266118</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0295991</v>
+                  <v>0.0311996</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226652</v>
+                  <v>0.0216211</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226726</v>
+                  <v>0.0218931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0230688</v>
+                  <v>0.0219329</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0220955</v>
+                  <v>0.0221215</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221313</v>
+                  <v>0.0222904</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224242</v>
+                  <v>0.0224773</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226252</v>
+                  <v>0.0228221</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0229498</v>
+                  <v>0.0230365</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0233683</v>
+                  <v>0.0235124</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024254</v>
+                  <v>0.02408</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0251133</v>
+                  <v>0.025044</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0266522</v>
+                  <v>0.0279553</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.029904</v>
+                  <v>0.0304389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0329878</v>
+                  <v>0.0353825</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0389153</v>
+                  <v>0.0392081</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231873</v>
+                  <v>0.0230524</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233782</v>
+                  <v>0.0234244</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234553</v>
+                  <v>0.0234108</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0236761</v>
+                  <v>0.0239286</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239042</v>
+                  <v>0.0240818</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0242977</v>
+                  <v>0.024439</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0246093</v>
+                  <v>0.0247787</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252684</v>
+                  <v>0.0252449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0261573</v>
+                  <v>0.0265282</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0274839</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0293145</v>
+                  <v>0.0294202</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0323043</v>
+                  <v>0.032256</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0357062</v>
+                  <v>0.035998</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0407992</v>
+                  <v>0.0410284</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291067</v>
+                  <v>0.0292854</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0292957</v>
+                  <v>0.0293731</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294658</v>
+                  <v>0.0295223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0296458</v>
+                  <v>0.0297504</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298446</v>
+                  <v>0.0300985</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303077</v>
+                  <v>0.0302054</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0305738</v>
+                  <v>0.030751</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311089</v>
+                  <v>0.0311922</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.031958</v>
+                  <v>0.0320559</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331584</v>
+                  <v>0.0331467</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348142</v>
+                  <v>0.0348991</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0371248</v>
+                  <v>0.0373412</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0406293</v>
+                  <v>0.0409062</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0455093</v>
+                  <v>0.0457293</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.054876</v>
+                  <v>0.0555257</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0551749</v>
+                  <v>0.0577904</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0552561</v>
+                  <v>0.055792</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0555251</v>
+                  <v>0.0560207</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0557353</v>
+                  <v>0.0561087</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0559444</v>
+                  <v>0.0563414</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056275</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0565668</v>
+                  <v>0.0571958</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0570285</v>
+                  <v>0.057884</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0577995</v>
+                  <v>0.0582425</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0587407</v>
+                  <v>0.0592452</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0605897</v>
+                  <v>0.0608211</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0631306</v>
+                  <v>0.0633513</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06695570000000001</v>
+                  <v>0.06725390000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.09221509999999999</v>
+                  <v>0.0858208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0858753</v>
+                  <v>0.08577170000000001</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594309999999999</v>
+                  <v>0.08594590000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0860457</v>
+                  <v>0.08606900000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0861672</v>
+                  <v>0.08616749999999999</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0863088</v>
+                  <v>0.08662789999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0865691</v>
+                  <v>0.0864133</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0868321</v>
+                  <v>0.088181</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08713460000000001</v>
+                  <v>0.0871123</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08769159999999999</v>
+                  <v>0.0876926</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0958198</v>
+                  <v>0.0885166</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0898485</v>
+                  <v>0.0897474</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.095514</v>
+                  <v>0.09172080000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.09515</v>
+                  <v>0.0949308</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100163</v>
+                  <v>0.0997827</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.1074</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.10739</v>
+                  <v>0.108902</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.107504</v>
+                  <v>0.109017</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.107377</v>
+                  <v>0.109219</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114714</v>
+                  <v>0.109295</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108009</v>
+                  <v>0.109582</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.108717</v>
+                  <v>0.109729</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109426</v>
+                  <v>0.110229</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110397</v>
+                  <v>0.110875</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111361</v>
+                  <v>0.111655</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112842</v>
+                  <v>0.112821</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114762</v>
+                  <v>0.114619</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117867</v>
+                  <v>0.117464</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.124715</v>
+                  <v>0.122013</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139793</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140249</v>
+                  <v>0.139131</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139831</v>
+                  <v>0.139496</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139692</v>
+                  <v>0.139621</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.139658</v>
+                  <v>0.13995</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.139443</v>
+                  <v>0.14025</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.139582</v>
+                  <v>0.140479</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.139867</v>
+                  <v>0.142087</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.14053</v>
+                  <v>0.141701</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141002</v>
+                  <v>0.142135</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.142003</v>
+                  <v>0.143369</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.143615</v>
+                  <v>0.14492</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145983</v>
+                  <v>0.147621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150084</v>
+                  <v>0.151632</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.158033</v>
+                  <v>0.157728</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157812</v>
+                  <v>0.157774</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157958</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158179</v>
+                  <v>0.158086</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158157</v>
+                  <v>0.158035</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158476</v>
+                  <v>0.178791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.021348</v>
+                  <v>0.0365145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0214877</v>
+                  <v>0.0396988</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0216247</v>
+                  <v>0.0447642</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0218795</v>
+                  <v>0.0498033</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0221566</v>
+                  <v>0.0537687</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0227802</v>
+                  <v>0.0315887</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0236896</v>
+                  <v>0.0336489</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0202692</v>
+                  <v>0.0356574</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207092</v>
+                  <v>0.0376125</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0210303</v>
+                  <v>0.0405804</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213025</v>
+                  <v>0.0447308</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0213527</v>
+                  <v>0.047286</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0218472</v>
+                  <v>0.0503759</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0222591</v>
+                  <v>0.0539423</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0226628</v>
+                  <v>0.0578276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022977</v>
+                  <v>0.0614582</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233228</v>
+                  <v>0.0653006</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0238671</v>
+                  <v>0.0680994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0246036</v>
+                  <v>0.0704849</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0252305</v>
+                  <v>0.0446121</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0277472</v>
+                  <v>0.047444</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0217618</v>
+                  <v>0.0493842</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0219587</v>
+                  <v>0.0514984</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0222026</v>
+                  <v>0.0543429</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0224898</v>
+                  <v>0.0563413</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0228074</v>
+                  <v>0.0616033</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0232103</v>
+                  <v>0.0643247</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236661</v>
+                  <v>0.0662176</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0240376</v>
+                  <v>0.0698588</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0245248</v>
+                  <v>0.07215820000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0252023</v>
+                  <v>0.0748846</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0257564</v>
+                  <v>0.0769565</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0270565</v>
+                  <v>0.0791249</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0287934</v>
+                  <v>0.0519505</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0324096</v>
+                  <v>0.0537373</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0236684</v>
+                  <v>0.0560572</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0241302</v>
+                  <v>0.0580173</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0244332</v>
+                  <v>0.0596857</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0245736</v>
+                  <v>0.0624772</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239295</v>
+                  <v>0.06461600000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0243207</v>
+                  <v>0.0672449</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0252591</v>
+                  <v>0.06969930000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0256591</v>
+                  <v>0.07249079999999999</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0259074</v>
+                  <v>0.07484499999999999</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0266036</v>
+                  <v>0.0778189</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.027689</v>
+                  <v>0.0800609</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291986</v>
+                  <v>0.0823764</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0317988</v>
+                  <v>0.0844506</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0360721</v>
+                  <v>0.0578649</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.023394</v>
+                  <v>0.0591875</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0236044</v>
+                  <v>0.0615245</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023867</v>
+                  <v>0.0639034</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0241515</v>
+                  <v>0.0656783</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0244875</v>
+                  <v>0.0679548</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0249477</v>
+                  <v>0.0705563</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253774</v>
+                  <v>0.0733139</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0259302</v>
+                  <v>0.0760695</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0265094</v>
+                  <v>0.07903490000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274929</v>
+                  <v>0.080972</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0286629</v>
+                  <v>0.08393299999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303873</v>
+                  <v>0.08583780000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0330881</v>
+                  <v>0.08868760000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0367975</v>
+                  <v>0.0634653</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0428056</v>
+                  <v>0.0660341</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0248565</v>
+                  <v>0.068684</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254945</v>
+                  <v>0.0716908</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.025829</v>
+                  <v>0.0754389</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0266013</v>
+                  <v>0.0780781</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0265404</v>
+                  <v>0.08159859999999999</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270211</v>
+                  <v>0.0866746</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.027483</v>
+                  <v>0.0889358</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281629</v>
+                  <v>0.0945853</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0291473</v>
+                  <v>0.0982999</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0302343</v>
+                  <v>0.102978</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321709</v>
+                  <v>0.106901</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0346453</v>
+                  <v>0.112317</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.038211</v>
+                  <v>0.09733840000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0437751</v>
+                  <v>0.101335</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0369618</v>
+                  <v>0.105975</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0377666</v>
+                  <v>0.110132</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385693</v>
+                  <v>0.115172</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0393414</v>
+                  <v>0.121209</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0400166</v>
+                  <v>0.126205</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0406419</v>
+                  <v>0.131141</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0415556</v>
+                  <v>0.137704</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0424017</v>
+                  <v>0.143051</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0449697</v>
+                  <v>0.149748</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0442997</v>
+                  <v>0.154568</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0456659</v>
+                  <v>0.16029</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.047738</v>
+                  <v>0.166513</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0505484</v>
+                  <v>0.145912</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0549595</v>
+                  <v>0.149301</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0715803</v>
+                  <v>0.152309</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0719887</v>
+                  <v>0.157221</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0723747</v>
+                  <v>0.160664</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0728399</v>
+                  <v>0.166029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07350520000000001</v>
+                  <v>0.170781</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0740489</v>
+                  <v>0.175608</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0746351</v>
+                  <v>0.181033</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0754398</v>
+                  <v>0.186455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07621650000000001</v>
+                  <v>0.192398</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0796057</v>
+                  <v>0.199037</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07860830000000001</v>
+                  <v>0.203931</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0804361</v>
+                  <v>0.210695</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0829439</v>
+                  <v>0.216678</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08686770000000001</v>
+                  <v>0.181859</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0889514</v>
+                  <v>0.199868</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.089729</v>
+                  <v>0.193515</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0904097</v>
+                  <v>0.192797</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0913191</v>
+                  <v>0.196994</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0921503</v>
+                  <v>0.201949</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0931935</v>
+                  <v>0.206787</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09714059999999999</v>
+                  <v>0.212581</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09524050000000001</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.096618</v>
+                  <v>0.223918</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0979674</v>
+                  <v>0.229518</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0996447</v>
+                  <v>0.23542</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.101745</v>
+                  <v>0.241207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104375</v>
+                  <v>0.247384</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108312</v>
+                  <v>0.199268</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114594</v>
+                  <v>0.202036</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106984</v>
+                  <v>0.205435</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.119349</v>
+                  <v>0.209778</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109142</v>
+                  <v>0.213788</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110214</v>
+                  <v>0.218497</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111475</v>
+                  <v>0.22327</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112737</v>
+                  <v>0.228488</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11413</v>
+                  <v>0.234375</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115719</v>
+                  <v>0.240447</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117336</v>
+                  <v>0.24599</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.119263</v>
+                  <v>0.251978</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121651</v>
+                  <v>0.257944</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.124577</v>
+                  <v>0.268641</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128814</v>
+                  <v>0.209616</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13534</v>
+                  <v>0.212749</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118414</v>
+                  <v>0.216194</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119444</v>
+                  <v>0.220147</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120531</v>
+                  <v>0.224171</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121662</v>
+                  <v>0.229194</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122894</v>
+                  <v>0.234298</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.12405</v>
+                  <v>0.239466</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125504</v>
+                  <v>0.245367</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0336857</v>
+                  <v>0.0196261</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0394849</v>
+                  <v>0.0197912</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0423094</v>
+                  <v>0.0198901</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0461472</v>
+                  <v>0.0199582</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0507523</v>
+                  <v>0.0201314</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.030305</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0319421</v>
+                  <v>0.0207955</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0344693</v>
+                  <v>0.0194471</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0368055</v>
+                  <v>0.0195449</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0393418</v>
+                  <v>0.019867</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0427875</v>
+                  <v>0.0201596</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0475742</v>
+                  <v>0.0201363</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0488059</v>
+                  <v>0.0205715</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0525665</v>
+                  <v>0.021072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0568101</v>
+                  <v>0.0210413</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0604767</v>
+                  <v>0.0212453</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0639252</v>
+                  <v>0.0213354</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0675722</v>
+                  <v>0.0214148</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0692373</v>
+                  <v>0.0218501</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0444481</v>
+                  <v>0.0224228</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0475408</v>
+                  <v>0.0237556</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0489493</v>
+                  <v>0.0210571</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0508013</v>
+                  <v>0.0212586</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0535126</v>
+                  <v>0.0214644</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0556632</v>
+                  <v>0.0215637</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0589148</v>
+                  <v>0.021764</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0614351</v>
+                  <v>0.0221105</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.06435200000000001</v>
+                  <v>0.022421</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0664998</v>
+                  <v>0.0226251</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07017470000000001</v>
+                  <v>0.0229748</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0725022</v>
+                  <v>0.02343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0762954</v>
+                  <v>0.0239333</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0772482</v>
+                  <v>0.0247176</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0518274</v>
+                  <v>0.0263657</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0539981</v>
+                  <v>0.0292434</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0569381</v>
+                  <v>0.0221968</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0590617</v>
+                  <v>0.0224122</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0616864</v>
+                  <v>0.0226233</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0607154</v>
+                  <v>0.0229104</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06472219999999999</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0669053</v>
+                  <v>0.0235225</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06983350000000001</v>
+                  <v>0.0245394</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0728838</v>
+                  <v>0.0242028</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0752324</v>
+                  <v>0.0246188</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.07806680000000001</v>
+                  <v>0.0255792</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0802983</v>
+                  <v>0.0258658</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0828279</v>
+                  <v>0.0269256</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0846045</v>
+                  <v>0.029475</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0575865</v>
+                  <v>0.0328029</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0593047</v>
+                  <v>0.0229759</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0611502</v>
+                  <v>0.0231768</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0636737</v>
+                  <v>0.0234395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0657292</v>
+                  <v>0.023729</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.06833930000000001</v>
+                  <v>0.0240074</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0707661</v>
+                  <v>0.024327</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.073903</v>
+                  <v>0.0247229</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0761425</v>
+                  <v>0.025276</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.078791</v>
+                  <v>0.0257848</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.08170040000000001</v>
+                  <v>0.0264266</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0839515</v>
+                  <v>0.0273739</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0861381</v>
+                  <v>0.0289127</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.088853</v>
+                  <v>0.0313813</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0638098</v>
+                  <v>0.0347866</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.06650739999999999</v>
+                  <v>0.0405541</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0691383</v>
+                  <v>0.0251501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0715653</v>
+                  <v>0.0254762</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0745817</v>
+                  <v>0.0257275</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.07851610000000001</v>
+                  <v>0.0260131</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0814839</v>
+                  <v>0.0263866</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0860113</v>
+                  <v>0.0261122</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.09014419999999999</v>
+                  <v>0.0272077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0948281</v>
+                  <v>0.0281149</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0981105</v>
+                  <v>0.0283556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.101526</v>
+                  <v>0.0292696</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.107487</v>
+                  <v>0.0306653</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112807</v>
+                  <v>0.0333493</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0965601</v>
+                  <v>0.0363328</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101097</v>
+                  <v>0.0412171</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.106082</v>
+                  <v>0.0356659</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110975</v>
+                  <v>0.0363526</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.114995</v>
+                  <v>0.0371667</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.120023</v>
+                  <v>0.0379171</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.125893</v>
+                  <v>0.0386585</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.130762</v>
+                  <v>0.0393656</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.136855</v>
+                  <v>0.0400877</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.142491</v>
+                  <v>0.0412195</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.148735</v>
+                  <v>0.0419461</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154806</v>
+                  <v>0.0430021</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.160276</v>
+                  <v>0.0442752</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.165942</v>
+                  <v>0.046052</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145194</v>
+                  <v>0.0487434</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.148853</v>
+                  <v>0.0533016</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152457</v>
+                  <v>0.0713101</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.156847</v>
+                  <v>0.07162789999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.16093</v>
+                  <v>0.0721873</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.165502</v>
+                  <v>0.0726131</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.171025</v>
+                  <v>0.0731451</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.176145</v>
+                  <v>0.073726</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181854</v>
+                  <v>0.0743772</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.187152</v>
+                  <v>0.0751235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192849</v>
+                  <v>0.0758935</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199082</v>
+                  <v>0.07695730000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.205029</v>
+                  <v>0.07818170000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.211115</v>
+                  <v>0.0798373</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217795</v>
+                  <v>0.08226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181761</v>
+                  <v>0.0859181</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.184875</v>
+                  <v>0.08945119999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18853</v>
+                  <v>0.0901479</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.193379</v>
+                  <v>0.0909215</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196792</v>
+                  <v>0.0917118</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201399</v>
+                  <v>0.09258719999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206374</v>
+                  <v>0.09357890000000001</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.211734</v>
+                  <v>0.09464</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.218001</v>
+                  <v>0.0957011</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223144</v>
+                  <v>0.0970447</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229767</v>
+                  <v>0.0984414</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.235872</v>
+                  <v>0.101572</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.240776</v>
+                  <v>0.102157</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247637</v>
+                  <v>0.104633</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198997</v>
+                  <v>0.108505</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202385</v>
+                  <v>0.114455</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205971</v>
+                  <v>0.107135</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209681</v>
+                  <v>0.10814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213857</v>
+                  <v>0.109179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218441</v>
+                  <v>0.110339</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.223282</v>
+                  <v>0.111555</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228864</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234598</v>
+                  <v>0.11438</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240649</v>
+                  <v>0.115714</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.251617</v>
+                  <v>0.117191</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252683</v>
+                  <v>0.11914</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.258786</v>
+                  <v>0.121337</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.264415</v>
+                  <v>0.127893</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.20958</v>
+                  <v>0.128374</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21278</v>
+                  <v>0.134621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216352</v>
+                  <v>0.118436</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.219749</v>
+                  <v>0.119542</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224359</v>
+                  <v>0.120555</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.228913</v>
+                  <v>0.124935</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236829</v>
+                  <v>0.12278</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239299</v>
+                  <v>0.123993</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.2453</v>
+                  <v>0.125349</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0206785</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0207813</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0208833</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0207783</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0207749</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.020897</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0212215</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0216661</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0216931</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219577</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0219969</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0221826</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225411</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0228079</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0227173</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0227772</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0230473</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0229634</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0230157</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0234205</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0244919</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.023336</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0235586</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0238225</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237382</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0238801</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0241333</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0244564</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0245499</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0247842</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0251216</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0254613</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0260233</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0270699</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0306774</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245451</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247372</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.024937</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0252111</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253094</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0255793</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0257865</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0260194</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026382</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0268562</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0274538</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0286629</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.030666</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0341753</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0248564</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0250656</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0253725</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0256172</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.025785</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0260479</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265271</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0269807</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0273609</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0280786</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0290054</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0305336</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0329544</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0362898</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0419218</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.026637</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0267861</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0277745</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0273026</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0277491</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281135</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0285725</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0291539</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0301281</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315789</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.032797</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0350439</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0383708</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0434181</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335094</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.033843</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0344867</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0348016</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0352056</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0360305</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0367309</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372919</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0386863</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0396944</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0417616</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440648</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0474931</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.052939</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.06786490000000001</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.068254</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06875249999999999</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0691842</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.06990540000000001</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07045410000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0711215</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0718926</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0728032</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07412000000000001</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.07561420000000001</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0777135</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.08079749999999999</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0859578</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0926965</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0931657</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.09363</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0942807</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0949342</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0956124</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09643110000000001</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0974578</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.09865409999999999</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.099985</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.101915</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.10417</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107355</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.111855</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119295</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111174</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.113436</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.112627</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113487</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114491</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.116157</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.116856</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.118562</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120523</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.121962</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124397</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.127842</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.14034</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.13989</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123322</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124097</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.124887</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126237</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.12706</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127951</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129431</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194751</v>
+        <v>0.0195961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0365145</v>
+        <v>0.0176144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0196261</v>
+        <v>0.0196436</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0206785</v>
+        <v>0.0214927</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0195629</v>
+        <v>0.0197367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0396988</v>
+        <v>0.017544</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0197912</v>
+        <v>0.0198923</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0207813</v>
+        <v>0.0219482</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.019489</v>
+        <v>0.0197601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0447642</v>
+        <v>0.0176873</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0198901</v>
+        <v>0.0199875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0208833</v>
+        <v>0.0221397</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0195779</v>
+        <v>0.0198172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0498033</v>
+        <v>0.0176956</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0199582</v>
+        <v>0.0199408</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0207783</v>
+        <v>0.0225156</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196134</v>
+        <v>0.0200149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0537687</v>
+        <v>0.0176981</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0201314</v>
+        <v>0.0200581</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0207749</v>
+        <v>0.0230341</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0197913</v>
+        <v>0.020257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0315887</v>
+        <v>0.0177762</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0201829</v>
+        <v>0.0202648</v>
       </c>
       <c r="E7" t="n">
-        <v>0.020897</v>
+        <v>0.0233437</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0199155</v>
+        <v>0.0203446</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0336489</v>
+        <v>0.0180512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0207955</v>
+        <v>0.0208636</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0212215</v>
+        <v>0.0241946</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0201101</v>
+        <v>0.0204993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0356574</v>
+        <v>0.0183027</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0194471</v>
+        <v>0.0193946</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0216661</v>
+        <v>0.0217588</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0196084</v>
+        <v>0.019489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0376125</v>
+        <v>0.0181091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0195449</v>
+        <v>0.0195553</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0216931</v>
+        <v>0.0218493</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195614</v>
+        <v>0.0195519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0405804</v>
+        <v>0.0182733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.019867</v>
+        <v>0.0196944</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0219577</v>
+        <v>0.0220031</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196347</v>
+        <v>0.0197807</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0447308</v>
+        <v>0.0183994</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0201596</v>
+        <v>0.0201328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0219969</v>
+        <v>0.0221944</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198925</v>
+        <v>0.0200171</v>
       </c>
       <c r="C13" t="n">
-        <v>0.047286</v>
+        <v>0.0184484</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0201363</v>
+        <v>0.020138</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0221826</v>
+        <v>0.0225833</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0200039</v>
+        <v>0.0200848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0503759</v>
+        <v>0.0188017</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205715</v>
+        <v>0.020592</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0225411</v>
+        <v>0.0228383</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201837</v>
+        <v>0.0201973</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0539423</v>
+        <v>0.0187965</v>
       </c>
       <c r="D15" t="n">
-        <v>0.021072</v>
+        <v>0.02092</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0228079</v>
+        <v>0.0230559</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200675</v>
+        <v>0.020332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0578276</v>
+        <v>0.018848</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0210413</v>
+        <v>0.0209568</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0227173</v>
+        <v>0.023435</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0201647</v>
+        <v>0.0208033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0614582</v>
+        <v>0.0187632</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0212453</v>
+        <v>0.021073</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227772</v>
+        <v>0.0238312</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202739</v>
+        <v>0.0208531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0653006</v>
+        <v>0.0188256</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0213354</v>
+        <v>0.0213674</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0230473</v>
+        <v>0.0244857</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0202086</v>
+        <v>0.020943</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0680994</v>
+        <v>0.01899</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0214148</v>
+        <v>0.0216497</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0229634</v>
+        <v>0.0248858</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0205069</v>
+        <v>0.0211131</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0704849</v>
+        <v>0.0190138</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0218501</v>
+        <v>0.0222327</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0230157</v>
+        <v>0.0255164</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0207083</v>
+        <v>0.0211606</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0446121</v>
+        <v>0.019135</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0224228</v>
+        <v>0.0229504</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0234205</v>
+        <v>0.0268311</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0211543</v>
+        <v>0.0217768</v>
       </c>
       <c r="C22" t="n">
-        <v>0.047444</v>
+        <v>0.0198165</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0237556</v>
+        <v>0.0255243</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0244919</v>
+        <v>0.0287575</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0230484</v>
+        <v>0.0232476</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0493842</v>
+        <v>0.0226972</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0210571</v>
+        <v>0.0210812</v>
       </c>
       <c r="E23" t="n">
-        <v>0.023336</v>
+        <v>0.0234854</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0206813</v>
+        <v>0.0205948</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0514984</v>
+        <v>0.0197188</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0212586</v>
+        <v>0.0211234</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0235586</v>
+        <v>0.0236233</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0207405</v>
+        <v>0.0208045</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0543429</v>
+        <v>0.0197269</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0214644</v>
+        <v>0.0214781</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0238225</v>
+        <v>0.0237963</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207665</v>
+        <v>0.0208152</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0563413</v>
+        <v>0.0200339</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0215637</v>
+        <v>0.0216828</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0237382</v>
+        <v>0.0240002</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209769</v>
+        <v>0.0210349</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0616033</v>
+        <v>0.0200158</v>
       </c>
       <c r="D27" t="n">
-        <v>0.021764</v>
+        <v>0.0218221</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0238801</v>
+        <v>0.0241719</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.021056</v>
+        <v>0.0211534</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0643247</v>
+        <v>0.0201292</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0221105</v>
+        <v>0.0221139</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0241333</v>
+        <v>0.0245054</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212252</v>
+        <v>0.0212204</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0662176</v>
+        <v>0.0202742</v>
       </c>
       <c r="D29" t="n">
-        <v>0.022421</v>
+        <v>0.022416</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0244564</v>
+        <v>0.0248036</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213505</v>
+        <v>0.0215752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0698588</v>
+        <v>0.0204942</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0226251</v>
+        <v>0.0227373</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0245499</v>
+        <v>0.0251461</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215039</v>
+        <v>0.0217525</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07215820000000001</v>
+        <v>0.0207021</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0229748</v>
+        <v>0.0231398</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0247842</v>
+        <v>0.0255854</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0217981</v>
+        <v>0.0221968</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0748846</v>
+        <v>0.0209616</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02343</v>
+        <v>0.0235972</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0251216</v>
+        <v>0.026276</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221214</v>
+        <v>0.0225539</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0769565</v>
+        <v>0.0213041</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0239333</v>
+        <v>0.0243084</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0254613</v>
+        <v>0.0270143</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.023275</v>
+        <v>0.0232181</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0791249</v>
+        <v>0.021892</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0247176</v>
+        <v>0.0256543</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0260233</v>
+        <v>0.0280455</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0250124</v>
+        <v>0.0245842</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0519505</v>
+        <v>0.0229253</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0263657</v>
+        <v>0.0280912</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0270699</v>
+        <v>0.0300062</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0266118</v>
+        <v>0.0268923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0537373</v>
+        <v>0.0254837</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0292434</v>
+        <v>0.0316869</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0306774</v>
+        <v>0.0331974</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0311996</v>
+        <v>0.0317541</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0560572</v>
+        <v>0.0290903</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0221968</v>
+        <v>0.022168</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0245451</v>
+        <v>0.0245782</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216211</v>
+        <v>0.0217037</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0580173</v>
+        <v>0.0208563</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0224122</v>
+        <v>0.0224645</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0247372</v>
+        <v>0.0247708</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0218931</v>
+        <v>0.0217222</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0596857</v>
+        <v>0.0209444</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0226233</v>
+        <v>0.022623</v>
       </c>
       <c r="E39" t="n">
-        <v>0.024937</v>
+        <v>0.0249889</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219329</v>
+        <v>0.0219906</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0624772</v>
+        <v>0.0211246</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0229104</v>
+        <v>0.02295</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0252111</v>
+        <v>0.0252975</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0221215</v>
+        <v>0.0219084</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06461600000000001</v>
+        <v>0.0213309</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0231873</v>
+        <v>0.0232413</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0253094</v>
+        <v>0.0254555</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222904</v>
+        <v>0.0221777</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0672449</v>
+        <v>0.0214721</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0235225</v>
+        <v>0.0234698</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0255793</v>
+        <v>0.0256999</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224773</v>
+        <v>0.0225967</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06969930000000001</v>
+        <v>0.0215933</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0245394</v>
+        <v>0.023815</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0257865</v>
+        <v>0.0260586</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0228221</v>
+        <v>0.0226863</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07249079999999999</v>
+        <v>0.0218699</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0242028</v>
+        <v>0.0241522</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0260194</v>
+        <v>0.0264859</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230365</v>
+        <v>0.0232532</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07484499999999999</v>
+        <v>0.0220913</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0246188</v>
+        <v>0.0252702</v>
       </c>
       <c r="E45" t="n">
-        <v>0.026382</v>
+        <v>0.0269968</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235124</v>
+        <v>0.0235866</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0778189</v>
+        <v>0.0225275</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0255792</v>
+        <v>0.0254487</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0268562</v>
+        <v>0.027674</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02408</v>
+        <v>0.0241213</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0800609</v>
+        <v>0.0233842</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0258658</v>
+        <v>0.0262727</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0274538</v>
+        <v>0.0285621</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025044</v>
+        <v>0.0253485</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0823764</v>
+        <v>0.0241935</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0269256</v>
+        <v>0.0281887</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0286629</v>
+        <v>0.0300034</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0279553</v>
+        <v>0.0271778</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0844506</v>
+        <v>0.0263226</v>
       </c>
       <c r="D49" t="n">
-        <v>0.029475</v>
+        <v>0.0302532</v>
       </c>
       <c r="E49" t="n">
-        <v>0.030666</v>
+        <v>0.0319347</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0304389</v>
+        <v>0.0301759</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0578649</v>
+        <v>0.0290544</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0328029</v>
+        <v>0.0339603</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0341753</v>
+        <v>0.0351489</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0353825</v>
+        <v>0.0340915</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0591875</v>
+        <v>0.0324947</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0229759</v>
+        <v>0.0229767</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0248564</v>
+        <v>0.0249804</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0392081</v>
+        <v>0.0389628</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0615245</v>
+        <v>0.0385023</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0231768</v>
+        <v>0.0231793</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0250656</v>
+        <v>0.0252073</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0230524</v>
+        <v>0.0237185</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0639034</v>
+        <v>0.0219031</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0234395</v>
+        <v>0.0234257</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0253725</v>
+        <v>0.0253587</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0234244</v>
+        <v>0.0233956</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0656783</v>
+        <v>0.0220074</v>
       </c>
       <c r="D54" t="n">
-        <v>0.023729</v>
+        <v>0.0237307</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0256172</v>
+        <v>0.0256879</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234108</v>
+        <v>0.0236488</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0679548</v>
+        <v>0.0222253</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0240074</v>
+        <v>0.0240602</v>
       </c>
       <c r="E55" t="n">
-        <v>0.025785</v>
+        <v>0.0258977</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239286</v>
+        <v>0.0238137</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0705563</v>
+        <v>0.0224061</v>
       </c>
       <c r="D56" t="n">
-        <v>0.024327</v>
+        <v>0.0243572</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0260479</v>
+        <v>0.0262134</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240818</v>
+        <v>0.0241881</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0733139</v>
+        <v>0.0227312</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0247229</v>
+        <v>0.0247839</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0265271</v>
+        <v>0.0266269</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024439</v>
+        <v>0.0244422</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0760695</v>
+        <v>0.0229698</v>
       </c>
       <c r="D58" t="n">
-        <v>0.025276</v>
+        <v>0.0252613</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0269807</v>
+        <v>0.0271262</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0247787</v>
+        <v>0.0252827</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07903490000000001</v>
+        <v>0.0233371</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0257848</v>
+        <v>0.0258924</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0273609</v>
+        <v>0.0277706</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252449</v>
+        <v>0.0257618</v>
       </c>
       <c r="C60" t="n">
-        <v>0.080972</v>
+        <v>0.0239668</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0264266</v>
+        <v>0.0267231</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0280786</v>
+        <v>0.0285199</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0265282</v>
+        <v>0.0262781</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08393299999999999</v>
+        <v>0.0247248</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0273739</v>
+        <v>0.0278937</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0290054</v>
+        <v>0.0297302</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274839</v>
+        <v>0.0276308</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08583780000000001</v>
+        <v>0.0263324</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0289127</v>
+        <v>0.0295561</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0305336</v>
+        <v>0.0311634</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0294202</v>
+        <v>0.0294974</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08868760000000001</v>
+        <v>0.0282674</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0313813</v>
+        <v>0.0319893</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0329544</v>
+        <v>0.0334589</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.032256</v>
+        <v>0.0321097</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0634653</v>
+        <v>0.0307516</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0347866</v>
+        <v>0.0353175</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0362898</v>
+        <v>0.0368714</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035998</v>
+        <v>0.0353765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0660341</v>
+        <v>0.0349</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0405541</v>
+        <v>0.0407783</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0419218</v>
+        <v>0.042716</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410284</v>
+        <v>0.0411699</v>
       </c>
       <c r="C66" t="n">
-        <v>0.068684</v>
+        <v>0.040585</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0251501</v>
+        <v>0.0264305</v>
       </c>
       <c r="E66" t="n">
-        <v>0.026637</v>
+        <v>0.0266054</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0292854</v>
+        <v>0.0277753</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0716908</v>
+        <v>0.0247981</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0254762</v>
+        <v>0.0264947</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0267861</v>
+        <v>0.0267851</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0293731</v>
+        <v>0.0279501</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0754389</v>
+        <v>0.0252431</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0257275</v>
+        <v>0.0260904</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0277745</v>
+        <v>0.0271139</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0295223</v>
+        <v>0.0279494</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0780781</v>
+        <v>0.0247023</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0260131</v>
+        <v>0.0264765</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0273026</v>
+        <v>0.0273599</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0297504</v>
+        <v>0.0283094</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08159859999999999</v>
+        <v>0.0254798</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0263866</v>
+        <v>0.0268707</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0277491</v>
+        <v>0.0278352</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0300985</v>
+        <v>0.0287239</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0866746</v>
+        <v>0.0258862</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0261122</v>
+        <v>0.0272562</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0281135</v>
+        <v>0.0285986</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302054</v>
+        <v>0.0291018</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0889358</v>
+        <v>0.0263726</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0272077</v>
+        <v>0.0276894</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0285725</v>
+        <v>0.0287279</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.030751</v>
+        <v>0.029388</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0945853</v>
+        <v>0.0266652</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0281149</v>
+        <v>0.0283249</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0291539</v>
+        <v>0.0293728</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0311922</v>
+        <v>0.0300712</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0982999</v>
+        <v>0.0271248</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0283556</v>
+        <v>0.0297436</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0301281</v>
+        <v>0.0302727</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0320559</v>
+        <v>0.0308442</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102978</v>
+        <v>0.0286014</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0292696</v>
+        <v>0.0302094</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0315789</v>
+        <v>0.0317299</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0331467</v>
+        <v>0.0320644</v>
       </c>
       <c r="C76" t="n">
-        <v>0.106901</v>
+        <v>0.0304984</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0306653</v>
+        <v>0.0320598</v>
       </c>
       <c r="E76" t="n">
-        <v>0.032797</v>
+        <v>0.0330238</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0348991</v>
+        <v>0.0336871</v>
       </c>
       <c r="C77" t="n">
-        <v>0.112317</v>
+        <v>0.0320238</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0333493</v>
+        <v>0.0336944</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0350439</v>
+        <v>0.035138</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0373412</v>
+        <v>0.0363829</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09733840000000001</v>
+        <v>0.0351338</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0363328</v>
+        <v>0.0375717</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0383708</v>
+        <v>0.0388986</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0409062</v>
+        <v>0.0398558</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101335</v>
+        <v>0.0385243</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0412171</v>
+        <v>0.0417194</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0434181</v>
+        <v>0.043821</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0457293</v>
+        <v>0.0447749</v>
       </c>
       <c r="C80" t="n">
-        <v>0.105975</v>
+        <v>0.0442349</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0356659</v>
+        <v>0.0359563</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0335094</v>
+        <v>0.0326824</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0555257</v>
+        <v>0.0560994</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110132</v>
+        <v>0.0349612</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0363526</v>
+        <v>0.0366926</v>
       </c>
       <c r="E81" t="n">
-        <v>0.033843</v>
+        <v>0.0332513</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0577904</v>
+        <v>0.0559947</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115172</v>
+        <v>0.0351431</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0371667</v>
+        <v>0.03727</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0344867</v>
+        <v>0.0335921</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.055792</v>
+        <v>0.0562081</v>
       </c>
       <c r="C83" t="n">
-        <v>0.121209</v>
+        <v>0.0354389</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0379171</v>
+        <v>0.0381612</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0348016</v>
+        <v>0.033879</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0560207</v>
+        <v>0.0565414</v>
       </c>
       <c r="C84" t="n">
-        <v>0.126205</v>
+        <v>0.0357744</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0386585</v>
+        <v>0.0389707</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0352056</v>
+        <v>0.0345678</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0561087</v>
+        <v>0.0564956</v>
       </c>
       <c r="C85" t="n">
-        <v>0.131141</v>
+        <v>0.0361073</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0393656</v>
+        <v>0.0398449</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0360305</v>
+        <v>0.0352008</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0563414</v>
+        <v>0.0589351</v>
       </c>
       <c r="C86" t="n">
-        <v>0.137704</v>
+        <v>0.0364412</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0400877</v>
+        <v>0.0404806</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0367309</v>
+        <v>0.0359242</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.056655</v>
+        <v>0.057168</v>
       </c>
       <c r="C87" t="n">
-        <v>0.143051</v>
+        <v>0.0371914</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0412195</v>
+        <v>0.0414</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0372919</v>
+        <v>0.0366577</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0571958</v>
+        <v>0.0575907</v>
       </c>
       <c r="C88" t="n">
-        <v>0.149748</v>
+        <v>0.0378828</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0419461</v>
+        <v>0.0423384</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0386863</v>
+        <v>0.0385874</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.057884</v>
+        <v>0.0580689</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154568</v>
+        <v>0.0387589</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0430021</v>
+        <v>0.0433584</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0396944</v>
+        <v>0.0391941</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0582425</v>
+        <v>0.0587802</v>
       </c>
       <c r="C90" t="n">
-        <v>0.16029</v>
+        <v>0.0402324</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0442752</v>
+        <v>0.0447764</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0417616</v>
+        <v>0.0409914</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0592452</v>
+        <v>0.0600375</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166513</v>
+        <v>0.0424651</v>
       </c>
       <c r="D91" t="n">
-        <v>0.046052</v>
+        <v>0.0471407</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0440648</v>
+        <v>0.0440382</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0608211</v>
+        <v>0.0629787</v>
       </c>
       <c r="C92" t="n">
-        <v>0.145912</v>
+        <v>0.0456536</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0487434</v>
+        <v>0.0490592</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0474931</v>
+        <v>0.047087</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633513</v>
+        <v>0.06495629999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.149301</v>
+        <v>0.0495075</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0533016</v>
+        <v>0.0532637</v>
       </c>
       <c r="E93" t="n">
-        <v>0.052939</v>
+        <v>0.0525387</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06725390000000001</v>
+        <v>0.0682229</v>
       </c>
       <c r="C94" t="n">
-        <v>0.152309</v>
+        <v>0.0551415</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0713101</v>
+        <v>0.0712473</v>
       </c>
       <c r="E94" t="n">
-        <v>0.06786490000000001</v>
+        <v>0.0677714</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0858208</v>
+        <v>0.086019</v>
       </c>
       <c r="C95" t="n">
-        <v>0.157221</v>
+        <v>0.0711025</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07162789999999999</v>
+        <v>0.0722708</v>
       </c>
       <c r="E95" t="n">
-        <v>0.068254</v>
+        <v>0.06807870000000001</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08577170000000001</v>
+        <v>0.08646860000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160664</v>
+        <v>0.0712275</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0721873</v>
+        <v>0.0721962</v>
       </c>
       <c r="E96" t="n">
-        <v>0.06875249999999999</v>
+        <v>0.0686172</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08594590000000001</v>
+        <v>0.0860412</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166029</v>
+        <v>0.0714436</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0726131</v>
+        <v>0.07340480000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0691842</v>
+        <v>0.0696481</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08606900000000001</v>
+        <v>0.087531</v>
       </c>
       <c r="C98" t="n">
-        <v>0.170781</v>
+        <v>0.0724678</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0731451</v>
+        <v>0.07361040000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.06990540000000001</v>
+        <v>0.0696345</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08616749999999999</v>
+        <v>0.0863647</v>
       </c>
       <c r="C99" t="n">
-        <v>0.175608</v>
+        <v>0.0720227</v>
       </c>
       <c r="D99" t="n">
-        <v>0.073726</v>
+        <v>0.08370669999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.07045410000000001</v>
+        <v>0.07021289999999999</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08662789999999999</v>
+        <v>0.09372759999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.181033</v>
+        <v>0.0723538</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0743772</v>
+        <v>0.0744943</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0711215</v>
+        <v>0.0708346</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864133</v>
+        <v>0.0865099</v>
       </c>
       <c r="C101" t="n">
-        <v>0.186455</v>
+        <v>0.0731927</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0751235</v>
+        <v>0.07529669999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0718926</v>
+        <v>0.0716656</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.088181</v>
+        <v>0.08964469999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.192398</v>
+        <v>0.0734336</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0758935</v>
+        <v>0.07621120000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0728032</v>
+        <v>0.0725456</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0871123</v>
+        <v>0.0870634</v>
       </c>
       <c r="C103" t="n">
-        <v>0.199037</v>
+        <v>0.07424260000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07695730000000001</v>
+        <v>0.0772031</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07412000000000001</v>
+        <v>0.07376969999999999</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0876926</v>
+        <v>0.0876704</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203931</v>
+        <v>0.07943219999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07818170000000001</v>
+        <v>0.0785018</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07561420000000001</v>
+        <v>0.075237</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885166</v>
+        <v>0.0886058</v>
       </c>
       <c r="C105" t="n">
-        <v>0.210695</v>
+        <v>0.07710409999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0798373</v>
+        <v>0.0801187</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0777135</v>
+        <v>0.0773899</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897474</v>
+        <v>0.08986860000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.216678</v>
+        <v>0.0792781</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08226</v>
+        <v>0.0825234</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08079749999999999</v>
+        <v>0.0805893</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09172080000000001</v>
+        <v>0.09195490000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.181859</v>
+        <v>0.0828045</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0859181</v>
+        <v>0.08612</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0859578</v>
+        <v>0.08518530000000001</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0949308</v>
+        <v>0.0951072</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199868</v>
+        <v>0.08768869999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.08945119999999999</v>
+        <v>0.08849369999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0926965</v>
+        <v>0.0930324</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0997827</v>
+        <v>0.100104</v>
       </c>
       <c r="C109" t="n">
-        <v>0.193515</v>
+        <v>0.0950512</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0901479</v>
+        <v>0.08937779999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0931657</v>
+        <v>0.0936265</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.109009</v>
+        <v>0.107332</v>
       </c>
       <c r="C110" t="n">
-        <v>0.192797</v>
+        <v>0.09787360000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0909215</v>
+        <v>0.0900514</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09363</v>
+        <v>0.0941253</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.108902</v>
+        <v>0.107385</v>
       </c>
       <c r="C111" t="n">
-        <v>0.196994</v>
+        <v>0.09810049999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0917118</v>
+        <v>0.0909452</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0942807</v>
+        <v>0.0946254</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.109017</v>
+        <v>0.107431</v>
       </c>
       <c r="C112" t="n">
-        <v>0.201949</v>
+        <v>0.0985143</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09258719999999999</v>
+        <v>0.09187439999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0949342</v>
+        <v>0.0953437</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.109219</v>
+        <v>0.107474</v>
       </c>
       <c r="C113" t="n">
-        <v>0.206787</v>
+        <v>0.0986477</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09357890000000001</v>
+        <v>0.0927668</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0956124</v>
+        <v>0.09601709999999999</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.109295</v>
+        <v>0.107679</v>
       </c>
       <c r="C114" t="n">
-        <v>0.212581</v>
+        <v>0.0989046</v>
       </c>
       <c r="D114" t="n">
-        <v>0.09464</v>
+        <v>0.0937965</v>
       </c>
       <c r="E114" t="n">
-        <v>0.09643110000000001</v>
+        <v>0.0967944</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.109582</v>
+        <v>0.108124</v>
       </c>
       <c r="C115" t="n">
-        <v>0.217678</v>
+        <v>0.099443</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0957011</v>
+        <v>0.0948314</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0974578</v>
+        <v>0.09780709999999999</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109729</v>
+        <v>0.108743</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223918</v>
+        <v>0.100243</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0970447</v>
+        <v>0.096248</v>
       </c>
       <c r="E116" t="n">
-        <v>0.09865409999999999</v>
+        <v>0.09884080000000001</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.110229</v>
+        <v>0.109287</v>
       </c>
       <c r="C117" t="n">
-        <v>0.229518</v>
+        <v>0.106929</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0984414</v>
+        <v>0.0976978</v>
       </c>
       <c r="E117" t="n">
-        <v>0.099985</v>
+        <v>0.100303</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.110875</v>
+        <v>0.110228</v>
       </c>
       <c r="C118" t="n">
-        <v>0.23542</v>
+        <v>0.101881</v>
       </c>
       <c r="D118" t="n">
-        <v>0.101572</v>
+        <v>0.0991763</v>
       </c>
       <c r="E118" t="n">
-        <v>0.101915</v>
+        <v>0.101888</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111655</v>
+        <v>0.111141</v>
       </c>
       <c r="C119" t="n">
-        <v>0.241207</v>
+        <v>0.103491</v>
       </c>
       <c r="D119" t="n">
-        <v>0.102157</v>
+        <v>0.101201</v>
       </c>
       <c r="E119" t="n">
-        <v>0.10417</v>
+        <v>0.104264</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.112821</v>
+        <v>0.112813</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247384</v>
+        <v>0.105499</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104633</v>
+        <v>0.103783</v>
       </c>
       <c r="E120" t="n">
-        <v>0.107355</v>
+        <v>0.107799</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114619</v>
+        <v>0.114891</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199268</v>
+        <v>0.108635</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108505</v>
+        <v>0.107519</v>
       </c>
       <c r="E121" t="n">
-        <v>0.111855</v>
+        <v>0.111918</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.117464</v>
+        <v>0.117911</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202036</v>
+        <v>0.113214</v>
       </c>
       <c r="D122" t="n">
-        <v>0.114455</v>
+        <v>0.113412</v>
       </c>
       <c r="E122" t="n">
-        <v>0.119295</v>
+        <v>0.119223</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.122013</v>
+        <v>0.122658</v>
       </c>
       <c r="C123" t="n">
-        <v>0.205435</v>
+        <v>0.120078</v>
       </c>
       <c r="D123" t="n">
-        <v>0.107135</v>
+        <v>0.107345</v>
       </c>
       <c r="E123" t="n">
-        <v>0.111174</v>
+        <v>0.111818</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.139209</v>
+        <v>0.136416</v>
       </c>
       <c r="C124" t="n">
-        <v>0.209778</v>
+        <v>0.132747</v>
       </c>
       <c r="D124" t="n">
-        <v>0.10814</v>
+        <v>0.108317</v>
       </c>
       <c r="E124" t="n">
-        <v>0.113436</v>
+        <v>0.11241</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.139131</v>
+        <v>0.136442</v>
       </c>
       <c r="C125" t="n">
-        <v>0.213788</v>
+        <v>0.133016</v>
       </c>
       <c r="D125" t="n">
-        <v>0.109179</v>
+        <v>0.109385</v>
       </c>
       <c r="E125" t="n">
-        <v>0.112627</v>
+        <v>0.113214</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.139496</v>
+        <v>0.136396</v>
       </c>
       <c r="C126" t="n">
-        <v>0.218497</v>
+        <v>0.133195</v>
       </c>
       <c r="D126" t="n">
-        <v>0.110339</v>
+        <v>0.110536</v>
       </c>
       <c r="E126" t="n">
-        <v>0.113487</v>
+        <v>0.114002</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.139621</v>
+        <v>0.136641</v>
       </c>
       <c r="C127" t="n">
-        <v>0.22327</v>
+        <v>0.133539</v>
       </c>
       <c r="D127" t="n">
-        <v>0.111555</v>
+        <v>0.111766</v>
       </c>
       <c r="E127" t="n">
-        <v>0.114491</v>
+        <v>0.114927</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.13995</v>
+        <v>0.13664</v>
       </c>
       <c r="C128" t="n">
-        <v>0.228488</v>
+        <v>0.133704</v>
       </c>
       <c r="D128" t="n">
-        <v>0.117399</v>
+        <v>0.113018</v>
       </c>
       <c r="E128" t="n">
-        <v>0.116157</v>
+        <v>0.11584</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14025</v>
+        <v>0.136807</v>
       </c>
       <c r="C129" t="n">
-        <v>0.234375</v>
+        <v>0.134395</v>
       </c>
       <c r="D129" t="n">
-        <v>0.11438</v>
+        <v>0.114348</v>
       </c>
       <c r="E129" t="n">
-        <v>0.116856</v>
+        <v>0.116933</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.140479</v>
+        <v>0.137046</v>
       </c>
       <c r="C130" t="n">
-        <v>0.240447</v>
+        <v>0.134963</v>
       </c>
       <c r="D130" t="n">
-        <v>0.115714</v>
+        <v>0.115755</v>
       </c>
       <c r="E130" t="n">
-        <v>0.118562</v>
+        <v>0.118433</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142087</v>
+        <v>0.137382</v>
       </c>
       <c r="C131" t="n">
-        <v>0.24599</v>
+        <v>0.135609</v>
       </c>
       <c r="D131" t="n">
-        <v>0.117191</v>
+        <v>0.117647</v>
       </c>
       <c r="E131" t="n">
-        <v>0.120523</v>
+        <v>0.12066</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.141701</v>
+        <v>0.137754</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251978</v>
+        <v>0.138202</v>
       </c>
       <c r="D132" t="n">
-        <v>0.11914</v>
+        <v>0.119255</v>
       </c>
       <c r="E132" t="n">
-        <v>0.121962</v>
+        <v>0.122066</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142135</v>
+        <v>0.138418</v>
       </c>
       <c r="C133" t="n">
-        <v>0.257944</v>
+        <v>0.1378</v>
       </c>
       <c r="D133" t="n">
-        <v>0.121337</v>
+        <v>0.121449</v>
       </c>
       <c r="E133" t="n">
-        <v>0.124397</v>
+        <v>0.124572</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.143369</v>
+        <v>0.139491</v>
       </c>
       <c r="C134" t="n">
-        <v>0.268641</v>
+        <v>0.139608</v>
       </c>
       <c r="D134" t="n">
-        <v>0.127893</v>
+        <v>0.12435</v>
       </c>
       <c r="E134" t="n">
-        <v>0.127842</v>
+        <v>0.14771</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.14492</v>
+        <v>0.141624</v>
       </c>
       <c r="C135" t="n">
-        <v>0.209616</v>
+        <v>0.142163</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128374</v>
+        <v>0.128477</v>
       </c>
       <c r="E135" t="n">
-        <v>0.14034</v>
+        <v>0.132677</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.147621</v>
+        <v>0.144006</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212749</v>
+        <v>0.146476</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134621</v>
+        <v>0.134732</v>
       </c>
       <c r="E136" t="n">
-        <v>0.13989</v>
+        <v>0.140062</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.151632</v>
+        <v>0.14825</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216194</v>
+        <v>0.152386</v>
       </c>
       <c r="D137" t="n">
-        <v>0.118436</v>
+        <v>0.118408</v>
       </c>
       <c r="E137" t="n">
-        <v>0.123322</v>
+        <v>0.124812</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157728</v>
+        <v>0.158747</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220147</v>
+        <v>0.152223</v>
       </c>
       <c r="D138" t="n">
-        <v>0.119542</v>
+        <v>0.119593</v>
       </c>
       <c r="E138" t="n">
-        <v>0.124097</v>
+        <v>0.123972</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157774</v>
+        <v>0.157844</v>
       </c>
       <c r="C139" t="n">
-        <v>0.224171</v>
+        <v>0.15126</v>
       </c>
       <c r="D139" t="n">
-        <v>0.120555</v>
+        <v>0.121094</v>
       </c>
       <c r="E139" t="n">
-        <v>0.124887</v>
+        <v>0.124109</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157822</v>
+        <v>0.157764</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229194</v>
+        <v>0.151677</v>
       </c>
       <c r="D140" t="n">
-        <v>0.124935</v>
+        <v>0.121419</v>
       </c>
       <c r="E140" t="n">
-        <v>0.126237</v>
+        <v>0.125021</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158086</v>
+        <v>0.157739</v>
       </c>
       <c r="C141" t="n">
-        <v>0.234298</v>
+        <v>0.161246</v>
       </c>
       <c r="D141" t="n">
-        <v>0.12278</v>
+        <v>0.122794</v>
       </c>
       <c r="E141" t="n">
-        <v>0.12706</v>
+        <v>0.126079</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158035</v>
+        <v>0.158218</v>
       </c>
       <c r="C142" t="n">
-        <v>0.239466</v>
+        <v>0.152051</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123993</v>
+        <v>0.130243</v>
       </c>
       <c r="E142" t="n">
-        <v>0.127951</v>
+        <v>0.127805</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178791</v>
+        <v>0.158222</v>
       </c>
       <c r="C143" t="n">
-        <v>0.245367</v>
+        <v>0.152701</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125349</v>
+        <v>0.126079</v>
       </c>
       <c r="E143" t="n">
-        <v>0.129431</v>
+        <v>0.128535</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194751</v>
+        <v>0.0194242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0365145</v>
+        <v>0.0363377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0196261</v>
+        <v>0.0196181</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0206785</v>
+        <v>0.0209333</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0195629</v>
+        <v>0.01945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0396988</v>
+        <v>0.0400658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0197912</v>
+        <v>0.0197031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0207813</v>
+        <v>0.0209996</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.019489</v>
+        <v>0.0194675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0447642</v>
+        <v>0.0451705</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0198901</v>
+        <v>0.0198519</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0208833</v>
+        <v>0.0209436</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0195779</v>
+        <v>0.0194656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0498033</v>
+        <v>0.0492122</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0199582</v>
+        <v>0.0199499</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0207783</v>
+        <v>0.0207881</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196134</v>
+        <v>0.019543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0537687</v>
+        <v>0.0533577</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0201314</v>
+        <v>0.0200831</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0207749</v>
+        <v>0.0208329</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0197913</v>
+        <v>0.0196728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0315887</v>
+        <v>0.031868</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0201829</v>
+        <v>0.0202395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.020897</v>
+        <v>0.0211468</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0199155</v>
+        <v>0.0197087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0336489</v>
+        <v>0.0336791</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0207955</v>
+        <v>0.0206728</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0212215</v>
+        <v>0.0212846</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0201101</v>
+        <v>0.0203573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0356574</v>
+        <v>0.0359951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0194471</v>
+        <v>0.0194771</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0216661</v>
+        <v>0.0216267</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0196084</v>
+        <v>0.01936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0376125</v>
+        <v>0.0385253</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0195449</v>
+        <v>0.0197482</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0216931</v>
+        <v>0.0217134</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195614</v>
+        <v>0.0193348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0405804</v>
+        <v>0.0409065</v>
       </c>
       <c r="D11" t="n">
-        <v>0.019867</v>
+        <v>0.0199054</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0219577</v>
+        <v>0.0222871</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196347</v>
+        <v>0.0196678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0447308</v>
+        <v>0.04369</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0201596</v>
+        <v>0.0200462</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0219969</v>
+        <v>0.0223947</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198925</v>
+        <v>0.0197287</v>
       </c>
       <c r="C13" t="n">
-        <v>0.047286</v>
+        <v>0.0479441</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0201363</v>
+        <v>0.0202772</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0221826</v>
+        <v>0.0224426</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0200039</v>
+        <v>0.0198791</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0503759</v>
+        <v>0.0511147</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205715</v>
+        <v>0.0205083</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0225411</v>
+        <v>0.0224859</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201837</v>
+        <v>0.0200341</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0539423</v>
+        <v>0.0547322</v>
       </c>
       <c r="D15" t="n">
-        <v>0.021072</v>
+        <v>0.0207285</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0228079</v>
+        <v>0.0225687</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200675</v>
+        <v>0.0200613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0578276</v>
+        <v>0.0577366</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0210413</v>
+        <v>0.020898</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0227173</v>
+        <v>0.0227808</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0201647</v>
+        <v>0.0201739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0614582</v>
+        <v>0.0618935</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0212453</v>
+        <v>0.0212369</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0227772</v>
+        <v>0.0228962</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202739</v>
+        <v>0.0202318</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0653006</v>
+        <v>0.0644112</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0213354</v>
+        <v>0.0214287</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0230473</v>
+        <v>0.0231955</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0202086</v>
+        <v>0.020334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0680994</v>
+        <v>0.06822739999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0214148</v>
+        <v>0.0214078</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0229634</v>
+        <v>0.0231275</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0205069</v>
+        <v>0.0202956</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0704849</v>
+        <v>0.0714921</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0218501</v>
+        <v>0.0218846</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0230157</v>
+        <v>0.0231902</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0207083</v>
+        <v>0.0205833</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0446121</v>
+        <v>0.0452621</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0224228</v>
+        <v>0.022418</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0234205</v>
+        <v>0.0231822</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0211543</v>
+        <v>0.0211938</v>
       </c>
       <c r="C22" t="n">
-        <v>0.047444</v>
+        <v>0.0473155</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0237556</v>
+        <v>0.0244486</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0244919</v>
+        <v>0.0247384</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0230484</v>
+        <v>0.0235507</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0493842</v>
+        <v>0.0492342</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0210571</v>
+        <v>0.0210371</v>
       </c>
       <c r="E23" t="n">
-        <v>0.023336</v>
+        <v>0.0235363</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0206813</v>
+        <v>0.0204568</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0514984</v>
+        <v>0.0516879</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0212586</v>
+        <v>0.0212103</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0235586</v>
+        <v>0.0235287</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0207405</v>
+        <v>0.0205013</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0543429</v>
+        <v>0.0538296</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0214644</v>
+        <v>0.0214381</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0238225</v>
+        <v>0.0238294</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207665</v>
+        <v>0.0207505</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0563413</v>
+        <v>0.056887</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0215637</v>
+        <v>0.0216423</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0237382</v>
+        <v>0.0238767</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209769</v>
+        <v>0.0209202</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0616033</v>
+        <v>0.0593677</v>
       </c>
       <c r="D27" t="n">
-        <v>0.021764</v>
+        <v>0.0218481</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0238801</v>
+        <v>0.0240711</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.021056</v>
+        <v>0.020955</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0643247</v>
+        <v>0.0620521</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0221105</v>
+        <v>0.0220933</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0241333</v>
+        <v>0.0241746</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0212252</v>
+        <v>0.0210213</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0662176</v>
+        <v>0.0661805</v>
       </c>
       <c r="D29" t="n">
-        <v>0.022421</v>
+        <v>0.0224339</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0244564</v>
+        <v>0.02445</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213505</v>
+        <v>0.021196</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0698588</v>
+        <v>0.0689814</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0226251</v>
+        <v>0.0226869</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0245499</v>
+        <v>0.0246085</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215039</v>
+        <v>0.0212852</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07215820000000001</v>
+        <v>0.0717515</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0229748</v>
+        <v>0.0229443</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0247842</v>
+        <v>0.0249107</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0217981</v>
+        <v>0.0215169</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0748846</v>
+        <v>0.0750521</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02343</v>
+        <v>0.0234278</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0251216</v>
+        <v>0.0251584</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221214</v>
+        <v>0.0220136</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0769565</v>
+        <v>0.0777202</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0239333</v>
+        <v>0.0238143</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0254613</v>
+        <v>0.0255274</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.023275</v>
+        <v>0.0226701</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0791249</v>
+        <v>0.0798715</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0247176</v>
+        <v>0.0245804</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0260233</v>
+        <v>0.0259559</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0250124</v>
+        <v>0.0255378</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0519505</v>
+        <v>0.0520281</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0263657</v>
+        <v>0.026161</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0270699</v>
+        <v>0.0271602</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0266118</v>
+        <v>0.02835</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0537373</v>
+        <v>0.0540639</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0292434</v>
+        <v>0.0299368</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0306774</v>
+        <v>0.0309544</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0311996</v>
+        <v>0.0314601</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0560572</v>
+        <v>0.0557253</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0221968</v>
+        <v>0.0222077</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0245451</v>
+        <v>0.0245437</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216211</v>
+        <v>0.0216736</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0580173</v>
+        <v>0.057791</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0224122</v>
+        <v>0.0224458</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0247372</v>
+        <v>0.0247251</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0218931</v>
+        <v>0.0216486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0596857</v>
+        <v>0.0597931</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0226233</v>
+        <v>0.0226182</v>
       </c>
       <c r="E39" t="n">
-        <v>0.024937</v>
+        <v>0.0249092</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219329</v>
+        <v>0.0218132</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0624772</v>
+        <v>0.0620291</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0229104</v>
+        <v>0.0229737</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0252111</v>
+        <v>0.0251335</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0221215</v>
+        <v>0.0220243</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06461600000000001</v>
+        <v>0.0647942</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0231873</v>
+        <v>0.023222</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0253094</v>
+        <v>0.0253525</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222904</v>
+        <v>0.0222177</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0672449</v>
+        <v>0.06654309999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0235225</v>
+        <v>0.0235663</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0255793</v>
+        <v>0.0256042</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224773</v>
+        <v>0.0224362</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06969930000000001</v>
+        <v>0.06991459999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0245394</v>
+        <v>0.0239203</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0257865</v>
+        <v>0.0258225</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0228221</v>
+        <v>0.0224689</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07249079999999999</v>
+        <v>0.07248690000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0242028</v>
+        <v>0.0241912</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0260194</v>
+        <v>0.0260887</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230365</v>
+        <v>0.0228362</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07484499999999999</v>
+        <v>0.0748892</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0246188</v>
+        <v>0.0246449</v>
       </c>
       <c r="E45" t="n">
-        <v>0.026382</v>
+        <v>0.0264295</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0235124</v>
+        <v>0.0231276</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0778189</v>
+        <v>0.0777598</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0255792</v>
+        <v>0.0251837</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0268562</v>
+        <v>0.0268017</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02408</v>
+        <v>0.0241271</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0800609</v>
+        <v>0.0803715</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0258658</v>
+        <v>0.0258836</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0274538</v>
+        <v>0.0274902</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025044</v>
+        <v>0.0255541</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0823764</v>
+        <v>0.08295</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0269256</v>
+        <v>0.0271096</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0286629</v>
+        <v>0.0286161</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0279553</v>
+        <v>0.0269993</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0844506</v>
+        <v>0.0841943</v>
       </c>
       <c r="D49" t="n">
-        <v>0.029475</v>
+        <v>0.0291837</v>
       </c>
       <c r="E49" t="n">
-        <v>0.030666</v>
+        <v>0.0306273</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0304389</v>
+        <v>0.0296996</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0578649</v>
+        <v>0.0575539</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0328029</v>
+        <v>0.032606</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0341753</v>
+        <v>0.0342042</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0353825</v>
+        <v>0.0332501</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0591875</v>
+        <v>0.0592092</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0229759</v>
+        <v>0.0229976</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0248564</v>
+        <v>0.0249192</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0392081</v>
+        <v>0.0391689</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0615245</v>
+        <v>0.061163</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0231768</v>
+        <v>0.0231931</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0250656</v>
+        <v>0.0250867</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0230524</v>
+        <v>0.0231485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0639034</v>
+        <v>0.0633263</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0234395</v>
+        <v>0.0234577</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0253725</v>
+        <v>0.0252751</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0234244</v>
+        <v>0.0233757</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0656783</v>
+        <v>0.0657611</v>
       </c>
       <c r="D54" t="n">
-        <v>0.023729</v>
+        <v>0.0237453</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0256172</v>
+        <v>0.0256504</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234108</v>
+        <v>0.0235412</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0679548</v>
+        <v>0.0683909</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0240074</v>
+        <v>0.0240557</v>
       </c>
       <c r="E55" t="n">
-        <v>0.025785</v>
+        <v>0.0258682</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239286</v>
+        <v>0.0236512</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0705563</v>
+        <v>0.07105599999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.024327</v>
+        <v>0.0243679</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0260479</v>
+        <v>0.0262019</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240818</v>
+        <v>0.0240773</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0733139</v>
+        <v>0.07337009999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0247229</v>
+        <v>0.024845</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0265271</v>
+        <v>0.0264596</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024439</v>
+        <v>0.0242014</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0760695</v>
+        <v>0.0763417</v>
       </c>
       <c r="D58" t="n">
-        <v>0.025276</v>
+        <v>0.0252257</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0269807</v>
+        <v>0.0270265</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0247787</v>
+        <v>0.0245279</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07903490000000001</v>
+        <v>0.07819950000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0257848</v>
+        <v>0.0257473</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0273609</v>
+        <v>0.0273747</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252449</v>
+        <v>0.0254877</v>
       </c>
       <c r="C60" t="n">
-        <v>0.080972</v>
+        <v>0.08058940000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0264266</v>
+        <v>0.0264405</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0280786</v>
+        <v>0.027999</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0265282</v>
+        <v>0.0261006</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08393299999999999</v>
+        <v>0.08360910000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0273739</v>
+        <v>0.0274206</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0290054</v>
+        <v>0.0291374</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274839</v>
+        <v>0.0274529</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08583780000000001</v>
+        <v>0.0858816</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0289127</v>
+        <v>0.0289108</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0305336</v>
+        <v>0.0304843</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0294202</v>
+        <v>0.0291631</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08868760000000001</v>
+        <v>0.0884075</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0313813</v>
+        <v>0.0312626</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0329544</v>
+        <v>0.0329581</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.032256</v>
+        <v>0.0320753</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0634653</v>
+        <v>0.06413190000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0347866</v>
+        <v>0.0350119</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0362898</v>
+        <v>0.0363838</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035998</v>
+        <v>0.0361661</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0660341</v>
+        <v>0.0659236</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0405541</v>
+        <v>0.0401872</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0419218</v>
+        <v>0.0420925</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410284</v>
+        <v>0.0409467</v>
       </c>
       <c r="C66" t="n">
-        <v>0.068684</v>
+        <v>0.0686813</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0251501</v>
+        <v>0.0247282</v>
       </c>
       <c r="E66" t="n">
-        <v>0.026637</v>
+        <v>0.0265822</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0292854</v>
+        <v>0.0271458</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0716908</v>
+        <v>0.0719849</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0254762</v>
+        <v>0.0255039</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0267861</v>
+        <v>0.0267392</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0293731</v>
+        <v>0.0275943</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0754389</v>
+        <v>0.0760199</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0257275</v>
+        <v>0.0249875</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0277745</v>
+        <v>0.0271264</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0295223</v>
+        <v>0.0278422</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0780781</v>
+        <v>0.07902960000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0260131</v>
+        <v>0.0259092</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0273026</v>
+        <v>0.0274377</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0297504</v>
+        <v>0.0278587</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08159859999999999</v>
+        <v>0.08251699999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0263866</v>
+        <v>0.026446</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0277491</v>
+        <v>0.0280299</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0300985</v>
+        <v>0.0283114</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0866746</v>
+        <v>0.0865399</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0261122</v>
+        <v>0.0268313</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0281135</v>
+        <v>0.0281364</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302054</v>
+        <v>0.0284586</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0889358</v>
+        <v>0.0896382</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0272077</v>
+        <v>0.0271106</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0285725</v>
+        <v>0.0287343</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.030751</v>
+        <v>0.028923</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0945853</v>
+        <v>0.0951174</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0281149</v>
+        <v>0.0277761</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0291539</v>
+        <v>0.0293169</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0311922</v>
+        <v>0.0296095</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0982999</v>
+        <v>0.0985057</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0283556</v>
+        <v>0.0279985</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0301281</v>
+        <v>0.0301614</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0320559</v>
+        <v>0.0304074</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102978</v>
+        <v>0.104272</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0292696</v>
+        <v>0.0291062</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0315789</v>
+        <v>0.0313703</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0331467</v>
+        <v>0.0317843</v>
       </c>
       <c r="C76" t="n">
-        <v>0.106901</v>
+        <v>0.10762</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0306653</v>
+        <v>0.0307999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.032797</v>
+        <v>0.0330147</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0348991</v>
+        <v>0.033521</v>
       </c>
       <c r="C77" t="n">
-        <v>0.112317</v>
+        <v>0.112892</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0333493</v>
+        <v>0.0332593</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0350439</v>
+        <v>0.0352525</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0373412</v>
+        <v>0.0358711</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09733840000000001</v>
+        <v>0.097745</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0363328</v>
+        <v>0.0361119</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0383708</v>
+        <v>0.0384251</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0409062</v>
+        <v>0.039335</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101335</v>
+        <v>0.101943</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0412171</v>
+        <v>0.0409649</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0434181</v>
+        <v>0.0434829</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0457293</v>
+        <v>0.0439678</v>
       </c>
       <c r="C80" t="n">
-        <v>0.105975</v>
+        <v>0.106488</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0356659</v>
+        <v>0.0354549</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0335094</v>
+        <v>0.0329608</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0555257</v>
+        <v>0.0563756</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110132</v>
+        <v>0.110773</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0363526</v>
+        <v>0.0362851</v>
       </c>
       <c r="E81" t="n">
-        <v>0.033843</v>
+        <v>0.0333052</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0577904</v>
+        <v>0.0557485</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115172</v>
+        <v>0.115756</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0371667</v>
+        <v>0.0369048</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0344867</v>
+        <v>0.0337015</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.055792</v>
+        <v>0.0559839</v>
       </c>
       <c r="C83" t="n">
-        <v>0.121209</v>
+        <v>0.120898</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0379171</v>
+        <v>0.0377089</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0348016</v>
+        <v>0.0341852</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0560207</v>
+        <v>0.0566877</v>
       </c>
       <c r="C84" t="n">
-        <v>0.126205</v>
+        <v>0.126474</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0386585</v>
+        <v>0.0385314</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0352056</v>
+        <v>0.0348961</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0561087</v>
+        <v>0.0562573</v>
       </c>
       <c r="C85" t="n">
-        <v>0.131141</v>
+        <v>0.132013</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0393656</v>
+        <v>0.0393113</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0360305</v>
+        <v>0.0352441</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0563414</v>
+        <v>0.0570162</v>
       </c>
       <c r="C86" t="n">
-        <v>0.137704</v>
+        <v>0.137781</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0400877</v>
+        <v>0.0401419</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0367309</v>
+        <v>0.0358055</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.056655</v>
+        <v>0.0567071</v>
       </c>
       <c r="C87" t="n">
-        <v>0.143051</v>
+        <v>0.142879</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0412195</v>
+        <v>0.0407677</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0372919</v>
+        <v>0.0367588</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0571958</v>
+        <v>0.0570539</v>
       </c>
       <c r="C88" t="n">
-        <v>0.149748</v>
+        <v>0.148961</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0419461</v>
+        <v>0.0418403</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0386863</v>
+        <v>0.0378189</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.057884</v>
+        <v>0.0575295</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154568</v>
+        <v>0.154915</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0430021</v>
+        <v>0.0427515</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0396944</v>
+        <v>0.0390894</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0582425</v>
+        <v>0.0591686</v>
       </c>
       <c r="C90" t="n">
-        <v>0.16029</v>
+        <v>0.161137</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0442752</v>
+        <v>0.0441228</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0417616</v>
+        <v>0.0409499</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0592452</v>
+        <v>0.0592127</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166513</v>
+        <v>0.166044</v>
       </c>
       <c r="D91" t="n">
-        <v>0.046052</v>
+        <v>0.04605</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0440648</v>
+        <v>0.0434057</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0608211</v>
+        <v>0.06079</v>
       </c>
       <c r="C92" t="n">
-        <v>0.145912</v>
+        <v>0.146478</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0487434</v>
+        <v>0.0486976</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0474931</v>
+        <v>0.0468821</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633513</v>
+        <v>0.06362230000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.149301</v>
+        <v>0.150061</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0533016</v>
+        <v>0.0529756</v>
       </c>
       <c r="E93" t="n">
-        <v>0.052939</v>
+        <v>0.052439</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06725390000000001</v>
+        <v>0.06724280000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.152309</v>
+        <v>0.153396</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0713101</v>
+        <v>0.0715064</v>
       </c>
       <c r="E94" t="n">
-        <v>0.06786490000000001</v>
+        <v>0.0678792</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0858208</v>
+        <v>0.08593480000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.157221</v>
+        <v>0.156851</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07162789999999999</v>
+        <v>0.0719187</v>
       </c>
       <c r="E95" t="n">
-        <v>0.068254</v>
+        <v>0.0683391</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08577170000000001</v>
+        <v>0.08673160000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160664</v>
+        <v>0.162121</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0721873</v>
+        <v>0.07235419999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.06875249999999999</v>
+        <v>0.0688155</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08594590000000001</v>
+        <v>0.08595709999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166029</v>
+        <v>0.166779</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0726131</v>
+        <v>0.07287970000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0691842</v>
+        <v>0.06931619999999999</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08606900000000001</v>
+        <v>0.0859856</v>
       </c>
       <c r="C98" t="n">
-        <v>0.170781</v>
+        <v>0.171494</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0731451</v>
+        <v>0.0733919</v>
       </c>
       <c r="E98" t="n">
-        <v>0.06990540000000001</v>
+        <v>0.0703495</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08616749999999999</v>
+        <v>0.08607190000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.175608</v>
+        <v>0.1766</v>
       </c>
       <c r="D99" t="n">
-        <v>0.073726</v>
+        <v>0.0740199</v>
       </c>
       <c r="E99" t="n">
-        <v>0.07045410000000001</v>
+        <v>0.0704699</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08662789999999999</v>
+        <v>0.0862216</v>
       </c>
       <c r="C100" t="n">
-        <v>0.181033</v>
+        <v>0.182258</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0743772</v>
+        <v>0.0747099</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0711215</v>
+        <v>0.07332569999999999</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864133</v>
+        <v>0.0866309</v>
       </c>
       <c r="C101" t="n">
-        <v>0.186455</v>
+        <v>0.186565</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0751235</v>
+        <v>0.0753255</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0718926</v>
+        <v>0.0719745</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.088181</v>
+        <v>0.0867433</v>
       </c>
       <c r="C102" t="n">
-        <v>0.192398</v>
+        <v>0.19327</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0758935</v>
+        <v>0.0762516</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0728032</v>
+        <v>0.07296370000000001</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0871123</v>
+        <v>0.0872648</v>
       </c>
       <c r="C103" t="n">
-        <v>0.199037</v>
+        <v>0.199223</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07695730000000001</v>
+        <v>0.0772611</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07412000000000001</v>
+        <v>0.07412290000000001</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0876926</v>
+        <v>0.08780490000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.203931</v>
+        <v>0.204742</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07818170000000001</v>
+        <v>0.0785308</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07561420000000001</v>
+        <v>0.0757143</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885166</v>
+        <v>0.0886834</v>
       </c>
       <c r="C105" t="n">
-        <v>0.210695</v>
+        <v>0.210894</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0798373</v>
+        <v>0.08022990000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0777135</v>
+        <v>0.0777106</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897474</v>
+        <v>0.09027839999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.216678</v>
+        <v>0.217231</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08226</v>
+        <v>0.08324289999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08079749999999999</v>
+        <v>0.0808594</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09172080000000001</v>
+        <v>0.0919582</v>
       </c>
       <c r="C107" t="n">
-        <v>0.181859</v>
+        <v>0.182332</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0859181</v>
+        <v>0.0863333</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0859578</v>
+        <v>0.0854704</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0949308</v>
+        <v>0.0951347</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199868</v>
+        <v>0.18694</v>
       </c>
       <c r="D108" t="n">
-        <v>0.08945119999999999</v>
+        <v>0.089002</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0926965</v>
+        <v>0.0933577</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0997827</v>
+        <v>0.100399</v>
       </c>
       <c r="C109" t="n">
-        <v>0.193515</v>
+        <v>0.191138</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0901479</v>
+        <v>0.0897073</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0931657</v>
+        <v>0.0940042</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.109009</v>
+        <v>0.107783</v>
       </c>
       <c r="C110" t="n">
-        <v>0.192797</v>
+        <v>0.193909</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0909215</v>
+        <v>0.0905977</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09363</v>
+        <v>0.0946288</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.108902</v>
+        <v>0.107651</v>
       </c>
       <c r="C111" t="n">
-        <v>0.196994</v>
+        <v>0.199295</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0917118</v>
+        <v>0.0914208</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0942807</v>
+        <v>0.0951507</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.109017</v>
+        <v>0.107834</v>
       </c>
       <c r="C112" t="n">
-        <v>0.201949</v>
+        <v>0.203894</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09258719999999999</v>
+        <v>0.0923107</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0949342</v>
+        <v>0.0956897</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.109219</v>
+        <v>0.108146</v>
       </c>
       <c r="C113" t="n">
-        <v>0.206787</v>
+        <v>0.208145</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09357890000000001</v>
+        <v>0.09334240000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0956124</v>
+        <v>0.09652769999999999</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.109295</v>
+        <v>0.108816</v>
       </c>
       <c r="C114" t="n">
-        <v>0.212581</v>
+        <v>0.213133</v>
       </c>
       <c r="D114" t="n">
-        <v>0.09464</v>
+        <v>0.0943179</v>
       </c>
       <c r="E114" t="n">
-        <v>0.09643110000000001</v>
+        <v>0.0973127</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.109582</v>
+        <v>0.108472</v>
       </c>
       <c r="C115" t="n">
-        <v>0.217678</v>
+        <v>0.219073</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0957011</v>
+        <v>0.0953485</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0974578</v>
+        <v>0.0981591</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109729</v>
+        <v>0.109107</v>
       </c>
       <c r="C116" t="n">
-        <v>0.223918</v>
+        <v>0.225257</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0970447</v>
+        <v>0.09663869999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.09865409999999999</v>
+        <v>0.09939050000000001</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.110229</v>
+        <v>0.109723</v>
       </c>
       <c r="C117" t="n">
-        <v>0.229518</v>
+        <v>0.231256</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0984414</v>
+        <v>0.0981359</v>
       </c>
       <c r="E117" t="n">
-        <v>0.099985</v>
+        <v>0.100701</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.110875</v>
+        <v>0.11067</v>
       </c>
       <c r="C118" t="n">
-        <v>0.23542</v>
+        <v>0.237075</v>
       </c>
       <c r="D118" t="n">
-        <v>0.101572</v>
+        <v>0.0997164</v>
       </c>
       <c r="E118" t="n">
-        <v>0.101915</v>
+        <v>0.102425</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111655</v>
+        <v>0.111609</v>
       </c>
       <c r="C119" t="n">
-        <v>0.241207</v>
+        <v>0.243196</v>
       </c>
       <c r="D119" t="n">
-        <v>0.102157</v>
+        <v>0.101683</v>
       </c>
       <c r="E119" t="n">
-        <v>0.10417</v>
+        <v>0.10462</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.112821</v>
+        <v>0.113073</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247384</v>
+        <v>0.248839</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104633</v>
+        <v>0.104257</v>
       </c>
       <c r="E120" t="n">
-        <v>0.107355</v>
+        <v>0.107765</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114619</v>
+        <v>0.115654</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199268</v>
+        <v>0.199826</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108505</v>
+        <v>0.108031</v>
       </c>
       <c r="E121" t="n">
-        <v>0.111855</v>
+        <v>0.112485</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.117464</v>
+        <v>0.118315</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202036</v>
+        <v>0.203294</v>
       </c>
       <c r="D122" t="n">
-        <v>0.114455</v>
+        <v>0.11412</v>
       </c>
       <c r="E122" t="n">
-        <v>0.119295</v>
+        <v>0.119587</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.122013</v>
+        <v>0.122879</v>
       </c>
       <c r="C123" t="n">
-        <v>0.205435</v>
+        <v>0.206204</v>
       </c>
       <c r="D123" t="n">
-        <v>0.107135</v>
+        <v>0.107816</v>
       </c>
       <c r="E123" t="n">
-        <v>0.111174</v>
+        <v>0.11649</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.139209</v>
+        <v>0.134683</v>
       </c>
       <c r="C124" t="n">
-        <v>0.209778</v>
+        <v>0.210521</v>
       </c>
       <c r="D124" t="n">
-        <v>0.10814</v>
+        <v>0.108821</v>
       </c>
       <c r="E124" t="n">
-        <v>0.113436</v>
+        <v>0.112043</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.139131</v>
+        <v>0.13499</v>
       </c>
       <c r="C125" t="n">
-        <v>0.213788</v>
+        <v>0.214603</v>
       </c>
       <c r="D125" t="n">
-        <v>0.109179</v>
+        <v>0.109867</v>
       </c>
       <c r="E125" t="n">
-        <v>0.112627</v>
+        <v>0.112617</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.139496</v>
+        <v>0.135123</v>
       </c>
       <c r="C126" t="n">
-        <v>0.218497</v>
+        <v>0.21888</v>
       </c>
       <c r="D126" t="n">
-        <v>0.110339</v>
+        <v>0.111154</v>
       </c>
       <c r="E126" t="n">
-        <v>0.113487</v>
+        <v>0.113391</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.139621</v>
+        <v>0.13528</v>
       </c>
       <c r="C127" t="n">
-        <v>0.22327</v>
+        <v>0.224198</v>
       </c>
       <c r="D127" t="n">
-        <v>0.111555</v>
+        <v>0.112216</v>
       </c>
       <c r="E127" t="n">
-        <v>0.114491</v>
+        <v>0.114164</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.13995</v>
+        <v>0.135216</v>
       </c>
       <c r="C128" t="n">
-        <v>0.228488</v>
+        <v>0.230021</v>
       </c>
       <c r="D128" t="n">
-        <v>0.117399</v>
+        <v>0.113446</v>
       </c>
       <c r="E128" t="n">
-        <v>0.116157</v>
+        <v>0.115162</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14025</v>
+        <v>0.135367</v>
       </c>
       <c r="C129" t="n">
-        <v>0.234375</v>
+        <v>0.235792</v>
       </c>
       <c r="D129" t="n">
-        <v>0.11438</v>
+        <v>0.114905</v>
       </c>
       <c r="E129" t="n">
-        <v>0.116856</v>
+        <v>0.116826</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.140479</v>
+        <v>0.135514</v>
       </c>
       <c r="C130" t="n">
-        <v>0.240447</v>
+        <v>0.241136</v>
       </c>
       <c r="D130" t="n">
-        <v>0.115714</v>
+        <v>0.116311</v>
       </c>
       <c r="E130" t="n">
-        <v>0.118562</v>
+        <v>0.117598</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142087</v>
+        <v>0.135977</v>
       </c>
       <c r="C131" t="n">
-        <v>0.24599</v>
+        <v>0.247492</v>
       </c>
       <c r="D131" t="n">
-        <v>0.117191</v>
+        <v>0.117909</v>
       </c>
       <c r="E131" t="n">
-        <v>0.120523</v>
+        <v>0.119205</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.141701</v>
+        <v>0.136178</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251978</v>
+        <v>0.253123</v>
       </c>
       <c r="D132" t="n">
-        <v>0.11914</v>
+        <v>0.119726</v>
       </c>
       <c r="E132" t="n">
-        <v>0.121962</v>
+        <v>0.121113</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142135</v>
+        <v>0.137478</v>
       </c>
       <c r="C133" t="n">
-        <v>0.257944</v>
+        <v>0.259099</v>
       </c>
       <c r="D133" t="n">
-        <v>0.121337</v>
+        <v>0.122003</v>
       </c>
       <c r="E133" t="n">
-        <v>0.124397</v>
+        <v>0.12357</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.143369</v>
+        <v>0.13829</v>
       </c>
       <c r="C134" t="n">
-        <v>0.268641</v>
+        <v>0.265206</v>
       </c>
       <c r="D134" t="n">
-        <v>0.127893</v>
+        <v>0.124958</v>
       </c>
       <c r="E134" t="n">
-        <v>0.127842</v>
+        <v>0.127099</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.14492</v>
+        <v>0.139651</v>
       </c>
       <c r="C135" t="n">
-        <v>0.209616</v>
+        <v>0.210997</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128374</v>
+        <v>0.128883</v>
       </c>
       <c r="E135" t="n">
-        <v>0.14034</v>
+        <v>0.131809</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.147621</v>
+        <v>0.142378</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212749</v>
+        <v>0.213916</v>
       </c>
       <c r="D136" t="n">
-        <v>0.134621</v>
+        <v>0.135123</v>
       </c>
       <c r="E136" t="n">
-        <v>0.13989</v>
+        <v>0.139224</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.151632</v>
+        <v>0.146488</v>
       </c>
       <c r="C137" t="n">
-        <v>0.216194</v>
+        <v>0.217706</v>
       </c>
       <c r="D137" t="n">
-        <v>0.118436</v>
+        <v>0.119067</v>
       </c>
       <c r="E137" t="n">
-        <v>0.123322</v>
+        <v>0.122637</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.157728</v>
+        <v>0.158193</v>
       </c>
       <c r="C138" t="n">
-        <v>0.220147</v>
+        <v>0.221234</v>
       </c>
       <c r="D138" t="n">
-        <v>0.119542</v>
+        <v>0.12012</v>
       </c>
       <c r="E138" t="n">
-        <v>0.124097</v>
+        <v>0.123191</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157774</v>
+        <v>0.157922</v>
       </c>
       <c r="C139" t="n">
-        <v>0.224171</v>
+        <v>0.225307</v>
       </c>
       <c r="D139" t="n">
-        <v>0.120555</v>
+        <v>0.121098</v>
       </c>
       <c r="E139" t="n">
-        <v>0.124887</v>
+        <v>0.124264</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.157822</v>
+        <v>0.158048</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229194</v>
+        <v>0.229958</v>
       </c>
       <c r="D140" t="n">
-        <v>0.124935</v>
+        <v>0.12223</v>
       </c>
       <c r="E140" t="n">
-        <v>0.126237</v>
+        <v>0.125036</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158086</v>
+        <v>0.158478</v>
       </c>
       <c r="C141" t="n">
-        <v>0.234298</v>
+        <v>0.235057</v>
       </c>
       <c r="D141" t="n">
-        <v>0.12278</v>
+        <v>0.123434</v>
       </c>
       <c r="E141" t="n">
-        <v>0.12706</v>
+        <v>0.126195</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158035</v>
+        <v>0.158578</v>
       </c>
       <c r="C142" t="n">
-        <v>0.239466</v>
+        <v>0.24034</v>
       </c>
       <c r="D142" t="n">
-        <v>0.123993</v>
+        <v>0.124596</v>
       </c>
       <c r="E142" t="n">
-        <v>0.127951</v>
+        <v>0.127244</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178791</v>
+        <v>0.15868</v>
       </c>
       <c r="C143" t="n">
-        <v>0.245367</v>
+        <v>0.246198</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125349</v>
+        <v>0.125864</v>
       </c>
       <c r="E143" t="n">
-        <v>0.129431</v>
+        <v>0.128658</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194242</v>
+        <v>0.0193848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0363377</v>
+        <v>0.0175627</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0196181</v>
+        <v>0.0349354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0209333</v>
+        <v>0.0197894</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0207038</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01945</v>
+        <v>0.0194619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0400658</v>
+        <v>0.0175947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0197031</v>
+        <v>0.0372243</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0209996</v>
+        <v>0.0201052</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0209254</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0194675</v>
+        <v>0.0193778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0451705</v>
+        <v>0.0176587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0198519</v>
+        <v>0.0433747</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0209436</v>
+        <v>0.0201236</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0210935</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0194656</v>
+        <v>0.0194707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0492122</v>
+        <v>0.0177658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0199499</v>
+        <v>0.0462062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0207881</v>
+        <v>0.0200332</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0211706</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.019543</v>
+        <v>0.0196489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0533577</v>
+        <v>0.0179719</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0200831</v>
+        <v>0.0510849</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0208329</v>
+        <v>0.0203125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0212118</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0196728</v>
+        <v>0.0196529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.031868</v>
+        <v>0.018025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0202395</v>
+        <v>0.0306249</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0211468</v>
+        <v>0.0206254</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0213994</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0197087</v>
+        <v>0.0199483</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0336791</v>
+        <v>0.0181412</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0206728</v>
+        <v>0.0325</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0212846</v>
+        <v>0.0213259</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0221416</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203573</v>
+        <v>0.0201947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0359951</v>
+        <v>0.0187716</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0194771</v>
+        <v>0.0346322</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0216267</v>
+        <v>0.019472</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0217383</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01936</v>
+        <v>0.0192209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0385253</v>
+        <v>0.0181729</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0197482</v>
+        <v>0.0364502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0217134</v>
+        <v>0.0198448</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.021984</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0193348</v>
+        <v>0.019424</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0409065</v>
+        <v>0.0183363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0199054</v>
+        <v>0.0397791</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0222871</v>
+        <v>0.019895</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0219441</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196678</v>
+        <v>0.0197447</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04369</v>
+        <v>0.018272</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0200462</v>
+        <v>0.0431275</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0223947</v>
+        <v>0.0201555</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0222077</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0197287</v>
+        <v>0.0197918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0479441</v>
+        <v>0.0186146</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0202772</v>
+        <v>0.0471309</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0224426</v>
+        <v>0.0202462</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0225074</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198791</v>
+        <v>0.0198616</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0511147</v>
+        <v>0.0185738</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205083</v>
+        <v>0.0496454</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0224859</v>
+        <v>0.0204734</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0225264</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200341</v>
+        <v>0.0200231</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0547322</v>
+        <v>0.0189054</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0207285</v>
+        <v>0.0533765</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0225687</v>
+        <v>0.0207159</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0227424</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200613</v>
+        <v>0.0201789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0577366</v>
+        <v>0.0189311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.020898</v>
+        <v>0.0571097</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0227808</v>
+        <v>0.0208968</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0228512</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0201739</v>
+        <v>0.0202069</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0618935</v>
+        <v>0.0193473</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0212369</v>
+        <v>0.0602121</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0228962</v>
+        <v>0.021277</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.022922</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202318</v>
+        <v>0.0204096</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0644112</v>
+        <v>0.0191405</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0214287</v>
+        <v>0.0639561</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0231955</v>
+        <v>0.0214165</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0231906</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.020334</v>
+        <v>0.0205851</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06822739999999999</v>
+        <v>0.0193073</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0214078</v>
+        <v>0.0669614</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0231275</v>
+        <v>0.0217844</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0233755</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0202956</v>
+        <v>0.0206359</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0714921</v>
+        <v>0.0193</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0218846</v>
+        <v>0.070434</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0231902</v>
+        <v>0.0221565</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0238266</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0205833</v>
+        <v>0.0208679</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0452621</v>
+        <v>0.0195934</v>
       </c>
       <c r="D21" t="n">
-        <v>0.022418</v>
+        <v>0.0451085</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0231822</v>
+        <v>0.0230293</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0248271</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0211938</v>
+        <v>0.0211078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0473155</v>
+        <v>0.0204342</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0244486</v>
+        <v>0.046578</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0247384</v>
+        <v>0.02607</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0279618</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0235507</v>
+        <v>0.0248881</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0492342</v>
+        <v>0.0258092</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0210371</v>
+        <v>0.0525073</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0235363</v>
+        <v>0.0209819</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0233915</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204568</v>
+        <v>0.0203805</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0516879</v>
+        <v>0.0194516</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0212103</v>
+        <v>0.0537413</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0235287</v>
+        <v>0.0211275</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0234442</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205013</v>
+        <v>0.0204958</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0538296</v>
+        <v>0.0195151</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0214381</v>
+        <v>0.056061</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0238294</v>
+        <v>0.0213664</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0236222</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0207505</v>
+        <v>0.0206497</v>
       </c>
       <c r="C26" t="n">
-        <v>0.056887</v>
+        <v>0.019712</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0216423</v>
+        <v>0.0582335</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0238767</v>
+        <v>0.021552</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0237763</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0209202</v>
+        <v>0.0208718</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0593677</v>
+        <v>0.0198041</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0218481</v>
+        <v>0.0604336</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0240711</v>
+        <v>0.0217889</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0240463</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.020955</v>
+        <v>0.0210186</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0620521</v>
+        <v>0.0200263</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0220933</v>
+        <v>0.063626</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0241746</v>
+        <v>0.022141</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0242566</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210213</v>
+        <v>0.0211438</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0661805</v>
+        <v>0.0201955</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0224339</v>
+        <v>0.06649049999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02445</v>
+        <v>0.0224621</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0245442</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.021196</v>
+        <v>0.0213385</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0689814</v>
+        <v>0.0204215</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0226869</v>
+        <v>0.0688616</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0246085</v>
+        <v>0.0227454</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0247829</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0212852</v>
+        <v>0.021513</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0717515</v>
+        <v>0.020546</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0229443</v>
+        <v>0.07168040000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0249107</v>
+        <v>0.0230891</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0251674</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0215169</v>
+        <v>0.0220629</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0750521</v>
+        <v>0.0208661</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0234278</v>
+        <v>0.0746487</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0251584</v>
+        <v>0.0235791</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0255784</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0220136</v>
+        <v>0.0221137</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0777202</v>
+        <v>0.0211468</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0238143</v>
+        <v>0.07752729999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0255274</v>
+        <v>0.0243147</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0262318</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0226701</v>
+        <v>0.0228733</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0798715</v>
+        <v>0.0216524</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0245804</v>
+        <v>0.07917970000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0259559</v>
+        <v>0.0254992</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0271806</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0255378</v>
+        <v>0.0243698</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0520281</v>
+        <v>0.0228986</v>
       </c>
       <c r="D35" t="n">
-        <v>0.026161</v>
+        <v>0.0529663</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0271602</v>
+        <v>0.0276103</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0296471</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02835</v>
+        <v>0.0271109</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0540639</v>
+        <v>0.0250296</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0299368</v>
+        <v>0.0547963</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0309544</v>
+        <v>0.0319471</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0340328</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0314601</v>
+        <v>0.0312224</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0557253</v>
+        <v>0.0299358</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0222077</v>
+        <v>0.0564959</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0245437</v>
+        <v>0.0222259</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0245842</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216736</v>
+        <v>0.0214949</v>
       </c>
       <c r="C38" t="n">
-        <v>0.057791</v>
+        <v>0.0207518</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0224458</v>
+        <v>0.0580906</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0247251</v>
+        <v>0.0224589</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0247098</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216486</v>
+        <v>0.0218569</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0597931</v>
+        <v>0.0209239</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0226182</v>
+        <v>0.0601554</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0249092</v>
+        <v>0.0225931</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0249816</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218132</v>
+        <v>0.0217457</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0620291</v>
+        <v>0.0210062</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0229737</v>
+        <v>0.06259190000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0251335</v>
+        <v>0.0229286</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0251795</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220243</v>
+        <v>0.0220473</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0647942</v>
+        <v>0.0212501</v>
       </c>
       <c r="D41" t="n">
-        <v>0.023222</v>
+        <v>0.0644839</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0253525</v>
+        <v>0.0231774</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0253233</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222177</v>
+        <v>0.0222951</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06654309999999999</v>
+        <v>0.0213877</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0235663</v>
+        <v>0.0672614</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0256042</v>
+        <v>0.0240694</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0256274</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224362</v>
+        <v>0.0224305</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06991459999999999</v>
+        <v>0.0216913</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0239203</v>
+        <v>0.06977800000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0258225</v>
+        <v>0.0239096</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0259189</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0224689</v>
+        <v>0.0226572</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07248690000000001</v>
+        <v>0.0219272</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0241912</v>
+        <v>0.0726223</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0260887</v>
+        <v>0.0242348</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0261494</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228362</v>
+        <v>0.0229888</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0748892</v>
+        <v>0.022197</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0246449</v>
+        <v>0.0752708</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0264295</v>
+        <v>0.0247279</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.026656</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0231276</v>
+        <v>0.0234883</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0777598</v>
+        <v>0.022681</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0251837</v>
+        <v>0.0774999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0268017</v>
+        <v>0.0255188</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0272972</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0241271</v>
+        <v>0.0238963</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0803715</v>
+        <v>0.0234421</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0258836</v>
+        <v>0.0799808</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0274902</v>
+        <v>0.0264864</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0281227</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0255541</v>
+        <v>0.025005</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08295</v>
+        <v>0.0240753</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0271096</v>
+        <v>0.0821132</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0286161</v>
+        <v>0.0279806</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0297722</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0269993</v>
+        <v>0.0268192</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0841943</v>
+        <v>0.0257732</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0291837</v>
+        <v>0.0838373</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0306273</v>
+        <v>0.0306931</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0320114</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0296996</v>
+        <v>0.029844</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0575539</v>
+        <v>0.0285813</v>
       </c>
       <c r="D50" t="n">
-        <v>0.032606</v>
+        <v>0.057428</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0342042</v>
+        <v>0.0341211</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0359768</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0332501</v>
+        <v>0.0336676</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0592092</v>
+        <v>0.0324607</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0229976</v>
+        <v>0.0590788</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0249192</v>
+        <v>0.0229859</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0249922</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0391689</v>
+        <v>0.03842</v>
       </c>
       <c r="C52" t="n">
-        <v>0.061163</v>
+        <v>0.0380034</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0231931</v>
+        <v>0.0613427</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0250867</v>
+        <v>0.0231886</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0251284</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0231485</v>
+        <v>0.0233104</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0633263</v>
+        <v>0.0220148</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0234577</v>
+        <v>0.06343699999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0252751</v>
+        <v>0.0234438</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0254049</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233757</v>
+        <v>0.023341</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0657611</v>
+        <v>0.0221262</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0237453</v>
+        <v>0.06561989999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0256504</v>
+        <v>0.0237361</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0255729</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0235412</v>
+        <v>0.0237441</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0683909</v>
+        <v>0.0223024</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0240557</v>
+        <v>0.0681055</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0258682</v>
+        <v>0.0240592</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0259531</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236512</v>
+        <v>0.0239331</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07105599999999999</v>
+        <v>0.022656</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0243679</v>
+        <v>0.070746</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0262019</v>
+        <v>0.0243611</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0261395</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240773</v>
+        <v>0.0241352</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07337009999999999</v>
+        <v>0.0228134</v>
       </c>
       <c r="D57" t="n">
-        <v>0.024845</v>
+        <v>0.0727792</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0264596</v>
+        <v>0.0247697</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0265401</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0242014</v>
+        <v>0.024359</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0763417</v>
+        <v>0.0231381</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0252257</v>
+        <v>0.0757994</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0270265</v>
+        <v>0.0252948</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0270227</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0245279</v>
+        <v>0.0245657</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07819950000000001</v>
+        <v>0.0235722</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0257473</v>
+        <v>0.07800020000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0273747</v>
+        <v>0.0259223</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0276978</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0254877</v>
+        <v>0.0251086</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08058940000000001</v>
+        <v>0.0241989</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0264405</v>
+        <v>0.08056480000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.027999</v>
+        <v>0.026794</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0284369</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0261006</v>
+        <v>0.0260587</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08360910000000001</v>
+        <v>0.025026</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0274206</v>
+        <v>0.08313520000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0291374</v>
+        <v>0.027927</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0295769</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274529</v>
+        <v>0.0274484</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0858816</v>
+        <v>0.0264049</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0289108</v>
+        <v>0.0855432</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0304843</v>
+        <v>0.0297296</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0313434</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0291631</v>
+        <v>0.0293528</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0884075</v>
+        <v>0.0283304</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0312626</v>
+        <v>0.0898707</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0329581</v>
+        <v>0.0320666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0337604</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0320753</v>
+        <v>0.0319897</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06413190000000001</v>
+        <v>0.0308026</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0350119</v>
+        <v>0.0657703</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0363838</v>
+        <v>0.0355204</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0372556</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0361661</v>
+        <v>0.0356338</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0659236</v>
+        <v>0.0349232</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0401872</v>
+        <v>0.06761300000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0420925</v>
+        <v>0.040984</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.042835</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0409467</v>
+        <v>0.0409657</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0686813</v>
+        <v>0.0401922</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0247282</v>
+        <v>0.0706816</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0265822</v>
+        <v>0.0253889</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0265858</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0271458</v>
+        <v>0.0289145</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0719849</v>
+        <v>0.0246507</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0255039</v>
+        <v>0.0736002</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0267392</v>
+        <v>0.0250649</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0269848</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0275943</v>
+        <v>0.0290849</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0760199</v>
+        <v>0.0249507</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0249875</v>
+        <v>0.07693999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0271264</v>
+        <v>0.0253452</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0272039</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0278422</v>
+        <v>0.0291312</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07902960000000001</v>
+        <v>0.0249084</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0259092</v>
+        <v>0.0791196</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0274377</v>
+        <v>0.0255558</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0274478</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0278587</v>
+        <v>0.0292314</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08251699999999999</v>
+        <v>0.025417</v>
       </c>
       <c r="D70" t="n">
-        <v>0.026446</v>
+        <v>0.0839456</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0280299</v>
+        <v>0.0259444</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0278812</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0283114</v>
+        <v>0.0295317</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0865399</v>
+        <v>0.025691</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0268313</v>
+        <v>0.0874417</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0281364</v>
+        <v>0.0264835</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0281991</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0284586</v>
+        <v>0.0298013</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0896382</v>
+        <v>0.0262707</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0271106</v>
+        <v>0.0915048</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0287343</v>
+        <v>0.0277257</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0287265</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.028923</v>
+        <v>0.0301607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0951174</v>
+        <v>0.0268015</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0277761</v>
+        <v>0.0958411</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0293169</v>
+        <v>0.0278552</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0295737</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0296095</v>
+        <v>0.030776</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0985057</v>
+        <v>0.0274789</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0279985</v>
+        <v>0.100017</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0301614</v>
+        <v>0.0284422</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0303666</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0304074</v>
+        <v>0.0317162</v>
       </c>
       <c r="C75" t="n">
-        <v>0.104272</v>
+        <v>0.0288561</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0291062</v>
+        <v>0.10394</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0313703</v>
+        <v>0.0297968</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0315994</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0317843</v>
+        <v>0.0328879</v>
       </c>
       <c r="C76" t="n">
-        <v>0.10762</v>
+        <v>0.030155</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0307999</v>
+        <v>0.107671</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0330147</v>
+        <v>0.0311555</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0332608</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.033521</v>
+        <v>0.0346028</v>
       </c>
       <c r="C77" t="n">
-        <v>0.112892</v>
+        <v>0.0326295</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0332593</v>
+        <v>0.113168</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0352525</v>
+        <v>0.033579</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0355532</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0358711</v>
+        <v>0.0370192</v>
       </c>
       <c r="C78" t="n">
-        <v>0.097745</v>
+        <v>0.0355582</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0361119</v>
+        <v>0.0979264</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0384251</v>
+        <v>0.036514</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.038887</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.039335</v>
+        <v>0.0402907</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101943</v>
+        <v>0.0387886</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0409649</v>
+        <v>0.101481</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0434829</v>
+        <v>0.041536</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0440891</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0439678</v>
+        <v>0.0451694</v>
       </c>
       <c r="C80" t="n">
-        <v>0.106488</v>
+        <v>0.0442776</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0354549</v>
+        <v>0.105553</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0329608</v>
+        <v>0.0361322</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0335026</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0563756</v>
+        <v>0.0547573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110773</v>
+        <v>0.0354786</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0362851</v>
+        <v>0.11045</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0333052</v>
+        <v>0.0366932</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0336411</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0557485</v>
+        <v>0.0555636</v>
       </c>
       <c r="C82" t="n">
-        <v>0.115756</v>
+        <v>0.0356873</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0369048</v>
+        <v>0.115302</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0337015</v>
+        <v>0.0376074</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0340919</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0559839</v>
+        <v>0.055387</v>
       </c>
       <c r="C83" t="n">
-        <v>0.120898</v>
+        <v>0.0359896</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0377089</v>
+        <v>0.120141</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0341852</v>
+        <v>0.0384358</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0347245</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0566877</v>
+        <v>0.0554725</v>
       </c>
       <c r="C84" t="n">
-        <v>0.126474</v>
+        <v>0.0361447</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0385314</v>
+        <v>0.125522</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0348961</v>
+        <v>0.0391975</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0350658</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0562573</v>
+        <v>0.0557169</v>
       </c>
       <c r="C85" t="n">
-        <v>0.132013</v>
+        <v>0.0365455</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0393113</v>
+        <v>0.130499</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0352441</v>
+        <v>0.0400954</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.035695</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0570162</v>
+        <v>0.0559509</v>
       </c>
       <c r="C86" t="n">
-        <v>0.137781</v>
+        <v>0.0370387</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0401419</v>
+        <v>0.135999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0358055</v>
+        <v>0.0407676</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.036408</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0567071</v>
+        <v>0.0560586</v>
       </c>
       <c r="C87" t="n">
-        <v>0.142879</v>
+        <v>0.0374911</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0407677</v>
+        <v>0.141492</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0367588</v>
+        <v>0.0415868</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0372398</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0570539</v>
+        <v>0.0562625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.148961</v>
+        <v>0.0382015</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0418403</v>
+        <v>0.147983</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0378189</v>
+        <v>0.0424312</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0382203</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0575295</v>
+        <v>0.0567185</v>
       </c>
       <c r="C89" t="n">
-        <v>0.154915</v>
+        <v>0.0393225</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0427515</v>
+        <v>0.153941</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0390894</v>
+        <v>0.0440182</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0395911</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0591686</v>
+        <v>0.0576972</v>
       </c>
       <c r="C90" t="n">
-        <v>0.161137</v>
+        <v>0.0405886</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0441228</v>
+        <v>0.160131</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0409499</v>
+        <v>0.0448619</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0413396</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0592127</v>
+        <v>0.0587159</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166044</v>
+        <v>0.0425901</v>
       </c>
       <c r="D91" t="n">
-        <v>0.04605</v>
+        <v>0.165987</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0434057</v>
+        <v>0.0466044</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0440599</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06079</v>
+        <v>0.060325</v>
       </c>
       <c r="C92" t="n">
-        <v>0.146478</v>
+        <v>0.0454562</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0486976</v>
+        <v>0.145305</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0468821</v>
+        <v>0.0522096</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0478185</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06362230000000001</v>
+        <v>0.0629981</v>
       </c>
       <c r="C93" t="n">
-        <v>0.150061</v>
+        <v>0.0496657</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0529756</v>
+        <v>0.149575</v>
       </c>
       <c r="E93" t="n">
-        <v>0.052439</v>
+        <v>0.0533849</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.0531663</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06724280000000001</v>
+        <v>0.06682589999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.153396</v>
+        <v>0.0553023</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0715064</v>
+        <v>0.15412</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0678792</v>
+        <v>0.07120079999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0674756</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08593480000000001</v>
+        <v>0.0858251</v>
       </c>
       <c r="C95" t="n">
-        <v>0.156851</v>
+        <v>0.07135279999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0719187</v>
+        <v>0.156752</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0683391</v>
+        <v>0.074347</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0678738</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08673160000000001</v>
+        <v>0.0857677</v>
       </c>
       <c r="C96" t="n">
-        <v>0.162121</v>
+        <v>0.0716075</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07235419999999999</v>
+        <v>0.161486</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0688155</v>
+        <v>0.0720843</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.06835280000000001</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08595709999999999</v>
+        <v>0.085906</v>
       </c>
       <c r="C97" t="n">
-        <v>0.166779</v>
+        <v>0.0718963</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07287970000000001</v>
+        <v>0.165355</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06931619999999999</v>
+        <v>0.0726903</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0688624</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859856</v>
+        <v>0.0859969</v>
       </c>
       <c r="C98" t="n">
-        <v>0.171494</v>
+        <v>0.0721396</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0733919</v>
+        <v>0.171084</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0703495</v>
+        <v>0.0733799</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.07131179999999999</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08607190000000001</v>
+        <v>0.086075</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1766</v>
+        <v>0.07288070000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0740199</v>
+        <v>0.175965</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0704699</v>
+        <v>0.0737217</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.07247720000000001</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0862216</v>
+        <v>0.0861682</v>
       </c>
       <c r="C100" t="n">
-        <v>0.182258</v>
+        <v>0.07289329999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0747099</v>
+        <v>0.181715</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07332569999999999</v>
+        <v>0.0743284</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0707691</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0866309</v>
+        <v>0.08647729999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.186565</v>
+        <v>0.073226</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0753255</v>
+        <v>0.18689</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0719745</v>
+        <v>0.07510169999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0715047</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867433</v>
+        <v>0.0867111</v>
       </c>
       <c r="C102" t="n">
-        <v>0.19327</v>
+        <v>0.073786</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0762516</v>
+        <v>0.193063</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07296370000000001</v>
+        <v>0.0759703</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0724716</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0872648</v>
+        <v>0.08710229999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.199223</v>
+        <v>0.0744944</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0772611</v>
+        <v>0.198751</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07412290000000001</v>
+        <v>0.0768456</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.07365339999999999</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08780490000000001</v>
+        <v>0.08776050000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.204742</v>
+        <v>0.07550759999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0785308</v>
+        <v>0.204087</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0757143</v>
+        <v>0.078163</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0752357</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0886834</v>
+        <v>0.08850959999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.210894</v>
+        <v>0.0775174</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08022990000000001</v>
+        <v>0.211733</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0777106</v>
+        <v>0.08907039999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.07733470000000001</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.09027839999999999</v>
+        <v>0.0897652</v>
       </c>
       <c r="C106" t="n">
-        <v>0.217231</v>
+        <v>0.0796972</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08324289999999999</v>
+        <v>0.21659</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0808594</v>
+        <v>0.0824233</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0805929</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0919582</v>
+        <v>0.09188499999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.182332</v>
+        <v>0.0833348</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0863333</v>
+        <v>0.182251</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0854704</v>
+        <v>0.0859721</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.08521570000000001</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0951347</v>
+        <v>0.0952229</v>
       </c>
       <c r="C108" t="n">
-        <v>0.18694</v>
+        <v>0.08797199999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.089002</v>
+        <v>0.185854</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0933577</v>
+        <v>0.0888313</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.09318120000000001</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100399</v>
+        <v>0.100016</v>
       </c>
       <c r="C109" t="n">
-        <v>0.191138</v>
+        <v>0.0954035</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0897073</v>
+        <v>0.189322</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0940042</v>
+        <v>0.0893418</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0937201</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107783</v>
+        <v>0.108131</v>
       </c>
       <c r="C110" t="n">
-        <v>0.193909</v>
+        <v>0.0996648</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0905977</v>
+        <v>0.193413</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0946288</v>
+        <v>0.09014900000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0947561</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107651</v>
+        <v>0.108075</v>
       </c>
       <c r="C111" t="n">
-        <v>0.199295</v>
+        <v>0.0977754</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0914208</v>
+        <v>0.19773</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0951507</v>
+        <v>0.0909683</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0946718</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107834</v>
+        <v>0.108184</v>
       </c>
       <c r="C112" t="n">
-        <v>0.203894</v>
+        <v>0.0978999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0923107</v>
+        <v>0.202287</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0956897</v>
+        <v>0.091824</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0954238</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.108146</v>
+        <v>0.10833</v>
       </c>
       <c r="C113" t="n">
-        <v>0.208145</v>
+        <v>0.0981046</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09334240000000001</v>
+        <v>0.208167</v>
       </c>
       <c r="E113" t="n">
-        <v>0.09652769999999999</v>
+        <v>0.0928055</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0960589</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108816</v>
+        <v>0.108539</v>
       </c>
       <c r="C114" t="n">
-        <v>0.213133</v>
+        <v>0.0988192</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0943179</v>
+        <v>0.212927</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0973127</v>
+        <v>0.0937335</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.09680229999999999</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108472</v>
+        <v>0.108599</v>
       </c>
       <c r="C115" t="n">
-        <v>0.219073</v>
+        <v>0.0991438</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0953485</v>
+        <v>0.218337</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0981591</v>
+        <v>0.0949487</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.09780510000000001</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109107</v>
+        <v>0.108799</v>
       </c>
       <c r="C116" t="n">
-        <v>0.225257</v>
+        <v>0.102822</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09663869999999999</v>
+        <v>0.224385</v>
       </c>
       <c r="E116" t="n">
-        <v>0.09939050000000001</v>
+        <v>0.0960443</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0989189</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109723</v>
+        <v>0.109382</v>
       </c>
       <c r="C117" t="n">
-        <v>0.231256</v>
+        <v>0.100287</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0981359</v>
+        <v>0.230112</v>
       </c>
       <c r="E117" t="n">
-        <v>0.100701</v>
+        <v>0.1104</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.100379</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.11067</v>
+        <v>0.109872</v>
       </c>
       <c r="C118" t="n">
-        <v>0.237075</v>
+        <v>0.101658</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0997164</v>
+        <v>0.236296</v>
       </c>
       <c r="E118" t="n">
-        <v>0.102425</v>
+        <v>0.0990668</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.102046</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111609</v>
+        <v>0.121679</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243196</v>
+        <v>0.103364</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101683</v>
+        <v>0.242636</v>
       </c>
       <c r="E119" t="n">
-        <v>0.10462</v>
+        <v>0.101151</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.104462</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113073</v>
+        <v>0.11203</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248839</v>
+        <v>0.105254</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104257</v>
+        <v>0.248114</v>
       </c>
       <c r="E120" t="n">
-        <v>0.107765</v>
+        <v>0.103725</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.107403</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.115654</v>
+        <v>0.113814</v>
       </c>
       <c r="C121" t="n">
-        <v>0.199826</v>
+        <v>0.108244</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108031</v>
+        <v>0.200198</v>
       </c>
       <c r="E121" t="n">
-        <v>0.112485</v>
+        <v>0.107499</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.123425</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.118315</v>
+        <v>0.116862</v>
       </c>
       <c r="C122" t="n">
-        <v>0.203294</v>
+        <v>0.11305</v>
       </c>
       <c r="D122" t="n">
-        <v>0.11412</v>
+        <v>0.202936</v>
       </c>
       <c r="E122" t="n">
-        <v>0.119587</v>
+        <v>0.11348</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.119466</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.122879</v>
+        <v>0.121543</v>
       </c>
       <c r="C123" t="n">
-        <v>0.206204</v>
+        <v>0.119961</v>
       </c>
       <c r="D123" t="n">
-        <v>0.107816</v>
+        <v>0.206116</v>
       </c>
       <c r="E123" t="n">
-        <v>0.11649</v>
+        <v>0.107438</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.111747</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134683</v>
+        <v>0.140062</v>
       </c>
       <c r="C124" t="n">
-        <v>0.210521</v>
+        <v>0.13336</v>
       </c>
       <c r="D124" t="n">
-        <v>0.108821</v>
+        <v>0.209939</v>
       </c>
       <c r="E124" t="n">
-        <v>0.112043</v>
+        <v>0.108556</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.112366</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.13499</v>
+        <v>0.140058</v>
       </c>
       <c r="C125" t="n">
-        <v>0.214603</v>
+        <v>0.133718</v>
       </c>
       <c r="D125" t="n">
-        <v>0.109867</v>
+        <v>0.214804</v>
       </c>
       <c r="E125" t="n">
-        <v>0.112617</v>
+        <v>0.109643</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.113098</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.135123</v>
+        <v>0.139603</v>
       </c>
       <c r="C126" t="n">
-        <v>0.21888</v>
+        <v>0.133814</v>
       </c>
       <c r="D126" t="n">
-        <v>0.111154</v>
+        <v>0.220161</v>
       </c>
       <c r="E126" t="n">
-        <v>0.113391</v>
+        <v>0.110714</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.113718</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.13528</v>
+        <v>0.139793</v>
       </c>
       <c r="C127" t="n">
-        <v>0.224198</v>
+        <v>0.133896</v>
       </c>
       <c r="D127" t="n">
-        <v>0.112216</v>
+        <v>0.223485</v>
       </c>
       <c r="E127" t="n">
-        <v>0.114164</v>
+        <v>0.111891</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.114767</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135216</v>
+        <v>0.139755</v>
       </c>
       <c r="C128" t="n">
-        <v>0.230021</v>
+        <v>0.134135</v>
       </c>
       <c r="D128" t="n">
-        <v>0.113446</v>
+        <v>0.229261</v>
       </c>
       <c r="E128" t="n">
-        <v>0.115162</v>
+        <v>0.113163</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.115834</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135367</v>
+        <v>0.139773</v>
       </c>
       <c r="C129" t="n">
-        <v>0.235792</v>
+        <v>0.134577</v>
       </c>
       <c r="D129" t="n">
-        <v>0.114905</v>
+        <v>0.235257</v>
       </c>
       <c r="E129" t="n">
-        <v>0.116826</v>
+        <v>0.114402</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.117009</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135514</v>
+        <v>0.139973</v>
       </c>
       <c r="C130" t="n">
-        <v>0.241136</v>
+        <v>0.135148</v>
       </c>
       <c r="D130" t="n">
-        <v>0.116311</v>
+        <v>0.24097</v>
       </c>
       <c r="E130" t="n">
-        <v>0.117598</v>
+        <v>0.119551</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.11837</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.135977</v>
+        <v>0.140326</v>
       </c>
       <c r="C131" t="n">
-        <v>0.247492</v>
+        <v>0.135817</v>
       </c>
       <c r="D131" t="n">
-        <v>0.117909</v>
+        <v>0.246462</v>
       </c>
       <c r="E131" t="n">
-        <v>0.119205</v>
+        <v>0.117449</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.120045</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.136178</v>
+        <v>0.140658</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253123</v>
+        <v>0.136846</v>
       </c>
       <c r="D132" t="n">
-        <v>0.119726</v>
+        <v>0.253085</v>
       </c>
       <c r="E132" t="n">
-        <v>0.121113</v>
+        <v>0.11945</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.122017</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137478</v>
+        <v>0.140894</v>
       </c>
       <c r="C133" t="n">
-        <v>0.259099</v>
+        <v>0.13806</v>
       </c>
       <c r="D133" t="n">
-        <v>0.122003</v>
+        <v>0.258205</v>
       </c>
       <c r="E133" t="n">
-        <v>0.12357</v>
+        <v>0.121615</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.124441</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.13829</v>
+        <v>0.1421</v>
       </c>
       <c r="C134" t="n">
-        <v>0.265206</v>
+        <v>0.139958</v>
       </c>
       <c r="D134" t="n">
-        <v>0.124958</v>
+        <v>0.265025</v>
       </c>
       <c r="E134" t="n">
-        <v>0.127099</v>
+        <v>0.124506</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.12801</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.139651</v>
+        <v>0.143547</v>
       </c>
       <c r="C135" t="n">
-        <v>0.210997</v>
+        <v>0.14262</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128883</v>
+        <v>0.210482</v>
       </c>
       <c r="E135" t="n">
-        <v>0.131809</v>
+        <v>0.128529</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.132847</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142378</v>
+        <v>0.146307</v>
       </c>
       <c r="C136" t="n">
-        <v>0.213916</v>
+        <v>0.146392</v>
       </c>
       <c r="D136" t="n">
-        <v>0.135123</v>
+        <v>0.213193</v>
       </c>
       <c r="E136" t="n">
-        <v>0.139224</v>
+        <v>0.136396</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.140151</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146488</v>
+        <v>0.150172</v>
       </c>
       <c r="C137" t="n">
-        <v>0.217706</v>
+        <v>0.152046</v>
       </c>
       <c r="D137" t="n">
-        <v>0.119067</v>
+        <v>0.219024</v>
       </c>
       <c r="E137" t="n">
-        <v>0.122637</v>
+        <v>0.118386</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.123723</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158193</v>
+        <v>0.158166</v>
       </c>
       <c r="C138" t="n">
-        <v>0.221234</v>
+        <v>0.152616</v>
       </c>
       <c r="D138" t="n">
-        <v>0.12012</v>
+        <v>0.221271</v>
       </c>
       <c r="E138" t="n">
-        <v>0.123191</v>
+        <v>0.120885</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.124728</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157922</v>
+        <v>0.158195</v>
       </c>
       <c r="C139" t="n">
-        <v>0.225307</v>
+        <v>0.153035</v>
       </c>
       <c r="D139" t="n">
-        <v>0.121098</v>
+        <v>0.22573</v>
       </c>
       <c r="E139" t="n">
-        <v>0.124264</v>
+        <v>0.121618</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.125981</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158048</v>
+        <v>0.15855</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229958</v>
+        <v>0.153122</v>
       </c>
       <c r="D140" t="n">
-        <v>0.12223</v>
+        <v>0.229762</v>
       </c>
       <c r="E140" t="n">
-        <v>0.125036</v>
+        <v>0.121781</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.126212</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158478</v>
+        <v>0.158668</v>
       </c>
       <c r="C141" t="n">
-        <v>0.235057</v>
+        <v>0.153483</v>
       </c>
       <c r="D141" t="n">
-        <v>0.123434</v>
+        <v>0.23492</v>
       </c>
       <c r="E141" t="n">
-        <v>0.126195</v>
+        <v>0.123325</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.127737</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158578</v>
+        <v>0.159246</v>
       </c>
       <c r="C142" t="n">
-        <v>0.24034</v>
+        <v>0.153843</v>
       </c>
       <c r="D142" t="n">
-        <v>0.124596</v>
+        <v>0.24055</v>
       </c>
       <c r="E142" t="n">
-        <v>0.127244</v>
+        <v>0.123784</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.127931</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.15868</v>
+        <v>0.158584</v>
       </c>
       <c r="C143" t="n">
-        <v>0.246198</v>
+        <v>0.153735</v>
       </c>
       <c r="D143" t="n">
-        <v>0.125864</v>
+        <v>0.245786</v>
       </c>
       <c r="E143" t="n">
-        <v>0.128658</v>
+        <v>0.125183</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.129179</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0194751</v>
+                  <v>0.0193848</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195629</v>
+                  <v>0.0194619</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.019489</v>
+                  <v>0.0193778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0195779</v>
+                  <v>0.0194707</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0196134</v>
+                  <v>0.0196489</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0197913</v>
+                  <v>0.0196529</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0199155</v>
+                  <v>0.0199483</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0201101</v>
+                  <v>0.0201947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196084</v>
+                  <v>0.0192209</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195614</v>
+                  <v>0.019424</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196347</v>
+                  <v>0.0197447</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198925</v>
+                  <v>0.0197918</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0200039</v>
+                  <v>0.0198616</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201837</v>
+                  <v>0.0200231</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200675</v>
+                  <v>0.0201789</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0201647</v>
+                  <v>0.0202069</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0202739</v>
+                  <v>0.0204096</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0202086</v>
+                  <v>0.0205851</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0205069</v>
+                  <v>0.0206359</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0207083</v>
+                  <v>0.0208679</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0211543</v>
+                  <v>0.0211078</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0230484</v>
+                  <v>0.0248881</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206813</v>
+                  <v>0.0203805</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0207405</v>
+                  <v>0.0204958</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207665</v>
+                  <v>0.0206497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0209769</v>
+                  <v>0.0208718</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.021056</v>
+                  <v>0.0210186</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212252</v>
+                  <v>0.0211438</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0213505</v>
+                  <v>0.0213385</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215039</v>
+                  <v>0.021513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0217981</v>
+                  <v>0.0220629</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221214</v>
+                  <v>0.0221137</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.023275</v>
+                  <v>0.0228733</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0250124</v>
+                  <v>0.0243698</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0266118</v>
+                  <v>0.0271109</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0311996</v>
+                  <v>0.0312224</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0216211</v>
+                  <v>0.0214949</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0218931</v>
+                  <v>0.0218569</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219329</v>
+                  <v>0.0217457</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0221215</v>
+                  <v>0.0220473</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0222904</v>
+                  <v>0.0222951</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224773</v>
+                  <v>0.0224305</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0228221</v>
+                  <v>0.0226572</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230365</v>
+                  <v>0.0229888</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235124</v>
+                  <v>0.0234883</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.02408</v>
+                  <v>0.0238963</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.025044</v>
+                  <v>0.025005</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0279553</v>
+                  <v>0.0268192</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0304389</v>
+                  <v>0.029844</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0353825</v>
+                  <v>0.0336676</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0392081</v>
+                  <v>0.03842</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230524</v>
+                  <v>0.0233104</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0234244</v>
+                  <v>0.023341</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234108</v>
+                  <v>0.0237441</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239286</v>
+                  <v>0.0239331</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0240818</v>
+                  <v>0.0241352</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.024439</v>
+                  <v>0.024359</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0247787</v>
+                  <v>0.0245657</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252449</v>
+                  <v>0.0251086</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265282</v>
+                  <v>0.0260587</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0274839</v>
+                  <v>0.0274484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0294202</v>
+                  <v>0.0293528</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.032256</v>
+                  <v>0.0319897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.035998</v>
+                  <v>0.0356338</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0410284</v>
+                  <v>0.0409657</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292854</v>
+                  <v>0.0289145</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293731</v>
+                  <v>0.0290849</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0295223</v>
+                  <v>0.0291312</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297504</v>
+                  <v>0.0292314</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300985</v>
+                  <v>0.0295317</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302054</v>
+                  <v>0.0298013</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030751</v>
+                  <v>0.0301607</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311922</v>
+                  <v>0.030776</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0320559</v>
+                  <v>0.0317162</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331467</v>
+                  <v>0.0328879</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348991</v>
+                  <v>0.0346028</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0373412</v>
+                  <v>0.0370192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0409062</v>
+                  <v>0.0402907</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0457293</v>
+                  <v>0.0451694</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0555257</v>
+                  <v>0.0547573</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0577904</v>
+                  <v>0.0555636</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.055792</v>
+                  <v>0.055387</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0560207</v>
+                  <v>0.0554725</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0561087</v>
+                  <v>0.0557169</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0563414</v>
+                  <v>0.0559509</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056655</v>
+                  <v>0.0560586</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0571958</v>
+                  <v>0.0562625</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.057884</v>
+                  <v>0.0567185</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0582425</v>
+                  <v>0.0576972</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0592452</v>
+                  <v>0.0587159</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0608211</v>
+                  <v>0.060325</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0633513</v>
+                  <v>0.0629981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06725390000000001</v>
+                  <v>0.06682589999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0858208</v>
+                  <v>0.0858251</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.08577170000000001</v>
+                  <v>0.0857677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594590000000001</v>
+                  <v>0.085906</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08606900000000001</v>
+                  <v>0.0859969</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08616749999999999</v>
+                  <v>0.086075</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08662789999999999</v>
+                  <v>0.0861682</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0864133</v>
+                  <v>0.08647729999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.088181</v>
+                  <v>0.0867111</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0871123</v>
+                  <v>0.08710229999999999</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876926</v>
+                  <v>0.08776050000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0885166</v>
+                  <v>0.08850959999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0897474</v>
+                  <v>0.0897652</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09172080000000001</v>
+                  <v>0.09188499999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949308</v>
+                  <v>0.0952229</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0997827</v>
+                  <v>0.100016</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.109009</v>
+                  <v>0.108131</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108902</v>
+                  <v>0.108075</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.109017</v>
+                  <v>0.108184</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.109219</v>
+                  <v>0.10833</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.109295</v>
+                  <v>0.108539</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.109582</v>
+                  <v>0.108599</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109729</v>
+                  <v>0.108799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.110229</v>
+                  <v>0.109382</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110875</v>
+                  <v>0.109872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111655</v>
+                  <v>0.121679</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112821</v>
+                  <v>0.11203</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114619</v>
+                  <v>0.113814</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117464</v>
+                  <v>0.116862</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.122013</v>
+                  <v>0.121543</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139209</v>
+                  <v>0.140062</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.139131</v>
+                  <v>0.140058</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139496</v>
+                  <v>0.139603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139621</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.13995</v>
+                  <v>0.139755</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.14025</v>
+                  <v>0.139773</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.140479</v>
+                  <v>0.139973</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142087</v>
+                  <v>0.140326</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141701</v>
+                  <v>0.140658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.142135</v>
+                  <v>0.140894</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.143369</v>
+                  <v>0.1421</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14492</v>
+                  <v>0.143547</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.147621</v>
+                  <v>0.146307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.151632</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157728</v>
+                  <v>0.158166</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157774</v>
+                  <v>0.158195</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157822</v>
+                  <v>0.15855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158086</v>
+                  <v>0.158668</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158035</v>
+                  <v>0.159246</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.178791</v>
+                  <v>0.158584</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0365145</v>
+                  <v>0.0175627</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0396988</v>
+                  <v>0.0175947</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0447642</v>
+                  <v>0.0176587</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0498033</v>
+                  <v>0.0177658</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0537687</v>
+                  <v>0.0179719</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0315887</v>
+                  <v>0.018025</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0336489</v>
+                  <v>0.0181412</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0356574</v>
+                  <v>0.0187716</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0376125</v>
+                  <v>0.0181729</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0405804</v>
+                  <v>0.0183363</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0447308</v>
+                  <v>0.018272</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.047286</v>
+                  <v>0.0186146</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0503759</v>
+                  <v>0.0185738</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0539423</v>
+                  <v>0.0189054</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0578276</v>
+                  <v>0.0189311</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0614582</v>
+                  <v>0.0193473</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0653006</v>
+                  <v>0.0191405</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0680994</v>
+                  <v>0.0193073</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0704849</v>
+                  <v>0.0193</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0446121</v>
+                  <v>0.0195934</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.047444</v>
+                  <v>0.0204342</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0493842</v>
+                  <v>0.0258092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0514984</v>
+                  <v>0.0194516</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0543429</v>
+                  <v>0.0195151</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0563413</v>
+                  <v>0.019712</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0616033</v>
+                  <v>0.0198041</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0643247</v>
+                  <v>0.0200263</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0662176</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0698588</v>
+                  <v>0.0204215</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07215820000000001</v>
+                  <v>0.020546</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0748846</v>
+                  <v>0.0208661</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0769565</v>
+                  <v>0.0211468</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0791249</v>
+                  <v>0.0216524</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0519505</v>
+                  <v>0.0228986</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0537373</v>
+                  <v>0.0250296</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0560572</v>
+                  <v>0.0299358</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0580173</v>
+                  <v>0.0207518</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0596857</v>
+                  <v>0.0209239</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0624772</v>
+                  <v>0.0210062</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06461600000000001</v>
+                  <v>0.0212501</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0672449</v>
+                  <v>0.0213877</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06969930000000001</v>
+                  <v>0.0216913</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.07249079999999999</v>
+                  <v>0.0219272</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.07484499999999999</v>
+                  <v>0.022197</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0778189</v>
+                  <v>0.022681</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0800609</v>
+                  <v>0.0234421</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0823764</v>
+                  <v>0.0240753</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0844506</v>
+                  <v>0.0257732</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0578649</v>
+                  <v>0.0285813</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0591875</v>
+                  <v>0.0324607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0615245</v>
+                  <v>0.0380034</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0639034</v>
+                  <v>0.0220148</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0656783</v>
+                  <v>0.0221262</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0679548</v>
+                  <v>0.0223024</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0705563</v>
+                  <v>0.022656</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0733139</v>
+                  <v>0.0228134</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0760695</v>
+                  <v>0.0231381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.07903490000000001</v>
+                  <v>0.0235722</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.080972</v>
+                  <v>0.0241989</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.08393299999999999</v>
+                  <v>0.025026</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.08583780000000001</v>
+                  <v>0.0264049</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.08868760000000001</v>
+                  <v>0.0283304</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0634653</v>
+                  <v>0.0308026</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0660341</v>
+                  <v>0.0349232</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.068684</v>
+                  <v>0.0401922</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0716908</v>
+                  <v>0.0246507</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0754389</v>
+                  <v>0.0249507</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0780781</v>
+                  <v>0.0249084</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.08159859999999999</v>
+                  <v>0.025417</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0866746</v>
+                  <v>0.025691</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0889358</v>
+                  <v>0.0262707</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0945853</v>
+                  <v>0.0268015</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0982999</v>
+                  <v>0.0274789</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.102978</v>
+                  <v>0.0288561</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.106901</v>
+                  <v>0.030155</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112317</v>
+                  <v>0.0326295</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.09733840000000001</v>
+                  <v>0.0355582</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101335</v>
+                  <v>0.0387886</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.105975</v>
+                  <v>0.0442776</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110132</v>
+                  <v>0.0354786</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.115172</v>
+                  <v>0.0356873</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.121209</v>
+                  <v>0.0359896</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.126205</v>
+                  <v>0.0361447</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.131141</v>
+                  <v>0.0365455</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.137704</v>
+                  <v>0.0370387</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.143051</v>
+                  <v>0.0374911</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.149748</v>
+                  <v>0.0382015</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154568</v>
+                  <v>0.0393225</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16029</v>
+                  <v>0.0405886</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166513</v>
+                  <v>0.0425901</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145912</v>
+                  <v>0.0454562</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.149301</v>
+                  <v>0.0496657</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152309</v>
+                  <v>0.0553023</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.157221</v>
+                  <v>0.07135279999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.160664</v>
+                  <v>0.0716075</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.166029</v>
+                  <v>0.0718963</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.170781</v>
+                  <v>0.0721396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.175608</v>
+                  <v>0.07288070000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181033</v>
+                  <v>0.07289329999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.186455</v>
+                  <v>0.073226</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192398</v>
+                  <v>0.073786</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199037</v>
+                  <v>0.0744944</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.203931</v>
+                  <v>0.07550759999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210695</v>
+                  <v>0.0775174</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.216678</v>
+                  <v>0.0796972</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181859</v>
+                  <v>0.0833348</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.199868</v>
+                  <v>0.08797199999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.193515</v>
+                  <v>0.0954035</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.192797</v>
+                  <v>0.0996648</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196994</v>
+                  <v>0.0977754</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201949</v>
+                  <v>0.0978999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206787</v>
+                  <v>0.0981046</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.212581</v>
+                  <v>0.0988192</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.217678</v>
+                  <v>0.0991438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223918</v>
+                  <v>0.102822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229518</v>
+                  <v>0.100287</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.23542</v>
+                  <v>0.101658</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.241207</v>
+                  <v>0.103364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247384</v>
+                  <v>0.105254</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199268</v>
+                  <v>0.108244</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202036</v>
+                  <v>0.11305</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205435</v>
+                  <v>0.119961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209778</v>
+                  <v>0.13336</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213788</v>
+                  <v>0.133718</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218497</v>
+                  <v>0.133814</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.22327</v>
+                  <v>0.133896</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228488</v>
+                  <v>0.134135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234375</v>
+                  <v>0.134577</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240447</v>
+                  <v>0.135148</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24599</v>
+                  <v>0.135817</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.251978</v>
+                  <v>0.136846</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.257944</v>
+                  <v>0.13806</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.268641</v>
+                  <v>0.139958</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209616</v>
+                  <v>0.14262</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212749</v>
+                  <v>0.146392</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216194</v>
+                  <v>0.152046</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.220147</v>
+                  <v>0.152616</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224171</v>
+                  <v>0.153035</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229194</v>
+                  <v>0.153122</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.234298</v>
+                  <v>0.153483</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239466</v>
+                  <v>0.153843</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.245367</v>
+                  <v>0.153735</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196261</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197912</v>
+                  <v>0.0372243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198901</v>
+                  <v>0.0433747</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199582</v>
+                  <v>0.0462062</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201314</v>
+                  <v>0.0510849</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0201829</v>
+                  <v>0.0306249</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0207955</v>
+                  <v>0.0325</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0194471</v>
+                  <v>0.0346322</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0195449</v>
+                  <v>0.0364502</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.019867</v>
+                  <v>0.0397791</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0201596</v>
+                  <v>0.0431275</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0201363</v>
+                  <v>0.0471309</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205715</v>
+                  <v>0.0496454</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.021072</v>
+                  <v>0.0533765</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0210413</v>
+                  <v>0.0571097</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0212453</v>
+                  <v>0.0602121</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0213354</v>
+                  <v>0.0639561</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0214148</v>
+                  <v>0.0669614</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0218501</v>
+                  <v>0.070434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0224228</v>
+                  <v>0.0451085</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0237556</v>
+                  <v>0.046578</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0210571</v>
+                  <v>0.0525073</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0212586</v>
+                  <v>0.0537413</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0214644</v>
+                  <v>0.056061</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0215637</v>
+                  <v>0.0582335</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.021764</v>
+                  <v>0.0604336</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221105</v>
+                  <v>0.063626</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.022421</v>
+                  <v>0.06649049999999999</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0226251</v>
+                  <v>0.0688616</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0229748</v>
+                  <v>0.07168040000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.02343</v>
+                  <v>0.0746487</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0239333</v>
+                  <v>0.07752729999999999</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0247176</v>
+                  <v>0.07917970000000001</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0263657</v>
+                  <v>0.0529663</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0292434</v>
+                  <v>0.0547963</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0221968</v>
+                  <v>0.0564959</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224122</v>
+                  <v>0.0580906</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226233</v>
+                  <v>0.0601554</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229104</v>
+                  <v>0.06259190000000001</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0231873</v>
+                  <v>0.0644839</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235225</v>
+                  <v>0.0672614</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0245394</v>
+                  <v>0.06977800000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242028</v>
+                  <v>0.0726223</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0246188</v>
+                  <v>0.0752708</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0255792</v>
+                  <v>0.0774999</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0258658</v>
+                  <v>0.0799808</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0269256</v>
+                  <v>0.0821132</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.029475</v>
+                  <v>0.0838373</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0328029</v>
+                  <v>0.057428</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0229759</v>
+                  <v>0.0590788</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0231768</v>
+                  <v>0.0613427</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0234395</v>
+                  <v>0.06343699999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.023729</v>
+                  <v>0.06561989999999999</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240074</v>
+                  <v>0.0681055</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.024327</v>
+                  <v>0.070746</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0247229</v>
+                  <v>0.0727792</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.025276</v>
+                  <v>0.0757994</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0257848</v>
+                  <v>0.07800020000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0264266</v>
+                  <v>0.08056480000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0273739</v>
+                  <v>0.08313520000000001</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0289127</v>
+                  <v>0.0855432</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313813</v>
+                  <v>0.0898707</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0347866</v>
+                  <v>0.0657703</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0405541</v>
+                  <v>0.06761300000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0251501</v>
+                  <v>0.0706816</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254762</v>
+                  <v>0.0736002</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0257275</v>
+                  <v>0.07693999999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0260131</v>
+                  <v>0.0791196</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0263866</v>
+                  <v>0.0839456</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0261122</v>
+                  <v>0.0874417</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0272077</v>
+                  <v>0.0915048</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281149</v>
+                  <v>0.0958411</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283556</v>
+                  <v>0.100017</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0292696</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0306653</v>
+                  <v>0.107671</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0333493</v>
+                  <v>0.113168</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0363328</v>
+                  <v>0.0979264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0412171</v>
+                  <v>0.101481</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0356659</v>
+                  <v>0.105553</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0363526</v>
+                  <v>0.11045</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0371667</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0379171</v>
+                  <v>0.120141</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0386585</v>
+                  <v>0.125522</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0393656</v>
+                  <v>0.130499</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0400877</v>
+                  <v>0.135999</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0412195</v>
+                  <v>0.141492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0419461</v>
+                  <v>0.147983</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0430021</v>
+                  <v>0.153941</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0442752</v>
+                  <v>0.160131</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.046052</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0487434</v>
+                  <v>0.145305</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0533016</v>
+                  <v>0.149575</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0713101</v>
+                  <v>0.15412</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07162789999999999</v>
+                  <v>0.156752</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721873</v>
+                  <v>0.161486</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0726131</v>
+                  <v>0.165355</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0731451</v>
+                  <v>0.171084</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.073726</v>
+                  <v>0.175965</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0743772</v>
+                  <v>0.181715</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0751235</v>
+                  <v>0.18689</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0758935</v>
+                  <v>0.193063</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07695730000000001</v>
+                  <v>0.198751</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07818170000000001</v>
+                  <v>0.204087</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0798373</v>
+                  <v>0.211733</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08226</v>
+                  <v>0.21659</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859181</v>
+                  <v>0.182251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08945119999999999</v>
+                  <v>0.185854</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0901479</v>
+                  <v>0.189322</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0909215</v>
+                  <v>0.193413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0917118</v>
+                  <v>0.19773</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.09258719999999999</v>
+                  <v>0.202287</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.09357890000000001</v>
+                  <v>0.208167</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09464</v>
+                  <v>0.212927</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0957011</v>
+                  <v>0.218337</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0970447</v>
+                  <v>0.224385</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0984414</v>
+                  <v>0.230112</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101572</v>
+                  <v>0.236296</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102157</v>
+                  <v>0.242636</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104633</v>
+                  <v>0.248114</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108505</v>
+                  <v>0.200198</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114455</v>
+                  <v>0.202936</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.107135</v>
+                  <v>0.206116</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.10814</v>
+                  <v>0.209939</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109179</v>
+                  <v>0.214804</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110339</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111555</v>
+                  <v>0.223485</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.117399</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11438</v>
+                  <v>0.235257</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115714</v>
+                  <v>0.24097</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117191</v>
+                  <v>0.246462</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.11914</v>
+                  <v>0.253085</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121337</v>
+                  <v>0.258205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127893</v>
+                  <v>0.265025</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128374</v>
+                  <v>0.210482</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.134621</v>
+                  <v>0.213193</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118436</v>
+                  <v>0.219024</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119542</v>
+                  <v>0.221271</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120555</v>
+                  <v>0.22573</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.124935</v>
+                  <v>0.229762</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12278</v>
+                  <v>0.23492</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123993</v>
+                  <v>0.24055</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125349</v>
+                  <v>0.245786</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0206785</v>
+                  <v>0.0197894</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0207813</v>
+                  <v>0.0201052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208833</v>
+                  <v>0.0201236</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207783</v>
+                  <v>0.0200332</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0207749</v>
+                  <v>0.0203125</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020897</v>
+                  <v>0.0206254</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212215</v>
+                  <v>0.0213259</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0216661</v>
+                  <v>0.019472</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0216931</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0219577</v>
+                  <v>0.019895</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0219969</v>
+                  <v>0.0201555</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0221826</v>
+                  <v>0.0202462</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0225411</v>
+                  <v>0.0204734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0228079</v>
+                  <v>0.0207159</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0227173</v>
+                  <v>0.0208968</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227772</v>
+                  <v>0.021277</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230473</v>
+                  <v>0.0214165</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0229634</v>
+                  <v>0.0217844</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0230157</v>
+                  <v>0.0221565</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234205</v>
+                  <v>0.0230293</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0244919</v>
+                  <v>0.02607</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.023336</v>
+                  <v>0.0209819</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0235586</v>
+                  <v>0.0211275</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0238225</v>
+                  <v>0.0213664</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0237382</v>
+                  <v>0.021552</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0238801</v>
+                  <v>0.0217889</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0241333</v>
+                  <v>0.022141</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0244564</v>
+                  <v>0.0224621</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0245499</v>
+                  <v>0.0227454</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0247842</v>
+                  <v>0.0230891</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0251216</v>
+                  <v>0.0235791</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0254613</v>
+                  <v>0.0243147</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0260233</v>
+                  <v>0.0254992</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0270699</v>
+                  <v>0.0276103</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0306774</v>
+                  <v>0.0319471</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0245451</v>
+                  <v>0.0222259</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0247372</v>
+                  <v>0.0224589</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.024937</v>
+                  <v>0.0225931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0252111</v>
+                  <v>0.0229286</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0253094</v>
+                  <v>0.0231774</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0255793</v>
+                  <v>0.0240694</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0257865</v>
+                  <v>0.0239096</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0260194</v>
+                  <v>0.0242348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.026382</v>
+                  <v>0.0247279</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0268562</v>
+                  <v>0.0255188</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0274538</v>
+                  <v>0.0264864</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0286629</v>
+                  <v>0.0279806</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.030666</v>
+                  <v>0.0306931</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0341753</v>
+                  <v>0.0341211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0248564</v>
+                  <v>0.0229859</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0250656</v>
+                  <v>0.0231886</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0253725</v>
+                  <v>0.0234438</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0256172</v>
+                  <v>0.0237361</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.025785</v>
+                  <v>0.0240592</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0260479</v>
+                  <v>0.0243611</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265271</v>
+                  <v>0.0247697</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0269807</v>
+                  <v>0.0252948</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0273609</v>
+                  <v>0.0259223</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0280786</v>
+                  <v>0.026794</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0290054</v>
+                  <v>0.027927</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0305336</v>
+                  <v>0.0297296</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0329544</v>
+                  <v>0.0320666</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0362898</v>
+                  <v>0.0355204</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0419218</v>
+                  <v>0.040984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.026637</v>
+                  <v>0.0253889</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0267861</v>
+                  <v>0.0250649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0277745</v>
+                  <v>0.0253452</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0273026</v>
+                  <v>0.0255558</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0277491</v>
+                  <v>0.0259444</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0281135</v>
+                  <v>0.0264835</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0285725</v>
+                  <v>0.0277257</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0291539</v>
+                  <v>0.0278552</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0301281</v>
+                  <v>0.0284422</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0315789</v>
+                  <v>0.0297968</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.032797</v>
+                  <v>0.0311555</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0350439</v>
+                  <v>0.033579</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0383708</v>
+                  <v>0.036514</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0434181</v>
+                  <v>0.041536</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0335094</v>
+                  <v>0.0361322</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.033843</v>
+                  <v>0.0366932</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0344867</v>
+                  <v>0.0376074</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0348016</v>
+                  <v>0.0384358</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0352056</v>
+                  <v>0.0391975</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0360305</v>
+                  <v>0.0400954</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0367309</v>
+                  <v>0.0407676</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0372919</v>
+                  <v>0.0415868</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0386863</v>
+                  <v>0.0424312</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0396944</v>
+                  <v>0.0440182</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0417616</v>
+                  <v>0.0448619</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0440648</v>
+                  <v>0.0466044</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0474931</v>
+                  <v>0.0522096</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.052939</v>
+                  <v>0.0533849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06786490000000001</v>
+                  <v>0.07120079999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.068254</v>
+                  <v>0.074347</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.06875249999999999</v>
+                  <v>0.0720843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0691842</v>
+                  <v>0.0726903</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.06990540000000001</v>
+                  <v>0.0733799</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.07045410000000001</v>
+                  <v>0.0737217</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0711215</v>
+                  <v>0.0743284</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0718926</v>
+                  <v>0.07510169999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0728032</v>
+                  <v>0.0759703</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07412000000000001</v>
+                  <v>0.0768456</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07561420000000001</v>
+                  <v>0.078163</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0777135</v>
+                  <v>0.08907039999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08079749999999999</v>
+                  <v>0.0824233</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859578</v>
+                  <v>0.0859721</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0926965</v>
+                  <v>0.0888313</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0931657</v>
+                  <v>0.0893418</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.09363</v>
+                  <v>0.09014900000000001</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0942807</v>
+                  <v>0.0909683</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0949342</v>
+                  <v>0.091824</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0956124</v>
+                  <v>0.0928055</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09643110000000001</v>
+                  <v>0.0937335</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0974578</v>
+                  <v>0.0949487</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.09865409999999999</v>
+                  <v>0.0960443</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.099985</v>
+                  <v>0.1104</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101915</v>
+                  <v>0.0990668</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.10417</v>
+                  <v>0.101151</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.107355</v>
+                  <v>0.103725</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.111855</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.119295</v>
+                  <v>0.11348</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.111174</v>
+                  <v>0.107438</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.113436</v>
+                  <v>0.108556</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.112627</v>
+                  <v>0.109643</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.113487</v>
+                  <v>0.110714</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.114491</v>
+                  <v>0.111891</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.116157</v>
+                  <v>0.113163</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.116856</v>
+                  <v>0.114402</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.118562</v>
+                  <v>0.119551</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.120523</v>
+                  <v>0.117449</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.121962</v>
+                  <v>0.11945</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.124397</v>
+                  <v>0.121615</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127842</v>
+                  <v>0.124506</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14034</v>
+                  <v>0.128529</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13989</v>
+                  <v>0.136396</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.123322</v>
+                  <v>0.118386</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.124097</v>
+                  <v>0.120885</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.124887</v>
+                  <v>0.121618</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.126237</v>
+                  <v>0.121781</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12706</v>
+                  <v>0.123325</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.127951</v>
+                  <v>0.123784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.129431</v>
+                  <v>0.125183</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0207038</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0209254</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0210935</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0211706</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0212118</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0213994</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0221416</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0217383</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.021984</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219441</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0222077</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0225074</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225264</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0227424</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0228512</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.022922</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0231906</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0233755</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0238266</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0248271</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0279618</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0233915</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0234442</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0236222</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237763</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0240463</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0242566</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0245442</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0247829</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0251674</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0255784</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0262318</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0271806</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0296471</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0340328</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245842</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247098</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0249816</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0251795</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253233</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0256274</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0259189</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0261494</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026656</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0272972</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0281227</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0297722</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0320114</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0359768</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0249922</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0251284</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0254049</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0255729</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0259531</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0261395</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265401</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0270227</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0276978</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0284369</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0295769</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0313434</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0337604</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0372556</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.042835</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0265858</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0269848</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0272039</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0274478</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0278812</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281991</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0287265</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0295737</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0303666</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315994</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0332608</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0355532</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.038887</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0440891</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335026</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0336411</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0340919</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0347245</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0350658</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.035695</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.036408</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372398</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0382203</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0395911</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0413396</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440599</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0478185</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531663</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0674756</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0678738</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06835280000000001</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0688624</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.07131179999999999</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07247720000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0707691</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0715047</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0724716</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07365339999999999</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0752357</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.07733470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0805929</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.08521570000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.09318120000000001</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0937201</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0947561</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0946718</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0954238</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0960589</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09680229999999999</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.09780510000000001</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0989189</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.100379</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.102046</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.104462</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107403</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.123425</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119466</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111747</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.112366</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.113098</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113718</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114767</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.115834</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.117009</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.11837</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120045</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.122017</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124441</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.12801</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.132847</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.140151</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123723</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124728</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.125981</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126212</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.127737</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127931</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129179</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0193848</v>
+        <v>0.0197029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0175627</v>
+        <v>0.0177832</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0349354</v>
+        <v>0.0348607</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197894</v>
+        <v>0.0197826</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207038</v>
+        <v>0.0207169</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0194619</v>
+        <v>0.0197304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0175947</v>
+        <v>0.0178226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0372243</v>
+        <v>0.0400009</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0201052</v>
+        <v>0.0200642</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0209254</v>
+        <v>0.0208789</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0193778</v>
+        <v>0.0195818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0176587</v>
+        <v>0.0179078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0433747</v>
+        <v>0.0429993</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0201236</v>
+        <v>0.0200912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0210935</v>
+        <v>0.0210312</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0194707</v>
+        <v>0.0196294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0177658</v>
+        <v>0.0177426</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0462062</v>
+        <v>0.0461287</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0200332</v>
+        <v>0.0201405</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0211706</v>
+        <v>0.0211923</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0196489</v>
+        <v>0.0200383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0179719</v>
+        <v>0.0181369</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0510849</v>
+        <v>0.0548663</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0203125</v>
+        <v>0.020368</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0212118</v>
+        <v>0.0213182</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0196529</v>
+        <v>0.01994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.018025</v>
+        <v>0.017944</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0306249</v>
+        <v>0.0305546</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0206254</v>
+        <v>0.0206559</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0213994</v>
+        <v>0.0214979</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0199483</v>
+        <v>0.0199922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0181412</v>
+        <v>0.01822</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0325</v>
+        <v>0.0330186</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0213259</v>
+        <v>0.0214027</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0221416</v>
+        <v>0.0221885</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0201947</v>
+        <v>0.0203669</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0187716</v>
+        <v>0.0188867</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0346322</v>
+        <v>0.0351268</v>
       </c>
       <c r="E9" t="n">
-        <v>0.019472</v>
+        <v>0.0194062</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0217383</v>
+        <v>0.0216748</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0192209</v>
+        <v>0.0190905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0181729</v>
+        <v>0.017971</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0364502</v>
+        <v>0.0368174</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0198448</v>
+        <v>0.0198149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.021984</v>
+        <v>0.0218079</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.019424</v>
+        <v>0.0192087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0183363</v>
+        <v>0.0181009</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0397791</v>
+        <v>0.0399429</v>
       </c>
       <c r="E11" t="n">
-        <v>0.019895</v>
+        <v>0.019792</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0219441</v>
+        <v>0.0219248</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197447</v>
+        <v>0.0193318</v>
       </c>
       <c r="C12" t="n">
-        <v>0.018272</v>
+        <v>0.0183023</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0431275</v>
+        <v>0.0430388</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0201555</v>
+        <v>0.0200275</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0222077</v>
+        <v>0.0220529</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0197918</v>
+        <v>0.019649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0186146</v>
+        <v>0.0183372</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0471309</v>
+        <v>0.0477401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0202462</v>
+        <v>0.0203374</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0225074</v>
+        <v>0.0222671</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198616</v>
+        <v>0.0198138</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0185738</v>
+        <v>0.0186079</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0496454</v>
+        <v>0.0498982</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0204734</v>
+        <v>0.0206275</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0225264</v>
+        <v>0.0225971</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0200231</v>
+        <v>0.0197844</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0189054</v>
+        <v>0.0184995</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0533765</v>
+        <v>0.0539642</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0207159</v>
+        <v>0.0208915</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0227424</v>
+        <v>0.0229012</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201789</v>
+        <v>0.0201984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0189311</v>
+        <v>0.0187353</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0571097</v>
+        <v>0.0568172</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0208968</v>
+        <v>0.0209266</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0228512</v>
+        <v>0.0229182</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202069</v>
+        <v>0.0200993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0193473</v>
+        <v>0.0186255</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0602121</v>
+        <v>0.0605348</v>
       </c>
       <c r="E17" t="n">
-        <v>0.021277</v>
+        <v>0.0212529</v>
       </c>
       <c r="F17" t="n">
-        <v>0.022922</v>
+        <v>0.0230658</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0204096</v>
+        <v>0.0202111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0191405</v>
+        <v>0.0187794</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0639561</v>
+        <v>0.0636963</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0214165</v>
+        <v>0.0214844</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0231906</v>
+        <v>0.0233278</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0205851</v>
+        <v>0.0202838</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0193073</v>
+        <v>0.0190865</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0669614</v>
+        <v>0.06696920000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0217844</v>
+        <v>0.0219786</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0233755</v>
+        <v>0.0233359</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0206359</v>
+        <v>0.020268</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0193</v>
+        <v>0.0191502</v>
       </c>
       <c r="D20" t="n">
-        <v>0.070434</v>
+        <v>0.0694164</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0221565</v>
+        <v>0.0222283</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238266</v>
+        <v>0.0238634</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0208679</v>
+        <v>0.0204355</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0195934</v>
+        <v>0.0193912</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0451085</v>
+        <v>0.0447042</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0230293</v>
+        <v>0.0230507</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0248271</v>
+        <v>0.0249247</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0211078</v>
+        <v>0.0210107</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0204342</v>
+        <v>0.0199714</v>
       </c>
       <c r="D22" t="n">
-        <v>0.046578</v>
+        <v>0.0465978</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02607</v>
+        <v>0.0287019</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0279618</v>
+        <v>0.0302423</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0248881</v>
+        <v>0.0249912</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0258092</v>
+        <v>0.0260621</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0525073</v>
+        <v>0.0528601</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0209819</v>
+        <v>0.020969</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0233915</v>
+        <v>0.023342</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0203805</v>
+        <v>0.0202738</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0194516</v>
+        <v>0.0193185</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0537413</v>
+        <v>0.0544755</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211275</v>
+        <v>0.0211061</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234442</v>
+        <v>0.0234491</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204958</v>
+        <v>0.0202785</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0195151</v>
+        <v>0.0194455</v>
       </c>
       <c r="D25" t="n">
-        <v>0.056061</v>
+        <v>0.0570012</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213664</v>
+        <v>0.0213267</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236222</v>
+        <v>0.0236025</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206497</v>
+        <v>0.0206082</v>
       </c>
       <c r="C26" t="n">
-        <v>0.019712</v>
+        <v>0.0195818</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0582335</v>
+        <v>0.0586934</v>
       </c>
       <c r="E26" t="n">
-        <v>0.021552</v>
+        <v>0.0215441</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0237763</v>
+        <v>0.0238008</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208718</v>
+        <v>0.0207714</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0198041</v>
+        <v>0.019865</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0604336</v>
+        <v>0.0611559</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0217889</v>
+        <v>0.0220027</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0240463</v>
+        <v>0.0240255</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210186</v>
+        <v>0.0209301</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0200263</v>
+        <v>0.0200581</v>
       </c>
       <c r="D28" t="n">
-        <v>0.063626</v>
+        <v>0.0646909</v>
       </c>
       <c r="E28" t="n">
-        <v>0.022141</v>
+        <v>0.022136</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0242566</v>
+        <v>0.0243397</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211438</v>
+        <v>0.0210942</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0201955</v>
+        <v>0.0202461</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06649049999999999</v>
+        <v>0.0670163</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224621</v>
+        <v>0.0224802</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0245442</v>
+        <v>0.0245539</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213385</v>
+        <v>0.0213096</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0204215</v>
+        <v>0.0204283</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0688616</v>
+        <v>0.0693279</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227454</v>
+        <v>0.0227387</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0247829</v>
+        <v>0.0247885</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.021513</v>
+        <v>0.0215352</v>
       </c>
       <c r="C31" t="n">
-        <v>0.020546</v>
+        <v>0.020594</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07168040000000001</v>
+        <v>0.0723707</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0230891</v>
+        <v>0.023192</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251674</v>
+        <v>0.0251166</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0220629</v>
+        <v>0.0216665</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0208661</v>
+        <v>0.0208654</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0746487</v>
+        <v>0.07513590000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235791</v>
+        <v>0.0236763</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0255784</v>
+        <v>0.0256222</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221137</v>
+        <v>0.0221115</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0211468</v>
+        <v>0.0212822</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07752729999999999</v>
+        <v>0.0774652</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0243147</v>
+        <v>0.0242169</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0262318</v>
+        <v>0.0262207</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0228733</v>
+        <v>0.0227667</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0216524</v>
+        <v>0.0220012</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07917970000000001</v>
+        <v>0.07910780000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0254992</v>
+        <v>0.0258155</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0271806</v>
+        <v>0.0274553</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0243698</v>
+        <v>0.0253284</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0228986</v>
+        <v>0.0243199</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0529663</v>
+        <v>0.0528502</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0276103</v>
+        <v>0.0280374</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0296471</v>
+        <v>0.0299746</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0271109</v>
+        <v>0.0264901</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0250296</v>
+        <v>0.0257347</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0547963</v>
+        <v>0.0542868</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0319471</v>
+        <v>0.0324337</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0340328</v>
+        <v>0.033716</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0312224</v>
+        <v>0.0325824</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0299358</v>
+        <v>0.030473</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0564959</v>
+        <v>0.0567142</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0222259</v>
+        <v>0.0221636</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0245842</v>
+        <v>0.0246014</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214949</v>
+        <v>0.0215495</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0207518</v>
+        <v>0.020956</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0580906</v>
+        <v>0.0582646</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0224589</v>
+        <v>0.0224571</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247098</v>
+        <v>0.0247709</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0218569</v>
+        <v>0.0215573</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0209239</v>
+        <v>0.0209968</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0601554</v>
+        <v>0.0603325</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0225931</v>
+        <v>0.0226044</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0249816</v>
+        <v>0.0249246</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217457</v>
+        <v>0.0219235</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0210062</v>
+        <v>0.0211562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06259190000000001</v>
+        <v>0.0628098</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229286</v>
+        <v>0.0229191</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0251795</v>
+        <v>0.025202</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220473</v>
+        <v>0.0218744</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0212501</v>
+        <v>0.0212267</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0644839</v>
+        <v>0.06461069999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231774</v>
+        <v>0.0231811</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253233</v>
+        <v>0.0253469</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222951</v>
+        <v>0.0221576</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0213877</v>
+        <v>0.0215972</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0672614</v>
+        <v>0.0671175</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0240694</v>
+        <v>0.0235688</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256274</v>
+        <v>0.0256131</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224305</v>
+        <v>0.0223421</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0216913</v>
+        <v>0.0216304</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06977800000000001</v>
+        <v>0.0699496</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0239096</v>
+        <v>0.0239409</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0259189</v>
+        <v>0.0258781</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226572</v>
+        <v>0.0226761</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0219272</v>
+        <v>0.0219144</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0726223</v>
+        <v>0.07280929999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242348</v>
+        <v>0.0242547</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261494</v>
+        <v>0.0261597</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0229888</v>
+        <v>0.0228732</v>
       </c>
       <c r="C45" t="n">
-        <v>0.022197</v>
+        <v>0.0223307</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0752708</v>
+        <v>0.0753356</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247279</v>
+        <v>0.0247383</v>
       </c>
       <c r="F45" t="n">
-        <v>0.026656</v>
+        <v>0.0266831</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0234883</v>
+        <v>0.0232117</v>
       </c>
       <c r="C46" t="n">
-        <v>0.022681</v>
+        <v>0.0226524</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0774999</v>
+        <v>0.0780309</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0255188</v>
+        <v>0.0255201</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272972</v>
+        <v>0.0272663</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0238963</v>
+        <v>0.0239347</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0234421</v>
+        <v>0.0233942</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0799808</v>
+        <v>0.08015750000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0264864</v>
+        <v>0.0264949</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0281227</v>
+        <v>0.0282443</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025005</v>
+        <v>0.025713</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0240753</v>
+        <v>0.0246643</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0821132</v>
+        <v>0.0825174</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0279806</v>
+        <v>0.0280301</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0297722</v>
+        <v>0.0299574</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0268192</v>
+        <v>0.0270799</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0257732</v>
+        <v>0.0264312</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0838373</v>
+        <v>0.0840793</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0306931</v>
+        <v>0.030625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0320114</v>
+        <v>0.0321575</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.029844</v>
+        <v>0.0298683</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0285813</v>
+        <v>0.0290301</v>
       </c>
       <c r="D50" t="n">
-        <v>0.057428</v>
+        <v>0.0578376</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0341211</v>
+        <v>0.0344834</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0359768</v>
+        <v>0.0359227</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0336676</v>
+        <v>0.0332643</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0324607</v>
+        <v>0.0329722</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0590788</v>
+        <v>0.0594435</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0229859</v>
+        <v>0.0229644</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0249922</v>
+        <v>0.0250003</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03842</v>
+        <v>0.0382627</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0380034</v>
+        <v>0.038371</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613427</v>
+        <v>0.0613575</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0231886</v>
+        <v>0.0231919</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251284</v>
+        <v>0.0251596</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0233104</v>
+        <v>0.023376</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0220148</v>
+        <v>0.0219202</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06343699999999999</v>
+        <v>0.0634429</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234438</v>
+        <v>0.0234633</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0254049</v>
+        <v>0.0253632</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.023341</v>
+        <v>0.0233862</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0221262</v>
+        <v>0.0220996</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06561989999999999</v>
+        <v>0.0655454</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0237361</v>
+        <v>0.023756</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0255729</v>
+        <v>0.0256177</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0237441</v>
+        <v>0.0234516</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0223024</v>
+        <v>0.022241</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0681055</v>
+        <v>0.06820950000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0240592</v>
+        <v>0.024002</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0259531</v>
+        <v>0.0260456</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239331</v>
+        <v>0.0237086</v>
       </c>
       <c r="C56" t="n">
-        <v>0.022656</v>
+        <v>0.0224808</v>
       </c>
       <c r="D56" t="n">
-        <v>0.070746</v>
+        <v>0.0705921</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243611</v>
+        <v>0.0243721</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261395</v>
+        <v>0.0261354</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0241352</v>
+        <v>0.0240021</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0228134</v>
+        <v>0.0226933</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0727792</v>
+        <v>0.0737414</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0247697</v>
+        <v>0.0248007</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0265401</v>
+        <v>0.026512</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024359</v>
+        <v>0.0244632</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0231381</v>
+        <v>0.023147</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0757994</v>
+        <v>0.076196</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0252948</v>
+        <v>0.0252895</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0270227</v>
+        <v>0.0270285</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0245657</v>
+        <v>0.024777</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0235722</v>
+        <v>0.0236583</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07800020000000001</v>
+        <v>0.0787017</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0259223</v>
+        <v>0.0259516</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276978</v>
+        <v>0.0276954</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0251086</v>
+        <v>0.0253252</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0241989</v>
+        <v>0.0241021</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08056480000000001</v>
+        <v>0.08171059999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.026794</v>
+        <v>0.0268299</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0284369</v>
+        <v>0.028346</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0260587</v>
+        <v>0.0262127</v>
       </c>
       <c r="C61" t="n">
-        <v>0.025026</v>
+        <v>0.0251702</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08313520000000001</v>
+        <v>0.0837302</v>
       </c>
       <c r="E61" t="n">
-        <v>0.027927</v>
+        <v>0.0279139</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0295769</v>
+        <v>0.0296383</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274484</v>
+        <v>0.0275722</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0264049</v>
+        <v>0.0263024</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0855432</v>
+        <v>0.086447</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0297296</v>
+        <v>0.029725</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0313434</v>
+        <v>0.0313602</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0293528</v>
+        <v>0.0296294</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0283304</v>
+        <v>0.0281961</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0898707</v>
+        <v>0.0884556</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0320666</v>
+        <v>0.0321024</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0337604</v>
+        <v>0.0336924</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0319897</v>
+        <v>0.0323637</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0308026</v>
+        <v>0.0311656</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0657703</v>
+        <v>0.0632273</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0355204</v>
+        <v>0.0355887</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0372556</v>
+        <v>0.0374407</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0356338</v>
+        <v>0.035763</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0349232</v>
+        <v>0.035165</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06761300000000001</v>
+        <v>0.0665869</v>
       </c>
       <c r="E65" t="n">
-        <v>0.040984</v>
+        <v>0.0410133</v>
       </c>
       <c r="F65" t="n">
-        <v>0.042835</v>
+        <v>0.042854</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0409657</v>
+        <v>0.0410071</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0401922</v>
+        <v>0.0404243</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0706816</v>
+        <v>0.0693004</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0253889</v>
+        <v>0.0251325</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0265858</v>
+        <v>0.026662</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0289145</v>
+        <v>0.0296415</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0246507</v>
+        <v>0.0250135</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0736002</v>
+        <v>0.0723758</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0250649</v>
+        <v>0.0252707</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0269848</v>
+        <v>0.0270437</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0290849</v>
+        <v>0.0296182</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0249507</v>
+        <v>0.024764</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07693999999999999</v>
+        <v>0.07460319999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0253452</v>
+        <v>0.0255287</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272039</v>
+        <v>0.0272624</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0291312</v>
+        <v>0.029671</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0249084</v>
+        <v>0.0253305</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0791196</v>
+        <v>0.0784357</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0255558</v>
+        <v>0.0258819</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0274478</v>
+        <v>0.0276069</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0292314</v>
+        <v>0.0299226</v>
       </c>
       <c r="C70" t="n">
-        <v>0.025417</v>
+        <v>0.0256244</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0839456</v>
+        <v>0.0820217</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0259444</v>
+        <v>0.0262333</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0278812</v>
+        <v>0.0279474</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0295317</v>
+        <v>0.0302333</v>
       </c>
       <c r="C71" t="n">
-        <v>0.025691</v>
+        <v>0.0257198</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0874417</v>
+        <v>0.0859171</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0264835</v>
+        <v>0.0264132</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0281991</v>
+        <v>0.0282301</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0298013</v>
+        <v>0.0304387</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0262707</v>
+        <v>0.0266683</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0915048</v>
+        <v>0.0899228</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0277257</v>
+        <v>0.0270807</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0287265</v>
+        <v>0.0288541</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0301607</v>
+        <v>0.0307984</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0268015</v>
+        <v>0.026978</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0958411</v>
+        <v>0.0944651</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0278552</v>
+        <v>0.0277807</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0295737</v>
+        <v>0.0294396</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.030776</v>
+        <v>0.0313633</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0274789</v>
+        <v>0.0275904</v>
       </c>
       <c r="D74" t="n">
-        <v>0.100017</v>
+        <v>0.0975321</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0284422</v>
+        <v>0.0283821</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0303666</v>
+        <v>0.0302336</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0317162</v>
+        <v>0.0324952</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0288561</v>
+        <v>0.0287284</v>
       </c>
       <c r="D75" t="n">
-        <v>0.10394</v>
+        <v>0.101935</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0297968</v>
+        <v>0.0298292</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0315994</v>
+        <v>0.0314833</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0328879</v>
+        <v>0.0336131</v>
       </c>
       <c r="C76" t="n">
-        <v>0.030155</v>
+        <v>0.0299448</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107671</v>
+        <v>0.107117</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0311555</v>
+        <v>0.0314692</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0332608</v>
+        <v>0.0332519</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0346028</v>
+        <v>0.0352722</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0326295</v>
+        <v>0.032467</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113168</v>
+        <v>0.113211</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033579</v>
+        <v>0.0333562</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0355532</v>
+        <v>0.0355653</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0370192</v>
+        <v>0.0379539</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0355582</v>
+        <v>0.0350742</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0979264</v>
+        <v>0.0975351</v>
       </c>
       <c r="E78" t="n">
-        <v>0.036514</v>
+        <v>0.0364379</v>
       </c>
       <c r="F78" t="n">
-        <v>0.038887</v>
+        <v>0.0391816</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0402907</v>
+        <v>0.0412628</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0387886</v>
+        <v>0.0387075</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101481</v>
+        <v>0.101844</v>
       </c>
       <c r="E79" t="n">
-        <v>0.041536</v>
+        <v>0.0416509</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0440891</v>
+        <v>0.0442014</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0451694</v>
+        <v>0.0459095</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0442776</v>
+        <v>0.0440338</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105553</v>
+        <v>0.105787</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0361322</v>
+        <v>0.0362885</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0335026</v>
+        <v>0.0340507</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0547573</v>
+        <v>0.055094</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0354786</v>
+        <v>0.0358549</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11045</v>
+        <v>0.114731</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0366932</v>
+        <v>0.0369744</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0336411</v>
+        <v>0.0343746</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0555636</v>
+        <v>0.0558679</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0356873</v>
+        <v>0.0359603</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115302</v>
+        <v>0.115888</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0376074</v>
+        <v>0.0377672</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0340919</v>
+        <v>0.0348598</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.055387</v>
+        <v>0.0553193</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0359896</v>
+        <v>0.0363639</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120141</v>
+        <v>0.120485</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0384358</v>
+        <v>0.0386016</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0347245</v>
+        <v>0.0353316</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0554725</v>
+        <v>0.0558434</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0361447</v>
+        <v>0.0366315</v>
       </c>
       <c r="D84" t="n">
-        <v>0.125522</v>
+        <v>0.127408</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0391975</v>
+        <v>0.0391935</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0350658</v>
+        <v>0.035899</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557169</v>
+        <v>0.0559024</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0365455</v>
+        <v>0.036985</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130499</v>
+        <v>0.130941</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0400954</v>
+        <v>0.0399682</v>
       </c>
       <c r="F85" t="n">
-        <v>0.035695</v>
+        <v>0.0362724</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0559509</v>
+        <v>0.0561313</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0370387</v>
+        <v>0.0374769</v>
       </c>
       <c r="D86" t="n">
-        <v>0.135999</v>
+        <v>0.136131</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0407676</v>
+        <v>0.0408565</v>
       </c>
       <c r="F86" t="n">
-        <v>0.036408</v>
+        <v>0.0370932</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0560586</v>
+        <v>0.0565055</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0374911</v>
+        <v>0.0380599</v>
       </c>
       <c r="D87" t="n">
-        <v>0.141492</v>
+        <v>0.143583</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0415868</v>
+        <v>0.0417207</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0372398</v>
+        <v>0.0379461</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0562625</v>
+        <v>0.0569163</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0382015</v>
+        <v>0.0388812</v>
       </c>
       <c r="D88" t="n">
-        <v>0.147983</v>
+        <v>0.148483</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0424312</v>
+        <v>0.0426189</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0382203</v>
+        <v>0.0390122</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0567185</v>
+        <v>0.0574846</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0393225</v>
+        <v>0.0399494</v>
       </c>
       <c r="D89" t="n">
-        <v>0.153941</v>
+        <v>0.15431</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0440182</v>
+        <v>0.0435012</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0395911</v>
+        <v>0.0404352</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0576972</v>
+        <v>0.0581785</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0405886</v>
+        <v>0.0413558</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160131</v>
+        <v>0.160437</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0448619</v>
+        <v>0.0449728</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0413396</v>
+        <v>0.042379</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0587159</v>
+        <v>0.0620287</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0425901</v>
+        <v>0.0431785</v>
       </c>
       <c r="D91" t="n">
-        <v>0.165987</v>
+        <v>0.166027</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0466044</v>
+        <v>0.0467796</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0440599</v>
+        <v>0.0448361</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.060325</v>
+        <v>0.0609023</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0454562</v>
+        <v>0.0462663</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145305</v>
+        <v>0.14564</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0522096</v>
+        <v>0.0492794</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0478185</v>
+        <v>0.0482959</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0629981</v>
+        <v>0.0633336</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0496657</v>
+        <v>0.0500341</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149575</v>
+        <v>0.149393</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0533849</v>
+        <v>0.0535675</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0531663</v>
+        <v>0.0537233</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06682589999999999</v>
+        <v>0.06722210000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0553023</v>
+        <v>0.055782</v>
       </c>
       <c r="D94" t="n">
-        <v>0.15412</v>
+        <v>0.152226</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07120079999999999</v>
+        <v>0.0712407</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0674756</v>
+        <v>0.067763</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0858251</v>
+        <v>0.0856838</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07135279999999999</v>
+        <v>0.0699279</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156752</v>
+        <v>0.156376</v>
       </c>
       <c r="E95" t="n">
-        <v>0.074347</v>
+        <v>0.0716951</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0678738</v>
+        <v>0.0682633</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0857677</v>
+        <v>0.09380960000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0716075</v>
+        <v>0.07026200000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.161486</v>
+        <v>0.160704</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0720843</v>
+        <v>0.0721367</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06835280000000001</v>
+        <v>0.0686793</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.085906</v>
+        <v>0.0859101</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0718963</v>
+        <v>0.07042370000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.165355</v>
+        <v>0.166384</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0726903</v>
+        <v>0.072695</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0688624</v>
+        <v>0.06920320000000001</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859969</v>
+        <v>0.0859466</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0721396</v>
+        <v>0.0705346</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171084</v>
+        <v>0.171071</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0733799</v>
+        <v>0.0731676</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07131179999999999</v>
+        <v>0.0696397</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.086075</v>
+        <v>0.0860799</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07288070000000001</v>
+        <v>0.0709335</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175965</v>
+        <v>0.175695</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0737217</v>
+        <v>0.0736995</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07247720000000001</v>
+        <v>0.0703642</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0861682</v>
+        <v>0.0862807</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07289329999999999</v>
+        <v>0.0713741</v>
       </c>
       <c r="D100" t="n">
-        <v>0.181715</v>
+        <v>0.180995</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0743284</v>
+        <v>0.0744924</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0707691</v>
+        <v>0.0710001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08647729999999999</v>
+        <v>0.0864352</v>
       </c>
       <c r="C101" t="n">
-        <v>0.073226</v>
+        <v>0.07187399999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.18689</v>
+        <v>0.187033</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07510169999999999</v>
+        <v>0.0750749</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0715047</v>
+        <v>0.0718744</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867111</v>
+        <v>0.0867573</v>
       </c>
       <c r="C102" t="n">
-        <v>0.073786</v>
+        <v>0.07242030000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.193063</v>
+        <v>0.192787</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0759703</v>
+        <v>0.07597959999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0724716</v>
+        <v>0.0727367</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08710229999999999</v>
+        <v>0.0870527</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0744944</v>
+        <v>0.0734146</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198751</v>
+        <v>0.198244</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0768456</v>
+        <v>0.0770508</v>
       </c>
       <c r="F103" t="n">
-        <v>0.07365339999999999</v>
+        <v>0.0739576</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08776050000000001</v>
+        <v>0.08765530000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07550759999999999</v>
+        <v>0.07439419999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204087</v>
+        <v>0.204334</v>
       </c>
       <c r="E104" t="n">
-        <v>0.078163</v>
+        <v>0.0782321</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0752357</v>
+        <v>0.07550220000000001</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08850959999999999</v>
+        <v>0.0885007</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0775174</v>
+        <v>0.0762587</v>
       </c>
       <c r="D105" t="n">
-        <v>0.211733</v>
+        <v>0.210446</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08907039999999999</v>
+        <v>0.07998280000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.07733470000000001</v>
+        <v>0.0814807</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0897652</v>
+        <v>0.089945</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0796972</v>
+        <v>0.0786681</v>
       </c>
       <c r="D106" t="n">
-        <v>0.21659</v>
+        <v>0.217287</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0824233</v>
+        <v>0.08234279999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0805929</v>
+        <v>0.0807681</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09188499999999999</v>
+        <v>0.09178070000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0833348</v>
+        <v>0.0819603</v>
       </c>
       <c r="D107" t="n">
-        <v>0.182251</v>
+        <v>0.181918</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0859721</v>
+        <v>0.085997</v>
       </c>
       <c r="F107" t="n">
-        <v>0.08521570000000001</v>
+        <v>0.0855001</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0952229</v>
+        <v>0.0950097</v>
       </c>
       <c r="C108" t="n">
-        <v>0.08797199999999999</v>
+        <v>0.0866996</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185854</v>
+        <v>0.185186</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0888313</v>
+        <v>0.0888335</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09318120000000001</v>
+        <v>0.0936647</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100016</v>
+        <v>0.100929</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0954035</v>
+        <v>0.0938566</v>
       </c>
       <c r="D109" t="n">
-        <v>0.189322</v>
+        <v>0.188771</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0893418</v>
+        <v>0.0895077</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0937201</v>
+        <v>0.09406440000000001</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.108131</v>
+        <v>0.107425</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0996648</v>
+        <v>0.101885</v>
       </c>
       <c r="D110" t="n">
-        <v>0.193413</v>
+        <v>0.192911</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09014900000000001</v>
+        <v>0.09036760000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0947561</v>
+        <v>0.09463770000000001</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.108075</v>
+        <v>0.107535</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0977754</v>
+        <v>0.0982415</v>
       </c>
       <c r="D111" t="n">
-        <v>0.19773</v>
+        <v>0.197479</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0909683</v>
+        <v>0.09121899999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0946718</v>
+        <v>0.0952727</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.108184</v>
+        <v>0.107492</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0978999</v>
+        <v>0.0985287</v>
       </c>
       <c r="D112" t="n">
-        <v>0.202287</v>
+        <v>0.202002</v>
       </c>
       <c r="E112" t="n">
-        <v>0.091824</v>
+        <v>0.0921691</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0954238</v>
+        <v>0.0959499</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10833</v>
+        <v>0.107652</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0981046</v>
+        <v>0.0987541</v>
       </c>
       <c r="D113" t="n">
-        <v>0.208167</v>
+        <v>0.20679</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0928055</v>
+        <v>0.0930412</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0960589</v>
+        <v>0.09657640000000001</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108539</v>
+        <v>0.107689</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0988192</v>
+        <v>0.0990028</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212927</v>
+        <v>0.212159</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0937335</v>
+        <v>0.0941385</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09680229999999999</v>
+        <v>0.09740070000000001</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108599</v>
+        <v>0.107927</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0991438</v>
+        <v>0.0996861</v>
       </c>
       <c r="D115" t="n">
-        <v>0.218337</v>
+        <v>0.218126</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0949487</v>
+        <v>0.09517059999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.09780510000000001</v>
+        <v>0.0984502</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108799</v>
+        <v>0.108197</v>
       </c>
       <c r="C116" t="n">
-        <v>0.102822</v>
+        <v>0.100242</v>
       </c>
       <c r="D116" t="n">
-        <v>0.224385</v>
+        <v>0.223616</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0960443</v>
+        <v>0.0964893</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0989189</v>
+        <v>0.0995583</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109382</v>
+        <v>0.108499</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100287</v>
+        <v>0.100924</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230112</v>
+        <v>0.230044</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1104</v>
+        <v>0.0979107</v>
       </c>
       <c r="F117" t="n">
-        <v>0.100379</v>
+        <v>0.115187</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109872</v>
+        <v>0.109112</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101658</v>
+        <v>0.102006</v>
       </c>
       <c r="D118" t="n">
-        <v>0.236296</v>
+        <v>0.235675</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0990668</v>
+        <v>0.0994572</v>
       </c>
       <c r="F118" t="n">
-        <v>0.102046</v>
+        <v>0.102635</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.121679</v>
+        <v>0.109904</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103364</v>
+        <v>0.103764</v>
       </c>
       <c r="D119" t="n">
-        <v>0.242636</v>
+        <v>0.241229</v>
       </c>
       <c r="E119" t="n">
-        <v>0.101151</v>
+        <v>0.101517</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104462</v>
+        <v>0.104945</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11203</v>
+        <v>0.111108</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105254</v>
+        <v>0.10572</v>
       </c>
       <c r="D120" t="n">
-        <v>0.248114</v>
+        <v>0.247635</v>
       </c>
       <c r="E120" t="n">
-        <v>0.103725</v>
+        <v>0.104026</v>
       </c>
       <c r="F120" t="n">
-        <v>0.107403</v>
+        <v>0.115867</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113814</v>
+        <v>0.112923</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108244</v>
+        <v>0.108602</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200198</v>
+        <v>0.199177</v>
       </c>
       <c r="E121" t="n">
-        <v>0.107499</v>
+        <v>0.107922</v>
       </c>
       <c r="F121" t="n">
-        <v>0.123425</v>
+        <v>0.112637</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116862</v>
+        <v>0.115894</v>
       </c>
       <c r="C122" t="n">
-        <v>0.11305</v>
+        <v>0.113154</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202936</v>
+        <v>0.202647</v>
       </c>
       <c r="E122" t="n">
-        <v>0.11348</v>
+        <v>0.115607</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119466</v>
+        <v>0.119773</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.121543</v>
+        <v>0.120827</v>
       </c>
       <c r="C123" t="n">
-        <v>0.119961</v>
+        <v>0.12025</v>
       </c>
       <c r="D123" t="n">
-        <v>0.206116</v>
+        <v>0.205735</v>
       </c>
       <c r="E123" t="n">
-        <v>0.107438</v>
+        <v>0.106406</v>
       </c>
       <c r="F123" t="n">
-        <v>0.111747</v>
+        <v>0.110665</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140062</v>
+        <v>0.134696</v>
       </c>
       <c r="C124" t="n">
-        <v>0.13336</v>
+        <v>0.129498</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209939</v>
+        <v>0.209514</v>
       </c>
       <c r="E124" t="n">
-        <v>0.108556</v>
+        <v>0.10735</v>
       </c>
       <c r="F124" t="n">
-        <v>0.112366</v>
+        <v>0.110309</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140058</v>
+        <v>0.135101</v>
       </c>
       <c r="C125" t="n">
-        <v>0.133718</v>
+        <v>0.131423</v>
       </c>
       <c r="D125" t="n">
-        <v>0.214804</v>
+        <v>0.213877</v>
       </c>
       <c r="E125" t="n">
-        <v>0.109643</v>
+        <v>0.108429</v>
       </c>
       <c r="F125" t="n">
-        <v>0.113098</v>
+        <v>0.11127</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.139603</v>
+        <v>0.134972</v>
       </c>
       <c r="C126" t="n">
-        <v>0.133814</v>
+        <v>0.129922</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220161</v>
+        <v>0.219152</v>
       </c>
       <c r="E126" t="n">
-        <v>0.110714</v>
+        <v>0.109641</v>
       </c>
       <c r="F126" t="n">
-        <v>0.113718</v>
+        <v>0.112012</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.139793</v>
+        <v>0.134918</v>
       </c>
       <c r="C127" t="n">
-        <v>0.133896</v>
+        <v>0.13008</v>
       </c>
       <c r="D127" t="n">
-        <v>0.223485</v>
+        <v>0.231633</v>
       </c>
       <c r="E127" t="n">
-        <v>0.111891</v>
+        <v>0.110709</v>
       </c>
       <c r="F127" t="n">
-        <v>0.114767</v>
+        <v>0.113341</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.139755</v>
+        <v>0.135001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.134135</v>
+        <v>0.13042</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229261</v>
+        <v>0.229055</v>
       </c>
       <c r="E128" t="n">
-        <v>0.113163</v>
+        <v>0.111953</v>
       </c>
       <c r="F128" t="n">
-        <v>0.115834</v>
+        <v>0.113685</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.139773</v>
+        <v>0.135403</v>
       </c>
       <c r="C129" t="n">
-        <v>0.134577</v>
+        <v>0.138097</v>
       </c>
       <c r="D129" t="n">
-        <v>0.235257</v>
+        <v>0.234697</v>
       </c>
       <c r="E129" t="n">
-        <v>0.114402</v>
+        <v>0.113242</v>
       </c>
       <c r="F129" t="n">
-        <v>0.117009</v>
+        <v>0.115074</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139973</v>
+        <v>0.135636</v>
       </c>
       <c r="C130" t="n">
-        <v>0.135148</v>
+        <v>0.131327</v>
       </c>
       <c r="D130" t="n">
-        <v>0.24097</v>
+        <v>0.240733</v>
       </c>
       <c r="E130" t="n">
-        <v>0.119551</v>
+        <v>0.114708</v>
       </c>
       <c r="F130" t="n">
-        <v>0.11837</v>
+        <v>0.116472</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.140326</v>
+        <v>0.136004</v>
       </c>
       <c r="C131" t="n">
-        <v>0.135817</v>
+        <v>0.131974</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246462</v>
+        <v>0.250269</v>
       </c>
       <c r="E131" t="n">
-        <v>0.117449</v>
+        <v>0.116208</v>
       </c>
       <c r="F131" t="n">
-        <v>0.120045</v>
+        <v>0.118112</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.140658</v>
+        <v>0.13637</v>
       </c>
       <c r="C132" t="n">
-        <v>0.136846</v>
+        <v>0.132909</v>
       </c>
       <c r="D132" t="n">
-        <v>0.253085</v>
+        <v>0.25243</v>
       </c>
       <c r="E132" t="n">
-        <v>0.11945</v>
+        <v>0.118164</v>
       </c>
       <c r="F132" t="n">
-        <v>0.122017</v>
+        <v>0.120063</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140894</v>
+        <v>0.137165</v>
       </c>
       <c r="C133" t="n">
-        <v>0.13806</v>
+        <v>0.134187</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258205</v>
+        <v>0.258601</v>
       </c>
       <c r="E133" t="n">
-        <v>0.121615</v>
+        <v>0.120228</v>
       </c>
       <c r="F133" t="n">
-        <v>0.124441</v>
+        <v>0.122504</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1421</v>
+        <v>0.138195</v>
       </c>
       <c r="C134" t="n">
-        <v>0.139958</v>
+        <v>0.136124</v>
       </c>
       <c r="D134" t="n">
-        <v>0.265025</v>
+        <v>0.264555</v>
       </c>
       <c r="E134" t="n">
-        <v>0.124506</v>
+        <v>0.123197</v>
       </c>
       <c r="F134" t="n">
-        <v>0.12801</v>
+        <v>0.125976</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.143547</v>
+        <v>0.140824</v>
       </c>
       <c r="C135" t="n">
-        <v>0.14262</v>
+        <v>0.138955</v>
       </c>
       <c r="D135" t="n">
-        <v>0.210482</v>
+        <v>0.209652</v>
       </c>
       <c r="E135" t="n">
-        <v>0.128529</v>
+        <v>0.127168</v>
       </c>
       <c r="F135" t="n">
-        <v>0.132847</v>
+        <v>0.130668</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.146307</v>
+        <v>0.142504</v>
       </c>
       <c r="C136" t="n">
-        <v>0.146392</v>
+        <v>0.143044</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213193</v>
+        <v>0.211642</v>
       </c>
       <c r="E136" t="n">
-        <v>0.136396</v>
+        <v>0.139293</v>
       </c>
       <c r="F136" t="n">
-        <v>0.140151</v>
+        <v>0.138339</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.150172</v>
+        <v>0.146915</v>
       </c>
       <c r="C137" t="n">
-        <v>0.152046</v>
+        <v>0.149451</v>
       </c>
       <c r="D137" t="n">
-        <v>0.219024</v>
+        <v>0.215138</v>
       </c>
       <c r="E137" t="n">
-        <v>0.118386</v>
+        <v>0.119447</v>
       </c>
       <c r="F137" t="n">
-        <v>0.123723</v>
+        <v>0.122405</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158166</v>
+        <v>0.158147</v>
       </c>
       <c r="C138" t="n">
-        <v>0.152616</v>
+        <v>0.160487</v>
       </c>
       <c r="D138" t="n">
-        <v>0.221271</v>
+        <v>0.219107</v>
       </c>
       <c r="E138" t="n">
-        <v>0.120885</v>
+        <v>0.120409</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124728</v>
+        <v>0.124304</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158195</v>
+        <v>0.158131</v>
       </c>
       <c r="C139" t="n">
-        <v>0.153035</v>
+        <v>0.151034</v>
       </c>
       <c r="D139" t="n">
-        <v>0.22573</v>
+        <v>0.223522</v>
       </c>
       <c r="E139" t="n">
-        <v>0.121618</v>
+        <v>0.121372</v>
       </c>
       <c r="F139" t="n">
-        <v>0.125981</v>
+        <v>0.124224</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.15855</v>
+        <v>0.167806</v>
       </c>
       <c r="C140" t="n">
-        <v>0.153122</v>
+        <v>0.151621</v>
       </c>
       <c r="D140" t="n">
-        <v>0.229762</v>
+        <v>0.228687</v>
       </c>
       <c r="E140" t="n">
-        <v>0.121781</v>
+        <v>0.122565</v>
       </c>
       <c r="F140" t="n">
-        <v>0.126212</v>
+        <v>0.124955</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158668</v>
+        <v>0.158273</v>
       </c>
       <c r="C141" t="n">
-        <v>0.153483</v>
+        <v>0.151894</v>
       </c>
       <c r="D141" t="n">
-        <v>0.23492</v>
+        <v>0.234175</v>
       </c>
       <c r="E141" t="n">
-        <v>0.123325</v>
+        <v>0.123674</v>
       </c>
       <c r="F141" t="n">
-        <v>0.127737</v>
+        <v>0.126027</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.159246</v>
+        <v>0.158409</v>
       </c>
       <c r="C142" t="n">
-        <v>0.153843</v>
+        <v>0.152361</v>
       </c>
       <c r="D142" t="n">
-        <v>0.24055</v>
+        <v>0.239578</v>
       </c>
       <c r="E142" t="n">
-        <v>0.123784</v>
+        <v>0.124869</v>
       </c>
       <c r="F142" t="n">
-        <v>0.127931</v>
+        <v>0.127228</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158584</v>
+        <v>0.160652</v>
       </c>
       <c r="C143" t="n">
-        <v>0.153735</v>
+        <v>0.152896</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245786</v>
+        <v>0.245658</v>
       </c>
       <c r="E143" t="n">
-        <v>0.125183</v>
+        <v>0.126156</v>
       </c>
       <c r="F143" t="n">
-        <v>0.129179</v>
+        <v>0.128446</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0197029</v>
+        <v>0.0191578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0177832</v>
+        <v>0.0173037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0348607</v>
+        <v>0.0345232</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197826</v>
+        <v>0.0198213</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207169</v>
+        <v>0.0207672</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197304</v>
+        <v>0.0192895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0178226</v>
+        <v>0.0175031</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0400009</v>
+        <v>0.0415197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0200642</v>
+        <v>0.0201282</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0208789</v>
+        <v>0.0209912</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195818</v>
+        <v>0.019182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0179078</v>
+        <v>0.0174377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0429993</v>
+        <v>0.0450525</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200912</v>
+        <v>0.0199817</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0210312</v>
+        <v>0.0211048</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196294</v>
+        <v>0.0192769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0177426</v>
+        <v>0.0177429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0461287</v>
+        <v>0.046829</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0201405</v>
+        <v>0.0201609</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0211923</v>
+        <v>0.0211541</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0200383</v>
+        <v>0.0197585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0181369</v>
+        <v>0.0177051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0548663</v>
+        <v>0.0525074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.020368</v>
+        <v>0.0203687</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0213182</v>
+        <v>0.021226</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01994</v>
+        <v>0.0196174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017944</v>
+        <v>0.017911</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0305546</v>
+        <v>0.0317243</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0206559</v>
+        <v>0.0205342</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0214979</v>
+        <v>0.0215963</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0199922</v>
+        <v>0.0196616</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01822</v>
+        <v>0.0181436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0330186</v>
+        <v>0.0332362</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0214027</v>
+        <v>0.0214348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0221885</v>
+        <v>0.0219758</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203669</v>
+        <v>0.0198845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188867</v>
+        <v>0.0187614</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0351268</v>
+        <v>0.0349273</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0194062</v>
+        <v>0.0195587</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0216748</v>
+        <v>0.0217051</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0190905</v>
+        <v>0.0193973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.017971</v>
+        <v>0.0179894</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0368174</v>
+        <v>0.0385362</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0198149</v>
+        <v>0.0196826</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0218079</v>
+        <v>0.0218092</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0192087</v>
+        <v>0.0192812</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0181009</v>
+        <v>0.0180095</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0399429</v>
+        <v>0.0403138</v>
       </c>
       <c r="E11" t="n">
-        <v>0.019792</v>
+        <v>0.0199632</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0219248</v>
+        <v>0.0218646</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0193318</v>
+        <v>0.019638</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0183023</v>
+        <v>0.0181004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0430388</v>
+        <v>0.0449868</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200275</v>
+        <v>0.0200326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0220529</v>
+        <v>0.0221714</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019649</v>
+        <v>0.0195883</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0183372</v>
+        <v>0.0183977</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0477401</v>
+        <v>0.0488425</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203374</v>
+        <v>0.0201459</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0222671</v>
+        <v>0.0222774</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198138</v>
+        <v>0.0199275</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0186079</v>
+        <v>0.0185437</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0498982</v>
+        <v>0.0509385</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206275</v>
+        <v>0.0206509</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0225971</v>
+        <v>0.0225893</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0197844</v>
+        <v>0.0199455</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0184995</v>
+        <v>0.0186471</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0539642</v>
+        <v>0.0547246</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208915</v>
+        <v>0.0208066</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0229012</v>
+        <v>0.0226735</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201984</v>
+        <v>0.0201042</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0187353</v>
+        <v>0.0186787</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0568172</v>
+        <v>0.057679</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209266</v>
+        <v>0.0209136</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0229182</v>
+        <v>0.0229807</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0200993</v>
+        <v>0.020189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0186255</v>
+        <v>0.0189989</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0605348</v>
+        <v>0.0622536</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0212529</v>
+        <v>0.0213121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230658</v>
+        <v>0.0231257</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202111</v>
+        <v>0.0202943</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0187794</v>
+        <v>0.0188931</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0636963</v>
+        <v>0.064461</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0214844</v>
+        <v>0.0214279</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0233278</v>
+        <v>0.0232999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0202838</v>
+        <v>0.020476</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0190865</v>
+        <v>0.0189303</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06696920000000001</v>
+        <v>0.0673709</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0219786</v>
+        <v>0.021774</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0233359</v>
+        <v>0.0234236</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020268</v>
+        <v>0.0204691</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0191502</v>
+        <v>0.0191352</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0694164</v>
+        <v>0.06965789999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0222283</v>
+        <v>0.022149</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238634</v>
+        <v>0.0237607</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0204355</v>
+        <v>0.0208095</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0193912</v>
+        <v>0.0195746</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0447042</v>
+        <v>0.0450139</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0230507</v>
+        <v>0.0231747</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0249247</v>
+        <v>0.0249137</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0210107</v>
+        <v>0.0218778</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0199714</v>
+        <v>0.0213306</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0465978</v>
+        <v>0.0511254</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0287019</v>
+        <v>0.0286644</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0302423</v>
+        <v>0.0294501</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0249912</v>
+        <v>0.0255846</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0260621</v>
+        <v>0.0258987</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0528601</v>
+        <v>0.0543445</v>
       </c>
       <c r="E23" t="n">
-        <v>0.020969</v>
+        <v>0.0209613</v>
       </c>
       <c r="F23" t="n">
-        <v>0.023342</v>
+        <v>0.0233636</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202738</v>
+        <v>0.0202893</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0193185</v>
+        <v>0.0193764</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0544755</v>
+        <v>0.0549995</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211061</v>
+        <v>0.0211494</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234491</v>
+        <v>0.0234686</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202785</v>
+        <v>0.0202791</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0194455</v>
+        <v>0.0194656</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0570012</v>
+        <v>0.0569188</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213267</v>
+        <v>0.0213128</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236025</v>
+        <v>0.0235849</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206082</v>
+        <v>0.0204661</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0195818</v>
+        <v>0.0195572</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586934</v>
+        <v>0.0585972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215441</v>
+        <v>0.0215955</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0238008</v>
+        <v>0.0238203</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207714</v>
+        <v>0.0207133</v>
       </c>
       <c r="C27" t="n">
-        <v>0.019865</v>
+        <v>0.0197047</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0611559</v>
+        <v>0.0615794</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0220027</v>
+        <v>0.0217892</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0240255</v>
+        <v>0.0239845</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209301</v>
+        <v>0.0207991</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0200581</v>
+        <v>0.0199208</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0646909</v>
+        <v>0.0643175</v>
       </c>
       <c r="E28" t="n">
-        <v>0.022136</v>
+        <v>0.0221253</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0243397</v>
+        <v>0.0243117</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210942</v>
+        <v>0.0210388</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0202461</v>
+        <v>0.0201362</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0670163</v>
+        <v>0.0660125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224802</v>
+        <v>0.022458</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0245539</v>
+        <v>0.024578</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213096</v>
+        <v>0.0212242</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0204283</v>
+        <v>0.0203716</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0693279</v>
+        <v>0.06934559999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227387</v>
+        <v>0.0227176</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0247885</v>
+        <v>0.0248508</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215352</v>
+        <v>0.0213333</v>
       </c>
       <c r="C31" t="n">
-        <v>0.020594</v>
+        <v>0.0205873</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0723707</v>
+        <v>0.0715865</v>
       </c>
       <c r="E31" t="n">
-        <v>0.023192</v>
+        <v>0.0230879</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251166</v>
+        <v>0.0251467</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0216665</v>
+        <v>0.021725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0208654</v>
+        <v>0.0207968</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07513590000000001</v>
+        <v>0.075282</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0236763</v>
+        <v>0.0235699</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0256222</v>
+        <v>0.025619</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221115</v>
+        <v>0.0219618</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0212822</v>
+        <v>0.0213268</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0774652</v>
+        <v>0.0780843</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0242169</v>
+        <v>0.0242988</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0262207</v>
+        <v>0.026224</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0227667</v>
+        <v>0.0228344</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0220012</v>
+        <v>0.0222135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07910780000000001</v>
+        <v>0.07977960000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0258155</v>
+        <v>0.0253453</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0274553</v>
+        <v>0.0273298</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0253284</v>
+        <v>0.0245256</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0243199</v>
+        <v>0.0235702</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0528502</v>
+        <v>0.0536338</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0280374</v>
+        <v>0.0275884</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0299746</v>
+        <v>0.0293434</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0264901</v>
+        <v>0.0275719</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0257347</v>
+        <v>0.0279385</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0542868</v>
+        <v>0.0550265</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0324337</v>
+        <v>0.0320997</v>
       </c>
       <c r="F36" t="n">
-        <v>0.033716</v>
+        <v>0.0337957</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0325824</v>
+        <v>0.032678</v>
       </c>
       <c r="C37" t="n">
-        <v>0.030473</v>
+        <v>0.0300094</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0567142</v>
+        <v>0.057078</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0221636</v>
+        <v>0.0221685</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0246014</v>
+        <v>0.0245987</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215495</v>
+        <v>0.0214193</v>
       </c>
       <c r="C38" t="n">
-        <v>0.020956</v>
+        <v>0.0209058</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0582646</v>
+        <v>0.0586425</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0224571</v>
+        <v>0.0223893</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247709</v>
+        <v>0.0246903</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215573</v>
+        <v>0.0218682</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0209968</v>
+        <v>0.0211073</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0603325</v>
+        <v>0.0612619</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0226044</v>
+        <v>0.0226219</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0249246</v>
+        <v>0.0248661</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219235</v>
+        <v>0.0217786</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0211562</v>
+        <v>0.0211045</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0628098</v>
+        <v>0.06306390000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229191</v>
+        <v>0.0229429</v>
       </c>
       <c r="F40" t="n">
-        <v>0.025202</v>
+        <v>0.0251096</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218744</v>
+        <v>0.0220131</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0212267</v>
+        <v>0.0214478</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06461069999999999</v>
+        <v>0.065502</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231811</v>
+        <v>0.0231441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253469</v>
+        <v>0.025245</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221576</v>
+        <v>0.0222063</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215972</v>
+        <v>0.0214944</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0671175</v>
+        <v>0.06736</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0235688</v>
+        <v>0.0234719</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256131</v>
+        <v>0.0254938</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223421</v>
+        <v>0.0224813</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0216304</v>
+        <v>0.021736</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0699496</v>
+        <v>0.07015100000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0239409</v>
+        <v>0.0238421</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0258781</v>
+        <v>0.0258549</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226761</v>
+        <v>0.022588</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0219144</v>
+        <v>0.0220522</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07280929999999999</v>
+        <v>0.07313450000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242547</v>
+        <v>0.0242132</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261597</v>
+        <v>0.0261633</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228732</v>
+        <v>0.0230559</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0223307</v>
+        <v>0.022455</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0753356</v>
+        <v>0.0754671</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247383</v>
+        <v>0.0247693</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0266831</v>
+        <v>0.0266354</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232117</v>
+        <v>0.0233776</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0226524</v>
+        <v>0.0228521</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0780309</v>
+        <v>0.0782074</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0255201</v>
+        <v>0.0254311</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272663</v>
+        <v>0.0272829</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239347</v>
+        <v>0.0238476</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0233942</v>
+        <v>0.0235059</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08015750000000001</v>
+        <v>0.0805198</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0264949</v>
+        <v>0.0264241</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0282443</v>
+        <v>0.0281569</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025713</v>
+        <v>0.025312</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0246643</v>
+        <v>0.0244688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0825174</v>
+        <v>0.0824945</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0280301</v>
+        <v>0.0280406</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0299574</v>
+        <v>0.0298364</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270799</v>
+        <v>0.0272911</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0264312</v>
+        <v>0.0268856</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0840793</v>
+        <v>0.0847132</v>
       </c>
       <c r="E49" t="n">
-        <v>0.030625</v>
+        <v>0.0305669</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0321575</v>
+        <v>0.0322745</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0298683</v>
+        <v>0.0301523</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0290301</v>
+        <v>0.0292316</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0578376</v>
+        <v>0.0592071</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0344834</v>
+        <v>0.0342417</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0359227</v>
+        <v>0.0360192</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0332643</v>
+        <v>0.0343297</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0329722</v>
+        <v>0.0336431</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0594435</v>
+        <v>0.0605408</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0229644</v>
+        <v>0.0231094</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0250003</v>
+        <v>0.0249905</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0382627</v>
+        <v>0.0391668</v>
       </c>
       <c r="C52" t="n">
-        <v>0.038371</v>
+        <v>0.0388746</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613575</v>
+        <v>0.0626271</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0231919</v>
+        <v>0.0232079</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251596</v>
+        <v>0.0251292</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023376</v>
+        <v>0.0232113</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219202</v>
+        <v>0.0219978</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0634429</v>
+        <v>0.0647494</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234633</v>
+        <v>0.0237724</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0253632</v>
+        <v>0.0253924</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233862</v>
+        <v>0.0238841</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0220996</v>
+        <v>0.0221508</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0655454</v>
+        <v>0.0670167</v>
       </c>
       <c r="E54" t="n">
-        <v>0.023756</v>
+        <v>0.0241157</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0256177</v>
+        <v>0.0255858</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234516</v>
+        <v>0.023555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022241</v>
+        <v>0.022333</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06820950000000001</v>
+        <v>0.06910280000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.024002</v>
+        <v>0.0240215</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0260456</v>
+        <v>0.0258324</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237086</v>
+        <v>0.0237467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0224808</v>
+        <v>0.0225278</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0705921</v>
+        <v>0.07183970000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243721</v>
+        <v>0.0243569</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261354</v>
+        <v>0.0261146</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240021</v>
+        <v>0.0239823</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0226933</v>
+        <v>0.0228761</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0737414</v>
+        <v>0.074294</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0248007</v>
+        <v>0.0249907</v>
       </c>
       <c r="F57" t="n">
-        <v>0.026512</v>
+        <v>0.026442</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244632</v>
+        <v>0.024753</v>
       </c>
       <c r="C58" t="n">
-        <v>0.023147</v>
+        <v>0.0231903</v>
       </c>
       <c r="D58" t="n">
-        <v>0.076196</v>
+        <v>0.0768276</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0252895</v>
+        <v>0.0252819</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0270285</v>
+        <v>0.0269185</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024777</v>
+        <v>0.0258263</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0236583</v>
+        <v>0.023556</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0787017</v>
+        <v>0.0794038</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0259516</v>
+        <v>0.0258813</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276954</v>
+        <v>0.0275343</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253252</v>
+        <v>0.0257287</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0241021</v>
+        <v>0.0242635</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08171059999999999</v>
+        <v>0.0820452</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0268299</v>
+        <v>0.0267874</v>
       </c>
       <c r="F60" t="n">
-        <v>0.028346</v>
+        <v>0.0283725</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262127</v>
+        <v>0.0265343</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0251702</v>
+        <v>0.0250907</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837302</v>
+        <v>0.08451880000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0279139</v>
+        <v>0.0279205</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0296383</v>
+        <v>0.0295167</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275722</v>
+        <v>0.0273023</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0263024</v>
+        <v>0.0261598</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086447</v>
+        <v>0.0870083</v>
       </c>
       <c r="E62" t="n">
-        <v>0.029725</v>
+        <v>0.0296244</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0313602</v>
+        <v>0.0313607</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0296294</v>
+        <v>0.0292091</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0281961</v>
+        <v>0.0282846</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0884556</v>
+        <v>0.0890034</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0321024</v>
+        <v>0.0321155</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0336924</v>
+        <v>0.0336043</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0323637</v>
+        <v>0.0320447</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0311656</v>
+        <v>0.0310842</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0632273</v>
+        <v>0.06412229999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0355887</v>
+        <v>0.0356153</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0374407</v>
+        <v>0.0373305</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035763</v>
+        <v>0.0360684</v>
       </c>
       <c r="C65" t="n">
-        <v>0.035165</v>
+        <v>0.0348739</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0665869</v>
+        <v>0.0667686</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0410133</v>
+        <v>0.0410662</v>
       </c>
       <c r="F65" t="n">
-        <v>0.042854</v>
+        <v>0.0428468</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410071</v>
+        <v>0.0416788</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0404243</v>
+        <v>0.0405825</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0693004</v>
+        <v>0.0695142</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0251325</v>
+        <v>0.0249678</v>
       </c>
       <c r="F66" t="n">
-        <v>0.026662</v>
+        <v>0.0269817</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0296415</v>
+        <v>0.0279027</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0250135</v>
+        <v>0.0256441</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0723758</v>
+        <v>0.0722511</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0252707</v>
+        <v>0.0250473</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0270437</v>
+        <v>0.0269127</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0296182</v>
+        <v>0.0281184</v>
       </c>
       <c r="C68" t="n">
-        <v>0.024764</v>
+        <v>0.0259729</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07460319999999999</v>
+        <v>0.0755072</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0255287</v>
+        <v>0.0257321</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272624</v>
+        <v>0.0273759</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.029671</v>
+        <v>0.0282089</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0253305</v>
+        <v>0.0262109</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0784357</v>
+        <v>0.07833089999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0258819</v>
+        <v>0.0257911</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0276069</v>
+        <v>0.027686</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0299226</v>
+        <v>0.0283555</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0256244</v>
+        <v>0.0264335</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0820217</v>
+        <v>0.0816075</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0262333</v>
+        <v>0.0261833</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0279474</v>
+        <v>0.027809</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0302333</v>
+        <v>0.0286147</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0257198</v>
+        <v>0.0268387</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0859171</v>
+        <v>0.0862014</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0264132</v>
+        <v>0.026686</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0282301</v>
+        <v>0.0284726</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304387</v>
+        <v>0.02903</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0266683</v>
+        <v>0.0262589</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0899228</v>
+        <v>0.08923979999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0270807</v>
+        <v>0.0271517</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0288541</v>
+        <v>0.0287107</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0307984</v>
+        <v>0.0294664</v>
       </c>
       <c r="C73" t="n">
-        <v>0.026978</v>
+        <v>0.0285885</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0944651</v>
+        <v>0.094709</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0277807</v>
+        <v>0.0277611</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0294396</v>
+        <v>0.0296876</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0313633</v>
+        <v>0.0300266</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0275904</v>
+        <v>0.0290587</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0975321</v>
+        <v>0.09803149999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0283821</v>
+        <v>0.0285348</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0302336</v>
+        <v>0.0303264</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0324952</v>
+        <v>0.0308775</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0287284</v>
+        <v>0.0293134</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101935</v>
+        <v>0.103851</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0298292</v>
+        <v>0.029744</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0314833</v>
+        <v>0.0318761</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0336131</v>
+        <v>0.0320401</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0299448</v>
+        <v>0.0308848</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107117</v>
+        <v>0.107209</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0314692</v>
+        <v>0.0314234</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0332519</v>
+        <v>0.0333816</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0352722</v>
+        <v>0.0335232</v>
       </c>
       <c r="C77" t="n">
-        <v>0.032467</v>
+        <v>0.0322106</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113211</v>
+        <v>0.111624</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0333562</v>
+        <v>0.0339356</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0355653</v>
+        <v>0.0359105</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0379539</v>
+        <v>0.0361633</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0350742</v>
+        <v>0.0357528</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0975351</v>
+        <v>0.09771199999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0364379</v>
+        <v>0.0366614</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0391816</v>
+        <v>0.0389341</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0412628</v>
+        <v>0.0397535</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0387075</v>
+        <v>0.0389756</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101844</v>
+        <v>0.102799</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0416509</v>
+        <v>0.0416571</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0442014</v>
+        <v>0.0444613</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0459095</v>
+        <v>0.0444618</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0440338</v>
+        <v>0.0443879</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105787</v>
+        <v>0.106751</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362885</v>
+        <v>0.036234</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0340507</v>
+        <v>0.0330146</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.055094</v>
+        <v>0.0558592</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0358549</v>
+        <v>0.0352329</v>
       </c>
       <c r="D81" t="n">
-        <v>0.114731</v>
+        <v>0.11139</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0369744</v>
+        <v>0.0368544</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0343746</v>
+        <v>0.0334153</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0558679</v>
+        <v>0.0559646</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0359603</v>
+        <v>0.0354322</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115888</v>
+        <v>0.116966</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0377672</v>
+        <v>0.0375946</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0348598</v>
+        <v>0.0341093</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0553193</v>
+        <v>0.0564061</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0363639</v>
+        <v>0.0358764</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120485</v>
+        <v>0.121466</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0386016</v>
+        <v>0.0384354</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0353316</v>
+        <v>0.0345678</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0558434</v>
+        <v>0.05646</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0366315</v>
+        <v>0.036021</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127408</v>
+        <v>0.126342</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0391935</v>
+        <v>0.0391273</v>
       </c>
       <c r="F84" t="n">
-        <v>0.035899</v>
+        <v>0.0349461</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559024</v>
+        <v>0.0566981</v>
       </c>
       <c r="C85" t="n">
-        <v>0.036985</v>
+        <v>0.0364658</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130941</v>
+        <v>0.131373</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0399682</v>
+        <v>0.0399929</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0362724</v>
+        <v>0.0352708</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0561313</v>
+        <v>0.0569723</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0374769</v>
+        <v>0.0369504</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136131</v>
+        <v>0.137449</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0408565</v>
+        <v>0.0406337</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0370932</v>
+        <v>0.036337</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0565055</v>
+        <v>0.0574269</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0380599</v>
+        <v>0.0374239</v>
       </c>
       <c r="D87" t="n">
-        <v>0.143583</v>
+        <v>0.144079</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0417207</v>
+        <v>0.0413901</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0379461</v>
+        <v>0.0371392</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0569163</v>
+        <v>0.057659</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0388812</v>
+        <v>0.0380386</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148483</v>
+        <v>0.149166</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0426189</v>
+        <v>0.0451085</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0390122</v>
+        <v>0.0385843</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0574846</v>
+        <v>0.0595087</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0399494</v>
+        <v>0.0395046</v>
       </c>
       <c r="D89" t="n">
-        <v>0.15431</v>
+        <v>0.154394</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0435012</v>
+        <v>0.0433844</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0404352</v>
+        <v>0.0397596</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0581785</v>
+        <v>0.0587891</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0413558</v>
+        <v>0.0407927</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160437</v>
+        <v>0.161065</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0449728</v>
+        <v>0.0448403</v>
       </c>
       <c r="F90" t="n">
-        <v>0.042379</v>
+        <v>0.0414553</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0620287</v>
+        <v>0.06005</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0431785</v>
+        <v>0.0428575</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166027</v>
+        <v>0.167196</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0467796</v>
+        <v>0.0467026</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0448361</v>
+        <v>0.0442403</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0609023</v>
+        <v>0.0615949</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0462663</v>
+        <v>0.0458976</v>
       </c>
       <c r="D92" t="n">
-        <v>0.14564</v>
+        <v>0.147154</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0492794</v>
+        <v>0.0492324</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0482959</v>
+        <v>0.0478385</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633336</v>
+        <v>0.0642243</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0500341</v>
+        <v>0.049688</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149393</v>
+        <v>0.150733</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0535675</v>
+        <v>0.0533436</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0537233</v>
+        <v>0.053251</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06722210000000001</v>
+        <v>0.0679226</v>
       </c>
       <c r="C94" t="n">
-        <v>0.055782</v>
+        <v>0.0555771</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152226</v>
+        <v>0.153228</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0712407</v>
+        <v>0.0712612</v>
       </c>
       <c r="F94" t="n">
-        <v>0.067763</v>
+        <v>0.0683054</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0856838</v>
+        <v>0.0862961</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0699279</v>
+        <v>0.0727677</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156376</v>
+        <v>0.160565</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0716951</v>
+        <v>0.0729379</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0682633</v>
+        <v>0.0689982</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.09380960000000001</v>
+        <v>0.08574560000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07026200000000001</v>
+        <v>0.0718625</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160704</v>
+        <v>0.162852</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0721367</v>
+        <v>0.0722266</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0686793</v>
+        <v>0.0691759</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859101</v>
+        <v>0.08580699999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07042370000000001</v>
+        <v>0.0721856</v>
       </c>
       <c r="D97" t="n">
-        <v>0.166384</v>
+        <v>0.175738</v>
       </c>
       <c r="E97" t="n">
-        <v>0.072695</v>
+        <v>0.07263650000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06920320000000001</v>
+        <v>0.06956560000000001</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859466</v>
+        <v>0.08590399999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0705346</v>
+        <v>0.0724996</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171071</v>
+        <v>0.171942</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0731676</v>
+        <v>0.07324749999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0696397</v>
+        <v>0.07018050000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860799</v>
+        <v>0.0859341</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0709335</v>
+        <v>0.0728612</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175695</v>
+        <v>0.177346</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0736995</v>
+        <v>0.0737462</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0703642</v>
+        <v>0.0714634</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0862807</v>
+        <v>0.0877679</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0713741</v>
+        <v>0.07407999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.180995</v>
+        <v>0.185202</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0744924</v>
+        <v>0.0751279</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0710001</v>
+        <v>0.071848</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864352</v>
+        <v>0.0863799</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07187399999999999</v>
+        <v>0.0737342</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187033</v>
+        <v>0.188039</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0750749</v>
+        <v>0.0752584</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0718744</v>
+        <v>0.073007</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867573</v>
+        <v>0.0924654</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07242030000000001</v>
+        <v>0.07421229999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192787</v>
+        <v>0.19295</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07597959999999999</v>
+        <v>0.0764386</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0727367</v>
+        <v>0.07395690000000001</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870527</v>
+        <v>0.0893241</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0734146</v>
+        <v>0.0760653</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198244</v>
+        <v>0.20052</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0770508</v>
+        <v>0.0767839</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0739576</v>
+        <v>0.0743571</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08765530000000001</v>
+        <v>0.0876045</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.07596079999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204334</v>
+        <v>0.209575</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0782321</v>
+        <v>0.0783075</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07550220000000001</v>
+        <v>0.075928</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885007</v>
+        <v>0.08840389999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0762587</v>
+        <v>0.07797</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210446</v>
+        <v>0.211244</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07998280000000001</v>
+        <v>0.081122</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0814807</v>
+        <v>0.0787052</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.089945</v>
+        <v>0.0910701</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0786681</v>
+        <v>0.0806957</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217287</v>
+        <v>0.217255</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08234279999999999</v>
+        <v>0.08223800000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0807681</v>
+        <v>0.0811692</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09178070000000001</v>
+        <v>0.09178799999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0819603</v>
+        <v>0.0833214</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181918</v>
+        <v>0.182875</v>
       </c>
       <c r="E107" t="n">
-        <v>0.085997</v>
+        <v>0.08593779999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0855001</v>
+        <v>0.0859114</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950097</v>
+        <v>0.0949382</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0866996</v>
+        <v>0.0885171</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185186</v>
+        <v>0.186893</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0888335</v>
+        <v>0.0878256</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0936647</v>
+        <v>0.0923026</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100929</v>
+        <v>0.100175</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0938566</v>
+        <v>0.0954979</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188771</v>
+        <v>0.19084</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0895077</v>
+        <v>0.0902722</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09406440000000001</v>
+        <v>0.094453</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107425</v>
+        <v>0.110645</v>
       </c>
       <c r="C110" t="n">
-        <v>0.101885</v>
+        <v>0.09724960000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192911</v>
+        <v>0.193315</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09036760000000001</v>
+        <v>0.0892216</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09463770000000001</v>
+        <v>0.09329369999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107535</v>
+        <v>0.109257</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0982415</v>
+        <v>0.098803</v>
       </c>
       <c r="D111" t="n">
-        <v>0.197479</v>
+        <v>0.200597</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09121899999999999</v>
+        <v>0.0917195</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0952727</v>
+        <v>0.0939329</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107492</v>
+        <v>0.1094</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0985287</v>
+        <v>0.09762469999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.202002</v>
+        <v>0.202351</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0921691</v>
+        <v>0.0909638</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0959499</v>
+        <v>0.0945362</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107652</v>
+        <v>0.10947</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0987541</v>
+        <v>0.0979187</v>
       </c>
       <c r="D113" t="n">
-        <v>0.20679</v>
+        <v>0.207636</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0930412</v>
+        <v>0.091934</v>
       </c>
       <c r="F113" t="n">
-        <v>0.09657640000000001</v>
+        <v>0.0953292</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107689</v>
+        <v>0.109617</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0990028</v>
+        <v>0.0980721</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212159</v>
+        <v>0.213501</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0941385</v>
+        <v>0.0931429</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09740070000000001</v>
+        <v>0.0961321</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107927</v>
+        <v>0.109935</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0996861</v>
+        <v>0.09875</v>
       </c>
       <c r="D115" t="n">
-        <v>0.218126</v>
+        <v>0.219477</v>
       </c>
       <c r="E115" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.09410930000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0984502</v>
+        <v>0.0970413</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108197</v>
+        <v>0.109959</v>
       </c>
       <c r="C116" t="n">
-        <v>0.100242</v>
+        <v>0.09961730000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223616</v>
+        <v>0.224894</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0964893</v>
+        <v>0.0952773</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0995583</v>
+        <v>0.0981667</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108499</v>
+        <v>0.110357</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100924</v>
+        <v>0.100272</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230044</v>
+        <v>0.230496</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0979107</v>
+        <v>0.096751</v>
       </c>
       <c r="F117" t="n">
-        <v>0.115187</v>
+        <v>0.0993864</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109112</v>
+        <v>0.110889</v>
       </c>
       <c r="C118" t="n">
-        <v>0.102006</v>
+        <v>0.101051</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235675</v>
+        <v>0.236969</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0994572</v>
+        <v>0.0983412</v>
       </c>
       <c r="F118" t="n">
-        <v>0.102635</v>
+        <v>0.101092</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109904</v>
+        <v>0.111817</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103764</v>
+        <v>0.102718</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241229</v>
+        <v>0.242147</v>
       </c>
       <c r="E119" t="n">
-        <v>0.101517</v>
+        <v>0.100382</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104945</v>
+        <v>0.103353</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111108</v>
+        <v>0.117712</v>
       </c>
       <c r="C120" t="n">
-        <v>0.10572</v>
+        <v>0.104832</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247635</v>
+        <v>0.248005</v>
       </c>
       <c r="E120" t="n">
-        <v>0.104026</v>
+        <v>0.102862</v>
       </c>
       <c r="F120" t="n">
-        <v>0.115867</v>
+        <v>0.106491</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112923</v>
+        <v>0.114751</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108602</v>
+        <v>0.107735</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199177</v>
+        <v>0.19955</v>
       </c>
       <c r="E121" t="n">
-        <v>0.107922</v>
+        <v>0.10664</v>
       </c>
       <c r="F121" t="n">
-        <v>0.112637</v>
+        <v>0.111216</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115894</v>
+        <v>0.11779</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113154</v>
+        <v>0.112432</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202647</v>
+        <v>0.202494</v>
       </c>
       <c r="E122" t="n">
-        <v>0.115607</v>
+        <v>0.112626</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119773</v>
+        <v>0.118383</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120827</v>
+        <v>0.122433</v>
       </c>
       <c r="C123" t="n">
-        <v>0.12025</v>
+        <v>0.119387</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205735</v>
+        <v>0.205693</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106406</v>
+        <v>0.106239</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110665</v>
+        <v>0.110543</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134696</v>
+        <v>0.141422</v>
       </c>
       <c r="C124" t="n">
-        <v>0.129498</v>
+        <v>0.129518</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209514</v>
+        <v>0.209679</v>
       </c>
       <c r="E124" t="n">
-        <v>0.10735</v>
+        <v>0.107235</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110309</v>
+        <v>0.110983</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135101</v>
+        <v>0.141426</v>
       </c>
       <c r="C125" t="n">
-        <v>0.131423</v>
+        <v>0.129585</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213877</v>
+        <v>0.214532</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108429</v>
+        <v>0.108587</v>
       </c>
       <c r="F125" t="n">
-        <v>0.11127</v>
+        <v>0.111751</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134972</v>
+        <v>0.141412</v>
       </c>
       <c r="C126" t="n">
-        <v>0.129922</v>
+        <v>0.129682</v>
       </c>
       <c r="D126" t="n">
-        <v>0.219152</v>
+        <v>0.218868</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109641</v>
+        <v>0.109556</v>
       </c>
       <c r="F126" t="n">
-        <v>0.112012</v>
+        <v>0.11235</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.134918</v>
+        <v>0.14169</v>
       </c>
       <c r="C127" t="n">
-        <v>0.13008</v>
+        <v>0.130167</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231633</v>
+        <v>0.22373</v>
       </c>
       <c r="E127" t="n">
-        <v>0.110709</v>
+        <v>0.110608</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113341</v>
+        <v>0.113369</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135001</v>
+        <v>0.14163</v>
       </c>
       <c r="C128" t="n">
-        <v>0.13042</v>
+        <v>0.130441</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229055</v>
+        <v>0.229335</v>
       </c>
       <c r="E128" t="n">
-        <v>0.111953</v>
+        <v>0.111927</v>
       </c>
       <c r="F128" t="n">
-        <v>0.113685</v>
+        <v>0.114396</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135403</v>
+        <v>0.153197</v>
       </c>
       <c r="C129" t="n">
-        <v>0.138097</v>
+        <v>0.130866</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234697</v>
+        <v>0.23474</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113242</v>
+        <v>0.113149</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115074</v>
+        <v>0.115487</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135636</v>
+        <v>0.142162</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131327</v>
+        <v>0.131364</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240733</v>
+        <v>0.240974</v>
       </c>
       <c r="E130" t="n">
-        <v>0.114708</v>
+        <v>0.114795</v>
       </c>
       <c r="F130" t="n">
-        <v>0.116472</v>
+        <v>0.117203</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136004</v>
+        <v>0.142489</v>
       </c>
       <c r="C131" t="n">
-        <v>0.131974</v>
+        <v>0.132147</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250269</v>
+        <v>0.246569</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116208</v>
+        <v>0.116069</v>
       </c>
       <c r="F131" t="n">
-        <v>0.118112</v>
+        <v>0.118494</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13637</v>
+        <v>0.142713</v>
       </c>
       <c r="C132" t="n">
         <v>0.132909</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25243</v>
+        <v>0.252477</v>
       </c>
       <c r="E132" t="n">
-        <v>0.118164</v>
+        <v>0.117965</v>
       </c>
       <c r="F132" t="n">
-        <v>0.120063</v>
+        <v>0.120426</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137165</v>
+        <v>0.143832</v>
       </c>
       <c r="C133" t="n">
-        <v>0.134187</v>
+        <v>0.135832</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258601</v>
+        <v>0.258486</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120228</v>
+        <v>0.120181</v>
       </c>
       <c r="F133" t="n">
-        <v>0.122504</v>
+        <v>0.12288</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138195</v>
+        <v>0.144681</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136124</v>
+        <v>0.136159</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264555</v>
+        <v>0.264758</v>
       </c>
       <c r="E134" t="n">
-        <v>0.123197</v>
+        <v>0.123187</v>
       </c>
       <c r="F134" t="n">
-        <v>0.125976</v>
+        <v>0.126364</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.140824</v>
+        <v>0.146111</v>
       </c>
       <c r="C135" t="n">
-        <v>0.138955</v>
+        <v>0.14213</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209652</v>
+        <v>0.209016</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127168</v>
+        <v>0.127222</v>
       </c>
       <c r="F135" t="n">
-        <v>0.130668</v>
+        <v>0.131176</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142504</v>
+        <v>0.149179</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143044</v>
+        <v>0.143125</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211642</v>
+        <v>0.211812</v>
       </c>
       <c r="E136" t="n">
-        <v>0.139293</v>
+        <v>0.133389</v>
       </c>
       <c r="F136" t="n">
-        <v>0.138339</v>
+        <v>0.140067</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146915</v>
+        <v>0.152977</v>
       </c>
       <c r="C137" t="n">
-        <v>0.149451</v>
+        <v>0.155413</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215138</v>
+        <v>0.215436</v>
       </c>
       <c r="E137" t="n">
-        <v>0.119447</v>
+        <v>0.118186</v>
       </c>
       <c r="F137" t="n">
-        <v>0.122405</v>
+        <v>0.123895</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158147</v>
+        <v>0.158045</v>
       </c>
       <c r="C138" t="n">
-        <v>0.160487</v>
+        <v>0.153508</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219107</v>
+        <v>0.219588</v>
       </c>
       <c r="E138" t="n">
-        <v>0.120409</v>
+        <v>0.119229</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124304</v>
+        <v>0.124577</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158131</v>
+        <v>0.157948</v>
       </c>
       <c r="C139" t="n">
-        <v>0.151034</v>
+        <v>0.153753</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223522</v>
+        <v>0.223799</v>
       </c>
       <c r="E139" t="n">
-        <v>0.121372</v>
+        <v>0.120163</v>
       </c>
       <c r="F139" t="n">
-        <v>0.124224</v>
+        <v>0.127499</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.167806</v>
+        <v>0.158011</v>
       </c>
       <c r="C140" t="n">
-        <v>0.151621</v>
+        <v>0.154442</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228687</v>
+        <v>0.228461</v>
       </c>
       <c r="E140" t="n">
-        <v>0.122565</v>
+        <v>0.121313</v>
       </c>
       <c r="F140" t="n">
-        <v>0.124955</v>
+        <v>0.126466</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158273</v>
+        <v>0.158303</v>
       </c>
       <c r="C141" t="n">
-        <v>0.151894</v>
+        <v>0.154639</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234175</v>
+        <v>0.234058</v>
       </c>
       <c r="E141" t="n">
-        <v>0.123674</v>
+        <v>0.122586</v>
       </c>
       <c r="F141" t="n">
-        <v>0.126027</v>
+        <v>0.127483</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158409</v>
+        <v>0.158348</v>
       </c>
       <c r="C142" t="n">
-        <v>0.152361</v>
+        <v>0.154833</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239578</v>
+        <v>0.239362</v>
       </c>
       <c r="E142" t="n">
-        <v>0.124869</v>
+        <v>0.123854</v>
       </c>
       <c r="F142" t="n">
-        <v>0.127228</v>
+        <v>0.128679</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.160652</v>
+        <v>0.158885</v>
       </c>
       <c r="C143" t="n">
-        <v>0.152896</v>
+        <v>0.155144</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245658</v>
+        <v>0.245229</v>
       </c>
       <c r="E143" t="n">
-        <v>0.126156</v>
+        <v>0.125351</v>
       </c>
       <c r="F143" t="n">
-        <v>0.128446</v>
+        <v>0.1301</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0191578</v>
+        <v>0.0195477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0173037</v>
+        <v>0.0176643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0345232</v>
+        <v>0.0364508</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0198213</v>
+        <v>0.019788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207672</v>
+        <v>0.0210001</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0192895</v>
+        <v>0.0195649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0175031</v>
+        <v>0.0177621</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0415197</v>
+        <v>0.039403</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0201282</v>
+        <v>0.0200002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0209912</v>
+        <v>0.0209901</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.019182</v>
+        <v>0.0196939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0174377</v>
+        <v>0.017798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0450525</v>
+        <v>0.0455528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0199817</v>
+        <v>0.0200608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0211048</v>
+        <v>0.0209949</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0192769</v>
+        <v>0.0195365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0177429</v>
+        <v>0.0179902</v>
       </c>
       <c r="D5" t="n">
-        <v>0.046829</v>
+        <v>0.0473149</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0201609</v>
+        <v>0.0203361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0211541</v>
+        <v>0.0212383</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0197585</v>
+        <v>0.0196303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0177051</v>
+        <v>0.017963</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0525074</v>
+        <v>0.0508274</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0203687</v>
+        <v>0.0203776</v>
       </c>
       <c r="F6" t="n">
-        <v>0.021226</v>
+        <v>0.0211383</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0196174</v>
+        <v>0.0197783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017911</v>
+        <v>0.0182016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0317243</v>
+        <v>0.0315059</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0205342</v>
+        <v>0.0206691</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0215963</v>
+        <v>0.0215925</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0196616</v>
+        <v>0.019787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0181436</v>
+        <v>0.0184058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0332362</v>
+        <v>0.032686</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0214348</v>
+        <v>0.0213103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0219758</v>
+        <v>0.0220942</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0198845</v>
+        <v>0.0200404</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0187614</v>
+        <v>0.0193273</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0349273</v>
+        <v>0.0350745</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0195587</v>
+        <v>0.0194913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0217051</v>
+        <v>0.0219087</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0193973</v>
+        <v>0.0194456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0179894</v>
+        <v>0.0179747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0385362</v>
+        <v>0.0368699</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0196826</v>
+        <v>0.0196316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0218092</v>
+        <v>0.0220386</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0192812</v>
+        <v>0.019493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0180095</v>
+        <v>0.018334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0403138</v>
+        <v>0.0402354</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0199632</v>
+        <v>0.0197614</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0218646</v>
+        <v>0.0221426</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.019638</v>
+        <v>0.0197112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0181004</v>
+        <v>0.0184093</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0449868</v>
+        <v>0.043451</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200326</v>
+        <v>0.0199584</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0221714</v>
+        <v>0.0223825</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0195883</v>
+        <v>0.0198277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0183977</v>
+        <v>0.0182106</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0488425</v>
+        <v>0.0484209</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0201459</v>
+        <v>0.020252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0222774</v>
+        <v>0.0222334</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199275</v>
+        <v>0.0198066</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0185437</v>
+        <v>0.0186997</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0509385</v>
+        <v>0.0496635</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206509</v>
+        <v>0.0206204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0225893</v>
+        <v>0.0225022</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199455</v>
+        <v>0.0200443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0186471</v>
+        <v>0.0188263</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0547246</v>
+        <v>0.0538493</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208066</v>
+        <v>0.0208487</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0226735</v>
+        <v>0.0226928</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201042</v>
+        <v>0.0201189</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0186787</v>
+        <v>0.0188292</v>
       </c>
       <c r="D16" t="n">
-        <v>0.057679</v>
+        <v>0.057664</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209136</v>
+        <v>0.0211586</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0229807</v>
+        <v>0.0230112</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.020189</v>
+        <v>0.0201474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0189989</v>
+        <v>0.0187404</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0622536</v>
+        <v>0.061135</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0213121</v>
+        <v>0.0213236</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0231257</v>
+        <v>0.0231027</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202943</v>
+        <v>0.0203337</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0188931</v>
+        <v>0.0191914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.064461</v>
+        <v>0.0642731</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0214279</v>
+        <v>0.0216437</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0232999</v>
+        <v>0.0233725</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.020476</v>
+        <v>0.0203239</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0189303</v>
+        <v>0.0192078</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0673709</v>
+        <v>0.0669018</v>
       </c>
       <c r="E19" t="n">
-        <v>0.021774</v>
+        <v>0.0218372</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0234236</v>
+        <v>0.0233752</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0204691</v>
+        <v>0.0206886</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0191352</v>
+        <v>0.0193064</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06965789999999999</v>
+        <v>0.0695836</v>
       </c>
       <c r="E20" t="n">
-        <v>0.022149</v>
+        <v>0.0220824</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0237607</v>
+        <v>0.0239308</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0208095</v>
+        <v>0.020871</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0195746</v>
+        <v>0.0196717</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0450139</v>
+        <v>0.0452681</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0231747</v>
+        <v>0.022957</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0249137</v>
+        <v>0.0248205</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0218778</v>
+        <v>0.0215543</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0213306</v>
+        <v>0.0203082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0511254</v>
+        <v>0.0499832</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0286644</v>
+        <v>0.0283309</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0294501</v>
+        <v>0.028735</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0255846</v>
+        <v>0.0264121</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0258987</v>
+        <v>0.0252473</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0543445</v>
+        <v>0.0519419</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0209613</v>
+        <v>0.020937</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0233636</v>
+        <v>0.0232896</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202893</v>
+        <v>0.0205717</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0193764</v>
+        <v>0.0194852</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0549995</v>
+        <v>0.0544844</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211494</v>
+        <v>0.021172</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234686</v>
+        <v>0.0236106</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202791</v>
+        <v>0.0208222</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0194656</v>
+        <v>0.0197408</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0569188</v>
+        <v>0.0569576</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213128</v>
+        <v>0.0213064</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0235849</v>
+        <v>0.0236182</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0204661</v>
+        <v>0.0210135</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0195572</v>
+        <v>0.0199454</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0585972</v>
+        <v>0.0593301</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215955</v>
+        <v>0.0215622</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0238203</v>
+        <v>0.0239031</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207133</v>
+        <v>0.0207622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0197047</v>
+        <v>0.0200318</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0615794</v>
+        <v>0.0619462</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0217892</v>
+        <v>0.0218069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0239845</v>
+        <v>0.0241334</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0207991</v>
+        <v>0.0210531</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0199208</v>
+        <v>0.0203636</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0643175</v>
+        <v>0.06459620000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0221253</v>
+        <v>0.0221336</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0243117</v>
+        <v>0.0242722</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210388</v>
+        <v>0.0212031</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0201362</v>
+        <v>0.0204532</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0660125</v>
+        <v>0.0670026</v>
       </c>
       <c r="E29" t="n">
-        <v>0.022458</v>
+        <v>0.0224598</v>
       </c>
       <c r="F29" t="n">
-        <v>0.024578</v>
+        <v>0.024696</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0212242</v>
+        <v>0.0214491</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0203716</v>
+        <v>0.0208285</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06934559999999999</v>
+        <v>0.07010570000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227176</v>
+        <v>0.022726</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0248508</v>
+        <v>0.0248371</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0213333</v>
+        <v>0.0216065</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0205873</v>
+        <v>0.0209007</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0715865</v>
+        <v>0.07291599999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0230879</v>
+        <v>0.0231095</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251467</v>
+        <v>0.025201</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.021725</v>
+        <v>0.0218026</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0207968</v>
+        <v>0.021316</v>
       </c>
       <c r="D32" t="n">
-        <v>0.075282</v>
+        <v>0.07471179999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235699</v>
+        <v>0.0235619</v>
       </c>
       <c r="F32" t="n">
-        <v>0.025619</v>
+        <v>0.0255728</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0219618</v>
+        <v>0.0223352</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0213268</v>
+        <v>0.0216137</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0780843</v>
+        <v>0.07778980000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0242988</v>
+        <v>0.0242212</v>
       </c>
       <c r="F33" t="n">
-        <v>0.026224</v>
+        <v>0.0262301</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0228344</v>
+        <v>0.0232766</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0222135</v>
+        <v>0.0224369</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07977960000000001</v>
+        <v>0.0796047</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0253453</v>
+        <v>0.0255133</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0273298</v>
+        <v>0.0273355</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0245256</v>
+        <v>0.0248173</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0235702</v>
+        <v>0.0235955</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0536338</v>
+        <v>0.0535437</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0275884</v>
+        <v>0.0277824</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0293434</v>
+        <v>0.0296069</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0275719</v>
+        <v>0.0290941</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0279385</v>
+        <v>0.0270025</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0550265</v>
+        <v>0.0548991</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0320997</v>
+        <v>0.0323275</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0337957</v>
+        <v>0.0337681</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.032678</v>
+        <v>0.0314097</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0300094</v>
+        <v>0.0338864</v>
       </c>
       <c r="D37" t="n">
-        <v>0.057078</v>
+        <v>0.0564413</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0221685</v>
+        <v>0.0222005</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0245987</v>
+        <v>0.0245368</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0214193</v>
+        <v>0.0217461</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0209058</v>
+        <v>0.0208312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0586425</v>
+        <v>0.0585722</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0223893</v>
+        <v>0.0223993</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0246903</v>
+        <v>0.0246952</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0218682</v>
+        <v>0.0217628</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0211073</v>
+        <v>0.020934</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0612619</v>
+        <v>0.0606639</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0226219</v>
+        <v>0.0226</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0248661</v>
+        <v>0.0248878</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217786</v>
+        <v>0.0219012</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0211045</v>
+        <v>0.021146</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06306390000000001</v>
+        <v>0.0626949</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229429</v>
+        <v>0.0229355</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0251096</v>
+        <v>0.0253002</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220131</v>
+        <v>0.0221996</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0214478</v>
+        <v>0.0214841</v>
       </c>
       <c r="D41" t="n">
-        <v>0.065502</v>
+        <v>0.065191</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231441</v>
+        <v>0.0231963</v>
       </c>
       <c r="F41" t="n">
-        <v>0.025245</v>
+        <v>0.0253176</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222063</v>
+        <v>0.0223423</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0214944</v>
+        <v>0.0215736</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06736</v>
+        <v>0.06731719999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0234719</v>
+        <v>0.0235154</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0254938</v>
+        <v>0.0255882</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0224813</v>
+        <v>0.0224933</v>
       </c>
       <c r="C43" t="n">
-        <v>0.021736</v>
+        <v>0.0219534</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07015100000000001</v>
+        <v>0.0699649</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0238421</v>
+        <v>0.0238841</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0258549</v>
+        <v>0.025897</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.022588</v>
+        <v>0.0228766</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0220522</v>
+        <v>0.0221055</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07313450000000001</v>
+        <v>0.07273309999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242132</v>
+        <v>0.0242203</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261633</v>
+        <v>0.0261555</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230559</v>
+        <v>0.0231738</v>
       </c>
       <c r="C45" t="n">
-        <v>0.022455</v>
+        <v>0.022509</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0754671</v>
+        <v>0.07541440000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247693</v>
+        <v>0.0252241</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0266354</v>
+        <v>0.026617</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0233776</v>
+        <v>0.0235586</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0228521</v>
+        <v>0.0229236</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0782074</v>
+        <v>0.078261</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0254311</v>
+        <v>0.0254862</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272829</v>
+        <v>0.027249</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0238476</v>
+        <v>0.0244602</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0235059</v>
+        <v>0.0237574</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0805198</v>
+        <v>0.0802626</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0264241</v>
+        <v>0.0264034</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0281569</v>
+        <v>0.0282041</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025312</v>
+        <v>0.0255394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0244688</v>
+        <v>0.0244969</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0824945</v>
+        <v>0.0825297</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0280406</v>
+        <v>0.027963</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0298364</v>
+        <v>0.0296233</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0272911</v>
+        <v>0.027205</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0268856</v>
+        <v>0.026451</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0847132</v>
+        <v>0.08429540000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0305669</v>
+        <v>0.0304857</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0322745</v>
+        <v>0.0321803</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0301523</v>
+        <v>0.0302979</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0292316</v>
+        <v>0.0287838</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0592071</v>
+        <v>0.0585531</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0342417</v>
+        <v>0.0347375</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0360192</v>
+        <v>0.0360087</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0343297</v>
+        <v>0.0340491</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0336431</v>
+        <v>0.0326409</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0605408</v>
+        <v>0.0604942</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0231094</v>
+        <v>0.0230174</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0249905</v>
+        <v>0.0249175</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0391668</v>
+        <v>0.0380777</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0388746</v>
+        <v>0.0384367</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0626271</v>
+        <v>0.0623926</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0232079</v>
+        <v>0.0231996</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251292</v>
+        <v>0.025109</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0232113</v>
+        <v>0.0231638</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219978</v>
+        <v>0.0219655</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0647494</v>
+        <v>0.06475110000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0237724</v>
+        <v>0.0234423</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0253924</v>
+        <v>0.025386</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0238841</v>
+        <v>0.0234672</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0221508</v>
+        <v>0.0220445</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0670167</v>
+        <v>0.0675215</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0241157</v>
+        <v>0.0237443</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0255858</v>
+        <v>0.0255922</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.023555</v>
+        <v>0.0234945</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022333</v>
+        <v>0.0223661</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06910280000000001</v>
+        <v>0.0697971</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0240215</v>
+        <v>0.0240397</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0258324</v>
+        <v>0.0258824</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237467</v>
+        <v>0.0236725</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0225278</v>
+        <v>0.0225452</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07183970000000001</v>
+        <v>0.0716456</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243569</v>
+        <v>0.0244438</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261146</v>
+        <v>0.0260687</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239823</v>
+        <v>0.0239528</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0228761</v>
+        <v>0.0228222</v>
       </c>
       <c r="D57" t="n">
-        <v>0.074294</v>
+        <v>0.0752097</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0249907</v>
+        <v>0.0247768</v>
       </c>
       <c r="F57" t="n">
-        <v>0.026442</v>
+        <v>0.0264581</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.024753</v>
+        <v>0.0242475</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0231903</v>
+        <v>0.0231603</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0768276</v>
+        <v>0.07691190000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0252819</v>
+        <v>0.0252964</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0269185</v>
+        <v>0.0269481</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0258263</v>
+        <v>0.0246117</v>
       </c>
       <c r="C59" t="n">
-        <v>0.023556</v>
+        <v>0.0235703</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0794038</v>
+        <v>0.0797646</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0258813</v>
+        <v>0.0259518</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0275343</v>
+        <v>0.0275579</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0257287</v>
+        <v>0.0252151</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0242635</v>
+        <v>0.0242855</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0820452</v>
+        <v>0.082304</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0267874</v>
+        <v>0.0267906</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0283725</v>
+        <v>0.0283473</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0265343</v>
+        <v>0.0263706</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0250907</v>
+        <v>0.0251039</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08451880000000001</v>
+        <v>0.08529009999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0279205</v>
+        <v>0.0279177</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0295167</v>
+        <v>0.0294671</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0273023</v>
+        <v>0.027413</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0261598</v>
+        <v>0.0263956</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0870083</v>
+        <v>0.0869417</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0296244</v>
+        <v>0.0296356</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0313607</v>
+        <v>0.0313127</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0292091</v>
+        <v>0.0292117</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0282846</v>
+        <v>0.0282148</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0890034</v>
+        <v>0.08942170000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0321155</v>
+        <v>0.032078</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0336043</v>
+        <v>0.0337494</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0320447</v>
+        <v>0.032162</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0310842</v>
+        <v>0.0310792</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06412229999999999</v>
+        <v>0.0637163</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0356153</v>
+        <v>0.0355686</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0373305</v>
+        <v>0.0372173</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0360684</v>
+        <v>0.0359593</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0348739</v>
+        <v>0.0350121</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0667686</v>
+        <v>0.0662947</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0410662</v>
+        <v>0.0410112</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0428468</v>
+        <v>0.0427978</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0416788</v>
+        <v>0.0410859</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0405825</v>
+        <v>0.0401399</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0695142</v>
+        <v>0.0690336</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0249678</v>
+        <v>0.0248486</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0269817</v>
+        <v>0.0267243</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0279027</v>
+        <v>0.027949</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0256441</v>
+        <v>0.0249619</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0722511</v>
+        <v>0.0726106</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0250473</v>
+        <v>0.0253204</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0269127</v>
+        <v>0.0268906</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0281184</v>
+        <v>0.028161</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0259729</v>
+        <v>0.0254672</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0755072</v>
+        <v>0.07543229999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0257321</v>
+        <v>0.025482</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0273759</v>
+        <v>0.0269963</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0282089</v>
+        <v>0.028403</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262109</v>
+        <v>0.0249885</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07833089999999999</v>
+        <v>0.0788673</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0257911</v>
+        <v>0.025753</v>
       </c>
       <c r="F69" t="n">
-        <v>0.027686</v>
+        <v>0.027467</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0283555</v>
+        <v>0.028575</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0264335</v>
+        <v>0.025455</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0816075</v>
+        <v>0.08291179999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0261833</v>
+        <v>0.0268442</v>
       </c>
       <c r="F70" t="n">
-        <v>0.027809</v>
+        <v>0.0277374</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0286147</v>
+        <v>0.0288583</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0268387</v>
+        <v>0.0262373</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0862014</v>
+        <v>0.0865899</v>
       </c>
       <c r="E71" t="n">
-        <v>0.026686</v>
+        <v>0.0265095</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0284726</v>
+        <v>0.0282309</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02903</v>
+        <v>0.0289437</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0262589</v>
+        <v>0.0262104</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08923979999999999</v>
+        <v>0.0914083</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0271517</v>
+        <v>0.0276301</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0287107</v>
+        <v>0.0286886</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0294664</v>
+        <v>0.02938</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0285885</v>
+        <v>0.0272265</v>
       </c>
       <c r="D73" t="n">
-        <v>0.094709</v>
+        <v>0.0951844</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0277611</v>
+        <v>0.0282854</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0296876</v>
+        <v>0.0295401</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0300266</v>
+        <v>0.02991</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0290587</v>
+        <v>0.0275203</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09803149999999999</v>
+        <v>0.0990296</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0285348</v>
+        <v>0.0290136</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0303264</v>
+        <v>0.0301891</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0308775</v>
+        <v>0.030844</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0293134</v>
+        <v>0.0287004</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103851</v>
+        <v>0.103416</v>
       </c>
       <c r="E75" t="n">
-        <v>0.029744</v>
+        <v>0.0296439</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0318761</v>
+        <v>0.0313859</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0320401</v>
+        <v>0.0319079</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0308848</v>
+        <v>0.0296658</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107209</v>
+        <v>0.107656</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0314234</v>
+        <v>0.0317393</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0333816</v>
+        <v>0.0332929</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0335232</v>
+        <v>0.0338632</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0322106</v>
+        <v>0.0319964</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111624</v>
+        <v>0.114223</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0339356</v>
+        <v>0.0338246</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0359105</v>
+        <v>0.0357724</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0361633</v>
+        <v>0.0362246</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0357528</v>
+        <v>0.0349231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09771199999999999</v>
+        <v>0.0981871</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0366614</v>
+        <v>0.0368472</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0389341</v>
+        <v>0.0391228</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0397535</v>
+        <v>0.0400199</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0389756</v>
+        <v>0.0390195</v>
       </c>
       <c r="D79" t="n">
-        <v>0.102799</v>
+        <v>0.102284</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0416571</v>
+        <v>0.0420196</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0444613</v>
+        <v>0.0443528</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0444618</v>
+        <v>0.044725</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0443879</v>
+        <v>0.0445249</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106751</v>
+        <v>0.106484</v>
       </c>
       <c r="E80" t="n">
-        <v>0.036234</v>
+        <v>0.035975</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0330146</v>
+        <v>0.033315</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0558592</v>
+        <v>0.0561934</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0352329</v>
+        <v>0.0351719</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11139</v>
+        <v>0.111373</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0368544</v>
+        <v>0.0367108</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0334153</v>
+        <v>0.0335948</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0559646</v>
+        <v>0.0564079</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0354322</v>
+        <v>0.0351545</v>
       </c>
       <c r="D82" t="n">
-        <v>0.116966</v>
+        <v>0.117088</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0375946</v>
+        <v>0.0375342</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0341093</v>
+        <v>0.0339441</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0564061</v>
+        <v>0.0566467</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0358764</v>
+        <v>0.035584</v>
       </c>
       <c r="D83" t="n">
-        <v>0.121466</v>
+        <v>0.121864</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0384354</v>
+        <v>0.038268</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0345678</v>
+        <v>0.0344975</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05646</v>
+        <v>0.0566738</v>
       </c>
       <c r="C84" t="n">
-        <v>0.036021</v>
+        <v>0.0359891</v>
       </c>
       <c r="D84" t="n">
-        <v>0.126342</v>
+        <v>0.125998</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0391273</v>
+        <v>0.0390028</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0349461</v>
+        <v>0.0350851</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0566981</v>
+        <v>0.057069</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0364658</v>
+        <v>0.036139</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131373</v>
+        <v>0.132832</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0399929</v>
+        <v>0.0397794</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0352708</v>
+        <v>0.0353958</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0569723</v>
+        <v>0.0575887</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0369504</v>
+        <v>0.0364645</v>
       </c>
       <c r="D86" t="n">
-        <v>0.137449</v>
+        <v>0.138246</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0406337</v>
+        <v>0.0405538</v>
       </c>
       <c r="F86" t="n">
-        <v>0.036337</v>
+        <v>0.0364487</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0574269</v>
+        <v>0.0575375</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0374239</v>
+        <v>0.0370775</v>
       </c>
       <c r="D87" t="n">
-        <v>0.144079</v>
+        <v>0.143561</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0413901</v>
+        <v>0.0413658</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0371392</v>
+        <v>0.0373346</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.057659</v>
+        <v>0.0579726</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0380386</v>
+        <v>0.0380186</v>
       </c>
       <c r="D88" t="n">
-        <v>0.149166</v>
+        <v>0.148341</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0451085</v>
+        <v>0.0421892</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0385843</v>
+        <v>0.0384932</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0595087</v>
+        <v>0.0585099</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0395046</v>
+        <v>0.0389749</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154394</v>
+        <v>0.154371</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0433844</v>
+        <v>0.0433111</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0397596</v>
+        <v>0.0398267</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0587891</v>
+        <v>0.0592656</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0407927</v>
+        <v>0.0406484</v>
       </c>
       <c r="D90" t="n">
-        <v>0.161065</v>
+        <v>0.161169</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0448403</v>
+        <v>0.0446751</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0414553</v>
+        <v>0.0418032</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06005</v>
+        <v>0.0603082</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0428575</v>
+        <v>0.0427138</v>
       </c>
       <c r="D91" t="n">
-        <v>0.167196</v>
+        <v>0.1669</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0467026</v>
+        <v>0.0463535</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0442403</v>
+        <v>0.0444483</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0615949</v>
+        <v>0.0619962</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0458976</v>
+        <v>0.0456673</v>
       </c>
       <c r="D92" t="n">
-        <v>0.147154</v>
+        <v>0.146625</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0492324</v>
+        <v>0.0490217</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0478385</v>
+        <v>0.0477555</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0642243</v>
+        <v>0.064529</v>
       </c>
       <c r="C93" t="n">
-        <v>0.049688</v>
+        <v>0.049743</v>
       </c>
       <c r="D93" t="n">
-        <v>0.150733</v>
+        <v>0.150187</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0533436</v>
+        <v>0.0546927</v>
       </c>
       <c r="F93" t="n">
-        <v>0.053251</v>
+        <v>0.0531667</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0679226</v>
+        <v>0.0686162</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0555771</v>
+        <v>0.0552907</v>
       </c>
       <c r="D94" t="n">
-        <v>0.153228</v>
+        <v>0.153926</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0712612</v>
+        <v>0.07129770000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0683054</v>
+        <v>0.0677706</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0862961</v>
+        <v>0.0858508</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0727677</v>
+        <v>0.0719134</v>
       </c>
       <c r="D95" t="n">
-        <v>0.160565</v>
+        <v>0.157942</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0729379</v>
+        <v>0.07164570000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0689982</v>
+        <v>0.0681636</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08574560000000001</v>
+        <v>0.0869891</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0718625</v>
+        <v>0.07192419999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.162852</v>
+        <v>0.162455</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0722266</v>
+        <v>0.07206600000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0691759</v>
+        <v>0.06857920000000001</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08580699999999999</v>
+        <v>0.08608159999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0721856</v>
+        <v>0.0721815</v>
       </c>
       <c r="D97" t="n">
-        <v>0.175738</v>
+        <v>0.16702</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07263650000000001</v>
+        <v>0.0726015</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06956560000000001</v>
+        <v>0.06909659999999999</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08590399999999999</v>
+        <v>0.086087</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0724996</v>
+        <v>0.0722853</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171942</v>
+        <v>0.171752</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07324749999999999</v>
+        <v>0.07314809999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07018050000000001</v>
+        <v>0.06962930000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0859341</v>
+        <v>0.0861213</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0728612</v>
+        <v>0.0724289</v>
       </c>
       <c r="D99" t="n">
-        <v>0.177346</v>
+        <v>0.177317</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0737462</v>
+        <v>0.07377400000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0714634</v>
+        <v>0.07019830000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0877679</v>
+        <v>0.0864019</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07407999999999999</v>
+        <v>0.0729578</v>
       </c>
       <c r="D100" t="n">
-        <v>0.185202</v>
+        <v>0.191793</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0751279</v>
+        <v>0.07436479999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>0.071848</v>
+        <v>0.07105350000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0863799</v>
+        <v>0.0865896</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0737342</v>
+        <v>0.073453</v>
       </c>
       <c r="D101" t="n">
-        <v>0.188039</v>
+        <v>0.187321</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0752584</v>
+        <v>0.0750715</v>
       </c>
       <c r="F101" t="n">
-        <v>0.073007</v>
+        <v>0.0717106</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0924654</v>
+        <v>0.0866977</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07421229999999999</v>
+        <v>0.07416150000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.19295</v>
+        <v>0.193825</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0764386</v>
+        <v>0.07593560000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>0.07395690000000001</v>
+        <v>0.0726909</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0893241</v>
+        <v>0.0872103</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0760653</v>
+        <v>0.0749447</v>
       </c>
       <c r="D103" t="n">
-        <v>0.20052</v>
+        <v>0.199231</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0767839</v>
+        <v>0.07692980000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0743571</v>
+        <v>0.07391490000000001</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0876045</v>
+        <v>0.0878338</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07596079999999999</v>
+        <v>0.07677680000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209575</v>
+        <v>0.205071</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0783075</v>
+        <v>0.0782405</v>
       </c>
       <c r="F104" t="n">
-        <v>0.075928</v>
+        <v>0.0753852</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08840389999999999</v>
+        <v>0.08859839999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07797</v>
+        <v>0.0777143</v>
       </c>
       <c r="D105" t="n">
-        <v>0.211244</v>
+        <v>0.211272</v>
       </c>
       <c r="E105" t="n">
-        <v>0.081122</v>
+        <v>0.0798382</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0787052</v>
+        <v>0.07749109999999999</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0910701</v>
+        <v>0.0898543</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0806957</v>
+        <v>0.0800092</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217255</v>
+        <v>0.217709</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08223800000000001</v>
+        <v>0.0823324</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0811692</v>
+        <v>0.080612</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09178799999999999</v>
+        <v>0.0918389</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0833214</v>
+        <v>0.08334809999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.182875</v>
+        <v>0.182009</v>
       </c>
       <c r="E107" t="n">
-        <v>0.08593779999999999</v>
+        <v>0.0858737</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0859114</v>
+        <v>0.0853893</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0949382</v>
+        <v>0.0951413</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0885171</v>
+        <v>0.0882308</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186893</v>
+        <v>0.185282</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0878256</v>
+        <v>0.0888109</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0923026</v>
+        <v>0.09370820000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100175</v>
+        <v>0.100122</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0954979</v>
+        <v>0.09539590000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.19084</v>
+        <v>0.189519</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0902722</v>
+        <v>0.0895508</v>
       </c>
       <c r="F109" t="n">
-        <v>0.094453</v>
+        <v>0.09427530000000001</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.110645</v>
+        <v>0.107156</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09724960000000001</v>
+        <v>0.09764349999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.193315</v>
+        <v>0.193224</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0892216</v>
+        <v>0.090417</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09329369999999999</v>
+        <v>0.09472949999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.109257</v>
+        <v>0.107051</v>
       </c>
       <c r="C111" t="n">
-        <v>0.098803</v>
+        <v>0.0977697</v>
       </c>
       <c r="D111" t="n">
-        <v>0.200597</v>
+        <v>0.197383</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0917195</v>
+        <v>0.0912314</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0939329</v>
+        <v>0.09533759999999999</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1094</v>
+        <v>0.107002</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09762469999999999</v>
+        <v>0.0980747</v>
       </c>
       <c r="D112" t="n">
-        <v>0.202351</v>
+        <v>0.202188</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0909638</v>
+        <v>0.092034</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0945362</v>
+        <v>0.0959559</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10947</v>
+        <v>0.107248</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0979187</v>
+        <v>0.0982382</v>
       </c>
       <c r="D113" t="n">
-        <v>0.207636</v>
+        <v>0.207984</v>
       </c>
       <c r="E113" t="n">
-        <v>0.091934</v>
+        <v>0.0930546</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0953292</v>
+        <v>0.09667820000000001</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.109617</v>
+        <v>0.107459</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0980721</v>
+        <v>0.0988175</v>
       </c>
       <c r="D114" t="n">
-        <v>0.213501</v>
+        <v>0.213203</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0931429</v>
+        <v>0.09410010000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0961321</v>
+        <v>0.0976482</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.109935</v>
+        <v>0.107607</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09875</v>
+        <v>0.0992237</v>
       </c>
       <c r="D115" t="n">
-        <v>0.219477</v>
+        <v>0.218931</v>
       </c>
       <c r="E115" t="n">
-        <v>0.09410930000000001</v>
+        <v>0.0952388</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0970413</v>
+        <v>0.0985405</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109959</v>
+        <v>0.107945</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09961730000000001</v>
+        <v>0.0997386</v>
       </c>
       <c r="D116" t="n">
-        <v>0.224894</v>
+        <v>0.224077</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0952773</v>
+        <v>0.0964243</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0981667</v>
+        <v>0.0995968</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.110357</v>
+        <v>0.108306</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100272</v>
+        <v>0.100512</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230496</v>
+        <v>0.230169</v>
       </c>
       <c r="E117" t="n">
-        <v>0.096751</v>
+        <v>0.09779599999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0993864</v>
+        <v>0.100977</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.110889</v>
+        <v>0.108854</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101051</v>
+        <v>0.101786</v>
       </c>
       <c r="D118" t="n">
-        <v>0.236969</v>
+        <v>0.236485</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0983412</v>
+        <v>0.09961299999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.101092</v>
+        <v>0.102762</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.111817</v>
+        <v>0.109663</v>
       </c>
       <c r="C119" t="n">
-        <v>0.102718</v>
+        <v>0.103293</v>
       </c>
       <c r="D119" t="n">
-        <v>0.242147</v>
+        <v>0.242585</v>
       </c>
       <c r="E119" t="n">
-        <v>0.100382</v>
+        <v>0.10156</v>
       </c>
       <c r="F119" t="n">
-        <v>0.103353</v>
+        <v>0.104915</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.117712</v>
+        <v>0.110612</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104832</v>
+        <v>0.105163</v>
       </c>
       <c r="D120" t="n">
-        <v>0.248005</v>
+        <v>0.248162</v>
       </c>
       <c r="E120" t="n">
-        <v>0.102862</v>
+        <v>0.104086</v>
       </c>
       <c r="F120" t="n">
-        <v>0.106491</v>
+        <v>0.107951</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.114751</v>
+        <v>0.112605</v>
       </c>
       <c r="C121" t="n">
-        <v>0.107735</v>
+        <v>0.108427</v>
       </c>
       <c r="D121" t="n">
-        <v>0.19955</v>
+        <v>0.199903</v>
       </c>
       <c r="E121" t="n">
-        <v>0.10664</v>
+        <v>0.107972</v>
       </c>
       <c r="F121" t="n">
-        <v>0.111216</v>
+        <v>0.112728</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.11779</v>
+        <v>0.116022</v>
       </c>
       <c r="C122" t="n">
-        <v>0.112432</v>
+        <v>0.113114</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202494</v>
+        <v>0.202714</v>
       </c>
       <c r="E122" t="n">
-        <v>0.112626</v>
+        <v>0.113948</v>
       </c>
       <c r="F122" t="n">
-        <v>0.118383</v>
+        <v>0.119953</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.122433</v>
+        <v>0.120428</v>
       </c>
       <c r="C123" t="n">
-        <v>0.119387</v>
+        <v>0.119823</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205693</v>
+        <v>0.206494</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106239</v>
+        <v>0.106328</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110543</v>
+        <v>0.109956</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141422</v>
+        <v>0.139772</v>
       </c>
       <c r="C124" t="n">
-        <v>0.129518</v>
+        <v>0.129525</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209679</v>
+        <v>0.209974</v>
       </c>
       <c r="E124" t="n">
-        <v>0.107235</v>
+        <v>0.107409</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110983</v>
+        <v>0.110565</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141426</v>
+        <v>0.139737</v>
       </c>
       <c r="C125" t="n">
-        <v>0.129585</v>
+        <v>0.129681</v>
       </c>
       <c r="D125" t="n">
-        <v>0.214532</v>
+        <v>0.214098</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108587</v>
+        <v>0.108356</v>
       </c>
       <c r="F125" t="n">
-        <v>0.111751</v>
+        <v>0.11118</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.141412</v>
+        <v>0.139791</v>
       </c>
       <c r="C126" t="n">
-        <v>0.129682</v>
+        <v>0.130345</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218868</v>
+        <v>0.218934</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109556</v>
+        <v>0.109722</v>
       </c>
       <c r="F126" t="n">
-        <v>0.11235</v>
+        <v>0.112143</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.14169</v>
+        <v>0.139762</v>
       </c>
       <c r="C127" t="n">
-        <v>0.130167</v>
+        <v>0.130055</v>
       </c>
       <c r="D127" t="n">
-        <v>0.22373</v>
+        <v>0.223795</v>
       </c>
       <c r="E127" t="n">
-        <v>0.110608</v>
+        <v>0.110578</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113369</v>
+        <v>0.113063</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14163</v>
+        <v>0.14015</v>
       </c>
       <c r="C128" t="n">
-        <v>0.130441</v>
+        <v>0.13047</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229335</v>
+        <v>0.229569</v>
       </c>
       <c r="E128" t="n">
-        <v>0.111927</v>
+        <v>0.111938</v>
       </c>
       <c r="F128" t="n">
-        <v>0.114396</v>
+        <v>0.114008</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.153197</v>
+        <v>0.140527</v>
       </c>
       <c r="C129" t="n">
-        <v>0.130866</v>
+        <v>0.130835</v>
       </c>
       <c r="D129" t="n">
-        <v>0.23474</v>
+        <v>0.235455</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113149</v>
+        <v>0.113178</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115487</v>
+        <v>0.11529</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142162</v>
+        <v>0.151183</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131364</v>
+        <v>0.131691</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240974</v>
+        <v>0.242232</v>
       </c>
       <c r="E130" t="n">
-        <v>0.114795</v>
+        <v>0.115238</v>
       </c>
       <c r="F130" t="n">
-        <v>0.117203</v>
+        <v>0.11671</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142489</v>
+        <v>0.141132</v>
       </c>
       <c r="C131" t="n">
-        <v>0.132147</v>
+        <v>0.13315</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246569</v>
+        <v>0.246879</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116069</v>
+        <v>0.116211</v>
       </c>
       <c r="F131" t="n">
-        <v>0.118494</v>
+        <v>0.130807</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142713</v>
+        <v>0.141571</v>
       </c>
       <c r="C132" t="n">
-        <v>0.132909</v>
+        <v>0.132968</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252477</v>
+        <v>0.252892</v>
       </c>
       <c r="E132" t="n">
-        <v>0.117965</v>
+        <v>0.117971</v>
       </c>
       <c r="F132" t="n">
-        <v>0.120426</v>
+        <v>0.120224</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143832</v>
+        <v>0.142492</v>
       </c>
       <c r="C133" t="n">
-        <v>0.135832</v>
+        <v>0.134362</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258486</v>
+        <v>0.258936</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120181</v>
+        <v>0.120208</v>
       </c>
       <c r="F133" t="n">
-        <v>0.12288</v>
+        <v>0.122665</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144681</v>
+        <v>0.143685</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136159</v>
+        <v>0.136133</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264758</v>
+        <v>0.264664</v>
       </c>
       <c r="E134" t="n">
-        <v>0.123187</v>
+        <v>0.12307</v>
       </c>
       <c r="F134" t="n">
-        <v>0.126364</v>
+        <v>0.12604</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.146111</v>
+        <v>0.145277</v>
       </c>
       <c r="C135" t="n">
-        <v>0.14213</v>
+        <v>0.138885</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209016</v>
+        <v>0.209024</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127222</v>
+        <v>0.127086</v>
       </c>
       <c r="F135" t="n">
-        <v>0.131176</v>
+        <v>0.130776</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.149179</v>
+        <v>0.148123</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143125</v>
+        <v>0.144138</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211812</v>
+        <v>0.211739</v>
       </c>
       <c r="E136" t="n">
-        <v>0.133389</v>
+        <v>0.133392</v>
       </c>
       <c r="F136" t="n">
-        <v>0.140067</v>
+        <v>0.149099</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.152977</v>
+        <v>0.152168</v>
       </c>
       <c r="C137" t="n">
-        <v>0.155413</v>
+        <v>0.14915</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215436</v>
+        <v>0.21562</v>
       </c>
       <c r="E137" t="n">
-        <v>0.118186</v>
+        <v>0.118252</v>
       </c>
       <c r="F137" t="n">
-        <v>0.123895</v>
+        <v>0.12371</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158045</v>
+        <v>0.15782</v>
       </c>
       <c r="C138" t="n">
-        <v>0.153508</v>
+        <v>0.152994</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219588</v>
+        <v>0.219369</v>
       </c>
       <c r="E138" t="n">
-        <v>0.119229</v>
+        <v>0.119159</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124577</v>
+        <v>0.124293</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157948</v>
+        <v>0.158046</v>
       </c>
       <c r="C139" t="n">
-        <v>0.153753</v>
+        <v>0.153343</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223799</v>
+        <v>0.223797</v>
       </c>
       <c r="E139" t="n">
-        <v>0.120163</v>
+        <v>0.120273</v>
       </c>
       <c r="F139" t="n">
-        <v>0.127499</v>
+        <v>0.125101</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158011</v>
+        <v>0.158495</v>
       </c>
       <c r="C140" t="n">
-        <v>0.154442</v>
+        <v>0.16044</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228461</v>
+        <v>0.228419</v>
       </c>
       <c r="E140" t="n">
-        <v>0.121313</v>
+        <v>0.121426</v>
       </c>
       <c r="F140" t="n">
-        <v>0.126466</v>
+        <v>0.126049</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158303</v>
+        <v>0.15826</v>
       </c>
       <c r="C141" t="n">
-        <v>0.154639</v>
+        <v>0.167642</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234058</v>
+        <v>0.233376</v>
       </c>
       <c r="E141" t="n">
-        <v>0.122586</v>
+        <v>0.122583</v>
       </c>
       <c r="F141" t="n">
-        <v>0.127483</v>
+        <v>0.140946</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158348</v>
+        <v>0.158264</v>
       </c>
       <c r="C142" t="n">
-        <v>0.154833</v>
+        <v>0.154295</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239362</v>
+        <v>0.240611</v>
       </c>
       <c r="E142" t="n">
-        <v>0.123854</v>
+        <v>0.123796</v>
       </c>
       <c r="F142" t="n">
-        <v>0.128679</v>
+        <v>0.128272</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158885</v>
+        <v>0.158637</v>
       </c>
       <c r="C143" t="n">
-        <v>0.155144</v>
+        <v>0.15481</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245229</v>
+        <v>0.245166</v>
       </c>
       <c r="E143" t="n">
-        <v>0.125351</v>
+        <v>0.125221</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1301</v>
+        <v>0.129495</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0197029</v>
+        <v>0.019804</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0177832</v>
+        <v>0.0176926</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0348607</v>
+        <v>0.0345377</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197826</v>
+        <v>0.0197814</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207169</v>
+        <v>0.0207737</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197304</v>
+        <v>0.0196475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0178226</v>
+        <v>0.0177626</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0400009</v>
+        <v>0.0419555</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0200642</v>
+        <v>0.0200161</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0208789</v>
+        <v>0.0209926</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195818</v>
+        <v>0.019807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0179078</v>
+        <v>0.0178782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0429993</v>
+        <v>0.0434212</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200912</v>
+        <v>0.0200243</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0210312</v>
+        <v>0.0210253</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196294</v>
+        <v>0.0197411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0177426</v>
+        <v>0.0179634</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0461287</v>
+        <v>0.0466652</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0201405</v>
+        <v>0.020284</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0211923</v>
+        <v>0.0213263</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0200383</v>
+        <v>0.019854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0181369</v>
+        <v>0.0180867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0548663</v>
+        <v>0.0516542</v>
       </c>
       <c r="E6" t="n">
-        <v>0.020368</v>
+        <v>0.0203243</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0213182</v>
+        <v>0.0211686</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01994</v>
+        <v>0.0198866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017944</v>
+        <v>0.018114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0305546</v>
+        <v>0.0310286</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0206559</v>
+        <v>0.0206001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0214979</v>
+        <v>0.0215522</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0199922</v>
+        <v>0.0200795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01822</v>
+        <v>0.0184731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0330186</v>
+        <v>0.0324948</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0214027</v>
+        <v>0.0214173</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0221885</v>
+        <v>0.0221308</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203669</v>
+        <v>0.0203577</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188867</v>
+        <v>0.0194655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0351268</v>
+        <v>0.0350145</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0194062</v>
+        <v>0.0194817</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0216748</v>
+        <v>0.0216613</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0190905</v>
+        <v>0.0196062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.017971</v>
+        <v>0.0181271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0368174</v>
+        <v>0.0372908</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0198149</v>
+        <v>0.0197825</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0218079</v>
+        <v>0.0218674</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0192087</v>
+        <v>0.019631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0181009</v>
+        <v>0.0183106</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0399429</v>
+        <v>0.0401588</v>
       </c>
       <c r="E11" t="n">
-        <v>0.019792</v>
+        <v>0.0197859</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0219248</v>
+        <v>0.0219461</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0193318</v>
+        <v>0.0197921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0183023</v>
+        <v>0.0184043</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0430388</v>
+        <v>0.0430931</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200275</v>
+        <v>0.0200604</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0220529</v>
+        <v>0.022186</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019649</v>
+        <v>0.0199058</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0183372</v>
+        <v>0.0184344</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0477401</v>
+        <v>0.0461456</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203374</v>
+        <v>0.0203386</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0222671</v>
+        <v>0.0223255</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198138</v>
+        <v>0.0199772</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0186079</v>
+        <v>0.0186507</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0498982</v>
+        <v>0.0496231</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206275</v>
+        <v>0.0206883</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0225971</v>
+        <v>0.0226204</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0197844</v>
+        <v>0.0202471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0184995</v>
+        <v>0.0187086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0539642</v>
+        <v>0.0531912</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208915</v>
+        <v>0.020795</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0229012</v>
+        <v>0.0228699</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201984</v>
+        <v>0.0202496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0187353</v>
+        <v>0.01902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0568172</v>
+        <v>0.0573351</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209266</v>
+        <v>0.0209838</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0229182</v>
+        <v>0.0228671</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0200993</v>
+        <v>0.0204095</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0186255</v>
+        <v>0.0191264</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0605348</v>
+        <v>0.0595536</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0212529</v>
+        <v>0.0212595</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230658</v>
+        <v>0.0230092</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202111</v>
+        <v>0.0205336</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0187794</v>
+        <v>0.0192339</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0636963</v>
+        <v>0.0656159</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0214844</v>
+        <v>0.0215683</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0233278</v>
+        <v>0.0232175</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0202838</v>
+        <v>0.0204495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0190865</v>
+        <v>0.0193124</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06696920000000001</v>
+        <v>0.0668315</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0219786</v>
+        <v>0.021785</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0233359</v>
+        <v>0.0234504</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020268</v>
+        <v>0.0207241</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0191502</v>
+        <v>0.0193045</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0694164</v>
+        <v>0.0696812</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0222283</v>
+        <v>0.0223458</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238634</v>
+        <v>0.0238288</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0204355</v>
+        <v>0.0209063</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0193912</v>
+        <v>0.0197883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0447042</v>
+        <v>0.045035</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0230507</v>
+        <v>0.0230201</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0249247</v>
+        <v>0.0246858</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0210107</v>
+        <v>0.0213215</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0199714</v>
+        <v>0.0204076</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0465978</v>
+        <v>0.0465206</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0287019</v>
+        <v>0.0260045</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0302423</v>
+        <v>0.0271673</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0249912</v>
+        <v>0.0232099</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0260621</v>
+        <v>0.0252641</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0528601</v>
+        <v>0.0520041</v>
       </c>
       <c r="E23" t="n">
-        <v>0.020969</v>
+        <v>0.020988</v>
       </c>
       <c r="F23" t="n">
-        <v>0.023342</v>
+        <v>0.023356</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202738</v>
+        <v>0.020355</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0193185</v>
+        <v>0.0194458</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0544755</v>
+        <v>0.0546005</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211061</v>
+        <v>0.0211915</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234491</v>
+        <v>0.0234723</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202785</v>
+        <v>0.0204128</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0194455</v>
+        <v>0.019619</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0570012</v>
+        <v>0.0556348</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213267</v>
+        <v>0.0213618</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236025</v>
+        <v>0.0236179</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206082</v>
+        <v>0.0205541</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0195818</v>
+        <v>0.019747</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586934</v>
+        <v>0.0586354</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215441</v>
+        <v>0.0215665</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0238008</v>
+        <v>0.0239858</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207714</v>
+        <v>0.0207509</v>
       </c>
       <c r="C27" t="n">
-        <v>0.019865</v>
+        <v>0.019875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0611559</v>
+        <v>0.0617425</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0220027</v>
+        <v>0.0218137</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0240255</v>
+        <v>0.0241768</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209301</v>
+        <v>0.0209175</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0200581</v>
+        <v>0.0201065</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0646909</v>
+        <v>0.06373620000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.022136</v>
+        <v>0.022141</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0243397</v>
+        <v>0.0244228</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210942</v>
+        <v>0.0210559</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0202461</v>
+        <v>0.0202986</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0670163</v>
+        <v>0.0665457</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224802</v>
+        <v>0.0224683</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0245539</v>
+        <v>0.0246972</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213096</v>
+        <v>0.0212863</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0204283</v>
+        <v>0.0204843</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0693279</v>
+        <v>0.06943390000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227387</v>
+        <v>0.0227466</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0247885</v>
+        <v>0.0248074</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215352</v>
+        <v>0.0215054</v>
       </c>
       <c r="C31" t="n">
-        <v>0.020594</v>
+        <v>0.0206728</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0723707</v>
+        <v>0.0715865</v>
       </c>
       <c r="E31" t="n">
-        <v>0.023192</v>
+        <v>0.0231064</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251166</v>
+        <v>0.0251544</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0216665</v>
+        <v>0.0216941</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0208654</v>
+        <v>0.0209277</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07513590000000001</v>
+        <v>0.0745084</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0236763</v>
+        <v>0.0236126</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0256222</v>
+        <v>0.0257117</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221115</v>
+        <v>0.0221273</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0212822</v>
+        <v>0.0212732</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0774652</v>
+        <v>0.07687090000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0242169</v>
+        <v>0.0242278</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0262207</v>
+        <v>0.0261393</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0227667</v>
+        <v>0.0224542</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0220012</v>
+        <v>0.0218778</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07910780000000001</v>
+        <v>0.07957110000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0258155</v>
+        <v>0.0253109</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0274553</v>
+        <v>0.0271481</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0253284</v>
+        <v>0.0237786</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0243199</v>
+        <v>0.0231823</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0528502</v>
+        <v>0.0523907</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0280374</v>
+        <v>0.0274815</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0299746</v>
+        <v>0.0294115</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0264901</v>
+        <v>0.0259967</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0257347</v>
+        <v>0.0257493</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0542868</v>
+        <v>0.0550651</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0324337</v>
+        <v>0.0317351</v>
       </c>
       <c r="F36" t="n">
-        <v>0.033716</v>
+        <v>0.0333646</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0325824</v>
+        <v>0.0306882</v>
       </c>
       <c r="C37" t="n">
-        <v>0.030473</v>
+        <v>0.0297674</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0567142</v>
+        <v>0.0576339</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0221636</v>
+        <v>0.0222424</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0246014</v>
+        <v>0.0245805</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215495</v>
+        <v>0.0216095</v>
       </c>
       <c r="C38" t="n">
-        <v>0.020956</v>
+        <v>0.0209619</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0582646</v>
+        <v>0.0584383</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0224571</v>
+        <v>0.0225019</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247709</v>
+        <v>0.0247756</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215573</v>
+        <v>0.021698</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0209968</v>
+        <v>0.0211188</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0603325</v>
+        <v>0.0608122</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0226044</v>
+        <v>0.022663</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0249246</v>
+        <v>0.0249464</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219235</v>
+        <v>0.0218429</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0211562</v>
+        <v>0.021302</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0628098</v>
+        <v>0.06336319999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229191</v>
+        <v>0.0229578</v>
       </c>
       <c r="F40" t="n">
-        <v>0.025202</v>
+        <v>0.0251872</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218744</v>
+        <v>0.0219675</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0212267</v>
+        <v>0.0214362</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06461069999999999</v>
+        <v>0.06559719999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231811</v>
+        <v>0.023247</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253469</v>
+        <v>0.0253918</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221576</v>
+        <v>0.022215</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215972</v>
+        <v>0.0215633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0671175</v>
+        <v>0.0680355</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0235688</v>
+        <v>0.0235467</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256131</v>
+        <v>0.0256011</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223421</v>
+        <v>0.0226113</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0216304</v>
+        <v>0.0218486</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0699496</v>
+        <v>0.0706196</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0239409</v>
+        <v>0.023941</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0258781</v>
+        <v>0.0258673</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226761</v>
+        <v>0.0227797</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0219144</v>
+        <v>0.0221355</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07280929999999999</v>
+        <v>0.07297380000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242547</v>
+        <v>0.0242501</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261597</v>
+        <v>0.0262512</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228732</v>
+        <v>0.0230331</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0223307</v>
+        <v>0.0224467</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0753356</v>
+        <v>0.076358</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247383</v>
+        <v>0.0247747</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0266831</v>
+        <v>0.0266503</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232117</v>
+        <v>0.0234497</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0226524</v>
+        <v>0.0228372</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0780309</v>
+        <v>0.07822079999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0255201</v>
+        <v>0.0254537</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272663</v>
+        <v>0.0272621</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239347</v>
+        <v>0.0239783</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0233942</v>
+        <v>0.0234058</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08015750000000001</v>
+        <v>0.0807339</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0264949</v>
+        <v>0.0263931</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0282443</v>
+        <v>0.0282689</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025713</v>
+        <v>0.0253241</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0246643</v>
+        <v>0.0243668</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0825174</v>
+        <v>0.0829445</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0280301</v>
+        <v>0.0279469</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0299574</v>
+        <v>0.0296833</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270799</v>
+        <v>0.0272602</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0264312</v>
+        <v>0.0262176</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0840793</v>
+        <v>0.0849356</v>
       </c>
       <c r="E49" t="n">
-        <v>0.030625</v>
+        <v>0.0305081</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0321575</v>
+        <v>0.0321969</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0298683</v>
+        <v>0.0294719</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0290301</v>
+        <v>0.0287595</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0578376</v>
+        <v>0.0581503</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0344834</v>
+        <v>0.034539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0359227</v>
+        <v>0.0357998</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0332643</v>
+        <v>0.0329405</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0329722</v>
+        <v>0.0323535</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0594435</v>
+        <v>0.059765</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0229644</v>
+        <v>0.0231371</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0250003</v>
+        <v>0.0249533</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0382627</v>
+        <v>0.0386984</v>
       </c>
       <c r="C52" t="n">
-        <v>0.038371</v>
+        <v>0.0385055</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613575</v>
+        <v>0.0616345</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0231919</v>
+        <v>0.0232217</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251596</v>
+        <v>0.0251769</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023376</v>
+        <v>0.02327</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219202</v>
+        <v>0.0219914</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0634429</v>
+        <v>0.0638933</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234633</v>
+        <v>0.0234675</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0253632</v>
+        <v>0.0254895</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233862</v>
+        <v>0.023514</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0220996</v>
+        <v>0.022212</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0655454</v>
+        <v>0.0658569</v>
       </c>
       <c r="E54" t="n">
-        <v>0.023756</v>
+        <v>0.0238574</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0256177</v>
+        <v>0.0255999</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234516</v>
+        <v>0.023439</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022241</v>
+        <v>0.0223274</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06820950000000001</v>
+        <v>0.06836780000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.024002</v>
+        <v>0.0241681</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0260456</v>
+        <v>0.0260942</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237086</v>
+        <v>0.0236409</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0224808</v>
+        <v>0.0224887</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0705921</v>
+        <v>0.0710234</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243721</v>
+        <v>0.0244134</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261354</v>
+        <v>0.0261335</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240021</v>
+        <v>0.0242255</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0226933</v>
+        <v>0.0227852</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0737414</v>
+        <v>0.0733799</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0248007</v>
+        <v>0.0249039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.026512</v>
+        <v>0.026575</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244632</v>
+        <v>0.02415</v>
       </c>
       <c r="C58" t="n">
-        <v>0.023147</v>
+        <v>0.0230776</v>
       </c>
       <c r="D58" t="n">
-        <v>0.076196</v>
+        <v>0.0762719</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0252895</v>
+        <v>0.0254</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0270285</v>
+        <v>0.0270291</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024777</v>
+        <v>0.0248104</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0236583</v>
+        <v>0.0235157</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0787017</v>
+        <v>0.079189</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0259516</v>
+        <v>0.0259244</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276954</v>
+        <v>0.0276341</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253252</v>
+        <v>0.0252687</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0241021</v>
+        <v>0.0241722</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08171059999999999</v>
+        <v>0.08123039999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0268299</v>
+        <v>0.0268472</v>
       </c>
       <c r="F60" t="n">
-        <v>0.028346</v>
+        <v>0.0284347</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262127</v>
+        <v>0.0261289</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0251702</v>
+        <v>0.0249702</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837302</v>
+        <v>0.08506950000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0279139</v>
+        <v>0.0280394</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0296383</v>
+        <v>0.0296514</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275722</v>
+        <v>0.0272172</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0263024</v>
+        <v>0.0260184</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086447</v>
+        <v>0.0862242</v>
       </c>
       <c r="E62" t="n">
-        <v>0.029725</v>
+        <v>0.0296767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0313602</v>
+        <v>0.0313284</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0296294</v>
+        <v>0.0291776</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0281961</v>
+        <v>0.0277786</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0884556</v>
+        <v>0.089902</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0321024</v>
+        <v>0.0321861</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0336924</v>
+        <v>0.0339274</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0323637</v>
+        <v>0.0315869</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0311656</v>
+        <v>0.0308094</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0632273</v>
+        <v>0.064523</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0355887</v>
+        <v>0.0356255</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0374407</v>
+        <v>0.0374201</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035763</v>
+        <v>0.0354947</v>
       </c>
       <c r="C65" t="n">
-        <v>0.035165</v>
+        <v>0.0345651</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0665869</v>
+        <v>0.0674255</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0410133</v>
+        <v>0.0410711</v>
       </c>
       <c r="F65" t="n">
-        <v>0.042854</v>
+        <v>0.0429506</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410071</v>
+        <v>0.0405978</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0404243</v>
+        <v>0.0398659</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0693004</v>
+        <v>0.0698144</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0251325</v>
+        <v>0.0248718</v>
       </c>
       <c r="F66" t="n">
-        <v>0.026662</v>
+        <v>0.0268358</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0296415</v>
+        <v>0.0282654</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0250135</v>
+        <v>0.0251642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0723758</v>
+        <v>0.0723234</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0252707</v>
+        <v>0.0248559</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0270437</v>
+        <v>0.0270024</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0296182</v>
+        <v>0.0284243</v>
       </c>
       <c r="C68" t="n">
-        <v>0.024764</v>
+        <v>0.0251042</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07460319999999999</v>
+        <v>0.0755417</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0255287</v>
+        <v>0.0254039</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272624</v>
+        <v>0.0272977</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.029671</v>
+        <v>0.0285631</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0253305</v>
+        <v>0.025459</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0784357</v>
+        <v>0.078703</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0258819</v>
+        <v>0.0256559</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0276069</v>
+        <v>0.0277392</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0299226</v>
+        <v>0.0287557</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0256244</v>
+        <v>0.0255516</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0820217</v>
+        <v>0.082362</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0262333</v>
+        <v>0.026084</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0279474</v>
+        <v>0.0280833</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0302333</v>
+        <v>0.0290557</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0257198</v>
+        <v>0.0259616</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0859171</v>
+        <v>0.08651</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0264132</v>
+        <v>0.0272477</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0282301</v>
+        <v>0.0284207</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304387</v>
+        <v>0.0292854</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0266683</v>
+        <v>0.0264178</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0899228</v>
+        <v>0.0905765</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0270807</v>
+        <v>0.0271669</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0288541</v>
+        <v>0.0289972</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0307984</v>
+        <v>0.0296896</v>
       </c>
       <c r="C73" t="n">
-        <v>0.026978</v>
+        <v>0.0265557</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0944651</v>
+        <v>0.0946543</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0277807</v>
+        <v>0.0276321</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0294396</v>
+        <v>0.0295154</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0313633</v>
+        <v>0.0302319</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0275904</v>
+        <v>0.0274131</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0975321</v>
+        <v>0.0989008</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0283821</v>
+        <v>0.029086</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0302336</v>
+        <v>0.0302801</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0324952</v>
+        <v>0.0310837</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0287284</v>
+        <v>0.0287677</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101935</v>
+        <v>0.102791</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0298292</v>
+        <v>0.0301593</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0314833</v>
+        <v>0.0317053</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0336131</v>
+        <v>0.0324481</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0299448</v>
+        <v>0.0299071</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107117</v>
+        <v>0.107651</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0314692</v>
+        <v>0.0317109</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0332519</v>
+        <v>0.0332977</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0352722</v>
+        <v>0.0339897</v>
       </c>
       <c r="C77" t="n">
-        <v>0.032467</v>
+        <v>0.0318396</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113211</v>
+        <v>0.113461</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0333562</v>
+        <v>0.033465</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0355653</v>
+        <v>0.0358176</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0379539</v>
+        <v>0.0362784</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0350742</v>
+        <v>0.0345989</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0975351</v>
+        <v>0.0973074</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0364379</v>
+        <v>0.0365831</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0391816</v>
+        <v>0.0391129</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0412628</v>
+        <v>0.0398698</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0387075</v>
+        <v>0.0385791</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101844</v>
+        <v>0.102163</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0416509</v>
+        <v>0.0414998</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0442014</v>
+        <v>0.0442686</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0459095</v>
+        <v>0.0443998</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0440338</v>
+        <v>0.0436863</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105787</v>
+        <v>0.106326</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362885</v>
+        <v>0.0363848</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0340507</v>
+        <v>0.0334341</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.055094</v>
+        <v>0.0557857</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0358549</v>
+        <v>0.0352401</v>
       </c>
       <c r="D81" t="n">
-        <v>0.114731</v>
+        <v>0.11051</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0369744</v>
+        <v>0.0370335</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0343746</v>
+        <v>0.0336871</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0558679</v>
+        <v>0.0559136</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0359603</v>
+        <v>0.0356606</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115888</v>
+        <v>0.115894</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0377672</v>
+        <v>0.0378057</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0348598</v>
+        <v>0.0342733</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0553193</v>
+        <v>0.0564421</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0363639</v>
+        <v>0.0358541</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120485</v>
+        <v>0.121034</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0386016</v>
+        <v>0.0386249</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0353316</v>
+        <v>0.0347986</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0558434</v>
+        <v>0.0562902</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0366315</v>
+        <v>0.0360994</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127408</v>
+        <v>0.125768</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0391935</v>
+        <v>0.0395907</v>
       </c>
       <c r="F84" t="n">
-        <v>0.035899</v>
+        <v>0.0351955</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559024</v>
+        <v>0.0564741</v>
       </c>
       <c r="C85" t="n">
-        <v>0.036985</v>
+        <v>0.0365154</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130941</v>
+        <v>0.130623</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0399682</v>
+        <v>0.0402675</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0362724</v>
+        <v>0.0356586</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0561313</v>
+        <v>0.0566749</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0374769</v>
+        <v>0.0369558</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136131</v>
+        <v>0.136632</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0408565</v>
+        <v>0.040965</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0370932</v>
+        <v>0.0363462</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0565055</v>
+        <v>0.0568586</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0380599</v>
+        <v>0.0373701</v>
       </c>
       <c r="D87" t="n">
-        <v>0.143583</v>
+        <v>0.142979</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0417207</v>
+        <v>0.0418753</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0379461</v>
+        <v>0.0372876</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0569163</v>
+        <v>0.0573107</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0388812</v>
+        <v>0.0383175</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148483</v>
+        <v>0.148263</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0426189</v>
+        <v>0.0426978</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0390122</v>
+        <v>0.0385909</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0574846</v>
+        <v>0.0577305</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0399494</v>
+        <v>0.0394006</v>
       </c>
       <c r="D89" t="n">
-        <v>0.15431</v>
+        <v>0.154654</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0435012</v>
+        <v>0.0437513</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0404352</v>
+        <v>0.0398067</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0581785</v>
+        <v>0.0585259</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0413558</v>
+        <v>0.0407812</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160437</v>
+        <v>0.160542</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0449728</v>
+        <v>0.0450895</v>
       </c>
       <c r="F90" t="n">
-        <v>0.042379</v>
+        <v>0.0418195</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0620287</v>
+        <v>0.0595527</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0431785</v>
+        <v>0.042815</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166027</v>
+        <v>0.166494</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0467796</v>
+        <v>0.0469871</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0448361</v>
+        <v>0.044391</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0609023</v>
+        <v>0.0614615</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0462663</v>
+        <v>0.0459348</v>
       </c>
       <c r="D92" t="n">
-        <v>0.14564</v>
+        <v>0.145706</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0492794</v>
+        <v>0.0497935</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0482959</v>
+        <v>0.0479487</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633336</v>
+        <v>0.06461020000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0500341</v>
+        <v>0.0500197</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149393</v>
+        <v>0.148952</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0535675</v>
+        <v>0.0537768</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0537233</v>
+        <v>0.0533526</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06722210000000001</v>
+        <v>0.06786200000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.055782</v>
+        <v>0.05564</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152226</v>
+        <v>0.153049</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0712407</v>
+        <v>0.07148880000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>0.067763</v>
+        <v>0.067998</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0856838</v>
+        <v>0.0863993</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0699279</v>
+        <v>0.0718292</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156376</v>
+        <v>0.156987</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0716951</v>
+        <v>0.0719365</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0682633</v>
+        <v>0.06857249999999999</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.09380960000000001</v>
+        <v>0.08640059999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07026200000000001</v>
+        <v>0.0718324</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160704</v>
+        <v>0.161434</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0721367</v>
+        <v>0.0724291</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0686793</v>
+        <v>0.0689997</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859101</v>
+        <v>0.0864185</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07042370000000001</v>
+        <v>0.07198010000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.166384</v>
+        <v>0.166334</v>
       </c>
       <c r="E97" t="n">
-        <v>0.072695</v>
+        <v>0.07292609999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06920320000000001</v>
+        <v>0.0695452</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859466</v>
+        <v>0.0864492</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0705346</v>
+        <v>0.0720734</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171071</v>
+        <v>0.171061</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0731676</v>
+        <v>0.0734462</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0696397</v>
+        <v>0.0700766</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860799</v>
+        <v>0.0865923</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0709335</v>
+        <v>0.0725605</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175695</v>
+        <v>0.176207</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0736995</v>
+        <v>0.07456989999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0703642</v>
+        <v>0.0707787</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0862807</v>
+        <v>0.086826</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0713741</v>
+        <v>0.07290480000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.180995</v>
+        <v>0.181421</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0744924</v>
+        <v>0.0748277</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0710001</v>
+        <v>0.07135089999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864352</v>
+        <v>0.0870081</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07187399999999999</v>
+        <v>0.07353</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187033</v>
+        <v>0.186931</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0750749</v>
+        <v>0.0754645</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0718744</v>
+        <v>0.0721449</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867573</v>
+        <v>0.0872546</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07242030000000001</v>
+        <v>0.07404959999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192787</v>
+        <v>0.193129</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07597959999999999</v>
+        <v>0.0764444</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0727367</v>
+        <v>0.0730558</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870527</v>
+        <v>0.0876181</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0734146</v>
+        <v>0.07481</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198244</v>
+        <v>0.198502</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0770508</v>
+        <v>0.077514</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0739576</v>
+        <v>0.0742944</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08765530000000001</v>
+        <v>0.0881666</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.0759819</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204334</v>
+        <v>0.2044</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0782321</v>
+        <v>0.0786448</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07550220000000001</v>
+        <v>0.0757052</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885007</v>
+        <v>0.0890608</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0762587</v>
+        <v>0.0777297</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210446</v>
+        <v>0.210736</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07998280000000001</v>
+        <v>0.0806511</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0814807</v>
+        <v>0.077849</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.089945</v>
+        <v>0.0904879</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0786681</v>
+        <v>0.0801611</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217287</v>
+        <v>0.216909</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08234279999999999</v>
+        <v>0.0828009</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0807681</v>
+        <v>0.0810169</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09178070000000001</v>
+        <v>0.0923491</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0819603</v>
+        <v>0.08339439999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181918</v>
+        <v>0.181616</v>
       </c>
       <c r="E107" t="n">
-        <v>0.085997</v>
+        <v>0.0865393</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0855001</v>
+        <v>0.08566550000000001</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950097</v>
+        <v>0.095905</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0866996</v>
+        <v>0.0882609</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185186</v>
+        <v>0.184789</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0888335</v>
+        <v>0.08859499999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0936647</v>
+        <v>0.09282120000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100929</v>
+        <v>0.100696</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0938566</v>
+        <v>0.0954386</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188771</v>
+        <v>0.188539</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0895077</v>
+        <v>0.08911470000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09406440000000001</v>
+        <v>0.0932477</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107425</v>
+        <v>0.107532</v>
       </c>
       <c r="C110" t="n">
-        <v>0.101885</v>
+        <v>0.0981369</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192911</v>
+        <v>0.192504</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09036760000000001</v>
+        <v>0.08981989999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09463770000000001</v>
+        <v>0.0937204</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107535</v>
+        <v>0.107642</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0982415</v>
+        <v>0.09827379999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.197479</v>
+        <v>0.196562</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09121899999999999</v>
+        <v>0.09075229999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0952727</v>
+        <v>0.0944084</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107492</v>
+        <v>0.107652</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0985287</v>
+        <v>0.0984179</v>
       </c>
       <c r="D112" t="n">
-        <v>0.202002</v>
+        <v>0.201405</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0921691</v>
+        <v>0.0914943</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0959499</v>
+        <v>0.09507839999999999</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107652</v>
+        <v>0.107868</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0987541</v>
+        <v>0.09862659999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.20679</v>
+        <v>0.206529</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0930412</v>
+        <v>0.0925015</v>
       </c>
       <c r="F113" t="n">
-        <v>0.09657640000000001</v>
+        <v>0.0956909</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107689</v>
+        <v>0.107873</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0990028</v>
+        <v>0.0991113</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212159</v>
+        <v>0.211884</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0941385</v>
+        <v>0.093511</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09740070000000001</v>
+        <v>0.09652230000000001</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107927</v>
+        <v>0.108127</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0996861</v>
+        <v>0.09958880000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.218126</v>
+        <v>0.217739</v>
       </c>
       <c r="E115" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.09467680000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0984502</v>
+        <v>0.0975461</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108197</v>
+        <v>0.108325</v>
       </c>
       <c r="C116" t="n">
-        <v>0.100242</v>
+        <v>0.100164</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223616</v>
+        <v>0.222845</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0964893</v>
+        <v>0.0959092</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0995583</v>
+        <v>0.09860960000000001</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108499</v>
+        <v>0.108676</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100924</v>
+        <v>0.10079</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230044</v>
+        <v>0.22888</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0979107</v>
+        <v>0.0972959</v>
       </c>
       <c r="F117" t="n">
-        <v>0.115187</v>
+        <v>0.09993870000000001</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109112</v>
+        <v>0.109485</v>
       </c>
       <c r="C118" t="n">
-        <v>0.102006</v>
+        <v>0.102062</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235675</v>
+        <v>0.23482</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0994572</v>
+        <v>0.0989337</v>
       </c>
       <c r="F118" t="n">
-        <v>0.102635</v>
+        <v>0.101716</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109904</v>
+        <v>0.1101</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103764</v>
+        <v>0.103484</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241229</v>
+        <v>0.24071</v>
       </c>
       <c r="E119" t="n">
-        <v>0.101517</v>
+        <v>0.100887</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104945</v>
+        <v>0.10396</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111108</v>
+        <v>0.111281</v>
       </c>
       <c r="C120" t="n">
-        <v>0.10572</v>
+        <v>0.10544</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247635</v>
+        <v>0.246805</v>
       </c>
       <c r="E120" t="n">
-        <v>0.104026</v>
+        <v>0.103448</v>
       </c>
       <c r="F120" t="n">
-        <v>0.115867</v>
+        <v>0.107323</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112923</v>
+        <v>0.113026</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108602</v>
+        <v>0.108566</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199177</v>
+        <v>0.199817</v>
       </c>
       <c r="E121" t="n">
-        <v>0.107922</v>
+        <v>0.107369</v>
       </c>
       <c r="F121" t="n">
-        <v>0.112637</v>
+        <v>0.111752</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115894</v>
+        <v>0.11597</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113154</v>
+        <v>0.113162</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202647</v>
+        <v>0.203453</v>
       </c>
       <c r="E122" t="n">
-        <v>0.115607</v>
+        <v>0.11319</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119773</v>
+        <v>0.118959</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120827</v>
+        <v>0.120981</v>
       </c>
       <c r="C123" t="n">
-        <v>0.12025</v>
+        <v>0.119995</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205735</v>
+        <v>0.20582</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106406</v>
+        <v>0.106852</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110665</v>
+        <v>0.110228</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134696</v>
+        <v>0.139099</v>
       </c>
       <c r="C124" t="n">
-        <v>0.129498</v>
+        <v>0.129908</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209514</v>
+        <v>0.209813</v>
       </c>
       <c r="E124" t="n">
-        <v>0.10735</v>
+        <v>0.107724</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110309</v>
+        <v>0.114273</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135101</v>
+        <v>0.138891</v>
       </c>
       <c r="C125" t="n">
-        <v>0.131423</v>
+        <v>0.130155</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213877</v>
+        <v>0.213992</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108429</v>
+        <v>0.108864</v>
       </c>
       <c r="F125" t="n">
-        <v>0.11127</v>
+        <v>0.111676</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134972</v>
+        <v>0.138748</v>
       </c>
       <c r="C126" t="n">
-        <v>0.129922</v>
+        <v>0.130266</v>
       </c>
       <c r="D126" t="n">
-        <v>0.219152</v>
+        <v>0.218841</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109641</v>
+        <v>0.109969</v>
       </c>
       <c r="F126" t="n">
-        <v>0.112012</v>
+        <v>0.112419</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.134918</v>
+        <v>0.139258</v>
       </c>
       <c r="C127" t="n">
-        <v>0.13008</v>
+        <v>0.130393</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231633</v>
+        <v>0.223774</v>
       </c>
       <c r="E127" t="n">
-        <v>0.110709</v>
+        <v>0.111097</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113341</v>
+        <v>0.113292</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135001</v>
+        <v>0.139156</v>
       </c>
       <c r="C128" t="n">
-        <v>0.13042</v>
+        <v>0.130963</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229055</v>
+        <v>0.229083</v>
       </c>
       <c r="E128" t="n">
-        <v>0.111953</v>
+        <v>0.113002</v>
       </c>
       <c r="F128" t="n">
-        <v>0.113685</v>
+        <v>0.114482</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135403</v>
+        <v>0.139493</v>
       </c>
       <c r="C129" t="n">
-        <v>0.138097</v>
+        <v>0.131324</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234697</v>
+        <v>0.234917</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113242</v>
+        <v>0.113566</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115074</v>
+        <v>0.115615</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135636</v>
+        <v>0.139913</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131327</v>
+        <v>0.131925</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240733</v>
+        <v>0.240945</v>
       </c>
       <c r="E130" t="n">
-        <v>0.114708</v>
+        <v>0.11514</v>
       </c>
       <c r="F130" t="n">
-        <v>0.116472</v>
+        <v>0.116978</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136004</v>
+        <v>0.140126</v>
       </c>
       <c r="C131" t="n">
-        <v>0.131974</v>
+        <v>0.132431</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250269</v>
+        <v>0.246428</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116208</v>
+        <v>0.116664</v>
       </c>
       <c r="F131" t="n">
-        <v>0.118112</v>
+        <v>0.118529</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13637</v>
+        <v>0.14157</v>
       </c>
       <c r="C132" t="n">
-        <v>0.132909</v>
+        <v>0.133522</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25243</v>
+        <v>0.252204</v>
       </c>
       <c r="E132" t="n">
-        <v>0.118164</v>
+        <v>0.118482</v>
       </c>
       <c r="F132" t="n">
-        <v>0.120063</v>
+        <v>0.120704</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137165</v>
+        <v>0.141844</v>
       </c>
       <c r="C133" t="n">
-        <v>0.134187</v>
+        <v>0.13477</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258601</v>
+        <v>0.258604</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120228</v>
+        <v>0.120624</v>
       </c>
       <c r="F133" t="n">
-        <v>0.122504</v>
+        <v>0.123069</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138195</v>
+        <v>0.142977</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136124</v>
+        <v>0.136759</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264555</v>
+        <v>0.264646</v>
       </c>
       <c r="E134" t="n">
-        <v>0.123197</v>
+        <v>0.123599</v>
       </c>
       <c r="F134" t="n">
-        <v>0.125976</v>
+        <v>0.126418</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.140824</v>
+        <v>0.144739</v>
       </c>
       <c r="C135" t="n">
-        <v>0.138955</v>
+        <v>0.139171</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209652</v>
+        <v>0.207943</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127168</v>
+        <v>0.127581</v>
       </c>
       <c r="F135" t="n">
-        <v>0.130668</v>
+        <v>0.131139</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142504</v>
+        <v>0.147564</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143044</v>
+        <v>0.143382</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211642</v>
+        <v>0.210964</v>
       </c>
       <c r="E136" t="n">
-        <v>0.139293</v>
+        <v>0.133784</v>
       </c>
       <c r="F136" t="n">
-        <v>0.138339</v>
+        <v>0.138698</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146915</v>
+        <v>0.151662</v>
       </c>
       <c r="C137" t="n">
-        <v>0.149451</v>
+        <v>0.149705</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215138</v>
+        <v>0.214364</v>
       </c>
       <c r="E137" t="n">
-        <v>0.119447</v>
+        <v>0.118641</v>
       </c>
       <c r="F137" t="n">
-        <v>0.122405</v>
+        <v>0.123785</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158147</v>
+        <v>0.158421</v>
       </c>
       <c r="C138" t="n">
-        <v>0.160487</v>
+        <v>0.153113</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219107</v>
+        <v>0.218512</v>
       </c>
       <c r="E138" t="n">
-        <v>0.120409</v>
+        <v>0.119592</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124304</v>
+        <v>0.124469</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158131</v>
+        <v>0.158935</v>
       </c>
       <c r="C139" t="n">
-        <v>0.151034</v>
+        <v>0.153225</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223522</v>
+        <v>0.223064</v>
       </c>
       <c r="E139" t="n">
-        <v>0.121372</v>
+        <v>0.120706</v>
       </c>
       <c r="F139" t="n">
-        <v>0.124224</v>
+        <v>0.125279</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.167806</v>
+        <v>0.158716</v>
       </c>
       <c r="C140" t="n">
-        <v>0.151621</v>
+        <v>0.153648</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228687</v>
+        <v>0.22759</v>
       </c>
       <c r="E140" t="n">
-        <v>0.122565</v>
+        <v>0.121927</v>
       </c>
       <c r="F140" t="n">
-        <v>0.124955</v>
+        <v>0.126131</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158273</v>
+        <v>0.158621</v>
       </c>
       <c r="C141" t="n">
-        <v>0.151894</v>
+        <v>0.153866</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234175</v>
+        <v>0.232648</v>
       </c>
       <c r="E141" t="n">
-        <v>0.123674</v>
+        <v>0.123162</v>
       </c>
       <c r="F141" t="n">
-        <v>0.126027</v>
+        <v>0.127102</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158409</v>
+        <v>0.158879</v>
       </c>
       <c r="C142" t="n">
-        <v>0.152361</v>
+        <v>0.1544</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239578</v>
+        <v>0.238176</v>
       </c>
       <c r="E142" t="n">
-        <v>0.124869</v>
+        <v>0.124252</v>
       </c>
       <c r="F142" t="n">
-        <v>0.127228</v>
+        <v>0.128413</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.160652</v>
+        <v>0.158959</v>
       </c>
       <c r="C143" t="n">
-        <v>0.152896</v>
+        <v>0.154898</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245658</v>
+        <v>0.244259</v>
       </c>
       <c r="E143" t="n">
-        <v>0.126156</v>
+        <v>0.125509</v>
       </c>
       <c r="F143" t="n">
-        <v>0.128446</v>
+        <v>0.131881</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.019804</v>
+        <v>0.0196328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0176926</v>
+        <v>0.0175625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0345377</v>
+        <v>0.0351354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197814</v>
+        <v>0.0198015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207737</v>
+        <v>0.0207959</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0196475</v>
+        <v>0.0196425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0177626</v>
+        <v>0.0176334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0419555</v>
+        <v>0.0395954</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0200161</v>
+        <v>0.0200318</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0209926</v>
+        <v>0.0210018</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.019807</v>
+        <v>0.0196505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0178782</v>
+        <v>0.0178007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0434212</v>
+        <v>0.0430141</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200243</v>
+        <v>0.0200228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0210253</v>
+        <v>0.0209946</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0197411</v>
+        <v>0.0197819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0179634</v>
+        <v>0.0177705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0466652</v>
+        <v>0.0472095</v>
       </c>
       <c r="E5" t="n">
-        <v>0.020284</v>
+        <v>0.0203369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0213263</v>
+        <v>0.021148</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.019854</v>
+        <v>0.0198654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0180867</v>
+        <v>0.0180943</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0516542</v>
+        <v>0.0526838</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0203243</v>
+        <v>0.0203485</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0211686</v>
+        <v>0.0211426</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0198866</v>
+        <v>0.0199363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.018114</v>
+        <v>0.0181543</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0310286</v>
+        <v>0.0303413</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0206001</v>
+        <v>0.0205526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0215522</v>
+        <v>0.0215532</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0200795</v>
+        <v>0.0201153</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0184731</v>
+        <v>0.0182248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0324948</v>
+        <v>0.0319695</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0214173</v>
+        <v>0.0212044</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0221308</v>
+        <v>0.0221075</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203577</v>
+        <v>0.0202285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0194655</v>
+        <v>0.0186726</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0350145</v>
+        <v>0.0349878</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0194817</v>
+        <v>0.0195103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0216613</v>
+        <v>0.0218576</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0196062</v>
+        <v>0.0195263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0181271</v>
+        <v>0.0180722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0372908</v>
+        <v>0.0366696</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0197825</v>
+        <v>0.0196897</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0218674</v>
+        <v>0.021906</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.019631</v>
+        <v>0.019651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0183106</v>
+        <v>0.0182303</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0401588</v>
+        <v>0.0405195</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0197859</v>
+        <v>0.019878</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0219461</v>
+        <v>0.0219973</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197921</v>
+        <v>0.0196607</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0184043</v>
+        <v>0.0183268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0430931</v>
+        <v>0.0436378</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200604</v>
+        <v>0.0201657</v>
       </c>
       <c r="F12" t="n">
-        <v>0.022186</v>
+        <v>0.0220457</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199058</v>
+        <v>0.0199601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0184344</v>
+        <v>0.0186617</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0461456</v>
+        <v>0.0473623</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203386</v>
+        <v>0.0202036</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0223255</v>
+        <v>0.0221966</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199772</v>
+        <v>0.0199351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0186507</v>
+        <v>0.0187331</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0496231</v>
+        <v>0.0505367</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206883</v>
+        <v>0.0204711</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0226204</v>
+        <v>0.0225122</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0202471</v>
+        <v>0.0202185</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0187086</v>
+        <v>0.0188419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0531912</v>
+        <v>0.0539061</v>
       </c>
       <c r="E15" t="n">
-        <v>0.020795</v>
+        <v>0.0207128</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0228699</v>
+        <v>0.0227249</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0202496</v>
+        <v>0.0200895</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01902</v>
+        <v>0.0187852</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0573351</v>
+        <v>0.0576851</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209838</v>
+        <v>0.0211166</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0228671</v>
+        <v>0.022834</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0204095</v>
+        <v>0.0203516</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0191264</v>
+        <v>0.0191002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0595536</v>
+        <v>0.0605249</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0212595</v>
+        <v>0.0213594</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230092</v>
+        <v>0.0230364</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0205336</v>
+        <v>0.0203806</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0192339</v>
+        <v>0.0191571</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0656159</v>
+        <v>0.0635424</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0215683</v>
+        <v>0.0216414</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0232175</v>
+        <v>0.0233106</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204495</v>
+        <v>0.020417</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0193124</v>
+        <v>0.0192868</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0668315</v>
+        <v>0.0677659</v>
       </c>
       <c r="E19" t="n">
-        <v>0.021785</v>
+        <v>0.021695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0234504</v>
+        <v>0.0233886</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0207241</v>
+        <v>0.0206667</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0193045</v>
+        <v>0.0194798</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0696812</v>
+        <v>0.07059790000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0223458</v>
+        <v>0.0220744</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238288</v>
+        <v>0.0237442</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0209063</v>
+        <v>0.0208029</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0197883</v>
+        <v>0.0197696</v>
       </c>
       <c r="D21" t="n">
-        <v>0.045035</v>
+        <v>0.0444953</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0230201</v>
+        <v>0.0230623</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0246858</v>
+        <v>0.024699</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0213215</v>
+        <v>0.0210836</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0204076</v>
+        <v>0.0202864</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0465206</v>
+        <v>0.0496844</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0260045</v>
+        <v>0.0278679</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0271673</v>
+        <v>0.0289348</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0232099</v>
+        <v>0.0255431</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0252641</v>
+        <v>0.025305</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0520041</v>
+        <v>0.0523044</v>
       </c>
       <c r="E23" t="n">
-        <v>0.020988</v>
+        <v>0.0209837</v>
       </c>
       <c r="F23" t="n">
-        <v>0.023356</v>
+        <v>0.0233425</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.020355</v>
+        <v>0.0204454</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0194458</v>
+        <v>0.0193456</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0546005</v>
+        <v>0.0542304</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211915</v>
+        <v>0.0211482</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234723</v>
+        <v>0.0234454</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0204128</v>
+        <v>0.0204537</v>
       </c>
       <c r="C25" t="n">
-        <v>0.019619</v>
+        <v>0.0196804</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0556348</v>
+        <v>0.0565633</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213618</v>
+        <v>0.0213445</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236179</v>
+        <v>0.0235962</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0205541</v>
+        <v>0.0206485</v>
       </c>
       <c r="C26" t="n">
-        <v>0.019747</v>
+        <v>0.0196482</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586354</v>
+        <v>0.0581261</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215665</v>
+        <v>0.0215592</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0239858</v>
+        <v>0.0238797</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207509</v>
+        <v>0.0208327</v>
       </c>
       <c r="C27" t="n">
-        <v>0.019875</v>
+        <v>0.0197969</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0617425</v>
+        <v>0.0614314</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0218137</v>
+        <v>0.0218013</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0241768</v>
+        <v>0.0239866</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209175</v>
+        <v>0.0210399</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0201065</v>
+        <v>0.0201685</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06373620000000001</v>
+        <v>0.0633835</v>
       </c>
       <c r="E28" t="n">
-        <v>0.022141</v>
+        <v>0.0221179</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0244228</v>
+        <v>0.0242272</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210559</v>
+        <v>0.0211264</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0202986</v>
+        <v>0.0202453</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0665457</v>
+        <v>0.0663999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224683</v>
+        <v>0.0224591</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0246972</v>
+        <v>0.024573</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0212863</v>
+        <v>0.0213378</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0204843</v>
+        <v>0.0205368</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06943390000000001</v>
+        <v>0.0692898</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227466</v>
+        <v>0.0227001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0248074</v>
+        <v>0.0247772</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215054</v>
+        <v>0.0213857</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0206728</v>
+        <v>0.0209164</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0715865</v>
+        <v>0.0719374</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0231064</v>
+        <v>0.0230679</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251544</v>
+        <v>0.0251453</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0216941</v>
+        <v>0.0216679</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0209277</v>
+        <v>0.0210928</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0745084</v>
+        <v>0.07491879999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0236126</v>
+        <v>0.0236367</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0257117</v>
+        <v>0.0255627</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221273</v>
+        <v>0.021969</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0212732</v>
+        <v>0.0214903</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07687090000000001</v>
+        <v>0.07737189999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0242278</v>
+        <v>0.0242558</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0261393</v>
+        <v>0.0262852</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0224542</v>
+        <v>0.0225667</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0218778</v>
+        <v>0.0219632</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07957110000000001</v>
+        <v>0.0793037</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0253109</v>
+        <v>0.0253824</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0271481</v>
+        <v>0.0270983</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0237786</v>
+        <v>0.023745</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0231823</v>
+        <v>0.0231368</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0523907</v>
+        <v>0.0534797</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0274815</v>
+        <v>0.0274821</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0294115</v>
+        <v>0.029187</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0259967</v>
+        <v>0.0260525</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0257493</v>
+        <v>0.0260424</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0550651</v>
+        <v>0.0549999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0317351</v>
+        <v>0.031754</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0333646</v>
+        <v>0.0336318</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0306882</v>
+        <v>0.0302503</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0297674</v>
+        <v>0.0308061</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0576339</v>
+        <v>0.0567476</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0222424</v>
+        <v>0.0221741</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0245805</v>
+        <v>0.0245888</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216095</v>
+        <v>0.021546</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0209619</v>
+        <v>0.0208469</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0584383</v>
+        <v>0.0589984</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0225019</v>
+        <v>0.0224008</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247756</v>
+        <v>0.0247341</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.021698</v>
+        <v>0.0215721</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0211188</v>
+        <v>0.0209238</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0608122</v>
+        <v>0.0609084</v>
       </c>
       <c r="E39" t="n">
-        <v>0.022663</v>
+        <v>0.0226233</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0249464</v>
+        <v>0.0249074</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218429</v>
+        <v>0.0219137</v>
       </c>
       <c r="C40" t="n">
-        <v>0.021302</v>
+        <v>0.0211641</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06336319999999999</v>
+        <v>0.063237</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229578</v>
+        <v>0.0229305</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0251872</v>
+        <v>0.0252202</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219675</v>
+        <v>0.0219492</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0214362</v>
+        <v>0.0214239</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06559719999999999</v>
+        <v>0.065493</v>
       </c>
       <c r="E41" t="n">
-        <v>0.023247</v>
+        <v>0.0232237</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253918</v>
+        <v>0.0253499</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.022215</v>
+        <v>0.0222041</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215633</v>
+        <v>0.0216095</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0680355</v>
+        <v>0.06795229999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0235467</v>
+        <v>0.0235383</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256011</v>
+        <v>0.0256369</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0226113</v>
+        <v>0.0225736</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0218486</v>
+        <v>0.0217195</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0706196</v>
+        <v>0.0705413</v>
       </c>
       <c r="E43" t="n">
-        <v>0.023941</v>
+        <v>0.0238943</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0258673</v>
+        <v>0.0258399</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0227797</v>
+        <v>0.0227052</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0221355</v>
+        <v>0.0220027</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07297380000000001</v>
+        <v>0.07301589999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242501</v>
+        <v>0.02424</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0262512</v>
+        <v>0.0261983</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0230331</v>
+        <v>0.0229197</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0224467</v>
+        <v>0.0223875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.076358</v>
+        <v>0.0755678</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247747</v>
+        <v>0.0247495</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0266503</v>
+        <v>0.0266323</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0234497</v>
+        <v>0.0232719</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0228372</v>
+        <v>0.0228023</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07822079999999999</v>
+        <v>0.0778529</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0254537</v>
+        <v>0.0254962</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272621</v>
+        <v>0.0272535</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239783</v>
+        <v>0.0240799</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0234058</v>
+        <v>0.0234221</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0807339</v>
+        <v>0.08046150000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0263931</v>
+        <v>0.0263769</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0282689</v>
+        <v>0.0280954</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0253241</v>
+        <v>0.0255495</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0243668</v>
+        <v>0.0243788</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0829445</v>
+        <v>0.0827736</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0279469</v>
+        <v>0.0278537</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0296833</v>
+        <v>0.0296664</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0272602</v>
+        <v>0.0270871</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0262176</v>
+        <v>0.0264314</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0849356</v>
+        <v>0.08457099999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0305081</v>
+        <v>0.0304272</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0321969</v>
+        <v>0.0320911</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0294719</v>
+        <v>0.0295981</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0287595</v>
+        <v>0.0286973</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0581503</v>
+        <v>0.0582688</v>
       </c>
       <c r="E50" t="n">
-        <v>0.034539</v>
+        <v>0.0342577</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0357998</v>
+        <v>0.0359132</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0329405</v>
+        <v>0.0336062</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0323535</v>
+        <v>0.0324768</v>
       </c>
       <c r="D51" t="n">
-        <v>0.059765</v>
+        <v>0.0599214</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0231371</v>
+        <v>0.0230646</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0249533</v>
+        <v>0.0249186</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0386984</v>
+        <v>0.038705</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0385055</v>
+        <v>0.0384281</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0616345</v>
+        <v>0.0620532</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0232217</v>
+        <v>0.0232295</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251769</v>
+        <v>0.0250597</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02327</v>
+        <v>0.0231295</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219914</v>
+        <v>0.0218702</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0638933</v>
+        <v>0.0643204</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234675</v>
+        <v>0.0234766</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0254895</v>
+        <v>0.0253286</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.023514</v>
+        <v>0.0233481</v>
       </c>
       <c r="C54" t="n">
-        <v>0.022212</v>
+        <v>0.0220282</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0658569</v>
+        <v>0.0669505</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0238574</v>
+        <v>0.0237595</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0255999</v>
+        <v>0.0255707</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.023439</v>
+        <v>0.0235402</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0223274</v>
+        <v>0.022235</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06836780000000001</v>
+        <v>0.0690127</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0241681</v>
+        <v>0.0240656</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0260942</v>
+        <v>0.0258179</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236409</v>
+        <v>0.0237004</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0224887</v>
+        <v>0.022454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0710234</v>
+        <v>0.07202219999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0244134</v>
+        <v>0.0243809</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261335</v>
+        <v>0.0260586</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0242255</v>
+        <v>0.0240507</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0227852</v>
+        <v>0.0227412</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0733799</v>
+        <v>0.07482229999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0249039</v>
+        <v>0.0248228</v>
       </c>
       <c r="F57" t="n">
-        <v>0.026575</v>
+        <v>0.0264712</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02415</v>
+        <v>0.0242436</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0230776</v>
+        <v>0.0231138</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0762719</v>
+        <v>0.07765909999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0254</v>
+        <v>0.0252879</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0270291</v>
+        <v>0.026986</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0248104</v>
+        <v>0.024707</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0235157</v>
+        <v>0.0236032</v>
       </c>
       <c r="D59" t="n">
-        <v>0.079189</v>
+        <v>0.0799938</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0259244</v>
+        <v>0.0259798</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276341</v>
+        <v>0.0275474</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0252687</v>
+        <v>0.0251839</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0241722</v>
+        <v>0.0241085</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08123039999999999</v>
+        <v>0.0824199</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0268472</v>
+        <v>0.0268167</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0284347</v>
+        <v>0.0283038</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0261289</v>
+        <v>0.0262425</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0249702</v>
+        <v>0.025111</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08506950000000001</v>
+        <v>0.08534559999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0280394</v>
+        <v>0.0279704</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0296514</v>
+        <v>0.0295527</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0272172</v>
+        <v>0.0274742</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0260184</v>
+        <v>0.0263745</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0862242</v>
+        <v>0.087617</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0296767</v>
+        <v>0.029678</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0313284</v>
+        <v>0.0312173</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0291776</v>
+        <v>0.0292964</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0277786</v>
+        <v>0.0281111</v>
       </c>
       <c r="D63" t="n">
-        <v>0.089902</v>
+        <v>0.0900379</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0321861</v>
+        <v>0.0321647</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0339274</v>
+        <v>0.033594</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0315869</v>
+        <v>0.0319249</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0308094</v>
+        <v>0.0309983</v>
       </c>
       <c r="D64" t="n">
-        <v>0.064523</v>
+        <v>0.0649136</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0356255</v>
+        <v>0.0355759</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0374201</v>
+        <v>0.037412</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0354947</v>
+        <v>0.0355429</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0345651</v>
+        <v>0.0349559</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0674255</v>
+        <v>0.0676158</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0410711</v>
+        <v>0.0409918</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0429506</v>
+        <v>0.0427202</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0405978</v>
+        <v>0.040828</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0398659</v>
+        <v>0.0400538</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0698144</v>
+        <v>0.06990250000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0248718</v>
+        <v>0.0250583</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0268358</v>
+        <v>0.0266177</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0282654</v>
+        <v>0.0277129</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0251642</v>
+        <v>0.0245118</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0723234</v>
+        <v>0.0727718</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0248559</v>
+        <v>0.0253119</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0270024</v>
+        <v>0.0269238</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0284243</v>
+        <v>0.0278294</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0251042</v>
+        <v>0.0248548</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0755417</v>
+        <v>0.07649309999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0254039</v>
+        <v>0.0256377</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272977</v>
+        <v>0.0271063</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0285631</v>
+        <v>0.0280966</v>
       </c>
       <c r="C69" t="n">
-        <v>0.025459</v>
+        <v>0.0250782</v>
       </c>
       <c r="D69" t="n">
-        <v>0.078703</v>
+        <v>0.0795477</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0256559</v>
+        <v>0.0259454</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0277392</v>
+        <v>0.0273417</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0287557</v>
+        <v>0.02852</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0255516</v>
+        <v>0.0254338</v>
       </c>
       <c r="D70" t="n">
-        <v>0.082362</v>
+        <v>0.0834188</v>
       </c>
       <c r="E70" t="n">
-        <v>0.026084</v>
+        <v>0.0262166</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0280833</v>
+        <v>0.0278563</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0290557</v>
+        <v>0.0287678</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0259616</v>
+        <v>0.0256461</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08651</v>
+        <v>0.086741</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0272477</v>
+        <v>0.0266385</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0284207</v>
+        <v>0.0281591</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0292854</v>
+        <v>0.0292018</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0264178</v>
+        <v>0.0257725</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0905765</v>
+        <v>0.0903693</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0271669</v>
+        <v>0.0268132</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0289972</v>
+        <v>0.028867</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0296896</v>
+        <v>0.0294078</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0265557</v>
+        <v>0.026866</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0946543</v>
+        <v>0.094886</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0276321</v>
+        <v>0.0277019</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0295154</v>
+        <v>0.0294618</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0302319</v>
+        <v>0.029969</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0274131</v>
+        <v>0.0278804</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0989008</v>
+        <v>0.100241</v>
       </c>
       <c r="E74" t="n">
-        <v>0.029086</v>
+        <v>0.028916</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0302801</v>
+        <v>0.030538</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0310837</v>
+        <v>0.0308431</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0287677</v>
+        <v>0.0284351</v>
       </c>
       <c r="D75" t="n">
-        <v>0.102791</v>
+        <v>0.1042</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0301593</v>
+        <v>0.0301347</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0317053</v>
+        <v>0.0314255</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0324481</v>
+        <v>0.0320968</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0299071</v>
+        <v>0.0300351</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107651</v>
+        <v>0.107059</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0317109</v>
+        <v>0.0316943</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0332977</v>
+        <v>0.0331811</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0339897</v>
+        <v>0.0338257</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0318396</v>
+        <v>0.0319542</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113461</v>
+        <v>0.113636</v>
       </c>
       <c r="E77" t="n">
-        <v>0.033465</v>
+        <v>0.0340986</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0358176</v>
+        <v>0.0356845</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0362784</v>
+        <v>0.0364305</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0345989</v>
+        <v>0.0346474</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0973074</v>
+        <v>0.09741130000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0365831</v>
+        <v>0.0370553</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0391129</v>
+        <v>0.038927</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0398698</v>
+        <v>0.0398198</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0385791</v>
+        <v>0.038277</v>
       </c>
       <c r="D79" t="n">
-        <v>0.102163</v>
+        <v>0.102269</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0414998</v>
+        <v>0.0418089</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0442686</v>
+        <v>0.0443428</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0443998</v>
+        <v>0.0447446</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0436863</v>
+        <v>0.0437488</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106326</v>
+        <v>0.106416</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0363848</v>
+        <v>0.0355092</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0334341</v>
+        <v>0.0332431</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0557857</v>
+        <v>0.0563825</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0352401</v>
+        <v>0.035155</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11051</v>
+        <v>0.110557</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0370335</v>
+        <v>0.0363197</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0336871</v>
+        <v>0.0336294</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0559136</v>
+        <v>0.056559</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0356606</v>
+        <v>0.0354617</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115894</v>
+        <v>0.1163</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0378057</v>
+        <v>0.0371269</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0342733</v>
+        <v>0.0339854</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0564421</v>
+        <v>0.0566919</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0358541</v>
+        <v>0.035813</v>
       </c>
       <c r="D83" t="n">
-        <v>0.121034</v>
+        <v>0.12059</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0386249</v>
+        <v>0.0379323</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0347986</v>
+        <v>0.0345147</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0562902</v>
+        <v>0.0568207</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0360994</v>
+        <v>0.035927</v>
       </c>
       <c r="D84" t="n">
-        <v>0.125768</v>
+        <v>0.125568</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0395907</v>
+        <v>0.0386552</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0351955</v>
+        <v>0.0350178</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0564741</v>
+        <v>0.0568383</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0365154</v>
+        <v>0.036437</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130623</v>
+        <v>0.131847</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0402675</v>
+        <v>0.0394325</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0356586</v>
+        <v>0.0357261</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0566749</v>
+        <v>0.0571444</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0369558</v>
+        <v>0.0367858</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136632</v>
+        <v>0.136566</v>
       </c>
       <c r="E86" t="n">
-        <v>0.040965</v>
+        <v>0.0401315</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0363462</v>
+        <v>0.036262</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0568586</v>
+        <v>0.0573489</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0373701</v>
+        <v>0.0373904</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142979</v>
+        <v>0.143979</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0418753</v>
+        <v>0.0411009</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0372876</v>
+        <v>0.0372592</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0573107</v>
+        <v>0.057999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0383175</v>
+        <v>0.0382523</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148263</v>
+        <v>0.149184</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0426978</v>
+        <v>0.0420104</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0385909</v>
+        <v>0.0384365</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0577305</v>
+        <v>0.0589827</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0394006</v>
+        <v>0.0391656</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154654</v>
+        <v>0.154842</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0437513</v>
+        <v>0.0431558</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0398067</v>
+        <v>0.0399248</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0585259</v>
+        <v>0.0590299</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0407812</v>
+        <v>0.040667</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160542</v>
+        <v>0.160902</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0450895</v>
+        <v>0.044519</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0418195</v>
+        <v>0.041652</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0595527</v>
+        <v>0.0600276</v>
       </c>
       <c r="C91" t="n">
-        <v>0.042815</v>
+        <v>0.04262</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166494</v>
+        <v>0.167604</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0469871</v>
+        <v>0.0462927</v>
       </c>
       <c r="F91" t="n">
-        <v>0.044391</v>
+        <v>0.0442185</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0614615</v>
+        <v>0.0620022</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0459348</v>
+        <v>0.0457128</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145706</v>
+        <v>0.145517</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0497935</v>
+        <v>0.0490082</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0479487</v>
+        <v>0.0478512</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06461020000000001</v>
+        <v>0.0645061</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0500197</v>
+        <v>0.0499398</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148952</v>
+        <v>0.150403</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0537768</v>
+        <v>0.053194</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0533526</v>
+        <v>0.0531974</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06786200000000001</v>
+        <v>0.06825680000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.05564</v>
+        <v>0.0555101</v>
       </c>
       <c r="D94" t="n">
-        <v>0.153049</v>
+        <v>0.152285</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07148880000000001</v>
+        <v>0.071355</v>
       </c>
       <c r="F94" t="n">
-        <v>0.067998</v>
+        <v>0.06780360000000001</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0863993</v>
+        <v>0.08587549999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0718292</v>
+        <v>0.0713314</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156987</v>
+        <v>0.157188</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0719365</v>
+        <v>0.07173400000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>0.06857249999999999</v>
+        <v>0.0681648</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08640059999999999</v>
+        <v>0.09224880000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0718324</v>
+        <v>0.0716352</v>
       </c>
       <c r="D96" t="n">
-        <v>0.161434</v>
+        <v>0.161499</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0724291</v>
+        <v>0.07221229999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0689997</v>
+        <v>0.069521</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0864185</v>
+        <v>0.0859669</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07198010000000001</v>
+        <v>0.071631</v>
       </c>
       <c r="D97" t="n">
-        <v>0.166334</v>
+        <v>0.166616</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07292609999999999</v>
+        <v>0.0727025</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0695452</v>
+        <v>0.0693621</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0864492</v>
+        <v>0.0860452</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0720734</v>
+        <v>0.0720095</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171061</v>
+        <v>0.172251</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0734462</v>
+        <v>0.0732594</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0700766</v>
+        <v>0.069674</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0865923</v>
+        <v>0.0862299</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0725605</v>
+        <v>0.0723597</v>
       </c>
       <c r="D99" t="n">
-        <v>0.176207</v>
+        <v>0.176002</v>
       </c>
       <c r="E99" t="n">
-        <v>0.07456989999999999</v>
+        <v>0.073763</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0707787</v>
+        <v>0.0702294</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.086826</v>
+        <v>0.086354</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07290480000000001</v>
+        <v>0.0726991</v>
       </c>
       <c r="D100" t="n">
-        <v>0.181421</v>
+        <v>0.181748</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0748277</v>
+        <v>0.0744746</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07135089999999999</v>
+        <v>0.0710279</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0870081</v>
+        <v>0.0866045</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07353</v>
+        <v>0.0731004</v>
       </c>
       <c r="D101" t="n">
-        <v>0.186931</v>
+        <v>0.187138</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0754645</v>
+        <v>0.0751845</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0721449</v>
+        <v>0.07185900000000001</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0872546</v>
+        <v>0.0867984</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07404959999999999</v>
+        <v>0.0737481</v>
       </c>
       <c r="D102" t="n">
-        <v>0.193129</v>
+        <v>0.192894</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0764444</v>
+        <v>0.07603849999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0730558</v>
+        <v>0.0727114</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0876181</v>
+        <v>0.0871861</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07481</v>
+        <v>0.0745084</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198502</v>
+        <v>0.199317</v>
       </c>
       <c r="E103" t="n">
-        <v>0.077514</v>
+        <v>0.07712280000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0742944</v>
+        <v>0.073918</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0881666</v>
+        <v>0.0878289</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0759819</v>
+        <v>0.07571600000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2044</v>
+        <v>0.205345</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0786448</v>
+        <v>0.0784478</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0757052</v>
+        <v>0.0754518</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0890608</v>
+        <v>0.0886232</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0777297</v>
+        <v>0.07746599999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210736</v>
+        <v>0.210849</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0806511</v>
+        <v>0.08630790000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.077849</v>
+        <v>0.0775206</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0904879</v>
+        <v>0.0899766</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0801611</v>
+        <v>0.07983129999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.216909</v>
+        <v>0.216639</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0828009</v>
+        <v>0.08471140000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0810169</v>
+        <v>0.0807266</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0923491</v>
+        <v>0.09216340000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08339439999999999</v>
+        <v>0.0831575</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181616</v>
+        <v>0.184564</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0865393</v>
+        <v>0.08601830000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>0.08566550000000001</v>
+        <v>0.085461</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.095905</v>
+        <v>0.0992514</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0882609</v>
+        <v>0.0880874</v>
       </c>
       <c r="D108" t="n">
-        <v>0.184789</v>
+        <v>0.186553</v>
       </c>
       <c r="E108" t="n">
-        <v>0.08859499999999999</v>
+        <v>0.0889393</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09282120000000001</v>
+        <v>0.09387570000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100696</v>
+        <v>0.1002</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0954386</v>
+        <v>0.09527330000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188539</v>
+        <v>0.188934</v>
       </c>
       <c r="E109" t="n">
-        <v>0.08911470000000001</v>
+        <v>0.0895688</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0932477</v>
+        <v>0.09427960000000001</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107532</v>
+        <v>0.10755</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0981369</v>
+        <v>0.0978122</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192504</v>
+        <v>0.192808</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08981989999999999</v>
+        <v>0.09032900000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0937204</v>
+        <v>0.09474730000000001</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107642</v>
+        <v>0.110334</v>
       </c>
       <c r="C111" t="n">
-        <v>0.09827379999999999</v>
+        <v>0.0980207</v>
       </c>
       <c r="D111" t="n">
-        <v>0.196562</v>
+        <v>0.198139</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09075229999999999</v>
+        <v>0.09131160000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0944084</v>
+        <v>0.0954796</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107652</v>
+        <v>0.10763</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0984179</v>
+        <v>0.0983338</v>
       </c>
       <c r="D112" t="n">
-        <v>0.201405</v>
+        <v>0.202747</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0914943</v>
+        <v>0.0920922</v>
       </c>
       <c r="F112" t="n">
-        <v>0.09507839999999999</v>
+        <v>0.09614259999999999</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107868</v>
+        <v>0.107572</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09862659999999999</v>
+        <v>0.0984844</v>
       </c>
       <c r="D113" t="n">
-        <v>0.206529</v>
+        <v>0.206727</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0925015</v>
+        <v>0.0930824</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0956909</v>
+        <v>0.0968222</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107873</v>
+        <v>0.107898</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0991113</v>
+        <v>0.09886449999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.211884</v>
+        <v>0.212456</v>
       </c>
       <c r="E114" t="n">
-        <v>0.093511</v>
+        <v>0.0941398</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09652230000000001</v>
+        <v>0.0974862</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108127</v>
+        <v>0.108412</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09958880000000001</v>
+        <v>0.0992537</v>
       </c>
       <c r="D115" t="n">
-        <v>0.217739</v>
+        <v>0.218628</v>
       </c>
       <c r="E115" t="n">
-        <v>0.09467680000000001</v>
+        <v>0.09523089999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0975461</v>
+        <v>0.0985882</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108325</v>
+        <v>0.108923</v>
       </c>
       <c r="C116" t="n">
-        <v>0.100164</v>
+        <v>0.10003</v>
       </c>
       <c r="D116" t="n">
-        <v>0.222845</v>
+        <v>0.223794</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0959092</v>
+        <v>0.09650259999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>0.09860960000000001</v>
+        <v>0.104191</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108676</v>
+        <v>0.109839</v>
       </c>
       <c r="C117" t="n">
-        <v>0.10079</v>
+        <v>0.100867</v>
       </c>
       <c r="D117" t="n">
-        <v>0.22888</v>
+        <v>0.231115</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0972959</v>
+        <v>0.0978883</v>
       </c>
       <c r="F117" t="n">
-        <v>0.09993870000000001</v>
+        <v>0.10112</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109485</v>
+        <v>0.110487</v>
       </c>
       <c r="C118" t="n">
-        <v>0.102062</v>
+        <v>0.101906</v>
       </c>
       <c r="D118" t="n">
-        <v>0.23482</v>
+        <v>0.235948</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0989337</v>
+        <v>0.0994898</v>
       </c>
       <c r="F118" t="n">
-        <v>0.101716</v>
+        <v>0.102707</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1101</v>
+        <v>0.111739</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103484</v>
+        <v>0.103365</v>
       </c>
       <c r="D119" t="n">
-        <v>0.24071</v>
+        <v>0.241922</v>
       </c>
       <c r="E119" t="n">
-        <v>0.100887</v>
+        <v>0.10145</v>
       </c>
       <c r="F119" t="n">
-        <v>0.10396</v>
+        <v>0.104974</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111281</v>
+        <v>0.112958</v>
       </c>
       <c r="C120" t="n">
-        <v>0.10544</v>
+        <v>0.105474</v>
       </c>
       <c r="D120" t="n">
-        <v>0.246805</v>
+        <v>0.247878</v>
       </c>
       <c r="E120" t="n">
-        <v>0.103448</v>
+        <v>0.104112</v>
       </c>
       <c r="F120" t="n">
-        <v>0.107323</v>
+        <v>0.108137</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113026</v>
+        <v>0.115037</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108566</v>
+        <v>0.108535</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199817</v>
+        <v>0.199119</v>
       </c>
       <c r="E121" t="n">
-        <v>0.107369</v>
+        <v>0.107815</v>
       </c>
       <c r="F121" t="n">
-        <v>0.111752</v>
+        <v>0.113442</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.11597</v>
+        <v>0.118042</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113162</v>
+        <v>0.113163</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203453</v>
+        <v>0.20275</v>
       </c>
       <c r="E122" t="n">
-        <v>0.11319</v>
+        <v>0.114133</v>
       </c>
       <c r="F122" t="n">
-        <v>0.118959</v>
+        <v>0.120024</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120981</v>
+        <v>0.122805</v>
       </c>
       <c r="C123" t="n">
-        <v>0.119995</v>
+        <v>0.1198</v>
       </c>
       <c r="D123" t="n">
-        <v>0.20582</v>
+        <v>0.206021</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106852</v>
+        <v>0.107542</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110228</v>
+        <v>0.112187</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.139099</v>
+        <v>0.136918</v>
       </c>
       <c r="C124" t="n">
-        <v>0.129908</v>
+        <v>0.133235</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209813</v>
+        <v>0.209806</v>
       </c>
       <c r="E124" t="n">
-        <v>0.107724</v>
+        <v>0.108592</v>
       </c>
       <c r="F124" t="n">
-        <v>0.114273</v>
+        <v>0.11283</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.138891</v>
+        <v>0.136873</v>
       </c>
       <c r="C125" t="n">
-        <v>0.130155</v>
+        <v>0.133142</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213992</v>
+        <v>0.214344</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108864</v>
+        <v>0.109739</v>
       </c>
       <c r="F125" t="n">
-        <v>0.111676</v>
+        <v>0.113562</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.138748</v>
+        <v>0.137</v>
       </c>
       <c r="C126" t="n">
-        <v>0.130266</v>
+        <v>0.133256</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218841</v>
+        <v>0.219096</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109969</v>
+        <v>0.1108</v>
       </c>
       <c r="F126" t="n">
-        <v>0.112419</v>
+        <v>0.114475</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.139258</v>
+        <v>0.136905</v>
       </c>
       <c r="C127" t="n">
-        <v>0.130393</v>
+        <v>0.133615</v>
       </c>
       <c r="D127" t="n">
-        <v>0.223774</v>
+        <v>0.223561</v>
       </c>
       <c r="E127" t="n">
-        <v>0.111097</v>
+        <v>0.11191</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113292</v>
+        <v>0.115254</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.139156</v>
+        <v>0.13695</v>
       </c>
       <c r="C128" t="n">
-        <v>0.130963</v>
+        <v>0.133996</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229083</v>
+        <v>0.229602</v>
       </c>
       <c r="E128" t="n">
-        <v>0.113002</v>
+        <v>0.113171</v>
       </c>
       <c r="F128" t="n">
-        <v>0.114482</v>
+        <v>0.116384</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.139493</v>
+        <v>0.137134</v>
       </c>
       <c r="C129" t="n">
-        <v>0.131324</v>
+        <v>0.134549</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234917</v>
+        <v>0.234735</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113566</v>
+        <v>0.114579</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115615</v>
+        <v>0.117535</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139913</v>
+        <v>0.137231</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131925</v>
+        <v>0.135039</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240945</v>
+        <v>0.240682</v>
       </c>
       <c r="E130" t="n">
-        <v>0.11514</v>
+        <v>0.116072</v>
       </c>
       <c r="F130" t="n">
-        <v>0.116978</v>
+        <v>0.119018</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.140126</v>
+        <v>0.137729</v>
       </c>
       <c r="C131" t="n">
-        <v>0.132431</v>
+        <v>0.135834</v>
       </c>
       <c r="D131" t="n">
-        <v>0.246428</v>
+        <v>0.247332</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116664</v>
+        <v>0.117645</v>
       </c>
       <c r="F131" t="n">
-        <v>0.118529</v>
+        <v>0.120705</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.14157</v>
+        <v>0.137967</v>
       </c>
       <c r="C132" t="n">
-        <v>0.133522</v>
+        <v>0.136846</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252204</v>
+        <v>0.252474</v>
       </c>
       <c r="E132" t="n">
-        <v>0.118482</v>
+        <v>0.119653</v>
       </c>
       <c r="F132" t="n">
-        <v>0.120704</v>
+        <v>0.122742</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141844</v>
+        <v>0.139314</v>
       </c>
       <c r="C133" t="n">
-        <v>0.13477</v>
+        <v>0.138317</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258604</v>
+        <v>0.258496</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120624</v>
+        <v>0.121719</v>
       </c>
       <c r="F133" t="n">
-        <v>0.123069</v>
+        <v>0.125279</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.142977</v>
+        <v>0.140011</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136759</v>
+        <v>0.14006</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264646</v>
+        <v>0.264802</v>
       </c>
       <c r="E134" t="n">
-        <v>0.123599</v>
+        <v>0.124562</v>
       </c>
       <c r="F134" t="n">
-        <v>0.126418</v>
+        <v>0.1286</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.144739</v>
+        <v>0.141573</v>
       </c>
       <c r="C135" t="n">
-        <v>0.139171</v>
+        <v>0.142729</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207943</v>
+        <v>0.211027</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127581</v>
+        <v>0.128726</v>
       </c>
       <c r="F135" t="n">
-        <v>0.131139</v>
+        <v>0.133415</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.147564</v>
+        <v>0.144231</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143382</v>
+        <v>0.146821</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210964</v>
+        <v>0.214129</v>
       </c>
       <c r="E136" t="n">
-        <v>0.133784</v>
+        <v>0.135036</v>
       </c>
       <c r="F136" t="n">
-        <v>0.138698</v>
+        <v>0.141116</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.151662</v>
+        <v>0.148351</v>
       </c>
       <c r="C137" t="n">
-        <v>0.149705</v>
+        <v>0.152797</v>
       </c>
       <c r="D137" t="n">
-        <v>0.214364</v>
+        <v>0.217368</v>
       </c>
       <c r="E137" t="n">
-        <v>0.118641</v>
+        <v>0.118952</v>
       </c>
       <c r="F137" t="n">
-        <v>0.123785</v>
+        <v>0.123622</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158421</v>
+        <v>0.158462</v>
       </c>
       <c r="C138" t="n">
-        <v>0.153113</v>
+        <v>0.151194</v>
       </c>
       <c r="D138" t="n">
-        <v>0.218512</v>
+        <v>0.221186</v>
       </c>
       <c r="E138" t="n">
-        <v>0.119592</v>
+        <v>0.119454</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124469</v>
+        <v>0.127775</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158935</v>
+        <v>0.158171</v>
       </c>
       <c r="C139" t="n">
-        <v>0.153225</v>
+        <v>0.151522</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223064</v>
+        <v>0.225355</v>
       </c>
       <c r="E139" t="n">
-        <v>0.120706</v>
+        <v>0.120416</v>
       </c>
       <c r="F139" t="n">
-        <v>0.125279</v>
+        <v>0.12475</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158716</v>
+        <v>0.158409</v>
       </c>
       <c r="C140" t="n">
-        <v>0.153648</v>
+        <v>0.151881</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22759</v>
+        <v>0.230268</v>
       </c>
       <c r="E140" t="n">
-        <v>0.121927</v>
+        <v>0.121734</v>
       </c>
       <c r="F140" t="n">
-        <v>0.126131</v>
+        <v>0.125641</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158621</v>
+        <v>0.159004</v>
       </c>
       <c r="C141" t="n">
-        <v>0.153866</v>
+        <v>0.151977</v>
       </c>
       <c r="D141" t="n">
-        <v>0.232648</v>
+        <v>0.235376</v>
       </c>
       <c r="E141" t="n">
-        <v>0.123162</v>
+        <v>0.122965</v>
       </c>
       <c r="F141" t="n">
-        <v>0.127102</v>
+        <v>0.126667</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158879</v>
+        <v>0.158692</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1544</v>
+        <v>0.15233</v>
       </c>
       <c r="D142" t="n">
-        <v>0.238176</v>
+        <v>0.241641</v>
       </c>
       <c r="E142" t="n">
-        <v>0.124252</v>
+        <v>0.123992</v>
       </c>
       <c r="F142" t="n">
-        <v>0.128413</v>
+        <v>0.127728</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158959</v>
+        <v>0.158607</v>
       </c>
       <c r="C143" t="n">
-        <v>0.154898</v>
+        <v>0.152824</v>
       </c>
       <c r="D143" t="n">
-        <v>0.244259</v>
+        <v>0.246878</v>
       </c>
       <c r="E143" t="n">
-        <v>0.125509</v>
+        <v>0.12531</v>
       </c>
       <c r="F143" t="n">
-        <v>0.131881</v>
+        <v>0.130242</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0197029</v>
+        <v>0.0194308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0177832</v>
+        <v>0.0180499</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0348607</v>
+        <v>0.0363741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197826</v>
+        <v>0.019809</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207169</v>
+        <v>0.0207408</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197304</v>
+        <v>0.0196521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0178226</v>
+        <v>0.0180857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0400009</v>
+        <v>0.0408197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0200642</v>
+        <v>0.0200231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0208789</v>
+        <v>0.0210221</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195818</v>
+        <v>0.0196175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0179078</v>
+        <v>0.0181409</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0429993</v>
+        <v>0.0437037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200912</v>
+        <v>0.0200701</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0210312</v>
+        <v>0.0211244</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196294</v>
+        <v>0.0197212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0177426</v>
+        <v>0.0179389</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0461287</v>
+        <v>0.0473343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0201405</v>
+        <v>0.0203505</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0211923</v>
+        <v>0.0211495</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0200383</v>
+        <v>0.0197464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0181369</v>
+        <v>0.0182908</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0548663</v>
+        <v>0.0516722</v>
       </c>
       <c r="E6" t="n">
-        <v>0.020368</v>
+        <v>0.0202373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0213182</v>
+        <v>0.0214383</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01994</v>
+        <v>0.0198148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017944</v>
+        <v>0.0182521</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0305546</v>
+        <v>0.030929</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0206559</v>
+        <v>0.0207052</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0214979</v>
+        <v>0.0214888</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0199922</v>
+        <v>0.0200582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01822</v>
+        <v>0.0185034</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0330186</v>
+        <v>0.0326928</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0214027</v>
+        <v>0.0212724</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0221885</v>
+        <v>0.0221763</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203669</v>
+        <v>0.0201609</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188867</v>
+        <v>0.0189692</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0351268</v>
+        <v>0.035175</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0194062</v>
+        <v>0.0195529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0216748</v>
+        <v>0.02171</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0190905</v>
+        <v>0.0196522</v>
       </c>
       <c r="C10" t="n">
-        <v>0.017971</v>
+        <v>0.0181464</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0368174</v>
+        <v>0.0379678</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0198149</v>
+        <v>0.0196983</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0218079</v>
+        <v>0.0218096</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0192087</v>
+        <v>0.0198564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0181009</v>
+        <v>0.0187167</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0399429</v>
+        <v>0.0401885</v>
       </c>
       <c r="E11" t="n">
-        <v>0.019792</v>
+        <v>0.0200367</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0219248</v>
+        <v>0.0219608</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0193318</v>
+        <v>0.0198345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0183023</v>
+        <v>0.0188606</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0430388</v>
+        <v>0.0457308</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200275</v>
+        <v>0.02012</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0220529</v>
+        <v>0.0221156</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019649</v>
+        <v>0.0201135</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0183372</v>
+        <v>0.018512</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0477401</v>
+        <v>0.0479226</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203374</v>
+        <v>0.0203135</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0222671</v>
+        <v>0.0223046</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198138</v>
+        <v>0.020187</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0186079</v>
+        <v>0.0191351</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0498982</v>
+        <v>0.0514717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206275</v>
+        <v>0.0204906</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0225971</v>
+        <v>0.0225415</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0197844</v>
+        <v>0.020437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0184995</v>
+        <v>0.0191448</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0539642</v>
+        <v>0.0550757</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208915</v>
+        <v>0.0209004</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0229012</v>
+        <v>0.0227217</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201984</v>
+        <v>0.0204166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0187353</v>
+        <v>0.018864</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0568172</v>
+        <v>0.0582966</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209266</v>
+        <v>0.020917</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0229182</v>
+        <v>0.0228854</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0200993</v>
+        <v>0.0204612</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0186255</v>
+        <v>0.0194548</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0605348</v>
+        <v>0.0618458</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0212529</v>
+        <v>0.0213558</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230658</v>
+        <v>0.0230217</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202111</v>
+        <v>0.0207857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0187794</v>
+        <v>0.0195527</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0636963</v>
+        <v>0.06486740000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0214844</v>
+        <v>0.0214662</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0233278</v>
+        <v>0.0232597</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0202838</v>
+        <v>0.0207329</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0190865</v>
+        <v>0.0192524</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06696920000000001</v>
+        <v>0.0692532</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0219786</v>
+        <v>0.0219383</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0233359</v>
+        <v>0.0234227</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020268</v>
+        <v>0.0208607</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0191502</v>
+        <v>0.0196149</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0694164</v>
+        <v>0.0718047</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0222283</v>
+        <v>0.0221437</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238634</v>
+        <v>0.0238211</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0204355</v>
+        <v>0.0208643</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0193912</v>
+        <v>0.0198311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0447042</v>
+        <v>0.0449386</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0230507</v>
+        <v>0.0233074</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0249247</v>
+        <v>0.0249094</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0210107</v>
+        <v>0.0245185</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0199714</v>
+        <v>0.0219019</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0465978</v>
+        <v>0.0514196</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0287019</v>
+        <v>0.0289959</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0302423</v>
+        <v>0.0294235</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0249912</v>
+        <v>0.0257669</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0260621</v>
+        <v>0.0262444</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0528601</v>
+        <v>0.0536438</v>
       </c>
       <c r="E23" t="n">
-        <v>0.020969</v>
+        <v>0.0209719</v>
       </c>
       <c r="F23" t="n">
-        <v>0.023342</v>
+        <v>0.0233852</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202738</v>
+        <v>0.0204128</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0193185</v>
+        <v>0.0194565</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0544755</v>
+        <v>0.0544249</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211061</v>
+        <v>0.0211554</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234491</v>
+        <v>0.0234794</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202785</v>
+        <v>0.0204884</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0194455</v>
+        <v>0.0195039</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0570012</v>
+        <v>0.0562972</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213267</v>
+        <v>0.0213223</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236025</v>
+        <v>0.0236623</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206082</v>
+        <v>0.0206789</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0195818</v>
+        <v>0.0198823</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586934</v>
+        <v>0.0588199</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215441</v>
+        <v>0.021551</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0238008</v>
+        <v>0.023825</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207714</v>
+        <v>0.0207861</v>
       </c>
       <c r="C27" t="n">
-        <v>0.019865</v>
+        <v>0.0198383</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0611559</v>
+        <v>0.0614602</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0220027</v>
+        <v>0.0218179</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0240255</v>
+        <v>0.0240167</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209301</v>
+        <v>0.0210166</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0200581</v>
+        <v>0.020062</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0646909</v>
+        <v>0.06424290000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.022136</v>
+        <v>0.0221522</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0243397</v>
+        <v>0.0243165</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210942</v>
+        <v>0.0210865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0202461</v>
+        <v>0.0202414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0670163</v>
+        <v>0.0671631</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224802</v>
+        <v>0.0224364</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0245539</v>
+        <v>0.0246703</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213096</v>
+        <v>0.0212972</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0204283</v>
+        <v>0.020426</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0693279</v>
+        <v>0.0702451</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227387</v>
+        <v>0.0227615</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0247885</v>
+        <v>0.0248838</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215352</v>
+        <v>0.021513</v>
       </c>
       <c r="C31" t="n">
-        <v>0.020594</v>
+        <v>0.0207996</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0723707</v>
+        <v>0.0728992</v>
       </c>
       <c r="E31" t="n">
-        <v>0.023192</v>
+        <v>0.0231285</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251166</v>
+        <v>0.0251331</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0216665</v>
+        <v>0.0216656</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0208654</v>
+        <v>0.0209642</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07513590000000001</v>
+        <v>0.0764112</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0236763</v>
+        <v>0.023634</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0256222</v>
+        <v>0.0255864</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221115</v>
+        <v>0.0221</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0212822</v>
+        <v>0.0213976</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0774652</v>
+        <v>0.0791857</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0242169</v>
+        <v>0.0243074</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0262207</v>
+        <v>0.0263809</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0227667</v>
+        <v>0.0225608</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0220012</v>
+        <v>0.0223174</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07910780000000001</v>
+        <v>0.08127910000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0258155</v>
+        <v>0.0255983</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0274553</v>
+        <v>0.0274141</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0253284</v>
+        <v>0.0248832</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0243199</v>
+        <v>0.0236014</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0528502</v>
+        <v>0.0530918</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0280374</v>
+        <v>0.0279882</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0299746</v>
+        <v>0.0295036</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0264901</v>
+        <v>0.0268659</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0257347</v>
+        <v>0.0262337</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0542868</v>
+        <v>0.0553029</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0324337</v>
+        <v>0.0325649</v>
       </c>
       <c r="F36" t="n">
-        <v>0.033716</v>
+        <v>0.0332687</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0325824</v>
+        <v>0.0322798</v>
       </c>
       <c r="C37" t="n">
-        <v>0.030473</v>
+        <v>0.0301118</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0567142</v>
+        <v>0.0572622</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0221636</v>
+        <v>0.0221902</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0246014</v>
+        <v>0.0245878</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215495</v>
+        <v>0.0215351</v>
       </c>
       <c r="C38" t="n">
-        <v>0.020956</v>
+        <v>0.02094</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0582646</v>
+        <v>0.0586539</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0224571</v>
+        <v>0.0224595</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247709</v>
+        <v>0.0247984</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215573</v>
+        <v>0.0218145</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0209968</v>
+        <v>0.020998</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0603325</v>
+        <v>0.0614263</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0226044</v>
+        <v>0.0226492</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0249246</v>
+        <v>0.0249858</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219235</v>
+        <v>0.0219922</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0211562</v>
+        <v>0.0211872</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0628098</v>
+        <v>0.0629593</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229191</v>
+        <v>0.0230096</v>
       </c>
       <c r="F40" t="n">
-        <v>0.025202</v>
+        <v>0.0251109</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218744</v>
+        <v>0.0218925</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0212267</v>
+        <v>0.0214255</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06461069999999999</v>
+        <v>0.06525839999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231811</v>
+        <v>0.0232665</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253469</v>
+        <v>0.0254264</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221576</v>
+        <v>0.0220823</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215972</v>
+        <v>0.0215315</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0671175</v>
+        <v>0.06786780000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0235688</v>
+        <v>0.0235665</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256131</v>
+        <v>0.0255888</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223421</v>
+        <v>0.0222509</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0216304</v>
+        <v>0.0217303</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0699496</v>
+        <v>0.070657</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0239409</v>
+        <v>0.0238739</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0258781</v>
+        <v>0.0258903</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226761</v>
+        <v>0.0227264</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0219144</v>
+        <v>0.0220611</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07280929999999999</v>
+        <v>0.0736969</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242547</v>
+        <v>0.0242184</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261597</v>
+        <v>0.0261979</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228732</v>
+        <v>0.0228542</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0223307</v>
+        <v>0.0223742</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0753356</v>
+        <v>0.0762747</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247383</v>
+        <v>0.0247936</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0266831</v>
+        <v>0.0266918</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232117</v>
+        <v>0.0232036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0226524</v>
+        <v>0.0227115</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0780309</v>
+        <v>0.0794815</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0255201</v>
+        <v>0.0258273</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272663</v>
+        <v>0.0272838</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239347</v>
+        <v>0.0238371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0233942</v>
+        <v>0.0233566</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08015750000000001</v>
+        <v>0.08209909999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0264949</v>
+        <v>0.0264495</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0282443</v>
+        <v>0.0280863</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025713</v>
+        <v>0.0247299</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0246643</v>
+        <v>0.02414</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0825174</v>
+        <v>0.0847335</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0280301</v>
+        <v>0.0279827</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0299574</v>
+        <v>0.0295226</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270799</v>
+        <v>0.0265537</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0264312</v>
+        <v>0.0258938</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0840793</v>
+        <v>0.08709260000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.030625</v>
+        <v>0.0306255</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0321575</v>
+        <v>0.0323236</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0298683</v>
+        <v>0.0289888</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0290301</v>
+        <v>0.0284453</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0578376</v>
+        <v>0.0579875</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0344834</v>
+        <v>0.0344629</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0359227</v>
+        <v>0.0361326</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0332643</v>
+        <v>0.0335663</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0329722</v>
+        <v>0.0328432</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0594435</v>
+        <v>0.0602237</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0229644</v>
+        <v>0.0229949</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0250003</v>
+        <v>0.0249698</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0382627</v>
+        <v>0.0380962</v>
       </c>
       <c r="C52" t="n">
-        <v>0.038371</v>
+        <v>0.0384497</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613575</v>
+        <v>0.0617934</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0231919</v>
+        <v>0.0232227</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251596</v>
+        <v>0.0251551</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023376</v>
+        <v>0.0231806</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219202</v>
+        <v>0.0218616</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0634429</v>
+        <v>0.06383460000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234633</v>
+        <v>0.0234751</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0253632</v>
+        <v>0.0254117</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233862</v>
+        <v>0.0233519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0220996</v>
+        <v>0.0220823</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0655454</v>
+        <v>0.0663523</v>
       </c>
       <c r="E54" t="n">
-        <v>0.023756</v>
+        <v>0.0237637</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0256177</v>
+        <v>0.0256079</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234516</v>
+        <v>0.0234787</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022241</v>
+        <v>0.0222197</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06820950000000001</v>
+        <v>0.0688545</v>
       </c>
       <c r="E55" t="n">
-        <v>0.024002</v>
+        <v>0.0240951</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0260456</v>
+        <v>0.0259021</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237086</v>
+        <v>0.02396</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0224808</v>
+        <v>0.0224937</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0705921</v>
+        <v>0.07122240000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243721</v>
+        <v>0.0244562</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261354</v>
+        <v>0.0261141</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240021</v>
+        <v>0.0238719</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0226933</v>
+        <v>0.0227669</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0737414</v>
+        <v>0.0741242</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0248007</v>
+        <v>0.0247718</v>
       </c>
       <c r="F57" t="n">
-        <v>0.026512</v>
+        <v>0.0264842</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244632</v>
+        <v>0.0245044</v>
       </c>
       <c r="C58" t="n">
-        <v>0.023147</v>
+        <v>0.0232843</v>
       </c>
       <c r="D58" t="n">
-        <v>0.076196</v>
+        <v>0.0767443</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0252895</v>
+        <v>0.0253356</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0270285</v>
+        <v>0.0269249</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024777</v>
+        <v>0.0246099</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0236583</v>
+        <v>0.0235069</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0787017</v>
+        <v>0.08030760000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0259516</v>
+        <v>0.0259309</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276954</v>
+        <v>0.0275555</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253252</v>
+        <v>0.0252924</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0241021</v>
+        <v>0.0242449</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08171059999999999</v>
+        <v>0.082584</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0268299</v>
+        <v>0.0268269</v>
       </c>
       <c r="F60" t="n">
-        <v>0.028346</v>
+        <v>0.0284427</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262127</v>
+        <v>0.0259902</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0251702</v>
+        <v>0.0249315</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837302</v>
+        <v>0.0867903</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0279139</v>
+        <v>0.0279475</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0296383</v>
+        <v>0.0295682</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275722</v>
+        <v>0.0273776</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0263024</v>
+        <v>0.0262144</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086447</v>
+        <v>0.088449</v>
       </c>
       <c r="E62" t="n">
-        <v>0.029725</v>
+        <v>0.0297393</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0313602</v>
+        <v>0.0313192</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0296294</v>
+        <v>0.0294978</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0281961</v>
+        <v>0.028222</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0884556</v>
+        <v>0.09143569999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0321024</v>
+        <v>0.0321006</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0336924</v>
+        <v>0.033848</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0323637</v>
+        <v>0.0319639</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0311656</v>
+        <v>0.0308142</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0632273</v>
+        <v>0.0648951</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0355887</v>
+        <v>0.0356717</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0374407</v>
+        <v>0.0373261</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035763</v>
+        <v>0.0354344</v>
       </c>
       <c r="C65" t="n">
-        <v>0.035165</v>
+        <v>0.0347205</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0665869</v>
+        <v>0.0667446</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0410133</v>
+        <v>0.0410418</v>
       </c>
       <c r="F65" t="n">
-        <v>0.042854</v>
+        <v>0.0427008</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410071</v>
+        <v>0.0407943</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0404243</v>
+        <v>0.0403463</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0693004</v>
+        <v>0.0687007</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0251325</v>
+        <v>0.0250618</v>
       </c>
       <c r="F66" t="n">
-        <v>0.026662</v>
+        <v>0.0266324</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0296415</v>
+        <v>0.029359</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0250135</v>
+        <v>0.0247696</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0723758</v>
+        <v>0.0720619</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0252707</v>
+        <v>0.0251076</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0270437</v>
+        <v>0.0267384</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0296182</v>
+        <v>0.0295357</v>
       </c>
       <c r="C68" t="n">
-        <v>0.024764</v>
+        <v>0.0250522</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07460319999999999</v>
+        <v>0.076206</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0255287</v>
+        <v>0.0255842</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272624</v>
+        <v>0.0271771</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.029671</v>
+        <v>0.0296782</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0253305</v>
+        <v>0.0253656</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0784357</v>
+        <v>0.07981829999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0258819</v>
+        <v>0.026039</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0276069</v>
+        <v>0.0274646</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0299226</v>
+        <v>0.0297715</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0256244</v>
+        <v>0.0254904</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0820217</v>
+        <v>0.083496</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0262333</v>
+        <v>0.0261676</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0279474</v>
+        <v>0.027718</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0302333</v>
+        <v>0.030138</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0257198</v>
+        <v>0.0254728</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0859171</v>
+        <v>0.0871063</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0264132</v>
+        <v>0.0265404</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0282301</v>
+        <v>0.0283973</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304387</v>
+        <v>0.0303875</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0266683</v>
+        <v>0.0263298</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0899228</v>
+        <v>0.0912039</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0270807</v>
+        <v>0.027293</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0288541</v>
+        <v>0.0285047</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0307984</v>
+        <v>0.0308331</v>
       </c>
       <c r="C73" t="n">
-        <v>0.026978</v>
+        <v>0.0265738</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0944651</v>
+        <v>0.09707209999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0277807</v>
+        <v>0.028072</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0294396</v>
+        <v>0.0293982</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0313633</v>
+        <v>0.0314368</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0275904</v>
+        <v>0.0275341</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0975321</v>
+        <v>0.100471</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0283821</v>
+        <v>0.0285029</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0302336</v>
+        <v>0.0302453</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0324952</v>
+        <v>0.0319153</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0287284</v>
+        <v>0.0285209</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101935</v>
+        <v>0.106158</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0298292</v>
+        <v>0.0299251</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0314833</v>
+        <v>0.0316643</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0336131</v>
+        <v>0.0330746</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0299448</v>
+        <v>0.0301678</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107117</v>
+        <v>0.111044</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0314692</v>
+        <v>0.0315152</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0332519</v>
+        <v>0.0331157</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0352722</v>
+        <v>0.0348653</v>
       </c>
       <c r="C77" t="n">
-        <v>0.032467</v>
+        <v>0.0322141</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113211</v>
+        <v>0.117783</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0333562</v>
+        <v>0.0336534</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0355653</v>
+        <v>0.035528</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0379539</v>
+        <v>0.0373423</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0350742</v>
+        <v>0.0351412</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0975351</v>
+        <v>0.0994762</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0364379</v>
+        <v>0.0368041</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0391816</v>
+        <v>0.0390533</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0412628</v>
+        <v>0.0404631</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0387075</v>
+        <v>0.038719</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101844</v>
+        <v>0.102854</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0416509</v>
+        <v>0.0419278</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0442014</v>
+        <v>0.0442357</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0459095</v>
+        <v>0.045345</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0440338</v>
+        <v>0.0442697</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105787</v>
+        <v>0.107343</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362885</v>
+        <v>0.0363626</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0340507</v>
+        <v>0.0341297</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.055094</v>
+        <v>0.056227</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0358549</v>
+        <v>0.0355257</v>
       </c>
       <c r="D81" t="n">
-        <v>0.114731</v>
+        <v>0.111611</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0369744</v>
+        <v>0.0370555</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0343746</v>
+        <v>0.0342125</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0558679</v>
+        <v>0.0564289</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0359603</v>
+        <v>0.0355549</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115888</v>
+        <v>0.117408</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0377672</v>
+        <v>0.0379041</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0348598</v>
+        <v>0.0345684</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0553193</v>
+        <v>0.0566577</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0363639</v>
+        <v>0.0361682</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120485</v>
+        <v>0.122352</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0386016</v>
+        <v>0.0384588</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0353316</v>
+        <v>0.035087</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0558434</v>
+        <v>0.0566005</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0366315</v>
+        <v>0.0362878</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127408</v>
+        <v>0.126924</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0391935</v>
+        <v>0.0392314</v>
       </c>
       <c r="F84" t="n">
-        <v>0.035899</v>
+        <v>0.0356411</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559024</v>
+        <v>0.056869</v>
       </c>
       <c r="C85" t="n">
-        <v>0.036985</v>
+        <v>0.0367619</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130941</v>
+        <v>0.133631</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0399682</v>
+        <v>0.0398951</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0362724</v>
+        <v>0.0361606</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0561313</v>
+        <v>0.0569963</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0374769</v>
+        <v>0.0373335</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136131</v>
+        <v>0.138383</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0408565</v>
+        <v>0.0407082</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0370932</v>
+        <v>0.037011</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0565055</v>
+        <v>0.0571703</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0380599</v>
+        <v>0.0379141</v>
       </c>
       <c r="D87" t="n">
-        <v>0.143583</v>
+        <v>0.144376</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0417207</v>
+        <v>0.0421294</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0379461</v>
+        <v>0.0381913</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0569163</v>
+        <v>0.0575676</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0388812</v>
+        <v>0.038663</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148483</v>
+        <v>0.150676</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0426189</v>
+        <v>0.0425465</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0390122</v>
+        <v>0.0391954</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0574846</v>
+        <v>0.0582626</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0399494</v>
+        <v>0.0398923</v>
       </c>
       <c r="D89" t="n">
-        <v>0.15431</v>
+        <v>0.165537</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0435012</v>
+        <v>0.0436517</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0404352</v>
+        <v>0.0403547</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0581785</v>
+        <v>0.0589868</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0413558</v>
+        <v>0.0412922</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160437</v>
+        <v>0.163562</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0449728</v>
+        <v>0.045017</v>
       </c>
       <c r="F90" t="n">
-        <v>0.042379</v>
+        <v>0.042429</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0620287</v>
+        <v>0.0600287</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0431785</v>
+        <v>0.0434953</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166027</v>
+        <v>0.169778</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0467796</v>
+        <v>0.0468281</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0448361</v>
+        <v>0.0449052</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0609023</v>
+        <v>0.061641</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0462663</v>
+        <v>0.0462988</v>
       </c>
       <c r="D92" t="n">
-        <v>0.14564</v>
+        <v>0.14653</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0492794</v>
+        <v>0.0496295</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0482959</v>
+        <v>0.0485416</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633336</v>
+        <v>0.06431489999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0500341</v>
+        <v>0.0502581</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149393</v>
+        <v>0.150273</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0535675</v>
+        <v>0.0536361</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0537233</v>
+        <v>0.0539074</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06722210000000001</v>
+        <v>0.0684235</v>
       </c>
       <c r="C94" t="n">
-        <v>0.055782</v>
+        <v>0.0556297</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152226</v>
+        <v>0.153118</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0712407</v>
+        <v>0.071462</v>
       </c>
       <c r="F94" t="n">
-        <v>0.067763</v>
+        <v>0.0683428</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0856838</v>
+        <v>0.08615780000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0699279</v>
+        <v>0.07165489999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156376</v>
+        <v>0.15823</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0716951</v>
+        <v>0.0719933</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0682633</v>
+        <v>0.0687619</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.09380960000000001</v>
+        <v>0.0862715</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07026200000000001</v>
+        <v>0.0717747</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160704</v>
+        <v>0.162932</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0721367</v>
+        <v>0.0723775</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0686793</v>
+        <v>0.0691495</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859101</v>
+        <v>0.0861272</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07042370000000001</v>
+        <v>0.0719842</v>
       </c>
       <c r="D97" t="n">
-        <v>0.166384</v>
+        <v>0.166564</v>
       </c>
       <c r="E97" t="n">
-        <v>0.072695</v>
+        <v>0.0728699</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06920320000000001</v>
+        <v>0.069814</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859466</v>
+        <v>0.0863408</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0705346</v>
+        <v>0.0723626</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171071</v>
+        <v>0.172693</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0731676</v>
+        <v>0.0733605</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0696397</v>
+        <v>0.0703399</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860799</v>
+        <v>0.0864988</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0709335</v>
+        <v>0.07236670000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175695</v>
+        <v>0.177171</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0736995</v>
+        <v>0.07394920000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0703642</v>
+        <v>0.0709098</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0862807</v>
+        <v>0.0868515</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0713741</v>
+        <v>0.0727617</v>
       </c>
       <c r="D100" t="n">
-        <v>0.180995</v>
+        <v>0.183064</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0744924</v>
+        <v>0.0746319</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0710001</v>
+        <v>0.0715129</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864352</v>
+        <v>0.0865937</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07187399999999999</v>
+        <v>0.07336520000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187033</v>
+        <v>0.188384</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0750749</v>
+        <v>0.07539</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0718744</v>
+        <v>0.0723554</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867573</v>
+        <v>0.0869958</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07242030000000001</v>
+        <v>0.0740077</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192787</v>
+        <v>0.194557</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07597959999999999</v>
+        <v>0.0761868</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0727367</v>
+        <v>0.07333489999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870527</v>
+        <v>0.0874436</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0734146</v>
+        <v>0.0749758</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198244</v>
+        <v>0.202028</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0770508</v>
+        <v>0.0771592</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0739576</v>
+        <v>0.0746901</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08765530000000001</v>
+        <v>0.087908</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.0760774</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204334</v>
+        <v>0.207673</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0782321</v>
+        <v>0.0785256</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07550220000000001</v>
+        <v>0.0762071</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885007</v>
+        <v>0.0887551</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0762587</v>
+        <v>0.077593</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210446</v>
+        <v>0.214089</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07998280000000001</v>
+        <v>0.08008899999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0814807</v>
+        <v>0.07827770000000001</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.089945</v>
+        <v>0.0901738</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0786681</v>
+        <v>0.0798707</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217287</v>
+        <v>0.220366</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08234279999999999</v>
+        <v>0.082505</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0807681</v>
+        <v>0.08134130000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09178070000000001</v>
+        <v>0.0921835</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0819603</v>
+        <v>0.083343</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181918</v>
+        <v>0.182647</v>
       </c>
       <c r="E107" t="n">
-        <v>0.085997</v>
+        <v>0.0862397</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0855001</v>
+        <v>0.0860795</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950097</v>
+        <v>0.0953836</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0866996</v>
+        <v>0.0881316</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185186</v>
+        <v>0.18604</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0888335</v>
+        <v>0.0897077</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0936647</v>
+        <v>0.09303889999999999</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100929</v>
+        <v>0.100219</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0938566</v>
+        <v>0.0947761</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188771</v>
+        <v>0.189297</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0895077</v>
+        <v>0.0904708</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09406440000000001</v>
+        <v>0.0935294</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107425</v>
+        <v>0.109104</v>
       </c>
       <c r="C110" t="n">
-        <v>0.101885</v>
+        <v>0.0982075</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192911</v>
+        <v>0.193141</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09036760000000001</v>
+        <v>0.0912613</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09463770000000001</v>
+        <v>0.0940197</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107535</v>
+        <v>0.109347</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0982415</v>
+        <v>0.09827959999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.197479</v>
+        <v>0.197711</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09121899999999999</v>
+        <v>0.0920709</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0952727</v>
+        <v>0.0945373</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107492</v>
+        <v>0.109178</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0985287</v>
+        <v>0.098527</v>
       </c>
       <c r="D112" t="n">
-        <v>0.202002</v>
+        <v>0.202749</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0921691</v>
+        <v>0.0929768</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0959499</v>
+        <v>0.0952957</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107652</v>
+        <v>0.109295</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0987541</v>
+        <v>0.0988298</v>
       </c>
       <c r="D113" t="n">
-        <v>0.20679</v>
+        <v>0.208008</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0930412</v>
+        <v>0.0940318</v>
       </c>
       <c r="F113" t="n">
-        <v>0.09657640000000001</v>
+        <v>0.0960283</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107689</v>
+        <v>0.109637</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0990028</v>
+        <v>0.09922010000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212159</v>
+        <v>0.213114</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0941385</v>
+        <v>0.095086</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09740070000000001</v>
+        <v>0.097681</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107927</v>
+        <v>0.109664</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0996861</v>
+        <v>0.0998042</v>
       </c>
       <c r="D115" t="n">
-        <v>0.218126</v>
+        <v>0.219573</v>
       </c>
       <c r="E115" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.0961328</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0984502</v>
+        <v>0.09785919999999999</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108197</v>
+        <v>0.110095</v>
       </c>
       <c r="C116" t="n">
-        <v>0.100242</v>
+        <v>0.100162</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223616</v>
+        <v>0.225765</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0964893</v>
+        <v>0.0975601</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0995583</v>
+        <v>0.0989613</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108499</v>
+        <v>0.110504</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100924</v>
+        <v>0.101225</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230044</v>
+        <v>0.231596</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0979107</v>
+        <v>0.0988956</v>
       </c>
       <c r="F117" t="n">
-        <v>0.115187</v>
+        <v>0.100392</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109112</v>
+        <v>0.110925</v>
       </c>
       <c r="C118" t="n">
-        <v>0.102006</v>
+        <v>0.102104</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235675</v>
+        <v>0.237796</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0994572</v>
+        <v>0.100534</v>
       </c>
       <c r="F118" t="n">
-        <v>0.102635</v>
+        <v>0.102173</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109904</v>
+        <v>0.111803</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103764</v>
+        <v>0.103627</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241229</v>
+        <v>0.244418</v>
       </c>
       <c r="E119" t="n">
-        <v>0.101517</v>
+        <v>0.102491</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104945</v>
+        <v>0.10448</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111108</v>
+        <v>0.112943</v>
       </c>
       <c r="C120" t="n">
-        <v>0.10572</v>
+        <v>0.105769</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247635</v>
+        <v>0.25061</v>
       </c>
       <c r="E120" t="n">
-        <v>0.104026</v>
+        <v>0.105178</v>
       </c>
       <c r="F120" t="n">
-        <v>0.115867</v>
+        <v>0.107541</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112923</v>
+        <v>0.114932</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108602</v>
+        <v>0.108855</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199177</v>
+        <v>0.200743</v>
       </c>
       <c r="E121" t="n">
-        <v>0.107922</v>
+        <v>0.108957</v>
       </c>
       <c r="F121" t="n">
-        <v>0.112637</v>
+        <v>0.112381</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115894</v>
+        <v>0.11789</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113154</v>
+        <v>0.11339</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202647</v>
+        <v>0.203769</v>
       </c>
       <c r="E122" t="n">
-        <v>0.115607</v>
+        <v>0.115024</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119773</v>
+        <v>0.119708</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120827</v>
+        <v>0.122405</v>
       </c>
       <c r="C123" t="n">
-        <v>0.12025</v>
+        <v>0.119963</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205735</v>
+        <v>0.206939</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106406</v>
+        <v>0.107738</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110665</v>
+        <v>0.112451</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134696</v>
+        <v>0.136474</v>
       </c>
       <c r="C124" t="n">
-        <v>0.129498</v>
+        <v>0.133425</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209514</v>
+        <v>0.210856</v>
       </c>
       <c r="E124" t="n">
-        <v>0.10735</v>
+        <v>0.108681</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110309</v>
+        <v>0.113185</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135101</v>
+        <v>0.136887</v>
       </c>
       <c r="C125" t="n">
-        <v>0.131423</v>
+        <v>0.137886</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213877</v>
+        <v>0.215222</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108429</v>
+        <v>0.10972</v>
       </c>
       <c r="F125" t="n">
-        <v>0.11127</v>
+        <v>0.113941</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134972</v>
+        <v>0.136506</v>
       </c>
       <c r="C126" t="n">
-        <v>0.129922</v>
+        <v>0.133908</v>
       </c>
       <c r="D126" t="n">
-        <v>0.219152</v>
+        <v>0.219689</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109641</v>
+        <v>0.110876</v>
       </c>
       <c r="F126" t="n">
-        <v>0.112012</v>
+        <v>0.114607</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.134918</v>
+        <v>0.136828</v>
       </c>
       <c r="C127" t="n">
-        <v>0.13008</v>
+        <v>0.134366</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231633</v>
+        <v>0.224772</v>
       </c>
       <c r="E127" t="n">
-        <v>0.110709</v>
+        <v>0.112023</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113341</v>
+        <v>0.115685</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135001</v>
+        <v>0.136821</v>
       </c>
       <c r="C128" t="n">
-        <v>0.13042</v>
+        <v>0.134589</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229055</v>
+        <v>0.230822</v>
       </c>
       <c r="E128" t="n">
-        <v>0.111953</v>
+        <v>0.113938</v>
       </c>
       <c r="F128" t="n">
-        <v>0.113685</v>
+        <v>0.117216</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135403</v>
+        <v>0.136913</v>
       </c>
       <c r="C129" t="n">
-        <v>0.138097</v>
+        <v>0.135485</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234697</v>
+        <v>0.23643</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113242</v>
+        <v>0.1146</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115074</v>
+        <v>0.117918</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135636</v>
+        <v>0.137187</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131327</v>
+        <v>0.135804</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240733</v>
+        <v>0.242681</v>
       </c>
       <c r="E130" t="n">
-        <v>0.114708</v>
+        <v>0.116138</v>
       </c>
       <c r="F130" t="n">
-        <v>0.116472</v>
+        <v>0.119231</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136004</v>
+        <v>0.137413</v>
       </c>
       <c r="C131" t="n">
-        <v>0.131974</v>
+        <v>0.136416</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250269</v>
+        <v>0.248649</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116208</v>
+        <v>0.117733</v>
       </c>
       <c r="F131" t="n">
-        <v>0.118112</v>
+        <v>0.120968</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13637</v>
+        <v>0.138041</v>
       </c>
       <c r="C132" t="n">
-        <v>0.132909</v>
+        <v>0.137265</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25243</v>
+        <v>0.255074</v>
       </c>
       <c r="E132" t="n">
-        <v>0.118164</v>
+        <v>0.119731</v>
       </c>
       <c r="F132" t="n">
-        <v>0.120063</v>
+        <v>0.122824</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137165</v>
+        <v>0.138674</v>
       </c>
       <c r="C133" t="n">
-        <v>0.134187</v>
+        <v>0.138414</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258601</v>
+        <v>0.261582</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120228</v>
+        <v>0.121835</v>
       </c>
       <c r="F133" t="n">
-        <v>0.122504</v>
+        <v>0.12537</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138195</v>
+        <v>0.139413</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136124</v>
+        <v>0.14018</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264555</v>
+        <v>0.267918</v>
       </c>
       <c r="E134" t="n">
-        <v>0.123197</v>
+        <v>0.124677</v>
       </c>
       <c r="F134" t="n">
-        <v>0.125976</v>
+        <v>0.128491</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.140824</v>
+        <v>0.141614</v>
       </c>
       <c r="C135" t="n">
-        <v>0.138955</v>
+        <v>0.142838</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209652</v>
+        <v>0.211703</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127168</v>
+        <v>0.128773</v>
       </c>
       <c r="F135" t="n">
-        <v>0.130668</v>
+        <v>0.133364</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142504</v>
+        <v>0.143881</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143044</v>
+        <v>0.146723</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211642</v>
+        <v>0.214734</v>
       </c>
       <c r="E136" t="n">
-        <v>0.139293</v>
+        <v>0.13509</v>
       </c>
       <c r="F136" t="n">
-        <v>0.138339</v>
+        <v>0.140563</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146915</v>
+        <v>0.14832</v>
       </c>
       <c r="C137" t="n">
-        <v>0.149451</v>
+        <v>0.152694</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215138</v>
+        <v>0.2181</v>
       </c>
       <c r="E137" t="n">
-        <v>0.119447</v>
+        <v>0.118466</v>
       </c>
       <c r="F137" t="n">
-        <v>0.122405</v>
+        <v>0.123348</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158147</v>
+        <v>0.158172</v>
       </c>
       <c r="C138" t="n">
-        <v>0.160487</v>
+        <v>0.151339</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219107</v>
+        <v>0.222003</v>
       </c>
       <c r="E138" t="n">
-        <v>0.120409</v>
+        <v>0.119706</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124304</v>
+        <v>0.123967</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158131</v>
+        <v>0.158385</v>
       </c>
       <c r="C139" t="n">
-        <v>0.151034</v>
+        <v>0.152396</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223522</v>
+        <v>0.226387</v>
       </c>
       <c r="E139" t="n">
-        <v>0.121372</v>
+        <v>0.120584</v>
       </c>
       <c r="F139" t="n">
-        <v>0.124224</v>
+        <v>0.124697</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.167806</v>
+        <v>0.158316</v>
       </c>
       <c r="C140" t="n">
-        <v>0.151621</v>
+        <v>0.151733</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228687</v>
+        <v>0.231341</v>
       </c>
       <c r="E140" t="n">
-        <v>0.122565</v>
+        <v>0.122987</v>
       </c>
       <c r="F140" t="n">
-        <v>0.124955</v>
+        <v>0.126126</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158273</v>
+        <v>0.158648</v>
       </c>
       <c r="C141" t="n">
-        <v>0.151894</v>
+        <v>0.152076</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234175</v>
+        <v>0.236299</v>
       </c>
       <c r="E141" t="n">
-        <v>0.123674</v>
+        <v>0.122776</v>
       </c>
       <c r="F141" t="n">
-        <v>0.126027</v>
+        <v>0.126367</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158409</v>
+        <v>0.158574</v>
       </c>
       <c r="C142" t="n">
-        <v>0.152361</v>
+        <v>0.15227</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239578</v>
+        <v>0.242362</v>
       </c>
       <c r="E142" t="n">
-        <v>0.124869</v>
+        <v>0.124139</v>
       </c>
       <c r="F142" t="n">
-        <v>0.127228</v>
+        <v>0.127718</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.160652</v>
+        <v>0.158687</v>
       </c>
       <c r="C143" t="n">
-        <v>0.152896</v>
+        <v>0.152839</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245658</v>
+        <v>0.248118</v>
       </c>
       <c r="E143" t="n">
-        <v>0.126156</v>
+        <v>0.125353</v>
       </c>
       <c r="F143" t="n">
-        <v>0.128446</v>
+        <v>0.128779</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0197029</v>
+        <v>0.0201139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0177832</v>
+        <v>0.0180089</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0348607</v>
+        <v>0.0344792</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197826</v>
+        <v>0.0197344</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207169</v>
+        <v>0.0207475</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197304</v>
+        <v>0.0201935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0178226</v>
+        <v>0.0182721</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0400009</v>
+        <v>0.0391315</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0200642</v>
+        <v>0.0198629</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0208789</v>
+        <v>0.0210902</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195818</v>
+        <v>0.0202484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0179078</v>
+        <v>0.0183691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0429993</v>
+        <v>0.0426764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200912</v>
+        <v>0.0198337</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0210312</v>
+        <v>0.0209594</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196294</v>
+        <v>0.020271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0177426</v>
+        <v>0.0187298</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0461287</v>
+        <v>0.0473007</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0201405</v>
+        <v>0.0199881</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0211923</v>
+        <v>0.0210165</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0200383</v>
+        <v>0.0204328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0181369</v>
+        <v>0.0187584</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0548663</v>
+        <v>0.054185</v>
       </c>
       <c r="E6" t="n">
-        <v>0.020368</v>
+        <v>0.0199821</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0213182</v>
+        <v>0.0209787</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01994</v>
+        <v>0.0204929</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017944</v>
+        <v>0.0189416</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0305546</v>
+        <v>0.0316968</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0206559</v>
+        <v>0.0202039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0214979</v>
+        <v>0.0213403</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0199922</v>
+        <v>0.0206451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01822</v>
+        <v>0.0193276</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0330186</v>
+        <v>0.0335918</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0214027</v>
+        <v>0.0206803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0221885</v>
+        <v>0.0216766</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203669</v>
+        <v>0.02108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188867</v>
+        <v>0.0206764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0351268</v>
+        <v>0.0355183</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0194062</v>
+        <v>0.0195471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0216748</v>
+        <v>0.021697</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0190905</v>
+        <v>0.0194863</v>
       </c>
       <c r="C10" t="n">
-        <v>0.017971</v>
+        <v>0.0182227</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0368174</v>
+        <v>0.0370426</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0198149</v>
+        <v>0.01968</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0218079</v>
+        <v>0.0218032</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0192087</v>
+        <v>0.0196009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0181009</v>
+        <v>0.0183754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0399429</v>
+        <v>0.0419962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.019792</v>
+        <v>0.0199623</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0219248</v>
+        <v>0.021884</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0193318</v>
+        <v>0.0199071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0183023</v>
+        <v>0.0184596</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0430388</v>
+        <v>0.0425239</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200275</v>
+        <v>0.0200299</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0220529</v>
+        <v>0.0221105</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019649</v>
+        <v>0.0199181</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0183372</v>
+        <v>0.0186325</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0477401</v>
+        <v>0.0461064</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203374</v>
+        <v>0.0201507</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0222671</v>
+        <v>0.0222079</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198138</v>
+        <v>0.0201765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0186079</v>
+        <v>0.0188148</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0498982</v>
+        <v>0.0494691</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206275</v>
+        <v>0.0206326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0225971</v>
+        <v>0.0224687</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0197844</v>
+        <v>0.0203381</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0184995</v>
+        <v>0.0190236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0539642</v>
+        <v>0.0536069</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208915</v>
+        <v>0.0208139</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0229012</v>
+        <v>0.02269</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201984</v>
+        <v>0.0205221</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0187353</v>
+        <v>0.0190378</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0568172</v>
+        <v>0.056901</v>
       </c>
       <c r="E16" t="n">
         <v>0.0209266</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0229182</v>
+        <v>0.022896</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0200993</v>
+        <v>0.0205263</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0186255</v>
+        <v>0.0193517</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0605348</v>
+        <v>0.0611289</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0212529</v>
+        <v>0.0212483</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230658</v>
+        <v>0.023139</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202111</v>
+        <v>0.0206918</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0187794</v>
+        <v>0.0195224</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0636963</v>
+        <v>0.0643372</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0214844</v>
+        <v>0.0213475</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0233278</v>
+        <v>0.0232989</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0202838</v>
+        <v>0.0210042</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0190865</v>
+        <v>0.0198336</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06696920000000001</v>
+        <v>0.0682323</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0219786</v>
+        <v>0.0212238</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0233359</v>
+        <v>0.0234469</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020268</v>
+        <v>0.0211862</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0191502</v>
+        <v>0.0202013</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0694164</v>
+        <v>0.0713308</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0222283</v>
+        <v>0.0215719</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238634</v>
+        <v>0.02374</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0204355</v>
+        <v>0.0215097</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0193912</v>
+        <v>0.0207002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0447042</v>
+        <v>0.0449973</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0230507</v>
+        <v>0.0220398</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0249247</v>
+        <v>0.0245013</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0210107</v>
+        <v>0.0221452</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0199714</v>
+        <v>0.021644</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0465978</v>
+        <v>0.0474137</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0287019</v>
+        <v>0.024563</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0302423</v>
+        <v>0.0286031</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0249912</v>
+        <v>0.0271557</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0260621</v>
+        <v>0.026185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0528601</v>
+        <v>0.0522383</v>
       </c>
       <c r="E23" t="n">
-        <v>0.020969</v>
+        <v>0.0209665</v>
       </c>
       <c r="F23" t="n">
-        <v>0.023342</v>
+        <v>0.0234303</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202738</v>
+        <v>0.0202294</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0193185</v>
+        <v>0.0194066</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0544755</v>
+        <v>0.0538613</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211061</v>
+        <v>0.0211248</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234491</v>
+        <v>0.023503</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202785</v>
+        <v>0.0202574</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0194455</v>
+        <v>0.0194838</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0570012</v>
+        <v>0.0561999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213267</v>
+        <v>0.0213023</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236025</v>
+        <v>0.0235948</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206082</v>
+        <v>0.0204231</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0195818</v>
+        <v>0.0196579</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586934</v>
+        <v>0.0587483</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215441</v>
+        <v>0.0215005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0238008</v>
+        <v>0.0238845</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207714</v>
+        <v>0.0206786</v>
       </c>
       <c r="C27" t="n">
-        <v>0.019865</v>
+        <v>0.0197476</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0611559</v>
+        <v>0.061841</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0220027</v>
+        <v>0.0217683</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0240255</v>
+        <v>0.0239947</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209301</v>
+        <v>0.0207756</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0200581</v>
+        <v>0.0199348</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0646909</v>
+        <v>0.06429169999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.022136</v>
+        <v>0.0220833</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0243397</v>
+        <v>0.0242381</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210942</v>
+        <v>0.021038</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0202461</v>
+        <v>0.0203243</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0670163</v>
+        <v>0.0674949</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224802</v>
+        <v>0.0224031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0245539</v>
+        <v>0.0245089</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213096</v>
+        <v>0.0212459</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0204283</v>
+        <v>0.0204976</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0693279</v>
+        <v>0.0710737</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227387</v>
+        <v>0.0226669</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0247885</v>
+        <v>0.0248094</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215352</v>
+        <v>0.0215297</v>
       </c>
       <c r="C31" t="n">
-        <v>0.020594</v>
+        <v>0.0208461</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0723707</v>
+        <v>0.073488</v>
       </c>
       <c r="E31" t="n">
-        <v>0.023192</v>
+        <v>0.0229847</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251166</v>
+        <v>0.0251984</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0216665</v>
+        <v>0.0219803</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0208654</v>
+        <v>0.0212104</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07513590000000001</v>
+        <v>0.07656549999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0236763</v>
+        <v>0.0233896</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0256222</v>
+        <v>0.0254991</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221115</v>
+        <v>0.0224948</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0212822</v>
+        <v>0.0218201</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0774652</v>
+        <v>0.08045480000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0242169</v>
+        <v>0.0237399</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0262207</v>
+        <v>0.02604</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0227667</v>
+        <v>0.0232979</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0220012</v>
+        <v>0.0225769</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07910780000000001</v>
+        <v>0.08171050000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0258155</v>
+        <v>0.0244731</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0274553</v>
+        <v>0.0270202</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0253284</v>
+        <v>0.0242999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0243199</v>
+        <v>0.0241138</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0528502</v>
+        <v>0.0525908</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0280374</v>
+        <v>0.0258251</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0299746</v>
+        <v>0.028847</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0264901</v>
+        <v>0.027692</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0257347</v>
+        <v>0.0263142</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0542868</v>
+        <v>0.0541534</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0324337</v>
+        <v>0.0291461</v>
       </c>
       <c r="F36" t="n">
-        <v>0.033716</v>
+        <v>0.0326084</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0325824</v>
+        <v>0.031983</v>
       </c>
       <c r="C37" t="n">
-        <v>0.030473</v>
+        <v>0.0311683</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0567142</v>
+        <v>0.0567108</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0221636</v>
+        <v>0.0222004</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0246014</v>
+        <v>0.02454</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215495</v>
+        <v>0.0216839</v>
       </c>
       <c r="C38" t="n">
-        <v>0.020956</v>
+        <v>0.0209029</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0582646</v>
+        <v>0.0586918</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0224571</v>
+        <v>0.0223722</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247709</v>
+        <v>0.0247474</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215573</v>
+        <v>0.0216504</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0209968</v>
+        <v>0.0209426</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0603325</v>
+        <v>0.0607828</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0226044</v>
+        <v>0.0225291</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0249246</v>
+        <v>0.0248208</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219235</v>
+        <v>0.0218455</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0211562</v>
+        <v>0.0210848</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0628098</v>
+        <v>0.063204</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229191</v>
+        <v>0.0229179</v>
       </c>
       <c r="F40" t="n">
-        <v>0.025202</v>
+        <v>0.0252014</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218744</v>
+        <v>0.0220811</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0212267</v>
+        <v>0.0214955</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06461069999999999</v>
+        <v>0.0656288</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231811</v>
+        <v>0.0231715</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253469</v>
+        <v>0.0253641</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221576</v>
+        <v>0.0223677</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215972</v>
+        <v>0.021665</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0671175</v>
+        <v>0.0679361</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0235688</v>
+        <v>0.0234723</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256131</v>
+        <v>0.0256115</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223421</v>
+        <v>0.0225184</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0216304</v>
+        <v>0.0220474</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0699496</v>
+        <v>0.0701401</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0239409</v>
+        <v>0.0238157</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0258781</v>
+        <v>0.0258873</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226761</v>
+        <v>0.022946</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0219144</v>
+        <v>0.02233</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07280929999999999</v>
+        <v>0.07419290000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242547</v>
+        <v>0.024163</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261597</v>
+        <v>0.0262137</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228732</v>
+        <v>0.0232801</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0223307</v>
+        <v>0.0228711</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0753356</v>
+        <v>0.0770174</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247383</v>
+        <v>0.0245866</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0266831</v>
+        <v>0.0266358</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232117</v>
+        <v>0.023918</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0226524</v>
+        <v>0.0233772</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0780309</v>
+        <v>0.07960250000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0255201</v>
+        <v>0.025149</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272663</v>
+        <v>0.0272727</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239347</v>
+        <v>0.0246263</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0233942</v>
+        <v>0.0242251</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08015750000000001</v>
+        <v>0.0824925</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0264949</v>
+        <v>0.0257154</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0282443</v>
+        <v>0.0281496</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025713</v>
+        <v>0.0258964</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0246643</v>
+        <v>0.0253663</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0825174</v>
+        <v>0.0849506</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0280301</v>
+        <v>0.0269096</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0299574</v>
+        <v>0.0295297</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270799</v>
+        <v>0.0280123</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0264312</v>
+        <v>0.0273993</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0840793</v>
+        <v>0.0871542</v>
       </c>
       <c r="E49" t="n">
-        <v>0.030625</v>
+        <v>0.0289674</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0321575</v>
+        <v>0.0317747</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0298683</v>
+        <v>0.0304792</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0290301</v>
+        <v>0.0301078</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0578376</v>
+        <v>0.057725</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0344834</v>
+        <v>0.032607</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0359227</v>
+        <v>0.035501</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0332643</v>
+        <v>0.0349648</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0329722</v>
+        <v>0.0347411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0594435</v>
+        <v>0.0597192</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0229644</v>
+        <v>0.0230295</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0250003</v>
+        <v>0.0249231</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0382627</v>
+        <v>0.0404595</v>
       </c>
       <c r="C52" t="n">
-        <v>0.038371</v>
+        <v>0.040562</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613575</v>
+        <v>0.0617257</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0231919</v>
+        <v>0.0231519</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251596</v>
+        <v>0.0251351</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023376</v>
+        <v>0.0233163</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219202</v>
+        <v>0.0221008</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0634429</v>
+        <v>0.0641229</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234633</v>
+        <v>0.0234355</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0253632</v>
+        <v>0.0252782</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233862</v>
+        <v>0.023411</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0220996</v>
+        <v>0.0221324</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0655454</v>
+        <v>0.06608989999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.023756</v>
+        <v>0.0238735</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0256177</v>
+        <v>0.0255647</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234516</v>
+        <v>0.023954</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022241</v>
+        <v>0.0224112</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06820950000000001</v>
+        <v>0.0686293</v>
       </c>
       <c r="E55" t="n">
-        <v>0.024002</v>
+        <v>0.0240246</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0260456</v>
+        <v>0.0258154</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237086</v>
+        <v>0.0238197</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0224808</v>
+        <v>0.02269</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0705921</v>
+        <v>0.0710626</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243721</v>
+        <v>0.024346</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261354</v>
+        <v>0.0261148</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240021</v>
+        <v>0.0242326</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0226933</v>
+        <v>0.0230174</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0737414</v>
+        <v>0.0742462</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0248007</v>
+        <v>0.0247511</v>
       </c>
       <c r="F57" t="n">
-        <v>0.026512</v>
+        <v>0.0264794</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244632</v>
+        <v>0.0245036</v>
       </c>
       <c r="C58" t="n">
-        <v>0.023147</v>
+        <v>0.0234472</v>
       </c>
       <c r="D58" t="n">
-        <v>0.076196</v>
+        <v>0.07694040000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0252895</v>
+        <v>0.025201</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0270285</v>
+        <v>0.0268931</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024777</v>
+        <v>0.0250974</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0236583</v>
+        <v>0.0239547</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0787017</v>
+        <v>0.0801916</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0259516</v>
+        <v>0.0257438</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276954</v>
+        <v>0.0276213</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253252</v>
+        <v>0.0256095</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0241021</v>
+        <v>0.02464</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08171059999999999</v>
+        <v>0.08301070000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0268299</v>
+        <v>0.0264292</v>
       </c>
       <c r="F60" t="n">
-        <v>0.028346</v>
+        <v>0.0283206</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262127</v>
+        <v>0.0266323</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0251702</v>
+        <v>0.0255375</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837302</v>
+        <v>0.0861557</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0279139</v>
+        <v>0.0274166</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0296383</v>
+        <v>0.029433</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275722</v>
+        <v>0.0281049</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0263024</v>
+        <v>0.0273249</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086447</v>
+        <v>0.08902</v>
       </c>
       <c r="E62" t="n">
-        <v>0.029725</v>
+        <v>0.029109</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0313602</v>
+        <v>0.0311025</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0296294</v>
+        <v>0.0304345</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0281961</v>
+        <v>0.0292786</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0884556</v>
+        <v>0.0917357</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0321024</v>
+        <v>0.0315313</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0336924</v>
+        <v>0.0335485</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0323637</v>
+        <v>0.0327231</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0311656</v>
+        <v>0.0321006</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0632273</v>
+        <v>0.0649961</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0355887</v>
+        <v>0.0347626</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0374407</v>
+        <v>0.0369277</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035763</v>
+        <v>0.0368056</v>
       </c>
       <c r="C65" t="n">
-        <v>0.035165</v>
+        <v>0.0359964</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0665869</v>
+        <v>0.06598370000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0410133</v>
+        <v>0.0402341</v>
       </c>
       <c r="F65" t="n">
-        <v>0.042854</v>
+        <v>0.0424668</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410071</v>
+        <v>0.0420456</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0404243</v>
+        <v>0.0419378</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0693004</v>
+        <v>0.06921239999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0251325</v>
+        <v>0.0247206</v>
       </c>
       <c r="F66" t="n">
-        <v>0.026662</v>
+        <v>0.026857</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0296415</v>
+        <v>0.0293169</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0250135</v>
+        <v>0.0250161</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0723758</v>
+        <v>0.07291889999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0252707</v>
+        <v>0.0251819</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0270437</v>
+        <v>0.0269058</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0296182</v>
+        <v>0.0292207</v>
       </c>
       <c r="C68" t="n">
-        <v>0.024764</v>
+        <v>0.025661</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07460319999999999</v>
+        <v>0.075535</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0255287</v>
+        <v>0.0252328</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272624</v>
+        <v>0.0272922</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.029671</v>
+        <v>0.0294114</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0253305</v>
+        <v>0.0249142</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0784357</v>
+        <v>0.0793629</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0258819</v>
+        <v>0.0255419</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0276069</v>
+        <v>0.0274809</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0299226</v>
+        <v>0.029719</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0256244</v>
+        <v>0.0255664</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0820217</v>
+        <v>0.0827649</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0262333</v>
+        <v>0.0263474</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0279474</v>
+        <v>0.0280874</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0302333</v>
+        <v>0.0299472</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0257198</v>
+        <v>0.0260703</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0859171</v>
+        <v>0.08738600000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0264132</v>
+        <v>0.0268805</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0282301</v>
+        <v>0.0284234</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304387</v>
+        <v>0.0301738</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0266683</v>
+        <v>0.0262961</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0899228</v>
+        <v>0.09082</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0270807</v>
+        <v>0.0276773</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0288541</v>
+        <v>0.0290259</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0307984</v>
+        <v>0.0305508</v>
       </c>
       <c r="C73" t="n">
-        <v>0.026978</v>
+        <v>0.0272243</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0944651</v>
+        <v>0.0956046</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0277807</v>
+        <v>0.0279122</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0294396</v>
+        <v>0.0295298</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0313633</v>
+        <v>0.0310235</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0275904</v>
+        <v>0.0278587</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0975321</v>
+        <v>0.100395</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0283821</v>
+        <v>0.0282598</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0302336</v>
+        <v>0.0302943</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0324952</v>
+        <v>0.0321194</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0287284</v>
+        <v>0.0290874</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101935</v>
+        <v>0.106196</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0298292</v>
+        <v>0.029915</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0314833</v>
+        <v>0.0318506</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0336131</v>
+        <v>0.0333025</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0299448</v>
+        <v>0.0309534</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107117</v>
+        <v>0.110622</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0314692</v>
+        <v>0.0307537</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0332519</v>
+        <v>0.0333779</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0352722</v>
+        <v>0.0352147</v>
       </c>
       <c r="C77" t="n">
-        <v>0.032467</v>
+        <v>0.0327875</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113211</v>
+        <v>0.116356</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0333562</v>
+        <v>0.0330507</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0355653</v>
+        <v>0.0358177</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0379539</v>
+        <v>0.0374182</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0350742</v>
+        <v>0.0356208</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0975351</v>
+        <v>0.09819899999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0364379</v>
+        <v>0.0364257</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0391816</v>
+        <v>0.0388414</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0412628</v>
+        <v>0.0409454</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0387075</v>
+        <v>0.0403475</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101844</v>
+        <v>0.102845</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0416509</v>
+        <v>0.0408047</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0442014</v>
+        <v>0.044147</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0459095</v>
+        <v>0.0459126</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0440338</v>
+        <v>0.0450092</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105787</v>
+        <v>0.107437</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362885</v>
+        <v>0.0358031</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0340507</v>
+        <v>0.0334916</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.055094</v>
+        <v>0.0555358</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0358549</v>
+        <v>0.0358765</v>
       </c>
       <c r="D81" t="n">
-        <v>0.114731</v>
+        <v>0.111679</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0369744</v>
+        <v>0.0364482</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0343746</v>
+        <v>0.0340056</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0558679</v>
+        <v>0.0557874</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0359603</v>
+        <v>0.0360162</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115888</v>
+        <v>0.117209</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0377672</v>
+        <v>0.0371515</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0348598</v>
+        <v>0.0342077</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0553193</v>
+        <v>0.0558301</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0363639</v>
+        <v>0.0363375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120485</v>
+        <v>0.122218</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0386016</v>
+        <v>0.0378541</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0353316</v>
+        <v>0.034795</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0558434</v>
+        <v>0.0559482</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0366315</v>
+        <v>0.0366835</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127408</v>
+        <v>0.127464</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0391935</v>
+        <v>0.0387069</v>
       </c>
       <c r="F84" t="n">
-        <v>0.035899</v>
+        <v>0.0353159</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559024</v>
+        <v>0.0560485</v>
       </c>
       <c r="C85" t="n">
-        <v>0.036985</v>
+        <v>0.0369238</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130941</v>
+        <v>0.132515</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0399682</v>
+        <v>0.0395854</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0362724</v>
+        <v>0.0359263</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0561313</v>
+        <v>0.0562426</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0374769</v>
+        <v>0.0375849</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136131</v>
+        <v>0.140301</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0408565</v>
+        <v>0.0402869</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0370932</v>
+        <v>0.0365765</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0565055</v>
+        <v>0.0566616</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0380599</v>
+        <v>0.038054</v>
       </c>
       <c r="D87" t="n">
-        <v>0.143583</v>
+        <v>0.144785</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0417207</v>
+        <v>0.0410314</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0379461</v>
+        <v>0.037484</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0569163</v>
+        <v>0.0569758</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0388812</v>
+        <v>0.0390537</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148483</v>
+        <v>0.151238</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0426189</v>
+        <v>0.0420888</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0390122</v>
+        <v>0.0385395</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0574846</v>
+        <v>0.0574468</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0399494</v>
+        <v>0.0400747</v>
       </c>
       <c r="D89" t="n">
-        <v>0.15431</v>
+        <v>0.157753</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0435012</v>
+        <v>0.0430421</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0404352</v>
+        <v>0.0398949</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0581785</v>
+        <v>0.0583214</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0413558</v>
+        <v>0.0415634</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160437</v>
+        <v>0.164181</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0449728</v>
+        <v>0.0445237</v>
       </c>
       <c r="F90" t="n">
-        <v>0.042379</v>
+        <v>0.0419294</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0620287</v>
+        <v>0.0592518</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0431785</v>
+        <v>0.0433395</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166027</v>
+        <v>0.170571</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0467796</v>
+        <v>0.0463735</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0448361</v>
+        <v>0.0445117</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0609023</v>
+        <v>0.0609145</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0462663</v>
+        <v>0.046224</v>
       </c>
       <c r="D92" t="n">
-        <v>0.14564</v>
+        <v>0.146408</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0492794</v>
+        <v>0.0487674</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0482959</v>
+        <v>0.0479421</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633336</v>
+        <v>0.063314</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0500341</v>
+        <v>0.0501347</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149393</v>
+        <v>0.14997</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0535675</v>
+        <v>0.0531021</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0537233</v>
+        <v>0.053244</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06722210000000001</v>
+        <v>0.0676961</v>
       </c>
       <c r="C94" t="n">
-        <v>0.055782</v>
+        <v>0.0556554</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152226</v>
+        <v>0.153985</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0712407</v>
+        <v>0.0713727</v>
       </c>
       <c r="F94" t="n">
-        <v>0.067763</v>
+        <v>0.0678203</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0856838</v>
+        <v>0.0860899</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0699279</v>
+        <v>0.0725513</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156376</v>
+        <v>0.160978</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0716951</v>
+        <v>0.07177070000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0682633</v>
+        <v>0.0682826</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.09380960000000001</v>
+        <v>0.08594690000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07026200000000001</v>
+        <v>0.0726523</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160704</v>
+        <v>0.162855</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0721367</v>
+        <v>0.07219830000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0686793</v>
+        <v>0.0689459</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859101</v>
+        <v>0.0861956</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07042370000000001</v>
+        <v>0.0729165</v>
       </c>
       <c r="D97" t="n">
-        <v>0.166384</v>
+        <v>0.16759</v>
       </c>
       <c r="E97" t="n">
-        <v>0.072695</v>
+        <v>0.0727387</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06920320000000001</v>
+        <v>0.0692615</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859466</v>
+        <v>0.0860715</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0705346</v>
+        <v>0.0732616</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171071</v>
+        <v>0.17126</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0731676</v>
+        <v>0.0734884</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0696397</v>
+        <v>0.0701999</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860799</v>
+        <v>0.0864897</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0709335</v>
+        <v>0.07332230000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175695</v>
+        <v>0.179941</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0736995</v>
+        <v>0.0745131</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0703642</v>
+        <v>0.0704582</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0862807</v>
+        <v>0.08646529999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0713741</v>
+        <v>0.0735498</v>
       </c>
       <c r="D100" t="n">
-        <v>0.180995</v>
+        <v>0.183114</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0744924</v>
+        <v>0.07446029999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0710001</v>
+        <v>0.07099709999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864352</v>
+        <v>0.0865761</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07187399999999999</v>
+        <v>0.0744229</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187033</v>
+        <v>0.187941</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0750749</v>
+        <v>0.0751607</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0718744</v>
+        <v>0.07183050000000001</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867573</v>
+        <v>0.08689089999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07242030000000001</v>
+        <v>0.0750349</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192787</v>
+        <v>0.19586</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07597959999999999</v>
+        <v>0.0759891</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0727367</v>
+        <v>0.0727066</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870527</v>
+        <v>0.0873785</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0734146</v>
+        <v>0.0756961</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198244</v>
+        <v>0.200807</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0770508</v>
+        <v>0.07705679999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0739576</v>
+        <v>0.0740662</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08765530000000001</v>
+        <v>0.0878578</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.07699830000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204334</v>
+        <v>0.208606</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0782321</v>
+        <v>0.0782147</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07550220000000001</v>
+        <v>0.075601</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885007</v>
+        <v>0.0887059</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0762587</v>
+        <v>0.078531</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210446</v>
+        <v>0.213745</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07998280000000001</v>
+        <v>0.0799361</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0814807</v>
+        <v>0.0775902</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.089945</v>
+        <v>0.0900792</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0786681</v>
+        <v>0.0807616</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217287</v>
+        <v>0.220253</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08234279999999999</v>
+        <v>0.0823685</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0807681</v>
+        <v>0.0807394</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09178070000000001</v>
+        <v>0.0919305</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0819603</v>
+        <v>0.0842246</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181918</v>
+        <v>0.184203</v>
       </c>
       <c r="E107" t="n">
-        <v>0.085997</v>
+        <v>0.08610080000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0855001</v>
+        <v>0.085477</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950097</v>
+        <v>0.0952002</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0866996</v>
+        <v>0.0892636</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185186</v>
+        <v>0.18755</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0888335</v>
+        <v>0.0897159</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0936647</v>
+        <v>0.0935827</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100929</v>
+        <v>0.100225</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0938566</v>
+        <v>0.0961607</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188771</v>
+        <v>0.189856</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0895077</v>
+        <v>0.0903395</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09406440000000001</v>
+        <v>0.0940672</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107425</v>
+        <v>0.109987</v>
       </c>
       <c r="C110" t="n">
-        <v>0.101885</v>
+        <v>0.100033</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192911</v>
+        <v>0.195251</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09036760000000001</v>
+        <v>0.0912158</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09463770000000001</v>
+        <v>0.0947833</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107535</v>
+        <v>0.110299</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0982415</v>
+        <v>0.09999520000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.197479</v>
+        <v>0.199233</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09121899999999999</v>
+        <v>0.09223199999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0952727</v>
+        <v>0.0950906</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107492</v>
+        <v>0.110678</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0985287</v>
+        <v>0.100283</v>
       </c>
       <c r="D112" t="n">
-        <v>0.202002</v>
+        <v>0.203266</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0921691</v>
+        <v>0.0929441</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0959499</v>
+        <v>0.095786</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107652</v>
+        <v>0.110984</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0987541</v>
+        <v>0.100466</v>
       </c>
       <c r="D113" t="n">
-        <v>0.20679</v>
+        <v>0.207895</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0930412</v>
+        <v>0.0939731</v>
       </c>
       <c r="F113" t="n">
-        <v>0.09657640000000001</v>
+        <v>0.09651460000000001</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107689</v>
+        <v>0.111312</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0990028</v>
+        <v>0.101072</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212159</v>
+        <v>0.214685</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0941385</v>
+        <v>0.0949636</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09740070000000001</v>
+        <v>0.0976453</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107927</v>
+        <v>0.111771</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0996861</v>
+        <v>0.101568</v>
       </c>
       <c r="D115" t="n">
-        <v>0.218126</v>
+        <v>0.219519</v>
       </c>
       <c r="E115" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.0961192</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0984502</v>
+        <v>0.09831529999999999</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108197</v>
+        <v>0.112288</v>
       </c>
       <c r="C116" t="n">
-        <v>0.100242</v>
+        <v>0.102047</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223616</v>
+        <v>0.226344</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0964893</v>
+        <v>0.0974227</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0995583</v>
+        <v>0.0994227</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108499</v>
+        <v>0.112843</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100924</v>
+        <v>0.103551</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230044</v>
+        <v>0.232607</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0979107</v>
+        <v>0.09882059999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.115187</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109112</v>
+        <v>0.113521</v>
       </c>
       <c r="C118" t="n">
-        <v>0.102006</v>
+        <v>0.10393</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235675</v>
+        <v>0.239804</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0994572</v>
+        <v>0.100419</v>
       </c>
       <c r="F118" t="n">
-        <v>0.102635</v>
+        <v>0.102597</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109904</v>
+        <v>0.114267</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103764</v>
+        <v>0.105458</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241229</v>
+        <v>0.245669</v>
       </c>
       <c r="E119" t="n">
-        <v>0.101517</v>
+        <v>0.102311</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104945</v>
+        <v>0.104863</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111108</v>
+        <v>0.115761</v>
       </c>
       <c r="C120" t="n">
-        <v>0.10572</v>
+        <v>0.107363</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247635</v>
+        <v>0.252145</v>
       </c>
       <c r="E120" t="n">
-        <v>0.104026</v>
+        <v>0.105192</v>
       </c>
       <c r="F120" t="n">
-        <v>0.115867</v>
+        <v>0.107988</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112923</v>
+        <v>0.117681</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108602</v>
+        <v>0.110439</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199177</v>
+        <v>0.201093</v>
       </c>
       <c r="E121" t="n">
-        <v>0.107922</v>
+        <v>0.108876</v>
       </c>
       <c r="F121" t="n">
-        <v>0.112637</v>
+        <v>0.112687</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115894</v>
+        <v>0.120541</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113154</v>
+        <v>0.115216</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202647</v>
+        <v>0.204448</v>
       </c>
       <c r="E122" t="n">
-        <v>0.115607</v>
+        <v>0.114871</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119773</v>
+        <v>0.119948</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120827</v>
+        <v>0.125293</v>
       </c>
       <c r="C123" t="n">
-        <v>0.12025</v>
+        <v>0.121699</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205735</v>
+        <v>0.208106</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106406</v>
+        <v>0.106681</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110665</v>
+        <v>0.110443</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134696</v>
+        <v>0.140842</v>
       </c>
       <c r="C124" t="n">
-        <v>0.129498</v>
+        <v>0.130084</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209514</v>
+        <v>0.212132</v>
       </c>
       <c r="E124" t="n">
-        <v>0.10735</v>
+        <v>0.107644</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110309</v>
+        <v>0.110847</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135101</v>
+        <v>0.140909</v>
       </c>
       <c r="C125" t="n">
-        <v>0.131423</v>
+        <v>0.13027</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213877</v>
+        <v>0.216052</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108429</v>
+        <v>0.10883</v>
       </c>
       <c r="F125" t="n">
-        <v>0.11127</v>
+        <v>0.111551</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134972</v>
+        <v>0.141014</v>
       </c>
       <c r="C126" t="n">
-        <v>0.129922</v>
+        <v>0.130268</v>
       </c>
       <c r="D126" t="n">
-        <v>0.219152</v>
+        <v>0.221078</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109641</v>
+        <v>0.109869</v>
       </c>
       <c r="F126" t="n">
-        <v>0.112012</v>
+        <v>0.112351</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.134918</v>
+        <v>0.141148</v>
       </c>
       <c r="C127" t="n">
-        <v>0.13008</v>
+        <v>0.130658</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231633</v>
+        <v>0.226553</v>
       </c>
       <c r="E127" t="n">
-        <v>0.110709</v>
+        <v>0.110925</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113341</v>
+        <v>0.113366</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135001</v>
+        <v>0.140794</v>
       </c>
       <c r="C128" t="n">
-        <v>0.13042</v>
+        <v>0.130893</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229055</v>
+        <v>0.231526</v>
       </c>
       <c r="E128" t="n">
-        <v>0.111953</v>
+        <v>0.112233</v>
       </c>
       <c r="F128" t="n">
-        <v>0.113685</v>
+        <v>0.114385</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135403</v>
+        <v>0.141411</v>
       </c>
       <c r="C129" t="n">
-        <v>0.138097</v>
+        <v>0.131482</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234697</v>
+        <v>0.237029</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113242</v>
+        <v>0.113747</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115074</v>
+        <v>0.115485</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135636</v>
+        <v>0.141661</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131327</v>
+        <v>0.131826</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240733</v>
+        <v>0.243631</v>
       </c>
       <c r="E130" t="n">
-        <v>0.114708</v>
+        <v>0.115055</v>
       </c>
       <c r="F130" t="n">
-        <v>0.116472</v>
+        <v>0.11889</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136004</v>
+        <v>0.141943</v>
       </c>
       <c r="C131" t="n">
-        <v>0.131974</v>
+        <v>0.132596</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250269</v>
+        <v>0.250271</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116208</v>
+        <v>0.116625</v>
       </c>
       <c r="F131" t="n">
-        <v>0.118112</v>
+        <v>0.118494</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13637</v>
+        <v>0.142524</v>
       </c>
       <c r="C132" t="n">
-        <v>0.132909</v>
+        <v>0.133531</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25243</v>
+        <v>0.256828</v>
       </c>
       <c r="E132" t="n">
-        <v>0.118164</v>
+        <v>0.118359</v>
       </c>
       <c r="F132" t="n">
-        <v>0.120063</v>
+        <v>0.120517</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137165</v>
+        <v>0.143551</v>
       </c>
       <c r="C133" t="n">
-        <v>0.134187</v>
+        <v>0.134864</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258601</v>
+        <v>0.262751</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120228</v>
+        <v>0.120734</v>
       </c>
       <c r="F133" t="n">
-        <v>0.122504</v>
+        <v>0.123017</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138195</v>
+        <v>0.144557</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136124</v>
+        <v>0.136568</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264555</v>
+        <v>0.269409</v>
       </c>
       <c r="E134" t="n">
-        <v>0.123197</v>
+        <v>0.123498</v>
       </c>
       <c r="F134" t="n">
-        <v>0.125976</v>
+        <v>0.126493</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.140824</v>
+        <v>0.146111</v>
       </c>
       <c r="C135" t="n">
-        <v>0.138955</v>
+        <v>0.139358</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209652</v>
+        <v>0.208744</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127168</v>
+        <v>0.127492</v>
       </c>
       <c r="F135" t="n">
-        <v>0.130668</v>
+        <v>0.131276</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142504</v>
+        <v>0.151133</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143044</v>
+        <v>0.143417</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211642</v>
+        <v>0.211626</v>
       </c>
       <c r="E136" t="n">
-        <v>0.139293</v>
+        <v>0.133813</v>
       </c>
       <c r="F136" t="n">
-        <v>0.138339</v>
+        <v>0.138596</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146915</v>
+        <v>0.152616</v>
       </c>
       <c r="C137" t="n">
-        <v>0.149451</v>
+        <v>0.149717</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215138</v>
+        <v>0.215416</v>
       </c>
       <c r="E137" t="n">
-        <v>0.119447</v>
+        <v>0.118495</v>
       </c>
       <c r="F137" t="n">
-        <v>0.122405</v>
+        <v>0.123714</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158147</v>
+        <v>0.158032</v>
       </c>
       <c r="C138" t="n">
-        <v>0.160487</v>
+        <v>0.153532</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219107</v>
+        <v>0.219349</v>
       </c>
       <c r="E138" t="n">
-        <v>0.120409</v>
+        <v>0.119494</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124304</v>
+        <v>0.124215</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158131</v>
+        <v>0.158507</v>
       </c>
       <c r="C139" t="n">
-        <v>0.151034</v>
+        <v>0.154346</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223522</v>
+        <v>0.22373</v>
       </c>
       <c r="E139" t="n">
-        <v>0.121372</v>
+        <v>0.120635</v>
       </c>
       <c r="F139" t="n">
-        <v>0.124224</v>
+        <v>0.125139</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.167806</v>
+        <v>0.158189</v>
       </c>
       <c r="C140" t="n">
-        <v>0.151621</v>
+        <v>0.154143</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228687</v>
+        <v>0.228613</v>
       </c>
       <c r="E140" t="n">
-        <v>0.122565</v>
+        <v>0.121842</v>
       </c>
       <c r="F140" t="n">
-        <v>0.124955</v>
+        <v>0.126177</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158273</v>
+        <v>0.158308</v>
       </c>
       <c r="C141" t="n">
-        <v>0.151894</v>
+        <v>0.154537</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234175</v>
+        <v>0.233811</v>
       </c>
       <c r="E141" t="n">
-        <v>0.123674</v>
+        <v>0.123002</v>
       </c>
       <c r="F141" t="n">
-        <v>0.126027</v>
+        <v>0.130094</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158409</v>
+        <v>0.158627</v>
       </c>
       <c r="C142" t="n">
-        <v>0.152361</v>
+        <v>0.15501</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239578</v>
+        <v>0.239264</v>
       </c>
       <c r="E142" t="n">
-        <v>0.124869</v>
+        <v>0.124236</v>
       </c>
       <c r="F142" t="n">
-        <v>0.127228</v>
+        <v>0.130956</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.160652</v>
+        <v>0.159639</v>
       </c>
       <c r="C143" t="n">
-        <v>0.152896</v>
+        <v>0.155367</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245658</v>
+        <v>0.245635</v>
       </c>
       <c r="E143" t="n">
-        <v>0.126156</v>
+        <v>0.126114</v>
       </c>
       <c r="F143" t="n">
-        <v>0.128446</v>
+        <v>0.130095</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0201139</v>
+        <v>0.0194215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0180089</v>
+        <v>0.017508</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0344792</v>
+        <v>0.0339174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197344</v>
+        <v>0.019681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207475</v>
+        <v>0.0207939</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0201935</v>
+        <v>0.0195164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0182721</v>
+        <v>0.0175791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0391315</v>
+        <v>0.0423896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0198629</v>
+        <v>0.0200237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0210902</v>
+        <v>0.0210644</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0202484</v>
+        <v>0.0194436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0183691</v>
+        <v>0.0177847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0426764</v>
+        <v>0.0437509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0198337</v>
+        <v>0.0199767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0209594</v>
+        <v>0.021012</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.020271</v>
+        <v>0.0194873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0187298</v>
+        <v>0.0179275</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0473007</v>
+        <v>0.0466311</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0199881</v>
+        <v>0.0202729</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0210165</v>
+        <v>0.0211706</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0204328</v>
+        <v>0.0195642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0187584</v>
+        <v>0.0177879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.054185</v>
+        <v>0.0530035</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0199821</v>
+        <v>0.0201639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0209787</v>
+        <v>0.0210809</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0204929</v>
+        <v>0.0196486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0189416</v>
+        <v>0.017806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0316968</v>
+        <v>0.0315933</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0202039</v>
+        <v>0.0203372</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0213403</v>
+        <v>0.0214739</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0206451</v>
+        <v>0.0198769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0193276</v>
+        <v>0.0182886</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0335918</v>
+        <v>0.0325866</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0206803</v>
+        <v>0.020999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0216766</v>
+        <v>0.0221889</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02108</v>
+        <v>0.0201403</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0206764</v>
+        <v>0.0188069</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0355183</v>
+        <v>0.0366854</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0195471</v>
+        <v>0.0194232</v>
       </c>
       <c r="F9" t="n">
-        <v>0.021697</v>
+        <v>0.0215971</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194863</v>
+        <v>0.0194702</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0182227</v>
+        <v>0.0183057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0370426</v>
+        <v>0.0376706</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01968</v>
+        <v>0.0196496</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0218032</v>
+        <v>0.0219706</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0196009</v>
+        <v>0.0194269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0183754</v>
+        <v>0.018332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0419962</v>
+        <v>0.0405836</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0199623</v>
+        <v>0.0199562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.021884</v>
+        <v>0.0218464</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0199071</v>
+        <v>0.0197249</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0184596</v>
+        <v>0.0185456</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0425239</v>
+        <v>0.0435511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200299</v>
+        <v>0.0199776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0221105</v>
+        <v>0.0221263</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0199181</v>
+        <v>0.0198164</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0186325</v>
+        <v>0.0186899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0461064</v>
+        <v>0.0467217</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0201507</v>
+        <v>0.0201693</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0222079</v>
+        <v>0.0221943</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0201765</v>
+        <v>0.0197495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0188148</v>
+        <v>0.0187654</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0494691</v>
+        <v>0.0505365</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206326</v>
+        <v>0.0207116</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0224687</v>
+        <v>0.0224244</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0203381</v>
+        <v>0.0199901</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0190236</v>
+        <v>0.0189586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0536069</v>
+        <v>0.0542533</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208139</v>
+        <v>0.0209433</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02269</v>
+        <v>0.0226889</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0205221</v>
+        <v>0.019831</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0190378</v>
+        <v>0.0188707</v>
       </c>
       <c r="D16" t="n">
-        <v>0.056901</v>
+        <v>0.057687</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209266</v>
+        <v>0.0209585</v>
       </c>
       <c r="F16" t="n">
-        <v>0.022896</v>
+        <v>0.0229011</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0205263</v>
+        <v>0.0201676</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0193517</v>
+        <v>0.0190272</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0611289</v>
+        <v>0.0618572</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0212483</v>
+        <v>0.021292</v>
       </c>
       <c r="F17" t="n">
-        <v>0.023139</v>
+        <v>0.0230198</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0206918</v>
+        <v>0.0199522</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0195224</v>
+        <v>0.0192124</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0643372</v>
+        <v>0.0643252</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0213475</v>
+        <v>0.0216324</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0232989</v>
+        <v>0.0232073</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0210042</v>
+        <v>0.0202066</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0198336</v>
+        <v>0.0192457</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0682323</v>
+        <v>0.068566</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0212238</v>
+        <v>0.0217086</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0234469</v>
+        <v>0.0234977</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0211862</v>
+        <v>0.0202198</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0202013</v>
+        <v>0.0195564</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0713308</v>
+        <v>0.07312390000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0215719</v>
+        <v>0.0222704</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02374</v>
+        <v>0.0238195</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0215097</v>
+        <v>0.0205776</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0207002</v>
+        <v>0.019643</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0449973</v>
+        <v>0.0449321</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0220398</v>
+        <v>0.0230722</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0245013</v>
+        <v>0.0248259</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0221452</v>
+        <v>0.0210183</v>
       </c>
       <c r="C22" t="n">
-        <v>0.021644</v>
+        <v>0.0208631</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0474137</v>
+        <v>0.0474801</v>
       </c>
       <c r="E22" t="n">
-        <v>0.024563</v>
+        <v>0.0255022</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0286031</v>
+        <v>0.0278878</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0271557</v>
+        <v>0.0231905</v>
       </c>
       <c r="C23" t="n">
-        <v>0.026185</v>
+        <v>0.0235069</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0522383</v>
+        <v>0.0499688</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0209665</v>
+        <v>0.0209159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0234303</v>
+        <v>0.0233729</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202294</v>
+        <v>0.0204435</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0194066</v>
+        <v>0.0196183</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0538613</v>
+        <v>0.0543125</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211248</v>
+        <v>0.02116</v>
       </c>
       <c r="F24" t="n">
-        <v>0.023503</v>
+        <v>0.0234605</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202574</v>
+        <v>0.0205224</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0194838</v>
+        <v>0.0197273</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0561999</v>
+        <v>0.0567817</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213023</v>
+        <v>0.0213345</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0235948</v>
+        <v>0.0236911</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0204231</v>
+        <v>0.0205667</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0196579</v>
+        <v>0.019868</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0587483</v>
+        <v>0.0587864</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215005</v>
+        <v>0.0215647</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0238845</v>
+        <v>0.0238403</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0206786</v>
+        <v>0.0207731</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0197476</v>
+        <v>0.0200495</v>
       </c>
       <c r="D27" t="n">
-        <v>0.061841</v>
+        <v>0.0610284</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0217683</v>
+        <v>0.0218839</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0239947</v>
+        <v>0.0239515</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0207756</v>
+        <v>0.0208354</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0199348</v>
+        <v>0.0200865</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06429169999999999</v>
+        <v>0.0642809</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0220833</v>
+        <v>0.0221492</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0242381</v>
+        <v>0.0242594</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.021038</v>
+        <v>0.0209705</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0203243</v>
+        <v>0.0202855</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0674949</v>
+        <v>0.06719840000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224031</v>
+        <v>0.0225398</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0245089</v>
+        <v>0.0246248</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0212459</v>
+        <v>0.0210375</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0204976</v>
+        <v>0.020571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0710737</v>
+        <v>0.0705916</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0226669</v>
+        <v>0.0227931</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0248094</v>
+        <v>0.0248891</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215297</v>
+        <v>0.0212675</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0208461</v>
+        <v>0.0206701</v>
       </c>
       <c r="D31" t="n">
-        <v>0.073488</v>
+        <v>0.07389709999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0229847</v>
+        <v>0.0232128</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251984</v>
+        <v>0.0252295</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0219803</v>
+        <v>0.0215807</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0212104</v>
+        <v>0.020979</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07656549999999999</v>
+        <v>0.0766667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0233896</v>
+        <v>0.0236301</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0254991</v>
+        <v>0.0256248</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0224948</v>
+        <v>0.0217609</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0218201</v>
+        <v>0.0212851</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08045480000000001</v>
+        <v>0.07962180000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0237399</v>
+        <v>0.024145</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02604</v>
+        <v>0.0261617</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0232979</v>
+        <v>0.0229879</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0225769</v>
+        <v>0.0217751</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08171050000000001</v>
+        <v>0.08135149999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0244731</v>
+        <v>0.0252603</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0270202</v>
+        <v>0.0270285</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0242999</v>
+        <v>0.0241354</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0241138</v>
+        <v>0.0230255</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0525908</v>
+        <v>0.0530975</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0258251</v>
+        <v>0.0274605</v>
       </c>
       <c r="F35" t="n">
-        <v>0.028847</v>
+        <v>0.0292464</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.027692</v>
+        <v>0.0270987</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0263142</v>
+        <v>0.0252985</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0541534</v>
+        <v>0.0548593</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0291461</v>
+        <v>0.0318434</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0326084</v>
+        <v>0.0328645</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.031983</v>
+        <v>0.0302427</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0311683</v>
+        <v>0.0293073</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0567108</v>
+        <v>0.0577663</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0222004</v>
+        <v>0.0222405</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02454</v>
+        <v>0.0246616</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0216839</v>
+        <v>0.0215738</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0209029</v>
+        <v>0.0209306</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0586918</v>
+        <v>0.0588887</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0223722</v>
+        <v>0.0224204</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247474</v>
+        <v>0.024755</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216504</v>
+        <v>0.0215414</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0209426</v>
+        <v>0.0211843</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0607828</v>
+        <v>0.0609146</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0225291</v>
+        <v>0.022617</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0248208</v>
+        <v>0.0249222</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0218455</v>
+        <v>0.0217335</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0210848</v>
+        <v>0.0212048</v>
       </c>
       <c r="D40" t="n">
-        <v>0.063204</v>
+        <v>0.0635131</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229179</v>
+        <v>0.0229645</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0252014</v>
+        <v>0.0251858</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0220811</v>
+        <v>0.0219173</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0214955</v>
+        <v>0.0214473</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0656288</v>
+        <v>0.06551700000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231715</v>
+        <v>0.0232204</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253641</v>
+        <v>0.0253925</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223677</v>
+        <v>0.0221113</v>
       </c>
       <c r="C42" t="n">
-        <v>0.021665</v>
+        <v>0.0215978</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0679361</v>
+        <v>0.0677973</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0234723</v>
+        <v>0.0235445</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256115</v>
+        <v>0.0256379</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0225184</v>
+        <v>0.0222056</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0220474</v>
+        <v>0.0217961</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0701401</v>
+        <v>0.0712942</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0238157</v>
+        <v>0.0238684</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0258873</v>
+        <v>0.0259628</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.022946</v>
+        <v>0.0223626</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02233</v>
+        <v>0.0220679</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07419290000000001</v>
+        <v>0.0743419</v>
       </c>
       <c r="E44" t="n">
-        <v>0.024163</v>
+        <v>0.0241789</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0262137</v>
+        <v>0.0262745</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0232801</v>
+        <v>0.0226837</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0228711</v>
+        <v>0.0223658</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0770174</v>
+        <v>0.07689269999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0245866</v>
+        <v>0.0246987</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0266358</v>
+        <v>0.026645</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.023918</v>
+        <v>0.0230489</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0233772</v>
+        <v>0.0228309</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07960250000000001</v>
+        <v>0.0797853</v>
       </c>
       <c r="E46" t="n">
-        <v>0.025149</v>
+        <v>0.0258816</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272727</v>
+        <v>0.0271875</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0246263</v>
+        <v>0.0238834</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0242251</v>
+        <v>0.0233782</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0824925</v>
+        <v>0.0826161</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0257154</v>
+        <v>0.0263682</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0281496</v>
+        <v>0.0280934</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0258964</v>
+        <v>0.0252747</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0253663</v>
+        <v>0.0242896</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0849506</v>
+        <v>0.08498790000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0269096</v>
+        <v>0.027849</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0295297</v>
+        <v>0.0295683</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0280123</v>
+        <v>0.0266919</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0273993</v>
+        <v>0.0261672</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0871542</v>
+        <v>0.08737780000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0289674</v>
+        <v>0.0304555</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0317747</v>
+        <v>0.0319268</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0304792</v>
+        <v>0.029221</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0301078</v>
+        <v>0.0290664</v>
       </c>
       <c r="D50" t="n">
-        <v>0.057725</v>
+        <v>0.057784</v>
       </c>
       <c r="E50" t="n">
-        <v>0.032607</v>
+        <v>0.0338341</v>
       </c>
       <c r="F50" t="n">
-        <v>0.035501</v>
+        <v>0.0357422</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0349648</v>
+        <v>0.0335996</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0347411</v>
+        <v>0.0326595</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0597192</v>
+        <v>0.059586</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0230295</v>
+        <v>0.0230136</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0249231</v>
+        <v>0.0249761</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0404595</v>
+        <v>0.0393455</v>
       </c>
       <c r="C52" t="n">
-        <v>0.040562</v>
+        <v>0.0380299</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0617257</v>
+        <v>0.0621664</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0231519</v>
+        <v>0.0232132</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251351</v>
+        <v>0.0250868</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0233163</v>
+        <v>0.0229875</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0221008</v>
+        <v>0.0219131</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0641229</v>
+        <v>0.06403059999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234355</v>
+        <v>0.023453</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0252782</v>
+        <v>0.0253774</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.023411</v>
+        <v>0.0231719</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0221324</v>
+        <v>0.0221868</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06608989999999999</v>
+        <v>0.0659686</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0238735</v>
+        <v>0.023766</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0255647</v>
+        <v>0.0255725</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.023954</v>
+        <v>0.0234643</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0224112</v>
+        <v>0.0222504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0686293</v>
+        <v>0.0688255</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0240246</v>
+        <v>0.0240843</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0258154</v>
+        <v>0.0258682</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238197</v>
+        <v>0.0235483</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02269</v>
+        <v>0.0226276</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0710626</v>
+        <v>0.0709984</v>
       </c>
       <c r="E56" t="n">
-        <v>0.024346</v>
+        <v>0.0243776</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261148</v>
+        <v>0.0260563</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0242326</v>
+        <v>0.0237383</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0230174</v>
+        <v>0.0228214</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0742462</v>
+        <v>0.07429090000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0247511</v>
+        <v>0.0248074</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0264794</v>
+        <v>0.0264599</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0245036</v>
+        <v>0.0240877</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0234472</v>
+        <v>0.023333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07694040000000001</v>
+        <v>0.0766561</v>
       </c>
       <c r="E58" t="n">
-        <v>0.025201</v>
+        <v>0.0253238</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0268931</v>
+        <v>0.0270648</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0250974</v>
+        <v>0.024594</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0239547</v>
+        <v>0.0236458</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0801916</v>
+        <v>0.0795801</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0257438</v>
+        <v>0.025904</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276213</v>
+        <v>0.0276026</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0256095</v>
+        <v>0.0253059</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02464</v>
+        <v>0.0244101</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08301070000000001</v>
+        <v>0.0831954</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0264292</v>
+        <v>0.0267635</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0283206</v>
+        <v>0.0283859</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0266323</v>
+        <v>0.0259865</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0255375</v>
+        <v>0.0252055</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0861557</v>
+        <v>0.08603810000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0274166</v>
+        <v>0.0279044</v>
       </c>
       <c r="F61" t="n">
-        <v>0.029433</v>
+        <v>0.0294751</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0281049</v>
+        <v>0.0276891</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0273249</v>
+        <v>0.0264231</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08902</v>
+        <v>0.08928</v>
       </c>
       <c r="E62" t="n">
-        <v>0.029109</v>
+        <v>0.0296661</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0311025</v>
+        <v>0.0312221</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0304345</v>
+        <v>0.0299725</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0292786</v>
+        <v>0.0281917</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0917357</v>
+        <v>0.09168750000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0315313</v>
+        <v>0.0319597</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0335485</v>
+        <v>0.0336295</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0327231</v>
+        <v>0.0324503</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0321006</v>
+        <v>0.0309542</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0649961</v>
+        <v>0.06425640000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0347626</v>
+        <v>0.0353948</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0369277</v>
+        <v>0.0373173</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0368056</v>
+        <v>0.0363965</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0359964</v>
+        <v>0.0350155</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06598370000000001</v>
+        <v>0.0662539</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0402341</v>
+        <v>0.0407705</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0424668</v>
+        <v>0.0429545</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0420456</v>
+        <v>0.0415732</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0419378</v>
+        <v>0.0405758</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06921239999999999</v>
+        <v>0.06968829999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0247206</v>
+        <v>0.0253153</v>
       </c>
       <c r="F66" t="n">
-        <v>0.026857</v>
+        <v>0.0266908</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0293169</v>
+        <v>0.0281899</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0250161</v>
+        <v>0.025009</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07291889999999999</v>
+        <v>0.0727872</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0251819</v>
+        <v>0.0251861</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0269058</v>
+        <v>0.0270288</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0292207</v>
+        <v>0.0284006</v>
       </c>
       <c r="C68" t="n">
-        <v>0.025661</v>
+        <v>0.0250788</v>
       </c>
       <c r="D68" t="n">
-        <v>0.075535</v>
+        <v>0.0762717</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0252328</v>
+        <v>0.0255969</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272922</v>
+        <v>0.0272686</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0294114</v>
+        <v>0.0285406</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0249142</v>
+        <v>0.025256</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0793629</v>
+        <v>0.07896590000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0255419</v>
+        <v>0.0260763</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0274809</v>
+        <v>0.0274247</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.029719</v>
+        <v>0.0287622</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0255664</v>
+        <v>0.0254992</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0827649</v>
+        <v>0.0825461</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0263474</v>
+        <v>0.0264315</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0280874</v>
+        <v>0.0278238</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0299472</v>
+        <v>0.0290346</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0260703</v>
+        <v>0.0260729</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08738600000000001</v>
+        <v>0.08683200000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0268805</v>
+        <v>0.0268459</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0284234</v>
+        <v>0.028206</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0301738</v>
+        <v>0.0295209</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0262961</v>
+        <v>0.0260642</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09082</v>
+        <v>0.09109780000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0276773</v>
+        <v>0.0273882</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0290259</v>
+        <v>0.028808</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0305508</v>
+        <v>0.0298732</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0272243</v>
+        <v>0.026595</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0956046</v>
+        <v>0.0954647</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0279122</v>
+        <v>0.0279839</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0295298</v>
+        <v>0.0294925</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0310235</v>
+        <v>0.0304552</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0278587</v>
+        <v>0.0274776</v>
       </c>
       <c r="D74" t="n">
-        <v>0.100395</v>
+        <v>0.100556</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0282598</v>
+        <v>0.0287834</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0302943</v>
+        <v>0.0304745</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0321194</v>
+        <v>0.0313334</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0290874</v>
+        <v>0.02838</v>
       </c>
       <c r="D75" t="n">
-        <v>0.106196</v>
+        <v>0.105174</v>
       </c>
       <c r="E75" t="n">
-        <v>0.029915</v>
+        <v>0.029833</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0318506</v>
+        <v>0.0315614</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0333025</v>
+        <v>0.0326087</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0309534</v>
+        <v>0.0300484</v>
       </c>
       <c r="D76" t="n">
-        <v>0.110622</v>
+        <v>0.109926</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0307537</v>
+        <v>0.0314571</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0333779</v>
+        <v>0.0333984</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0352147</v>
+        <v>0.034431</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0327875</v>
+        <v>0.032313</v>
       </c>
       <c r="D77" t="n">
-        <v>0.116356</v>
+        <v>0.115028</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0330507</v>
+        <v>0.0336171</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0358177</v>
+        <v>0.0359345</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0374182</v>
+        <v>0.0371156</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0356208</v>
+        <v>0.034747</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09819899999999999</v>
+        <v>0.0984925</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0364257</v>
+        <v>0.0367115</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0388414</v>
+        <v>0.0392394</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0409454</v>
+        <v>0.040269</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0403475</v>
+        <v>0.0389131</v>
       </c>
       <c r="D79" t="n">
-        <v>0.102845</v>
+        <v>0.10276</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0408047</v>
+        <v>0.0415293</v>
       </c>
       <c r="F79" t="n">
-        <v>0.044147</v>
+        <v>0.0442593</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0459126</v>
+        <v>0.0453617</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0450092</v>
+        <v>0.0447242</v>
       </c>
       <c r="D80" t="n">
-        <v>0.107437</v>
+        <v>0.107348</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0358031</v>
+        <v>0.0359181</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0334916</v>
+        <v>0.0334148</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0555358</v>
+        <v>0.0563081</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0358765</v>
+        <v>0.0350089</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111679</v>
+        <v>0.112237</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0364482</v>
+        <v>0.0366851</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0340056</v>
+        <v>0.0338536</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0557874</v>
+        <v>0.0554662</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0360162</v>
+        <v>0.0355601</v>
       </c>
       <c r="D82" t="n">
-        <v>0.117209</v>
+        <v>0.117151</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0371515</v>
+        <v>0.0374812</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0342077</v>
+        <v>0.034063</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0558301</v>
+        <v>0.0555945</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0363375</v>
+        <v>0.0357595</v>
       </c>
       <c r="D83" t="n">
-        <v>0.122218</v>
+        <v>0.122503</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0378541</v>
+        <v>0.0381486</v>
       </c>
       <c r="F83" t="n">
-        <v>0.034795</v>
+        <v>0.0345321</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0559482</v>
+        <v>0.0557208</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0366835</v>
+        <v>0.0360117</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127464</v>
+        <v>0.127234</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0387069</v>
+        <v>0.0390478</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0353159</v>
+        <v>0.0352367</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0560485</v>
+        <v>0.0560433</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0369238</v>
+        <v>0.0364563</v>
       </c>
       <c r="D85" t="n">
-        <v>0.132515</v>
+        <v>0.133046</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0395854</v>
+        <v>0.039678</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0359263</v>
+        <v>0.0356995</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0562426</v>
+        <v>0.056115</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0375849</v>
+        <v>0.0366455</v>
       </c>
       <c r="D86" t="n">
-        <v>0.140301</v>
+        <v>0.138302</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0402869</v>
+        <v>0.0405363</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0365765</v>
+        <v>0.0364056</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0566616</v>
+        <v>0.0563429</v>
       </c>
       <c r="C87" t="n">
-        <v>0.038054</v>
+        <v>0.0372783</v>
       </c>
       <c r="D87" t="n">
-        <v>0.144785</v>
+        <v>0.144665</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0410314</v>
+        <v>0.041557</v>
       </c>
       <c r="F87" t="n">
-        <v>0.037484</v>
+        <v>0.0372682</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0569758</v>
+        <v>0.0568136</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0390537</v>
+        <v>0.0380346</v>
       </c>
       <c r="D88" t="n">
-        <v>0.151238</v>
+        <v>0.151053</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0420888</v>
+        <v>0.0423717</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0385395</v>
+        <v>0.0385365</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0574468</v>
+        <v>0.057814</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0400747</v>
+        <v>0.0392639</v>
       </c>
       <c r="D89" t="n">
-        <v>0.157753</v>
+        <v>0.157813</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0430421</v>
+        <v>0.0434629</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0398949</v>
+        <v>0.0398934</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0583214</v>
+        <v>0.0580352</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0415634</v>
+        <v>0.0407485</v>
       </c>
       <c r="D90" t="n">
-        <v>0.164181</v>
+        <v>0.165333</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0445237</v>
+        <v>0.0449497</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0419294</v>
+        <v>0.0418508</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0592518</v>
+        <v>0.059049</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0433395</v>
+        <v>0.0427995</v>
       </c>
       <c r="D91" t="n">
-        <v>0.170571</v>
+        <v>0.171393</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0463735</v>
+        <v>0.0465892</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0445117</v>
+        <v>0.0444358</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0609145</v>
+        <v>0.060642</v>
       </c>
       <c r="C92" t="n">
-        <v>0.046224</v>
+        <v>0.0456693</v>
       </c>
       <c r="D92" t="n">
-        <v>0.146408</v>
+        <v>0.146469</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0487674</v>
+        <v>0.0493376</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0479421</v>
+        <v>0.0478532</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.063314</v>
+        <v>0.0630361</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0501347</v>
+        <v>0.0496832</v>
       </c>
       <c r="D93" t="n">
-        <v>0.14997</v>
+        <v>0.150266</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0531021</v>
+        <v>0.0534112</v>
       </c>
       <c r="F93" t="n">
-        <v>0.053244</v>
+        <v>0.0534718</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0676961</v>
+        <v>0.06693689999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0556554</v>
+        <v>0.0554854</v>
       </c>
       <c r="D94" t="n">
-        <v>0.153985</v>
+        <v>0.154322</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0713727</v>
+        <v>0.07160950000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0678203</v>
+        <v>0.0676488</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0860899</v>
+        <v>0.08606750000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0725513</v>
+        <v>0.07209690000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.160978</v>
+        <v>0.158352</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07177070000000001</v>
+        <v>0.072156</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0682826</v>
+        <v>0.0680769</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08594690000000001</v>
+        <v>0.08594889999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0726523</v>
+        <v>0.0724018</v>
       </c>
       <c r="D96" t="n">
-        <v>0.162855</v>
+        <v>0.161966</v>
       </c>
       <c r="E96" t="n">
-        <v>0.07219830000000001</v>
+        <v>0.0725362</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0689459</v>
+        <v>0.06838619999999999</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0861956</v>
+        <v>0.08610959999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0729165</v>
+        <v>0.0724723</v>
       </c>
       <c r="D97" t="n">
-        <v>0.16759</v>
+        <v>0.167754</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0727387</v>
+        <v>0.0731371</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0692615</v>
+        <v>0.0690158</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0860715</v>
+        <v>0.08624329999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0732616</v>
+        <v>0.07263849999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.17126</v>
+        <v>0.172362</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0734884</v>
+        <v>0.0736676</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0701999</v>
+        <v>0.06962450000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0864897</v>
+        <v>0.086335</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07332230000000001</v>
+        <v>0.072993</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179941</v>
+        <v>0.176915</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0745131</v>
+        <v>0.0744607</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0704582</v>
+        <v>0.07017760000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08646529999999999</v>
+        <v>0.0864738</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0735498</v>
+        <v>0.0729539</v>
       </c>
       <c r="D100" t="n">
-        <v>0.183114</v>
+        <v>0.183545</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07446029999999999</v>
+        <v>0.0749591</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07099709999999999</v>
+        <v>0.07089230000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0865761</v>
+        <v>0.0866075</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0744229</v>
+        <v>0.0738873</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187941</v>
+        <v>0.18916</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0751607</v>
+        <v>0.07583520000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07183050000000001</v>
+        <v>0.07192709999999999</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08689089999999999</v>
+        <v>0.0872198</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0750349</v>
+        <v>0.0744915</v>
       </c>
       <c r="D102" t="n">
-        <v>0.19586</v>
+        <v>0.194638</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0759891</v>
+        <v>0.07666149999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0727066</v>
+        <v>0.0727114</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0873785</v>
+        <v>0.08736919999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0756961</v>
+        <v>0.0751911</v>
       </c>
       <c r="D103" t="n">
-        <v>0.200807</v>
+        <v>0.201011</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07705679999999999</v>
+        <v>0.0777586</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0740662</v>
+        <v>0.07389</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0878578</v>
+        <v>0.0880237</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07699830000000001</v>
+        <v>0.0766332</v>
       </c>
       <c r="D104" t="n">
-        <v>0.208606</v>
+        <v>0.207279</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0782147</v>
+        <v>0.0789073</v>
       </c>
       <c r="F104" t="n">
-        <v>0.075601</v>
+        <v>0.0753395</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0887059</v>
+        <v>0.09043569999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.078531</v>
+        <v>0.07785300000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213745</v>
+        <v>0.213702</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0799361</v>
+        <v>0.0805145</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0775902</v>
+        <v>0.0776434</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0900792</v>
+        <v>0.0900577</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0807616</v>
+        <v>0.0805289</v>
       </c>
       <c r="D106" t="n">
-        <v>0.220253</v>
+        <v>0.221623</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0823685</v>
+        <v>0.0828445</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0807394</v>
+        <v>0.08067489999999999</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0919305</v>
+        <v>0.0921217</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0842246</v>
+        <v>0.0839681</v>
       </c>
       <c r="D107" t="n">
-        <v>0.184203</v>
+        <v>0.18336</v>
       </c>
       <c r="E107" t="n">
-        <v>0.08610080000000001</v>
+        <v>0.08650629999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>0.085477</v>
+        <v>0.0853911</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0952002</v>
+        <v>0.09522990000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0892636</v>
+        <v>0.0888868</v>
       </c>
       <c r="D108" t="n">
-        <v>0.18755</v>
+        <v>0.186806</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0897159</v>
+        <v>0.088131</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0935827</v>
+        <v>0.0930917</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100225</v>
+        <v>0.100318</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0961607</v>
+        <v>0.09618160000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.189856</v>
+        <v>0.190235</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0903395</v>
+        <v>0.08880540000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0940672</v>
+        <v>0.093667</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.109987</v>
+        <v>0.107653</v>
       </c>
       <c r="C110" t="n">
-        <v>0.100033</v>
+        <v>0.0984312</v>
       </c>
       <c r="D110" t="n">
-        <v>0.195251</v>
+        <v>0.194616</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0912158</v>
+        <v>0.08954280000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0947833</v>
+        <v>0.0941799</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.110299</v>
+        <v>0.107804</v>
       </c>
       <c r="C111" t="n">
-        <v>0.09999520000000001</v>
+        <v>0.0985439</v>
       </c>
       <c r="D111" t="n">
-        <v>0.199233</v>
+        <v>0.199103</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09223199999999999</v>
+        <v>0.0904286</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0950906</v>
+        <v>0.0946466</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.110678</v>
+        <v>0.108148</v>
       </c>
       <c r="C112" t="n">
-        <v>0.100283</v>
+        <v>0.09878919999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.203266</v>
+        <v>0.203478</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0929441</v>
+        <v>0.0913606</v>
       </c>
       <c r="F112" t="n">
-        <v>0.095786</v>
+        <v>0.09542440000000001</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.110984</v>
+        <v>0.107942</v>
       </c>
       <c r="C113" t="n">
-        <v>0.100466</v>
+        <v>0.09934519999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.207895</v>
+        <v>0.209233</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0939731</v>
+        <v>0.0923001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.09651460000000001</v>
+        <v>0.0961651</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.111312</v>
+        <v>0.108099</v>
       </c>
       <c r="C114" t="n">
-        <v>0.101072</v>
+        <v>0.09953330000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214685</v>
+        <v>0.214104</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0949636</v>
+        <v>0.0933035</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0976453</v>
+        <v>0.0968646</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111771</v>
+        <v>0.10845</v>
       </c>
       <c r="C115" t="n">
-        <v>0.101568</v>
+        <v>0.0998658</v>
       </c>
       <c r="D115" t="n">
-        <v>0.219519</v>
+        <v>0.22039</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0961192</v>
+        <v>0.0943716</v>
       </c>
       <c r="F115" t="n">
-        <v>0.09831529999999999</v>
+        <v>0.09784320000000001</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112288</v>
+        <v>0.108579</v>
       </c>
       <c r="C116" t="n">
-        <v>0.102047</v>
+        <v>0.100528</v>
       </c>
       <c r="D116" t="n">
-        <v>0.226344</v>
+        <v>0.226177</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0974227</v>
+        <v>0.0967925</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0994227</v>
+        <v>0.09888669999999999</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.112843</v>
+        <v>0.108747</v>
       </c>
       <c r="C117" t="n">
-        <v>0.103551</v>
+        <v>0.101412</v>
       </c>
       <c r="D117" t="n">
-        <v>0.232607</v>
+        <v>0.232737</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09882059999999999</v>
+        <v>0.09689159999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1008</v>
+        <v>0.100507</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.113521</v>
+        <v>0.109369</v>
       </c>
       <c r="C118" t="n">
-        <v>0.10393</v>
+        <v>0.102417</v>
       </c>
       <c r="D118" t="n">
-        <v>0.239804</v>
+        <v>0.239224</v>
       </c>
       <c r="E118" t="n">
-        <v>0.100419</v>
+        <v>0.0989611</v>
       </c>
       <c r="F118" t="n">
-        <v>0.102597</v>
+        <v>0.102085</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.114267</v>
+        <v>0.110092</v>
       </c>
       <c r="C119" t="n">
-        <v>0.105458</v>
+        <v>0.103748</v>
       </c>
       <c r="D119" t="n">
-        <v>0.245669</v>
+        <v>0.246325</v>
       </c>
       <c r="E119" t="n">
-        <v>0.102311</v>
+        <v>0.101494</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104863</v>
+        <v>0.104303</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.115761</v>
+        <v>0.111317</v>
       </c>
       <c r="C120" t="n">
-        <v>0.107363</v>
+        <v>0.10602</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252145</v>
+        <v>0.252436</v>
       </c>
       <c r="E120" t="n">
-        <v>0.105192</v>
+        <v>0.103223</v>
       </c>
       <c r="F120" t="n">
-        <v>0.107988</v>
+        <v>0.107362</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.117681</v>
+        <v>0.11317</v>
       </c>
       <c r="C121" t="n">
-        <v>0.110439</v>
+        <v>0.109004</v>
       </c>
       <c r="D121" t="n">
-        <v>0.201093</v>
+        <v>0.20091</v>
       </c>
       <c r="E121" t="n">
-        <v>0.108876</v>
+        <v>0.106973</v>
       </c>
       <c r="F121" t="n">
-        <v>0.112687</v>
+        <v>0.111854</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.120541</v>
+        <v>0.116104</v>
       </c>
       <c r="C122" t="n">
-        <v>0.115216</v>
+        <v>0.113684</v>
       </c>
       <c r="D122" t="n">
-        <v>0.204448</v>
+        <v>0.203939</v>
       </c>
       <c r="E122" t="n">
-        <v>0.114871</v>
+        <v>0.113103</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119948</v>
+        <v>0.119184</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.125293</v>
+        <v>0.120958</v>
       </c>
       <c r="C123" t="n">
-        <v>0.121699</v>
+        <v>0.120127</v>
       </c>
       <c r="D123" t="n">
-        <v>0.208106</v>
+        <v>0.207925</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106681</v>
+        <v>0.106082</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110443</v>
+        <v>0.111151</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.140842</v>
+        <v>0.141458</v>
       </c>
       <c r="C124" t="n">
-        <v>0.130084</v>
+        <v>0.12958</v>
       </c>
       <c r="D124" t="n">
-        <v>0.212132</v>
+        <v>0.211979</v>
       </c>
       <c r="E124" t="n">
-        <v>0.107644</v>
+        <v>0.107026</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110847</v>
+        <v>0.111644</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140909</v>
+        <v>0.141712</v>
       </c>
       <c r="C125" t="n">
-        <v>0.13027</v>
+        <v>0.129681</v>
       </c>
       <c r="D125" t="n">
-        <v>0.216052</v>
+        <v>0.215948</v>
       </c>
       <c r="E125" t="n">
-        <v>0.10883</v>
+        <v>0.108083</v>
       </c>
       <c r="F125" t="n">
-        <v>0.111551</v>
+        <v>0.112414</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.141014</v>
+        <v>0.1419</v>
       </c>
       <c r="C126" t="n">
-        <v>0.130268</v>
+        <v>0.130417</v>
       </c>
       <c r="D126" t="n">
-        <v>0.221078</v>
+        <v>0.221701</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109869</v>
+        <v>0.109912</v>
       </c>
       <c r="F126" t="n">
-        <v>0.112351</v>
+        <v>0.113156</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141148</v>
+        <v>0.141745</v>
       </c>
       <c r="C127" t="n">
-        <v>0.130658</v>
+        <v>0.130435</v>
       </c>
       <c r="D127" t="n">
-        <v>0.226553</v>
+        <v>0.225906</v>
       </c>
       <c r="E127" t="n">
-        <v>0.110925</v>
+        <v>0.111077</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113366</v>
+        <v>0.115716</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.140794</v>
+        <v>0.142284</v>
       </c>
       <c r="C128" t="n">
-        <v>0.130893</v>
+        <v>0.130472</v>
       </c>
       <c r="D128" t="n">
-        <v>0.231526</v>
+        <v>0.231556</v>
       </c>
       <c r="E128" t="n">
-        <v>0.112233</v>
+        <v>0.111791</v>
       </c>
       <c r="F128" t="n">
-        <v>0.114385</v>
+        <v>0.115189</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.141411</v>
+        <v>0.142412</v>
       </c>
       <c r="C129" t="n">
-        <v>0.131482</v>
+        <v>0.130978</v>
       </c>
       <c r="D129" t="n">
-        <v>0.237029</v>
+        <v>0.237194</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113747</v>
+        <v>0.113112</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115485</v>
+        <v>0.116331</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141661</v>
+        <v>0.142508</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131826</v>
+        <v>0.131514</v>
       </c>
       <c r="D130" t="n">
-        <v>0.243631</v>
+        <v>0.243717</v>
       </c>
       <c r="E130" t="n">
-        <v>0.115055</v>
+        <v>0.11454</v>
       </c>
       <c r="F130" t="n">
-        <v>0.11889</v>
+        <v>0.117742</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.141943</v>
+        <v>0.142778</v>
       </c>
       <c r="C131" t="n">
-        <v>0.132596</v>
+        <v>0.13225</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250271</v>
+        <v>0.250003</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116625</v>
+        <v>0.116134</v>
       </c>
       <c r="F131" t="n">
-        <v>0.118494</v>
+        <v>0.119329</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.142524</v>
+        <v>0.143481</v>
       </c>
       <c r="C132" t="n">
-        <v>0.133531</v>
+        <v>0.133121</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256828</v>
+        <v>0.256134</v>
       </c>
       <c r="E132" t="n">
-        <v>0.118359</v>
+        <v>0.117922</v>
       </c>
       <c r="F132" t="n">
-        <v>0.120517</v>
+        <v>0.121251</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143551</v>
+        <v>0.144008</v>
       </c>
       <c r="C133" t="n">
-        <v>0.134864</v>
+        <v>0.134462</v>
       </c>
       <c r="D133" t="n">
-        <v>0.262751</v>
+        <v>0.262624</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120734</v>
+        <v>0.120415</v>
       </c>
       <c r="F133" t="n">
-        <v>0.123017</v>
+        <v>0.123653</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.144557</v>
+        <v>0.145063</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136568</v>
+        <v>0.136272</v>
       </c>
       <c r="D134" t="n">
-        <v>0.269409</v>
+        <v>0.268854</v>
       </c>
       <c r="E134" t="n">
-        <v>0.123498</v>
+        <v>0.12307</v>
       </c>
       <c r="F134" t="n">
-        <v>0.126493</v>
+        <v>0.127033</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.146111</v>
+        <v>0.146903</v>
       </c>
       <c r="C135" t="n">
-        <v>0.139358</v>
+        <v>0.141126</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208744</v>
+        <v>0.209121</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127492</v>
+        <v>0.127093</v>
       </c>
       <c r="F135" t="n">
-        <v>0.131276</v>
+        <v>0.131928</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.151133</v>
+        <v>0.149071</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143417</v>
+        <v>0.143258</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211626</v>
+        <v>0.212019</v>
       </c>
       <c r="E136" t="n">
-        <v>0.133813</v>
+        <v>0.13334</v>
       </c>
       <c r="F136" t="n">
-        <v>0.138596</v>
+        <v>0.13935</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.152616</v>
+        <v>0.15317</v>
       </c>
       <c r="C137" t="n">
-        <v>0.149717</v>
+        <v>0.14923</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215416</v>
+        <v>0.215877</v>
       </c>
       <c r="E137" t="n">
-        <v>0.118495</v>
+        <v>0.118639</v>
       </c>
       <c r="F137" t="n">
-        <v>0.123714</v>
+        <v>0.123968</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158032</v>
+        <v>0.158286</v>
       </c>
       <c r="C138" t="n">
-        <v>0.153532</v>
+        <v>0.154003</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219349</v>
+        <v>0.219648</v>
       </c>
       <c r="E138" t="n">
-        <v>0.119494</v>
+        <v>0.119654</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124215</v>
+        <v>0.124543</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158507</v>
+        <v>0.158495</v>
       </c>
       <c r="C139" t="n">
-        <v>0.154346</v>
+        <v>0.154172</v>
       </c>
       <c r="D139" t="n">
-        <v>0.22373</v>
+        <v>0.224097</v>
       </c>
       <c r="E139" t="n">
-        <v>0.120635</v>
+        <v>0.120688</v>
       </c>
       <c r="F139" t="n">
-        <v>0.125139</v>
+        <v>0.125349</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158189</v>
+        <v>0.158518</v>
       </c>
       <c r="C140" t="n">
-        <v>0.154143</v>
+        <v>0.154463</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228613</v>
+        <v>0.228658</v>
       </c>
       <c r="E140" t="n">
-        <v>0.121842</v>
+        <v>0.121843</v>
       </c>
       <c r="F140" t="n">
-        <v>0.126177</v>
+        <v>0.126392</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158308</v>
+        <v>0.15854</v>
       </c>
       <c r="C141" t="n">
-        <v>0.154537</v>
+        <v>0.154724</v>
       </c>
       <c r="D141" t="n">
-        <v>0.233811</v>
+        <v>0.234076</v>
       </c>
       <c r="E141" t="n">
-        <v>0.123002</v>
+        <v>0.12324</v>
       </c>
       <c r="F141" t="n">
-        <v>0.130094</v>
+        <v>0.127352</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158627</v>
+        <v>0.158912</v>
       </c>
       <c r="C142" t="n">
-        <v>0.15501</v>
+        <v>0.155121</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239264</v>
+        <v>0.239886</v>
       </c>
       <c r="E142" t="n">
-        <v>0.124236</v>
+        <v>0.124186</v>
       </c>
       <c r="F142" t="n">
-        <v>0.130956</v>
+        <v>0.128529</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.159639</v>
+        <v>0.158706</v>
       </c>
       <c r="C143" t="n">
-        <v>0.155367</v>
+        <v>0.155374</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245635</v>
+        <v>0.246094</v>
       </c>
       <c r="E143" t="n">
-        <v>0.126114</v>
+        <v>0.125548</v>
       </c>
       <c r="F143" t="n">
-        <v>0.130095</v>
+        <v>0.129799</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0194215</v>
+        <v>0.0197461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.017508</v>
+        <v>0.0178449</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0339174</v>
+        <v>0.033784</v>
       </c>
       <c r="E2" t="n">
-        <v>0.019681</v>
+        <v>0.0196024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207939</v>
+        <v>0.0206887</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0195164</v>
+        <v>0.0197325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0175791</v>
+        <v>0.0179431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0423896</v>
+        <v>0.0394176</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0200237</v>
+        <v>0.0197645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0210644</v>
+        <v>0.0208975</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0194436</v>
+        <v>0.0197216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0177847</v>
+        <v>0.0180452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0437509</v>
+        <v>0.0451952</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0199767</v>
+        <v>0.0199269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.021012</v>
+        <v>0.0208828</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0194873</v>
+        <v>0.0198446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0179275</v>
+        <v>0.0182767</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0466311</v>
+        <v>0.0483571</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0202729</v>
+        <v>0.0198514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0211706</v>
+        <v>0.0209074</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0195642</v>
+        <v>0.0201199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0177879</v>
+        <v>0.0184257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0530035</v>
+        <v>0.0538439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0201639</v>
+        <v>0.0199501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0210809</v>
+        <v>0.0209207</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0196486</v>
+        <v>0.0202027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017806</v>
+        <v>0.0188063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0315933</v>
+        <v>0.0314339</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0203372</v>
+        <v>0.0200687</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0214739</v>
+        <v>0.0211565</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0198769</v>
+        <v>0.0203492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0182886</v>
+        <v>0.0191396</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0325866</v>
+        <v>0.032934</v>
       </c>
       <c r="E8" t="n">
-        <v>0.020999</v>
+        <v>0.020486</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0221889</v>
+        <v>0.0217363</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0201403</v>
+        <v>0.0208469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188069</v>
+        <v>0.0206219</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0366854</v>
+        <v>0.0354813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0194232</v>
+        <v>0.019415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0215971</v>
+        <v>0.0216607</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194702</v>
+        <v>0.0195338</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0183057</v>
+        <v>0.0179897</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0376706</v>
+        <v>0.0377065</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0196496</v>
+        <v>0.0196561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0219706</v>
+        <v>0.0219525</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0194269</v>
+        <v>0.0196244</v>
       </c>
       <c r="C11" t="n">
-        <v>0.018332</v>
+        <v>0.018325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0405836</v>
+        <v>0.0400387</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0199562</v>
+        <v>0.0198212</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0218464</v>
+        <v>0.0219064</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0197249</v>
+        <v>0.0198481</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0185456</v>
+        <v>0.0183395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0435511</v>
+        <v>0.0437041</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0199776</v>
+        <v>0.0198926</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0221263</v>
+        <v>0.0220762</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198164</v>
+        <v>0.0201206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0186899</v>
+        <v>0.0185953</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0467217</v>
+        <v>0.0465616</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0201693</v>
+        <v>0.0201386</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0221943</v>
+        <v>0.0221588</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0197495</v>
+        <v>0.0201347</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0187654</v>
+        <v>0.0187335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0505365</v>
+        <v>0.050546</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0207116</v>
+        <v>0.020394</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0224244</v>
+        <v>0.0224804</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199901</v>
+        <v>0.0202049</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0189586</v>
+        <v>0.0189167</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0542533</v>
+        <v>0.0539295</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0209433</v>
+        <v>0.0207832</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0226889</v>
+        <v>0.0227328</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.019831</v>
+        <v>0.0203527</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0188707</v>
+        <v>0.0189744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.057687</v>
+        <v>0.0575766</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209585</v>
+        <v>0.0208583</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0229011</v>
+        <v>0.022786</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0201676</v>
+        <v>0.0204432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0190272</v>
+        <v>0.0192031</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0618572</v>
+        <v>0.061596</v>
       </c>
       <c r="E17" t="n">
-        <v>0.021292</v>
+        <v>0.0209749</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230198</v>
+        <v>0.022825</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0199522</v>
+        <v>0.0208273</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0192124</v>
+        <v>0.0194634</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0643252</v>
+        <v>0.0651687</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0216324</v>
+        <v>0.0211523</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0232073</v>
+        <v>0.0229454</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0202066</v>
+        <v>0.0208641</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0192457</v>
+        <v>0.0198715</v>
       </c>
       <c r="D19" t="n">
-        <v>0.068566</v>
+        <v>0.0687164</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0217086</v>
+        <v>0.0214684</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0234977</v>
+        <v>0.023213</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0202198</v>
+        <v>0.0210758</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0195564</v>
+        <v>0.020151</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07312390000000001</v>
+        <v>0.0718162</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0222704</v>
+        <v>0.0214852</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238195</v>
+        <v>0.0236565</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0205776</v>
+        <v>0.0214207</v>
       </c>
       <c r="C21" t="n">
-        <v>0.019643</v>
+        <v>0.0208918</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0449321</v>
+        <v>0.0452279</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0230722</v>
+        <v>0.0220098</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0248259</v>
+        <v>0.0242504</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0210183</v>
+        <v>0.0224034</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0208631</v>
+        <v>0.02257</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0474801</v>
+        <v>0.0472372</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0255022</v>
+        <v>0.0232908</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0278878</v>
+        <v>0.027007</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0231905</v>
+        <v>0.0256099</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0235069</v>
+        <v>0.0263097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0499688</v>
+        <v>0.0495509</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0209159</v>
+        <v>0.0210384</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0233729</v>
+        <v>0.0233421</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0204435</v>
+        <v>0.0202275</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0196183</v>
+        <v>0.0194202</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0543125</v>
+        <v>0.0550942</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02116</v>
+        <v>0.0211497</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234605</v>
+        <v>0.0234718</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205224</v>
+        <v>0.0203609</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0197273</v>
+        <v>0.0196043</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0567817</v>
+        <v>0.0556007</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213345</v>
+        <v>0.0213362</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236911</v>
+        <v>0.0235852</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0205667</v>
+        <v>0.0205003</v>
       </c>
       <c r="C26" t="n">
-        <v>0.019868</v>
+        <v>0.0197684</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0587864</v>
+        <v>0.0591683</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215647</v>
+        <v>0.0215598</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0238403</v>
+        <v>0.0237807</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207731</v>
+        <v>0.0208346</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0200495</v>
+        <v>0.0199007</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0610284</v>
+        <v>0.0606742</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0218839</v>
+        <v>0.0218121</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0239515</v>
+        <v>0.0239744</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0208354</v>
+        <v>0.0209362</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0200865</v>
+        <v>0.020052</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0642809</v>
+        <v>0.0636239</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0221492</v>
+        <v>0.022158</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0242594</v>
+        <v>0.0242598</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0209705</v>
+        <v>0.0211043</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0202855</v>
+        <v>0.0204163</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06719840000000001</v>
+        <v>0.06629930000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0225398</v>
+        <v>0.0224514</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0246248</v>
+        <v>0.024538</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0210375</v>
+        <v>0.0214564</v>
       </c>
       <c r="C30" t="n">
-        <v>0.020571</v>
+        <v>0.0207519</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0705916</v>
+        <v>0.0692154</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227931</v>
+        <v>0.0227153</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0248891</v>
+        <v>0.0247742</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0212675</v>
+        <v>0.0215959</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0206701</v>
+        <v>0.0211034</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07389709999999999</v>
+        <v>0.0731744</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0232128</v>
+        <v>0.0230663</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0252295</v>
+        <v>0.0250553</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0215807</v>
+        <v>0.0221019</v>
       </c>
       <c r="C32" t="n">
-        <v>0.020979</v>
+        <v>0.0214762</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0766667</v>
+        <v>0.07567169999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0236301</v>
+        <v>0.0233892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0256248</v>
+        <v>0.0254273</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0217609</v>
+        <v>0.0224876</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0212851</v>
+        <v>0.0219111</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07962180000000001</v>
+        <v>0.0796405</v>
       </c>
       <c r="E33" t="n">
-        <v>0.024145</v>
+        <v>0.0237629</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0261617</v>
+        <v>0.025906</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0229879</v>
+        <v>0.0234271</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0217751</v>
+        <v>0.023071</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08135149999999999</v>
+        <v>0.0816037</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0252603</v>
+        <v>0.0242992</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0270285</v>
+        <v>0.0269407</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0241354</v>
+        <v>0.0250863</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0230255</v>
+        <v>0.0245279</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0530975</v>
+        <v>0.052668</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0274605</v>
+        <v>0.0256924</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0292464</v>
+        <v>0.0287627</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0270987</v>
+        <v>0.0283475</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0252985</v>
+        <v>0.0278262</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0548593</v>
+        <v>0.0543433</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0318434</v>
+        <v>0.0288306</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0328645</v>
+        <v>0.032972</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0302427</v>
+        <v>0.03273</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0293073</v>
+        <v>0.0327709</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0577663</v>
+        <v>0.0559744</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0222405</v>
+        <v>0.0221774</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0246616</v>
+        <v>0.0245728</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215738</v>
+        <v>0.0215109</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0209306</v>
+        <v>0.0209619</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0588887</v>
+        <v>0.0588463</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0224204</v>
+        <v>0.0223898</v>
       </c>
       <c r="F38" t="n">
-        <v>0.024755</v>
+        <v>0.024781</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215414</v>
+        <v>0.0216005</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0211843</v>
+        <v>0.0210479</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0609146</v>
+        <v>0.0605899</v>
       </c>
       <c r="E39" t="n">
-        <v>0.022617</v>
+        <v>0.0226089</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0249222</v>
+        <v>0.0250357</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217335</v>
+        <v>0.0217531</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0212048</v>
+        <v>0.0212781</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0635131</v>
+        <v>0.06300310000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229645</v>
+        <v>0.0229321</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0251858</v>
+        <v>0.0251964</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219173</v>
+        <v>0.021908</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0214473</v>
+        <v>0.0214101</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06551700000000001</v>
+        <v>0.0655744</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0232204</v>
+        <v>0.0231643</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253925</v>
+        <v>0.0253459</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221113</v>
+        <v>0.0222107</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215978</v>
+        <v>0.0216445</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0677973</v>
+        <v>0.0681079</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0235445</v>
+        <v>0.0235141</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256379</v>
+        <v>0.0256397</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0222056</v>
+        <v>0.0225232</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0217961</v>
+        <v>0.0218349</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0712942</v>
+        <v>0.0709316</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0238684</v>
+        <v>0.0238257</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0259628</v>
+        <v>0.0258755</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0223626</v>
+        <v>0.0227182</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0220679</v>
+        <v>0.0222977</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0743419</v>
+        <v>0.074409</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0241789</v>
+        <v>0.0241732</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0262745</v>
+        <v>0.0261439</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0226837</v>
+        <v>0.023089</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0223658</v>
+        <v>0.0229593</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07689269999999999</v>
+        <v>0.07705380000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0246987</v>
+        <v>0.0245637</v>
       </c>
       <c r="F45" t="n">
-        <v>0.026645</v>
+        <v>0.0265231</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0230489</v>
+        <v>0.0238261</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0228309</v>
+        <v>0.02335</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0797853</v>
+        <v>0.0796858</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0258816</v>
+        <v>0.0250896</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0271875</v>
+        <v>0.0272376</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0238834</v>
+        <v>0.0243414</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0233782</v>
+        <v>0.024133</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0826161</v>
+        <v>0.08248659999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0263682</v>
+        <v>0.0257102</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0280934</v>
+        <v>0.0280098</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0252747</v>
+        <v>0.0257798</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0242896</v>
+        <v>0.0253382</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08498790000000001</v>
+        <v>0.0851649</v>
       </c>
       <c r="E48" t="n">
-        <v>0.027849</v>
+        <v>0.0268373</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0295683</v>
+        <v>0.0295517</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0266919</v>
+        <v>0.02759</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0261672</v>
+        <v>0.0270358</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08737780000000001</v>
+        <v>0.0877797</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0304555</v>
+        <v>0.0288986</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0319268</v>
+        <v>0.0320469</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.029221</v>
+        <v>0.0307632</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0290664</v>
+        <v>0.0304909</v>
       </c>
       <c r="D50" t="n">
-        <v>0.057784</v>
+        <v>0.0576852</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0338341</v>
+        <v>0.0321433</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0357422</v>
+        <v>0.0352653</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0335996</v>
+        <v>0.0348359</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0326595</v>
+        <v>0.0348547</v>
       </c>
       <c r="D51" t="n">
-        <v>0.059586</v>
+        <v>0.0595284</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0230136</v>
+        <v>0.0230005</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0249761</v>
+        <v>0.025011</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0393455</v>
+        <v>0.0397126</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0380299</v>
+        <v>0.0406991</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0621664</v>
+        <v>0.0618413</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0232132</v>
+        <v>0.0232323</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0250868</v>
+        <v>0.0251683</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0229875</v>
+        <v>0.023105</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219131</v>
+        <v>0.0219939</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06403059999999999</v>
+        <v>0.06367150000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.023453</v>
+        <v>0.0234867</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0253774</v>
+        <v>0.0254305</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0231719</v>
+        <v>0.0232625</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0221868</v>
+        <v>0.0221655</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0659686</v>
+        <v>0.0663213</v>
       </c>
       <c r="E54" t="n">
-        <v>0.023766</v>
+        <v>0.0237857</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0255725</v>
+        <v>0.0256336</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234643</v>
+        <v>0.0234999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0222504</v>
+        <v>0.0224282</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0688255</v>
+        <v>0.0683035</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0240843</v>
+        <v>0.0240128</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0258682</v>
+        <v>0.0258724</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235483</v>
+        <v>0.0239002</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0226276</v>
+        <v>0.0227302</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0709984</v>
+        <v>0.0711571</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243776</v>
+        <v>0.0243355</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0260563</v>
+        <v>0.0261433</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0237383</v>
+        <v>0.0240368</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0228214</v>
+        <v>0.0229515</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07429090000000001</v>
+        <v>0.0740584</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0248074</v>
+        <v>0.0247416</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0264599</v>
+        <v>0.0264808</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0240877</v>
+        <v>0.0245672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.023333</v>
+        <v>0.0235321</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0766561</v>
+        <v>0.07679519999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0253238</v>
+        <v>0.0252692</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0270648</v>
+        <v>0.026976</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024594</v>
+        <v>0.0249103</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0236458</v>
+        <v>0.0239402</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0795801</v>
+        <v>0.0796598</v>
       </c>
       <c r="E59" t="n">
-        <v>0.025904</v>
+        <v>0.0257688</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276026</v>
+        <v>0.0275509</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253059</v>
+        <v>0.02556</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0244101</v>
+        <v>0.024774</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0831954</v>
+        <v>0.0832325</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0267635</v>
+        <v>0.0265084</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0283859</v>
+        <v>0.028411</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0259865</v>
+        <v>0.0265233</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0252055</v>
+        <v>0.025687</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08603810000000001</v>
+        <v>0.0864637</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0279044</v>
+        <v>0.0274568</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0294751</v>
+        <v>0.0295692</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0276891</v>
+        <v>0.0279614</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0264231</v>
+        <v>0.0272188</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08928</v>
+        <v>0.089064</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0296661</v>
+        <v>0.0289645</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0312221</v>
+        <v>0.0312509</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0299725</v>
+        <v>0.0301225</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0281917</v>
+        <v>0.0293015</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09168750000000001</v>
+        <v>0.0919836</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0319597</v>
+        <v>0.0312818</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0336295</v>
+        <v>0.0335874</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0324503</v>
+        <v>0.0328916</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0309542</v>
+        <v>0.0324579</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06425640000000001</v>
+        <v>0.06425169999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0353948</v>
+        <v>0.0346803</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0373173</v>
+        <v>0.0369851</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0363965</v>
+        <v>0.0365965</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0350155</v>
+        <v>0.0362207</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0662539</v>
+        <v>0.0657354</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0407705</v>
+        <v>0.0401974</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0429545</v>
+        <v>0.042593</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0415732</v>
+        <v>0.0417714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0405758</v>
+        <v>0.0416204</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06968829999999999</v>
+        <v>0.06876690000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0253153</v>
+        <v>0.0251032</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0266908</v>
+        <v>0.0266213</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0281899</v>
+        <v>0.0289391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.025009</v>
+        <v>0.0247875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0727872</v>
+        <v>0.0728809</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0251861</v>
+        <v>0.0255744</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0270288</v>
+        <v>0.0269067</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0284006</v>
+        <v>0.0290776</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0250788</v>
+        <v>0.0248771</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0762717</v>
+        <v>0.07624</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0255969</v>
+        <v>0.026087</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272686</v>
+        <v>0.0271685</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0285406</v>
+        <v>0.0292337</v>
       </c>
       <c r="C69" t="n">
-        <v>0.025256</v>
+        <v>0.0251369</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07896590000000001</v>
+        <v>0.07927969999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0260763</v>
+        <v>0.0264126</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0274247</v>
+        <v>0.0275087</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0287622</v>
+        <v>0.0293713</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0254992</v>
+        <v>0.0253995</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0825461</v>
+        <v>0.08338660000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0264315</v>
+        <v>0.0267527</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0278238</v>
+        <v>0.0277921</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0290346</v>
+        <v>0.0294411</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0260729</v>
+        <v>0.0259666</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08683200000000001</v>
+        <v>0.0868362</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0268459</v>
+        <v>0.0267763</v>
       </c>
       <c r="F71" t="n">
-        <v>0.028206</v>
+        <v>0.0283027</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0295209</v>
+        <v>0.0298013</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0260642</v>
+        <v>0.0266</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09109780000000001</v>
+        <v>0.0913991</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0273882</v>
+        <v>0.0268179</v>
       </c>
       <c r="F72" t="n">
-        <v>0.028808</v>
+        <v>0.0286824</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0298732</v>
+        <v>0.0305443</v>
       </c>
       <c r="C73" t="n">
-        <v>0.026595</v>
+        <v>0.0269712</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0954647</v>
+        <v>0.0956975</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0279839</v>
+        <v>0.0279796</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0294925</v>
+        <v>0.0294146</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0304552</v>
+        <v>0.0310473</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0274776</v>
+        <v>0.0278952</v>
       </c>
       <c r="D74" t="n">
-        <v>0.100556</v>
+        <v>0.100523</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0287834</v>
+        <v>0.0284062</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0304745</v>
+        <v>0.0303032</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0313334</v>
+        <v>0.0320575</v>
       </c>
       <c r="C75" t="n">
-        <v>0.02838</v>
+        <v>0.0289359</v>
       </c>
       <c r="D75" t="n">
-        <v>0.105174</v>
+        <v>0.105671</v>
       </c>
       <c r="E75" t="n">
-        <v>0.029833</v>
+        <v>0.0298583</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0315614</v>
+        <v>0.0314759</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0326087</v>
+        <v>0.0335185</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0300484</v>
+        <v>0.0306765</v>
       </c>
       <c r="D76" t="n">
-        <v>0.109926</v>
+        <v>0.112191</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0314571</v>
+        <v>0.0307042</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0333984</v>
+        <v>0.0332612</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.034431</v>
+        <v>0.0353</v>
       </c>
       <c r="C77" t="n">
-        <v>0.032313</v>
+        <v>0.0329356</v>
       </c>
       <c r="D77" t="n">
-        <v>0.115028</v>
+        <v>0.116436</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0336171</v>
+        <v>0.0335739</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0359345</v>
+        <v>0.0355083</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0371156</v>
+        <v>0.0376155</v>
       </c>
       <c r="C78" t="n">
-        <v>0.034747</v>
+        <v>0.0357661</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0984925</v>
+        <v>0.09938710000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0367115</v>
+        <v>0.0359903</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0392394</v>
+        <v>0.038752</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.040269</v>
+        <v>0.0410591</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0389131</v>
+        <v>0.0396775</v>
       </c>
       <c r="D79" t="n">
-        <v>0.10276</v>
+        <v>0.10335</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0415293</v>
+        <v>0.0409171</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0442593</v>
+        <v>0.0438737</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0453617</v>
+        <v>0.0456429</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0447242</v>
+        <v>0.0451543</v>
       </c>
       <c r="D80" t="n">
-        <v>0.107348</v>
+        <v>0.107754</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0359181</v>
+        <v>0.0357722</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0334148</v>
+        <v>0.0338904</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0563081</v>
+        <v>0.0561603</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0350089</v>
+        <v>0.0357721</v>
       </c>
       <c r="D81" t="n">
-        <v>0.112237</v>
+        <v>0.1123</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0366851</v>
+        <v>0.0364798</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0338536</v>
+        <v>0.0345499</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0554662</v>
+        <v>0.0562965</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0355601</v>
+        <v>0.0360404</v>
       </c>
       <c r="D82" t="n">
-        <v>0.117151</v>
+        <v>0.117535</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0374812</v>
+        <v>0.0373414</v>
       </c>
       <c r="F82" t="n">
-        <v>0.034063</v>
+        <v>0.0349276</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0555945</v>
+        <v>0.0565062</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0357595</v>
+        <v>0.0362174</v>
       </c>
       <c r="D83" t="n">
-        <v>0.122503</v>
+        <v>0.123004</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0381486</v>
+        <v>0.0380102</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0345321</v>
+        <v>0.0352897</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0557208</v>
+        <v>0.0565314</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0360117</v>
+        <v>0.0366361</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127234</v>
+        <v>0.127915</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0390478</v>
+        <v>0.0388062</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0352367</v>
+        <v>0.0358867</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0560433</v>
+        <v>0.056791</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0364563</v>
+        <v>0.0370706</v>
       </c>
       <c r="D85" t="n">
-        <v>0.133046</v>
+        <v>0.134021</v>
       </c>
       <c r="E85" t="n">
-        <v>0.039678</v>
+        <v>0.0395451</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0356995</v>
+        <v>0.0363203</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.056115</v>
+        <v>0.0570349</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0366455</v>
+        <v>0.0374338</v>
       </c>
       <c r="D86" t="n">
-        <v>0.138302</v>
+        <v>0.141043</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0405363</v>
+        <v>0.0403494</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0364056</v>
+        <v>0.0371155</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563429</v>
+        <v>0.0572698</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0372783</v>
+        <v>0.0382645</v>
       </c>
       <c r="D87" t="n">
-        <v>0.144665</v>
+        <v>0.145596</v>
       </c>
       <c r="E87" t="n">
-        <v>0.041557</v>
+        <v>0.0411974</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0372682</v>
+        <v>0.0380836</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0568136</v>
+        <v>0.0577253</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0380346</v>
+        <v>0.0389599</v>
       </c>
       <c r="D88" t="n">
-        <v>0.151053</v>
+        <v>0.151758</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0423717</v>
+        <v>0.0421547</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0385365</v>
+        <v>0.0391753</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.057814</v>
+        <v>0.0581303</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0392639</v>
+        <v>0.0399808</v>
       </c>
       <c r="D89" t="n">
-        <v>0.157813</v>
+        <v>0.158219</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0434629</v>
+        <v>0.0431786</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0398934</v>
+        <v>0.0403688</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0580352</v>
+        <v>0.0589233</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0407485</v>
+        <v>0.0415146</v>
       </c>
       <c r="D90" t="n">
-        <v>0.165333</v>
+        <v>0.165596</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0449497</v>
+        <v>0.044626</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0418508</v>
+        <v>0.042246</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.059049</v>
+        <v>0.0599239</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0427995</v>
+        <v>0.0438208</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171393</v>
+        <v>0.171668</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0465892</v>
+        <v>0.0463579</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0444358</v>
+        <v>0.0448492</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.060642</v>
+        <v>0.0616836</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0456693</v>
+        <v>0.0465382</v>
       </c>
       <c r="D92" t="n">
-        <v>0.146469</v>
+        <v>0.147192</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0493376</v>
+        <v>0.0490812</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0478532</v>
+        <v>0.0482833</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0630361</v>
+        <v>0.06422360000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0496832</v>
+        <v>0.050491</v>
       </c>
       <c r="D93" t="n">
-        <v>0.150266</v>
+        <v>0.150074</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0534112</v>
+        <v>0.0532933</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0534718</v>
+        <v>0.0538466</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06693689999999999</v>
+        <v>0.0681281</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0554854</v>
+        <v>0.0564003</v>
       </c>
       <c r="D94" t="n">
-        <v>0.154322</v>
+        <v>0.154699</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07160950000000001</v>
+        <v>0.07181319999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0676488</v>
+        <v>0.06832000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08606750000000001</v>
+        <v>0.086393</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07209690000000001</v>
+        <v>0.0700282</v>
       </c>
       <c r="D95" t="n">
-        <v>0.158352</v>
+        <v>0.158081</v>
       </c>
       <c r="E95" t="n">
-        <v>0.072156</v>
+        <v>0.07238319999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0680769</v>
+        <v>0.06883740000000001</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08594889999999999</v>
+        <v>0.0865501</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0724018</v>
+        <v>0.07025720000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.161966</v>
+        <v>0.16256</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0725362</v>
+        <v>0.0729079</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06838619999999999</v>
+        <v>0.0692137</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08610959999999999</v>
+        <v>0.08647879999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0724723</v>
+        <v>0.070381</v>
       </c>
       <c r="D97" t="n">
-        <v>0.167754</v>
+        <v>0.1671</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0731371</v>
+        <v>0.0731868</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0690158</v>
+        <v>0.0696586</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08624329999999999</v>
+        <v>0.0865794</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07263849999999999</v>
+        <v>0.0705847</v>
       </c>
       <c r="D98" t="n">
-        <v>0.172362</v>
+        <v>0.173459</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0736676</v>
+        <v>0.0737201</v>
       </c>
       <c r="F98" t="n">
-        <v>0.06962450000000001</v>
+        <v>0.0701344</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.086335</v>
+        <v>0.08656750000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.072993</v>
+        <v>0.0709473</v>
       </c>
       <c r="D99" t="n">
-        <v>0.176915</v>
+        <v>0.177973</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0744607</v>
+        <v>0.0744268</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07017760000000001</v>
+        <v>0.07074660000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0864738</v>
+        <v>0.0869143</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0729539</v>
+        <v>0.0713327</v>
       </c>
       <c r="D100" t="n">
-        <v>0.183545</v>
+        <v>0.18397</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0749591</v>
+        <v>0.0750186</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07089230000000001</v>
+        <v>0.0715215</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0866075</v>
+        <v>0.08697920000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0738873</v>
+        <v>0.07188890000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.18916</v>
+        <v>0.189431</v>
       </c>
       <c r="E101" t="n">
-        <v>0.07583520000000001</v>
+        <v>0.07574889999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07192709999999999</v>
+        <v>0.0722092</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0872198</v>
+        <v>0.08730159999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0744915</v>
+        <v>0.0724301</v>
       </c>
       <c r="D102" t="n">
-        <v>0.194638</v>
+        <v>0.195397</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07666149999999999</v>
+        <v>0.0765164</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0727114</v>
+        <v>0.0733022</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08736919999999999</v>
+        <v>0.0875344</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0751911</v>
+        <v>0.0733125</v>
       </c>
       <c r="D103" t="n">
-        <v>0.201011</v>
+        <v>0.202487</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0777586</v>
+        <v>0.07768170000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>0.07389</v>
+        <v>0.07453120000000001</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0880237</v>
+        <v>0.0881547</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0766332</v>
+        <v>0.0744467</v>
       </c>
       <c r="D104" t="n">
-        <v>0.207279</v>
+        <v>0.208628</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0789073</v>
+        <v>0.07885060000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0753395</v>
+        <v>0.0758621</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.09043569999999999</v>
+        <v>0.0890662</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07785300000000001</v>
+        <v>0.0760859</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213702</v>
+        <v>0.214756</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0805145</v>
+        <v>0.08065749999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0776434</v>
+        <v>0.078221</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0900577</v>
+        <v>0.0903997</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0805289</v>
+        <v>0.078512</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221623</v>
+        <v>0.221787</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0828445</v>
+        <v>0.0829421</v>
       </c>
       <c r="F106" t="n">
-        <v>0.08067489999999999</v>
+        <v>0.08123470000000001</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0921217</v>
+        <v>0.0925076</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0839681</v>
+        <v>0.08188520000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.18336</v>
+        <v>0.182847</v>
       </c>
       <c r="E107" t="n">
-        <v>0.08650629999999999</v>
+        <v>0.0866841</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0853911</v>
+        <v>0.08593430000000001</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.09522990000000001</v>
+        <v>0.095598</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0888868</v>
+        <v>0.08669010000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186806</v>
+        <v>0.186382</v>
       </c>
       <c r="E108" t="n">
-        <v>0.088131</v>
+        <v>0.0899785</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0930917</v>
+        <v>0.0945863</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100318</v>
+        <v>0.101579</v>
       </c>
       <c r="C109" t="n">
-        <v>0.09618160000000001</v>
+        <v>0.09425509999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.190235</v>
+        <v>0.189755</v>
       </c>
       <c r="E109" t="n">
-        <v>0.08880540000000001</v>
+        <v>0.0901603</v>
       </c>
       <c r="F109" t="n">
-        <v>0.093667</v>
+        <v>0.09460730000000001</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107653</v>
+        <v>0.108465</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0984312</v>
+        <v>0.0989438</v>
       </c>
       <c r="D110" t="n">
-        <v>0.194616</v>
+        <v>0.193995</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08954280000000001</v>
+        <v>0.090965</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0941799</v>
+        <v>0.095413</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107804</v>
+        <v>0.108557</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0985439</v>
+        <v>0.09833310000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.199103</v>
+        <v>0.198325</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0904286</v>
+        <v>0.0917408</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0946466</v>
+        <v>0.0974908</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.108148</v>
+        <v>0.108791</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09878919999999999</v>
+        <v>0.0987034</v>
       </c>
       <c r="D112" t="n">
-        <v>0.203478</v>
+        <v>0.203153</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0913606</v>
+        <v>0.0926901</v>
       </c>
       <c r="F112" t="n">
-        <v>0.09542440000000001</v>
+        <v>0.0964888</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107942</v>
+        <v>0.108739</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09934519999999999</v>
+        <v>0.0987949</v>
       </c>
       <c r="D113" t="n">
-        <v>0.209233</v>
+        <v>0.208597</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0923001</v>
+        <v>0.0935685</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0961651</v>
+        <v>0.0973354</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108099</v>
+        <v>0.108937</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09953330000000001</v>
+        <v>0.0990476</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214104</v>
+        <v>0.214061</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0933035</v>
+        <v>0.0946583</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0968646</v>
+        <v>0.0980719</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.10845</v>
+        <v>0.109232</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0998658</v>
+        <v>0.0996664</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22039</v>
+        <v>0.22005</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0943716</v>
+        <v>0.0957422</v>
       </c>
       <c r="F115" t="n">
-        <v>0.09784320000000001</v>
+        <v>0.09897019999999999</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108579</v>
+        <v>0.109845</v>
       </c>
       <c r="C116" t="n">
-        <v>0.100528</v>
+        <v>0.100369</v>
       </c>
       <c r="D116" t="n">
-        <v>0.226177</v>
+        <v>0.226122</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0967925</v>
+        <v>0.09706579999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>0.09888669999999999</v>
+        <v>0.100105</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108747</v>
+        <v>0.110503</v>
       </c>
       <c r="C117" t="n">
-        <v>0.101412</v>
+        <v>0.101135</v>
       </c>
       <c r="D117" t="n">
-        <v>0.232737</v>
+        <v>0.232471</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09689159999999999</v>
+        <v>0.0985158</v>
       </c>
       <c r="F117" t="n">
-        <v>0.100507</v>
+        <v>0.101524</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109369</v>
+        <v>0.111388</v>
       </c>
       <c r="C118" t="n">
-        <v>0.102417</v>
+        <v>0.101999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.239224</v>
+        <v>0.238454</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0989611</v>
+        <v>0.10007</v>
       </c>
       <c r="F118" t="n">
-        <v>0.102085</v>
+        <v>0.103098</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.110092</v>
+        <v>0.112462</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103748</v>
+        <v>0.10381</v>
       </c>
       <c r="D119" t="n">
-        <v>0.246325</v>
+        <v>0.245334</v>
       </c>
       <c r="E119" t="n">
-        <v>0.101494</v>
+        <v>0.101965</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104303</v>
+        <v>0.105411</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111317</v>
+        <v>0.113905</v>
       </c>
       <c r="C120" t="n">
-        <v>0.10602</v>
+        <v>0.105795</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252436</v>
+        <v>0.251867</v>
       </c>
       <c r="E120" t="n">
-        <v>0.103223</v>
+        <v>0.104764</v>
       </c>
       <c r="F120" t="n">
-        <v>0.107362</v>
+        <v>0.108594</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.11317</v>
+        <v>0.115993</v>
       </c>
       <c r="C121" t="n">
-        <v>0.109004</v>
+        <v>0.108844</v>
       </c>
       <c r="D121" t="n">
-        <v>0.20091</v>
+        <v>0.201083</v>
       </c>
       <c r="E121" t="n">
-        <v>0.106973</v>
+        <v>0.108645</v>
       </c>
       <c r="F121" t="n">
-        <v>0.111854</v>
+        <v>0.113153</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116104</v>
+        <v>0.119326</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113684</v>
+        <v>0.113368</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203939</v>
+        <v>0.20486</v>
       </c>
       <c r="E122" t="n">
-        <v>0.113103</v>
+        <v>0.114501</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119184</v>
+        <v>0.12048</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120958</v>
+        <v>0.123599</v>
       </c>
       <c r="C123" t="n">
-        <v>0.120127</v>
+        <v>0.120287</v>
       </c>
       <c r="D123" t="n">
-        <v>0.207925</v>
+        <v>0.207781</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106082</v>
+        <v>0.108441</v>
       </c>
       <c r="F123" t="n">
-        <v>0.111151</v>
+        <v>0.112363</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.141458</v>
+        <v>0.135661</v>
       </c>
       <c r="C124" t="n">
-        <v>0.12958</v>
+        <v>0.132197</v>
       </c>
       <c r="D124" t="n">
-        <v>0.211979</v>
+        <v>0.211997</v>
       </c>
       <c r="E124" t="n">
-        <v>0.107026</v>
+        <v>0.109408</v>
       </c>
       <c r="F124" t="n">
-        <v>0.111644</v>
+        <v>0.112261</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141712</v>
+        <v>0.135979</v>
       </c>
       <c r="C125" t="n">
-        <v>0.129681</v>
+        <v>0.132402</v>
       </c>
       <c r="D125" t="n">
-        <v>0.215948</v>
+        <v>0.215839</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108083</v>
+        <v>0.110485</v>
       </c>
       <c r="F125" t="n">
-        <v>0.112414</v>
+        <v>0.113019</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1419</v>
+        <v>0.135742</v>
       </c>
       <c r="C126" t="n">
-        <v>0.130417</v>
+        <v>0.132805</v>
       </c>
       <c r="D126" t="n">
-        <v>0.221701</v>
+        <v>0.220473</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109912</v>
+        <v>0.111652</v>
       </c>
       <c r="F126" t="n">
-        <v>0.113156</v>
+        <v>0.113709</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.141745</v>
+        <v>0.13596</v>
       </c>
       <c r="C127" t="n">
-        <v>0.130435</v>
+        <v>0.13285</v>
       </c>
       <c r="D127" t="n">
-        <v>0.225906</v>
+        <v>0.225585</v>
       </c>
       <c r="E127" t="n">
-        <v>0.111077</v>
+        <v>0.112777</v>
       </c>
       <c r="F127" t="n">
-        <v>0.115716</v>
+        <v>0.114601</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.142284</v>
+        <v>0.136507</v>
       </c>
       <c r="C128" t="n">
-        <v>0.130472</v>
+        <v>0.132895</v>
       </c>
       <c r="D128" t="n">
-        <v>0.231556</v>
+        <v>0.231722</v>
       </c>
       <c r="E128" t="n">
-        <v>0.111791</v>
+        <v>0.11405</v>
       </c>
       <c r="F128" t="n">
-        <v>0.115189</v>
+        <v>0.115672</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.142412</v>
+        <v>0.136399</v>
       </c>
       <c r="C129" t="n">
-        <v>0.130978</v>
+        <v>0.133243</v>
       </c>
       <c r="D129" t="n">
-        <v>0.237194</v>
+        <v>0.237557</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113112</v>
+        <v>0.11538</v>
       </c>
       <c r="F129" t="n">
-        <v>0.116331</v>
+        <v>0.116977</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142508</v>
+        <v>0.137616</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131514</v>
+        <v>0.133685</v>
       </c>
       <c r="D130" t="n">
-        <v>0.243717</v>
+        <v>0.243605</v>
       </c>
       <c r="E130" t="n">
-        <v>0.11454</v>
+        <v>0.11674</v>
       </c>
       <c r="F130" t="n">
-        <v>0.117742</v>
+        <v>0.118128</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.142778</v>
+        <v>0.137075</v>
       </c>
       <c r="C131" t="n">
-        <v>0.13225</v>
+        <v>0.134478</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250003</v>
+        <v>0.250026</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116134</v>
+        <v>0.118622</v>
       </c>
       <c r="F131" t="n">
-        <v>0.119329</v>
+        <v>0.119636</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.143481</v>
+        <v>0.137463</v>
       </c>
       <c r="C132" t="n">
-        <v>0.133121</v>
+        <v>0.135207</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256134</v>
+        <v>0.256012</v>
       </c>
       <c r="E132" t="n">
-        <v>0.117922</v>
+        <v>0.120319</v>
       </c>
       <c r="F132" t="n">
-        <v>0.121251</v>
+        <v>0.121679</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144008</v>
+        <v>0.137785</v>
       </c>
       <c r="C133" t="n">
-        <v>0.134462</v>
+        <v>0.136484</v>
       </c>
       <c r="D133" t="n">
-        <v>0.262624</v>
+        <v>0.26247</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120415</v>
+        <v>0.122484</v>
       </c>
       <c r="F133" t="n">
-        <v>0.123653</v>
+        <v>0.124308</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.145063</v>
+        <v>0.139228</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136272</v>
+        <v>0.138221</v>
       </c>
       <c r="D134" t="n">
-        <v>0.268854</v>
+        <v>0.269058</v>
       </c>
       <c r="E134" t="n">
-        <v>0.12307</v>
+        <v>0.125349</v>
       </c>
       <c r="F134" t="n">
-        <v>0.127033</v>
+        <v>0.127595</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.146903</v>
+        <v>0.141044</v>
       </c>
       <c r="C135" t="n">
-        <v>0.141126</v>
+        <v>0.140973</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209121</v>
+        <v>0.211395</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127093</v>
+        <v>0.129438</v>
       </c>
       <c r="F135" t="n">
-        <v>0.131928</v>
+        <v>0.132438</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.149071</v>
+        <v>0.143289</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143258</v>
+        <v>0.144933</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212019</v>
+        <v>0.214799</v>
       </c>
       <c r="E136" t="n">
-        <v>0.13334</v>
+        <v>0.135629</v>
       </c>
       <c r="F136" t="n">
-        <v>0.13935</v>
+        <v>0.139735</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.15317</v>
+        <v>0.147251</v>
       </c>
       <c r="C137" t="n">
-        <v>0.14923</v>
+        <v>0.151032</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215877</v>
+        <v>0.217725</v>
       </c>
       <c r="E137" t="n">
-        <v>0.118639</v>
+        <v>0.119573</v>
       </c>
       <c r="F137" t="n">
-        <v>0.123968</v>
+        <v>0.123766</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158286</v>
+        <v>0.158806</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154003</v>
+        <v>0.151678</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219648</v>
+        <v>0.222015</v>
       </c>
       <c r="E138" t="n">
-        <v>0.119654</v>
+        <v>0.120559</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124543</v>
+        <v>0.124663</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158495</v>
+        <v>0.158707</v>
       </c>
       <c r="C139" t="n">
-        <v>0.154172</v>
+        <v>0.151949</v>
       </c>
       <c r="D139" t="n">
-        <v>0.224097</v>
+        <v>0.22631</v>
       </c>
       <c r="E139" t="n">
-        <v>0.120688</v>
+        <v>0.12159</v>
       </c>
       <c r="F139" t="n">
-        <v>0.125349</v>
+        <v>0.125394</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158518</v>
+        <v>0.158914</v>
       </c>
       <c r="C140" t="n">
-        <v>0.154463</v>
+        <v>0.152025</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228658</v>
+        <v>0.230934</v>
       </c>
       <c r="E140" t="n">
-        <v>0.121843</v>
+        <v>0.12277</v>
       </c>
       <c r="F140" t="n">
-        <v>0.126392</v>
+        <v>0.126227</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.15854</v>
+        <v>0.158943</v>
       </c>
       <c r="C141" t="n">
-        <v>0.154724</v>
+        <v>0.152443</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234076</v>
+        <v>0.236167</v>
       </c>
       <c r="E141" t="n">
-        <v>0.12324</v>
+        <v>0.123971</v>
       </c>
       <c r="F141" t="n">
-        <v>0.127352</v>
+        <v>0.127287</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158912</v>
+        <v>0.159053</v>
       </c>
       <c r="C142" t="n">
-        <v>0.155121</v>
+        <v>0.152853</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239886</v>
+        <v>0.241836</v>
       </c>
       <c r="E142" t="n">
-        <v>0.124186</v>
+        <v>0.125097</v>
       </c>
       <c r="F142" t="n">
-        <v>0.128529</v>
+        <v>0.128427</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.158706</v>
+        <v>0.159417</v>
       </c>
       <c r="C143" t="n">
-        <v>0.155374</v>
+        <v>0.153932</v>
       </c>
       <c r="D143" t="n">
-        <v>0.246094</v>
+        <v>0.247901</v>
       </c>
       <c r="E143" t="n">
-        <v>0.125548</v>
+        <v>0.126385</v>
       </c>
       <c r="F143" t="n">
-        <v>0.129799</v>
+        <v>0.129786</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0197029</v>
+        <v>0.0193542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0177832</v>
+        <v>0.0174547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0348607</v>
+        <v>0.034219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197826</v>
+        <v>0.0197684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207169</v>
+        <v>0.0207807</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0197304</v>
+        <v>0.019348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0178226</v>
+        <v>0.0176165</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0400009</v>
+        <v>0.0378207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0200642</v>
+        <v>0.0199672</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0208789</v>
+        <v>0.0209823</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0195818</v>
+        <v>0.0194922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0179078</v>
+        <v>0.0176326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0429993</v>
+        <v>0.043512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200912</v>
+        <v>0.0200537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0210312</v>
+        <v>0.0210049</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196294</v>
+        <v>0.0194642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0177426</v>
+        <v>0.0174768</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0461287</v>
+        <v>0.0472241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0201405</v>
+        <v>0.0203276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0211923</v>
+        <v>0.0214284</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0200383</v>
+        <v>0.0195391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0181369</v>
+        <v>0.0178545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0548663</v>
+        <v>0.0504343</v>
       </c>
       <c r="E6" t="n">
-        <v>0.020368</v>
+        <v>0.0203314</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0213182</v>
+        <v>0.0213064</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01994</v>
+        <v>0.0196493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017944</v>
+        <v>0.017935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0305546</v>
+        <v>0.0305844</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0206559</v>
+        <v>0.0206426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0214979</v>
+        <v>0.0213548</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0199922</v>
+        <v>0.019864</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01822</v>
+        <v>0.0183439</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0330186</v>
+        <v>0.0323854</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0214027</v>
+        <v>0.0213071</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0221885</v>
+        <v>0.0222431</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0203669</v>
+        <v>0.020015</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188867</v>
+        <v>0.0188388</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0351268</v>
+        <v>0.0353693</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0194062</v>
+        <v>0.0194558</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0216748</v>
+        <v>0.0217044</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0190905</v>
+        <v>0.0194569</v>
       </c>
       <c r="C10" t="n">
-        <v>0.017971</v>
+        <v>0.0182495</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0368174</v>
+        <v>0.036202</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0198149</v>
+        <v>0.0196917</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0218079</v>
+        <v>0.0219015</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0192087</v>
+        <v>0.0195124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0181009</v>
+        <v>0.0183609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0399429</v>
+        <v>0.0398576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.019792</v>
+        <v>0.0199137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0219248</v>
+        <v>0.0220309</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0193318</v>
+        <v>0.0196897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0183023</v>
+        <v>0.0186604</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0430388</v>
+        <v>0.0441674</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0200275</v>
+        <v>0.0201056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0220529</v>
+        <v>0.0221442</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.019649</v>
+        <v>0.0198167</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0183372</v>
+        <v>0.0186589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0477401</v>
+        <v>0.0475108</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0203374</v>
+        <v>0.0200867</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0222671</v>
+        <v>0.0222832</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0198138</v>
+        <v>0.0199749</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0186079</v>
+        <v>0.0188897</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0498982</v>
+        <v>0.0495125</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0206275</v>
+        <v>0.0207384</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0225971</v>
+        <v>0.0225671</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0197844</v>
+        <v>0.0199745</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0184995</v>
+        <v>0.0187742</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0539642</v>
+        <v>0.0528077</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0208915</v>
+        <v>0.020914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0229012</v>
+        <v>0.0228357</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0201984</v>
+        <v>0.0200843</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0187353</v>
+        <v>0.0190058</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0568172</v>
+        <v>0.0568517</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209266</v>
+        <v>0.0209347</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0229182</v>
+        <v>0.0229495</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0200993</v>
+        <v>0.0202962</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0186255</v>
+        <v>0.0191147</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0605348</v>
+        <v>0.0609217</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0212529</v>
+        <v>0.0212041</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0230658</v>
+        <v>0.023229</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202111</v>
+        <v>0.0202804</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0187794</v>
+        <v>0.0191614</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0636963</v>
+        <v>0.0635416</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0214844</v>
+        <v>0.0217462</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0233278</v>
+        <v>0.023225</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0202838</v>
+        <v>0.0204166</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0190865</v>
+        <v>0.0192422</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06696920000000001</v>
+        <v>0.0669988</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0219786</v>
+        <v>0.0217293</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0233359</v>
+        <v>0.0234664</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020268</v>
+        <v>0.0205688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0191502</v>
+        <v>0.0194198</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0694164</v>
+        <v>0.06991029999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0222283</v>
+        <v>0.0223272</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238634</v>
+        <v>0.0238595</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0204355</v>
+        <v>0.0205643</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0193912</v>
+        <v>0.019737</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0447042</v>
+        <v>0.0443418</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0230507</v>
+        <v>0.0233129</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0249247</v>
+        <v>0.0247939</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0210107</v>
+        <v>0.0211837</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0199714</v>
+        <v>0.0202182</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0465978</v>
+        <v>0.0467893</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0287019</v>
+        <v>0.0275368</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0302423</v>
+        <v>0.02922</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0249912</v>
+        <v>0.0287207</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0260621</v>
+        <v>0.0248837</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0528601</v>
+        <v>0.0523163</v>
       </c>
       <c r="E23" t="n">
-        <v>0.020969</v>
+        <v>0.0209742</v>
       </c>
       <c r="F23" t="n">
-        <v>0.023342</v>
+        <v>0.0233312</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0202738</v>
+        <v>0.0205373</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0193185</v>
+        <v>0.0195027</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0544755</v>
+        <v>0.0545264</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0211061</v>
+        <v>0.0212051</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234491</v>
+        <v>0.0234315</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0202785</v>
+        <v>0.0205935</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0194455</v>
+        <v>0.0196171</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0570012</v>
+        <v>0.0566843</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213267</v>
+        <v>0.0213628</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236025</v>
+        <v>0.0236709</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206082</v>
+        <v>0.0206128</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0195818</v>
+        <v>0.0197572</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586934</v>
+        <v>0.0584801</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215441</v>
+        <v>0.0215658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0238008</v>
+        <v>0.0237769</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0207714</v>
+        <v>0.0208761</v>
       </c>
       <c r="C27" t="n">
-        <v>0.019865</v>
+        <v>0.019891</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0611559</v>
+        <v>0.0615333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0220027</v>
+        <v>0.0218191</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0240255</v>
+        <v>0.0239806</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0209301</v>
+        <v>0.0210563</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0200581</v>
+        <v>0.020121</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0646909</v>
+        <v>0.06451900000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.022136</v>
+        <v>0.0221533</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0243397</v>
+        <v>0.0242556</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0210942</v>
+        <v>0.0211183</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0202461</v>
+        <v>0.0202855</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0670163</v>
+        <v>0.0664226</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224802</v>
+        <v>0.0224561</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0245539</v>
+        <v>0.0245767</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0213096</v>
+        <v>0.0214162</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0204283</v>
+        <v>0.0205529</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0693279</v>
+        <v>0.0689439</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0227387</v>
+        <v>0.0226977</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0247885</v>
+        <v>0.0247812</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215352</v>
+        <v>0.0215481</v>
       </c>
       <c r="C31" t="n">
-        <v>0.020594</v>
+        <v>0.0206875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0723707</v>
+        <v>0.0723779</v>
       </c>
       <c r="E31" t="n">
-        <v>0.023192</v>
+        <v>0.0230982</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251166</v>
+        <v>0.0251644</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0216665</v>
+        <v>0.0217662</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0208654</v>
+        <v>0.0210185</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07513590000000001</v>
+        <v>0.0744797</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0236763</v>
+        <v>0.0235976</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0256222</v>
+        <v>0.025655</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221115</v>
+        <v>0.0221437</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0212822</v>
+        <v>0.02141</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0774652</v>
+        <v>0.0773037</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0242169</v>
+        <v>0.0242514</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0262207</v>
+        <v>0.0261336</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0227667</v>
+        <v>0.0227134</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0220012</v>
+        <v>0.0221435</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07910780000000001</v>
+        <v>0.07975889999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0258155</v>
+        <v>0.0255508</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0274553</v>
+        <v>0.02727</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0253284</v>
+        <v>0.0248532</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0243199</v>
+        <v>0.0238347</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0528502</v>
+        <v>0.052259</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0280374</v>
+        <v>0.027521</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0299746</v>
+        <v>0.0295257</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0264901</v>
+        <v>0.0288174</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0257347</v>
+        <v>0.0266486</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0542868</v>
+        <v>0.0545204</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0324337</v>
+        <v>0.032056</v>
       </c>
       <c r="F36" t="n">
-        <v>0.033716</v>
+        <v>0.0338389</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0325824</v>
+        <v>0.0332443</v>
       </c>
       <c r="C37" t="n">
-        <v>0.030473</v>
+        <v>0.0329135</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0567142</v>
+        <v>0.0569186</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0221636</v>
+        <v>0.0221582</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0246014</v>
+        <v>0.02461</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215495</v>
+        <v>0.0215195</v>
       </c>
       <c r="C38" t="n">
-        <v>0.020956</v>
+        <v>0.0208466</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0582646</v>
+        <v>0.0581991</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0224571</v>
+        <v>0.0223705</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247709</v>
+        <v>0.0247441</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0215573</v>
+        <v>0.0216536</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0209968</v>
+        <v>0.0210286</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0603325</v>
+        <v>0.0604806</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0226044</v>
+        <v>0.0225938</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0249246</v>
+        <v>0.0248851</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0219235</v>
+        <v>0.0217076</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0211562</v>
+        <v>0.0212482</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0628098</v>
+        <v>0.06271160000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229191</v>
+        <v>0.0229765</v>
       </c>
       <c r="F40" t="n">
-        <v>0.025202</v>
+        <v>0.0251569</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218744</v>
+        <v>0.0219831</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0212267</v>
+        <v>0.0214054</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06461069999999999</v>
+        <v>0.0649873</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231811</v>
+        <v>0.0231957</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0253469</v>
+        <v>0.0254001</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221576</v>
+        <v>0.0220753</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215972</v>
+        <v>0.0215677</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0671175</v>
+        <v>0.06733310000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0235688</v>
+        <v>0.0235274</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256131</v>
+        <v>0.0256286</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223421</v>
+        <v>0.0223176</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0216304</v>
+        <v>0.0218605</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0699496</v>
+        <v>0.0699958</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0239409</v>
+        <v>0.0238728</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0258781</v>
+        <v>0.0259408</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226761</v>
+        <v>0.0226424</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0219144</v>
+        <v>0.0219355</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07280929999999999</v>
+        <v>0.0723916</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242547</v>
+        <v>0.0242289</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261597</v>
+        <v>0.0261777</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228732</v>
+        <v>0.0228739</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0223307</v>
+        <v>0.0223602</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0753356</v>
+        <v>0.0748785</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247383</v>
+        <v>0.0247199</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0266831</v>
+        <v>0.026641</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0232117</v>
+        <v>0.0231909</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0226524</v>
+        <v>0.0227596</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0780309</v>
+        <v>0.077639</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0255201</v>
+        <v>0.0254413</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272663</v>
+        <v>0.0272763</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0239347</v>
+        <v>0.0237455</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0233942</v>
+        <v>0.0233056</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08015750000000001</v>
+        <v>0.0801606</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0264949</v>
+        <v>0.0264317</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0282443</v>
+        <v>0.0281184</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025713</v>
+        <v>0.025067</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0246643</v>
+        <v>0.0242292</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0825174</v>
+        <v>0.0822635</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0280301</v>
+        <v>0.0279031</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0299574</v>
+        <v>0.0297265</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270799</v>
+        <v>0.0270231</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0264312</v>
+        <v>0.0259254</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0840793</v>
+        <v>0.0842296</v>
       </c>
       <c r="E49" t="n">
-        <v>0.030625</v>
+        <v>0.0305811</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0321575</v>
+        <v>0.0320869</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0298683</v>
+        <v>0.0296692</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0290301</v>
+        <v>0.028526</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0578376</v>
+        <v>0.0574737</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0344834</v>
+        <v>0.0342981</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0359227</v>
+        <v>0.0359873</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0332643</v>
+        <v>0.0332441</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0329722</v>
+        <v>0.0326688</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0594435</v>
+        <v>0.059344</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0229644</v>
+        <v>0.0231041</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0250003</v>
+        <v>0.0249152</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0382627</v>
+        <v>0.0378439</v>
       </c>
       <c r="C52" t="n">
-        <v>0.038371</v>
+        <v>0.0378474</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0613575</v>
+        <v>0.0615255</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0231919</v>
+        <v>0.0231944</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0251596</v>
+        <v>0.025186</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.023376</v>
+        <v>0.0230554</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219202</v>
+        <v>0.0219443</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0634429</v>
+        <v>0.063739</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234633</v>
+        <v>0.0234374</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0253632</v>
+        <v>0.025304</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0233862</v>
+        <v>0.0232963</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0220996</v>
+        <v>0.0221673</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0655454</v>
+        <v>0.06576990000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.023756</v>
+        <v>0.0237849</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0256177</v>
+        <v>0.0256737</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234516</v>
+        <v>0.0234948</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022241</v>
+        <v>0.0223131</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06820950000000001</v>
+        <v>0.0683077</v>
       </c>
       <c r="E55" t="n">
-        <v>0.024002</v>
+        <v>0.0240387</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0260456</v>
+        <v>0.0259158</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237086</v>
+        <v>0.0235702</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0224808</v>
+        <v>0.0224815</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0705921</v>
+        <v>0.07054920000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243721</v>
+        <v>0.0243613</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261354</v>
+        <v>0.0261049</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0240021</v>
+        <v>0.0239213</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0226933</v>
+        <v>0.0228175</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0737414</v>
+        <v>0.07330109999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0248007</v>
+        <v>0.0248621</v>
       </c>
       <c r="F57" t="n">
-        <v>0.026512</v>
+        <v>0.0265169</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0244632</v>
+        <v>0.0242968</v>
       </c>
       <c r="C58" t="n">
-        <v>0.023147</v>
+        <v>0.0230912</v>
       </c>
       <c r="D58" t="n">
-        <v>0.076196</v>
+        <v>0.07606549999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0252895</v>
+        <v>0.0253304</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0270285</v>
+        <v>0.026975</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.024777</v>
+        <v>0.0246238</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0236583</v>
+        <v>0.0235532</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0787017</v>
+        <v>0.0785764</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0259516</v>
+        <v>0.0259347</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276954</v>
+        <v>0.0276726</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0253252</v>
+        <v>0.0250154</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0241021</v>
+        <v>0.0242043</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08171059999999999</v>
+        <v>0.0808083</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0268299</v>
+        <v>0.0267733</v>
       </c>
       <c r="F60" t="n">
-        <v>0.028346</v>
+        <v>0.0283727</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0262127</v>
+        <v>0.0261856</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0251702</v>
+        <v>0.0252144</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837302</v>
+        <v>0.0839202</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0279139</v>
+        <v>0.028022</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0296383</v>
+        <v>0.0295077</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0275722</v>
+        <v>0.0274898</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0263024</v>
+        <v>0.026281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086447</v>
+        <v>0.0863068</v>
       </c>
       <c r="E62" t="n">
-        <v>0.029725</v>
+        <v>0.0297805</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0313602</v>
+        <v>0.0312472</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0296294</v>
+        <v>0.0292604</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0281961</v>
+        <v>0.02822</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0884556</v>
+        <v>0.088352</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0321024</v>
+        <v>0.0320777</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0336924</v>
+        <v>0.0338059</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0323637</v>
+        <v>0.031829</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0311656</v>
+        <v>0.0310175</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0632273</v>
+        <v>0.0644339</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0355887</v>
+        <v>0.0355311</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0374407</v>
+        <v>0.0372792</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.035763</v>
+        <v>0.0357055</v>
       </c>
       <c r="C65" t="n">
-        <v>0.035165</v>
+        <v>0.0348464</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0665869</v>
+        <v>0.0670563</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0410133</v>
+        <v>0.0410571</v>
       </c>
       <c r="F65" t="n">
-        <v>0.042854</v>
+        <v>0.0427793</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0410071</v>
+        <v>0.0406137</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0404243</v>
+        <v>0.0400149</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0693004</v>
+        <v>0.06842040000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0251325</v>
+        <v>0.0249974</v>
       </c>
       <c r="F66" t="n">
-        <v>0.026662</v>
+        <v>0.0266189</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0296415</v>
+        <v>0.029471</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0250135</v>
+        <v>0.0245903</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0723758</v>
+        <v>0.0716961</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0252707</v>
+        <v>0.0252341</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0270437</v>
+        <v>0.0271625</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0296182</v>
+        <v>0.0295032</v>
       </c>
       <c r="C68" t="n">
-        <v>0.024764</v>
+        <v>0.0252331</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07460319999999999</v>
+        <v>0.07535500000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0255287</v>
+        <v>0.0252395</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0272624</v>
+        <v>0.0270278</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.029671</v>
+        <v>0.0297078</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0253305</v>
+        <v>0.0253476</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0784357</v>
+        <v>0.0781177</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0258819</v>
+        <v>0.0261357</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0276069</v>
+        <v>0.0274097</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0299226</v>
+        <v>0.0299972</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0256244</v>
+        <v>0.0251734</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0820217</v>
+        <v>0.08147600000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0262333</v>
+        <v>0.026627</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0279474</v>
+        <v>0.0278454</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0302333</v>
+        <v>0.0300695</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0257198</v>
+        <v>0.0260421</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0859171</v>
+        <v>0.0863008</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0264132</v>
+        <v>0.0268003</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0282301</v>
+        <v>0.0281348</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304387</v>
+        <v>0.0303056</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0266683</v>
+        <v>0.0261027</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0899228</v>
+        <v>0.0900562</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0270807</v>
+        <v>0.0273121</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0288541</v>
+        <v>0.0286234</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0307984</v>
+        <v>0.0306987</v>
       </c>
       <c r="C73" t="n">
-        <v>0.026978</v>
+        <v>0.0266319</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0944651</v>
+        <v>0.0944802</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0277807</v>
+        <v>0.0276601</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0294396</v>
+        <v>0.0293214</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0313633</v>
+        <v>0.0312935</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0275904</v>
+        <v>0.0272856</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0975321</v>
+        <v>0.0989067</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0283821</v>
+        <v>0.0284073</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0302336</v>
+        <v>0.0302184</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0324952</v>
+        <v>0.0321316</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0287284</v>
+        <v>0.0287577</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101935</v>
+        <v>0.103504</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0298292</v>
+        <v>0.0301309</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0314833</v>
+        <v>0.0316825</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0336131</v>
+        <v>0.0335336</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0299448</v>
+        <v>0.0301894</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107117</v>
+        <v>0.1074</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0314692</v>
+        <v>0.0314592</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0332519</v>
+        <v>0.033134</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0352722</v>
+        <v>0.035324</v>
       </c>
       <c r="C77" t="n">
-        <v>0.032467</v>
+        <v>0.0319301</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113211</v>
+        <v>0.11189</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0333562</v>
+        <v>0.0339872</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0355653</v>
+        <v>0.0356613</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0379539</v>
+        <v>0.0377176</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0350742</v>
+        <v>0.0346832</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0975351</v>
+        <v>0.09715</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0364379</v>
+        <v>0.0368437</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0391816</v>
+        <v>0.0390055</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0412628</v>
+        <v>0.0411567</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0387075</v>
+        <v>0.0385917</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101844</v>
+        <v>0.101322</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0416509</v>
+        <v>0.0415928</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0442014</v>
+        <v>0.0440945</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0459095</v>
+        <v>0.0458344</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0440338</v>
+        <v>0.044213</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105787</v>
+        <v>0.105855</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362885</v>
+        <v>0.0364663</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0340507</v>
+        <v>0.0338954</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.055094</v>
+        <v>0.0555799</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0358549</v>
+        <v>0.0356262</v>
       </c>
       <c r="D81" t="n">
-        <v>0.114731</v>
+        <v>0.110853</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0369744</v>
+        <v>0.0370354</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0343746</v>
+        <v>0.0342391</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0558679</v>
+        <v>0.0555576</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0359603</v>
+        <v>0.0360551</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115888</v>
+        <v>0.115316</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0377672</v>
+        <v>0.0378099</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0348598</v>
+        <v>0.0347797</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0553193</v>
+        <v>0.0557466</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0363639</v>
+        <v>0.0363725</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120485</v>
+        <v>0.120178</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0386016</v>
+        <v>0.0385532</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0353316</v>
+        <v>0.0352118</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0558434</v>
+        <v>0.0582055</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0366315</v>
+        <v>0.0367368</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127408</v>
+        <v>0.125438</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0391935</v>
+        <v>0.0392588</v>
       </c>
       <c r="F84" t="n">
-        <v>0.035899</v>
+        <v>0.0357073</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559024</v>
+        <v>0.0560798</v>
       </c>
       <c r="C85" t="n">
-        <v>0.036985</v>
+        <v>0.0369749</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130941</v>
+        <v>0.130919</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0399682</v>
+        <v>0.0399278</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0362724</v>
+        <v>0.0362421</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0561313</v>
+        <v>0.0563283</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0374769</v>
+        <v>0.0376971</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136131</v>
+        <v>0.136541</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0408565</v>
+        <v>0.0407412</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0370932</v>
+        <v>0.0370654</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0565055</v>
+        <v>0.0565784</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0380599</v>
+        <v>0.0381432</v>
       </c>
       <c r="D87" t="n">
-        <v>0.143583</v>
+        <v>0.142168</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0417207</v>
+        <v>0.041701</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0379461</v>
+        <v>0.0380314</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0569163</v>
+        <v>0.0567453</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0388812</v>
+        <v>0.0388631</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148483</v>
+        <v>0.148846</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0426189</v>
+        <v>0.0426602</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0390122</v>
+        <v>0.039122</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0574846</v>
+        <v>0.0573157</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0399494</v>
+        <v>0.0398705</v>
       </c>
       <c r="D89" t="n">
-        <v>0.15431</v>
+        <v>0.154498</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0435012</v>
+        <v>0.0437215</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0404352</v>
+        <v>0.0404906</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0581785</v>
+        <v>0.0580609</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0413558</v>
+        <v>0.0412121</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160437</v>
+        <v>0.160222</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0449728</v>
+        <v>0.0451524</v>
       </c>
       <c r="F90" t="n">
-        <v>0.042379</v>
+        <v>0.0423647</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0620287</v>
+        <v>0.0592961</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0431785</v>
+        <v>0.0433207</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166027</v>
+        <v>0.166046</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0467796</v>
+        <v>0.0469514</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0448361</v>
+        <v>0.0449468</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0609023</v>
+        <v>0.0625092</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0462663</v>
+        <v>0.0462909</v>
       </c>
       <c r="D92" t="n">
-        <v>0.14564</v>
+        <v>0.145196</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0492794</v>
+        <v>0.0495691</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0482959</v>
+        <v>0.0483391</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0633336</v>
+        <v>0.0635252</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0500341</v>
+        <v>0.0503342</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149393</v>
+        <v>0.148704</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0535675</v>
+        <v>0.0538529</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0537233</v>
+        <v>0.0538319</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06722210000000001</v>
+        <v>0.0674845</v>
       </c>
       <c r="C94" t="n">
-        <v>0.055782</v>
+        <v>0.055898</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152226</v>
+        <v>0.152212</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0712407</v>
+        <v>0.0712166</v>
       </c>
       <c r="F94" t="n">
-        <v>0.067763</v>
+        <v>0.0675278</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0856838</v>
+        <v>0.0858635</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0699279</v>
+        <v>0.07237730000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156376</v>
+        <v>0.156848</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0716951</v>
+        <v>0.07166980000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0682633</v>
+        <v>0.0678626</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.09380960000000001</v>
+        <v>0.0858466</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07026200000000001</v>
+        <v>0.0725039</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160704</v>
+        <v>0.160994</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0721367</v>
+        <v>0.0722246</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0686793</v>
+        <v>0.0683686</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0859101</v>
+        <v>0.08594830000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07042370000000001</v>
+        <v>0.0725155</v>
       </c>
       <c r="D97" t="n">
-        <v>0.166384</v>
+        <v>0.165697</v>
       </c>
       <c r="E97" t="n">
-        <v>0.072695</v>
+        <v>0.07270119999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06920320000000001</v>
+        <v>0.06895560000000001</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0859466</v>
+        <v>0.0860737</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0705346</v>
+        <v>0.0726778</v>
       </c>
       <c r="D98" t="n">
-        <v>0.171071</v>
+        <v>0.170547</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0731676</v>
+        <v>0.0733443</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0696397</v>
+        <v>0.0694845</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0860799</v>
+        <v>0.08599519999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0709335</v>
+        <v>0.0729476</v>
       </c>
       <c r="D99" t="n">
-        <v>0.175695</v>
+        <v>0.176788</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0736995</v>
+        <v>0.0739445</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0703642</v>
+        <v>0.0701137</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0862807</v>
+        <v>0.08623550000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0713741</v>
+        <v>0.0736357</v>
       </c>
       <c r="D100" t="n">
-        <v>0.180995</v>
+        <v>0.184114</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0744924</v>
+        <v>0.07460410000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0710001</v>
+        <v>0.0707759</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864352</v>
+        <v>0.08644839999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07187399999999999</v>
+        <v>0.07392020000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187033</v>
+        <v>0.186699</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0750749</v>
+        <v>0.0753916</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0718744</v>
+        <v>0.0714465</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0867573</v>
+        <v>0.08668720000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07242030000000001</v>
+        <v>0.0746472</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192787</v>
+        <v>0.192517</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07597959999999999</v>
+        <v>0.07617309999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0727367</v>
+        <v>0.07251929999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0870527</v>
+        <v>0.0871318</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0734146</v>
+        <v>0.0817128</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198244</v>
+        <v>0.198674</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0770508</v>
+        <v>0.07721799999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0739576</v>
+        <v>0.07375669999999999</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08765530000000001</v>
+        <v>0.08768479999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.0766187</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204334</v>
+        <v>0.204578</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0782321</v>
+        <v>0.0785044</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07550220000000001</v>
+        <v>0.07528120000000001</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0885007</v>
+        <v>0.08846229999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0762587</v>
+        <v>0.07822369999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210446</v>
+        <v>0.210952</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07998280000000001</v>
+        <v>0.08011500000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0814807</v>
+        <v>0.07744189999999999</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.089945</v>
+        <v>0.08980399999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0786681</v>
+        <v>0.0804243</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217287</v>
+        <v>0.216782</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08234279999999999</v>
+        <v>0.0823446</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0807681</v>
+        <v>0.08055669999999999</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.09178070000000001</v>
+        <v>0.0917149</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0819603</v>
+        <v>0.0840158</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181918</v>
+        <v>0.183377</v>
       </c>
       <c r="E107" t="n">
-        <v>0.085997</v>
+        <v>0.0859188</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0855001</v>
+        <v>0.0853208</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0950097</v>
+        <v>0.0996243</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0866996</v>
+        <v>0.0889639</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185186</v>
+        <v>0.186529</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0888335</v>
+        <v>0.0887313</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0936647</v>
+        <v>0.09265180000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100929</v>
+        <v>0.100046</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0938566</v>
+        <v>0.0957566</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188771</v>
+        <v>0.18994</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0895077</v>
+        <v>0.0917091</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09406440000000001</v>
+        <v>0.09316000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107425</v>
+        <v>0.107675</v>
       </c>
       <c r="C110" t="n">
-        <v>0.101885</v>
+        <v>0.09821489999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.192911</v>
+        <v>0.194392</v>
       </c>
       <c r="E110" t="n">
-        <v>0.09036760000000001</v>
+        <v>0.0901898</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09463770000000001</v>
+        <v>0.0938741</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107535</v>
+        <v>0.107823</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0982415</v>
+        <v>0.09852130000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.197479</v>
+        <v>0.197712</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09121899999999999</v>
+        <v>0.0911742</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0952727</v>
+        <v>0.0944344</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107492</v>
+        <v>0.107811</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0985287</v>
+        <v>0.0986046</v>
       </c>
       <c r="D112" t="n">
-        <v>0.202002</v>
+        <v>0.205568</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0921691</v>
+        <v>0.0921323</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0959499</v>
+        <v>0.0950638</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.107652</v>
+        <v>0.108055</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0987541</v>
+        <v>0.0988907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.20679</v>
+        <v>0.208002</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0930412</v>
+        <v>0.09312280000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.09657640000000001</v>
+        <v>0.095739</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.107689</v>
+        <v>0.108159</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0990028</v>
+        <v>0.09905940000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212159</v>
+        <v>0.2133</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0941385</v>
+        <v>0.0941819</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09740070000000001</v>
+        <v>0.0965071</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107927</v>
+        <v>0.108329</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0996861</v>
+        <v>0.0997253</v>
       </c>
       <c r="D115" t="n">
-        <v>0.218126</v>
+        <v>0.219215</v>
       </c>
       <c r="E115" t="n">
-        <v>0.09517059999999999</v>
+        <v>0.0953483</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0984502</v>
+        <v>0.0976867</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108197</v>
+        <v>0.108613</v>
       </c>
       <c r="C116" t="n">
-        <v>0.100242</v>
+        <v>0.100272</v>
       </c>
       <c r="D116" t="n">
-        <v>0.223616</v>
+        <v>0.224911</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0964893</v>
+        <v>0.0966095</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0995583</v>
+        <v>0.09874960000000001</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108499</v>
+        <v>0.108984</v>
       </c>
       <c r="C117" t="n">
-        <v>0.100924</v>
+        <v>0.101006</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230044</v>
+        <v>0.230728</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0979107</v>
+        <v>0.09801609999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.115187</v>
+        <v>0.100115</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109112</v>
+        <v>0.109566</v>
       </c>
       <c r="C118" t="n">
-        <v>0.102006</v>
+        <v>0.101961</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235675</v>
+        <v>0.236894</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0994572</v>
+        <v>0.0997537</v>
       </c>
       <c r="F118" t="n">
-        <v>0.102635</v>
+        <v>0.101747</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.109904</v>
+        <v>0.110394</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103764</v>
+        <v>0.103627</v>
       </c>
       <c r="D119" t="n">
-        <v>0.241229</v>
+        <v>0.242167</v>
       </c>
       <c r="E119" t="n">
-        <v>0.101517</v>
+        <v>0.101834</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104945</v>
+        <v>0.104263</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111108</v>
+        <v>0.111699</v>
       </c>
       <c r="C120" t="n">
-        <v>0.10572</v>
+        <v>0.105671</v>
       </c>
       <c r="D120" t="n">
-        <v>0.247635</v>
+        <v>0.248862</v>
       </c>
       <c r="E120" t="n">
-        <v>0.104026</v>
+        <v>0.104486</v>
       </c>
       <c r="F120" t="n">
-        <v>0.115867</v>
+        <v>0.107353</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.112923</v>
+        <v>0.113593</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108602</v>
+        <v>0.108524</v>
       </c>
       <c r="D121" t="n">
-        <v>0.199177</v>
+        <v>0.200255</v>
       </c>
       <c r="E121" t="n">
-        <v>0.107922</v>
+        <v>0.108381</v>
       </c>
       <c r="F121" t="n">
-        <v>0.112637</v>
+        <v>0.112196</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.115894</v>
+        <v>0.116517</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113154</v>
+        <v>0.113084</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202647</v>
+        <v>0.203803</v>
       </c>
       <c r="E122" t="n">
-        <v>0.115607</v>
+        <v>0.114456</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119773</v>
+        <v>0.119501</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.120827</v>
+        <v>0.12096</v>
       </c>
       <c r="C123" t="n">
-        <v>0.12025</v>
+        <v>0.119865</v>
       </c>
       <c r="D123" t="n">
-        <v>0.205735</v>
+        <v>0.206567</v>
       </c>
       <c r="E123" t="n">
-        <v>0.106406</v>
+        <v>0.107152</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110665</v>
+        <v>0.110257</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134696</v>
+        <v>0.13612</v>
       </c>
       <c r="C124" t="n">
-        <v>0.129498</v>
+        <v>0.129436</v>
       </c>
       <c r="D124" t="n">
-        <v>0.209514</v>
+        <v>0.21131</v>
       </c>
       <c r="E124" t="n">
-        <v>0.10735</v>
+        <v>0.107326</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110309</v>
+        <v>0.110834</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135101</v>
+        <v>0.135415</v>
       </c>
       <c r="C125" t="n">
-        <v>0.131423</v>
+        <v>0.129512</v>
       </c>
       <c r="D125" t="n">
-        <v>0.213877</v>
+        <v>0.214931</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108429</v>
+        <v>0.108393</v>
       </c>
       <c r="F125" t="n">
-        <v>0.11127</v>
+        <v>0.111469</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134972</v>
+        <v>0.134815</v>
       </c>
       <c r="C126" t="n">
-        <v>0.129922</v>
+        <v>0.129676</v>
       </c>
       <c r="D126" t="n">
-        <v>0.219152</v>
+        <v>0.219134</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109641</v>
+        <v>0.109518</v>
       </c>
       <c r="F126" t="n">
-        <v>0.112012</v>
+        <v>0.112195</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.134918</v>
+        <v>0.135488</v>
       </c>
       <c r="C127" t="n">
-        <v>0.13008</v>
+        <v>0.129931</v>
       </c>
       <c r="D127" t="n">
-        <v>0.231633</v>
+        <v>0.226151</v>
       </c>
       <c r="E127" t="n">
-        <v>0.110709</v>
+        <v>0.110698</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113341</v>
+        <v>0.113184</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135001</v>
+        <v>0.135401</v>
       </c>
       <c r="C128" t="n">
-        <v>0.13042</v>
+        <v>0.130335</v>
       </c>
       <c r="D128" t="n">
-        <v>0.229055</v>
+        <v>0.23007</v>
       </c>
       <c r="E128" t="n">
-        <v>0.111953</v>
+        <v>0.111908</v>
       </c>
       <c r="F128" t="n">
-        <v>0.113685</v>
+        <v>0.114416</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.135403</v>
+        <v>0.13618</v>
       </c>
       <c r="C129" t="n">
-        <v>0.138097</v>
+        <v>0.13095</v>
       </c>
       <c r="D129" t="n">
-        <v>0.234697</v>
+        <v>0.235601</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113242</v>
+        <v>0.113296</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115074</v>
+        <v>0.115553</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.135636</v>
+        <v>0.136517</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131327</v>
+        <v>0.131606</v>
       </c>
       <c r="D130" t="n">
-        <v>0.240733</v>
+        <v>0.242259</v>
       </c>
       <c r="E130" t="n">
-        <v>0.114708</v>
+        <v>0.114823</v>
       </c>
       <c r="F130" t="n">
-        <v>0.116472</v>
+        <v>0.116967</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136004</v>
+        <v>0.1373</v>
       </c>
       <c r="C131" t="n">
-        <v>0.131974</v>
+        <v>0.132518</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250269</v>
+        <v>0.247059</v>
       </c>
       <c r="E131" t="n">
-        <v>0.116208</v>
+        <v>0.116486</v>
       </c>
       <c r="F131" t="n">
-        <v>0.118112</v>
+        <v>0.118742</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13637</v>
+        <v>0.137925</v>
       </c>
       <c r="C132" t="n">
-        <v>0.132909</v>
+        <v>0.133634</v>
       </c>
       <c r="D132" t="n">
-        <v>0.25243</v>
+        <v>0.25345</v>
       </c>
       <c r="E132" t="n">
-        <v>0.118164</v>
+        <v>0.118416</v>
       </c>
       <c r="F132" t="n">
-        <v>0.120063</v>
+        <v>0.12077</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137165</v>
+        <v>0.13869</v>
       </c>
       <c r="C133" t="n">
-        <v>0.134187</v>
+        <v>0.135041</v>
       </c>
       <c r="D133" t="n">
-        <v>0.258601</v>
+        <v>0.259425</v>
       </c>
       <c r="E133" t="n">
-        <v>0.120228</v>
+        <v>0.120501</v>
       </c>
       <c r="F133" t="n">
-        <v>0.122504</v>
+        <v>0.123285</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.138195</v>
+        <v>0.140411</v>
       </c>
       <c r="C134" t="n">
-        <v>0.136124</v>
+        <v>0.137115</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264555</v>
+        <v>0.265705</v>
       </c>
       <c r="E134" t="n">
-        <v>0.123197</v>
+        <v>0.123546</v>
       </c>
       <c r="F134" t="n">
-        <v>0.125976</v>
+        <v>0.12682</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.140824</v>
+        <v>0.141828</v>
       </c>
       <c r="C135" t="n">
-        <v>0.138955</v>
+        <v>0.141617</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209652</v>
+        <v>0.209136</v>
       </c>
       <c r="E135" t="n">
-        <v>0.127168</v>
+        <v>0.129345</v>
       </c>
       <c r="F135" t="n">
-        <v>0.130668</v>
+        <v>0.131992</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.142504</v>
+        <v>0.144606</v>
       </c>
       <c r="C136" t="n">
-        <v>0.143044</v>
+        <v>0.144073</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211642</v>
+        <v>0.211754</v>
       </c>
       <c r="E136" t="n">
-        <v>0.139293</v>
+        <v>0.134882</v>
       </c>
       <c r="F136" t="n">
-        <v>0.138339</v>
+        <v>0.139343</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.146915</v>
+        <v>0.148458</v>
       </c>
       <c r="C137" t="n">
-        <v>0.149451</v>
+        <v>0.149977</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215138</v>
+        <v>0.215637</v>
       </c>
       <c r="E137" t="n">
-        <v>0.119447</v>
+        <v>0.119206</v>
       </c>
       <c r="F137" t="n">
-        <v>0.122405</v>
+        <v>0.12345</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.158147</v>
+        <v>0.157731</v>
       </c>
       <c r="C138" t="n">
-        <v>0.160487</v>
+        <v>0.152023</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219107</v>
+        <v>0.219571</v>
       </c>
       <c r="E138" t="n">
-        <v>0.120409</v>
+        <v>0.120121</v>
       </c>
       <c r="F138" t="n">
-        <v>0.124304</v>
+        <v>0.124234</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.158131</v>
+        <v>0.157974</v>
       </c>
       <c r="C139" t="n">
-        <v>0.151034</v>
+        <v>0.152231</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223522</v>
+        <v>0.22437</v>
       </c>
       <c r="E139" t="n">
-        <v>0.121372</v>
+        <v>0.121136</v>
       </c>
       <c r="F139" t="n">
-        <v>0.124224</v>
+        <v>0.125161</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.167806</v>
+        <v>0.158067</v>
       </c>
       <c r="C140" t="n">
-        <v>0.151621</v>
+        <v>0.1525</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228687</v>
+        <v>0.228721</v>
       </c>
       <c r="E140" t="n">
-        <v>0.122565</v>
+        <v>0.122351</v>
       </c>
       <c r="F140" t="n">
-        <v>0.124955</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158273</v>
+        <v>0.158085</v>
       </c>
       <c r="C141" t="n">
-        <v>0.151894</v>
+        <v>0.152891</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234175</v>
+        <v>0.234299</v>
       </c>
       <c r="E141" t="n">
-        <v>0.123674</v>
+        <v>0.12344</v>
       </c>
       <c r="F141" t="n">
-        <v>0.126027</v>
+        <v>0.127109</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.158409</v>
+        <v>0.1584</v>
       </c>
       <c r="C142" t="n">
-        <v>0.152361</v>
+        <v>0.153453</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239578</v>
+        <v>0.239614</v>
       </c>
       <c r="E142" t="n">
-        <v>0.124869</v>
+        <v>0.124663</v>
       </c>
       <c r="F142" t="n">
-        <v>0.127228</v>
+        <v>0.128216</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.160652</v>
+        <v>0.15846</v>
       </c>
       <c r="C143" t="n">
-        <v>0.152896</v>
+        <v>0.15385</v>
       </c>
       <c r="D143" t="n">
-        <v>0.245658</v>
+        <v>0.245797</v>
       </c>
       <c r="E143" t="n">
-        <v>0.126156</v>
+        <v>0.125993</v>
       </c>
       <c r="F143" t="n">
-        <v>0.128446</v>
+        <v>0.129544</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered successful looukp.xlsx
+++ b/clang-arm64/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0193542</v>
+        <v>0.0195903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0174547</v>
+        <v>0.0175915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.034219</v>
+        <v>0.0343379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0197684</v>
+        <v>0.0197704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0207807</v>
+        <v>0.0207481</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.019348</v>
+        <v>0.0196168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0176165</v>
+        <v>0.0177828</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0378207</v>
+        <v>0.0375021</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0199672</v>
+        <v>0.0200931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0209823</v>
+        <v>0.0209221</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0194922</v>
+        <v>0.0195469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0176326</v>
+        <v>0.0178899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.043512</v>
+        <v>0.0435569</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200537</v>
+        <v>0.0200994</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0210049</v>
+        <v>0.0211189</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0194642</v>
+        <v>0.0196314</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0174768</v>
+        <v>0.0178679</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0472241</v>
+        <v>0.0469411</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0203276</v>
+        <v>0.0201514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0214284</v>
+        <v>0.0212362</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0195391</v>
+        <v>0.0197999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0178545</v>
+        <v>0.0181327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0504343</v>
+        <v>0.0544399</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0203314</v>
+        <v>0.0204246</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0213064</v>
+        <v>0.0212583</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0196493</v>
+        <v>0.0197452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.017935</v>
+        <v>0.0180018</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0305844</v>
+        <v>0.0305809</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0206426</v>
+        <v>0.0206497</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0213548</v>
+        <v>0.0213989</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.019864</v>
+        <v>0.019806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0183439</v>
+        <v>0.0179536</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0323854</v>
+        <v>0.0320108</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0213071</v>
+        <v>0.0212512</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0222431</v>
+        <v>0.0220679</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.020015</v>
+        <v>0.0200255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0188388</v>
+        <v>0.0184778</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0353693</v>
+        <v>0.0342559</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0194558</v>
+        <v>0.0194089</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0217044</v>
+        <v>0.0215908</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0194569</v>
+        <v>0.0192151</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0182495</v>
+        <v>0.0179428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.036202</v>
+        <v>0.0366247</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0196917</v>
+        <v>0.0198352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0219015</v>
+        <v>0.0217406</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0195124</v>
+        <v>0.0193726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0183609</v>
+        <v>0.0180122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0398576</v>
+        <v>0.0408058</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0199137</v>
+        <v>0.0199161</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0220309</v>
+        <v>0.022004</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0196897</v>
+        <v>0.0193463</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0186604</v>
+        <v>0.0183327</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0441674</v>
+        <v>0.0440086</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0201056</v>
+        <v>0.0199799</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0221442</v>
+        <v>0.0220982</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0198167</v>
+        <v>0.0195755</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0186589</v>
+        <v>0.0184125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0475108</v>
+        <v>0.0481324</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0200867</v>
+        <v>0.0204295</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0222832</v>
+        <v>0.0222388</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0199749</v>
+        <v>0.0198392</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0188897</v>
+        <v>0.0184028</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0495125</v>
+        <v>0.0495571</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0207384</v>
+        <v>0.020589</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0225671</v>
+        <v>0.0226379</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199745</v>
+        <v>0.0199616</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0187742</v>
+        <v>0.0187699</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0528077</v>
+        <v>0.0530343</v>
       </c>
       <c r="E15" t="n">
-        <v>0.020914</v>
+        <v>0.0209323</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0228357</v>
+        <v>0.0227934</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200843</v>
+        <v>0.0200312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0190058</v>
+        <v>0.0186866</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0568517</v>
+        <v>0.056958</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0209347</v>
+        <v>0.0209076</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0229495</v>
+        <v>0.0229077</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0202962</v>
+        <v>0.0201521</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0191147</v>
+        <v>0.0187242</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0609217</v>
+        <v>0.0620127</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0212041</v>
+        <v>0.0212516</v>
       </c>
       <c r="F17" t="n">
-        <v>0.023229</v>
+        <v>0.0230847</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0202804</v>
+        <v>0.0202915</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0191614</v>
+        <v>0.0193865</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0635416</v>
+        <v>0.0647684</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0217462</v>
+        <v>0.0214528</v>
       </c>
       <c r="F18" t="n">
-        <v>0.023225</v>
+        <v>0.0233261</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0204166</v>
+        <v>0.0204225</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0192422</v>
+        <v>0.0190475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0669988</v>
+        <v>0.06641809999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0217293</v>
+        <v>0.0218431</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0234664</v>
+        <v>0.0235177</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0205688</v>
+        <v>0.0204705</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0194198</v>
+        <v>0.0192849</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06991029999999999</v>
+        <v>0.0693513</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0223272</v>
+        <v>0.0220145</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238595</v>
+        <v>0.0238139</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0205643</v>
+        <v>0.0206134</v>
       </c>
       <c r="C21" t="n">
-        <v>0.019737</v>
+        <v>0.0194476</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0443418</v>
+        <v>0.044914</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0233129</v>
+        <v>0.0231749</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0247939</v>
+        <v>0.024599</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0211837</v>
+        <v>0.0210247</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0202182</v>
+        <v>0.0204227</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0467893</v>
+        <v>0.0461181</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0275368</v>
+        <v>0.0261853</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02922</v>
+        <v>0.0305831</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0287207</v>
+        <v>0.0255182</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0248837</v>
+        <v>0.0257851</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0523163</v>
+        <v>0.0533683</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0209742</v>
+        <v>0.020964</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0233312</v>
+        <v>0.0233959</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0205373</v>
+        <v>0.0203313</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0195027</v>
+        <v>0.0195207</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0545264</v>
+        <v>0.0550265</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0212051</v>
+        <v>0.0211086</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234315</v>
+        <v>0.0236308</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0205935</v>
+        <v>0.0204086</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0196171</v>
+        <v>0.0195927</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0566843</v>
+        <v>0.056652</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0213628</v>
+        <v>0.0213206</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0236709</v>
+        <v>0.0237062</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0206128</v>
+        <v>0.0204201</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0197572</v>
+        <v>0.0196371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0584801</v>
+        <v>0.05914</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0215658</v>
+        <v>0.0215336</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0237769</v>
+        <v>0.023843</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0208761</v>
+        <v>0.0206157</v>
       </c>
       <c r="C27" t="n">
-        <v>0.019891</v>
+        <v>0.0198474</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0615333</v>
+        <v>0.0621935</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0218191</v>
+        <v>0.0218227</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0239806</v>
+        <v>0.0239566</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0210563</v>
+        <v>0.0207994</v>
       </c>
       <c r="C28" t="n">
-        <v>0.020121</v>
+        <v>0.0200337</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06451900000000001</v>
+        <v>0.0646601</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0221533</v>
+        <v>0.0221239</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0242556</v>
+        <v>0.0242481</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0211183</v>
+        <v>0.0210433</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0202855</v>
+        <v>0.0202564</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0664226</v>
+        <v>0.0671935</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0224561</v>
+        <v>0.0224333</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0245767</v>
+        <v>0.0245787</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0214162</v>
+        <v>0.0211942</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0205529</v>
+        <v>0.0205217</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0689439</v>
+        <v>0.0691505</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0226977</v>
+        <v>0.0227431</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0247812</v>
+        <v>0.0247764</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0215481</v>
+        <v>0.021417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0206875</v>
+        <v>0.0207263</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0723779</v>
+        <v>0.0713666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0230982</v>
+        <v>0.0230863</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0251644</v>
+        <v>0.0250806</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0217662</v>
+        <v>0.0216236</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0210185</v>
+        <v>0.0208467</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0744797</v>
+        <v>0.0749517</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0235976</v>
+        <v>0.0236233</v>
       </c>
       <c r="F32" t="n">
-        <v>0.025655</v>
+        <v>0.0256772</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0221437</v>
+        <v>0.021821</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02141</v>
+        <v>0.0212279</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0773037</v>
+        <v>0.0769382</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0242514</v>
+        <v>0.0242059</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0261336</v>
+        <v>0.0261852</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0227134</v>
+        <v>0.0222236</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0221435</v>
+        <v>0.0219719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07975889999999999</v>
+        <v>0.0794499</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0255508</v>
+        <v>0.0255289</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02727</v>
+        <v>0.0276035</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0248532</v>
+        <v>0.0239615</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0238347</v>
+        <v>0.023515</v>
       </c>
       <c r="D35" t="n">
-        <v>0.052259</v>
+        <v>0.0523996</v>
       </c>
       <c r="E35" t="n">
-        <v>0.027521</v>
+        <v>0.0280759</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0295257</v>
+        <v>0.0295387</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0288174</v>
+        <v>0.028074</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0266486</v>
+        <v>0.0259189</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0545204</v>
+        <v>0.0542227</v>
       </c>
       <c r="E36" t="n">
-        <v>0.032056</v>
+        <v>0.0327608</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0338389</v>
+        <v>0.0335107</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0332443</v>
+        <v>0.0303026</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0329135</v>
+        <v>0.0297941</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0569186</v>
+        <v>0.0564685</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0221582</v>
+        <v>0.0221637</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02461</v>
+        <v>0.024583</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0215195</v>
+        <v>0.0215187</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0208466</v>
+        <v>0.0209025</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0581991</v>
+        <v>0.0582079</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0223705</v>
+        <v>0.0223959</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0247441</v>
+        <v>0.0247098</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0216536</v>
+        <v>0.0216573</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0210286</v>
+        <v>0.0209894</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0604806</v>
+        <v>0.0605269</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0225938</v>
+        <v>0.0226201</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0248851</v>
+        <v>0.02501</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0217076</v>
+        <v>0.0217822</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0212482</v>
+        <v>0.0211793</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06271160000000001</v>
+        <v>0.0625839</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0229765</v>
+        <v>0.0229441</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0251569</v>
+        <v>0.0252013</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0219831</v>
+        <v>0.0219025</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0214054</v>
+        <v>0.0214952</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0649873</v>
+        <v>0.0647553</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0231957</v>
+        <v>0.0231842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0254001</v>
+        <v>0.0253604</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220753</v>
+        <v>0.0219857</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0215677</v>
+        <v>0.0216039</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06733310000000001</v>
+        <v>0.0674823</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0235274</v>
+        <v>0.0235313</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0256286</v>
+        <v>0.0256069</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0223176</v>
+        <v>0.0222801</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0218605</v>
+        <v>0.0218024</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0699958</v>
+        <v>0.07049809999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0238728</v>
+        <v>0.0238899</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0259408</v>
+        <v>0.0258427</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0226424</v>
+        <v>0.0225598</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0219355</v>
+        <v>0.0220528</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0723916</v>
+        <v>0.0727338</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0242289</v>
+        <v>0.0242392</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0261777</v>
+        <v>0.0261846</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0228739</v>
+        <v>0.0229658</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0223602</v>
+        <v>0.0224778</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0748785</v>
+        <v>0.07490819999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0247199</v>
+        <v>0.0247766</v>
       </c>
       <c r="F45" t="n">
-        <v>0.026641</v>
+        <v>0.0266868</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0231909</v>
+        <v>0.0232747</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0227596</v>
+        <v>0.0228623</v>
       </c>
       <c r="D46" t="n">
-        <v>0.077639</v>
+        <v>0.0775757</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0254413</v>
+        <v>0.0256129</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0272763</v>
+        <v>0.027288</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0237455</v>
+        <v>0.0237634</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0233056</v>
+        <v>0.0236627</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0801606</v>
+        <v>0.0797566</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0264317</v>
+        <v>0.0264357</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0281184</v>
+        <v>0.0283281</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.025067</v>
+        <v>0.0252423</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0242292</v>
+        <v>0.024505</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0822635</v>
+        <v>0.0824506</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0279031</v>
+        <v>0.0280717</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0297265</v>
+        <v>0.0297123</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0270231</v>
+        <v>0.0266021</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0259254</v>
+        <v>0.0261148</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0842296</v>
+        <v>0.084315</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0305811</v>
+        <v>0.0306175</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0320869</v>
+        <v>0.0320999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0296692</v>
+        <v>0.0297519</v>
       </c>
       <c r="C50" t="n">
-        <v>0.028526</v>
+        <v>0.0287458</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0574737</v>
+        <v>0.0575841</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0342981</v>
+        <v>0.0345892</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0359873</v>
+        <v>0.0361673</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0332441</v>
+        <v>0.0337213</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0326688</v>
+        <v>0.0328577</v>
       </c>
       <c r="D51" t="n">
-        <v>0.059344</v>
+        <v>0.0590907</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0231041</v>
+        <v>0.0230149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0249152</v>
+        <v>0.0250121</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0378439</v>
+        <v>0.0386174</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0378474</v>
+        <v>0.0384211</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0615255</v>
+        <v>0.0614067</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0231944</v>
+        <v>0.0231641</v>
       </c>
       <c r="F52" t="n">
-        <v>0.025186</v>
+        <v>0.0250817</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0230554</v>
+        <v>0.0231727</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0219443</v>
+        <v>0.0220448</v>
       </c>
       <c r="D53" t="n">
-        <v>0.063739</v>
+        <v>0.0638606</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0234374</v>
+        <v>0.0234601</v>
       </c>
       <c r="F53" t="n">
-        <v>0.025304</v>
+        <v>0.0253807</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0232963</v>
+        <v>0.0232999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0221673</v>
+        <v>0.0220788</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06576990000000001</v>
+        <v>0.06536930000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0237849</v>
+        <v>0.0237345</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0256737</v>
+        <v>0.0255549</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0234948</v>
+        <v>0.0233281</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0223131</v>
+        <v>0.022255</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0683077</v>
+        <v>0.0679776</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0240387</v>
+        <v>0.0240205</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0259158</v>
+        <v>0.0258502</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235702</v>
+        <v>0.0235422</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0224815</v>
+        <v>0.0224812</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07054920000000001</v>
+        <v>0.0703951</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0243613</v>
+        <v>0.0243752</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0261049</v>
+        <v>0.026058</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0239213</v>
+        <v>0.0239325</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0228175</v>
+        <v>0.0228082</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07330109999999999</v>
+        <v>0.07295219999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0248621</v>
+        <v>0.0247566</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0265169</v>
+        <v>0.0265042</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0242968</v>
+        <v>0.0241197</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0230912</v>
+        <v>0.023004</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07606549999999999</v>
+        <v>0.0754847</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0253304</v>
+        <v>0.0253395</v>
       </c>
       <c r="F58" t="n">
-        <v>0.026975</v>
+        <v>0.026949</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0246238</v>
+        <v>0.0246869</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0235532</v>
+        <v>0.0234952</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0785764</v>
+        <v>0.07839749999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0259347</v>
+        <v>0.025959</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0276726</v>
+        <v>0.0276161</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0250154</v>
+        <v>0.0252637</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0242043</v>
+        <v>0.0241684</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0808083</v>
+        <v>0.0816347</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0267733</v>
+        <v>0.0267671</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0283727</v>
+        <v>0.0283549</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0261856</v>
+        <v>0.0262685</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0252144</v>
+        <v>0.0248439</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0839202</v>
+        <v>0.0842272</v>
       </c>
       <c r="E61" t="n">
-        <v>0.028022</v>
+        <v>0.0279637</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0295077</v>
+        <v>0.0297124</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0274898</v>
+        <v>0.0273612</v>
       </c>
       <c r="C62" t="n">
-        <v>0.026281</v>
+        <v>0.0263303</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0863068</v>
+        <v>0.0870185</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0297805</v>
+        <v>0.0296895</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0312472</v>
+        <v>0.0313037</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0292604</v>
+        <v>0.0294133</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02822</v>
+        <v>0.0281021</v>
       </c>
       <c r="D63" t="n">
-        <v>0.088352</v>
+        <v>0.0896585</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0320777</v>
+        <v>0.0320214</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0338059</v>
+        <v>0.0335489</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.031829</v>
+        <v>0.0318929</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0310175</v>
+        <v>0.0308924</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0644339</v>
+        <v>0.0658604</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0355311</v>
+        <v>0.0354475</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0372792</v>
+        <v>0.0372206</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0357055</v>
+        <v>0.0359021</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0348464</v>
+        <v>0.0346856</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0670563</v>
+        <v>0.0676636</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0410571</v>
+        <v>0.0410446</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0427793</v>
+        <v>0.0428093</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0406137</v>
+        <v>0.0409142</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0400149</v>
+        <v>0.0403925</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06842040000000001</v>
+        <v>0.07121619999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0249974</v>
+        <v>0.0250341</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0266189</v>
+        <v>0.0266207</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.029471</v>
+        <v>0.028043</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0245903</v>
+        <v>0.0247844</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0716961</v>
+        <v>0.07299369999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0252341</v>
+        <v>0.0258909</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0271625</v>
+        <v>0.0267919</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0295032</v>
+        <v>0.0281643</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0252331</v>
+        <v>0.0249793</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07535500000000001</v>
+        <v>0.0754042</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0252395</v>
+        <v>0.025301</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0270278</v>
+        <v>0.0269239</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0297078</v>
+        <v>0.0283844</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0253476</v>
+        <v>0.0253871</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0781177</v>
+        <v>0.0790979</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0261357</v>
+        <v>0.0261005</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0274097</v>
+        <v>0.0274411</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0299972</v>
+        <v>0.0283286</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0251734</v>
+        <v>0.0254576</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08147600000000001</v>
+        <v>0.0826107</v>
       </c>
       <c r="E70" t="n">
-        <v>0.026627</v>
+        <v>0.0264767</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0278454</v>
+        <v>0.0276956</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0300695</v>
+        <v>0.0285801</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0260421</v>
+        <v>0.0259212</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0863008</v>
+        <v>0.0864153</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0268003</v>
+        <v>0.0266921</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0281348</v>
+        <v>0.0282073</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303056</v>
+        <v>0.0289896</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0261027</v>
+        <v>0.0263626</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0900562</v>
+        <v>0.0909953</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0273121</v>
+        <v>0.0271813</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0286234</v>
+        <v>0.0288501</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0306987</v>
+        <v>0.0292269</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0266319</v>
+        <v>0.026673</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0944802</v>
+        <v>0.09533519999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0276601</v>
+        <v>0.0276708</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0293214</v>
+        <v>0.0293303</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0312935</v>
+        <v>0.0298528</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0272856</v>
+        <v>0.0278077</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0989067</v>
+        <v>0.102089</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0284073</v>
+        <v>0.0287639</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0302184</v>
+        <v>0.0302764</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0321316</v>
+        <v>0.0307717</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0287577</v>
+        <v>0.0288011</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103504</v>
+        <v>0.104381</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0301309</v>
+        <v>0.0299725</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0316825</v>
+        <v>0.0315482</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0335336</v>
+        <v>0.0322555</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0301894</v>
+        <v>0.0302787</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1074</v>
+        <v>0.10747</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0314592</v>
+        <v>0.0314783</v>
       </c>
       <c r="F76" t="n">
-        <v>0.033134</v>
+        <v>0.0332803</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.035324</v>
+        <v>0.0338068</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0319301</v>
+        <v>0.0322309</v>
       </c>
       <c r="D77" t="n">
-        <v>0.11189</v>
+        <v>0.112736</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0339872</v>
+        <v>0.0334848</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0356613</v>
+        <v>0.0356213</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0377176</v>
+        <v>0.0363196</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0346832</v>
+        <v>0.0352011</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09715</v>
+        <v>0.0970837</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0368437</v>
+        <v>0.0368384</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0390055</v>
+        <v>0.039166</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0411567</v>
+        <v>0.0398275</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0385917</v>
+        <v>0.03862</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101322</v>
+        <v>0.101398</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0415928</v>
+        <v>0.0418381</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0440945</v>
+        <v>0.0441636</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0458344</v>
+        <v>0.0445734</v>
       </c>
       <c r="C80" t="n">
-        <v>0.044213</v>
+        <v>0.0443011</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105855</v>
+        <v>0.106183</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0364663</v>
+        <v>0.0355946</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0338954</v>
+        <v>0.0330684</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0555799</v>
+        <v>0.0554169</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0356262</v>
+        <v>0.0354858</v>
       </c>
       <c r="D81" t="n">
-        <v>0.110853</v>
+        <v>0.11066</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0370354</v>
+        <v>0.0362948</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0342391</v>
+        <v>0.0334792</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0555576</v>
+        <v>0.0555096</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0360551</v>
+        <v>0.0354833</v>
       </c>
       <c r="D82" t="n">
-        <v>0.115316</v>
+        <v>0.116019</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0378099</v>
+        <v>0.0371583</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0347797</v>
+        <v>0.0338393</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0557466</v>
+        <v>0.0556917</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0363725</v>
+        <v>0.0356689</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120178</v>
+        <v>0.120028</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0385532</v>
+        <v>0.0378352</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0352118</v>
+        <v>0.0343348</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0582055</v>
+        <v>0.055929</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0367368</v>
+        <v>0.0360572</v>
       </c>
       <c r="D84" t="n">
-        <v>0.125438</v>
+        <v>0.124975</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0392588</v>
+        <v>0.0385104</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0357073</v>
+        <v>0.0347919</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0560798</v>
+        <v>0.0562039</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0369749</v>
+        <v>0.0362707</v>
       </c>
       <c r="D85" t="n">
-        <v>0.130919</v>
+        <v>0.130882</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0399278</v>
+        <v>0.0392752</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0362421</v>
+        <v>0.03534</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0563283</v>
+        <v>0.0563245</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0376971</v>
+        <v>0.0370676</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136541</v>
+        <v>0.136797</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0407412</v>
+        <v>0.0401942</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0370654</v>
+        <v>0.0359442</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0565784</v>
+        <v>0.0565086</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0381432</v>
+        <v>0.0375017</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142168</v>
+        <v>0.142005</v>
       </c>
       <c r="E87" t="n">
-        <v>0.041701</v>
+        <v>0.0418463</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0380314</v>
+        <v>0.0370157</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0567453</v>
+        <v>0.0568714</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0388631</v>
+        <v>0.0381872</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148846</v>
+        <v>0.148133</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0426602</v>
+        <v>0.0421743</v>
       </c>
       <c r="F88" t="n">
-        <v>0.039122</v>
+        <v>0.0382924</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0573157</v>
+        <v>0.0573452</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0398705</v>
+        <v>0.0394133</v>
       </c>
       <c r="D89" t="n">
-        <v>0.154498</v>
+        <v>0.154055</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0437215</v>
+        <v>0.0431412</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0404906</v>
+        <v>0.0394748</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0580609</v>
+        <v>0.0581353</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0412121</v>
+        <v>0.0406772</v>
       </c>
       <c r="D90" t="n">
-        <v>0.160222</v>
+        <v>0.160293</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0451524</v>
+        <v>0.0444784</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0423647</v>
+        <v>0.0413795</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0592961</v>
+        <v>0.0593244</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0433207</v>
+        <v>0.0429436</v>
       </c>
       <c r="D91" t="n">
-        <v>0.166046</v>
+        <v>0.1656</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0469514</v>
+        <v>0.0463386</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0449468</v>
+        <v>0.0440665</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0625092</v>
+        <v>0.0608368</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0462909</v>
+        <v>0.0457928</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145196</v>
+        <v>0.145316</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0495691</v>
+        <v>0.0490187</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0483391</v>
+        <v>0.0476276</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0635252</v>
+        <v>0.0635455</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0503342</v>
+        <v>0.0498285</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148704</v>
+        <v>0.14944</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0538529</v>
+        <v>0.053211</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0538319</v>
+        <v>0.0529288</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0674845</v>
+        <v>0.0672671</v>
       </c>
       <c r="C94" t="n">
-        <v>0.055898</v>
+        <v>0.0556349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.152212</v>
+        <v>0.15257</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0712166</v>
+        <v>0.07131079999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0675278</v>
+        <v>0.0678566</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0858635</v>
+        <v>0.0856696</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07237730000000001</v>
+        <v>0.0724134</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156848</v>
+        <v>0.157369</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07166980000000001</v>
+        <v>0.0717073</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0678626</v>
+        <v>0.0683542</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0858466</v>
+        <v>0.085798</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0725039</v>
+        <v>0.0727468</v>
       </c>
       <c r="D96" t="n">
-        <v>0.160994</v>
+        <v>0.16699</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0722246</v>
+        <v>0.072211</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0683686</v>
+        <v>0.0687687</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08594830000000001</v>
+        <v>0.08584170000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0725155</v>
+        <v>0.07264669999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.165697</v>
+        <v>0.165878</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07270119999999999</v>
+        <v>0.0726113</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06895560000000001</v>
+        <v>0.0692149</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0860737</v>
+        <v>0.0946623</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0726778</v>
+        <v>0.07309350000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.170547</v>
+        <v>0.170211</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0733443</v>
+        <v>0.0732782</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0694845</v>
+        <v>0.06982289999999999</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.08599519999999999</v>
+        <v>0.0860267</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0729476</v>
+        <v>0.07331260000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.176788</v>
+        <v>0.17493</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0739445</v>
+        <v>0.0737569</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0701137</v>
+        <v>0.0704558</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08623550000000001</v>
+        <v>0.0862479</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0736357</v>
+        <v>0.07370350000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.184114</v>
+        <v>0.181576</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07460410000000001</v>
+        <v>0.0744731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0707759</v>
+        <v>0.0711565</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08644839999999999</v>
+        <v>0.0863598</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07392020000000001</v>
+        <v>0.074169</v>
       </c>
       <c r="D101" t="n">
-        <v>0.186699</v>
+        <v>0.186575</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0753916</v>
+        <v>0.0791014</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0714465</v>
+        <v>0.0718743</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08668720000000001</v>
+        <v>0.08658979999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0746472</v>
+        <v>0.08049539999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.192517</v>
+        <v>0.192778</v>
       </c>
       <c r="E102" t="n">
-        <v>0.07617309999999999</v>
+        <v>0.07606640000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>0.07251929999999999</v>
+        <v>0.07291499999999999</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0871318</v>
+        <v>0.08710130000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0817128</v>
+        <v>0.0753413</v>
       </c>
       <c r="D103" t="n">
-        <v>0.198674</v>
+        <v>0.198374</v>
       </c>
       <c r="E103" t="n">
-        <v>0.07721799999999999</v>
+        <v>0.07698960000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>0.07375669999999999</v>
+        <v>0.0741264</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.08768479999999999</v>
+        <v>0.0876503</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0766187</v>
+        <v>0.0765979</v>
       </c>
       <c r="D104" t="n">
-        <v>0.204578</v>
+        <v>0.203864</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0785044</v>
+        <v>0.07832069999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07528120000000001</v>
+        <v>0.0754739</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.08846229999999999</v>
+        <v>0.08829910000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07822369999999999</v>
+        <v>0.07815419999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.210952</v>
+        <v>0.210232</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08011500000000001</v>
+        <v>0.07998860000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.07744189999999999</v>
+        <v>0.0776536</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08980399999999999</v>
+        <v>0.0897329</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0804243</v>
+        <v>0.080663</v>
       </c>
       <c r="D106" t="n">
-        <v>0.216782</v>
+        <v>0.216501</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0823446</v>
+        <v>0.0824102</v>
       </c>
       <c r="F106" t="n">
-        <v>0.08055669999999999</v>
+        <v>0.0807662</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0917149</v>
+        <v>0.0916593</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0840158</v>
+        <v>0.0842242</v>
       </c>
       <c r="D107" t="n">
-        <v>0.183377</v>
+        <v>0.18384</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0859188</v>
+        <v>0.086135</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0853208</v>
+        <v>0.0855307</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0996243</v>
+        <v>0.0950164</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0889639</v>
+        <v>0.0889837</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186529</v>
+        <v>0.185989</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0887313</v>
+        <v>0.0885875</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09265180000000001</v>
+        <v>0.0931884</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.100046</v>
+        <v>0.0999602</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0957566</v>
+        <v>0.0963673</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18994</v>
+        <v>0.189437</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0917091</v>
+        <v>0.0892645</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09316000000000001</v>
+        <v>0.09362239999999999</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.107675</v>
+        <v>0.107076</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09821489999999999</v>
+        <v>0.0978743</v>
       </c>
       <c r="D110" t="n">
-        <v>0.194392</v>
+        <v>0.194077</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0901898</v>
+        <v>0.0901513</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0938741</v>
+        <v>0.09416140000000001</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.107823</v>
+        <v>0.10732</v>
       </c>
       <c r="C111" t="n">
-        <v>0.09852130000000001</v>
+        <v>0.098205</v>
       </c>
       <c r="D111" t="n">
-        <v>0.197712</v>
+        <v>0.198508</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0911742</v>
+        <v>0.0909078</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0944344</v>
+        <v>0.0948185</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.107811</v>
+        <v>0.107327</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0986046</v>
+        <v>0.0983356</v>
       </c>
       <c r="D112" t="n">
-        <v>0.205568</v>
+        <v>0.203295</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0921323</v>
+        <v>0.0918509</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0950638</v>
+        <v>0.0954755</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.108055</v>
+        <v>0.107461</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0988907</v>
+        <v>0.0986687</v>
       </c>
       <c r="D113" t="n">
-        <v>0.208002</v>
+        <v>0.207968</v>
       </c>
       <c r="E113" t="n">
-        <v>0.09312280000000001</v>
+        <v>0.09270879999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>0.095739</v>
+        <v>0.09616</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.108159</v>
+        <v>0.107605</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09905940000000001</v>
+        <v>0.0988465</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2133</v>
+        <v>0.214608</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0941819</v>
+        <v>0.0938519</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0965071</v>
+        <v>0.09692969999999999</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.108329</v>
+        <v>0.108049</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0997253</v>
+        <v>0.100036</v>
       </c>
       <c r="D115" t="n">
-        <v>0.219215</v>
+        <v>0.21902</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0953483</v>
+        <v>0.09486120000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0976867</v>
+        <v>0.09786930000000001</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108613</v>
+        <v>0.108709</v>
       </c>
       <c r="C116" t="n">
-        <v>0.100272</v>
+        <v>0.100197</v>
       </c>
       <c r="D116" t="n">
-        <v>0.224911</v>
+        <v>0.224588</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0966095</v>
+        <v>0.0965317</v>
       </c>
       <c r="F116" t="n">
-        <v>0.09874960000000001</v>
+        <v>0.0990655</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.108984</v>
+        <v>0.109354</v>
       </c>
       <c r="C117" t="n">
-        <v>0.101006</v>
+        <v>0.100953</v>
       </c>
       <c r="D117" t="n">
-        <v>0.230728</v>
+        <v>0.231445</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09801609999999999</v>
+        <v>0.0974768</v>
       </c>
       <c r="F117" t="n">
-        <v>0.100115</v>
+        <v>0.100432</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.109566</v>
+        <v>0.110394</v>
       </c>
       <c r="C118" t="n">
-        <v>0.101961</v>
+        <v>0.101804</v>
       </c>
       <c r="D118" t="n">
-        <v>0.236894</v>
+        <v>0.236137</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0997537</v>
+        <v>0.09920610000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>0.101747</v>
+        <v>0.102107</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.110394</v>
+        <v>0.111332</v>
       </c>
       <c r="C119" t="n">
-        <v>0.103627</v>
+        <v>0.103418</v>
       </c>
       <c r="D119" t="n">
-        <v>0.242167</v>
+        <v>0.25544</v>
       </c>
       <c r="E119" t="n">
-        <v>0.101834</v>
+        <v>0.102446</v>
       </c>
       <c r="F119" t="n">
-        <v>0.104263</v>
+        <v>0.104511</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111699</v>
+        <v>0.112801</v>
       </c>
       <c r="C120" t="n">
-        <v>0.105671</v>
+        <v>0.105822</v>
       </c>
       <c r="D120" t="n">
-        <v>0.248862</v>
+        <v>0.248959</v>
       </c>
       <c r="E120" t="n">
-        <v>0.104486</v>
+        <v>0.104284</v>
       </c>
       <c r="F120" t="n">
-        <v>0.107353</v>
+        <v>0.107515</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.113593</v>
+        <v>0.116085</v>
       </c>
       <c r="C121" t="n">
-        <v>0.108524</v>
+        <v>0.108755</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200255</v>
+        <v>0.199819</v>
       </c>
       <c r="E121" t="n">
-        <v>0.108381</v>
+        <v>0.107478</v>
       </c>
       <c r="F121" t="n">
-        <v>0.112196</v>
+        <v>0.11205</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.116517</v>
+        <v>0.117824</v>
       </c>
       <c r="C122" t="n">
-        <v>0.113084</v>
+        <v>0.113344</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203803</v>
+        <v>0.202473</v>
       </c>
       <c r="E122" t="n">
-        <v>0.114456</v>
+        <v>0.113519</v>
       </c>
       <c r="F122" t="n">
-        <v>0.119501</v>
+        <v>0.119371</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12096</v>
+        <v>0.122617</v>
       </c>
       <c r="C123" t="n">
-        <v>0.119865</v>
+        <v>0.120253</v>
       </c>
       <c r="D123" t="n">
-        <v>0.206567</v>
+        <v>0.206809</v>
       </c>
       <c r="E123" t="n">
-        <v>0.107152</v>
+        <v>0.106457</v>
       </c>
       <c r="F123" t="n">
-        <v>0.110257</v>
+        <v>0.109823</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.13612</v>
+        <v>0.141474</v>
       </c>
       <c r="C124" t="n">
-        <v>0.129436</v>
+        <v>0.129651</v>
       </c>
       <c r="D124" t="n">
-        <v>0.21131</v>
+        <v>0.210421</v>
       </c>
       <c r="E124" t="n">
-        <v>0.107326</v>
+        <v>0.107452</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110834</v>
+        <v>0.110499</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.135415</v>
+        <v>0.141478</v>
       </c>
       <c r="C125" t="n">
-        <v>0.129512</v>
+        <v>0.129764</v>
       </c>
       <c r="D125" t="n">
-        <v>0.214931</v>
+        <v>0.214102</v>
       </c>
       <c r="E125" t="n">
-        <v>0.108393</v>
+        <v>0.108582</v>
       </c>
       <c r="F125" t="n">
-        <v>0.111469</v>
+        <v>0.11119</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.134815</v>
+        <v>0.141317</v>
       </c>
       <c r="C126" t="n">
-        <v>0.129676</v>
+        <v>0.129839</v>
       </c>
       <c r="D126" t="n">
-        <v>0.219134</v>
+        <v>0.218825</v>
       </c>
       <c r="E126" t="n">
-        <v>0.109518</v>
+        <v>0.109635</v>
       </c>
       <c r="F126" t="n">
-        <v>0.112195</v>
+        <v>0.112029</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.135488</v>
+        <v>0.148881</v>
       </c>
       <c r="C127" t="n">
-        <v>0.129931</v>
+        <v>0.130454</v>
       </c>
       <c r="D127" t="n">
-        <v>0.226151</v>
+        <v>0.223553</v>
       </c>
       <c r="E127" t="n">
-        <v>0.110698</v>
+        <v>0.110749</v>
       </c>
       <c r="F127" t="n">
-        <v>0.113184</v>
+        <v>0.112953</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.135401</v>
+        <v>0.141795</v>
       </c>
       <c r="C128" t="n">
-        <v>0.130335</v>
+        <v>0.130458</v>
       </c>
       <c r="D128" t="n">
-        <v>0.23007</v>
+        <v>0.236342</v>
       </c>
       <c r="E128" t="n">
-        <v>0.111908</v>
+        <v>0.112017</v>
       </c>
       <c r="F128" t="n">
-        <v>0.114416</v>
+        <v>0.11394</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.13618</v>
+        <v>0.141792</v>
       </c>
       <c r="C129" t="n">
-        <v>0.13095</v>
+        <v>0.131036</v>
       </c>
       <c r="D129" t="n">
-        <v>0.235601</v>
+        <v>0.23503</v>
       </c>
       <c r="E129" t="n">
-        <v>0.113296</v>
+        <v>0.113235</v>
       </c>
       <c r="F129" t="n">
-        <v>0.115553</v>
+        <v>0.115083</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.136517</v>
+        <v>0.142088</v>
       </c>
       <c r="C130" t="n">
-        <v>0.131606</v>
+        <v>0.131565</v>
       </c>
      